--- a/aitushow/code/doc/留存.xlsx
+++ b/aitushow/code/doc/留存.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="24165" windowHeight="11655"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24165" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="0002" sheetId="1" r:id="rId1"/>
     <sheet name="0003" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
   <si>
     <t>首用日期</t>
   </si>
@@ -47,14 +47,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,345 +87,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -439,251 +110,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -729,58 +158,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -802,7 +189,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -832,9 +219,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -852,11 +236,11 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.00723950131233596"/>
+                  <c:x val="7.2395013123359598E-3"/>
                   <c:y val="-0.64601086322543"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="G/通用格式" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -878,6 +262,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -901,17 +286,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="108348544"/>
-        <c:axId val="108349120"/>
+        <c:axId val="86231296"/>
+        <c:axId val="86231872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="108348544"/>
+        <c:axId val="86231296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="G/通用格式" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -943,14 +328,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108349120"/>
+        <c:crossAx val="86231872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="108349120"/>
+        <c:axId val="86231872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -1004,9 +390,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108348544"/>
+        <c:crossAx val="86231296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1022,7 +409,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1045,6 +431,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1074,6 +461,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1102,7 +490,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1132,9 +520,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1152,11 +537,11 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.00723950131233596"/>
+                  <c:x val="7.2395013123359598E-3"/>
                   <c:y val="-0.64601086322543"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="G/通用格式" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1178,6 +563,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1201,17 +587,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="108350848"/>
-        <c:axId val="108351424"/>
+        <c:axId val="86233600"/>
+        <c:axId val="86234176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="108350848"/>
+        <c:axId val="86233600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="G/通用格式" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1243,14 +629,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108351424"/>
+        <c:crossAx val="86234176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="108351424"/>
+        <c:axId val="86234176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -1304,9 +691,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108350848"/>
+        <c:crossAx val="86233600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1322,7 +710,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1345,6 +732,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1374,6 +762,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1402,7 +791,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1432,9 +821,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1452,11 +838,11 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.00723950131233596"/>
+                  <c:x val="7.2395013123359598E-3"/>
                   <c:y val="-0.64601086322543"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="G/通用格式" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1478,6 +864,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1501,17 +888,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="108353152"/>
-        <c:axId val="108353728"/>
+        <c:axId val="86235904"/>
+        <c:axId val="86236480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="108353152"/>
+        <c:axId val="86235904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="G/通用格式" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1543,14 +930,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108353728"/>
+        <c:crossAx val="86236480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="108353728"/>
+        <c:axId val="86236480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -1604,9 +992,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108353152"/>
+        <c:crossAx val="86235904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1622,7 +1011,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1645,6 +1033,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1674,6 +1063,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1702,7 +1092,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1732,9 +1122,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1752,11 +1139,11 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.00723950131233596"/>
+                  <c:x val="7.2395013123359598E-3"/>
                   <c:y val="-0.64601086322543"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="G/通用格式" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1778,6 +1165,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1801,17 +1189,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="114565120"/>
-        <c:axId val="114565696"/>
+        <c:axId val="60515456"/>
+        <c:axId val="60516032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="114565120"/>
+        <c:axId val="60515456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="G/通用格式" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1843,14 +1231,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114565696"/>
+        <c:crossAx val="60516032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="114565696"/>
+        <c:axId val="60516032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -1904,9 +1293,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114565120"/>
+        <c:crossAx val="60515456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1922,7 +1312,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1945,6 +1334,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1974,6 +1364,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2002,7 +1393,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2032,9 +1423,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2052,11 +1440,11 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.00723950131233596"/>
+                  <c:x val="7.2395013123359598E-3"/>
                   <c:y val="-0.64601086322543"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="G/通用格式" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -2078,6 +1466,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2101,17 +1490,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="114567424"/>
-        <c:axId val="114568000"/>
+        <c:axId val="60517760"/>
+        <c:axId val="60518336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="114567424"/>
+        <c:axId val="60517760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="G/通用格式" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2143,14 +1532,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114568000"/>
+        <c:crossAx val="60518336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="114568000"/>
+        <c:axId val="60518336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -2204,9 +1594,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114567424"/>
+        <c:crossAx val="60517760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2222,7 +1613,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2245,6 +1635,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2274,6 +1665,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2302,7 +1694,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2332,9 +1724,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2352,11 +1741,11 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.00723950131233596"/>
+                  <c:x val="7.2395013123359598E-3"/>
                   <c:y val="-0.64601086322543"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="G/通用格式" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -2378,6 +1767,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2401,17 +1791,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="114569728"/>
-        <c:axId val="114570304"/>
+        <c:axId val="60520064"/>
+        <c:axId val="60520640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="114569728"/>
+        <c:axId val="60520064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="G/通用格式" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2443,14 +1833,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114570304"/>
+        <c:crossAx val="60520640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="114570304"/>
+        <c:axId val="60520640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -2504,9 +1895,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114569728"/>
+        <c:crossAx val="60520064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2522,7 +1914,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2545,6 +1936,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2574,6 +1966,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2602,7 +1995,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2632,9 +2025,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2652,11 +2042,11 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.00723950131233596"/>
+                  <c:x val="7.2395013123359598E-3"/>
                   <c:y val="-0.64601086322543"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="G/通用格式" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -2678,24 +2068,34 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>'0003'!$E$10:$G$10</c:f>
+              <c:f>'0002'!$E$15:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.335345405767941</c:v>
+                  <c:v>0.10859301227573183</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.175050301810865</c:v>
+                  <c:v>4.9102927289896126E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15962441314554</c:v>
+                  <c:v>3.8715769593956562E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2105760151085933E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8328611898016998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8328611898016998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2710,17 +2110,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="89141760"/>
-        <c:axId val="89142336"/>
+        <c:axId val="60333376"/>
+        <c:axId val="106697216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89141760"/>
+        <c:axId val="60333376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="G/通用格式" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2752,14 +2152,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89142336"/>
+        <c:crossAx val="106697216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89142336"/>
+        <c:axId val="106697216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -2813,9 +2214,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89141760"/>
+        <c:crossAx val="60333376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2854,6 +2256,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2883,6 +2286,318 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.2395013123359598E-3"/>
+                  <c:y val="-0.64601086322543"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="G/通用格式" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0003'!$E$10:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.33534540576794097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1750503018108652</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15962441314553991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="106692608"/>
+        <c:axId val="106693184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="106692608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="G/通用格式" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="106693184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="106693184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="106692608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:tint val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2894,7 +2609,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -2908,14 +2623,14 @@
       <xdr:row>284</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="704850" y="46682025"/>
-        <a:ext cx="7667625" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2938,14 +2653,14 @@
       <xdr:row>284</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9439275" y="46682025"/>
-        <a:ext cx="7667625" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2968,14 +2683,14 @@
       <xdr:row>304</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="图表 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="704850" y="50111025"/>
-        <a:ext cx="7667625" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2998,14 +2713,14 @@
       <xdr:row>304</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="图表 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9439275" y="50111025"/>
-        <a:ext cx="7667625" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3028,14 +2743,14 @@
       <xdr:row>325</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="图表 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="704850" y="53711475"/>
-        <a:ext cx="7667625" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3058,14 +2773,14 @@
       <xdr:row>324</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="7" name="图表 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9505950" y="53673375"/>
-        <a:ext cx="7667625" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3075,11 +2790,43 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="图表 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3093,14 +2840,14 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="图表 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="600075" y="3829050"/>
-        <a:ext cx="5924550" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3399,15 +3146,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV330"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:J8"/>
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="2" max="2" width="10.75" customWidth="1"/>
@@ -3415,7 +3161,7 @@
     <col min="4" max="8" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:10">
+    <row r="1" spans="1:100" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3447,7 +3193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:100">
+    <row r="2" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A2" s="12">
         <v>42548</v>
       </c>
@@ -3569,7 +3315,7 @@
       <c r="CU2" s="3"/>
       <c r="CV2" s="3"/>
     </row>
-    <row r="3" spans="1:99">
+    <row r="3" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A3" s="12">
         <v>42549</v>
       </c>
@@ -3688,7 +3434,7 @@
       <c r="CT3" s="3"/>
       <c r="CU3" s="3"/>
     </row>
-    <row r="4" spans="1:98">
+    <row r="4" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A4" s="12">
         <v>42550</v>
       </c>
@@ -3804,7 +3550,7 @@
       <c r="CS4" s="3"/>
       <c r="CT4" s="3"/>
     </row>
-    <row r="5" spans="1:97">
+    <row r="5" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>42551</v>
       </c>
@@ -3917,7 +3663,7 @@
       <c r="CR5" s="3"/>
       <c r="CS5" s="3"/>
     </row>
-    <row r="6" spans="1:96">
+    <row r="6" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>42552</v>
       </c>
@@ -4027,7 +3773,7 @@
       <c r="CQ6" s="3"/>
       <c r="CR6" s="3"/>
     </row>
-    <row r="7" spans="1:95">
+    <row r="7" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>42553</v>
       </c>
@@ -4134,7 +3880,7 @@
       <c r="CP7" s="3"/>
       <c r="CQ7" s="3"/>
     </row>
-    <row r="8" spans="1:94">
+    <row r="8" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>42554</v>
       </c>
@@ -4238,7 +3984,7 @@
       <c r="CO8" s="3"/>
       <c r="CP8" s="3"/>
     </row>
-    <row r="9" spans="1:93">
+    <row r="9" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -4333,7 +4079,7 @@
       <c r="CN9" s="3"/>
       <c r="CO9" s="3"/>
     </row>
-    <row r="10" spans="1:92">
+    <row r="10" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4427,7 +4173,7 @@
       <c r="CM10" s="3"/>
       <c r="CN10" s="3"/>
     </row>
-    <row r="11" spans="1:91">
+    <row r="11" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4520,7 +4266,7 @@
       <c r="CL11" s="3"/>
       <c r="CM11" s="3"/>
     </row>
-    <row r="12" spans="1:90">
+    <row r="12" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -4612,7 +4358,7 @@
       <c r="CK12" s="3"/>
       <c r="CL12" s="3"/>
     </row>
-    <row r="13" spans="1:89">
+    <row r="13" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4703,17 +4449,37 @@
       <c r="CJ13" s="3"/>
       <c r="CK13" s="3"/>
     </row>
-    <row r="14" spans="1:88">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+    <row r="14" spans="1:100" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>6</v>
+      </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -4793,17 +4559,44 @@
       <c r="CI14" s="3"/>
       <c r="CJ14" s="3"/>
     </row>
-    <row r="15" spans="1:87">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+    <row r="15" spans="1:100" x14ac:dyDescent="0.15">
+      <c r="A15" s="12">
+        <v>42548</v>
+      </c>
+      <c r="B15" s="13">
+        <v>361</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1059</v>
+      </c>
+      <c r="D15" s="5">
+        <f>D2/$C2</f>
+        <v>0.43909348441926344</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" ref="E15:J15" si="0">E2/$C2</f>
+        <v>0.10859301227573183</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="0"/>
+        <v>4.9102927289896126E-2</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="0"/>
+        <v>3.8715769593956562E-2</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="0"/>
+        <v>3.2105760151085933E-2</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="0"/>
+        <v>2.8328611898016998E-2</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="0"/>
+        <v>2.8328611898016998E-2</v>
+      </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -4882,17 +4675,44 @@
       <c r="CH15" s="3"/>
       <c r="CI15" s="3"/>
     </row>
-    <row r="16" spans="1:86">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+    <row r="16" spans="1:100" x14ac:dyDescent="0.15">
+      <c r="A16" s="12">
+        <v>42549</v>
+      </c>
+      <c r="B16" s="13">
+        <v>2310</v>
+      </c>
+      <c r="C16" s="13">
+        <v>6313</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" ref="D16:J16" si="1">D3/$C3</f>
+        <v>0.41786789165214638</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="1"/>
+        <v>8.6488198954538256E-2</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="1"/>
+        <v>4.5620148899097102E-2</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="1"/>
+        <v>3.65911610961508E-2</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="1"/>
+        <v>2.2493267859971487E-2</v>
+      </c>
+      <c r="I16" s="5">
+        <f>I3/$C3</f>
+        <v>1.980041184856645E-2</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -4970,17 +4790,44 @@
       <c r="CG16" s="3"/>
       <c r="CH16" s="3"/>
     </row>
-    <row r="17" spans="1:85">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+    <row r="17" spans="1:85" x14ac:dyDescent="0.15">
+      <c r="A17" s="12">
+        <v>42550</v>
+      </c>
+      <c r="B17" s="13">
+        <v>2422</v>
+      </c>
+      <c r="C17" s="13">
+        <v>5646</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" ref="D17:J17" si="2">D4/$C4</f>
+        <v>0.40347148423662771</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="2"/>
+        <v>8.5193057031526742E-2</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="2"/>
+        <v>4.9769748494509387E-2</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="2"/>
+        <v>3.4891958908962094E-2</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="2"/>
+        <v>2.6921714488133193E-2</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -5057,17 +4904,44 @@
       <c r="CF17" s="3"/>
       <c r="CG17" s="3"/>
     </row>
-    <row r="18" spans="1:84">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+    <row r="18" spans="1:85" x14ac:dyDescent="0.15">
+      <c r="A18" s="12">
+        <v>42551</v>
+      </c>
+      <c r="B18" s="13">
+        <v>2538</v>
+      </c>
+      <c r="C18" s="13">
+        <v>5390</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" ref="D18:J18" si="3">D5/$C5</f>
+        <v>0.40111317254174395</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="3"/>
+        <v>8.3673469387755106E-2</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="3"/>
+        <v>3.7105751391465679E-2</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="3"/>
+        <v>2.7829313543599257E-2</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -5143,17 +5017,44 @@
       <c r="CE18" s="3"/>
       <c r="CF18" s="3"/>
     </row>
-    <row r="19" spans="1:83">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+    <row r="19" spans="1:85" x14ac:dyDescent="0.15">
+      <c r="A19" s="12">
+        <v>42552</v>
+      </c>
+      <c r="B19" s="13">
+        <v>2712</v>
+      </c>
+      <c r="C19" s="13">
+        <v>5057</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" ref="D19:J19" si="4">D6/$C6</f>
+        <v>0.40181926043108562</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="4"/>
+        <v>6.7431283369586717E-2</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="4"/>
+        <v>3.5989717223650387E-2</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -5228,17 +5129,44 @@
       <c r="CD19" s="3"/>
       <c r="CE19" s="3"/>
     </row>
-    <row r="20" spans="1:82">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+    <row r="20" spans="1:85" x14ac:dyDescent="0.15">
+      <c r="A20" s="12">
+        <v>42553</v>
+      </c>
+      <c r="B20" s="13">
+        <v>2851</v>
+      </c>
+      <c r="C20" s="13">
+        <v>6163</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" ref="D20:J20" si="5">D7/$C7</f>
+        <v>0.37189680350478665</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="5"/>
+        <v>7.4314457244848295E-2</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -5312,17 +5240,44 @@
       <c r="CC20" s="3"/>
       <c r="CD20" s="3"/>
     </row>
-    <row r="21" spans="1:81">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+    <row r="21" spans="1:85" x14ac:dyDescent="0.15">
+      <c r="A21" s="12">
+        <v>42554</v>
+      </c>
+      <c r="B21" s="13">
+        <v>2920</v>
+      </c>
+      <c r="C21" s="13">
+        <v>5674</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" ref="D21:J21" si="6">D8/$C8</f>
+        <v>0.35213253436728936</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -5395,7 +5350,7 @@
       <c r="CB21" s="3"/>
       <c r="CC21" s="3"/>
     </row>
-    <row r="22" spans="1:80">
+    <row r="22" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5477,7 +5432,7 @@
       <c r="CA22" s="3"/>
       <c r="CB22" s="3"/>
     </row>
-    <row r="23" spans="1:79">
+    <row r="23" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5558,7 +5513,7 @@
       <c r="BZ23" s="3"/>
       <c r="CA23" s="3"/>
     </row>
-    <row r="24" spans="1:78">
+    <row r="24" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5638,7 +5593,7 @@
       <c r="BY24" s="3"/>
       <c r="BZ24" s="3"/>
     </row>
-    <row r="25" spans="1:77">
+    <row r="25" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5717,7 +5672,7 @@
       <c r="BX25" s="3"/>
       <c r="BY25" s="3"/>
     </row>
-    <row r="26" spans="1:76">
+    <row r="26" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5795,7 +5750,7 @@
       <c r="BW26" s="3"/>
       <c r="BX26" s="3"/>
     </row>
-    <row r="27" spans="1:75">
+    <row r="27" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5872,7 +5827,7 @@
       <c r="BV27" s="3"/>
       <c r="BW27" s="3"/>
     </row>
-    <row r="28" spans="1:74">
+    <row r="28" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5948,7 +5903,7 @@
       <c r="BU28" s="3"/>
       <c r="BV28" s="3"/>
     </row>
-    <row r="29" spans="1:73">
+    <row r="29" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6023,7 +5978,7 @@
       <c r="BT29" s="3"/>
       <c r="BU29" s="3"/>
     </row>
-    <row r="30" spans="1:72">
+    <row r="30" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6097,7 +6052,7 @@
       <c r="BS30" s="3"/>
       <c r="BT30" s="3"/>
     </row>
-    <row r="31" spans="1:71">
+    <row r="31" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -6170,7 +6125,7 @@
       <c r="BR31" s="3"/>
       <c r="BS31" s="3"/>
     </row>
-    <row r="32" spans="1:70">
+    <row r="32" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -6242,7 +6197,7 @@
       <c r="BQ32" s="3"/>
       <c r="BR32" s="3"/>
     </row>
-    <row r="33" spans="1:69">
+    <row r="33" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6313,7 +6268,7 @@
       <c r="BP33" s="3"/>
       <c r="BQ33" s="3"/>
     </row>
-    <row r="34" spans="1:68">
+    <row r="34" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -6383,7 +6338,7 @@
       <c r="BO34" s="3"/>
       <c r="BP34" s="3"/>
     </row>
-    <row r="35" spans="1:67">
+    <row r="35" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6452,7 +6407,7 @@
       <c r="BN35" s="3"/>
       <c r="BO35" s="3"/>
     </row>
-    <row r="36" spans="1:66">
+    <row r="36" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6520,7 +6475,7 @@
       <c r="BM36" s="3"/>
       <c r="BN36" s="3"/>
     </row>
-    <row r="37" spans="1:65">
+    <row r="37" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6587,7 +6542,7 @@
       <c r="BL37" s="3"/>
       <c r="BM37" s="3"/>
     </row>
-    <row r="38" spans="1:64">
+    <row r="38" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -6653,7 +6608,7 @@
       <c r="BK38" s="3"/>
       <c r="BL38" s="3"/>
     </row>
-    <row r="39" spans="1:63">
+    <row r="39" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -6718,7 +6673,7 @@
       <c r="BJ39" s="3"/>
       <c r="BK39" s="3"/>
     </row>
-    <row r="40" spans="1:62">
+    <row r="40" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -6782,7 +6737,7 @@
       <c r="BI40" s="3"/>
       <c r="BJ40" s="3"/>
     </row>
-    <row r="41" spans="1:61">
+    <row r="41" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -6845,7 +6800,7 @@
       <c r="BH41" s="3"/>
       <c r="BI41" s="3"/>
     </row>
-    <row r="42" ht="14.25" spans="1:60">
+    <row r="42" spans="1:69" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="2"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -6904,7 +6859,7 @@
       <c r="BG42" s="3"/>
       <c r="BH42" s="3"/>
     </row>
-    <row r="43" ht="14.25" spans="1:59">
+    <row r="43" spans="1:69" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -6963,7 +6918,7 @@
       <c r="BF43" s="3"/>
       <c r="BG43" s="3"/>
     </row>
-    <row r="44" ht="14.25" spans="1:58">
+    <row r="44" spans="1:69" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="2"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -7022,7 +6977,7 @@
       <c r="BE44" s="3"/>
       <c r="BF44" s="3"/>
     </row>
-    <row r="45" ht="14.25" spans="1:57">
+    <row r="45" spans="1:69" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -7081,7 +7036,7 @@
       <c r="BD45" s="3"/>
       <c r="BE45" s="3"/>
     </row>
-    <row r="46" ht="14.25" spans="1:56">
+    <row r="46" spans="1:69" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -7139,7 +7094,7 @@
       <c r="BC46" s="3"/>
       <c r="BD46" s="3"/>
     </row>
-    <row r="47" ht="14.25" spans="1:55">
+    <row r="47" spans="1:69" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -7196,7 +7151,7 @@
       <c r="BB47" s="3"/>
       <c r="BC47" s="3"/>
     </row>
-    <row r="48" ht="14.25" spans="1:54">
+    <row r="48" spans="1:69" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -7252,7 +7207,7 @@
       <c r="BA48" s="3"/>
       <c r="BB48" s="3"/>
     </row>
-    <row r="49" ht="14.25" spans="1:53">
+    <row r="49" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -7307,7 +7262,7 @@
       <c r="AZ49" s="3"/>
       <c r="BA49" s="3"/>
     </row>
-    <row r="50" ht="14.25" spans="1:52">
+    <row r="50" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -7361,7 +7316,7 @@
       <c r="AY50" s="3"/>
       <c r="AZ50" s="3"/>
     </row>
-    <row r="51" ht="14.25" spans="1:51">
+    <row r="51" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -7414,7 +7369,7 @@
       <c r="AX51" s="3"/>
       <c r="AY51" s="3"/>
     </row>
-    <row r="52" ht="14.25" spans="1:50">
+    <row r="52" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -7466,10 +7421,13 @@
       <c r="AW52" s="3"/>
       <c r="AX52" s="3"/>
     </row>
-    <row r="53" ht="14.25" spans="1:49">
-      <c r="A53" s="2"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
+    <row r="53" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A53" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="D53" s="3"/>
       <c r="E53" s="15"/>
       <c r="F53" s="15"/>
@@ -7517,10 +7475,13 @@
       <c r="AV53" s="3"/>
       <c r="AW53" s="3"/>
     </row>
-    <row r="54" ht="14.25" spans="1:48">
-      <c r="A54" s="2"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
+    <row r="54" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="B54">
+        <v>-0.755</v>
+      </c>
       <c r="D54" s="3"/>
       <c r="E54" s="15"/>
       <c r="F54" s="15"/>
@@ -7567,10 +7528,7 @@
       <c r="AU54" s="15"/>
       <c r="AV54" s="3"/>
     </row>
-    <row r="55" ht="14.25" spans="1:47">
-      <c r="A55" s="2"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
+    <row r="55" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D55" s="3"/>
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
@@ -7616,10 +7574,7 @@
       <c r="AT55" s="15"/>
       <c r="AU55" s="15"/>
     </row>
-    <row r="56" ht="14.25" spans="1:46">
-      <c r="A56" s="2"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
+    <row r="56" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D56" s="3"/>
       <c r="E56" s="15"/>
       <c r="F56" s="15"/>
@@ -7664,10 +7619,15 @@
       <c r="AS56" s="15"/>
       <c r="AT56" s="15"/>
     </row>
-    <row r="57" ht="14.25" spans="1:46">
-      <c r="A57" s="2"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
+    <row r="57" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <f>AVERAGE(A54:A56)</f>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="B57">
+        <f>AVERAGE(B54:B56)</f>
+        <v>-0.755</v>
+      </c>
       <c r="D57" s="3"/>
       <c r="E57" s="15"/>
       <c r="F57" s="15"/>
@@ -7712,10 +7672,7 @@
       <c r="AS57" s="15"/>
       <c r="AT57" s="15"/>
     </row>
-    <row r="58" ht="14.25" spans="1:46">
-      <c r="A58" s="2"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
+    <row r="58" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D58" s="3"/>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
@@ -7760,10 +7717,7 @@
       <c r="AS58" s="15"/>
       <c r="AT58" s="15"/>
     </row>
-    <row r="59" ht="14.25" spans="1:46">
-      <c r="A59" s="2"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
+    <row r="59" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D59" s="3"/>
       <c r="E59" s="15"/>
       <c r="F59" s="15"/>
@@ -7808,10 +7762,7 @@
       <c r="AS59" s="15"/>
       <c r="AT59" s="15"/>
     </row>
-    <row r="60" ht="14.25" spans="1:46">
-      <c r="A60" s="2"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
+    <row r="60" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D60" s="3"/>
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
@@ -7856,10 +7807,16 @@
       <c r="AS60" s="15"/>
       <c r="AT60" s="15"/>
     </row>
-    <row r="61" ht="14.25" spans="1:59">
-      <c r="A61" s="2"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
+    <row r="61" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
       <c r="D61" s="3"/>
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
@@ -7917,10 +7874,18 @@
       <c r="BF61" s="15"/>
       <c r="BG61" s="15"/>
     </row>
-    <row r="62" ht="14.25" spans="1:46">
-      <c r="A62" s="2"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
+    <row r="62" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <f>A$57*A62^B$57</f>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="C62">
+        <f>A$57/(B$57+1)*A62^(B$57+1)</f>
+        <v>0.39183673469387759</v>
+      </c>
       <c r="D62" s="3"/>
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
@@ -7965,10 +7930,18 @@
       <c r="AS62" s="15"/>
       <c r="AT62" s="15"/>
     </row>
-    <row r="63" ht="14.25" spans="1:58">
-      <c r="A63" s="2"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
+    <row r="63" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>7</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ref="B63:B66" si="7">A$57*A63^B$57</f>
+        <v>2.2091347785128768E-2</v>
+      </c>
+      <c r="C63">
+        <f t="shared" ref="C63:C66" si="8">A$57/(B$57+1)*A63^(B$57+1)</f>
+        <v>0.63118136528939339</v>
+      </c>
       <c r="D63" s="3"/>
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
@@ -8025,10 +7998,18 @@
       <c r="BE63" s="15"/>
       <c r="BF63" s="15"/>
     </row>
-    <row r="64" ht="14.25" spans="1:57">
-      <c r="A64" s="2"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
+    <row r="64" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>30</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="7"/>
+        <v>7.3628285171844941E-3</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="8"/>
+        <v>0.90157083883891764</v>
+      </c>
       <c r="D64" s="3"/>
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
@@ -8084,10 +8065,18 @@
       <c r="BD64" s="15"/>
       <c r="BE64" s="15"/>
     </row>
-    <row r="65" ht="14.25" spans="1:46">
-      <c r="A65" s="2"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
+    <row r="65" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>90</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="7"/>
+        <v>3.2123150942943365E-3</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="8"/>
+        <v>1.1800341162713888</v>
+      </c>
       <c r="D65" s="3"/>
       <c r="E65" s="15"/>
       <c r="F65" s="15"/>
@@ -8132,10 +8121,18 @@
       <c r="AS65" s="15"/>
       <c r="AT65" s="15"/>
     </row>
-    <row r="66" ht="14.25" spans="1:46">
-      <c r="A66" s="2"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
+    <row r="66" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>365</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="7"/>
+        <v>1.1161951223738842E-3</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="8"/>
+        <v>1.6629029374141537</v>
+      </c>
       <c r="D66" s="3"/>
       <c r="E66" s="15"/>
       <c r="F66" s="15"/>
@@ -8180,7 +8177,7 @@
       <c r="AS66" s="15"/>
       <c r="AT66" s="15"/>
     </row>
-    <row r="67" ht="14.25" spans="1:46">
+    <row r="67" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A67" s="2"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -8228,7 +8225,7 @@
       <c r="AS67" s="15"/>
       <c r="AT67" s="15"/>
     </row>
-    <row r="68" ht="14.25" spans="1:53">
+    <row r="68" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A68" s="2"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -8283,7 +8280,7 @@
       <c r="AZ68" s="15"/>
       <c r="BA68" s="15"/>
     </row>
-    <row r="69" ht="14.25" spans="1:46">
+    <row r="69" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A69" s="2"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -8331,7 +8328,7 @@
       <c r="AS69" s="15"/>
       <c r="AT69" s="15"/>
     </row>
-    <row r="70" ht="14.25" spans="1:46">
+    <row r="70" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A70" s="2"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -8379,7 +8376,7 @@
       <c r="AS70" s="15"/>
       <c r="AT70" s="15"/>
     </row>
-    <row r="71" ht="14.25" spans="1:46">
+    <row r="71" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A71" s="2"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -8427,7 +8424,7 @@
       <c r="AS71" s="15"/>
       <c r="AT71" s="15"/>
     </row>
-    <row r="72" ht="14.25" spans="1:49">
+    <row r="72" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A72" s="2"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -8478,7 +8475,7 @@
       <c r="AV72" s="15"/>
       <c r="AW72" s="15"/>
     </row>
-    <row r="73" ht="14.25" spans="1:46">
+    <row r="73" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A73" s="2"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -8526,7 +8523,7 @@
       <c r="AS73" s="15"/>
       <c r="AT73" s="15"/>
     </row>
-    <row r="74" ht="14.25" spans="1:47">
+    <row r="74" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A74" s="2"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -8575,7 +8572,7 @@
       <c r="AT74" s="15"/>
       <c r="AU74" s="15"/>
     </row>
-    <row r="75" ht="14.25" spans="1:46">
+    <row r="75" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A75" s="2"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -8623,7 +8620,7 @@
       <c r="AS75" s="15"/>
       <c r="AT75" s="15"/>
     </row>
-    <row r="76" ht="14.25" spans="1:46">
+    <row r="76" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A76" s="2"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -8671,7 +8668,7 @@
       <c r="AS76" s="15"/>
       <c r="AT76" s="15"/>
     </row>
-    <row r="77" ht="14.25" spans="1:46">
+    <row r="77" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A77" s="2"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -8719,7 +8716,7 @@
       <c r="AS77" s="15"/>
       <c r="AT77" s="15"/>
     </row>
-    <row r="78" ht="14.25" spans="1:46">
+    <row r="78" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A78" s="2"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -8767,7 +8764,7 @@
       <c r="AS78" s="15"/>
       <c r="AT78" s="15"/>
     </row>
-    <row r="79" ht="14.25" spans="1:46">
+    <row r="79" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A79" s="2"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -8815,7 +8812,7 @@
       <c r="AS79" s="15"/>
       <c r="AT79" s="15"/>
     </row>
-    <row r="80" ht="14.25" spans="1:46">
+    <row r="80" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A80" s="2"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -8863,7 +8860,7 @@
       <c r="AS80" s="15"/>
       <c r="AT80" s="15"/>
     </row>
-    <row r="81" ht="14.25" spans="1:46">
+    <row r="81" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A81" s="2"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -8911,7 +8908,7 @@
       <c r="AS81" s="15"/>
       <c r="AT81" s="15"/>
     </row>
-    <row r="82" ht="14.25" spans="1:46">
+    <row r="82" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="2"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -8959,7 +8956,7 @@
       <c r="AS82" s="15"/>
       <c r="AT82" s="15"/>
     </row>
-    <row r="83" ht="14.25" spans="1:46">
+    <row r="83" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A83" s="2"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -9007,7 +9004,7 @@
       <c r="AS83" s="15"/>
       <c r="AT83" s="15"/>
     </row>
-    <row r="84" ht="14.25" spans="1:46">
+    <row r="84" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A84" s="2"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -9055,7 +9052,7 @@
       <c r="AS84" s="15"/>
       <c r="AT84" s="15"/>
     </row>
-    <row r="85" ht="14.25" spans="1:46">
+    <row r="85" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A85" s="2"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -9096,7 +9093,7 @@
       <c r="AS85" s="15"/>
       <c r="AT85" s="15"/>
     </row>
-    <row r="86" ht="14.25" spans="1:46">
+    <row r="86" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A86" s="2"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -9144,7 +9141,7 @@
       <c r="AS86" s="15"/>
       <c r="AT86" s="15"/>
     </row>
-    <row r="87" ht="14.25" spans="1:34">
+    <row r="87" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A87" s="2"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -9180,7 +9177,7 @@
       <c r="AG87" s="15"/>
       <c r="AH87" s="15"/>
     </row>
-    <row r="88" ht="14.25" spans="1:33">
+    <row r="88" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A88" s="2"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -9215,7 +9212,7 @@
       <c r="AF88" s="15"/>
       <c r="AG88" s="15"/>
     </row>
-    <row r="89" ht="14.25" spans="1:32">
+    <row r="89" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A89" s="2"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -9249,7 +9246,7 @@
       <c r="AE89" s="15"/>
       <c r="AF89" s="15"/>
     </row>
-    <row r="90" ht="14.25" spans="1:31">
+    <row r="90" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A90" s="2"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -9282,7 +9279,7 @@
       <c r="AD90" s="15"/>
       <c r="AE90" s="15"/>
     </row>
-    <row r="91" ht="14.25" spans="1:30">
+    <row r="91" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A91" s="2"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -9314,7 +9311,7 @@
       <c r="AC91" s="15"/>
       <c r="AD91" s="15"/>
     </row>
-    <row r="92" ht="14.25" spans="1:29">
+    <row r="92" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A92" s="2"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -9345,7 +9342,7 @@
       <c r="AB92" s="15"/>
       <c r="AC92" s="15"/>
     </row>
-    <row r="93" ht="14.25" spans="1:28">
+    <row r="93" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A93" s="2"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -9375,7 +9372,7 @@
       <c r="AA93" s="15"/>
       <c r="AB93" s="15"/>
     </row>
-    <row r="94" ht="14.25" spans="1:27">
+    <row r="94" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A94" s="2"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -9404,7 +9401,7 @@
       <c r="Z94" s="15"/>
       <c r="AA94" s="15"/>
     </row>
-    <row r="95" ht="14.25" spans="1:26">
+    <row r="95" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A95" s="2"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -9432,7 +9429,7 @@
       <c r="Y95" s="15"/>
       <c r="Z95" s="15"/>
     </row>
-    <row r="96" ht="14.25" spans="1:25">
+    <row r="96" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A96" s="2"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -9459,7 +9456,7 @@
       <c r="X96" s="15"/>
       <c r="Y96" s="15"/>
     </row>
-    <row r="97" ht="14.25" spans="1:24">
+    <row r="97" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A97" s="2"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -9485,7 +9482,7 @@
       <c r="W97" s="15"/>
       <c r="X97" s="15"/>
     </row>
-    <row r="98" ht="14.25" spans="1:23">
+    <row r="98" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A98" s="2"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -9510,7 +9507,7 @@
       <c r="V98" s="15"/>
       <c r="W98" s="15"/>
     </row>
-    <row r="99" ht="14.25" spans="1:22">
+    <row r="99" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A99" s="2"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -9534,7 +9531,7 @@
       <c r="U99" s="15"/>
       <c r="V99" s="15"/>
     </row>
-    <row r="100" ht="14.25" spans="1:21">
+    <row r="100" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A100" s="2"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -9557,7 +9554,7 @@
       <c r="T100" s="15"/>
       <c r="U100" s="15"/>
     </row>
-    <row r="101" ht="14.25" spans="1:20">
+    <row r="101" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A101" s="2"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -9579,7 +9576,7 @@
       <c r="S101" s="15"/>
       <c r="T101" s="15"/>
     </row>
-    <row r="102" ht="14.25" spans="1:19">
+    <row r="102" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A102" s="2"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -9600,7 +9597,7 @@
       <c r="R102" s="15"/>
       <c r="S102" s="15"/>
     </row>
-    <row r="103" ht="14.25" spans="1:18">
+    <row r="103" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A103" s="2"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -9620,7 +9617,7 @@
       <c r="Q103" s="15"/>
       <c r="R103" s="15"/>
     </row>
-    <row r="104" ht="14.25" spans="1:17">
+    <row r="104" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A104" s="2"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -9639,7 +9636,7 @@
       <c r="P104" s="15"/>
       <c r="Q104" s="15"/>
     </row>
-    <row r="105" ht="14.25" spans="1:16">
+    <row r="105" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A105" s="2"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -9657,7 +9654,7 @@
       <c r="O105" s="15"/>
       <c r="P105" s="15"/>
     </row>
-    <row r="106" ht="14.25" spans="1:15">
+    <row r="106" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A106" s="2"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -9674,7 +9671,7 @@
       <c r="N106" s="15"/>
       <c r="O106" s="15"/>
     </row>
-    <row r="107" ht="14.25" spans="1:14">
+    <row r="107" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A107" s="2"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -9690,7 +9687,7 @@
       <c r="M107" s="15"/>
       <c r="N107" s="15"/>
     </row>
-    <row r="108" ht="14.25" spans="1:13">
+    <row r="108" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A108" s="2"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -9705,7 +9702,7 @@
       <c r="L108" s="15"/>
       <c r="M108" s="15"/>
     </row>
-    <row r="109" ht="14.25" spans="1:12">
+    <row r="109" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A109" s="2"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -9719,7 +9716,7 @@
       <c r="K109" s="15"/>
       <c r="L109" s="15"/>
     </row>
-    <row r="110" ht="14.25" spans="1:11">
+    <row r="110" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A110" s="2"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -9732,7 +9729,7 @@
       <c r="J110" s="15"/>
       <c r="K110" s="15"/>
     </row>
-    <row r="111" ht="14.25" spans="1:10">
+    <row r="111" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A111" s="2"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -9744,7 +9741,7 @@
       <c r="I111" s="15"/>
       <c r="J111" s="15"/>
     </row>
-    <row r="112" ht="14.25" spans="1:9">
+    <row r="112" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A112" s="2"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -9755,7 +9752,7 @@
       <c r="H112" s="15"/>
       <c r="I112" s="15"/>
     </row>
-    <row r="113" ht="14.25" spans="1:8">
+    <row r="113" spans="1:97" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A113" s="2"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -9765,7 +9762,7 @@
       <c r="G113" s="15"/>
       <c r="H113" s="15"/>
     </row>
-    <row r="114" ht="14.25" spans="1:7">
+    <row r="114" spans="1:97" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A114" s="2"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -9774,7 +9771,7 @@
       <c r="F114" s="15"/>
       <c r="G114" s="15"/>
     </row>
-    <row r="115" ht="14.25" spans="1:6">
+    <row r="115" spans="1:97" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A115" s="2"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -9782,74 +9779,74 @@
       <c r="E115" s="15"/>
       <c r="F115" s="15"/>
     </row>
-    <row r="116" ht="14.25" spans="1:5">
+    <row r="116" spans="1:97" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A116" s="2"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="15"/>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A117" s="2"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A118" s="2"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A119" s="2"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A120" s="2"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A121" s="2"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A122" s="2"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A123" s="2"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A124" s="2"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A125" s="2"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A126" s="2"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
     </row>
-    <row r="128" ht="14.25" spans="1:97">
+    <row r="128" spans="1:97" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -9902,7 +9899,7 @@
       <c r="CQ128" s="3"/>
       <c r="CS128" s="3"/>
     </row>
-    <row r="129" spans="1:95">
+    <row r="129" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A129" s="17"/>
       <c r="C129" s="3"/>
       <c r="D129" s="5"/>
@@ -9998,7 +9995,7 @@
       <c r="CP129" s="5"/>
       <c r="CQ129" s="5"/>
     </row>
-    <row r="130" spans="1:95">
+    <row r="130" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A130" s="17"/>
       <c r="C130" s="3"/>
       <c r="D130" s="5"/>
@@ -10094,7 +10091,7 @@
       <c r="CP130" s="5"/>
       <c r="CQ130" s="5"/>
     </row>
-    <row r="131" spans="1:95">
+    <row r="131" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A131" s="17"/>
       <c r="C131" s="3"/>
       <c r="D131" s="5"/>
@@ -10190,7 +10187,7 @@
       <c r="CP131" s="5"/>
       <c r="CQ131" s="5"/>
     </row>
-    <row r="132" spans="1:95">
+    <row r="132" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A132" s="17"/>
       <c r="C132" s="3"/>
       <c r="D132" s="5"/>
@@ -10286,7 +10283,7 @@
       <c r="CP132" s="5"/>
       <c r="CQ132" s="5"/>
     </row>
-    <row r="133" spans="1:95">
+    <row r="133" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A133" s="17"/>
       <c r="C133" s="3"/>
       <c r="D133" s="5"/>
@@ -10382,7 +10379,7 @@
       <c r="CP133" s="5"/>
       <c r="CQ133" s="5"/>
     </row>
-    <row r="134" spans="1:95">
+    <row r="134" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A134" s="17"/>
       <c r="C134" s="3"/>
       <c r="D134" s="5"/>
@@ -10478,7 +10475,7 @@
       <c r="CP134" s="5"/>
       <c r="CQ134" s="5"/>
     </row>
-    <row r="135" spans="1:95">
+    <row r="135" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A135" s="17"/>
       <c r="C135" s="3"/>
       <c r="D135" s="5"/>
@@ -10574,7 +10571,7 @@
       <c r="CP135" s="5"/>
       <c r="CQ135" s="5"/>
     </row>
-    <row r="136" spans="1:95">
+    <row r="136" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A136" s="17"/>
       <c r="C136" s="3"/>
       <c r="D136" s="5"/>
@@ -10670,7 +10667,7 @@
       <c r="CP136" s="5"/>
       <c r="CQ136" s="5"/>
     </row>
-    <row r="137" spans="1:95">
+    <row r="137" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A137" s="17"/>
       <c r="C137" s="3"/>
       <c r="D137" s="5"/>
@@ -10766,7 +10763,7 @@
       <c r="CP137" s="5"/>
       <c r="CQ137" s="5"/>
     </row>
-    <row r="138" spans="1:95">
+    <row r="138" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A138" s="17"/>
       <c r="C138" s="3"/>
       <c r="D138" s="5"/>
@@ -10862,7 +10859,7 @@
       <c r="CP138" s="5"/>
       <c r="CQ138" s="5"/>
     </row>
-    <row r="139" spans="1:95">
+    <row r="139" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A139" s="17"/>
       <c r="C139" s="3"/>
       <c r="D139" s="5"/>
@@ -10958,7 +10955,7 @@
       <c r="CP139" s="5"/>
       <c r="CQ139" s="5"/>
     </row>
-    <row r="140" spans="1:95">
+    <row r="140" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A140" s="17"/>
       <c r="C140" s="3"/>
       <c r="D140" s="5"/>
@@ -11054,7 +11051,7 @@
       <c r="CP140" s="5"/>
       <c r="CQ140" s="5"/>
     </row>
-    <row r="141" spans="1:95">
+    <row r="141" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A141" s="17"/>
       <c r="C141" s="3"/>
       <c r="D141" s="5"/>
@@ -11150,7 +11147,7 @@
       <c r="CP141" s="5"/>
       <c r="CQ141" s="5"/>
     </row>
-    <row r="142" spans="1:95">
+    <row r="142" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A142" s="17"/>
       <c r="C142" s="3"/>
       <c r="D142" s="5"/>
@@ -11246,7 +11243,7 @@
       <c r="CP142" s="5"/>
       <c r="CQ142" s="5"/>
     </row>
-    <row r="143" spans="1:95">
+    <row r="143" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A143" s="17"/>
       <c r="C143" s="3"/>
       <c r="D143" s="5"/>
@@ -11342,7 +11339,7 @@
       <c r="CP143" s="5"/>
       <c r="CQ143" s="5"/>
     </row>
-    <row r="144" spans="1:95">
+    <row r="144" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A144" s="17"/>
       <c r="C144" s="3"/>
       <c r="D144" s="5"/>
@@ -11438,7 +11435,7 @@
       <c r="CP144" s="5"/>
       <c r="CQ144" s="5"/>
     </row>
-    <row r="145" spans="1:95">
+    <row r="145" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A145" s="17"/>
       <c r="C145" s="3"/>
       <c r="D145" s="5"/>
@@ -11534,7 +11531,7 @@
       <c r="CP145" s="5"/>
       <c r="CQ145" s="5"/>
     </row>
-    <row r="146" spans="1:95">
+    <row r="146" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A146" s="17"/>
       <c r="C146" s="3"/>
       <c r="D146" s="5"/>
@@ -11630,7 +11627,7 @@
       <c r="CP146" s="5"/>
       <c r="CQ146" s="5"/>
     </row>
-    <row r="147" spans="1:95">
+    <row r="147" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A147" s="17"/>
       <c r="C147" s="3"/>
       <c r="D147" s="5"/>
@@ -11726,7 +11723,7 @@
       <c r="CP147" s="5"/>
       <c r="CQ147" s="5"/>
     </row>
-    <row r="148" spans="1:95">
+    <row r="148" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A148" s="17"/>
       <c r="C148" s="3"/>
       <c r="D148" s="5"/>
@@ -11822,7 +11819,7 @@
       <c r="CP148" s="5"/>
       <c r="CQ148" s="5"/>
     </row>
-    <row r="149" spans="1:95">
+    <row r="149" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A149" s="17"/>
       <c r="C149" s="3"/>
       <c r="D149" s="5"/>
@@ -11918,7 +11915,7 @@
       <c r="CP149" s="5"/>
       <c r="CQ149" s="5"/>
     </row>
-    <row r="150" spans="1:95">
+    <row r="150" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A150" s="17"/>
       <c r="C150" s="3"/>
       <c r="D150" s="5"/>
@@ -12014,7 +12011,7 @@
       <c r="CP150" s="5"/>
       <c r="CQ150" s="5"/>
     </row>
-    <row r="151" spans="1:95">
+    <row r="151" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A151" s="17"/>
       <c r="C151" s="3"/>
       <c r="D151" s="5"/>
@@ -12110,7 +12107,7 @@
       <c r="CP151" s="5"/>
       <c r="CQ151" s="5"/>
     </row>
-    <row r="152" spans="1:95">
+    <row r="152" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A152" s="17"/>
       <c r="C152" s="3"/>
       <c r="D152" s="5"/>
@@ -12206,7 +12203,7 @@
       <c r="CP152" s="5"/>
       <c r="CQ152" s="5"/>
     </row>
-    <row r="153" spans="1:95">
+    <row r="153" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A153" s="17"/>
       <c r="C153" s="3"/>
       <c r="D153" s="5"/>
@@ -12302,7 +12299,7 @@
       <c r="CP153" s="5"/>
       <c r="CQ153" s="5"/>
     </row>
-    <row r="154" spans="1:95">
+    <row r="154" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A154" s="17"/>
       <c r="C154" s="3"/>
       <c r="D154" s="5"/>
@@ -12398,7 +12395,7 @@
       <c r="CP154" s="5"/>
       <c r="CQ154" s="5"/>
     </row>
-    <row r="155" spans="1:95">
+    <row r="155" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A155" s="17"/>
       <c r="C155" s="3"/>
       <c r="D155" s="5"/>
@@ -12494,7 +12491,7 @@
       <c r="CP155" s="5"/>
       <c r="CQ155" s="5"/>
     </row>
-    <row r="156" spans="1:95">
+    <row r="156" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A156" s="17"/>
       <c r="C156" s="3"/>
       <c r="D156" s="5"/>
@@ -12590,7 +12587,7 @@
       <c r="CP156" s="5"/>
       <c r="CQ156" s="5"/>
     </row>
-    <row r="157" spans="1:95">
+    <row r="157" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A157" s="17"/>
       <c r="C157" s="3"/>
       <c r="D157" s="5"/>
@@ -12686,7 +12683,7 @@
       <c r="CP157" s="5"/>
       <c r="CQ157" s="5"/>
     </row>
-    <row r="158" spans="1:95">
+    <row r="158" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A158" s="17"/>
       <c r="C158" s="3"/>
       <c r="D158" s="5"/>
@@ -12782,7 +12779,7 @@
       <c r="CP158" s="5"/>
       <c r="CQ158" s="5"/>
     </row>
-    <row r="159" spans="1:95">
+    <row r="159" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A159" s="17"/>
       <c r="C159" s="3"/>
       <c r="D159" s="5"/>
@@ -12878,7 +12875,7 @@
       <c r="CP159" s="5"/>
       <c r="CQ159" s="5"/>
     </row>
-    <row r="160" spans="1:95">
+    <row r="160" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A160" s="17"/>
       <c r="C160" s="3"/>
       <c r="D160" s="5"/>
@@ -12974,7 +12971,7 @@
       <c r="CP160" s="5"/>
       <c r="CQ160" s="5"/>
     </row>
-    <row r="161" spans="1:95">
+    <row r="161" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A161" s="17"/>
       <c r="C161" s="3"/>
       <c r="D161" s="5"/>
@@ -13070,7 +13067,7 @@
       <c r="CP161" s="5"/>
       <c r="CQ161" s="5"/>
     </row>
-    <row r="162" spans="1:95">
+    <row r="162" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A162" s="17"/>
       <c r="C162" s="3"/>
       <c r="D162" s="5"/>
@@ -13166,7 +13163,7 @@
       <c r="CP162" s="5"/>
       <c r="CQ162" s="5"/>
     </row>
-    <row r="163" spans="1:95">
+    <row r="163" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A163" s="17"/>
       <c r="C163" s="3"/>
       <c r="D163" s="5"/>
@@ -13262,7 +13259,7 @@
       <c r="CP163" s="5"/>
       <c r="CQ163" s="5"/>
     </row>
-    <row r="164" spans="1:95">
+    <row r="164" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A164" s="17"/>
       <c r="C164" s="3"/>
       <c r="D164" s="5"/>
@@ -13358,7 +13355,7 @@
       <c r="CP164" s="5"/>
       <c r="CQ164" s="5"/>
     </row>
-    <row r="165" spans="1:95">
+    <row r="165" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A165" s="17"/>
       <c r="C165" s="3"/>
       <c r="D165" s="5"/>
@@ -13454,7 +13451,7 @@
       <c r="CP165" s="5"/>
       <c r="CQ165" s="5"/>
     </row>
-    <row r="166" spans="1:95">
+    <row r="166" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A166" s="17"/>
       <c r="C166" s="3"/>
       <c r="D166" s="5"/>
@@ -13550,7 +13547,7 @@
       <c r="CP166" s="5"/>
       <c r="CQ166" s="5"/>
     </row>
-    <row r="167" spans="1:95">
+    <row r="167" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A167" s="17"/>
       <c r="C167" s="3"/>
       <c r="D167" s="5"/>
@@ -13646,7 +13643,7 @@
       <c r="CP167" s="5"/>
       <c r="CQ167" s="5"/>
     </row>
-    <row r="168" spans="1:95">
+    <row r="168" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A168" s="17"/>
       <c r="C168" s="3"/>
       <c r="D168" s="5"/>
@@ -13742,7 +13739,7 @@
       <c r="CP168" s="5"/>
       <c r="CQ168" s="5"/>
     </row>
-    <row r="169" spans="1:95">
+    <row r="169" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A169" s="17"/>
       <c r="C169" s="3"/>
       <c r="D169" s="5"/>
@@ -13838,7 +13835,7 @@
       <c r="CP169" s="5"/>
       <c r="CQ169" s="5"/>
     </row>
-    <row r="170" spans="1:95">
+    <row r="170" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A170" s="17"/>
       <c r="C170" s="3"/>
       <c r="D170" s="5"/>
@@ -13934,7 +13931,7 @@
       <c r="CP170" s="5"/>
       <c r="CQ170" s="5"/>
     </row>
-    <row r="171" spans="1:95">
+    <row r="171" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A171" s="17"/>
       <c r="C171" s="3"/>
       <c r="D171" s="5"/>
@@ -14030,7 +14027,7 @@
       <c r="CP171" s="5"/>
       <c r="CQ171" s="5"/>
     </row>
-    <row r="172" spans="1:95">
+    <row r="172" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A172" s="17"/>
       <c r="C172" s="3"/>
       <c r="D172" s="5"/>
@@ -14126,7 +14123,7 @@
       <c r="CP172" s="5"/>
       <c r="CQ172" s="5"/>
     </row>
-    <row r="173" spans="1:95">
+    <row r="173" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A173" s="17"/>
       <c r="C173" s="3"/>
       <c r="D173" s="5"/>
@@ -14222,7 +14219,7 @@
       <c r="CP173" s="5"/>
       <c r="CQ173" s="5"/>
     </row>
-    <row r="174" spans="1:95">
+    <row r="174" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A174" s="17"/>
       <c r="C174" s="3"/>
       <c r="D174" s="5"/>
@@ -14318,7 +14315,7 @@
       <c r="CP174" s="5"/>
       <c r="CQ174" s="5"/>
     </row>
-    <row r="175" spans="1:95">
+    <row r="175" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A175" s="17"/>
       <c r="C175" s="3"/>
       <c r="D175" s="5"/>
@@ -14414,7 +14411,7 @@
       <c r="CP175" s="5"/>
       <c r="CQ175" s="5"/>
     </row>
-    <row r="176" spans="1:95">
+    <row r="176" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A176" s="17"/>
       <c r="C176" s="3"/>
       <c r="D176" s="5"/>
@@ -14510,7 +14507,7 @@
       <c r="CP176" s="5"/>
       <c r="CQ176" s="5"/>
     </row>
-    <row r="177" spans="1:95">
+    <row r="177" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A177" s="17"/>
       <c r="C177" s="3"/>
       <c r="D177" s="5"/>
@@ -14606,7 +14603,7 @@
       <c r="CP177" s="5"/>
       <c r="CQ177" s="5"/>
     </row>
-    <row r="178" spans="1:95">
+    <row r="178" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A178" s="17"/>
       <c r="C178" s="3"/>
       <c r="D178" s="5"/>
@@ -14702,7 +14699,7 @@
       <c r="CP178" s="5"/>
       <c r="CQ178" s="5"/>
     </row>
-    <row r="179" spans="1:95">
+    <row r="179" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A179" s="17"/>
       <c r="C179" s="3"/>
       <c r="D179" s="5"/>
@@ -14798,7 +14795,7 @@
       <c r="CP179" s="5"/>
       <c r="CQ179" s="5"/>
     </row>
-    <row r="180" spans="1:95">
+    <row r="180" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A180" s="17"/>
       <c r="C180" s="3"/>
       <c r="D180" s="5"/>
@@ -14894,7 +14891,7 @@
       <c r="CP180" s="5"/>
       <c r="CQ180" s="5"/>
     </row>
-    <row r="181" spans="1:95">
+    <row r="181" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A181" s="17"/>
       <c r="C181" s="3"/>
       <c r="D181" s="5"/>
@@ -14990,7 +14987,7 @@
       <c r="CP181" s="5"/>
       <c r="CQ181" s="5"/>
     </row>
-    <row r="182" spans="1:95">
+    <row r="182" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A182" s="17"/>
       <c r="C182" s="3"/>
       <c r="D182" s="5"/>
@@ -15086,7 +15083,7 @@
       <c r="CP182" s="5"/>
       <c r="CQ182" s="5"/>
     </row>
-    <row r="183" spans="1:95">
+    <row r="183" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A183" s="17"/>
       <c r="C183" s="3"/>
       <c r="D183" s="5"/>
@@ -15182,7 +15179,7 @@
       <c r="CP183" s="5"/>
       <c r="CQ183" s="5"/>
     </row>
-    <row r="184" spans="1:95">
+    <row r="184" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A184" s="17"/>
       <c r="C184" s="3"/>
       <c r="D184" s="5"/>
@@ -15278,7 +15275,7 @@
       <c r="CP184" s="5"/>
       <c r="CQ184" s="5"/>
     </row>
-    <row r="185" spans="1:95">
+    <row r="185" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A185" s="17"/>
       <c r="C185" s="3"/>
       <c r="D185" s="5"/>
@@ -15374,7 +15371,7 @@
       <c r="CP185" s="5"/>
       <c r="CQ185" s="5"/>
     </row>
-    <row r="186" spans="1:95">
+    <row r="186" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A186" s="17"/>
       <c r="C186" s="3"/>
       <c r="D186" s="5"/>
@@ -15470,7 +15467,7 @@
       <c r="CP186" s="5"/>
       <c r="CQ186" s="5"/>
     </row>
-    <row r="187" spans="1:95">
+    <row r="187" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A187" s="17"/>
       <c r="C187" s="3"/>
       <c r="D187" s="5"/>
@@ -15566,7 +15563,7 @@
       <c r="CP187" s="5"/>
       <c r="CQ187" s="5"/>
     </row>
-    <row r="188" spans="1:95">
+    <row r="188" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A188" s="17"/>
       <c r="C188" s="3"/>
       <c r="D188" s="5"/>
@@ -15662,7 +15659,7 @@
       <c r="CP188" s="5"/>
       <c r="CQ188" s="5"/>
     </row>
-    <row r="189" spans="1:95">
+    <row r="189" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A189" s="17"/>
       <c r="C189" s="3"/>
       <c r="D189" s="5"/>
@@ -15758,7 +15755,7 @@
       <c r="CP189" s="5"/>
       <c r="CQ189" s="5"/>
     </row>
-    <row r="190" spans="1:95">
+    <row r="190" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A190" s="17"/>
       <c r="C190" s="3"/>
       <c r="D190" s="5"/>
@@ -15854,7 +15851,7 @@
       <c r="CP190" s="5"/>
       <c r="CQ190" s="5"/>
     </row>
-    <row r="191" spans="1:95">
+    <row r="191" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A191" s="17"/>
       <c r="C191" s="3"/>
       <c r="D191" s="5"/>
@@ -15950,7 +15947,7 @@
       <c r="CP191" s="5"/>
       <c r="CQ191" s="5"/>
     </row>
-    <row r="192" spans="1:95">
+    <row r="192" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A192" s="17"/>
       <c r="C192" s="3"/>
       <c r="D192" s="5"/>
@@ -16046,7 +16043,7 @@
       <c r="CP192" s="5"/>
       <c r="CQ192" s="5"/>
     </row>
-    <row r="193" spans="1:95">
+    <row r="193" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A193" s="17"/>
       <c r="C193" s="3"/>
       <c r="D193" s="5"/>
@@ -16142,7 +16139,7 @@
       <c r="CP193" s="5"/>
       <c r="CQ193" s="5"/>
     </row>
-    <row r="194" spans="1:95">
+    <row r="194" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A194" s="17"/>
       <c r="C194" s="3"/>
       <c r="D194" s="5"/>
@@ -16238,7 +16235,7 @@
       <c r="CP194" s="5"/>
       <c r="CQ194" s="5"/>
     </row>
-    <row r="195" spans="1:95">
+    <row r="195" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A195" s="17"/>
       <c r="C195" s="3"/>
       <c r="D195" s="5"/>
@@ -16334,7 +16331,7 @@
       <c r="CP195" s="5"/>
       <c r="CQ195" s="5"/>
     </row>
-    <row r="196" spans="1:95">
+    <row r="196" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A196" s="17"/>
       <c r="C196" s="3"/>
       <c r="D196" s="5"/>
@@ -16430,7 +16427,7 @@
       <c r="CP196" s="5"/>
       <c r="CQ196" s="5"/>
     </row>
-    <row r="197" spans="1:95">
+    <row r="197" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A197" s="17"/>
       <c r="C197" s="3"/>
       <c r="D197" s="5"/>
@@ -16526,7 +16523,7 @@
       <c r="CP197" s="5"/>
       <c r="CQ197" s="5"/>
     </row>
-    <row r="198" spans="1:95">
+    <row r="198" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A198" s="17"/>
       <c r="C198" s="3"/>
       <c r="D198" s="5"/>
@@ -16622,7 +16619,7 @@
       <c r="CP198" s="5"/>
       <c r="CQ198" s="5"/>
     </row>
-    <row r="199" spans="1:95">
+    <row r="199" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A199" s="17"/>
       <c r="C199" s="3"/>
       <c r="D199" s="5"/>
@@ -16718,7 +16715,7 @@
       <c r="CP199" s="5"/>
       <c r="CQ199" s="5"/>
     </row>
-    <row r="200" spans="1:95">
+    <row r="200" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A200" s="17"/>
       <c r="C200" s="3"/>
       <c r="D200" s="5"/>
@@ -16814,7 +16811,7 @@
       <c r="CP200" s="5"/>
       <c r="CQ200" s="5"/>
     </row>
-    <row r="201" spans="1:95">
+    <row r="201" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A201" s="17"/>
       <c r="C201" s="3"/>
       <c r="D201" s="5"/>
@@ -16910,7 +16907,7 @@
       <c r="CP201" s="5"/>
       <c r="CQ201" s="5"/>
     </row>
-    <row r="202" spans="1:95">
+    <row r="202" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A202" s="17"/>
       <c r="C202" s="3"/>
       <c r="D202" s="5"/>
@@ -17006,7 +17003,7 @@
       <c r="CP202" s="5"/>
       <c r="CQ202" s="5"/>
     </row>
-    <row r="203" spans="1:95">
+    <row r="203" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A203" s="17"/>
       <c r="C203" s="3"/>
       <c r="D203" s="5"/>
@@ -17102,7 +17099,7 @@
       <c r="CP203" s="5"/>
       <c r="CQ203" s="5"/>
     </row>
-    <row r="204" spans="1:95">
+    <row r="204" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A204" s="17"/>
       <c r="C204" s="3"/>
       <c r="D204" s="5"/>
@@ -17198,7 +17195,7 @@
       <c r="CP204" s="5"/>
       <c r="CQ204" s="5"/>
     </row>
-    <row r="205" spans="1:95">
+    <row r="205" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A205" s="17"/>
       <c r="C205" s="3"/>
       <c r="D205" s="5"/>
@@ -17294,7 +17291,7 @@
       <c r="CP205" s="5"/>
       <c r="CQ205" s="5"/>
     </row>
-    <row r="206" spans="1:95">
+    <row r="206" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A206" s="17"/>
       <c r="C206" s="3"/>
       <c r="D206" s="5"/>
@@ -17390,7 +17387,7 @@
       <c r="CP206" s="5"/>
       <c r="CQ206" s="5"/>
     </row>
-    <row r="207" spans="1:95">
+    <row r="207" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A207" s="17"/>
       <c r="C207" s="3"/>
       <c r="D207" s="5"/>
@@ -17486,7 +17483,7 @@
       <c r="CP207" s="5"/>
       <c r="CQ207" s="5"/>
     </row>
-    <row r="208" spans="1:95">
+    <row r="208" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A208" s="17"/>
       <c r="C208" s="3"/>
       <c r="D208" s="5"/>
@@ -17582,7 +17579,7 @@
       <c r="CP208" s="5"/>
       <c r="CQ208" s="5"/>
     </row>
-    <row r="209" spans="1:95">
+    <row r="209" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A209" s="17"/>
       <c r="C209" s="3"/>
       <c r="D209" s="5"/>
@@ -17678,7 +17675,7 @@
       <c r="CP209" s="5"/>
       <c r="CQ209" s="5"/>
     </row>
-    <row r="210" spans="1:95">
+    <row r="210" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A210" s="17"/>
       <c r="C210" s="3"/>
       <c r="D210" s="5"/>
@@ -17774,7 +17771,7 @@
       <c r="CP210" s="5"/>
       <c r="CQ210" s="5"/>
     </row>
-    <row r="211" spans="1:95">
+    <row r="211" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A211" s="17"/>
       <c r="C211" s="3"/>
       <c r="D211" s="5"/>
@@ -17870,7 +17867,7 @@
       <c r="CP211" s="5"/>
       <c r="CQ211" s="5"/>
     </row>
-    <row r="212" spans="1:95">
+    <row r="212" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A212" s="17"/>
       <c r="C212" s="3"/>
       <c r="D212" s="5"/>
@@ -17966,7 +17963,7 @@
       <c r="CP212" s="5"/>
       <c r="CQ212" s="5"/>
     </row>
-    <row r="213" spans="1:95">
+    <row r="213" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A213" s="17"/>
       <c r="C213" s="3"/>
       <c r="D213" s="5"/>
@@ -18062,7 +18059,7 @@
       <c r="CP213" s="5"/>
       <c r="CQ213" s="5"/>
     </row>
-    <row r="214" spans="1:95">
+    <row r="214" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A214" s="17"/>
       <c r="C214" s="3"/>
       <c r="D214" s="5"/>
@@ -18158,7 +18155,7 @@
       <c r="CP214" s="5"/>
       <c r="CQ214" s="5"/>
     </row>
-    <row r="215" spans="1:95">
+    <row r="215" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A215" s="17"/>
       <c r="C215" s="3"/>
       <c r="D215" s="5"/>
@@ -18254,7 +18251,7 @@
       <c r="CP215" s="5"/>
       <c r="CQ215" s="5"/>
     </row>
-    <row r="216" spans="1:95">
+    <row r="216" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A216" s="17"/>
       <c r="C216" s="3"/>
       <c r="D216" s="5"/>
@@ -18350,7 +18347,7 @@
       <c r="CP216" s="5"/>
       <c r="CQ216" s="5"/>
     </row>
-    <row r="217" spans="1:95">
+    <row r="217" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A217" s="17"/>
       <c r="C217" s="3"/>
       <c r="D217" s="5"/>
@@ -18446,7 +18443,7 @@
       <c r="CP217" s="5"/>
       <c r="CQ217" s="5"/>
     </row>
-    <row r="218" spans="1:95">
+    <row r="218" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A218" s="17"/>
       <c r="C218" s="3"/>
       <c r="D218" s="5"/>
@@ -18542,7 +18539,7 @@
       <c r="CP218" s="5"/>
       <c r="CQ218" s="5"/>
     </row>
-    <row r="219" spans="1:95">
+    <row r="219" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A219" s="17"/>
       <c r="C219" s="3"/>
       <c r="D219" s="5"/>
@@ -18638,7 +18635,7 @@
       <c r="CP219" s="5"/>
       <c r="CQ219" s="5"/>
     </row>
-    <row r="220" spans="1:95">
+    <row r="220" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A220" s="17"/>
       <c r="C220" s="3"/>
       <c r="D220" s="5"/>
@@ -18734,7 +18731,7 @@
       <c r="CP220" s="5"/>
       <c r="CQ220" s="5"/>
     </row>
-    <row r="221" spans="1:95">
+    <row r="221" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A221" s="17"/>
       <c r="C221" s="3"/>
       <c r="D221" s="5"/>
@@ -18830,7 +18827,7 @@
       <c r="CP221" s="5"/>
       <c r="CQ221" s="5"/>
     </row>
-    <row r="222" spans="1:95">
+    <row r="222" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A222" s="17"/>
       <c r="C222" s="3"/>
       <c r="D222" s="5"/>
@@ -18926,7 +18923,7 @@
       <c r="CP222" s="5"/>
       <c r="CQ222" s="5"/>
     </row>
-    <row r="223" spans="1:95">
+    <row r="223" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A223" s="17"/>
       <c r="C223" s="3"/>
       <c r="D223" s="5"/>
@@ -19022,7 +19019,7 @@
       <c r="CP223" s="5"/>
       <c r="CQ223" s="5"/>
     </row>
-    <row r="224" spans="1:95">
+    <row r="224" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A224" s="17"/>
       <c r="C224" s="3"/>
       <c r="D224" s="5"/>
@@ -19118,7 +19115,7 @@
       <c r="CP224" s="5"/>
       <c r="CQ224" s="5"/>
     </row>
-    <row r="225" spans="1:95">
+    <row r="225" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A225" s="17"/>
       <c r="C225" s="3"/>
       <c r="D225" s="5"/>
@@ -19214,7 +19211,7 @@
       <c r="CP225" s="5"/>
       <c r="CQ225" s="5"/>
     </row>
-    <row r="226" spans="1:95">
+    <row r="226" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A226" s="17"/>
       <c r="C226" s="3"/>
       <c r="D226" s="5"/>
@@ -19310,7 +19307,7 @@
       <c r="CP226" s="5"/>
       <c r="CQ226" s="5"/>
     </row>
-    <row r="227" spans="1:95">
+    <row r="227" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A227" s="17"/>
       <c r="C227" s="3"/>
       <c r="D227" s="5"/>
@@ -19406,7 +19403,7 @@
       <c r="CP227" s="5"/>
       <c r="CQ227" s="5"/>
     </row>
-    <row r="228" spans="1:95">
+    <row r="228" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A228" s="17"/>
       <c r="C228" s="3"/>
       <c r="D228" s="5"/>
@@ -19502,7 +19499,7 @@
       <c r="CP228" s="5"/>
       <c r="CQ228" s="5"/>
     </row>
-    <row r="229" spans="1:95">
+    <row r="229" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A229" s="17"/>
       <c r="C229" s="3"/>
       <c r="D229" s="5"/>
@@ -19598,7 +19595,7 @@
       <c r="CP229" s="5"/>
       <c r="CQ229" s="5"/>
     </row>
-    <row r="230" spans="1:95">
+    <row r="230" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A230" s="17"/>
       <c r="C230" s="3"/>
       <c r="D230" s="5"/>
@@ -19694,7 +19691,7 @@
       <c r="CP230" s="5"/>
       <c r="CQ230" s="5"/>
     </row>
-    <row r="231" spans="1:95">
+    <row r="231" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A231" s="17"/>
       <c r="C231" s="3"/>
       <c r="D231" s="5"/>
@@ -19790,7 +19787,7 @@
       <c r="CP231" s="5"/>
       <c r="CQ231" s="5"/>
     </row>
-    <row r="232" spans="1:95">
+    <row r="232" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A232" s="17"/>
       <c r="C232" s="3"/>
       <c r="D232" s="5"/>
@@ -19886,7 +19883,7 @@
       <c r="CP232" s="5"/>
       <c r="CQ232" s="5"/>
     </row>
-    <row r="233" spans="1:95">
+    <row r="233" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A233" s="17"/>
       <c r="C233" s="3"/>
       <c r="D233" s="5"/>
@@ -19982,7 +19979,7 @@
       <c r="CP233" s="5"/>
       <c r="CQ233" s="5"/>
     </row>
-    <row r="234" spans="1:95">
+    <row r="234" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A234" s="17"/>
       <c r="C234" s="3"/>
       <c r="D234" s="5"/>
@@ -20078,7 +20075,7 @@
       <c r="CP234" s="5"/>
       <c r="CQ234" s="5"/>
     </row>
-    <row r="235" spans="1:95">
+    <row r="235" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A235" s="17"/>
       <c r="C235" s="3"/>
       <c r="D235" s="5"/>
@@ -20174,7 +20171,7 @@
       <c r="CP235" s="5"/>
       <c r="CQ235" s="5"/>
     </row>
-    <row r="236" spans="1:95">
+    <row r="236" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A236" s="17"/>
       <c r="C236" s="3"/>
       <c r="D236" s="5"/>
@@ -20270,7 +20267,7 @@
       <c r="CP236" s="5"/>
       <c r="CQ236" s="5"/>
     </row>
-    <row r="237" spans="1:95">
+    <row r="237" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A237" s="17"/>
       <c r="C237" s="3"/>
       <c r="D237" s="5"/>
@@ -20366,7 +20363,7 @@
       <c r="CP237" s="5"/>
       <c r="CQ237" s="5"/>
     </row>
-    <row r="238" spans="1:95">
+    <row r="238" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A238" s="17"/>
       <c r="C238" s="3"/>
       <c r="D238" s="5"/>
@@ -20462,7 +20459,7 @@
       <c r="CP238" s="5"/>
       <c r="CQ238" s="5"/>
     </row>
-    <row r="239" spans="1:95">
+    <row r="239" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A239" s="17"/>
       <c r="C239" s="3"/>
       <c r="D239" s="5"/>
@@ -20558,7 +20555,7 @@
       <c r="CP239" s="5"/>
       <c r="CQ239" s="5"/>
     </row>
-    <row r="240" spans="1:95">
+    <row r="240" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A240" s="17"/>
       <c r="C240" s="3"/>
       <c r="D240" s="5"/>
@@ -20654,7 +20651,7 @@
       <c r="CP240" s="5"/>
       <c r="CQ240" s="5"/>
     </row>
-    <row r="241" spans="1:95">
+    <row r="241" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A241" s="17"/>
       <c r="C241" s="3"/>
       <c r="D241" s="5"/>
@@ -20750,7 +20747,7 @@
       <c r="CP241" s="5"/>
       <c r="CQ241" s="5"/>
     </row>
-    <row r="242" spans="1:95">
+    <row r="242" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A242" s="17"/>
       <c r="C242" s="3"/>
       <c r="D242" s="5"/>
@@ -20846,7 +20843,7 @@
       <c r="CP242" s="5"/>
       <c r="CQ242" s="5"/>
     </row>
-    <row r="243" spans="1:95">
+    <row r="243" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A243" s="17"/>
       <c r="C243" s="3"/>
       <c r="D243" s="5"/>
@@ -20942,7 +20939,7 @@
       <c r="CP243" s="5"/>
       <c r="CQ243" s="5"/>
     </row>
-    <row r="244" spans="1:95">
+    <row r="244" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A244" s="17"/>
       <c r="C244" s="3"/>
       <c r="D244" s="5"/>
@@ -21038,7 +21035,7 @@
       <c r="CP244" s="5"/>
       <c r="CQ244" s="5"/>
     </row>
-    <row r="245" spans="1:95">
+    <row r="245" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A245" s="17"/>
       <c r="C245" s="3"/>
       <c r="D245" s="5"/>
@@ -21134,7 +21131,7 @@
       <c r="CP245" s="5"/>
       <c r="CQ245" s="5"/>
     </row>
-    <row r="246" spans="1:95">
+    <row r="246" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A246" s="17"/>
       <c r="C246" s="3"/>
       <c r="D246" s="5"/>
@@ -21230,7 +21227,7 @@
       <c r="CP246" s="5"/>
       <c r="CQ246" s="5"/>
     </row>
-    <row r="247" spans="1:95">
+    <row r="247" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A247" s="17"/>
       <c r="C247" s="3"/>
       <c r="D247" s="5"/>
@@ -21326,7 +21323,7 @@
       <c r="CP247" s="5"/>
       <c r="CQ247" s="5"/>
     </row>
-    <row r="248" spans="1:95">
+    <row r="248" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A248" s="17"/>
       <c r="C248" s="3"/>
       <c r="D248" s="5"/>
@@ -21422,7 +21419,7 @@
       <c r="CP248" s="5"/>
       <c r="CQ248" s="5"/>
     </row>
-    <row r="249" spans="1:95">
+    <row r="249" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A249" s="17"/>
       <c r="C249" s="3"/>
       <c r="D249" s="5"/>
@@ -21518,7 +21515,7 @@
       <c r="CP249" s="5"/>
       <c r="CQ249" s="5"/>
     </row>
-    <row r="250" spans="1:95">
+    <row r="250" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A250" s="17"/>
       <c r="C250" s="3"/>
       <c r="D250" s="5"/>
@@ -21614,7 +21611,7 @@
       <c r="CP250" s="5"/>
       <c r="CQ250" s="5"/>
     </row>
-    <row r="251" spans="1:95">
+    <row r="251" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A251" s="17"/>
       <c r="C251" s="3"/>
       <c r="D251" s="5"/>
@@ -21710,7 +21707,7 @@
       <c r="CP251" s="5"/>
       <c r="CQ251" s="5"/>
     </row>
-    <row r="252" spans="1:95">
+    <row r="252" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A252" s="17"/>
       <c r="C252" s="3"/>
       <c r="D252" s="5"/>
@@ -21806,7 +21803,7 @@
       <c r="CP252" s="5"/>
       <c r="CQ252" s="5"/>
     </row>
-    <row r="253" spans="1:95">
+    <row r="253" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A253" s="17"/>
       <c r="C253" s="3"/>
       <c r="D253" s="5"/>
@@ -21902,7 +21899,7 @@
       <c r="CP253" s="5"/>
       <c r="CQ253" s="5"/>
     </row>
-    <row r="254" spans="1:95">
+    <row r="254" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A254" s="17"/>
       <c r="C254" s="3"/>
       <c r="D254" s="5"/>
@@ -21998,7 +21995,7 @@
       <c r="CP254" s="5"/>
       <c r="CQ254" s="5"/>
     </row>
-    <row r="255" spans="1:95">
+    <row r="255" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A255" s="17"/>
       <c r="C255" s="3"/>
       <c r="D255" s="5"/>
@@ -22094,7 +22091,7 @@
       <c r="CP255" s="5"/>
       <c r="CQ255" s="5"/>
     </row>
-    <row r="256" spans="1:95">
+    <row r="256" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A256" s="17"/>
       <c r="C256" s="3"/>
       <c r="D256" s="5"/>
@@ -22190,7 +22187,7 @@
       <c r="CP256" s="5"/>
       <c r="CQ256" s="5"/>
     </row>
-    <row r="257" spans="1:95">
+    <row r="257" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A257" s="17"/>
       <c r="C257" s="3"/>
       <c r="D257" s="5"/>
@@ -22286,7 +22283,7 @@
       <c r="CP257" s="5"/>
       <c r="CQ257" s="5"/>
     </row>
-    <row r="258" spans="1:95">
+    <row r="258" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A258" s="17"/>
       <c r="C258" s="3"/>
       <c r="D258" s="5"/>
@@ -22382,7 +22379,7 @@
       <c r="CP258" s="5"/>
       <c r="CQ258" s="5"/>
     </row>
-    <row r="259" spans="1:95">
+    <row r="259" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A259" s="17"/>
       <c r="C259" s="3"/>
       <c r="D259" s="5"/>
@@ -22478,7 +22475,7 @@
       <c r="CP259" s="5"/>
       <c r="CQ259" s="5"/>
     </row>
-    <row r="260" spans="1:95">
+    <row r="260" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A260" s="17"/>
       <c r="C260" s="3"/>
       <c r="D260" s="5"/>
@@ -22574,7 +22571,7 @@
       <c r="CP260" s="5"/>
       <c r="CQ260" s="5"/>
     </row>
-    <row r="261" spans="1:95">
+    <row r="261" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A261" s="17"/>
       <c r="C261" s="3"/>
       <c r="D261" s="5"/>
@@ -22670,7 +22667,7 @@
       <c r="CP261" s="5"/>
       <c r="CQ261" s="5"/>
     </row>
-    <row r="262" spans="1:95">
+    <row r="262" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A262" s="17"/>
       <c r="C262" s="3"/>
       <c r="D262" s="5"/>
@@ -22766,7 +22763,7 @@
       <c r="CP262" s="5"/>
       <c r="CQ262" s="5"/>
     </row>
-    <row r="263" spans="1:95">
+    <row r="263" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A263" s="17"/>
       <c r="C263" s="3"/>
       <c r="D263" s="5"/>
@@ -22862,7 +22859,7 @@
       <c r="CP263" s="5"/>
       <c r="CQ263" s="5"/>
     </row>
-    <row r="264" spans="1:95">
+    <row r="264" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A264" s="17"/>
       <c r="C264" s="3"/>
       <c r="D264" s="5"/>
@@ -22958,7 +22955,7 @@
       <c r="CP264" s="5"/>
       <c r="CQ264" s="5"/>
     </row>
-    <row r="265" spans="1:95">
+    <row r="265" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A265" s="17"/>
       <c r="C265" s="3"/>
       <c r="D265" s="5"/>
@@ -23054,33 +23051,32 @@
       <c r="CP265" s="5"/>
       <c r="CQ265" s="5"/>
     </row>
-    <row r="330" ht="14.25" spans="1:2">
+    <row r="330" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A330" s="6"/>
       <c r="B330" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23109,7 +23105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>42551</v>
       </c>
@@ -23134,7 +23130,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>42552</v>
       </c>
@@ -23157,7 +23153,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>42553</v>
       </c>
@@ -23178,7 +23174,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>42554</v>
       </c>
@@ -23197,19 +23193,19 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -23238,7 +23234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>42551</v>
       </c>
@@ -23250,24 +23246,24 @@
       </c>
       <c r="D10" s="5">
         <f>D2/$C2</f>
-        <v>0.995975855130785</v>
+        <v>0.99597585513078468</v>
       </c>
       <c r="E10" s="5">
-        <f>E2/$C2</f>
-        <v>0.335345405767941</v>
+        <f t="shared" ref="D10:G13" si="0">E2/$C2</f>
+        <v>0.33534540576794097</v>
       </c>
       <c r="F10" s="5">
-        <f>F2/$C2</f>
-        <v>0.175050301810865</v>
+        <f t="shared" si="0"/>
+        <v>0.1750503018108652</v>
       </c>
       <c r="G10" s="5">
-        <f>G2/$C2</f>
-        <v>0.15962441314554</v>
+        <f t="shared" si="0"/>
+        <v>0.15962441314553991</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>42552</v>
       </c>
@@ -23278,25 +23274,25 @@
         <v>2013</v>
       </c>
       <c r="D11" s="5">
-        <f>D3/$C3</f>
-        <v>0.991058122205663</v>
+        <f t="shared" si="0"/>
+        <v>0.99105812220566314</v>
       </c>
       <c r="E11" s="5">
-        <f>E3/$C3</f>
-        <v>0.397416790859414</v>
+        <f t="shared" si="0"/>
+        <v>0.39741679085941384</v>
       </c>
       <c r="F11" s="5">
-        <f>F3/$C3</f>
-        <v>0.190263288623944</v>
+        <f t="shared" si="0"/>
+        <v>0.19026328862394437</v>
       </c>
       <c r="G11" s="5">
-        <f>G3/$C3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>42553</v>
       </c>
@@ -23307,25 +23303,25 @@
         <v>2515</v>
       </c>
       <c r="D12" s="5">
-        <f>D4/$C4</f>
-        <v>0.989662027833002</v>
+        <f t="shared" si="0"/>
+        <v>0.98966202783300194</v>
       </c>
       <c r="E12" s="5">
-        <f>E4/$C4</f>
-        <v>0.278330019880716</v>
+        <f t="shared" si="0"/>
+        <v>0.27833001988071571</v>
       </c>
       <c r="F12" s="5">
-        <f>F4/$C4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G12" s="5">
-        <f>G4/$C4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>42554</v>
       </c>
@@ -23336,25 +23332,25 @@
         <v>2417</v>
       </c>
       <c r="D13" s="5">
-        <f>D5/$C5</f>
-        <v>0.990070335126189</v>
+        <f t="shared" si="0"/>
+        <v>0.99007033512618947</v>
       </c>
       <c r="E13" s="5">
-        <f>E5/$C5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F13" s="5">
-        <f>F5/$C5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G13" s="5">
-        <f>G5/$C5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="5"/>
@@ -23364,7 +23360,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="5"/>
@@ -23374,7 +23370,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="5"/>
@@ -23384,7 +23380,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="5"/>
@@ -23394,7 +23390,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="C18" s="3"/>
       <c r="D18" s="5"/>
@@ -23404,7 +23400,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="44" ht="14.25" spans="1:2">
+    <row r="44" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="6" t="s">
         <v>4</v>
       </c>
@@ -23412,25 +23408,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>0.321</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="B45">
-        <v>-0.704</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.70399999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48">
         <f>AVERAGE(A45:A47)</f>
-        <v>0.321</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="B48">
         <f>AVERAGE(B45:B47)</f>
-        <v>-0.704</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.70399999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -23441,78 +23437,79 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>1</v>
       </c>
       <c r="B53">
         <f>A$48*A53^B$48</f>
-        <v>0.321</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="C53">
         <f>A$48/(B$48+1)*A53^(B$48+1)</f>
-        <v>1.08445945945946</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>1.0844594594594594</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>7</v>
       </c>
       <c r="B54">
-        <f t="shared" ref="B54:B57" si="0">A$48*A54^B$48</f>
-        <v>0.0815747989762552</v>
+        <f t="shared" ref="B54:B57" si="1">A$48*A54^B$48</f>
+        <v>8.1574798976255192E-2</v>
       </c>
       <c r="C54">
-        <f t="shared" ref="C54:C57" si="1">A$48/(B$48+1)*A54^(B$48+1)</f>
-        <v>1.9291337595736</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <f t="shared" ref="C54:C57" si="2">A$48/(B$48+1)*A54^(B$48+1)</f>
+        <v>1.9291337595736022</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>30</v>
       </c>
       <c r="B55">
-        <f t="shared" si="0"/>
-        <v>0.0292827371446413</v>
+        <f t="shared" si="1"/>
+        <v>2.9282737144641285E-2</v>
       </c>
       <c r="C55">
-        <f t="shared" si="1"/>
-        <v>2.96784498087581</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>2.9678449808758067</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>90</v>
       </c>
       <c r="B56">
-        <f t="shared" si="0"/>
-        <v>0.0135119585954041</v>
+        <f t="shared" si="1"/>
+        <v>1.3511958595404126E-2</v>
       </c>
       <c r="C56">
-        <f t="shared" si="1"/>
-        <v>4.10836578914314</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>4.1083657891431447</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>365</v>
       </c>
       <c r="B57">
-        <f t="shared" si="0"/>
-        <v>0.00504255746143883</v>
+        <f t="shared" si="1"/>
+        <v>5.0425574614388303E-3</v>
       </c>
       <c r="C57">
-        <f t="shared" si="1"/>
-        <v>6.21801849130126</v>
-      </c>
-    </row>
-    <row r="84" ht="14.25" spans="1:2">
+        <f t="shared" si="2"/>
+        <v>6.2180184913012599</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/aitushow/code/doc/留存.xlsx
+++ b/aitushow/code/doc/留存.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="12630" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="0002" sheetId="1" r:id="rId1"/>
     <sheet name="0003" sheetId="2" r:id="rId2"/>
     <sheet name="10版本" sheetId="3" r:id="rId3"/>
+    <sheet name="11版本" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -80,9 +81,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,60 +127,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,9 +151,33 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,24 +189,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,19 +234,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,19 +312,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,37 +384,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,85 +402,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,6 +425,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -442,7 +497,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,62 +520,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,10 +531,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -542,133 +543,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3386,7 +3387,7 @@
   <dimension ref="A1:CV330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3397,7 +3398,7 @@
     <col min="4" max="8" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:16">
+    <row r="1" ht="14.25" spans="1:37">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3446,6 +3447,63 @@
       <c r="P1" s="11">
         <v>12</v>
       </c>
+      <c r="Q1" s="11">
+        <v>13</v>
+      </c>
+      <c r="R1" s="11">
+        <v>14</v>
+      </c>
+      <c r="S1" s="11">
+        <v>15</v>
+      </c>
+      <c r="T1" s="11">
+        <v>16</v>
+      </c>
+      <c r="U1" s="11">
+        <v>17</v>
+      </c>
+      <c r="V1" s="11">
+        <v>18</v>
+      </c>
+      <c r="W1" s="11">
+        <v>19</v>
+      </c>
+      <c r="X1" s="11">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="11">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="11">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="11">
+        <v>23</v>
+      </c>
+      <c r="AB1" s="11">
+        <v>24</v>
+      </c>
+      <c r="AC1" s="11">
+        <v>25</v>
+      </c>
+      <c r="AD1" s="11">
+        <v>26</v>
+      </c>
+      <c r="AE1" s="11">
+        <v>27</v>
+      </c>
+      <c r="AF1" s="11">
+        <v>28</v>
+      </c>
+      <c r="AG1" s="11">
+        <v>29</v>
+      </c>
+      <c r="AH1" s="11">
+        <v>30</v>
+      </c>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
     </row>
     <row r="2" spans="1:100">
       <c r="A2" s="13">
@@ -4303,13 +4361,27 @@
       <c r="P8" s="5">
         <v>107</v>
       </c>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
+      <c r="Q8" s="5">
+        <v>89</v>
+      </c>
+      <c r="R8" s="5">
+        <v>95</v>
+      </c>
+      <c r="S8" s="5">
+        <v>88</v>
+      </c>
+      <c r="T8" s="5">
+        <v>85</v>
+      </c>
+      <c r="U8" s="5">
+        <v>67</v>
+      </c>
+      <c r="V8" s="5">
+        <v>66</v>
+      </c>
+      <c r="W8" s="5">
+        <v>64</v>
+      </c>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
@@ -4428,13 +4500,27 @@
       <c r="O9" s="5">
         <v>94</v>
       </c>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
+      <c r="P9" s="5">
+        <v>74</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>66</v>
+      </c>
+      <c r="R9" s="5">
+        <v>105</v>
+      </c>
+      <c r="S9" s="5">
+        <v>95</v>
+      </c>
+      <c r="T9" s="5">
+        <v>90</v>
+      </c>
+      <c r="U9" s="5">
+        <v>80</v>
+      </c>
+      <c r="V9" s="5">
+        <v>78</v>
+      </c>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
@@ -4550,13 +4636,27 @@
       <c r="N10" s="5">
         <v>124</v>
       </c>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
+      <c r="O10" s="5">
+        <v>92</v>
+      </c>
+      <c r="P10" s="5">
+        <v>75</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>115</v>
+      </c>
+      <c r="R10" s="5">
+        <v>114</v>
+      </c>
+      <c r="S10" s="5">
+        <v>100</v>
+      </c>
+      <c r="T10" s="5">
+        <v>91</v>
+      </c>
+      <c r="U10" s="5">
+        <v>84</v>
+      </c>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
@@ -4669,13 +4769,27 @@
       <c r="M11" s="5">
         <v>105</v>
       </c>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
+      <c r="N11" s="5">
+        <v>82</v>
+      </c>
+      <c r="O11" s="5">
+        <v>51</v>
+      </c>
+      <c r="P11" s="5">
+        <v>90</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>86</v>
+      </c>
+      <c r="R11" s="5">
+        <v>76</v>
+      </c>
+      <c r="S11" s="5">
+        <v>82</v>
+      </c>
+      <c r="T11" s="5">
+        <v>66</v>
+      </c>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
@@ -4785,13 +4899,27 @@
       <c r="L12" s="5">
         <v>107</v>
       </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
+      <c r="M12" s="5">
+        <v>73</v>
+      </c>
+      <c r="N12" s="5">
+        <v>65</v>
+      </c>
+      <c r="O12" s="5">
+        <v>98</v>
+      </c>
+      <c r="P12" s="5">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>86</v>
+      </c>
+      <c r="R12" s="5">
+        <v>75</v>
+      </c>
+      <c r="S12" s="5">
+        <v>76</v>
+      </c>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
@@ -4898,13 +5026,27 @@
       <c r="K13" s="5">
         <v>124</v>
       </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
+      <c r="L13" s="5">
+        <v>88</v>
+      </c>
+      <c r="M13" s="5">
+        <v>78</v>
+      </c>
+      <c r="N13" s="5">
+        <v>116</v>
+      </c>
+      <c r="O13" s="5">
+        <v>92</v>
+      </c>
+      <c r="P13" s="5">
+        <v>90</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>82</v>
+      </c>
+      <c r="R13" s="5">
+        <v>87</v>
+      </c>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
@@ -5008,13 +5150,27 @@
       <c r="J14" s="5">
         <v>145</v>
       </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
+      <c r="K14" s="5">
+        <v>123</v>
+      </c>
+      <c r="L14" s="5">
+        <v>91</v>
+      </c>
+      <c r="M14" s="5">
+        <v>98</v>
+      </c>
+      <c r="N14" s="5">
+        <v>115</v>
+      </c>
+      <c r="O14" s="5">
+        <v>104</v>
+      </c>
+      <c r="P14" s="5">
+        <v>93</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>82</v>
+      </c>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
@@ -5115,13 +5271,27 @@
       <c r="I15" s="5">
         <v>163</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
+      <c r="J15" s="5">
+        <v>118</v>
+      </c>
+      <c r="K15" s="5">
+        <v>117</v>
+      </c>
+      <c r="L15" s="5">
+        <v>126</v>
+      </c>
+      <c r="M15" s="5">
+        <v>115</v>
+      </c>
+      <c r="N15" s="5">
+        <v>104</v>
+      </c>
+      <c r="O15" s="5">
+        <v>80</v>
+      </c>
+      <c r="P15" s="5">
+        <v>82</v>
+      </c>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -5219,13 +5389,27 @@
       <c r="H16" s="5">
         <v>182</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
+      <c r="I16" s="5">
+        <v>107</v>
+      </c>
+      <c r="J16" s="5">
+        <v>105</v>
+      </c>
+      <c r="K16" s="5">
+        <v>153</v>
+      </c>
+      <c r="L16" s="5">
+        <v>140</v>
+      </c>
+      <c r="M16" s="5">
+        <v>111</v>
+      </c>
+      <c r="N16" s="5">
+        <v>111</v>
+      </c>
+      <c r="O16" s="5">
+        <v>95</v>
+      </c>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
@@ -5320,13 +5504,27 @@
       <c r="G17" s="5">
         <v>197</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
+      <c r="H17" s="5">
+        <v>125</v>
+      </c>
+      <c r="I17" s="5">
+        <v>105</v>
+      </c>
+      <c r="J17" s="5">
+        <v>127</v>
+      </c>
+      <c r="K17" s="5">
+        <v>126</v>
+      </c>
+      <c r="L17" s="5">
+        <v>114</v>
+      </c>
+      <c r="M17" s="5">
+        <v>106</v>
+      </c>
+      <c r="N17" s="5">
+        <v>95</v>
+      </c>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -5418,13 +5616,27 @@
       <c r="F18" s="5">
         <v>237</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+      <c r="G18" s="5">
+        <v>147</v>
+      </c>
+      <c r="H18" s="5">
+        <v>128</v>
+      </c>
+      <c r="I18" s="5">
+        <v>144</v>
+      </c>
+      <c r="J18" s="5">
+        <v>153</v>
+      </c>
+      <c r="K18" s="5">
+        <v>122</v>
+      </c>
+      <c r="L18" s="5">
+        <v>126</v>
+      </c>
+      <c r="M18" s="5">
+        <v>114</v>
+      </c>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
@@ -5513,13 +5725,27 @@
       <c r="E19" s="5">
         <v>404</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
+      <c r="F19" s="5">
+        <v>189</v>
+      </c>
+      <c r="G19" s="5">
+        <v>126</v>
+      </c>
+      <c r="H19" s="5">
+        <v>170</v>
+      </c>
+      <c r="I19" s="5">
+        <v>163</v>
+      </c>
+      <c r="J19" s="5">
+        <v>163</v>
+      </c>
+      <c r="K19" s="5">
+        <v>125</v>
+      </c>
+      <c r="L19" s="5">
+        <v>94</v>
+      </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
@@ -5605,13 +5831,27 @@
       <c r="D20" s="5">
         <v>1634</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
+      <c r="E20" s="5">
+        <v>327</v>
+      </c>
+      <c r="F20" s="5">
+        <v>164</v>
+      </c>
+      <c r="G20" s="5">
+        <v>214</v>
+      </c>
+      <c r="H20" s="5">
+        <v>209</v>
+      </c>
+      <c r="I20" s="5">
+        <v>163</v>
+      </c>
+      <c r="J20" s="5">
+        <v>152</v>
+      </c>
+      <c r="K20" s="5">
+        <v>150</v>
+      </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -5688,15 +5928,33 @@
       <c r="A21" s="13">
         <v>42567</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+      <c r="B21" s="5">
+        <v>2973</v>
+      </c>
+      <c r="C21" s="5">
+        <v>4829</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1235</v>
+      </c>
+      <c r="E21" s="5">
+        <v>308</v>
+      </c>
+      <c r="F21" s="5">
+        <v>231</v>
+      </c>
+      <c r="G21" s="5">
+        <v>178</v>
+      </c>
+      <c r="H21" s="5">
+        <v>148</v>
+      </c>
+      <c r="I21" s="5">
+        <v>119</v>
+      </c>
+      <c r="J21" s="5">
+        <v>108</v>
+      </c>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
@@ -5773,14 +6031,30 @@
       <c r="A22" s="13">
         <v>42568</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="B22" s="5">
+        <v>2751</v>
+      </c>
+      <c r="C22" s="5">
+        <v>4900</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1075</v>
+      </c>
+      <c r="E22" s="5">
+        <v>301</v>
+      </c>
+      <c r="F22" s="5">
+        <v>208</v>
+      </c>
+      <c r="G22" s="5">
+        <v>159</v>
+      </c>
+      <c r="H22" s="5">
+        <v>144</v>
+      </c>
+      <c r="I22" s="5">
+        <v>118</v>
+      </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -5857,13 +6131,27 @@
       <c r="A23" s="13">
         <v>42569</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="B23" s="5">
+        <v>3215</v>
+      </c>
+      <c r="C23" s="5">
+        <v>3856</v>
+      </c>
+      <c r="D23" s="5">
+        <v>851</v>
+      </c>
+      <c r="E23" s="5">
+        <v>294</v>
+      </c>
+      <c r="F23" s="5">
+        <v>188</v>
+      </c>
+      <c r="G23" s="5">
+        <v>157</v>
+      </c>
+      <c r="H23" s="5">
+        <v>146</v>
+      </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -5940,12 +6228,24 @@
       <c r="A24" s="13">
         <v>42570</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="B24" s="5">
+        <v>3430</v>
+      </c>
+      <c r="C24" s="5">
+        <v>4628</v>
+      </c>
+      <c r="D24" s="5">
+        <v>987</v>
+      </c>
+      <c r="E24" s="5">
+        <v>336</v>
+      </c>
+      <c r="F24" s="5">
+        <v>227</v>
+      </c>
+      <c r="G24" s="5">
+        <v>175</v>
+      </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -6022,11 +6322,21 @@
       <c r="A25" s="13">
         <v>42571</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="B25" s="5">
+        <v>3309</v>
+      </c>
+      <c r="C25" s="5">
+        <v>4543</v>
+      </c>
+      <c r="D25" s="5">
+        <v>967</v>
+      </c>
+      <c r="E25" s="5">
+        <v>342</v>
+      </c>
+      <c r="F25" s="5">
+        <v>223</v>
+      </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -6103,10 +6413,18 @@
       <c r="A26" s="13">
         <v>42572</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="B26" s="5">
+        <v>3250</v>
+      </c>
+      <c r="C26" s="5">
+        <v>4270</v>
+      </c>
+      <c r="D26" s="5">
+        <v>912</v>
+      </c>
+      <c r="E26" s="5">
+        <v>306</v>
+      </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -6183,9 +6501,15 @@
       <c r="A27" s="13">
         <v>42573</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+      <c r="B27" s="5">
+        <v>3265</v>
+      </c>
+      <c r="C27" s="5">
+        <v>4332</v>
+      </c>
+      <c r="D27" s="5">
+        <v>921</v>
+      </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -23456,7 +23780,7 @@
   <sheetPr/>
   <dimension ref="A1:S99"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
@@ -24336,10 +24660,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -24592,7 +24916,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:26">
       <c r="A5" s="2">
         <v>42551</v>
       </c>
@@ -24650,8 +24974,29 @@
       <c r="S5">
         <v>187</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="T5">
+        <v>145</v>
+      </c>
+      <c r="U5">
+        <v>178</v>
+      </c>
+      <c r="V5">
+        <v>177</v>
+      </c>
+      <c r="W5">
+        <v>163</v>
+      </c>
+      <c r="X5">
+        <v>150</v>
+      </c>
+      <c r="Y5">
+        <v>151</v>
+      </c>
+      <c r="Z5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="2">
         <v>42552</v>
       </c>
@@ -24706,8 +25051,29 @@
       <c r="R6">
         <v>269</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="S6">
+        <v>192</v>
+      </c>
+      <c r="T6">
+        <v>250</v>
+      </c>
+      <c r="U6">
+        <v>250</v>
+      </c>
+      <c r="V6">
+        <v>214</v>
+      </c>
+      <c r="W6">
+        <v>203</v>
+      </c>
+      <c r="X6">
+        <v>193</v>
+      </c>
+      <c r="Y6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" s="2">
         <v>42553</v>
       </c>
@@ -24759,8 +25125,29 @@
       <c r="Q7">
         <v>269</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="R7">
+        <v>214</v>
+      </c>
+      <c r="S7">
+        <v>246</v>
+      </c>
+      <c r="T7">
+        <v>246</v>
+      </c>
+      <c r="U7">
+        <v>218</v>
+      </c>
+      <c r="V7">
+        <v>215</v>
+      </c>
+      <c r="W7">
+        <v>197</v>
+      </c>
+      <c r="X7">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="2">
         <v>42554</v>
       </c>
@@ -24809,8 +25196,29 @@
       <c r="P8">
         <v>309</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="Q8">
+        <v>261</v>
+      </c>
+      <c r="R8">
+        <v>247</v>
+      </c>
+      <c r="S8">
+        <v>240</v>
+      </c>
+      <c r="T8">
+        <v>216</v>
+      </c>
+      <c r="U8">
+        <v>210</v>
+      </c>
+      <c r="V8">
+        <v>197</v>
+      </c>
+      <c r="W8">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="2">
         <v>42555</v>
       </c>
@@ -24856,8 +25264,29 @@
       <c r="O9">
         <v>213</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="P9">
+        <v>161</v>
+      </c>
+      <c r="Q9">
+        <v>220</v>
+      </c>
+      <c r="R9">
+        <v>203</v>
+      </c>
+      <c r="S9">
+        <v>189</v>
+      </c>
+      <c r="T9">
+        <v>157</v>
+      </c>
+      <c r="U9">
+        <v>162</v>
+      </c>
+      <c r="V9">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="2">
         <v>42556</v>
       </c>
@@ -24900,8 +25329,29 @@
       <c r="N10">
         <v>131</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="O10">
+        <v>78</v>
+      </c>
+      <c r="P10">
+        <v>120</v>
+      </c>
+      <c r="Q10">
+        <v>111</v>
+      </c>
+      <c r="R10">
+        <v>101</v>
+      </c>
+      <c r="S10">
+        <v>94</v>
+      </c>
+      <c r="T10">
+        <v>85</v>
+      </c>
+      <c r="U10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="2">
         <v>42557</v>
       </c>
@@ -24941,8 +25391,29 @@
       <c r="M11">
         <v>109</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="N11">
+        <v>52</v>
+      </c>
+      <c r="O11">
+        <v>91</v>
+      </c>
+      <c r="P11">
+        <v>90</v>
+      </c>
+      <c r="Q11">
+        <v>80</v>
+      </c>
+      <c r="R11">
+        <v>86</v>
+      </c>
+      <c r="S11">
+        <v>68</v>
+      </c>
+      <c r="T11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="2">
         <v>42558</v>
       </c>
@@ -24979,8 +25450,29 @@
       <c r="L12">
         <v>107</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="M12">
+        <v>65</v>
+      </c>
+      <c r="N12">
+        <v>97</v>
+      </c>
+      <c r="O12">
+        <v>83</v>
+      </c>
+      <c r="P12">
+        <v>83</v>
+      </c>
+      <c r="Q12">
+        <v>74</v>
+      </c>
+      <c r="R12">
+        <v>74</v>
+      </c>
+      <c r="S12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="2">
         <v>42559</v>
       </c>
@@ -25014,8 +25506,29 @@
       <c r="K13">
         <v>125</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="L13">
+        <v>78</v>
+      </c>
+      <c r="M13">
+        <v>115</v>
+      </c>
+      <c r="N13">
+        <v>93</v>
+      </c>
+      <c r="O13">
+        <v>90</v>
+      </c>
+      <c r="P13">
+        <v>80</v>
+      </c>
+      <c r="Q13">
+        <v>86</v>
+      </c>
+      <c r="R13">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="2">
         <v>42560</v>
       </c>
@@ -25046,8 +25559,29 @@
       <c r="J14">
         <v>145</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="K14">
+        <v>88</v>
+      </c>
+      <c r="L14">
+        <v>96</v>
+      </c>
+      <c r="M14">
+        <v>115</v>
+      </c>
+      <c r="N14">
+        <v>102</v>
+      </c>
+      <c r="O14">
+        <v>93</v>
+      </c>
+      <c r="P14">
+        <v>82</v>
+      </c>
+      <c r="Q14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="2">
         <v>42561</v>
       </c>
@@ -25075,8 +25609,29 @@
       <c r="I15">
         <v>163</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="J15">
+        <v>113</v>
+      </c>
+      <c r="K15">
+        <v>123</v>
+      </c>
+      <c r="L15">
+        <v>113</v>
+      </c>
+      <c r="M15">
+        <v>104</v>
+      </c>
+      <c r="N15">
+        <v>79</v>
+      </c>
+      <c r="O15">
+        <v>81</v>
+      </c>
+      <c r="P15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="2">
         <v>42562</v>
       </c>
@@ -25101,8 +25656,29 @@
       <c r="H16">
         <v>183</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16">
+        <v>104</v>
+      </c>
+      <c r="J16">
+        <v>152</v>
+      </c>
+      <c r="K16">
+        <v>139</v>
+      </c>
+      <c r="L16">
+        <v>112</v>
+      </c>
+      <c r="M16">
+        <v>113</v>
+      </c>
+      <c r="N16">
+        <v>96</v>
+      </c>
+      <c r="O16">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="2">
         <v>42563</v>
       </c>
@@ -25124,8 +25700,29 @@
       <c r="G17">
         <v>197</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="H17">
+        <v>103</v>
+      </c>
+      <c r="I17">
+        <v>124</v>
+      </c>
+      <c r="J17">
+        <v>124</v>
+      </c>
+      <c r="K17">
+        <v>113</v>
+      </c>
+      <c r="L17">
+        <v>103</v>
+      </c>
+      <c r="M17">
+        <v>91</v>
+      </c>
+      <c r="N17">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="2">
         <v>42564</v>
       </c>
@@ -25144,8 +25741,29 @@
       <c r="F18">
         <v>237</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18">
+        <v>127</v>
+      </c>
+      <c r="H18">
+        <v>143</v>
+      </c>
+      <c r="I18">
+        <v>150</v>
+      </c>
+      <c r="J18">
+        <v>120</v>
+      </c>
+      <c r="K18">
+        <v>124</v>
+      </c>
+      <c r="L18">
+        <v>112</v>
+      </c>
+      <c r="M18">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="2">
         <v>42565</v>
       </c>
@@ -25161,8 +25779,29 @@
       <c r="E19">
         <v>406</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="F19">
+        <v>119</v>
+      </c>
+      <c r="G19">
+        <v>167</v>
+      </c>
+      <c r="H19">
+        <v>162</v>
+      </c>
+      <c r="I19">
+        <v>161</v>
+      </c>
+      <c r="J19">
+        <v>123</v>
+      </c>
+      <c r="K19">
+        <v>94</v>
+      </c>
+      <c r="L19">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>42566</v>
       </c>
@@ -25175,10 +25814,603 @@
       <c r="D20">
         <v>1695</v>
       </c>
+      <c r="E20">
+        <v>162</v>
+      </c>
+      <c r="F20">
+        <v>210</v>
+      </c>
+      <c r="G20">
+        <v>203</v>
+      </c>
+      <c r="H20">
+        <v>162</v>
+      </c>
+      <c r="I20">
+        <v>149</v>
+      </c>
+      <c r="J20">
+        <v>145</v>
+      </c>
+      <c r="K20">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="2">
+        <v>42567</v>
+      </c>
+      <c r="B21">
+        <v>3032</v>
+      </c>
+      <c r="C21">
+        <v>1880</v>
+      </c>
+      <c r="D21">
+        <v>725</v>
+      </c>
+      <c r="E21">
+        <v>110</v>
+      </c>
+      <c r="F21">
+        <v>84</v>
+      </c>
+      <c r="G21">
+        <v>74</v>
+      </c>
+      <c r="H21">
+        <v>53</v>
+      </c>
+      <c r="I21">
+        <v>41</v>
+      </c>
+      <c r="J21">
+        <v>36</v>
+      </c>
+      <c r="K21">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2">
+        <v>42568</v>
+      </c>
+      <c r="B22">
+        <v>2243</v>
+      </c>
+      <c r="C22">
+        <v>447</v>
+      </c>
+      <c r="D22">
+        <v>186</v>
+      </c>
+      <c r="E22">
+        <v>42</v>
+      </c>
+      <c r="F22">
+        <v>27</v>
+      </c>
+      <c r="G22">
+        <v>18</v>
+      </c>
+      <c r="H22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2">
+        <v>42569</v>
+      </c>
+      <c r="B23">
+        <v>2723</v>
+      </c>
+      <c r="C23">
+        <v>236</v>
+      </c>
+      <c r="D23">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2">
+        <v>42570</v>
+      </c>
+      <c r="B24">
+        <v>2659</v>
+      </c>
+      <c r="C24">
+        <v>209</v>
+      </c>
+      <c r="D24">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2">
+        <v>42571</v>
+      </c>
+      <c r="B25">
+        <v>2341</v>
+      </c>
+      <c r="C25">
+        <v>207</v>
+      </c>
+      <c r="D25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2">
+        <v>42572</v>
+      </c>
+      <c r="B26">
+        <v>2141</v>
+      </c>
+      <c r="C26">
+        <v>188</v>
+      </c>
+      <c r="D26">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2">
+        <v>42573</v>
+      </c>
+      <c r="B27">
+        <v>2008</v>
+      </c>
+      <c r="C27">
+        <v>190</v>
+      </c>
+      <c r="D27">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2">
+        <v>42574</v>
+      </c>
+      <c r="B28">
+        <v>769</v>
+      </c>
+      <c r="C28">
+        <v>48</v>
+      </c>
+      <c r="D28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2">
+        <v>42575</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2">
+        <v>42576</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2">
+        <v>42577</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2">
+        <v>42578</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2">
+        <v>42579</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2">
+        <v>42580</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2">
+        <v>42581</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:X31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>2</v>
+      </c>
+      <c r="G1">
+        <v>3</v>
+      </c>
+      <c r="H1">
+        <v>4</v>
+      </c>
+      <c r="I1">
+        <v>5</v>
+      </c>
+      <c r="J1">
+        <v>6</v>
+      </c>
+      <c r="K1">
+        <v>7</v>
+      </c>
+      <c r="L1">
+        <v>8</v>
+      </c>
+      <c r="M1">
+        <v>9</v>
+      </c>
+      <c r="N1">
+        <v>10</v>
+      </c>
+      <c r="O1">
+        <v>11</v>
+      </c>
+      <c r="P1">
+        <v>12</v>
+      </c>
+      <c r="Q1">
+        <v>13</v>
+      </c>
+      <c r="R1">
+        <v>14</v>
+      </c>
+      <c r="S1">
+        <v>15</v>
+      </c>
+      <c r="T1">
+        <v>16</v>
+      </c>
+      <c r="U1">
+        <v>17</v>
+      </c>
+      <c r="V1">
+        <v>18</v>
+      </c>
+      <c r="W1">
+        <v>19</v>
+      </c>
+      <c r="X1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2">
+        <v>42567</v>
+      </c>
+      <c r="B2">
+        <v>591</v>
+      </c>
+      <c r="C2">
+        <v>3102</v>
+      </c>
+      <c r="D2">
+        <v>566</v>
+      </c>
+      <c r="E2">
+        <v>199</v>
+      </c>
+      <c r="F2">
+        <v>148</v>
+      </c>
+      <c r="G2">
+        <v>105</v>
+      </c>
+      <c r="H2">
+        <v>96</v>
+      </c>
+      <c r="I2">
+        <v>78</v>
+      </c>
+      <c r="J2">
+        <v>74</v>
+      </c>
+      <c r="K2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2">
+        <v>42568</v>
+      </c>
+      <c r="B3">
+        <v>1123</v>
+      </c>
+      <c r="C3">
+        <v>4580</v>
+      </c>
+      <c r="D3">
+        <v>939</v>
+      </c>
+      <c r="E3">
+        <v>259</v>
+      </c>
+      <c r="F3">
+        <v>181</v>
+      </c>
+      <c r="G3">
+        <v>142</v>
+      </c>
+      <c r="H3">
+        <v>131</v>
+      </c>
+      <c r="I3">
+        <v>108</v>
+      </c>
+      <c r="J3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2">
+        <v>42569</v>
+      </c>
+      <c r="B4">
+        <v>1188</v>
+      </c>
+      <c r="C4">
+        <v>3737</v>
+      </c>
+      <c r="D4">
+        <v>796</v>
+      </c>
+      <c r="E4">
+        <v>271</v>
+      </c>
+      <c r="F4">
+        <v>183</v>
+      </c>
+      <c r="G4">
+        <v>144</v>
+      </c>
+      <c r="H4">
+        <v>137</v>
+      </c>
+      <c r="I4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
+        <v>42570</v>
+      </c>
+      <c r="B5">
+        <v>1448</v>
+      </c>
+      <c r="C5">
+        <v>4563</v>
+      </c>
+      <c r="D5">
+        <v>934</v>
+      </c>
+      <c r="E5">
+        <v>323</v>
+      </c>
+      <c r="F5">
+        <v>213</v>
+      </c>
+      <c r="G5">
+        <v>166</v>
+      </c>
+      <c r="H5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2">
+        <v>42571</v>
+      </c>
+      <c r="B6">
+        <v>1597</v>
+      </c>
+      <c r="C6">
+        <v>4472</v>
+      </c>
+      <c r="D6">
+        <v>923</v>
+      </c>
+      <c r="E6">
+        <v>327</v>
+      </c>
+      <c r="F6">
+        <v>211</v>
+      </c>
+      <c r="G6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>42572</v>
+      </c>
+      <c r="B7">
+        <v>1680</v>
+      </c>
+      <c r="C7">
+        <v>4225</v>
+      </c>
+      <c r="D7">
+        <v>884</v>
+      </c>
+      <c r="E7">
+        <v>293</v>
+      </c>
+      <c r="F7">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>42573</v>
+      </c>
+      <c r="B8">
+        <v>1818</v>
+      </c>
+      <c r="C8">
+        <v>4294</v>
+      </c>
+      <c r="D8">
+        <v>906</v>
+      </c>
+      <c r="E8">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
+        <v>42574</v>
+      </c>
+      <c r="B9">
+        <v>551</v>
+      </c>
+      <c r="C9">
+        <v>1024</v>
+      </c>
+      <c r="D9">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2">
+        <v>42575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2">
+        <v>42576</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2">
+        <v>42577</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2">
+        <v>42578</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2">
+        <v>42579</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2">
+        <v>42580</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2">
+        <v>42581</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2">
+        <v>42582</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2">
+        <v>42583</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2">
+        <v>42584</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2">
+        <v>42585</v>
+      </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2">
-        <v>42567</v>
+        <v>42586</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2">
+        <v>42587</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2">
+        <v>42588</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2">
+        <v>42589</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2">
+        <v>42590</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2">
+        <v>42591</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2">
+        <v>42592</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2">
+        <v>42593</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2">
+        <v>42594</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2">
+        <v>42595</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2">
+        <v>42596</v>
       </c>
     </row>
   </sheetData>

--- a/aitushow/code/doc/留存.xlsx
+++ b/aitushow/code/doc/留存.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="0002" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="10版本" sheetId="3" r:id="rId3"/>
     <sheet name="11版本" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
   <si>
     <t>首用日期</t>
   </si>
@@ -49,14 +49,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,345 +75,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -427,251 +97,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -712,58 +140,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -785,7 +171,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -815,9 +201,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -835,7 +218,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.00723950131233596"/>
+                  <c:x val="7.2395013123359598E-3"/>
                   <c:y val="-0.64601086322543"/>
                 </c:manualLayout>
               </c:layout>
@@ -861,6 +244,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -884,11 +268,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="108348544"/>
-        <c:axId val="108349120"/>
+        <c:axId val="179751168"/>
+        <c:axId val="179751744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="108348544"/>
+        <c:axId val="179751168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -926,14 +310,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108349120"/>
+        <c:crossAx val="179751744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="108349120"/>
+        <c:axId val="179751744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -987,9 +372,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108348544"/>
+        <c:crossAx val="179751168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1005,7 +391,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1028,6 +413,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1057,6 +443,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1085,7 +472,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1115,9 +502,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1135,7 +519,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.00723950131233596"/>
+                  <c:x val="7.2395013123359598E-3"/>
                   <c:y val="-0.64601086322543"/>
                 </c:manualLayout>
               </c:layout>
@@ -1161,6 +545,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1184,11 +569,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="108350848"/>
-        <c:axId val="108351424"/>
+        <c:axId val="179753472"/>
+        <c:axId val="179754048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="108350848"/>
+        <c:axId val="179753472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1226,14 +611,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108351424"/>
+        <c:crossAx val="179754048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="108351424"/>
+        <c:axId val="179754048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -1287,9 +673,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108350848"/>
+        <c:crossAx val="179753472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1305,7 +692,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1328,6 +714,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1357,6 +744,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1385,7 +773,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1415,9 +803,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1435,7 +820,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.00723950131233596"/>
+                  <c:x val="7.2395013123359598E-3"/>
                   <c:y val="-0.64601086322543"/>
                 </c:manualLayout>
               </c:layout>
@@ -1461,6 +846,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1484,11 +870,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="108353152"/>
-        <c:axId val="108353728"/>
+        <c:axId val="179755776"/>
+        <c:axId val="179756352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="108353152"/>
+        <c:axId val="179755776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1526,14 +912,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108353728"/>
+        <c:crossAx val="179756352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="108353728"/>
+        <c:axId val="179756352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -1587,9 +974,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108353152"/>
+        <c:crossAx val="179755776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1605,7 +993,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1628,6 +1015,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1657,6 +1045,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1685,7 +1074,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1715,9 +1104,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1735,7 +1121,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.00723950131233596"/>
+                  <c:x val="7.2395013123359598E-3"/>
                   <c:y val="-0.64601086322543"/>
                 </c:manualLayout>
               </c:layout>
@@ -1761,6 +1147,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1784,11 +1171,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="114565120"/>
-        <c:axId val="114565696"/>
+        <c:axId val="190727296"/>
+        <c:axId val="190727872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="114565120"/>
+        <c:axId val="190727296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1826,14 +1213,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114565696"/>
+        <c:crossAx val="190727872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="114565696"/>
+        <c:axId val="190727872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -1887,9 +1275,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114565120"/>
+        <c:crossAx val="190727296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1905,7 +1294,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1928,6 +1316,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1957,6 +1346,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1985,7 +1375,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2015,9 +1405,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2035,7 +1422,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.00723950131233596"/>
+                  <c:x val="7.2395013123359598E-3"/>
                   <c:y val="-0.64601086322543"/>
                 </c:manualLayout>
               </c:layout>
@@ -2061,6 +1448,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2084,11 +1472,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="114567424"/>
-        <c:axId val="114568000"/>
+        <c:axId val="190729600"/>
+        <c:axId val="190730176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="114567424"/>
+        <c:axId val="190729600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2126,14 +1514,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114568000"/>
+        <c:crossAx val="190730176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="114568000"/>
+        <c:axId val="190730176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -2187,9 +1576,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114567424"/>
+        <c:crossAx val="190729600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2205,7 +1595,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2228,6 +1617,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2257,6 +1647,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2285,7 +1676,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2315,9 +1706,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2335,7 +1723,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.00723950131233596"/>
+                  <c:x val="7.2395013123359598E-3"/>
                   <c:y val="-0.64601086322543"/>
                 </c:manualLayout>
               </c:layout>
@@ -2361,6 +1749,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2384,11 +1773,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="114569728"/>
-        <c:axId val="114570304"/>
+        <c:axId val="190731904"/>
+        <c:axId val="190732480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="114569728"/>
+        <c:axId val="190731904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2426,14 +1815,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114570304"/>
+        <c:crossAx val="190732480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="114570304"/>
+        <c:axId val="190732480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -2487,9 +1877,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114569728"/>
+        <c:crossAx val="190731904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2505,7 +1896,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2528,6 +1918,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2557,6 +1948,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2585,7 +1977,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2615,9 +2007,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2635,7 +2024,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.00723950131233596"/>
+                  <c:x val="7.2395013123359598E-3"/>
                   <c:y val="-0.64601086322543"/>
                 </c:manualLayout>
               </c:layout>
@@ -2661,6 +2050,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2672,13 +2062,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.335345405767941</c:v>
+                  <c:v>0.33534540576794097</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.175050301810865</c:v>
+                  <c:v>0.1750503018108652</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15962441314554</c:v>
+                  <c:v>0.15962441314553991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2693,11 +2083,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="89141760"/>
-        <c:axId val="89142336"/>
+        <c:axId val="190939136"/>
+        <c:axId val="190939712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89141760"/>
+        <c:axId val="190939136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2735,14 +2125,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89142336"/>
+        <c:crossAx val="190939712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89142336"/>
+        <c:axId val="190939712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -2796,9 +2187,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89141760"/>
+        <c:crossAx val="190939136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2837,6 +2229,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2866,6 +2259,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2877,7 +2271,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -2891,14 +2285,14 @@
       <xdr:row>284</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="704850" y="46682025"/>
-        <a:ext cx="7667625" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2921,14 +2315,14 @@
       <xdr:row>284</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9439275" y="46682025"/>
-        <a:ext cx="7667625" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2951,14 +2345,14 @@
       <xdr:row>304</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="图表 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="704850" y="50111025"/>
-        <a:ext cx="7667625" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2981,14 +2375,14 @@
       <xdr:row>304</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="图表 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9439275" y="50111025"/>
-        <a:ext cx="7667625" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3011,14 +2405,14 @@
       <xdr:row>325</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="图表 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="704850" y="53711475"/>
-        <a:ext cx="7667625" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3041,14 +2435,14 @@
       <xdr:row>324</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="7" name="图表 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9505950" y="53673375"/>
-        <a:ext cx="7667625" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3062,7 +2456,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3076,14 +2470,14 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="图表 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="600075" y="6400800"/>
-        <a:ext cx="5924550" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3382,15 +2776,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV330"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="2" max="2" width="10.75" customWidth="1"/>
@@ -3398,7 +2791,7 @@
     <col min="4" max="8" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:37">
+    <row r="1" spans="1:100" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3505,7 +2898,7 @@
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
     </row>
-    <row r="2" spans="1:100">
+    <row r="2" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A2" s="13">
         <v>42548</v>
       </c>
@@ -3627,7 +3020,7 @@
       <c r="CU2" s="5"/>
       <c r="CV2" s="5"/>
     </row>
-    <row r="3" spans="1:99">
+    <row r="3" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
         <v>42549</v>
       </c>
@@ -3770,7 +3163,7 @@
       <c r="CT3" s="5"/>
       <c r="CU3" s="5"/>
     </row>
-    <row r="4" spans="1:98">
+    <row r="4" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
         <v>42550</v>
       </c>
@@ -3910,7 +3303,7 @@
       <c r="CS4" s="5"/>
       <c r="CT4" s="5"/>
     </row>
-    <row r="5" spans="1:97">
+    <row r="5" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>42551</v>
       </c>
@@ -4047,7 +3440,7 @@
       <c r="CR5" s="5"/>
       <c r="CS5" s="5"/>
     </row>
-    <row r="6" spans="1:96">
+    <row r="6" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <v>42552</v>
       </c>
@@ -4181,7 +3574,7 @@
       <c r="CQ6" s="5"/>
       <c r="CR6" s="5"/>
     </row>
-    <row r="7" spans="1:95">
+    <row r="7" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
         <v>42553</v>
       </c>
@@ -4312,7 +3705,7 @@
       <c r="CP7" s="5"/>
       <c r="CQ7" s="5"/>
     </row>
-    <row r="8" spans="1:94">
+    <row r="8" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
         <v>42554</v>
       </c>
@@ -4382,13 +3775,27 @@
       <c r="W8" s="5">
         <v>64</v>
       </c>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
+      <c r="X8" s="5">
+        <v>69</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>71</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>63</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>58</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>60</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>66</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>54</v>
+      </c>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
@@ -4454,7 +3861,7 @@
       <c r="CO8" s="5"/>
       <c r="CP8" s="5"/>
     </row>
-    <row r="9" spans="1:93">
+    <row r="9" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A9" s="13">
         <v>42555</v>
       </c>
@@ -4521,13 +3928,27 @@
       <c r="V9" s="5">
         <v>78</v>
       </c>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
+      <c r="W9" s="5">
+        <v>56</v>
+      </c>
+      <c r="X9" s="5">
+        <v>58</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>87</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>79</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>75</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>66</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>52</v>
+      </c>
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
@@ -4593,7 +4014,7 @@
       <c r="CN9" s="5"/>
       <c r="CO9" s="5"/>
     </row>
-    <row r="10" spans="1:92">
+    <row r="10" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A10" s="13">
         <v>42556</v>
       </c>
@@ -4657,13 +4078,27 @@
       <c r="U10" s="5">
         <v>84</v>
       </c>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
+      <c r="V10" s="5">
+        <v>68</v>
+      </c>
+      <c r="W10" s="5">
+        <v>57</v>
+      </c>
+      <c r="X10" s="5">
+        <v>83</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>86</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>83</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>84</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>79</v>
+      </c>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
@@ -4729,7 +4164,7 @@
       <c r="CM10" s="5"/>
       <c r="CN10" s="5"/>
     </row>
-    <row r="11" spans="1:91">
+    <row r="11" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A11" s="13">
         <v>42557</v>
       </c>
@@ -4790,13 +4225,27 @@
       <c r="T11" s="5">
         <v>66</v>
       </c>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
+      <c r="U11" s="5">
+        <v>39</v>
+      </c>
+      <c r="V11" s="5">
+        <v>52</v>
+      </c>
+      <c r="W11" s="5">
+        <v>88</v>
+      </c>
+      <c r="X11" s="5">
+        <v>73</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>69</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>56</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>65</v>
+      </c>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
@@ -4862,7 +4311,7 @@
       <c r="CL11" s="5"/>
       <c r="CM11" s="5"/>
     </row>
-    <row r="12" spans="1:90">
+    <row r="12" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A12" s="13">
         <v>42558</v>
       </c>
@@ -4920,13 +4369,27 @@
       <c r="S12" s="5">
         <v>76</v>
       </c>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
+      <c r="T12" s="5">
+        <v>52</v>
+      </c>
+      <c r="U12" s="5">
+        <v>44</v>
+      </c>
+      <c r="V12" s="5">
+        <v>82</v>
+      </c>
+      <c r="W12" s="5">
+        <v>76</v>
+      </c>
+      <c r="X12" s="5">
+        <v>68</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>73</v>
+      </c>
+      <c r="Z12" s="5">
+        <v>74</v>
+      </c>
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
@@ -4992,7 +4455,7 @@
       <c r="CK12" s="5"/>
       <c r="CL12" s="5"/>
     </row>
-    <row r="13" spans="1:89">
+    <row r="13" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A13" s="13">
         <v>42559</v>
       </c>
@@ -5047,13 +4510,27 @@
       <c r="R13" s="5">
         <v>87</v>
       </c>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
+      <c r="S13" s="5">
+        <v>54</v>
+      </c>
+      <c r="T13" s="5">
+        <v>42</v>
+      </c>
+      <c r="U13" s="5">
+        <v>87</v>
+      </c>
+      <c r="V13" s="5">
+        <v>75</v>
+      </c>
+      <c r="W13" s="5">
+        <v>62</v>
+      </c>
+      <c r="X13" s="5">
+        <v>75</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>76</v>
+      </c>
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
@@ -5119,7 +4596,7 @@
       <c r="CJ13" s="5"/>
       <c r="CK13" s="5"/>
     </row>
-    <row r="14" spans="1:88">
+    <row r="14" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A14" s="13">
         <v>42560</v>
       </c>
@@ -5171,13 +4648,27 @@
       <c r="Q14" s="5">
         <v>82</v>
       </c>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
+      <c r="R14" s="5">
+        <v>72</v>
+      </c>
+      <c r="S14" s="5">
+        <v>77</v>
+      </c>
+      <c r="T14" s="5">
+        <v>75</v>
+      </c>
+      <c r="U14" s="5">
+        <v>78</v>
+      </c>
+      <c r="V14" s="5">
+        <v>75</v>
+      </c>
+      <c r="W14" s="5">
+        <v>80</v>
+      </c>
+      <c r="X14" s="5">
+        <v>65</v>
+      </c>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
@@ -5243,7 +4734,7 @@
       <c r="CI14" s="5"/>
       <c r="CJ14" s="5"/>
     </row>
-    <row r="15" spans="1:87">
+    <row r="15" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A15" s="13">
         <v>42561</v>
       </c>
@@ -5292,13 +4783,27 @@
       <c r="P15" s="5">
         <v>82</v>
       </c>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
+      <c r="Q15" s="5">
+        <v>98</v>
+      </c>
+      <c r="R15" s="5">
+        <v>87</v>
+      </c>
+      <c r="S15" s="5">
+        <v>88</v>
+      </c>
+      <c r="T15" s="5">
+        <v>90</v>
+      </c>
+      <c r="U15" s="5">
+        <v>96</v>
+      </c>
+      <c r="V15" s="5">
+        <v>67</v>
+      </c>
+      <c r="W15" s="5">
+        <v>66</v>
+      </c>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
@@ -5364,7 +4869,7 @@
       <c r="CH15" s="5"/>
       <c r="CI15" s="5"/>
     </row>
-    <row r="16" spans="1:86">
+    <row r="16" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A16" s="13">
         <v>42562</v>
       </c>
@@ -5410,13 +4915,27 @@
       <c r="O16" s="5">
         <v>95</v>
       </c>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
+      <c r="P16" s="5">
+        <v>77</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>57</v>
+      </c>
+      <c r="R16" s="5">
+        <v>91</v>
+      </c>
+      <c r="S16" s="5">
+        <v>99</v>
+      </c>
+      <c r="T16" s="5">
+        <v>87</v>
+      </c>
+      <c r="U16" s="5">
+        <v>99</v>
+      </c>
+      <c r="V16" s="5">
+        <v>88</v>
+      </c>
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
@@ -5482,7 +5001,7 @@
       <c r="CG16" s="5"/>
       <c r="CH16" s="5"/>
     </row>
-    <row r="17" spans="1:85">
+    <row r="17" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A17" s="13">
         <v>42563</v>
       </c>
@@ -5525,13 +5044,27 @@
       <c r="N17" s="5">
         <v>95</v>
       </c>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
+      <c r="O17" s="5">
+        <v>63</v>
+      </c>
+      <c r="P17" s="5">
+        <v>57</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>92</v>
+      </c>
+      <c r="R17" s="5">
+        <v>89</v>
+      </c>
+      <c r="S17" s="5">
+        <v>71</v>
+      </c>
+      <c r="T17" s="5">
+        <v>76</v>
+      </c>
+      <c r="U17" s="5">
+        <v>64</v>
+      </c>
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
@@ -5597,7 +5130,7 @@
       <c r="CF17" s="5"/>
       <c r="CG17" s="5"/>
     </row>
-    <row r="18" spans="1:84">
+    <row r="18" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A18" s="13">
         <v>42564</v>
       </c>
@@ -5637,13 +5170,27 @@
       <c r="M18" s="5">
         <v>114</v>
       </c>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
+      <c r="N18" s="5">
+        <v>84</v>
+      </c>
+      <c r="O18" s="5">
+        <v>57</v>
+      </c>
+      <c r="P18" s="5">
+        <v>83</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>90</v>
+      </c>
+      <c r="R18" s="5">
+        <v>88</v>
+      </c>
+      <c r="S18" s="5">
+        <v>80</v>
+      </c>
+      <c r="T18" s="5">
+        <v>84</v>
+      </c>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
@@ -5709,7 +5256,7 @@
       <c r="CE18" s="5"/>
       <c r="CF18" s="5"/>
     </row>
-    <row r="19" spans="1:83">
+    <row r="19" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A19" s="13">
         <v>42565</v>
       </c>
@@ -5746,13 +5293,27 @@
       <c r="L19" s="5">
         <v>94</v>
       </c>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
+      <c r="M19" s="5">
+        <v>79</v>
+      </c>
+      <c r="N19" s="5">
+        <v>75</v>
+      </c>
+      <c r="O19" s="5">
+        <v>107</v>
+      </c>
+      <c r="P19" s="5">
+        <v>97</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>90</v>
+      </c>
+      <c r="R19" s="5">
+        <v>93</v>
+      </c>
+      <c r="S19" s="5">
+        <v>85</v>
+      </c>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
@@ -5818,7 +5379,7 @@
       <c r="CD19" s="5"/>
       <c r="CE19" s="5"/>
     </row>
-    <row r="20" spans="1:82">
+    <row r="20" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A20" s="13">
         <v>42566</v>
       </c>
@@ -5852,13 +5413,27 @@
       <c r="K20" s="5">
         <v>150</v>
       </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
+      <c r="L20" s="5">
+        <v>92</v>
+      </c>
+      <c r="M20" s="5">
+        <v>81</v>
+      </c>
+      <c r="N20" s="5">
+        <v>122</v>
+      </c>
+      <c r="O20" s="5">
+        <v>107</v>
+      </c>
+      <c r="P20" s="5">
+        <v>113</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>114</v>
+      </c>
+      <c r="R20" s="5">
+        <v>108</v>
+      </c>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
@@ -5924,7 +5499,7 @@
       <c r="CC20" s="5"/>
       <c r="CD20" s="5"/>
     </row>
-    <row r="21" spans="1:81">
+    <row r="21" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A21" s="13">
         <v>42567</v>
       </c>
@@ -5955,13 +5530,27 @@
       <c r="J21" s="5">
         <v>108</v>
       </c>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
+      <c r="K21" s="5">
+        <v>90</v>
+      </c>
+      <c r="L21" s="5">
+        <v>86</v>
+      </c>
+      <c r="M21" s="5">
+        <v>95</v>
+      </c>
+      <c r="N21" s="5">
+        <v>83</v>
+      </c>
+      <c r="O21" s="5">
+        <v>78</v>
+      </c>
+      <c r="P21" s="5">
+        <v>80</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>71</v>
+      </c>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
@@ -6027,7 +5616,7 @@
       <c r="CB21" s="5"/>
       <c r="CC21" s="5"/>
     </row>
-    <row r="22" spans="1:80">
+    <row r="22" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A22" s="13">
         <v>42568</v>
       </c>
@@ -6055,13 +5644,27 @@
       <c r="I22" s="5">
         <v>118</v>
       </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
+      <c r="J22" s="5">
+        <v>106</v>
+      </c>
+      <c r="K22" s="5">
+        <v>93</v>
+      </c>
+      <c r="L22" s="5">
+        <v>95</v>
+      </c>
+      <c r="M22" s="5">
+        <v>90</v>
+      </c>
+      <c r="N22" s="5">
+        <v>99</v>
+      </c>
+      <c r="O22" s="5">
+        <v>56</v>
+      </c>
+      <c r="P22" s="5">
+        <v>84</v>
+      </c>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -6127,7 +5730,7 @@
       <c r="CA22" s="5"/>
       <c r="CB22" s="5"/>
     </row>
-    <row r="23" spans="1:79">
+    <row r="23" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A23" s="13">
         <v>42569</v>
       </c>
@@ -6152,13 +5755,27 @@
       <c r="H23" s="5">
         <v>146</v>
       </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
+      <c r="I23" s="5">
+        <v>87</v>
+      </c>
+      <c r="J23" s="5">
+        <v>79</v>
+      </c>
+      <c r="K23" s="5">
+        <v>120</v>
+      </c>
+      <c r="L23" s="5">
+        <v>106</v>
+      </c>
+      <c r="M23" s="5">
+        <v>93</v>
+      </c>
+      <c r="N23" s="5">
+        <v>97</v>
+      </c>
+      <c r="O23" s="5">
+        <v>76</v>
+      </c>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
@@ -6224,7 +5841,7 @@
       <c r="BZ23" s="5"/>
       <c r="CA23" s="5"/>
     </row>
-    <row r="24" spans="1:78">
+    <row r="24" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A24" s="13">
         <v>42570</v>
       </c>
@@ -6246,13 +5863,27 @@
       <c r="G24" s="5">
         <v>175</v>
       </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
+      <c r="H24" s="5">
+        <v>121</v>
+      </c>
+      <c r="I24" s="5">
+        <v>96</v>
+      </c>
+      <c r="J24" s="5">
+        <v>136</v>
+      </c>
+      <c r="K24" s="5">
+        <v>128</v>
+      </c>
+      <c r="L24" s="5">
+        <v>100</v>
+      </c>
+      <c r="M24" s="5">
+        <v>92</v>
+      </c>
+      <c r="N24" s="5">
+        <v>86</v>
+      </c>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
@@ -6318,7 +5949,7 @@
       <c r="BY24" s="5"/>
       <c r="BZ24" s="5"/>
     </row>
-    <row r="25" spans="1:77">
+    <row r="25" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A25" s="13">
         <v>42571</v>
       </c>
@@ -6337,13 +5968,27 @@
       <c r="F25" s="5">
         <v>223</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
+      <c r="G25" s="5">
+        <v>149</v>
+      </c>
+      <c r="H25" s="5">
+        <v>127</v>
+      </c>
+      <c r="I25" s="5">
+        <v>164</v>
+      </c>
+      <c r="J25" s="5">
+        <v>132</v>
+      </c>
+      <c r="K25" s="5">
+        <v>137</v>
+      </c>
+      <c r="L25" s="5">
+        <v>131</v>
+      </c>
+      <c r="M25" s="5">
+        <v>111</v>
+      </c>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
@@ -6409,7 +6054,7 @@
       <c r="BX25" s="5"/>
       <c r="BY25" s="5"/>
     </row>
-    <row r="26" spans="1:76">
+    <row r="26" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A26" s="13">
         <v>42572</v>
       </c>
@@ -6425,13 +6070,27 @@
       <c r="E26" s="5">
         <v>306</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
+      <c r="F26" s="5">
+        <v>147</v>
+      </c>
+      <c r="G26" s="5">
+        <v>106</v>
+      </c>
+      <c r="H26" s="5">
+        <v>161</v>
+      </c>
+      <c r="I26" s="5">
+        <v>160</v>
+      </c>
+      <c r="J26" s="5">
+        <v>143</v>
+      </c>
+      <c r="K26" s="5">
+        <v>115</v>
+      </c>
+      <c r="L26" s="5">
+        <v>107</v>
+      </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
@@ -6497,7 +6156,7 @@
       <c r="BW26" s="5"/>
       <c r="BX26" s="5"/>
     </row>
-    <row r="27" spans="1:75">
+    <row r="27" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A27" s="13">
         <v>42573</v>
       </c>
@@ -6510,13 +6169,27 @@
       <c r="D27" s="5">
         <v>921</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
+      <c r="E27" s="5">
+        <v>250</v>
+      </c>
+      <c r="F27" s="5">
+        <v>148</v>
+      </c>
+      <c r="G27" s="5">
+        <v>188</v>
+      </c>
+      <c r="H27" s="5">
+        <v>190</v>
+      </c>
+      <c r="I27" s="5">
+        <v>148</v>
+      </c>
+      <c r="J27" s="5">
+        <v>152</v>
+      </c>
+      <c r="K27" s="5">
+        <v>127</v>
+      </c>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
@@ -6582,17 +6255,37 @@
       <c r="BV27" s="5"/>
       <c r="BW27" s="5"/>
     </row>
-    <row r="28" spans="1:74">
-      <c r="A28" s="2"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
+    <row r="28" spans="1:85" x14ac:dyDescent="0.15">
+      <c r="A28" s="13">
+        <v>42574</v>
+      </c>
+      <c r="B28" s="5">
+        <v>2837</v>
+      </c>
+      <c r="C28" s="5">
+        <v>4448</v>
+      </c>
+      <c r="D28" s="5">
+        <v>928</v>
+      </c>
+      <c r="E28" s="5">
+        <v>322</v>
+      </c>
+      <c r="F28" s="5">
+        <v>247</v>
+      </c>
+      <c r="G28" s="5">
+        <v>185</v>
+      </c>
+      <c r="H28" s="5">
+        <v>158</v>
+      </c>
+      <c r="I28" s="5">
+        <v>131</v>
+      </c>
+      <c r="J28" s="5">
+        <v>137</v>
+      </c>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
@@ -6658,16 +6351,34 @@
       <c r="BU28" s="5"/>
       <c r="BV28" s="5"/>
     </row>
-    <row r="29" spans="1:73">
-      <c r="A29" s="2"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+    <row r="29" spans="1:85" x14ac:dyDescent="0.15">
+      <c r="A29" s="13">
+        <v>42575</v>
+      </c>
+      <c r="B29" s="5">
+        <v>2809</v>
+      </c>
+      <c r="C29" s="5">
+        <v>4649</v>
+      </c>
+      <c r="D29" s="5">
+        <v>934</v>
+      </c>
+      <c r="E29" s="5">
+        <v>304</v>
+      </c>
+      <c r="F29" s="5">
+        <v>191</v>
+      </c>
+      <c r="G29" s="5">
+        <v>149</v>
+      </c>
+      <c r="H29" s="5">
+        <v>133</v>
+      </c>
+      <c r="I29" s="5">
+        <v>126</v>
+      </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
@@ -6733,15 +6444,31 @@
       <c r="BT29" s="5"/>
       <c r="BU29" s="5"/>
     </row>
-    <row r="30" spans="1:72">
-      <c r="A30" s="2"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
+    <row r="30" spans="1:85" x14ac:dyDescent="0.15">
+      <c r="A30" s="13">
+        <v>42576</v>
+      </c>
+      <c r="B30" s="5">
+        <v>3647</v>
+      </c>
+      <c r="C30" s="5">
+        <v>4125</v>
+      </c>
+      <c r="D30" s="5">
+        <v>884</v>
+      </c>
+      <c r="E30" s="5">
+        <v>304</v>
+      </c>
+      <c r="F30" s="5">
+        <v>202</v>
+      </c>
+      <c r="G30" s="5">
+        <v>169</v>
+      </c>
+      <c r="H30" s="5">
+        <v>147</v>
+      </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
@@ -6807,14 +6534,28 @@
       <c r="BS30" s="5"/>
       <c r="BT30" s="5"/>
     </row>
-    <row r="31" spans="1:71">
-      <c r="A31" s="2"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+    <row r="31" spans="1:85" x14ac:dyDescent="0.15">
+      <c r="A31" s="13">
+        <v>42577</v>
+      </c>
+      <c r="B31" s="5">
+        <v>3645</v>
+      </c>
+      <c r="C31" s="5">
+        <v>4281</v>
+      </c>
+      <c r="D31" s="5">
+        <v>893</v>
+      </c>
+      <c r="E31" s="5">
+        <v>321</v>
+      </c>
+      <c r="F31" s="5">
+        <v>198</v>
+      </c>
+      <c r="G31" s="5">
+        <v>168</v>
+      </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
@@ -6880,13 +6621,25 @@
       <c r="BR31" s="5"/>
       <c r="BS31" s="5"/>
     </row>
-    <row r="32" spans="1:70">
-      <c r="A32" s="2"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
+    <row r="32" spans="1:85" x14ac:dyDescent="0.15">
+      <c r="A32" s="13">
+        <v>42578</v>
+      </c>
+      <c r="B32" s="5">
+        <v>3592</v>
+      </c>
+      <c r="C32" s="5">
+        <v>4303</v>
+      </c>
+      <c r="D32" s="5">
+        <v>873</v>
+      </c>
+      <c r="E32" s="5">
+        <v>319</v>
+      </c>
+      <c r="F32" s="5">
+        <v>296</v>
+      </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
@@ -6952,12 +6705,22 @@
       <c r="BQ32" s="5"/>
       <c r="BR32" s="5"/>
     </row>
-    <row r="33" spans="1:69">
-      <c r="A33" s="2"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+    <row r="33" spans="1:69" x14ac:dyDescent="0.15">
+      <c r="A33" s="13">
+        <v>42579</v>
+      </c>
+      <c r="B33" s="5">
+        <v>3613</v>
+      </c>
+      <c r="C33" s="5">
+        <v>4271</v>
+      </c>
+      <c r="D33" s="5">
+        <v>857</v>
+      </c>
+      <c r="E33" s="5">
+        <v>311</v>
+      </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
@@ -7023,11 +6786,19 @@
       <c r="BP33" s="5"/>
       <c r="BQ33" s="5"/>
     </row>
-    <row r="34" spans="1:68">
-      <c r="A34" s="2"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+    <row r="34" spans="1:69" x14ac:dyDescent="0.15">
+      <c r="A34" s="13">
+        <v>42580</v>
+      </c>
+      <c r="B34" s="5">
+        <v>3618</v>
+      </c>
+      <c r="C34" s="5">
+        <v>4278</v>
+      </c>
+      <c r="D34" s="5">
+        <v>875</v>
+      </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -7093,8 +6864,10 @@
       <c r="BO34" s="5"/>
       <c r="BP34" s="5"/>
     </row>
-    <row r="35" spans="1:67">
-      <c r="A35" s="2"/>
+    <row r="35" spans="1:69" x14ac:dyDescent="0.15">
+      <c r="A35" s="13">
+        <v>42581</v>
+      </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -7162,8 +6935,10 @@
       <c r="BN35" s="5"/>
       <c r="BO35" s="5"/>
     </row>
-    <row r="36" spans="1:66">
-      <c r="A36" s="2"/>
+    <row r="36" spans="1:69" x14ac:dyDescent="0.15">
+      <c r="A36" s="13">
+        <v>42582</v>
+      </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -7230,8 +7005,10 @@
       <c r="BM36" s="5"/>
       <c r="BN36" s="5"/>
     </row>
-    <row r="37" spans="1:65">
-      <c r="A37" s="2"/>
+    <row r="37" spans="1:69" x14ac:dyDescent="0.15">
+      <c r="A37" s="13">
+        <v>42583</v>
+      </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -7297,7 +7074,7 @@
       <c r="BL37" s="5"/>
       <c r="BM37" s="5"/>
     </row>
-    <row r="38" spans="1:64">
+    <row r="38" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -7363,7 +7140,7 @@
       <c r="BK38" s="5"/>
       <c r="BL38" s="5"/>
     </row>
-    <row r="39" spans="1:63">
+    <row r="39" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -7428,7 +7205,7 @@
       <c r="BJ39" s="5"/>
       <c r="BK39" s="5"/>
     </row>
-    <row r="40" spans="1:62">
+    <row r="40" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -7492,7 +7269,7 @@
       <c r="BI40" s="5"/>
       <c r="BJ40" s="5"/>
     </row>
-    <row r="41" spans="1:61">
+    <row r="41" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A41" s="2"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -7555,7 +7332,7 @@
       <c r="BH41" s="5"/>
       <c r="BI41" s="5"/>
     </row>
-    <row r="42" ht="14.25" spans="1:60">
+    <row r="42" spans="1:69" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="2"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -7614,7 +7391,7 @@
       <c r="BG42" s="5"/>
       <c r="BH42" s="5"/>
     </row>
-    <row r="43" ht="14.25" spans="1:59">
+    <row r="43" spans="1:69" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -7673,7 +7450,7 @@
       <c r="BF43" s="5"/>
       <c r="BG43" s="5"/>
     </row>
-    <row r="44" ht="14.25" spans="1:58">
+    <row r="44" spans="1:69" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="2"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -7732,7 +7509,7 @@
       <c r="BE44" s="5"/>
       <c r="BF44" s="5"/>
     </row>
-    <row r="45" ht="14.25" spans="1:57">
+    <row r="45" spans="1:69" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -7791,7 +7568,7 @@
       <c r="BD45" s="5"/>
       <c r="BE45" s="5"/>
     </row>
-    <row r="46" ht="14.25" spans="1:56">
+    <row r="46" spans="1:69" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -7849,7 +7626,7 @@
       <c r="BC46" s="5"/>
       <c r="BD46" s="5"/>
     </row>
-    <row r="47" ht="14.25" spans="1:55">
+    <row r="47" spans="1:69" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -7906,7 +7683,7 @@
       <c r="BB47" s="5"/>
       <c r="BC47" s="5"/>
     </row>
-    <row r="48" ht="14.25" spans="1:54">
+    <row r="48" spans="1:69" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -7962,7 +7739,7 @@
       <c r="BA48" s="5"/>
       <c r="BB48" s="5"/>
     </row>
-    <row r="49" ht="14.25" spans="1:53">
+    <row r="49" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -8017,7 +7794,7 @@
       <c r="AZ49" s="5"/>
       <c r="BA49" s="5"/>
     </row>
-    <row r="50" ht="14.25" spans="1:52">
+    <row r="50" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -8071,7 +7848,7 @@
       <c r="AY50" s="5"/>
       <c r="AZ50" s="5"/>
     </row>
-    <row r="51" ht="14.25" spans="1:51">
+    <row r="51" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -8124,7 +7901,7 @@
       <c r="AX51" s="5"/>
       <c r="AY51" s="5"/>
     </row>
-    <row r="52" ht="14.25" spans="1:50">
+    <row r="52" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -8176,7 +7953,7 @@
       <c r="AW52" s="5"/>
       <c r="AX52" s="5"/>
     </row>
-    <row r="53" ht="14.25" spans="1:49">
+    <row r="53" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -8227,7 +8004,7 @@
       <c r="AV53" s="5"/>
       <c r="AW53" s="5"/>
     </row>
-    <row r="54" ht="14.25" spans="1:48">
+    <row r="54" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -8277,7 +8054,7 @@
       <c r="AU54" s="10"/>
       <c r="AV54" s="5"/>
     </row>
-    <row r="55" ht="14.25" spans="1:47">
+    <row r="55" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A55" s="2"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -8326,7 +8103,7 @@
       <c r="AT55" s="10"/>
       <c r="AU55" s="10"/>
     </row>
-    <row r="56" ht="14.25" spans="1:46">
+    <row r="56" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="2"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -8374,7 +8151,7 @@
       <c r="AS56" s="10"/>
       <c r="AT56" s="10"/>
     </row>
-    <row r="57" ht="14.25" spans="1:46">
+    <row r="57" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A57" s="2"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -8422,7 +8199,7 @@
       <c r="AS57" s="10"/>
       <c r="AT57" s="10"/>
     </row>
-    <row r="58" ht="14.25" spans="1:46">
+    <row r="58" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="2"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -8470,7 +8247,7 @@
       <c r="AS58" s="10"/>
       <c r="AT58" s="10"/>
     </row>
-    <row r="59" ht="14.25" spans="1:46">
+    <row r="59" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -8518,7 +8295,7 @@
       <c r="AS59" s="10"/>
       <c r="AT59" s="10"/>
     </row>
-    <row r="60" ht="14.25" spans="1:46">
+    <row r="60" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -8566,7 +8343,7 @@
       <c r="AS60" s="10"/>
       <c r="AT60" s="10"/>
     </row>
-    <row r="61" ht="14.25" spans="1:59">
+    <row r="61" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -8627,7 +8404,7 @@
       <c r="BF61" s="10"/>
       <c r="BG61" s="10"/>
     </row>
-    <row r="62" ht="14.25" spans="1:46">
+    <row r="62" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A62" s="2"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -8675,7 +8452,7 @@
       <c r="AS62" s="10"/>
       <c r="AT62" s="10"/>
     </row>
-    <row r="63" ht="14.25" spans="1:58">
+    <row r="63" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A63" s="2"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -8735,7 +8512,7 @@
       <c r="BE63" s="10"/>
       <c r="BF63" s="10"/>
     </row>
-    <row r="64" ht="14.25" spans="1:57">
+    <row r="64" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A64" s="2"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -8794,7 +8571,7 @@
       <c r="BD64" s="10"/>
       <c r="BE64" s="10"/>
     </row>
-    <row r="65" ht="14.25" spans="1:46">
+    <row r="65" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A65" s="2"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -8842,7 +8619,7 @@
       <c r="AS65" s="10"/>
       <c r="AT65" s="10"/>
     </row>
-    <row r="66" ht="14.25" spans="1:46">
+    <row r="66" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A66" s="2"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -8890,7 +8667,7 @@
       <c r="AS66" s="10"/>
       <c r="AT66" s="10"/>
     </row>
-    <row r="67" ht="14.25" spans="1:46">
+    <row r="67" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A67" s="2"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -8938,7 +8715,7 @@
       <c r="AS67" s="10"/>
       <c r="AT67" s="10"/>
     </row>
-    <row r="68" ht="14.25" spans="1:53">
+    <row r="68" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A68" s="2"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -8993,7 +8770,7 @@
       <c r="AZ68" s="10"/>
       <c r="BA68" s="10"/>
     </row>
-    <row r="69" ht="14.25" spans="1:46">
+    <row r="69" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A69" s="2"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -9041,7 +8818,7 @@
       <c r="AS69" s="10"/>
       <c r="AT69" s="10"/>
     </row>
-    <row r="70" ht="14.25" spans="1:46">
+    <row r="70" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A70" s="2"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -9089,7 +8866,7 @@
       <c r="AS70" s="10"/>
       <c r="AT70" s="10"/>
     </row>
-    <row r="71" ht="14.25" spans="1:46">
+    <row r="71" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A71" s="2"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -9137,7 +8914,7 @@
       <c r="AS71" s="10"/>
       <c r="AT71" s="10"/>
     </row>
-    <row r="72" ht="14.25" spans="1:49">
+    <row r="72" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A72" s="2"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -9188,7 +8965,7 @@
       <c r="AV72" s="10"/>
       <c r="AW72" s="10"/>
     </row>
-    <row r="73" ht="14.25" spans="1:46">
+    <row r="73" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A73" s="2"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -9236,7 +9013,7 @@
       <c r="AS73" s="10"/>
       <c r="AT73" s="10"/>
     </row>
-    <row r="74" ht="14.25" spans="1:47">
+    <row r="74" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A74" s="2"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -9285,7 +9062,7 @@
       <c r="AT74" s="10"/>
       <c r="AU74" s="10"/>
     </row>
-    <row r="75" ht="14.25" spans="1:46">
+    <row r="75" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A75" s="2"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -9333,7 +9110,7 @@
       <c r="AS75" s="10"/>
       <c r="AT75" s="10"/>
     </row>
-    <row r="76" ht="14.25" spans="1:46">
+    <row r="76" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A76" s="2"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -9381,7 +9158,7 @@
       <c r="AS76" s="10"/>
       <c r="AT76" s="10"/>
     </row>
-    <row r="77" ht="14.25" spans="1:46">
+    <row r="77" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A77" s="2"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -9429,7 +9206,7 @@
       <c r="AS77" s="10"/>
       <c r="AT77" s="10"/>
     </row>
-    <row r="78" ht="14.25" spans="1:46">
+    <row r="78" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A78" s="2"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -9477,7 +9254,7 @@
       <c r="AS78" s="10"/>
       <c r="AT78" s="10"/>
     </row>
-    <row r="79" ht="14.25" spans="1:46">
+    <row r="79" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A79" s="2"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -9525,7 +9302,7 @@
       <c r="AS79" s="10"/>
       <c r="AT79" s="10"/>
     </row>
-    <row r="80" ht="14.25" spans="1:46">
+    <row r="80" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A80" s="2"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -9573,7 +9350,7 @@
       <c r="AS80" s="10"/>
       <c r="AT80" s="10"/>
     </row>
-    <row r="81" ht="14.25" spans="1:46">
+    <row r="81" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A81" s="2"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -9621,7 +9398,7 @@
       <c r="AS81" s="10"/>
       <c r="AT81" s="10"/>
     </row>
-    <row r="82" ht="14.25" spans="1:46">
+    <row r="82" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="2"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -9669,7 +9446,7 @@
       <c r="AS82" s="10"/>
       <c r="AT82" s="10"/>
     </row>
-    <row r="83" ht="14.25" spans="1:46">
+    <row r="83" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A83" s="2"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -9717,7 +9494,7 @@
       <c r="AS83" s="10"/>
       <c r="AT83" s="10"/>
     </row>
-    <row r="84" ht="14.25" spans="1:46">
+    <row r="84" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A84" s="2"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -9765,7 +9542,7 @@
       <c r="AS84" s="10"/>
       <c r="AT84" s="10"/>
     </row>
-    <row r="85" ht="14.25" spans="1:46">
+    <row r="85" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A85" s="2"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -9806,7 +9583,7 @@
       <c r="AS85" s="10"/>
       <c r="AT85" s="10"/>
     </row>
-    <row r="86" ht="14.25" spans="1:46">
+    <row r="86" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A86" s="2"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -9854,7 +9631,7 @@
       <c r="AS86" s="10"/>
       <c r="AT86" s="10"/>
     </row>
-    <row r="87" ht="14.25" spans="1:34">
+    <row r="87" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A87" s="2"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -9890,7 +9667,7 @@
       <c r="AG87" s="10"/>
       <c r="AH87" s="10"/>
     </row>
-    <row r="88" ht="14.25" spans="1:33">
+    <row r="88" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A88" s="2"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -9925,7 +9702,7 @@
       <c r="AF88" s="10"/>
       <c r="AG88" s="10"/>
     </row>
-    <row r="89" ht="14.25" spans="1:32">
+    <row r="89" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A89" s="2"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -9959,7 +9736,7 @@
       <c r="AE89" s="10"/>
       <c r="AF89" s="10"/>
     </row>
-    <row r="90" ht="14.25" spans="1:31">
+    <row r="90" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A90" s="2"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -9992,7 +9769,7 @@
       <c r="AD90" s="10"/>
       <c r="AE90" s="10"/>
     </row>
-    <row r="91" ht="14.25" spans="1:30">
+    <row r="91" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A91" s="2"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -10024,7 +9801,7 @@
       <c r="AC91" s="10"/>
       <c r="AD91" s="10"/>
     </row>
-    <row r="92" ht="14.25" spans="1:29">
+    <row r="92" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A92" s="2"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -10055,7 +9832,7 @@
       <c r="AB92" s="10"/>
       <c r="AC92" s="10"/>
     </row>
-    <row r="93" ht="14.25" spans="1:28">
+    <row r="93" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A93" s="2"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -10085,7 +9862,7 @@
       <c r="AA93" s="10"/>
       <c r="AB93" s="10"/>
     </row>
-    <row r="94" ht="14.25" spans="1:27">
+    <row r="94" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A94" s="2"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -10114,7 +9891,7 @@
       <c r="Z94" s="10"/>
       <c r="AA94" s="10"/>
     </row>
-    <row r="95" ht="14.25" spans="1:26">
+    <row r="95" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A95" s="2"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -10142,7 +9919,7 @@
       <c r="Y95" s="10"/>
       <c r="Z95" s="10"/>
     </row>
-    <row r="96" ht="14.25" spans="1:25">
+    <row r="96" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A96" s="2"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -10169,7 +9946,7 @@
       <c r="X96" s="10"/>
       <c r="Y96" s="10"/>
     </row>
-    <row r="97" ht="14.25" spans="1:24">
+    <row r="97" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A97" s="2"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -10195,7 +9972,7 @@
       <c r="W97" s="10"/>
       <c r="X97" s="10"/>
     </row>
-    <row r="98" ht="14.25" spans="1:23">
+    <row r="98" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A98" s="2"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -10220,7 +9997,7 @@
       <c r="V98" s="10"/>
       <c r="W98" s="10"/>
     </row>
-    <row r="99" ht="14.25" spans="1:22">
+    <row r="99" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A99" s="2"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -10244,7 +10021,7 @@
       <c r="U99" s="10"/>
       <c r="V99" s="10"/>
     </row>
-    <row r="100" ht="14.25" spans="1:21">
+    <row r="100" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A100" s="2"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -10267,7 +10044,7 @@
       <c r="T100" s="10"/>
       <c r="U100" s="10"/>
     </row>
-    <row r="101" ht="14.25" spans="1:20">
+    <row r="101" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A101" s="2"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -10289,7 +10066,7 @@
       <c r="S101" s="10"/>
       <c r="T101" s="10"/>
     </row>
-    <row r="102" ht="14.25" spans="1:19">
+    <row r="102" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A102" s="2"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -10310,7 +10087,7 @@
       <c r="R102" s="10"/>
       <c r="S102" s="10"/>
     </row>
-    <row r="103" ht="14.25" spans="1:18">
+    <row r="103" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A103" s="2"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -10330,7 +10107,7 @@
       <c r="Q103" s="10"/>
       <c r="R103" s="10"/>
     </row>
-    <row r="104" ht="14.25" spans="1:17">
+    <row r="104" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A104" s="2"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -10349,7 +10126,7 @@
       <c r="P104" s="10"/>
       <c r="Q104" s="10"/>
     </row>
-    <row r="105" ht="14.25" spans="1:16">
+    <row r="105" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A105" s="2"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -10367,7 +10144,7 @@
       <c r="O105" s="10"/>
       <c r="P105" s="10"/>
     </row>
-    <row r="106" ht="14.25" spans="1:15">
+    <row r="106" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A106" s="2"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -10384,7 +10161,7 @@
       <c r="N106" s="10"/>
       <c r="O106" s="10"/>
     </row>
-    <row r="107" ht="14.25" spans="1:14">
+    <row r="107" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A107" s="2"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -10400,7 +10177,7 @@
       <c r="M107" s="10"/>
       <c r="N107" s="10"/>
     </row>
-    <row r="108" ht="14.25" spans="1:13">
+    <row r="108" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A108" s="2"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -10415,7 +10192,7 @@
       <c r="L108" s="10"/>
       <c r="M108" s="10"/>
     </row>
-    <row r="109" ht="14.25" spans="1:12">
+    <row r="109" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A109" s="2"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -10429,7 +10206,7 @@
       <c r="K109" s="10"/>
       <c r="L109" s="10"/>
     </row>
-    <row r="110" ht="14.25" spans="1:11">
+    <row r="110" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A110" s="2"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -10442,7 +10219,7 @@
       <c r="J110" s="10"/>
       <c r="K110" s="10"/>
     </row>
-    <row r="111" ht="14.25" spans="1:10">
+    <row r="111" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A111" s="2"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -10454,7 +10231,7 @@
       <c r="I111" s="10"/>
       <c r="J111" s="10"/>
     </row>
-    <row r="112" ht="14.25" spans="1:9">
+    <row r="112" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A112" s="2"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -10465,7 +10242,7 @@
       <c r="H112" s="10"/>
       <c r="I112" s="10"/>
     </row>
-    <row r="113" ht="14.25" spans="1:8">
+    <row r="113" spans="1:97" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A113" s="2"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -10475,7 +10252,7 @@
       <c r="G113" s="10"/>
       <c r="H113" s="10"/>
     </row>
-    <row r="114" ht="14.25" spans="1:7">
+    <row r="114" spans="1:97" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A114" s="2"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -10484,7 +10261,7 @@
       <c r="F114" s="10"/>
       <c r="G114" s="10"/>
     </row>
-    <row r="115" ht="14.25" spans="1:6">
+    <row r="115" spans="1:97" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A115" s="2"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -10492,74 +10269,74 @@
       <c r="E115" s="10"/>
       <c r="F115" s="10"/>
     </row>
-    <row r="116" ht="14.25" spans="1:5">
+    <row r="116" spans="1:97" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A116" s="2"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="10"/>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A117" s="2"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A118" s="2"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A119" s="2"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A120" s="2"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A121" s="2"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A122" s="2"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A123" s="2"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A124" s="2"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A125" s="2"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A126" s="2"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
     </row>
-    <row r="128" ht="14.25" spans="1:97">
+    <row r="128" spans="1:97" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -10612,7 +10389,7 @@
       <c r="CQ128" s="5"/>
       <c r="CS128" s="5"/>
     </row>
-    <row r="129" spans="1:95">
+    <row r="129" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A129" s="16"/>
       <c r="C129" s="5"/>
       <c r="D129" s="7"/>
@@ -10708,7 +10485,7 @@
       <c r="CP129" s="7"/>
       <c r="CQ129" s="7"/>
     </row>
-    <row r="130" spans="1:95">
+    <row r="130" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A130" s="16"/>
       <c r="C130" s="5"/>
       <c r="D130" s="7"/>
@@ -10804,7 +10581,7 @@
       <c r="CP130" s="7"/>
       <c r="CQ130" s="7"/>
     </row>
-    <row r="131" spans="1:95">
+    <row r="131" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A131" s="16"/>
       <c r="C131" s="5"/>
       <c r="D131" s="7"/>
@@ -10900,7 +10677,7 @@
       <c r="CP131" s="7"/>
       <c r="CQ131" s="7"/>
     </row>
-    <row r="132" spans="1:95">
+    <row r="132" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A132" s="16"/>
       <c r="C132" s="5"/>
       <c r="D132" s="7"/>
@@ -10996,7 +10773,7 @@
       <c r="CP132" s="7"/>
       <c r="CQ132" s="7"/>
     </row>
-    <row r="133" spans="1:95">
+    <row r="133" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A133" s="16"/>
       <c r="C133" s="5"/>
       <c r="D133" s="7"/>
@@ -11092,7 +10869,7 @@
       <c r="CP133" s="7"/>
       <c r="CQ133" s="7"/>
     </row>
-    <row r="134" spans="1:95">
+    <row r="134" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A134" s="16"/>
       <c r="C134" s="5"/>
       <c r="D134" s="7"/>
@@ -11188,7 +10965,7 @@
       <c r="CP134" s="7"/>
       <c r="CQ134" s="7"/>
     </row>
-    <row r="135" spans="1:95">
+    <row r="135" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A135" s="16"/>
       <c r="C135" s="5"/>
       <c r="D135" s="7"/>
@@ -11284,7 +11061,7 @@
       <c r="CP135" s="7"/>
       <c r="CQ135" s="7"/>
     </row>
-    <row r="136" spans="1:95">
+    <row r="136" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A136" s="16"/>
       <c r="C136" s="5"/>
       <c r="D136" s="7"/>
@@ -11380,7 +11157,7 @@
       <c r="CP136" s="7"/>
       <c r="CQ136" s="7"/>
     </row>
-    <row r="137" spans="1:95">
+    <row r="137" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A137" s="16"/>
       <c r="C137" s="5"/>
       <c r="D137" s="7"/>
@@ -11476,7 +11253,7 @@
       <c r="CP137" s="7"/>
       <c r="CQ137" s="7"/>
     </row>
-    <row r="138" spans="1:95">
+    <row r="138" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A138" s="16"/>
       <c r="C138" s="5"/>
       <c r="D138" s="7"/>
@@ -11572,7 +11349,7 @@
       <c r="CP138" s="7"/>
       <c r="CQ138" s="7"/>
     </row>
-    <row r="139" spans="1:95">
+    <row r="139" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A139" s="16"/>
       <c r="C139" s="5"/>
       <c r="D139" s="7"/>
@@ -11668,7 +11445,7 @@
       <c r="CP139" s="7"/>
       <c r="CQ139" s="7"/>
     </row>
-    <row r="140" spans="1:95">
+    <row r="140" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A140" s="16"/>
       <c r="C140" s="5"/>
       <c r="D140" s="7"/>
@@ -11764,7 +11541,7 @@
       <c r="CP140" s="7"/>
       <c r="CQ140" s="7"/>
     </row>
-    <row r="141" spans="1:95">
+    <row r="141" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A141" s="16"/>
       <c r="C141" s="5"/>
       <c r="D141" s="7"/>
@@ -11860,7 +11637,7 @@
       <c r="CP141" s="7"/>
       <c r="CQ141" s="7"/>
     </row>
-    <row r="142" spans="1:95">
+    <row r="142" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A142" s="16"/>
       <c r="C142" s="5"/>
       <c r="D142" s="7"/>
@@ -11956,7 +11733,7 @@
       <c r="CP142" s="7"/>
       <c r="CQ142" s="7"/>
     </row>
-    <row r="143" spans="1:95">
+    <row r="143" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A143" s="16"/>
       <c r="C143" s="5"/>
       <c r="D143" s="7"/>
@@ -12052,7 +11829,7 @@
       <c r="CP143" s="7"/>
       <c r="CQ143" s="7"/>
     </row>
-    <row r="144" spans="1:95">
+    <row r="144" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A144" s="16"/>
       <c r="C144" s="5"/>
       <c r="D144" s="7"/>
@@ -12148,7 +11925,7 @@
       <c r="CP144" s="7"/>
       <c r="CQ144" s="7"/>
     </row>
-    <row r="145" spans="1:95">
+    <row r="145" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A145" s="16"/>
       <c r="C145" s="5"/>
       <c r="D145" s="7"/>
@@ -12244,7 +12021,7 @@
       <c r="CP145" s="7"/>
       <c r="CQ145" s="7"/>
     </row>
-    <row r="146" spans="1:95">
+    <row r="146" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A146" s="16"/>
       <c r="C146" s="5"/>
       <c r="D146" s="7"/>
@@ -12340,7 +12117,7 @@
       <c r="CP146" s="7"/>
       <c r="CQ146" s="7"/>
     </row>
-    <row r="147" spans="1:95">
+    <row r="147" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A147" s="16"/>
       <c r="C147" s="5"/>
       <c r="D147" s="7"/>
@@ -12436,7 +12213,7 @@
       <c r="CP147" s="7"/>
       <c r="CQ147" s="7"/>
     </row>
-    <row r="148" spans="1:95">
+    <row r="148" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A148" s="16"/>
       <c r="C148" s="5"/>
       <c r="D148" s="7"/>
@@ -12532,7 +12309,7 @@
       <c r="CP148" s="7"/>
       <c r="CQ148" s="7"/>
     </row>
-    <row r="149" spans="1:95">
+    <row r="149" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A149" s="16"/>
       <c r="C149" s="5"/>
       <c r="D149" s="7"/>
@@ -12628,7 +12405,7 @@
       <c r="CP149" s="7"/>
       <c r="CQ149" s="7"/>
     </row>
-    <row r="150" spans="1:95">
+    <row r="150" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A150" s="16"/>
       <c r="C150" s="5"/>
       <c r="D150" s="7"/>
@@ -12724,7 +12501,7 @@
       <c r="CP150" s="7"/>
       <c r="CQ150" s="7"/>
     </row>
-    <row r="151" spans="1:95">
+    <row r="151" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A151" s="16"/>
       <c r="C151" s="5"/>
       <c r="D151" s="7"/>
@@ -12820,7 +12597,7 @@
       <c r="CP151" s="7"/>
       <c r="CQ151" s="7"/>
     </row>
-    <row r="152" spans="1:95">
+    <row r="152" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A152" s="16"/>
       <c r="C152" s="5"/>
       <c r="D152" s="7"/>
@@ -12916,7 +12693,7 @@
       <c r="CP152" s="7"/>
       <c r="CQ152" s="7"/>
     </row>
-    <row r="153" spans="1:95">
+    <row r="153" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A153" s="16"/>
       <c r="C153" s="5"/>
       <c r="D153" s="7"/>
@@ -13012,7 +12789,7 @@
       <c r="CP153" s="7"/>
       <c r="CQ153" s="7"/>
     </row>
-    <row r="154" spans="1:95">
+    <row r="154" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A154" s="16"/>
       <c r="C154" s="5"/>
       <c r="D154" s="7"/>
@@ -13108,7 +12885,7 @@
       <c r="CP154" s="7"/>
       <c r="CQ154" s="7"/>
     </row>
-    <row r="155" spans="1:95">
+    <row r="155" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A155" s="16"/>
       <c r="C155" s="5"/>
       <c r="D155" s="7"/>
@@ -13204,7 +12981,7 @@
       <c r="CP155" s="7"/>
       <c r="CQ155" s="7"/>
     </row>
-    <row r="156" spans="1:95">
+    <row r="156" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A156" s="16"/>
       <c r="C156" s="5"/>
       <c r="D156" s="7"/>
@@ -13300,7 +13077,7 @@
       <c r="CP156" s="7"/>
       <c r="CQ156" s="7"/>
     </row>
-    <row r="157" spans="1:95">
+    <row r="157" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A157" s="16"/>
       <c r="C157" s="5"/>
       <c r="D157" s="7"/>
@@ -13396,7 +13173,7 @@
       <c r="CP157" s="7"/>
       <c r="CQ157" s="7"/>
     </row>
-    <row r="158" spans="1:95">
+    <row r="158" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A158" s="16"/>
       <c r="C158" s="5"/>
       <c r="D158" s="7"/>
@@ -13492,7 +13269,7 @@
       <c r="CP158" s="7"/>
       <c r="CQ158" s="7"/>
     </row>
-    <row r="159" spans="1:95">
+    <row r="159" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A159" s="16"/>
       <c r="C159" s="5"/>
       <c r="D159" s="7"/>
@@ -13588,7 +13365,7 @@
       <c r="CP159" s="7"/>
       <c r="CQ159" s="7"/>
     </row>
-    <row r="160" spans="1:95">
+    <row r="160" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A160" s="16"/>
       <c r="C160" s="5"/>
       <c r="D160" s="7"/>
@@ -13684,7 +13461,7 @@
       <c r="CP160" s="7"/>
       <c r="CQ160" s="7"/>
     </row>
-    <row r="161" spans="1:95">
+    <row r="161" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A161" s="16"/>
       <c r="C161" s="5"/>
       <c r="D161" s="7"/>
@@ -13780,7 +13557,7 @@
       <c r="CP161" s="7"/>
       <c r="CQ161" s="7"/>
     </row>
-    <row r="162" spans="1:95">
+    <row r="162" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A162" s="16"/>
       <c r="C162" s="5"/>
       <c r="D162" s="7"/>
@@ -13876,7 +13653,7 @@
       <c r="CP162" s="7"/>
       <c r="CQ162" s="7"/>
     </row>
-    <row r="163" spans="1:95">
+    <row r="163" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A163" s="16"/>
       <c r="C163" s="5"/>
       <c r="D163" s="7"/>
@@ -13972,7 +13749,7 @@
       <c r="CP163" s="7"/>
       <c r="CQ163" s="7"/>
     </row>
-    <row r="164" spans="1:95">
+    <row r="164" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A164" s="16"/>
       <c r="C164" s="5"/>
       <c r="D164" s="7"/>
@@ -14068,7 +13845,7 @@
       <c r="CP164" s="7"/>
       <c r="CQ164" s="7"/>
     </row>
-    <row r="165" spans="1:95">
+    <row r="165" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A165" s="16"/>
       <c r="C165" s="5"/>
       <c r="D165" s="7"/>
@@ -14164,7 +13941,7 @@
       <c r="CP165" s="7"/>
       <c r="CQ165" s="7"/>
     </row>
-    <row r="166" spans="1:95">
+    <row r="166" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A166" s="16"/>
       <c r="C166" s="5"/>
       <c r="D166" s="7"/>
@@ -14260,7 +14037,7 @@
       <c r="CP166" s="7"/>
       <c r="CQ166" s="7"/>
     </row>
-    <row r="167" spans="1:95">
+    <row r="167" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A167" s="16"/>
       <c r="C167" s="5"/>
       <c r="D167" s="7"/>
@@ -14356,7 +14133,7 @@
       <c r="CP167" s="7"/>
       <c r="CQ167" s="7"/>
     </row>
-    <row r="168" spans="1:95">
+    <row r="168" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A168" s="16"/>
       <c r="C168" s="5"/>
       <c r="D168" s="7"/>
@@ -14452,7 +14229,7 @@
       <c r="CP168" s="7"/>
       <c r="CQ168" s="7"/>
     </row>
-    <row r="169" spans="1:95">
+    <row r="169" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A169" s="16"/>
       <c r="C169" s="5"/>
       <c r="D169" s="7"/>
@@ -14548,7 +14325,7 @@
       <c r="CP169" s="7"/>
       <c r="CQ169" s="7"/>
     </row>
-    <row r="170" spans="1:95">
+    <row r="170" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A170" s="16"/>
       <c r="C170" s="5"/>
       <c r="D170" s="7"/>
@@ -14644,7 +14421,7 @@
       <c r="CP170" s="7"/>
       <c r="CQ170" s="7"/>
     </row>
-    <row r="171" spans="1:95">
+    <row r="171" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A171" s="16"/>
       <c r="C171" s="5"/>
       <c r="D171" s="7"/>
@@ -14740,7 +14517,7 @@
       <c r="CP171" s="7"/>
       <c r="CQ171" s="7"/>
     </row>
-    <row r="172" spans="1:95">
+    <row r="172" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A172" s="16"/>
       <c r="C172" s="5"/>
       <c r="D172" s="7"/>
@@ -14836,7 +14613,7 @@
       <c r="CP172" s="7"/>
       <c r="CQ172" s="7"/>
     </row>
-    <row r="173" spans="1:95">
+    <row r="173" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A173" s="16"/>
       <c r="C173" s="5"/>
       <c r="D173" s="7"/>
@@ -14932,7 +14709,7 @@
       <c r="CP173" s="7"/>
       <c r="CQ173" s="7"/>
     </row>
-    <row r="174" spans="1:95">
+    <row r="174" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A174" s="16"/>
       <c r="C174" s="5"/>
       <c r="D174" s="7"/>
@@ -15028,7 +14805,7 @@
       <c r="CP174" s="7"/>
       <c r="CQ174" s="7"/>
     </row>
-    <row r="175" spans="1:95">
+    <row r="175" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A175" s="16"/>
       <c r="C175" s="5"/>
       <c r="D175" s="7"/>
@@ -15124,7 +14901,7 @@
       <c r="CP175" s="7"/>
       <c r="CQ175" s="7"/>
     </row>
-    <row r="176" spans="1:95">
+    <row r="176" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A176" s="16"/>
       <c r="C176" s="5"/>
       <c r="D176" s="7"/>
@@ -15220,7 +14997,7 @@
       <c r="CP176" s="7"/>
       <c r="CQ176" s="7"/>
     </row>
-    <row r="177" spans="1:95">
+    <row r="177" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A177" s="16"/>
       <c r="C177" s="5"/>
       <c r="D177" s="7"/>
@@ -15316,7 +15093,7 @@
       <c r="CP177" s="7"/>
       <c r="CQ177" s="7"/>
     </row>
-    <row r="178" spans="1:95">
+    <row r="178" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A178" s="16"/>
       <c r="C178" s="5"/>
       <c r="D178" s="7"/>
@@ -15412,7 +15189,7 @@
       <c r="CP178" s="7"/>
       <c r="CQ178" s="7"/>
     </row>
-    <row r="179" spans="1:95">
+    <row r="179" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A179" s="16"/>
       <c r="C179" s="5"/>
       <c r="D179" s="7"/>
@@ -15508,7 +15285,7 @@
       <c r="CP179" s="7"/>
       <c r="CQ179" s="7"/>
     </row>
-    <row r="180" spans="1:95">
+    <row r="180" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A180" s="16"/>
       <c r="C180" s="5"/>
       <c r="D180" s="7"/>
@@ -15604,7 +15381,7 @@
       <c r="CP180" s="7"/>
       <c r="CQ180" s="7"/>
     </row>
-    <row r="181" spans="1:95">
+    <row r="181" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A181" s="16"/>
       <c r="C181" s="5"/>
       <c r="D181" s="7"/>
@@ -15700,7 +15477,7 @@
       <c r="CP181" s="7"/>
       <c r="CQ181" s="7"/>
     </row>
-    <row r="182" spans="1:95">
+    <row r="182" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A182" s="16"/>
       <c r="C182" s="5"/>
       <c r="D182" s="7"/>
@@ -15796,7 +15573,7 @@
       <c r="CP182" s="7"/>
       <c r="CQ182" s="7"/>
     </row>
-    <row r="183" spans="1:95">
+    <row r="183" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A183" s="16"/>
       <c r="C183" s="5"/>
       <c r="D183" s="7"/>
@@ -15892,7 +15669,7 @@
       <c r="CP183" s="7"/>
       <c r="CQ183" s="7"/>
     </row>
-    <row r="184" spans="1:95">
+    <row r="184" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A184" s="16"/>
       <c r="C184" s="5"/>
       <c r="D184" s="7"/>
@@ -15988,7 +15765,7 @@
       <c r="CP184" s="7"/>
       <c r="CQ184" s="7"/>
     </row>
-    <row r="185" spans="1:95">
+    <row r="185" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A185" s="16"/>
       <c r="C185" s="5"/>
       <c r="D185" s="7"/>
@@ -16084,7 +15861,7 @@
       <c r="CP185" s="7"/>
       <c r="CQ185" s="7"/>
     </row>
-    <row r="186" spans="1:95">
+    <row r="186" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A186" s="16"/>
       <c r="C186" s="5"/>
       <c r="D186" s="7"/>
@@ -16180,7 +15957,7 @@
       <c r="CP186" s="7"/>
       <c r="CQ186" s="7"/>
     </row>
-    <row r="187" spans="1:95">
+    <row r="187" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A187" s="16"/>
       <c r="C187" s="5"/>
       <c r="D187" s="7"/>
@@ -16276,7 +16053,7 @@
       <c r="CP187" s="7"/>
       <c r="CQ187" s="7"/>
     </row>
-    <row r="188" spans="1:95">
+    <row r="188" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A188" s="16"/>
       <c r="C188" s="5"/>
       <c r="D188" s="7"/>
@@ -16372,7 +16149,7 @@
       <c r="CP188" s="7"/>
       <c r="CQ188" s="7"/>
     </row>
-    <row r="189" spans="1:95">
+    <row r="189" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A189" s="16"/>
       <c r="C189" s="5"/>
       <c r="D189" s="7"/>
@@ -16468,7 +16245,7 @@
       <c r="CP189" s="7"/>
       <c r="CQ189" s="7"/>
     </row>
-    <row r="190" spans="1:95">
+    <row r="190" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A190" s="16"/>
       <c r="C190" s="5"/>
       <c r="D190" s="7"/>
@@ -16564,7 +16341,7 @@
       <c r="CP190" s="7"/>
       <c r="CQ190" s="7"/>
     </row>
-    <row r="191" spans="1:95">
+    <row r="191" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A191" s="16"/>
       <c r="C191" s="5"/>
       <c r="D191" s="7"/>
@@ -16660,7 +16437,7 @@
       <c r="CP191" s="7"/>
       <c r="CQ191" s="7"/>
     </row>
-    <row r="192" spans="1:95">
+    <row r="192" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A192" s="16"/>
       <c r="C192" s="5"/>
       <c r="D192" s="7"/>
@@ -16756,7 +16533,7 @@
       <c r="CP192" s="7"/>
       <c r="CQ192" s="7"/>
     </row>
-    <row r="193" spans="1:95">
+    <row r="193" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A193" s="16"/>
       <c r="C193" s="5"/>
       <c r="D193" s="7"/>
@@ -16852,7 +16629,7 @@
       <c r="CP193" s="7"/>
       <c r="CQ193" s="7"/>
     </row>
-    <row r="194" spans="1:95">
+    <row r="194" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A194" s="16"/>
       <c r="C194" s="5"/>
       <c r="D194" s="7"/>
@@ -16948,7 +16725,7 @@
       <c r="CP194" s="7"/>
       <c r="CQ194" s="7"/>
     </row>
-    <row r="195" spans="1:95">
+    <row r="195" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A195" s="16"/>
       <c r="C195" s="5"/>
       <c r="D195" s="7"/>
@@ -17044,7 +16821,7 @@
       <c r="CP195" s="7"/>
       <c r="CQ195" s="7"/>
     </row>
-    <row r="196" spans="1:95">
+    <row r="196" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A196" s="16"/>
       <c r="C196" s="5"/>
       <c r="D196" s="7"/>
@@ -17140,7 +16917,7 @@
       <c r="CP196" s="7"/>
       <c r="CQ196" s="7"/>
     </row>
-    <row r="197" spans="1:95">
+    <row r="197" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A197" s="16"/>
       <c r="C197" s="5"/>
       <c r="D197" s="7"/>
@@ -17236,7 +17013,7 @@
       <c r="CP197" s="7"/>
       <c r="CQ197" s="7"/>
     </row>
-    <row r="198" spans="1:95">
+    <row r="198" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A198" s="16"/>
       <c r="C198" s="5"/>
       <c r="D198" s="7"/>
@@ -17332,7 +17109,7 @@
       <c r="CP198" s="7"/>
       <c r="CQ198" s="7"/>
     </row>
-    <row r="199" spans="1:95">
+    <row r="199" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A199" s="16"/>
       <c r="C199" s="5"/>
       <c r="D199" s="7"/>
@@ -17428,7 +17205,7 @@
       <c r="CP199" s="7"/>
       <c r="CQ199" s="7"/>
     </row>
-    <row r="200" spans="1:95">
+    <row r="200" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A200" s="16"/>
       <c r="C200" s="5"/>
       <c r="D200" s="7"/>
@@ -17524,7 +17301,7 @@
       <c r="CP200" s="7"/>
       <c r="CQ200" s="7"/>
     </row>
-    <row r="201" spans="1:95">
+    <row r="201" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A201" s="16"/>
       <c r="C201" s="5"/>
       <c r="D201" s="7"/>
@@ -17620,7 +17397,7 @@
       <c r="CP201" s="7"/>
       <c r="CQ201" s="7"/>
     </row>
-    <row r="202" spans="1:95">
+    <row r="202" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A202" s="16"/>
       <c r="C202" s="5"/>
       <c r="D202" s="7"/>
@@ -17716,7 +17493,7 @@
       <c r="CP202" s="7"/>
       <c r="CQ202" s="7"/>
     </row>
-    <row r="203" spans="1:95">
+    <row r="203" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A203" s="16"/>
       <c r="C203" s="5"/>
       <c r="D203" s="7"/>
@@ -17812,7 +17589,7 @@
       <c r="CP203" s="7"/>
       <c r="CQ203" s="7"/>
     </row>
-    <row r="204" spans="1:95">
+    <row r="204" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A204" s="16"/>
       <c r="C204" s="5"/>
       <c r="D204" s="7"/>
@@ -17908,7 +17685,7 @@
       <c r="CP204" s="7"/>
       <c r="CQ204" s="7"/>
     </row>
-    <row r="205" spans="1:95">
+    <row r="205" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A205" s="16"/>
       <c r="C205" s="5"/>
       <c r="D205" s="7"/>
@@ -18004,7 +17781,7 @@
       <c r="CP205" s="7"/>
       <c r="CQ205" s="7"/>
     </row>
-    <row r="206" spans="1:95">
+    <row r="206" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A206" s="16"/>
       <c r="C206" s="5"/>
       <c r="D206" s="7"/>
@@ -18100,7 +17877,7 @@
       <c r="CP206" s="7"/>
       <c r="CQ206" s="7"/>
     </row>
-    <row r="207" spans="1:95">
+    <row r="207" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A207" s="16"/>
       <c r="C207" s="5"/>
       <c r="D207" s="7"/>
@@ -18196,7 +17973,7 @@
       <c r="CP207" s="7"/>
       <c r="CQ207" s="7"/>
     </row>
-    <row r="208" spans="1:95">
+    <row r="208" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A208" s="16"/>
       <c r="C208" s="5"/>
       <c r="D208" s="7"/>
@@ -18292,7 +18069,7 @@
       <c r="CP208" s="7"/>
       <c r="CQ208" s="7"/>
     </row>
-    <row r="209" spans="1:95">
+    <row r="209" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A209" s="16"/>
       <c r="C209" s="5"/>
       <c r="D209" s="7"/>
@@ -18388,7 +18165,7 @@
       <c r="CP209" s="7"/>
       <c r="CQ209" s="7"/>
     </row>
-    <row r="210" spans="1:95">
+    <row r="210" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A210" s="16"/>
       <c r="C210" s="5"/>
       <c r="D210" s="7"/>
@@ -18484,7 +18261,7 @@
       <c r="CP210" s="7"/>
       <c r="CQ210" s="7"/>
     </row>
-    <row r="211" spans="1:95">
+    <row r="211" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A211" s="16"/>
       <c r="C211" s="5"/>
       <c r="D211" s="7"/>
@@ -18580,7 +18357,7 @@
       <c r="CP211" s="7"/>
       <c r="CQ211" s="7"/>
     </row>
-    <row r="212" spans="1:95">
+    <row r="212" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A212" s="16"/>
       <c r="C212" s="5"/>
       <c r="D212" s="7"/>
@@ -18676,7 +18453,7 @@
       <c r="CP212" s="7"/>
       <c r="CQ212" s="7"/>
     </row>
-    <row r="213" spans="1:95">
+    <row r="213" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A213" s="16"/>
       <c r="C213" s="5"/>
       <c r="D213" s="7"/>
@@ -18772,7 +18549,7 @@
       <c r="CP213" s="7"/>
       <c r="CQ213" s="7"/>
     </row>
-    <row r="214" spans="1:95">
+    <row r="214" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A214" s="16"/>
       <c r="C214" s="5"/>
       <c r="D214" s="7"/>
@@ -18868,7 +18645,7 @@
       <c r="CP214" s="7"/>
       <c r="CQ214" s="7"/>
     </row>
-    <row r="215" spans="1:95">
+    <row r="215" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A215" s="16"/>
       <c r="C215" s="5"/>
       <c r="D215" s="7"/>
@@ -18964,7 +18741,7 @@
       <c r="CP215" s="7"/>
       <c r="CQ215" s="7"/>
     </row>
-    <row r="216" spans="1:95">
+    <row r="216" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A216" s="16"/>
       <c r="C216" s="5"/>
       <c r="D216" s="7"/>
@@ -19060,7 +18837,7 @@
       <c r="CP216" s="7"/>
       <c r="CQ216" s="7"/>
     </row>
-    <row r="217" spans="1:95">
+    <row r="217" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A217" s="16"/>
       <c r="C217" s="5"/>
       <c r="D217" s="7"/>
@@ -19156,7 +18933,7 @@
       <c r="CP217" s="7"/>
       <c r="CQ217" s="7"/>
     </row>
-    <row r="218" spans="1:95">
+    <row r="218" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A218" s="16"/>
       <c r="C218" s="5"/>
       <c r="D218" s="7"/>
@@ -19252,7 +19029,7 @@
       <c r="CP218" s="7"/>
       <c r="CQ218" s="7"/>
     </row>
-    <row r="219" spans="1:95">
+    <row r="219" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A219" s="16"/>
       <c r="C219" s="5"/>
       <c r="D219" s="7"/>
@@ -19348,7 +19125,7 @@
       <c r="CP219" s="7"/>
       <c r="CQ219" s="7"/>
     </row>
-    <row r="220" spans="1:95">
+    <row r="220" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A220" s="16"/>
       <c r="C220" s="5"/>
       <c r="D220" s="7"/>
@@ -19444,7 +19221,7 @@
       <c r="CP220" s="7"/>
       <c r="CQ220" s="7"/>
     </row>
-    <row r="221" spans="1:95">
+    <row r="221" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A221" s="16"/>
       <c r="C221" s="5"/>
       <c r="D221" s="7"/>
@@ -19540,7 +19317,7 @@
       <c r="CP221" s="7"/>
       <c r="CQ221" s="7"/>
     </row>
-    <row r="222" spans="1:95">
+    <row r="222" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A222" s="16"/>
       <c r="C222" s="5"/>
       <c r="D222" s="7"/>
@@ -19636,7 +19413,7 @@
       <c r="CP222" s="7"/>
       <c r="CQ222" s="7"/>
     </row>
-    <row r="223" spans="1:95">
+    <row r="223" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A223" s="16"/>
       <c r="C223" s="5"/>
       <c r="D223" s="7"/>
@@ -19732,7 +19509,7 @@
       <c r="CP223" s="7"/>
       <c r="CQ223" s="7"/>
     </row>
-    <row r="224" spans="1:95">
+    <row r="224" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A224" s="16"/>
       <c r="C224" s="5"/>
       <c r="D224" s="7"/>
@@ -19828,7 +19605,7 @@
       <c r="CP224" s="7"/>
       <c r="CQ224" s="7"/>
     </row>
-    <row r="225" spans="1:95">
+    <row r="225" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A225" s="16"/>
       <c r="C225" s="5"/>
       <c r="D225" s="7"/>
@@ -19924,7 +19701,7 @@
       <c r="CP225" s="7"/>
       <c r="CQ225" s="7"/>
     </row>
-    <row r="226" spans="1:95">
+    <row r="226" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A226" s="16"/>
       <c r="C226" s="5"/>
       <c r="D226" s="7"/>
@@ -20020,7 +19797,7 @@
       <c r="CP226" s="7"/>
       <c r="CQ226" s="7"/>
     </row>
-    <row r="227" spans="1:95">
+    <row r="227" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A227" s="16"/>
       <c r="C227" s="5"/>
       <c r="D227" s="7"/>
@@ -20116,7 +19893,7 @@
       <c r="CP227" s="7"/>
       <c r="CQ227" s="7"/>
     </row>
-    <row r="228" spans="1:95">
+    <row r="228" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A228" s="16"/>
       <c r="C228" s="5"/>
       <c r="D228" s="7"/>
@@ -20212,7 +19989,7 @@
       <c r="CP228" s="7"/>
       <c r="CQ228" s="7"/>
     </row>
-    <row r="229" spans="1:95">
+    <row r="229" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A229" s="16"/>
       <c r="C229" s="5"/>
       <c r="D229" s="7"/>
@@ -20308,7 +20085,7 @@
       <c r="CP229" s="7"/>
       <c r="CQ229" s="7"/>
     </row>
-    <row r="230" spans="1:95">
+    <row r="230" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A230" s="16"/>
       <c r="C230" s="5"/>
       <c r="D230" s="7"/>
@@ -20404,7 +20181,7 @@
       <c r="CP230" s="7"/>
       <c r="CQ230" s="7"/>
     </row>
-    <row r="231" spans="1:95">
+    <row r="231" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A231" s="16"/>
       <c r="C231" s="5"/>
       <c r="D231" s="7"/>
@@ -20500,7 +20277,7 @@
       <c r="CP231" s="7"/>
       <c r="CQ231" s="7"/>
     </row>
-    <row r="232" spans="1:95">
+    <row r="232" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A232" s="16"/>
       <c r="C232" s="5"/>
       <c r="D232" s="7"/>
@@ -20596,7 +20373,7 @@
       <c r="CP232" s="7"/>
       <c r="CQ232" s="7"/>
     </row>
-    <row r="233" spans="1:95">
+    <row r="233" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A233" s="16"/>
       <c r="C233" s="5"/>
       <c r="D233" s="7"/>
@@ -20692,7 +20469,7 @@
       <c r="CP233" s="7"/>
       <c r="CQ233" s="7"/>
     </row>
-    <row r="234" spans="1:95">
+    <row r="234" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A234" s="16"/>
       <c r="C234" s="5"/>
       <c r="D234" s="7"/>
@@ -20788,7 +20565,7 @@
       <c r="CP234" s="7"/>
       <c r="CQ234" s="7"/>
     </row>
-    <row r="235" spans="1:95">
+    <row r="235" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A235" s="16"/>
       <c r="C235" s="5"/>
       <c r="D235" s="7"/>
@@ -20884,7 +20661,7 @@
       <c r="CP235" s="7"/>
       <c r="CQ235" s="7"/>
     </row>
-    <row r="236" spans="1:95">
+    <row r="236" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A236" s="16"/>
       <c r="C236" s="5"/>
       <c r="D236" s="7"/>
@@ -20980,7 +20757,7 @@
       <c r="CP236" s="7"/>
       <c r="CQ236" s="7"/>
     </row>
-    <row r="237" spans="1:95">
+    <row r="237" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A237" s="16"/>
       <c r="C237" s="5"/>
       <c r="D237" s="7"/>
@@ -21076,7 +20853,7 @@
       <c r="CP237" s="7"/>
       <c r="CQ237" s="7"/>
     </row>
-    <row r="238" spans="1:95">
+    <row r="238" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A238" s="16"/>
       <c r="C238" s="5"/>
       <c r="D238" s="7"/>
@@ -21172,7 +20949,7 @@
       <c r="CP238" s="7"/>
       <c r="CQ238" s="7"/>
     </row>
-    <row r="239" spans="1:95">
+    <row r="239" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A239" s="16"/>
       <c r="C239" s="5"/>
       <c r="D239" s="7"/>
@@ -21268,7 +21045,7 @@
       <c r="CP239" s="7"/>
       <c r="CQ239" s="7"/>
     </row>
-    <row r="240" spans="1:95">
+    <row r="240" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A240" s="16"/>
       <c r="C240" s="5"/>
       <c r="D240" s="7"/>
@@ -21364,7 +21141,7 @@
       <c r="CP240" s="7"/>
       <c r="CQ240" s="7"/>
     </row>
-    <row r="241" spans="1:95">
+    <row r="241" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A241" s="16"/>
       <c r="C241" s="5"/>
       <c r="D241" s="7"/>
@@ -21460,7 +21237,7 @@
       <c r="CP241" s="7"/>
       <c r="CQ241" s="7"/>
     </row>
-    <row r="242" spans="1:95">
+    <row r="242" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A242" s="16"/>
       <c r="C242" s="5"/>
       <c r="D242" s="7"/>
@@ -21556,7 +21333,7 @@
       <c r="CP242" s="7"/>
       <c r="CQ242" s="7"/>
     </row>
-    <row r="243" spans="1:95">
+    <row r="243" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A243" s="16"/>
       <c r="C243" s="5"/>
       <c r="D243" s="7"/>
@@ -21652,7 +21429,7 @@
       <c r="CP243" s="7"/>
       <c r="CQ243" s="7"/>
     </row>
-    <row r="244" spans="1:95">
+    <row r="244" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A244" s="16"/>
       <c r="C244" s="5"/>
       <c r="D244" s="7"/>
@@ -21748,7 +21525,7 @@
       <c r="CP244" s="7"/>
       <c r="CQ244" s="7"/>
     </row>
-    <row r="245" spans="1:95">
+    <row r="245" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A245" s="16"/>
       <c r="C245" s="5"/>
       <c r="D245" s="7"/>
@@ -21844,7 +21621,7 @@
       <c r="CP245" s="7"/>
       <c r="CQ245" s="7"/>
     </row>
-    <row r="246" spans="1:95">
+    <row r="246" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A246" s="16"/>
       <c r="C246" s="5"/>
       <c r="D246" s="7"/>
@@ -21940,7 +21717,7 @@
       <c r="CP246" s="7"/>
       <c r="CQ246" s="7"/>
     </row>
-    <row r="247" spans="1:95">
+    <row r="247" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A247" s="16"/>
       <c r="C247" s="5"/>
       <c r="D247" s="7"/>
@@ -22036,7 +21813,7 @@
       <c r="CP247" s="7"/>
       <c r="CQ247" s="7"/>
     </row>
-    <row r="248" spans="1:95">
+    <row r="248" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A248" s="16"/>
       <c r="C248" s="5"/>
       <c r="D248" s="7"/>
@@ -22132,7 +21909,7 @@
       <c r="CP248" s="7"/>
       <c r="CQ248" s="7"/>
     </row>
-    <row r="249" spans="1:95">
+    <row r="249" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A249" s="16"/>
       <c r="C249" s="5"/>
       <c r="D249" s="7"/>
@@ -22228,7 +22005,7 @@
       <c r="CP249" s="7"/>
       <c r="CQ249" s="7"/>
     </row>
-    <row r="250" spans="1:95">
+    <row r="250" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A250" s="16"/>
       <c r="C250" s="5"/>
       <c r="D250" s="7"/>
@@ -22324,7 +22101,7 @@
       <c r="CP250" s="7"/>
       <c r="CQ250" s="7"/>
     </row>
-    <row r="251" spans="1:95">
+    <row r="251" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A251" s="16"/>
       <c r="C251" s="5"/>
       <c r="D251" s="7"/>
@@ -22420,7 +22197,7 @@
       <c r="CP251" s="7"/>
       <c r="CQ251" s="7"/>
     </row>
-    <row r="252" spans="1:95">
+    <row r="252" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A252" s="16"/>
       <c r="C252" s="5"/>
       <c r="D252" s="7"/>
@@ -22516,7 +22293,7 @@
       <c r="CP252" s="7"/>
       <c r="CQ252" s="7"/>
     </row>
-    <row r="253" spans="1:95">
+    <row r="253" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A253" s="16"/>
       <c r="C253" s="5"/>
       <c r="D253" s="7"/>
@@ -22612,7 +22389,7 @@
       <c r="CP253" s="7"/>
       <c r="CQ253" s="7"/>
     </row>
-    <row r="254" spans="1:95">
+    <row r="254" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A254" s="16"/>
       <c r="C254" s="5"/>
       <c r="D254" s="7"/>
@@ -22708,7 +22485,7 @@
       <c r="CP254" s="7"/>
       <c r="CQ254" s="7"/>
     </row>
-    <row r="255" spans="1:95">
+    <row r="255" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A255" s="16"/>
       <c r="C255" s="5"/>
       <c r="D255" s="7"/>
@@ -22804,7 +22581,7 @@
       <c r="CP255" s="7"/>
       <c r="CQ255" s="7"/>
     </row>
-    <row r="256" spans="1:95">
+    <row r="256" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A256" s="16"/>
       <c r="C256" s="5"/>
       <c r="D256" s="7"/>
@@ -22900,7 +22677,7 @@
       <c r="CP256" s="7"/>
       <c r="CQ256" s="7"/>
     </row>
-    <row r="257" spans="1:95">
+    <row r="257" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A257" s="16"/>
       <c r="C257" s="5"/>
       <c r="D257" s="7"/>
@@ -22996,7 +22773,7 @@
       <c r="CP257" s="7"/>
       <c r="CQ257" s="7"/>
     </row>
-    <row r="258" spans="1:95">
+    <row r="258" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A258" s="16"/>
       <c r="C258" s="5"/>
       <c r="D258" s="7"/>
@@ -23092,7 +22869,7 @@
       <c r="CP258" s="7"/>
       <c r="CQ258" s="7"/>
     </row>
-    <row r="259" spans="1:95">
+    <row r="259" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A259" s="16"/>
       <c r="C259" s="5"/>
       <c r="D259" s="7"/>
@@ -23188,7 +22965,7 @@
       <c r="CP259" s="7"/>
       <c r="CQ259" s="7"/>
     </row>
-    <row r="260" spans="1:95">
+    <row r="260" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A260" s="16"/>
       <c r="C260" s="5"/>
       <c r="D260" s="7"/>
@@ -23284,7 +23061,7 @@
       <c r="CP260" s="7"/>
       <c r="CQ260" s="7"/>
     </row>
-    <row r="261" spans="1:95">
+    <row r="261" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A261" s="16"/>
       <c r="C261" s="5"/>
       <c r="D261" s="7"/>
@@ -23380,7 +23157,7 @@
       <c r="CP261" s="7"/>
       <c r="CQ261" s="7"/>
     </row>
-    <row r="262" spans="1:95">
+    <row r="262" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A262" s="16"/>
       <c r="C262" s="5"/>
       <c r="D262" s="7"/>
@@ -23476,7 +23253,7 @@
       <c r="CP262" s="7"/>
       <c r="CQ262" s="7"/>
     </row>
-    <row r="263" spans="1:95">
+    <row r="263" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A263" s="16"/>
       <c r="C263" s="5"/>
       <c r="D263" s="7"/>
@@ -23572,7 +23349,7 @@
       <c r="CP263" s="7"/>
       <c r="CQ263" s="7"/>
     </row>
-    <row r="264" spans="1:95">
+    <row r="264" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A264" s="16"/>
       <c r="C264" s="5"/>
       <c r="D264" s="7"/>
@@ -23668,7 +23445,7 @@
       <c r="CP264" s="7"/>
       <c r="CQ264" s="7"/>
     </row>
-    <row r="265" spans="1:95">
+    <row r="265" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A265" s="16"/>
       <c r="C265" s="5"/>
       <c r="D265" s="7"/>
@@ -23764,33 +23541,32 @@
       <c r="CP265" s="7"/>
       <c r="CQ265" s="7"/>
     </row>
-    <row r="330" ht="14.25" spans="1:2">
+    <row r="330" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A330" s="8"/>
       <c r="B330" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23828,7 +23604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>42551</v>
       </c>
@@ -23887,7 +23663,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>42552</v>
       </c>
@@ -23943,7 +23719,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>42553</v>
       </c>
@@ -23996,7 +23772,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>42554</v>
       </c>
@@ -24046,7 +23822,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>42555</v>
       </c>
@@ -24093,7 +23869,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>42556</v>
       </c>
@@ -24112,7 +23888,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>42557</v>
       </c>
@@ -24131,7 +23907,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>42558</v>
       </c>
@@ -24150,7 +23926,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>42559</v>
       </c>
@@ -24169,7 +23945,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>42560</v>
       </c>
@@ -24188,7 +23964,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>42561</v>
       </c>
@@ -24207,7 +23983,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>42562</v>
       </c>
@@ -24226,7 +24002,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>42563</v>
       </c>
@@ -24245,7 +24021,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>42564</v>
       </c>
@@ -24264,7 +24040,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>42565</v>
       </c>
@@ -24281,7 +24057,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>42566</v>
       </c>
@@ -24300,7 +24076,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>42567</v>
       </c>
@@ -24313,7 +24089,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>42568</v>
       </c>
@@ -24326,7 +24102,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -24337,19 +24113,19 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -24378,7 +24154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>42551</v>
       </c>
@@ -24389,25 +24165,25 @@
         <v>1491</v>
       </c>
       <c r="D25" s="7">
-        <f>D2/$C2</f>
-        <v>0.995975855130785</v>
+        <f t="shared" ref="D25:G28" si="0">D2/$C2</f>
+        <v>0.99597585513078468</v>
       </c>
       <c r="E25" s="7">
-        <f>E2/$C2</f>
-        <v>0.335345405767941</v>
+        <f t="shared" si="0"/>
+        <v>0.33534540576794097</v>
       </c>
       <c r="F25" s="7">
-        <f>F2/$C2</f>
-        <v>0.175050301810865</v>
+        <f t="shared" si="0"/>
+        <v>0.1750503018108652</v>
       </c>
       <c r="G25" s="7">
-        <f>G2/$C2</f>
-        <v>0.15962441314554</v>
+        <f t="shared" si="0"/>
+        <v>0.15962441314553991</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>42552</v>
       </c>
@@ -24418,25 +24194,25 @@
         <v>2013</v>
       </c>
       <c r="D26" s="7">
-        <f>D3/$C3</f>
-        <v>0.991058122205663</v>
+        <f t="shared" si="0"/>
+        <v>0.99105812220566314</v>
       </c>
       <c r="E26" s="7">
-        <f>E3/$C3</f>
-        <v>0.397416790859414</v>
+        <f t="shared" si="0"/>
+        <v>0.39741679085941384</v>
       </c>
       <c r="F26" s="7">
-        <f>F3/$C3</f>
-        <v>0.190263288623944</v>
+        <f t="shared" si="0"/>
+        <v>0.19026328862394437</v>
       </c>
       <c r="G26" s="7">
-        <f>G3/$C3</f>
-        <v>0.197218082463984</v>
+        <f t="shared" si="0"/>
+        <v>0.19721808246398409</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>42553</v>
       </c>
@@ -24447,25 +24223,25 @@
         <v>2515</v>
       </c>
       <c r="D27" s="7">
-        <f>D4/$C4</f>
-        <v>0.989662027833002</v>
+        <f t="shared" si="0"/>
+        <v>0.98966202783300194</v>
       </c>
       <c r="E27" s="7">
-        <f>E4/$C4</f>
-        <v>0.278330019880716</v>
+        <f t="shared" si="0"/>
+        <v>0.27833001988071571</v>
       </c>
       <c r="F27" s="7">
-        <f>F4/$C4</f>
-        <v>0.175745526838966</v>
+        <f t="shared" si="0"/>
+        <v>0.17574552683896622</v>
       </c>
       <c r="G27" s="7">
-        <f>G4/$C4</f>
-        <v>0.14831013916501</v>
+        <f t="shared" si="0"/>
+        <v>0.14831013916500993</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>42554</v>
       </c>
@@ -24476,25 +24252,25 @@
         <v>2417</v>
       </c>
       <c r="D28" s="7">
-        <f>D5/$C5</f>
-        <v>0.990070335126189</v>
+        <f t="shared" si="0"/>
+        <v>0.99007033512618947</v>
       </c>
       <c r="E28" s="7">
-        <f>E5/$C5</f>
-        <v>0.273479520066198</v>
+        <f t="shared" si="0"/>
+        <v>0.27347952006619775</v>
       </c>
       <c r="F28" s="7">
-        <f>F5/$C5</f>
-        <v>0.182043856019859</v>
+        <f t="shared" si="0"/>
+        <v>0.18204385601985934</v>
       </c>
       <c r="G28" s="7">
-        <f>G5/$C5</f>
-        <v>0.153909805544063</v>
+        <f t="shared" si="0"/>
+        <v>0.15390980554406289</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="C29" s="5"/>
       <c r="D29" s="7"/>
@@ -24504,7 +24280,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="C30" s="5"/>
       <c r="D30" s="7"/>
@@ -24514,7 +24290,7 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="C31" s="5"/>
       <c r="D31" s="7"/>
@@ -24524,7 +24300,7 @@
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="C32" s="5"/>
       <c r="D32" s="7"/>
@@ -24534,7 +24310,7 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="C33" s="5"/>
       <c r="D33" s="7"/>
@@ -24544,7 +24320,7 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="59" ht="14.25" spans="1:2">
+    <row r="59" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="s">
         <v>4</v>
       </c>
@@ -24552,25 +24328,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60">
-        <v>0.321</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="B60">
-        <v>-0.704</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.70399999999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63">
         <f>AVERAGE(A60:A62)</f>
-        <v>0.321</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="B63">
         <f>AVERAGE(B60:B62)</f>
-        <v>-0.704</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.70399999999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -24581,94 +24357,93 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>1</v>
       </c>
       <c r="B68">
         <f>A$63*A68^B$63</f>
-        <v>0.321</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="C68">
         <f>A$63/(B$63+1)*A68^(B$63+1)</f>
-        <v>1.08445945945946</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>1.0844594594594594</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>7</v>
       </c>
       <c r="B69">
-        <f t="shared" ref="B69:B72" si="0">A$63*A69^B$63</f>
-        <v>0.0815747989762552</v>
+        <f t="shared" ref="B69:B72" si="1">A$63*A69^B$63</f>
+        <v>8.1574798976255192E-2</v>
       </c>
       <c r="C69">
-        <f t="shared" ref="C69:C72" si="1">A$63/(B$63+1)*A69^(B$63+1)</f>
-        <v>1.9291337595736</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <f t="shared" ref="C69:C72" si="2">A$63/(B$63+1)*A69^(B$63+1)</f>
+        <v>1.9291337595736022</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>30</v>
       </c>
       <c r="B70">
-        <f t="shared" si="0"/>
-        <v>0.0292827371446413</v>
+        <f t="shared" si="1"/>
+        <v>2.9282737144641285E-2</v>
       </c>
       <c r="C70">
-        <f t="shared" si="1"/>
-        <v>2.96784498087581</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>2.9678449808758067</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>90</v>
       </c>
       <c r="B71">
-        <f t="shared" si="0"/>
-        <v>0.0135119585954041</v>
+        <f t="shared" si="1"/>
+        <v>1.3511958595404126E-2</v>
       </c>
       <c r="C71">
-        <f t="shared" si="1"/>
-        <v>4.10836578914315</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>4.1083657891431447</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>365</v>
       </c>
       <c r="B72">
-        <f t="shared" si="0"/>
-        <v>0.00504255746143883</v>
+        <f t="shared" si="1"/>
+        <v>5.0425574614388303E-3</v>
       </c>
       <c r="C72">
-        <f t="shared" si="1"/>
-        <v>6.21801849130126</v>
-      </c>
-    </row>
-    <row r="99" ht="14.25" spans="1:2">
+        <f t="shared" si="2"/>
+        <v>6.2180184913012599</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24742,7 +24517,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>42548</v>
       </c>
@@ -24789,7 +24564,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>42549</v>
       </c>
@@ -24854,7 +24629,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>42550</v>
       </c>
@@ -24916,7 +24691,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>42551</v>
       </c>
@@ -24996,7 +24771,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>42552</v>
       </c>
@@ -25073,7 +24848,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>42553</v>
       </c>
@@ -25147,7 +24922,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>42554</v>
       </c>
@@ -25218,7 +24993,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>42555</v>
       </c>
@@ -25286,7 +25061,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>42556</v>
       </c>
@@ -25351,7 +25126,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>42557</v>
       </c>
@@ -25413,7 +25188,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>42558</v>
       </c>
@@ -25472,7 +25247,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>42559</v>
       </c>
@@ -25528,7 +25303,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>42560</v>
       </c>
@@ -25581,7 +25356,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>42561</v>
       </c>
@@ -25631,7 +25406,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>42562</v>
       </c>
@@ -25678,7 +25453,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>42563</v>
       </c>
@@ -25722,7 +25497,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>42564</v>
       </c>
@@ -25763,7 +25538,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>42565</v>
       </c>
@@ -25801,7 +25576,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>42566</v>
       </c>
@@ -25836,7 +25611,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>42567</v>
       </c>
@@ -25871,7 +25646,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>42568</v>
       </c>
@@ -25897,7 +25672,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>42569</v>
       </c>
@@ -25911,7 +25686,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>42570</v>
       </c>
@@ -25925,7 +25700,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>42571</v>
       </c>
@@ -25939,7 +25714,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>42572</v>
       </c>
@@ -25953,7 +25728,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>42573</v>
       </c>
@@ -25967,7 +25742,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>42574</v>
       </c>
@@ -25981,59 +25756,58 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>42575</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>42576</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>42577</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>42578</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>42579</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>42580</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>42581</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -26107,7 +25881,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>42567</v>
       </c>
@@ -26138,11 +25912,8 @@
       <c r="J2">
         <v>74</v>
       </c>
-      <c r="K2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>42568</v>
       </c>
@@ -26171,10 +25942,28 @@
         <v>108</v>
       </c>
       <c r="J3">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="K3">
+        <v>81</v>
+      </c>
+      <c r="L3">
+        <v>83</v>
+      </c>
+      <c r="M3">
+        <v>86</v>
+      </c>
+      <c r="N3">
+        <v>91</v>
+      </c>
+      <c r="O3">
+        <v>49</v>
+      </c>
+      <c r="P3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>42569</v>
       </c>
@@ -26200,10 +25989,28 @@
         <v>137</v>
       </c>
       <c r="I4">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="J4">
+        <v>77</v>
+      </c>
+      <c r="K4">
+        <v>112</v>
+      </c>
+      <c r="L4">
+        <v>99</v>
+      </c>
+      <c r="M4">
+        <v>87</v>
+      </c>
+      <c r="N4">
+        <v>88</v>
+      </c>
+      <c r="O4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>42570</v>
       </c>
@@ -26226,10 +26033,28 @@
         <v>166</v>
       </c>
       <c r="H5">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>114</v>
+      </c>
+      <c r="I5">
+        <v>87</v>
+      </c>
+      <c r="J5">
+        <v>132</v>
+      </c>
+      <c r="K5">
+        <v>119</v>
+      </c>
+      <c r="L5">
+        <v>93</v>
+      </c>
+      <c r="M5">
+        <v>84</v>
+      </c>
+      <c r="N5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>42571</v>
       </c>
@@ -26249,10 +26074,28 @@
         <v>211</v>
       </c>
       <c r="G6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>142</v>
+      </c>
+      <c r="H6">
+        <v>121</v>
+      </c>
+      <c r="I6">
+        <v>158</v>
+      </c>
+      <c r="J6">
+        <v>126</v>
+      </c>
+      <c r="K6">
+        <v>130</v>
+      </c>
+      <c r="L6">
+        <v>128</v>
+      </c>
+      <c r="M6">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>42572</v>
       </c>
@@ -26269,10 +26112,28 @@
         <v>293</v>
       </c>
       <c r="F7">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="G7">
+        <v>101</v>
+      </c>
+      <c r="H7">
+        <v>160</v>
+      </c>
+      <c r="I7">
+        <v>157</v>
+      </c>
+      <c r="J7">
+        <v>139</v>
+      </c>
+      <c r="K7">
+        <v>111</v>
+      </c>
+      <c r="L7">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>42573</v>
       </c>
@@ -26286,135 +26147,270 @@
         <v>906</v>
       </c>
       <c r="E8">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>235</v>
+      </c>
+      <c r="F8">
+        <v>141</v>
+      </c>
+      <c r="G8">
+        <v>178</v>
+      </c>
+      <c r="H8">
+        <v>181</v>
+      </c>
+      <c r="I8">
+        <v>139</v>
+      </c>
+      <c r="J8">
+        <v>146</v>
+      </c>
+      <c r="K8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>42574</v>
       </c>
       <c r="B9">
-        <v>551</v>
+        <v>1673</v>
       </c>
       <c r="C9">
-        <v>1024</v>
+        <v>4382</v>
       </c>
       <c r="D9">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>886</v>
+      </c>
+      <c r="E9">
+        <v>305</v>
+      </c>
+      <c r="F9">
+        <v>239</v>
+      </c>
+      <c r="G9">
+        <v>177</v>
+      </c>
+      <c r="H9">
+        <v>153</v>
+      </c>
+      <c r="I9">
+        <v>128</v>
+      </c>
+      <c r="J9">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>42575</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10">
+        <v>1762</v>
+      </c>
+      <c r="C10">
+        <v>4576</v>
+      </c>
+      <c r="D10">
+        <v>898</v>
+      </c>
+      <c r="E10">
+        <v>282</v>
+      </c>
+      <c r="F10">
+        <v>183</v>
+      </c>
+      <c r="G10">
+        <v>145</v>
+      </c>
+      <c r="H10">
+        <v>131</v>
+      </c>
+      <c r="I10">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>42576</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11">
+        <v>2156</v>
+      </c>
+      <c r="C11">
+        <v>4107</v>
+      </c>
+      <c r="D11">
+        <v>852</v>
+      </c>
+      <c r="E11">
+        <v>289</v>
+      </c>
+      <c r="F11">
+        <v>189</v>
+      </c>
+      <c r="G11">
+        <v>158</v>
+      </c>
+      <c r="H11">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>42577</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12">
+        <v>2221</v>
+      </c>
+      <c r="C12">
+        <v>4281</v>
+      </c>
+      <c r="D12">
+        <v>858</v>
+      </c>
+      <c r="E12">
+        <v>301</v>
+      </c>
+      <c r="F12">
+        <v>186</v>
+      </c>
+      <c r="G12">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>42578</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13">
+        <v>2200</v>
+      </c>
+      <c r="C13">
+        <v>4291</v>
+      </c>
+      <c r="D13">
+        <v>842</v>
+      </c>
+      <c r="E13">
+        <v>303</v>
+      </c>
+      <c r="F13">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>42579</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14">
+        <v>2258</v>
+      </c>
+      <c r="C14">
+        <v>4276</v>
+      </c>
+      <c r="D14">
+        <v>821</v>
+      </c>
+      <c r="E14">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>42580</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15">
+        <v>2384</v>
+      </c>
+      <c r="C15">
+        <v>4282</v>
+      </c>
+      <c r="D15">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>42581</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>42583</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>42584</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>42585</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>42586</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>42587</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>42588</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>42589</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>42590</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>42591</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>42592</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>42593</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>42594</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>42595</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>42596</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/aitushow/code/doc/留存.xlsx
+++ b/aitushow/code/doc/留存.xlsx
@@ -268,11 +268,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="179751168"/>
-        <c:axId val="179751744"/>
+        <c:axId val="138003584"/>
+        <c:axId val="138004160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="179751168"/>
+        <c:axId val="138003584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -313,12 +313,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179751744"/>
+        <c:crossAx val="138004160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179751744"/>
+        <c:axId val="138004160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -375,7 +375,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179751168"/>
+        <c:crossAx val="138003584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -569,11 +569,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="179753472"/>
-        <c:axId val="179754048"/>
+        <c:axId val="138005888"/>
+        <c:axId val="138006464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="179753472"/>
+        <c:axId val="138005888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -614,12 +614,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179754048"/>
+        <c:crossAx val="138006464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179754048"/>
+        <c:axId val="138006464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -676,7 +676,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179753472"/>
+        <c:crossAx val="138005888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -870,11 +870,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="179755776"/>
-        <c:axId val="179756352"/>
+        <c:axId val="138008192"/>
+        <c:axId val="138008768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="179755776"/>
+        <c:axId val="138008192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -915,12 +915,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179756352"/>
+        <c:crossAx val="138008768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179756352"/>
+        <c:axId val="138008768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -977,7 +977,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179755776"/>
+        <c:crossAx val="138008192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1171,11 +1171,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="190727296"/>
-        <c:axId val="190727872"/>
+        <c:axId val="184311808"/>
+        <c:axId val="184312384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="190727296"/>
+        <c:axId val="184311808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1216,12 +1216,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190727872"/>
+        <c:crossAx val="184312384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="190727872"/>
+        <c:axId val="184312384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -1278,7 +1278,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190727296"/>
+        <c:crossAx val="184311808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1472,11 +1472,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="190729600"/>
-        <c:axId val="190730176"/>
+        <c:axId val="184314112"/>
+        <c:axId val="184314688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="190729600"/>
+        <c:axId val="184314112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1517,12 +1517,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190730176"/>
+        <c:crossAx val="184314688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="190730176"/>
+        <c:axId val="184314688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -1579,7 +1579,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190729600"/>
+        <c:crossAx val="184314112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1773,11 +1773,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="190731904"/>
-        <c:axId val="190732480"/>
+        <c:axId val="184316416"/>
+        <c:axId val="184316992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="190731904"/>
+        <c:axId val="184316416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1818,12 +1818,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190732480"/>
+        <c:crossAx val="184316992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="190732480"/>
+        <c:axId val="184316992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -1880,7 +1880,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190731904"/>
+        <c:crossAx val="184316416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2083,11 +2083,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="190939136"/>
-        <c:axId val="190939712"/>
+        <c:axId val="184318720"/>
+        <c:axId val="184319296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="190939136"/>
+        <c:axId val="184318720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2128,12 +2128,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190939712"/>
+        <c:crossAx val="184319296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="190939712"/>
+        <c:axId val="184319296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -2190,7 +2190,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190939136"/>
+        <c:crossAx val="184318720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2780,7 +2780,7 @@
   <dimension ref="A1:CV330"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3796,13 +3796,27 @@
       <c r="AD8" s="5">
         <v>54</v>
       </c>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
+      <c r="AE8" s="5">
+        <v>42</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>53</v>
+      </c>
+      <c r="AG8" s="5">
+        <v>67</v>
+      </c>
+      <c r="AH8" s="5">
+        <v>55</v>
+      </c>
+      <c r="AI8" s="5">
+        <v>44</v>
+      </c>
+      <c r="AJ8" s="5">
+        <v>55</v>
+      </c>
+      <c r="AK8" s="5">
+        <v>43</v>
+      </c>
       <c r="AL8" s="5"/>
       <c r="AM8" s="5"/>
       <c r="AN8" s="5"/>
@@ -3949,13 +3963,27 @@
       <c r="AC9" s="5">
         <v>52</v>
       </c>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
+      <c r="AD9" s="5">
+        <v>41</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>46</v>
+      </c>
+      <c r="AF9" s="5">
+        <v>74</v>
+      </c>
+      <c r="AG9" s="5">
+        <v>53</v>
+      </c>
+      <c r="AH9" s="5">
+        <v>68</v>
+      </c>
+      <c r="AI9" s="5">
+        <v>49</v>
+      </c>
+      <c r="AJ9" s="5">
+        <v>58</v>
+      </c>
       <c r="AK9" s="5"/>
       <c r="AL9" s="5"/>
       <c r="AM9" s="5"/>
@@ -4099,13 +4127,27 @@
       <c r="AB10" s="5">
         <v>79</v>
       </c>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="5"/>
-      <c r="AH10" s="5"/>
-      <c r="AI10" s="5"/>
+      <c r="AC10" s="5">
+        <v>44</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>41</v>
+      </c>
+      <c r="AE10" s="5">
+        <v>73</v>
+      </c>
+      <c r="AF10" s="5">
+        <v>65</v>
+      </c>
+      <c r="AG10" s="5">
+        <v>74</v>
+      </c>
+      <c r="AH10" s="5">
+        <v>73</v>
+      </c>
+      <c r="AI10" s="5">
+        <v>67</v>
+      </c>
       <c r="AJ10" s="5"/>
       <c r="AK10" s="5"/>
       <c r="AL10" s="5"/>
@@ -4246,13 +4288,27 @@
       <c r="AA11" s="5">
         <v>65</v>
       </c>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="5"/>
+      <c r="AB11" s="5">
+        <v>50</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>49</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>63</v>
+      </c>
+      <c r="AE11" s="5">
+        <v>70</v>
+      </c>
+      <c r="AF11" s="5">
+        <v>57</v>
+      </c>
+      <c r="AG11" s="5">
+        <v>58</v>
+      </c>
+      <c r="AH11" s="5">
+        <v>60</v>
+      </c>
       <c r="AI11" s="5"/>
       <c r="AJ11" s="5"/>
       <c r="AK11" s="5"/>
@@ -4390,13 +4446,27 @@
       <c r="Z12" s="5">
         <v>74</v>
       </c>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
+      <c r="AA12" s="5">
+        <v>50</v>
+      </c>
+      <c r="AB12" s="5">
+        <v>37</v>
+      </c>
+      <c r="AC12" s="5">
+        <v>52</v>
+      </c>
+      <c r="AD12" s="5">
+        <v>55</v>
+      </c>
+      <c r="AE12" s="5">
+        <v>70</v>
+      </c>
+      <c r="AF12" s="5">
+        <v>58</v>
+      </c>
+      <c r="AG12" s="5">
+        <v>46</v>
+      </c>
       <c r="AH12" s="5"/>
       <c r="AI12" s="5"/>
       <c r="AJ12" s="5"/>
@@ -4531,13 +4601,27 @@
       <c r="Y13" s="5">
         <v>76</v>
       </c>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
+      <c r="Z13" s="5">
+        <v>45</v>
+      </c>
+      <c r="AA13" s="5">
+        <v>43</v>
+      </c>
+      <c r="AB13" s="5">
+        <v>70</v>
+      </c>
+      <c r="AC13" s="5">
+        <v>67</v>
+      </c>
+      <c r="AD13" s="5">
+        <v>77</v>
+      </c>
+      <c r="AE13" s="5">
+        <v>64</v>
+      </c>
+      <c r="AF13" s="5">
+        <v>58</v>
+      </c>
       <c r="AG13" s="5"/>
       <c r="AH13" s="5"/>
       <c r="AI13" s="5"/>
@@ -4669,13 +4753,27 @@
       <c r="X14" s="5">
         <v>65</v>
       </c>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
+      <c r="Y14" s="5">
+        <v>59</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>55</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>64</v>
+      </c>
+      <c r="AB14" s="5">
+        <v>65</v>
+      </c>
+      <c r="AC14" s="5">
+        <v>63</v>
+      </c>
+      <c r="AD14" s="5">
+        <v>53</v>
+      </c>
+      <c r="AE14" s="5">
+        <v>63</v>
+      </c>
       <c r="AF14" s="5"/>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
@@ -4804,13 +4902,27 @@
       <c r="W15" s="5">
         <v>66</v>
       </c>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
+      <c r="X15" s="5">
+        <v>62</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>63</v>
+      </c>
+      <c r="Z15" s="5">
+        <v>65</v>
+      </c>
+      <c r="AA15" s="5">
+        <v>66</v>
+      </c>
+      <c r="AB15" s="5">
+        <v>50</v>
+      </c>
+      <c r="AC15" s="5">
+        <v>63</v>
+      </c>
+      <c r="AD15" s="5">
+        <v>58</v>
+      </c>
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
       <c r="AG15" s="5"/>
@@ -4936,13 +5048,27 @@
       <c r="V16" s="5">
         <v>88</v>
       </c>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
+      <c r="W16" s="5">
+        <v>61</v>
+      </c>
+      <c r="X16" s="5">
+        <v>49</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>74</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>74</v>
+      </c>
+      <c r="AA16" s="5">
+        <v>65</v>
+      </c>
+      <c r="AB16" s="5">
+        <v>74</v>
+      </c>
+      <c r="AC16" s="5">
+        <v>57</v>
+      </c>
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
@@ -5065,13 +5191,27 @@
       <c r="U17" s="5">
         <v>64</v>
       </c>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
+      <c r="V17" s="5">
+        <v>59</v>
+      </c>
+      <c r="W17" s="5">
+        <v>42</v>
+      </c>
+      <c r="X17" s="5">
+        <v>71</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>59</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>71</v>
+      </c>
+      <c r="AA17" s="5">
+        <v>57</v>
+      </c>
+      <c r="AB17" s="5">
+        <v>56</v>
+      </c>
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
@@ -5191,13 +5331,27 @@
       <c r="T18" s="5">
         <v>84</v>
       </c>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
+      <c r="U18" s="5">
+        <v>50</v>
+      </c>
+      <c r="V18" s="5">
+        <v>50</v>
+      </c>
+      <c r="W18" s="5">
+        <v>62</v>
+      </c>
+      <c r="X18" s="5">
+        <v>69</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>73</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>65</v>
+      </c>
+      <c r="AA18" s="5">
+        <v>50</v>
+      </c>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
@@ -5314,13 +5468,27 @@
       <c r="S19" s="5">
         <v>85</v>
       </c>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
+      <c r="T19" s="5">
+        <v>68</v>
+      </c>
+      <c r="U19" s="5">
+        <v>51</v>
+      </c>
+      <c r="V19" s="5">
+        <v>77</v>
+      </c>
+      <c r="W19" s="5">
+        <v>69</v>
+      </c>
+      <c r="X19" s="5">
+        <v>74</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>80</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>60</v>
+      </c>
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
@@ -5434,13 +5602,27 @@
       <c r="R20" s="5">
         <v>108</v>
       </c>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
+      <c r="S20" s="5">
+        <v>71</v>
+      </c>
+      <c r="T20" s="5">
+        <v>68</v>
+      </c>
+      <c r="U20" s="5">
+        <v>96</v>
+      </c>
+      <c r="V20" s="5">
+        <v>76</v>
+      </c>
+      <c r="W20" s="5">
+        <v>93</v>
+      </c>
+      <c r="X20" s="5">
+        <v>88</v>
+      </c>
+      <c r="Y20" s="5">
+        <v>85</v>
+      </c>
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
@@ -5551,13 +5733,27 @@
       <c r="Q21" s="5">
         <v>71</v>
       </c>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
+      <c r="R21" s="5">
+        <v>63</v>
+      </c>
+      <c r="S21" s="5">
+        <v>64</v>
+      </c>
+      <c r="T21" s="5">
+        <v>58</v>
+      </c>
+      <c r="U21" s="5">
+        <v>65</v>
+      </c>
+      <c r="V21" s="5">
+        <v>63</v>
+      </c>
+      <c r="W21" s="5">
+        <v>59</v>
+      </c>
+      <c r="X21" s="5">
+        <v>54</v>
+      </c>
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
@@ -5665,13 +5861,27 @@
       <c r="P22" s="5">
         <v>84</v>
       </c>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
+      <c r="Q22" s="5">
+        <v>60</v>
+      </c>
+      <c r="R22" s="5">
+        <v>64</v>
+      </c>
+      <c r="S22" s="5">
+        <v>58</v>
+      </c>
+      <c r="T22" s="5">
+        <v>64</v>
+      </c>
+      <c r="U22" s="5">
+        <v>62</v>
+      </c>
+      <c r="V22" s="5">
+        <v>62</v>
+      </c>
+      <c r="W22" s="5">
+        <v>59</v>
+      </c>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
@@ -5776,13 +5986,27 @@
       <c r="O23" s="5">
         <v>76</v>
       </c>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
+      <c r="P23" s="5">
+        <v>53</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>52</v>
+      </c>
+      <c r="R23" s="5">
+        <v>75</v>
+      </c>
+      <c r="S23" s="5">
+        <v>70</v>
+      </c>
+      <c r="T23" s="5">
+        <v>56</v>
+      </c>
+      <c r="U23" s="5">
+        <v>66</v>
+      </c>
+      <c r="V23" s="5">
+        <v>61</v>
+      </c>
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
@@ -5884,13 +6108,27 @@
       <c r="N24" s="5">
         <v>86</v>
       </c>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
+      <c r="O24" s="5">
+        <v>69</v>
+      </c>
+      <c r="P24" s="5">
+        <v>63</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>95</v>
+      </c>
+      <c r="R24" s="5">
+        <v>85</v>
+      </c>
+      <c r="S24" s="5">
+        <v>84</v>
+      </c>
+      <c r="T24" s="5">
+        <v>80</v>
+      </c>
+      <c r="U24" s="5">
+        <v>72</v>
+      </c>
       <c r="V24" s="5"/>
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
@@ -5989,13 +6227,27 @@
       <c r="M25" s="5">
         <v>111</v>
       </c>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
+      <c r="N25" s="5">
+        <v>86</v>
+      </c>
+      <c r="O25" s="5">
+        <v>60</v>
+      </c>
+      <c r="P25" s="5">
+        <v>109</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>100</v>
+      </c>
+      <c r="R25" s="5">
+        <v>96</v>
+      </c>
+      <c r="S25" s="5">
+        <v>76</v>
+      </c>
+      <c r="T25" s="5">
+        <v>70</v>
+      </c>
       <c r="U25" s="5"/>
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
@@ -6091,13 +6343,27 @@
       <c r="L26" s="5">
         <v>107</v>
       </c>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
+      <c r="M26" s="5">
+        <v>79</v>
+      </c>
+      <c r="N26" s="5">
+        <v>76</v>
+      </c>
+      <c r="O26" s="5">
+        <v>109</v>
+      </c>
+      <c r="P26" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>112</v>
+      </c>
+      <c r="R26" s="5">
+        <v>87</v>
+      </c>
+      <c r="S26" s="5">
+        <v>76</v>
+      </c>
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
       <c r="V26" s="5"/>
@@ -6190,13 +6456,27 @@
       <c r="K27" s="5">
         <v>127</v>
       </c>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
+      <c r="L27" s="5">
+        <v>91</v>
+      </c>
+      <c r="M27" s="5">
+        <v>63</v>
+      </c>
+      <c r="N27" s="5">
+        <v>92</v>
+      </c>
+      <c r="O27" s="5">
+        <v>93</v>
+      </c>
+      <c r="P27" s="5">
+        <v>99</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>90</v>
+      </c>
+      <c r="R27" s="5">
+        <v>97</v>
+      </c>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
@@ -6286,13 +6566,27 @@
       <c r="J28" s="5">
         <v>137</v>
       </c>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
+      <c r="K28" s="5">
+        <v>88</v>
+      </c>
+      <c r="L28" s="5">
+        <v>63</v>
+      </c>
+      <c r="M28" s="5">
+        <v>92</v>
+      </c>
+      <c r="N28" s="5">
+        <v>79</v>
+      </c>
+      <c r="O28" s="5">
+        <v>83</v>
+      </c>
+      <c r="P28" s="5">
+        <v>85</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>94</v>
+      </c>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
@@ -6379,13 +6673,27 @@
       <c r="I29" s="5">
         <v>126</v>
       </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
+      <c r="J29" s="5">
+        <v>107</v>
+      </c>
+      <c r="K29" s="5">
+        <v>91</v>
+      </c>
+      <c r="L29" s="5">
+        <v>107</v>
+      </c>
+      <c r="M29" s="5">
+        <v>95</v>
+      </c>
+      <c r="N29" s="5">
+        <v>86</v>
+      </c>
+      <c r="O29" s="5">
+        <v>76</v>
+      </c>
+      <c r="P29" s="5">
+        <v>93</v>
+      </c>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
@@ -6469,13 +6777,27 @@
       <c r="H30" s="5">
         <v>147</v>
       </c>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
+      <c r="I30" s="5">
+        <v>96</v>
+      </c>
+      <c r="J30" s="5">
+        <v>83</v>
+      </c>
+      <c r="K30" s="5">
+        <v>107</v>
+      </c>
+      <c r="L30" s="5">
+        <v>106</v>
+      </c>
+      <c r="M30" s="5">
+        <v>108</v>
+      </c>
+      <c r="N30" s="5">
+        <v>96</v>
+      </c>
+      <c r="O30" s="5">
+        <v>94</v>
+      </c>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
@@ -6556,13 +6878,27 @@
       <c r="G31" s="5">
         <v>168</v>
       </c>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
+      <c r="H31" s="5">
+        <v>100</v>
+      </c>
+      <c r="I31" s="5">
+        <v>86</v>
+      </c>
+      <c r="J31" s="5">
+        <v>119</v>
+      </c>
+      <c r="K31" s="5">
+        <v>96</v>
+      </c>
+      <c r="L31" s="5">
+        <v>112</v>
+      </c>
+      <c r="M31" s="5">
+        <v>106</v>
+      </c>
+      <c r="N31" s="5">
+        <v>116</v>
+      </c>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
@@ -6640,13 +6976,27 @@
       <c r="F32" s="5">
         <v>296</v>
       </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
+      <c r="G32" s="5">
+        <v>138</v>
+      </c>
+      <c r="H32" s="5">
+        <v>105</v>
+      </c>
+      <c r="I32" s="5">
+        <v>161</v>
+      </c>
+      <c r="J32" s="5">
+        <v>132</v>
+      </c>
+      <c r="K32" s="5">
+        <v>127</v>
+      </c>
+      <c r="L32" s="5">
+        <v>132</v>
+      </c>
+      <c r="M32" s="5">
+        <v>83</v>
+      </c>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
@@ -6721,13 +7071,27 @@
       <c r="E33" s="5">
         <v>311</v>
       </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
+      <c r="F33" s="5">
+        <v>164</v>
+      </c>
+      <c r="G33" s="5">
+        <v>111</v>
+      </c>
+      <c r="H33" s="5">
+        <v>126</v>
+      </c>
+      <c r="I33" s="5">
+        <v>150</v>
+      </c>
+      <c r="J33" s="5">
+        <v>119</v>
+      </c>
+      <c r="K33" s="5">
+        <v>110</v>
+      </c>
+      <c r="L33" s="5">
+        <v>113</v>
+      </c>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
@@ -6799,13 +7163,27 @@
       <c r="D34" s="5">
         <v>875</v>
       </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
+      <c r="E34" s="5">
+        <v>252</v>
+      </c>
+      <c r="F34" s="5">
+        <v>148</v>
+      </c>
+      <c r="G34" s="5">
+        <v>231</v>
+      </c>
+      <c r="H34" s="5">
+        <v>164</v>
+      </c>
+      <c r="I34" s="5">
+        <v>160</v>
+      </c>
+      <c r="J34" s="5">
+        <v>144</v>
+      </c>
+      <c r="K34" s="5">
+        <v>125</v>
+      </c>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
@@ -6868,15 +7246,33 @@
       <c r="A35" s="13">
         <v>42581</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
+      <c r="B35" s="5">
+        <v>3069</v>
+      </c>
+      <c r="C35" s="5">
+        <v>4299</v>
+      </c>
+      <c r="D35" s="5">
+        <v>897</v>
+      </c>
+      <c r="E35" s="5">
+        <v>262</v>
+      </c>
+      <c r="F35" s="5">
+        <v>197</v>
+      </c>
+      <c r="G35" s="5">
+        <v>176</v>
+      </c>
+      <c r="H35" s="5">
+        <v>149</v>
+      </c>
+      <c r="I35" s="5">
+        <v>133</v>
+      </c>
+      <c r="J35" s="5">
+        <v>112</v>
+      </c>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
@@ -6939,14 +7335,30 @@
       <c r="A36" s="13">
         <v>42582</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
+      <c r="B36" s="5">
+        <v>2876</v>
+      </c>
+      <c r="C36" s="5">
+        <v>4234</v>
+      </c>
+      <c r="D36" s="5">
+        <v>851</v>
+      </c>
+      <c r="E36" s="5">
+        <v>289</v>
+      </c>
+      <c r="F36" s="5">
+        <v>174</v>
+      </c>
+      <c r="G36" s="5">
+        <v>161</v>
+      </c>
+      <c r="H36" s="5">
+        <v>112</v>
+      </c>
+      <c r="I36" s="5">
+        <v>105</v>
+      </c>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
@@ -7009,13 +7421,27 @@
       <c r="A37" s="13">
         <v>42583</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
+      <c r="B37" s="5">
+        <v>3801</v>
+      </c>
+      <c r="C37" s="5">
+        <v>3860</v>
+      </c>
+      <c r="D37" s="5">
+        <v>802</v>
+      </c>
+      <c r="E37" s="5">
+        <v>295</v>
+      </c>
+      <c r="F37" s="5">
+        <v>179</v>
+      </c>
+      <c r="G37" s="5">
+        <v>141</v>
+      </c>
+      <c r="H37" s="5">
+        <v>124</v>
+      </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
@@ -7075,13 +7501,27 @@
       <c r="BM37" s="5"/>
     </row>
     <row r="38" spans="1:69" x14ac:dyDescent="0.15">
-      <c r="A38" s="2"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
+      <c r="A38" s="13">
+        <v>42584</v>
+      </c>
+      <c r="B38" s="5">
+        <v>3872</v>
+      </c>
+      <c r="C38" s="5">
+        <v>4595</v>
+      </c>
+      <c r="D38" s="5">
+        <v>957</v>
+      </c>
+      <c r="E38" s="5">
+        <v>313</v>
+      </c>
+      <c r="F38" s="5">
+        <v>199</v>
+      </c>
+      <c r="G38" s="5">
+        <v>165</v>
+      </c>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
@@ -7141,12 +7581,24 @@
       <c r="BL38" s="5"/>
     </row>
     <row r="39" spans="1:69" x14ac:dyDescent="0.15">
-      <c r="A39" s="2"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
+      <c r="A39" s="13">
+        <v>42585</v>
+      </c>
+      <c r="B39" s="5">
+        <v>3934</v>
+      </c>
+      <c r="C39" s="5">
+        <v>4250</v>
+      </c>
+      <c r="D39" s="5">
+        <v>899</v>
+      </c>
+      <c r="E39" s="5">
+        <v>315</v>
+      </c>
+      <c r="F39" s="5">
+        <v>209</v>
+      </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -7206,11 +7658,21 @@
       <c r="BK39" s="5"/>
     </row>
     <row r="40" spans="1:69" x14ac:dyDescent="0.15">
-      <c r="A40" s="2"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
+      <c r="A40" s="13">
+        <v>42586</v>
+      </c>
+      <c r="B40" s="5">
+        <v>3898</v>
+      </c>
+      <c r="C40" s="5">
+        <v>4276</v>
+      </c>
+      <c r="D40" s="5">
+        <v>880</v>
+      </c>
+      <c r="E40" s="5">
+        <v>318</v>
+      </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -7270,10 +7732,18 @@
       <c r="BJ40" s="5"/>
     </row>
     <row r="41" spans="1:69" x14ac:dyDescent="0.15">
-      <c r="A41" s="2"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
+      <c r="A41" s="13">
+        <v>42587</v>
+      </c>
+      <c r="B41" s="5">
+        <v>3590</v>
+      </c>
+      <c r="C41" s="5">
+        <v>2732</v>
+      </c>
+      <c r="D41" s="5">
+        <v>623</v>
+      </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
@@ -7333,7 +7803,9 @@
       <c r="BI41" s="5"/>
     </row>
     <row r="42" spans="1:69" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A42" s="2"/>
+      <c r="A42" s="13">
+        <v>42588</v>
+      </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -7392,7 +7864,9 @@
       <c r="BH42" s="5"/>
     </row>
     <row r="43" spans="1:69" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A43" s="2"/>
+      <c r="A43" s="13">
+        <v>42589</v>
+      </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -7451,7 +7925,9 @@
       <c r="BG43" s="5"/>
     </row>
     <row r="44" spans="1:69" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A44" s="2"/>
+      <c r="A44" s="13">
+        <v>42590</v>
+      </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -25802,7 +26278,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -25962,6 +26438,27 @@
       <c r="P3">
         <v>76</v>
       </c>
+      <c r="Q3">
+        <v>57</v>
+      </c>
+      <c r="R3">
+        <v>54</v>
+      </c>
+      <c r="S3">
+        <v>51</v>
+      </c>
+      <c r="T3">
+        <v>60</v>
+      </c>
+      <c r="U3">
+        <v>57</v>
+      </c>
+      <c r="V3">
+        <v>57</v>
+      </c>
+      <c r="W3">
+        <v>52</v>
+      </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
@@ -26009,6 +26506,27 @@
       <c r="O4">
         <v>70</v>
       </c>
+      <c r="P4">
+        <v>52</v>
+      </c>
+      <c r="Q4">
+        <v>51</v>
+      </c>
+      <c r="R4">
+        <v>72</v>
+      </c>
+      <c r="S4">
+        <v>65</v>
+      </c>
+      <c r="T4">
+        <v>54</v>
+      </c>
+      <c r="U4">
+        <v>60</v>
+      </c>
+      <c r="V4">
+        <v>64</v>
+      </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
@@ -26053,6 +26571,27 @@
       <c r="N5">
         <v>81</v>
       </c>
+      <c r="O5">
+        <v>62</v>
+      </c>
+      <c r="P5">
+        <v>57</v>
+      </c>
+      <c r="Q5">
+        <v>91</v>
+      </c>
+      <c r="R5">
+        <v>80</v>
+      </c>
+      <c r="S5">
+        <v>80</v>
+      </c>
+      <c r="T5">
+        <v>74</v>
+      </c>
+      <c r="U5">
+        <v>66</v>
+      </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
@@ -26094,6 +26633,27 @@
       <c r="M6">
         <v>109</v>
       </c>
+      <c r="N6">
+        <v>81</v>
+      </c>
+      <c r="O6">
+        <v>58</v>
+      </c>
+      <c r="P6">
+        <v>104</v>
+      </c>
+      <c r="Q6">
+        <v>98</v>
+      </c>
+      <c r="R6">
+        <v>87</v>
+      </c>
+      <c r="S6">
+        <v>72</v>
+      </c>
+      <c r="T6">
+        <v>65</v>
+      </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
@@ -26132,6 +26692,27 @@
       <c r="L7">
         <v>104</v>
       </c>
+      <c r="M7">
+        <v>76</v>
+      </c>
+      <c r="N7">
+        <v>74</v>
+      </c>
+      <c r="O7">
+        <v>105</v>
+      </c>
+      <c r="P7">
+        <v>98</v>
+      </c>
+      <c r="Q7">
+        <v>106</v>
+      </c>
+      <c r="R7">
+        <v>86</v>
+      </c>
+      <c r="S7">
+        <v>72</v>
+      </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
@@ -26167,6 +26748,27 @@
       <c r="K8">
         <v>119</v>
       </c>
+      <c r="L8">
+        <v>82</v>
+      </c>
+      <c r="M8">
+        <v>59</v>
+      </c>
+      <c r="N8">
+        <v>87</v>
+      </c>
+      <c r="O8">
+        <v>87</v>
+      </c>
+      <c r="P8">
+        <v>93</v>
+      </c>
+      <c r="Q8">
+        <v>84</v>
+      </c>
+      <c r="R8">
+        <v>93</v>
+      </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
@@ -26199,6 +26801,27 @@
       <c r="J9">
         <v>133</v>
       </c>
+      <c r="K9">
+        <v>87</v>
+      </c>
+      <c r="L9">
+        <v>59</v>
+      </c>
+      <c r="M9">
+        <v>87</v>
+      </c>
+      <c r="N9">
+        <v>76</v>
+      </c>
+      <c r="O9">
+        <v>77</v>
+      </c>
+      <c r="P9">
+        <v>81</v>
+      </c>
+      <c r="Q9">
+        <v>90</v>
+      </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
@@ -26228,6 +26851,27 @@
       <c r="I10">
         <v>122</v>
       </c>
+      <c r="J10">
+        <v>102</v>
+      </c>
+      <c r="K10">
+        <v>90</v>
+      </c>
+      <c r="L10">
+        <v>103</v>
+      </c>
+      <c r="M10">
+        <v>91</v>
+      </c>
+      <c r="N10">
+        <v>83</v>
+      </c>
+      <c r="O10">
+        <v>74</v>
+      </c>
+      <c r="P10">
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
@@ -26254,6 +26898,27 @@
       <c r="H11">
         <v>134</v>
       </c>
+      <c r="I11">
+        <v>91</v>
+      </c>
+      <c r="J11">
+        <v>81</v>
+      </c>
+      <c r="K11">
+        <v>102</v>
+      </c>
+      <c r="L11">
+        <v>99</v>
+      </c>
+      <c r="M11">
+        <v>103</v>
+      </c>
+      <c r="N11">
+        <v>89</v>
+      </c>
+      <c r="O11">
+        <v>88</v>
+      </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
@@ -26277,6 +26942,27 @@
       <c r="G12">
         <v>161</v>
       </c>
+      <c r="H12">
+        <v>97</v>
+      </c>
+      <c r="I12">
+        <v>82</v>
+      </c>
+      <c r="J12">
+        <v>112</v>
+      </c>
+      <c r="K12">
+        <v>93</v>
+      </c>
+      <c r="L12">
+        <v>107</v>
+      </c>
+      <c r="M12">
+        <v>100</v>
+      </c>
+      <c r="N12">
+        <v>109</v>
+      </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
@@ -26297,6 +26983,27 @@
       <c r="F13">
         <v>196</v>
       </c>
+      <c r="G13">
+        <v>126</v>
+      </c>
+      <c r="H13">
+        <v>103</v>
+      </c>
+      <c r="I13">
+        <v>153</v>
+      </c>
+      <c r="J13">
+        <v>127</v>
+      </c>
+      <c r="K13">
+        <v>125</v>
+      </c>
+      <c r="L13">
+        <v>131</v>
+      </c>
+      <c r="M13">
+        <v>81</v>
+      </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
@@ -26314,6 +27021,27 @@
       <c r="E14">
         <v>299</v>
       </c>
+      <c r="F14">
+        <v>159</v>
+      </c>
+      <c r="G14">
+        <v>105</v>
+      </c>
+      <c r="H14">
+        <v>124</v>
+      </c>
+      <c r="I14">
+        <v>146</v>
+      </c>
+      <c r="J14">
+        <v>118</v>
+      </c>
+      <c r="K14">
+        <v>107</v>
+      </c>
+      <c r="L14">
+        <v>111</v>
+      </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
@@ -26328,83 +27056,230 @@
       <c r="D15">
         <v>859</v>
       </c>
+      <c r="E15">
+        <v>241</v>
+      </c>
+      <c r="F15">
+        <v>139</v>
+      </c>
+      <c r="G15">
+        <v>223</v>
+      </c>
+      <c r="H15">
+        <v>149</v>
+      </c>
+      <c r="I15">
+        <v>153</v>
+      </c>
+      <c r="J15">
+        <v>137</v>
+      </c>
+      <c r="K15">
+        <v>120</v>
+      </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>42581</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B16">
+        <v>2118</v>
+      </c>
+      <c r="C16">
+        <v>4272</v>
+      </c>
+      <c r="D16">
+        <v>861</v>
+      </c>
+      <c r="E16">
+        <v>246</v>
+      </c>
+      <c r="F16">
+        <v>190</v>
+      </c>
+      <c r="G16">
+        <v>168</v>
+      </c>
+      <c r="H16">
+        <v>143</v>
+      </c>
+      <c r="I16">
+        <v>128</v>
+      </c>
+      <c r="J16">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>42582</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B17">
+        <v>2004</v>
+      </c>
+      <c r="C17">
+        <v>4208</v>
+      </c>
+      <c r="D17">
+        <v>822</v>
+      </c>
+      <c r="E17">
+        <v>276</v>
+      </c>
+      <c r="F17">
+        <v>160</v>
+      </c>
+      <c r="G17">
+        <v>156</v>
+      </c>
+      <c r="H17">
+        <v>106</v>
+      </c>
+      <c r="I17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>42583</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <v>2560</v>
+      </c>
+      <c r="C18">
+        <v>3829</v>
+      </c>
+      <c r="D18">
+        <v>768</v>
+      </c>
+      <c r="E18">
+        <v>277</v>
+      </c>
+      <c r="F18">
+        <v>172</v>
+      </c>
+      <c r="G18">
+        <v>135</v>
+      </c>
+      <c r="H18">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>42584</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B19">
+        <v>2719</v>
+      </c>
+      <c r="C19">
+        <v>4627</v>
+      </c>
+      <c r="D19">
+        <v>951</v>
+      </c>
+      <c r="E19">
+        <v>307</v>
+      </c>
+      <c r="F19">
+        <v>195</v>
+      </c>
+      <c r="G19">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>42585</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B20">
+        <v>2792</v>
+      </c>
+      <c r="C20">
+        <v>4276</v>
+      </c>
+      <c r="D20">
+        <v>887</v>
+      </c>
+      <c r="E20">
+        <v>306</v>
+      </c>
+      <c r="F20">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>42586</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B21">
+        <v>2784</v>
+      </c>
+      <c r="C21">
+        <v>4311</v>
+      </c>
+      <c r="D21">
+        <v>890</v>
+      </c>
+      <c r="E21">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>42587</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B22">
+        <v>2555</v>
+      </c>
+      <c r="C22">
+        <v>2748</v>
+      </c>
+      <c r="D22">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>42588</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>42589</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>42590</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>42591</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>42592</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>42593</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>42594</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>42595</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>42596</v>
       </c>

--- a/aitushow/code/doc/留存.xlsx
+++ b/aitushow/code/doc/留存.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="0002" sheetId="1" r:id="rId1"/>
@@ -268,11 +268,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="138003584"/>
-        <c:axId val="138004160"/>
+        <c:axId val="188475072"/>
+        <c:axId val="188475648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="138003584"/>
+        <c:axId val="188475072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -313,12 +313,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138004160"/>
+        <c:crossAx val="188475648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="138004160"/>
+        <c:axId val="188475648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -375,7 +375,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138003584"/>
+        <c:crossAx val="188475072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -569,11 +569,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="138005888"/>
-        <c:axId val="138006464"/>
+        <c:axId val="188477376"/>
+        <c:axId val="188477952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="138005888"/>
+        <c:axId val="188477376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -614,12 +614,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138006464"/>
+        <c:crossAx val="188477952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="138006464"/>
+        <c:axId val="188477952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -676,7 +676,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138005888"/>
+        <c:crossAx val="188477376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -870,11 +870,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="138008192"/>
-        <c:axId val="138008768"/>
+        <c:axId val="188479680"/>
+        <c:axId val="188480256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="138008192"/>
+        <c:axId val="188479680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -915,12 +915,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138008768"/>
+        <c:crossAx val="188480256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="138008768"/>
+        <c:axId val="188480256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -977,7 +977,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138008192"/>
+        <c:crossAx val="188479680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1171,11 +1171,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="184311808"/>
-        <c:axId val="184312384"/>
+        <c:axId val="197624384"/>
+        <c:axId val="197624960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="184311808"/>
+        <c:axId val="197624384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1216,12 +1216,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184312384"/>
+        <c:crossAx val="197624960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="184312384"/>
+        <c:axId val="197624960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -1278,7 +1278,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184311808"/>
+        <c:crossAx val="197624384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1472,11 +1472,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="184314112"/>
-        <c:axId val="184314688"/>
+        <c:axId val="197626688"/>
+        <c:axId val="197627264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="184314112"/>
+        <c:axId val="197626688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1517,12 +1517,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184314688"/>
+        <c:crossAx val="197627264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="184314688"/>
+        <c:axId val="197627264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -1579,7 +1579,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184314112"/>
+        <c:crossAx val="197626688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1773,11 +1773,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="184316416"/>
-        <c:axId val="184316992"/>
+        <c:axId val="197628992"/>
+        <c:axId val="197629568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="184316416"/>
+        <c:axId val="197628992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1818,12 +1818,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184316992"/>
+        <c:crossAx val="197629568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="184316992"/>
+        <c:axId val="197629568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -1880,7 +1880,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184316416"/>
+        <c:crossAx val="197628992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2083,11 +2083,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="184318720"/>
-        <c:axId val="184319296"/>
+        <c:axId val="197631296"/>
+        <c:axId val="197500928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="184318720"/>
+        <c:axId val="197631296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2128,12 +2128,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184319296"/>
+        <c:crossAx val="197500928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="184319296"/>
+        <c:axId val="197500928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -2190,7 +2190,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184318720"/>
+        <c:crossAx val="197631296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2779,8 +2779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV330"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AS7" sqref="AS7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3084,34 +3084,90 @@
       <c r="U3" s="5">
         <v>98</v>
       </c>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="5"/>
-      <c r="AS3" s="5"/>
-      <c r="AT3" s="5"/>
-      <c r="AU3" s="5"/>
-      <c r="AV3" s="5"/>
-      <c r="AW3" s="5"/>
+      <c r="V3" s="5">
+        <v>60</v>
+      </c>
+      <c r="W3" s="5">
+        <v>59</v>
+      </c>
+      <c r="X3" s="5">
+        <v>84</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>81</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>72</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>66</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>75</v>
+      </c>
+      <c r="AC3" s="5">
+        <v>37</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>37</v>
+      </c>
+      <c r="AE3" s="5">
+        <v>68</v>
+      </c>
+      <c r="AF3" s="5">
+        <v>85</v>
+      </c>
+      <c r="AG3" s="5">
+        <v>65</v>
+      </c>
+      <c r="AH3" s="5">
+        <v>75</v>
+      </c>
+      <c r="AI3" s="5">
+        <v>57</v>
+      </c>
+      <c r="AJ3" s="5">
+        <v>46</v>
+      </c>
+      <c r="AK3" s="5">
+        <v>38</v>
+      </c>
+      <c r="AL3" s="5">
+        <v>69</v>
+      </c>
+      <c r="AM3" s="5">
+        <v>67</v>
+      </c>
+      <c r="AN3" s="5">
+        <v>60</v>
+      </c>
+      <c r="AO3" s="5">
+        <v>67</v>
+      </c>
+      <c r="AP3" s="5">
+        <v>68</v>
+      </c>
+      <c r="AQ3" s="5">
+        <v>45</v>
+      </c>
+      <c r="AR3" s="5">
+        <v>30</v>
+      </c>
+      <c r="AS3" s="5">
+        <v>48</v>
+      </c>
+      <c r="AT3" s="5">
+        <v>43</v>
+      </c>
+      <c r="AU3" s="5">
+        <v>49</v>
+      </c>
+      <c r="AV3" s="5">
+        <v>47</v>
+      </c>
+      <c r="AW3" s="5">
+        <v>53</v>
+      </c>
       <c r="AX3" s="5"/>
       <c r="AY3" s="5"/>
       <c r="AZ3" s="5"/>
@@ -3224,34 +3280,90 @@
       <c r="T4" s="5">
         <v>83</v>
       </c>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
-      <c r="AM4" s="5"/>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="5"/>
-      <c r="AP4" s="5"/>
-      <c r="AQ4" s="5"/>
-      <c r="AR4" s="5"/>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="5"/>
-      <c r="AU4" s="5"/>
-      <c r="AV4" s="5"/>
+      <c r="U4" s="5">
+        <v>59</v>
+      </c>
+      <c r="V4" s="5">
+        <v>50</v>
+      </c>
+      <c r="W4" s="5">
+        <v>74</v>
+      </c>
+      <c r="X4" s="5">
+        <v>82</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>60</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>61</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>68</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>62</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>32</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>66</v>
+      </c>
+      <c r="AE4" s="5">
+        <v>68</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>63</v>
+      </c>
+      <c r="AG4" s="5">
+        <v>59</v>
+      </c>
+      <c r="AH4" s="5">
+        <v>59</v>
+      </c>
+      <c r="AI4" s="5">
+        <v>40</v>
+      </c>
+      <c r="AJ4" s="5">
+        <v>35</v>
+      </c>
+      <c r="AK4" s="5">
+        <v>61</v>
+      </c>
+      <c r="AL4" s="5">
+        <v>53</v>
+      </c>
+      <c r="AM4" s="5">
+        <v>48</v>
+      </c>
+      <c r="AN4" s="5">
+        <v>60</v>
+      </c>
+      <c r="AO4" s="5">
+        <v>40</v>
+      </c>
+      <c r="AP4" s="5">
+        <v>25</v>
+      </c>
+      <c r="AQ4" s="5">
+        <v>33</v>
+      </c>
+      <c r="AR4" s="5">
+        <v>41</v>
+      </c>
+      <c r="AS4" s="5">
+        <v>41</v>
+      </c>
+      <c r="AT4" s="5">
+        <v>35</v>
+      </c>
+      <c r="AU4" s="5">
+        <v>33</v>
+      </c>
+      <c r="AV4" s="5">
+        <v>41</v>
+      </c>
       <c r="AW4" s="5"/>
       <c r="AX4" s="5"/>
       <c r="AY4" s="5"/>
@@ -3361,34 +3473,90 @@
       <c r="S5" s="5">
         <v>86</v>
       </c>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
-      <c r="AM5" s="5"/>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="5"/>
-      <c r="AP5" s="5"/>
-      <c r="AQ5" s="5"/>
-      <c r="AR5" s="5"/>
-      <c r="AS5" s="5"/>
-      <c r="AT5" s="5"/>
-      <c r="AU5" s="5"/>
+      <c r="T5" s="5">
+        <v>62</v>
+      </c>
+      <c r="U5" s="5">
+        <v>59</v>
+      </c>
+      <c r="V5" s="5">
+        <v>83</v>
+      </c>
+      <c r="W5" s="5">
+        <v>84</v>
+      </c>
+      <c r="X5" s="5">
+        <v>75</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>74</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>72</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>46</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>48</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>66</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>55</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>64</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>61</v>
+      </c>
+      <c r="AG5" s="5">
+        <v>50</v>
+      </c>
+      <c r="AH5" s="5">
+        <v>38</v>
+      </c>
+      <c r="AI5" s="5">
+        <v>35</v>
+      </c>
+      <c r="AJ5" s="5">
+        <v>43</v>
+      </c>
+      <c r="AK5" s="5">
+        <v>56</v>
+      </c>
+      <c r="AL5" s="5">
+        <v>47</v>
+      </c>
+      <c r="AM5" s="5">
+        <v>33</v>
+      </c>
+      <c r="AN5" s="5">
+        <v>34</v>
+      </c>
+      <c r="AO5" s="5">
+        <v>29</v>
+      </c>
+      <c r="AP5" s="5">
+        <v>26</v>
+      </c>
+      <c r="AQ5" s="5">
+        <v>40</v>
+      </c>
+      <c r="AR5" s="5">
+        <v>35</v>
+      </c>
+      <c r="AS5" s="5">
+        <v>39</v>
+      </c>
+      <c r="AT5" s="5">
+        <v>35</v>
+      </c>
+      <c r="AU5" s="5">
+        <v>31</v>
+      </c>
       <c r="AV5" s="5"/>
       <c r="AW5" s="5"/>
       <c r="AX5" s="5"/>
@@ -3495,34 +3663,90 @@
       <c r="R6" s="5">
         <v>98</v>
       </c>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
-      <c r="AM6" s="5"/>
-      <c r="AN6" s="5"/>
-      <c r="AO6" s="5"/>
-      <c r="AP6" s="5"/>
-      <c r="AQ6" s="5"/>
-      <c r="AR6" s="5"/>
-      <c r="AS6" s="5"/>
-      <c r="AT6" s="5"/>
+      <c r="S6" s="5">
+        <v>56</v>
+      </c>
+      <c r="T6" s="5">
+        <v>65</v>
+      </c>
+      <c r="U6" s="5">
+        <v>78</v>
+      </c>
+      <c r="V6" s="5">
+        <v>70</v>
+      </c>
+      <c r="W6" s="5">
+        <v>61</v>
+      </c>
+      <c r="X6" s="5">
+        <v>72</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>64</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>45</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>45</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>54</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>70</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>52</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>54</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>41</v>
+      </c>
+      <c r="AG6" s="5">
+        <v>39</v>
+      </c>
+      <c r="AH6" s="5">
+        <v>35</v>
+      </c>
+      <c r="AI6" s="5">
+        <v>54</v>
+      </c>
+      <c r="AJ6" s="5">
+        <v>59</v>
+      </c>
+      <c r="AK6" s="5">
+        <v>44</v>
+      </c>
+      <c r="AL6" s="5">
+        <v>54</v>
+      </c>
+      <c r="AM6" s="5">
+        <v>46</v>
+      </c>
+      <c r="AN6" s="5">
+        <v>35</v>
+      </c>
+      <c r="AO6" s="5">
+        <v>27</v>
+      </c>
+      <c r="AP6" s="5">
+        <v>45</v>
+      </c>
+      <c r="AQ6" s="5">
+        <v>37</v>
+      </c>
+      <c r="AR6" s="5">
+        <v>52</v>
+      </c>
+      <c r="AS6" s="5">
+        <v>44</v>
+      </c>
+      <c r="AT6" s="5">
+        <v>42</v>
+      </c>
       <c r="AU6" s="5"/>
       <c r="AV6" s="5"/>
       <c r="AW6" s="5"/>
@@ -3626,34 +3850,90 @@
       <c r="Q7" s="5">
         <v>100</v>
       </c>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
-      <c r="AM7" s="5"/>
-      <c r="AN7" s="5"/>
-      <c r="AO7" s="5"/>
-      <c r="AP7" s="5"/>
-      <c r="AQ7" s="5"/>
-      <c r="AR7" s="5"/>
-      <c r="AS7" s="5"/>
+      <c r="R7" s="5">
+        <v>86</v>
+      </c>
+      <c r="S7" s="5">
+        <v>67</v>
+      </c>
+      <c r="T7" s="5">
+        <v>87</v>
+      </c>
+      <c r="U7" s="5">
+        <v>89</v>
+      </c>
+      <c r="V7" s="5">
+        <v>81</v>
+      </c>
+      <c r="W7" s="5">
+        <v>83</v>
+      </c>
+      <c r="X7" s="5">
+        <v>71</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>74</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>47</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>76</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>64</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>65</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>62</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>64</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>48</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>45</v>
+      </c>
+      <c r="AH7" s="5">
+        <v>57</v>
+      </c>
+      <c r="AI7" s="5">
+        <v>52</v>
+      </c>
+      <c r="AJ7" s="5">
+        <v>53</v>
+      </c>
+      <c r="AK7" s="5">
+        <v>66</v>
+      </c>
+      <c r="AL7" s="5">
+        <v>53</v>
+      </c>
+      <c r="AM7" s="5">
+        <v>47</v>
+      </c>
+      <c r="AN7" s="5">
+        <v>43</v>
+      </c>
+      <c r="AO7" s="5">
+        <v>57</v>
+      </c>
+      <c r="AP7" s="5">
+        <v>51</v>
+      </c>
+      <c r="AQ7" s="5">
+        <v>47</v>
+      </c>
+      <c r="AR7" s="5">
+        <v>39</v>
+      </c>
+      <c r="AS7" s="5">
+        <v>45</v>
+      </c>
       <c r="AT7" s="5"/>
       <c r="AU7" s="5"/>
       <c r="AV7" s="5"/>
@@ -3817,13 +4097,27 @@
       <c r="AK8" s="5">
         <v>43</v>
       </c>
-      <c r="AL8" s="5"/>
-      <c r="AM8" s="5"/>
-      <c r="AN8" s="5"/>
-      <c r="AO8" s="5"/>
-      <c r="AP8" s="5"/>
-      <c r="AQ8" s="5"/>
-      <c r="AR8" s="5"/>
+      <c r="AL8" s="5">
+        <v>43</v>
+      </c>
+      <c r="AM8" s="5">
+        <v>41</v>
+      </c>
+      <c r="AN8" s="5">
+        <v>45</v>
+      </c>
+      <c r="AO8" s="5">
+        <v>39</v>
+      </c>
+      <c r="AP8" s="5">
+        <v>50</v>
+      </c>
+      <c r="AQ8" s="5">
+        <v>39</v>
+      </c>
+      <c r="AR8" s="5">
+        <v>39</v>
+      </c>
       <c r="AS8" s="5"/>
       <c r="AT8" s="5"/>
       <c r="AU8" s="5"/>
@@ -3984,13 +4278,27 @@
       <c r="AJ9" s="5">
         <v>58</v>
       </c>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="5"/>
-      <c r="AM9" s="5"/>
-      <c r="AN9" s="5"/>
-      <c r="AO9" s="5"/>
-      <c r="AP9" s="5"/>
-      <c r="AQ9" s="5"/>
+      <c r="AK9" s="5">
+        <v>40</v>
+      </c>
+      <c r="AL9" s="5">
+        <v>36</v>
+      </c>
+      <c r="AM9" s="5">
+        <v>54</v>
+      </c>
+      <c r="AN9" s="5">
+        <v>52</v>
+      </c>
+      <c r="AO9" s="5">
+        <v>51</v>
+      </c>
+      <c r="AP9" s="5">
+        <v>53</v>
+      </c>
+      <c r="AQ9" s="5">
+        <v>49</v>
+      </c>
       <c r="AR9" s="5"/>
       <c r="AS9" s="5"/>
       <c r="AT9" s="5"/>
@@ -4148,13 +4456,27 @@
       <c r="AI10" s="5">
         <v>67</v>
       </c>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="5"/>
-      <c r="AM10" s="5"/>
-      <c r="AN10" s="5"/>
-      <c r="AO10" s="5"/>
-      <c r="AP10" s="5"/>
+      <c r="AJ10" s="5">
+        <v>42</v>
+      </c>
+      <c r="AK10" s="5">
+        <v>35</v>
+      </c>
+      <c r="AL10" s="5">
+        <v>45</v>
+      </c>
+      <c r="AM10" s="5">
+        <v>50</v>
+      </c>
+      <c r="AN10" s="5">
+        <v>51</v>
+      </c>
+      <c r="AO10" s="5">
+        <v>48</v>
+      </c>
+      <c r="AP10" s="5">
+        <v>50</v>
+      </c>
       <c r="AQ10" s="5"/>
       <c r="AR10" s="5"/>
       <c r="AS10" s="5"/>
@@ -4309,13 +4631,27 @@
       <c r="AH11" s="5">
         <v>60</v>
       </c>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="5"/>
-      <c r="AM11" s="5"/>
-      <c r="AN11" s="5"/>
-      <c r="AO11" s="5"/>
+      <c r="AI11" s="5">
+        <v>31</v>
+      </c>
+      <c r="AJ11" s="5">
+        <v>32</v>
+      </c>
+      <c r="AK11" s="5">
+        <v>53</v>
+      </c>
+      <c r="AL11" s="5">
+        <v>59</v>
+      </c>
+      <c r="AM11" s="5">
+        <v>51</v>
+      </c>
+      <c r="AN11" s="5">
+        <v>42</v>
+      </c>
+      <c r="AO11" s="5">
+        <v>48</v>
+      </c>
       <c r="AP11" s="5"/>
       <c r="AQ11" s="5"/>
       <c r="AR11" s="5"/>
@@ -4467,13 +4803,27 @@
       <c r="AG12" s="5">
         <v>46</v>
       </c>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="5"/>
-      <c r="AM12" s="5"/>
-      <c r="AN12" s="5"/>
+      <c r="AH12" s="5">
+        <v>34</v>
+      </c>
+      <c r="AI12" s="5">
+        <v>36</v>
+      </c>
+      <c r="AJ12" s="5">
+        <v>55</v>
+      </c>
+      <c r="AK12" s="5">
+        <v>43</v>
+      </c>
+      <c r="AL12" s="5">
+        <v>44</v>
+      </c>
+      <c r="AM12" s="5">
+        <v>44</v>
+      </c>
+      <c r="AN12" s="5">
+        <v>52</v>
+      </c>
       <c r="AO12" s="5"/>
       <c r="AP12" s="5"/>
       <c r="AQ12" s="5"/>
@@ -4622,13 +4972,27 @@
       <c r="AF13" s="5">
         <v>58</v>
       </c>
-      <c r="AG13" s="5"/>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="5"/>
-      <c r="AM13" s="5"/>
+      <c r="AG13" s="5">
+        <v>42</v>
+      </c>
+      <c r="AH13" s="5">
+        <v>28</v>
+      </c>
+      <c r="AI13" s="5">
+        <v>50</v>
+      </c>
+      <c r="AJ13" s="5">
+        <v>52</v>
+      </c>
+      <c r="AK13" s="5">
+        <v>47</v>
+      </c>
+      <c r="AL13" s="5">
+        <v>47</v>
+      </c>
+      <c r="AM13" s="5">
+        <v>32</v>
+      </c>
       <c r="AN13" s="5"/>
       <c r="AO13" s="5"/>
       <c r="AP13" s="5"/>
@@ -4774,13 +5138,27 @@
       <c r="AE14" s="5">
         <v>63</v>
       </c>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="5"/>
-      <c r="AH14" s="5"/>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
+      <c r="AF14" s="5">
+        <v>52</v>
+      </c>
+      <c r="AG14" s="5">
+        <v>52</v>
+      </c>
+      <c r="AH14" s="5">
+        <v>47</v>
+      </c>
+      <c r="AI14" s="5">
+        <v>47</v>
+      </c>
+      <c r="AJ14" s="5">
+        <v>54</v>
+      </c>
+      <c r="AK14" s="5">
+        <v>60</v>
+      </c>
+      <c r="AL14" s="5">
+        <v>54</v>
+      </c>
       <c r="AM14" s="5"/>
       <c r="AN14" s="5"/>
       <c r="AO14" s="5"/>
@@ -4923,13 +5301,27 @@
       <c r="AD15" s="5">
         <v>58</v>
       </c>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="5"/>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
+      <c r="AE15" s="5">
+        <v>37</v>
+      </c>
+      <c r="AF15" s="5">
+        <v>42</v>
+      </c>
+      <c r="AG15" s="5">
+        <v>58</v>
+      </c>
+      <c r="AH15" s="5">
+        <v>45</v>
+      </c>
+      <c r="AI15" s="5">
+        <v>48</v>
+      </c>
+      <c r="AJ15" s="5">
+        <v>60</v>
+      </c>
+      <c r="AK15" s="5">
+        <v>51</v>
+      </c>
       <c r="AL15" s="5"/>
       <c r="AM15" s="5"/>
       <c r="AN15" s="5"/>
@@ -5069,13 +5461,27 @@
       <c r="AC16" s="5">
         <v>57</v>
       </c>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="5"/>
-      <c r="AH16" s="5"/>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="5"/>
+      <c r="AD16" s="5">
+        <v>46</v>
+      </c>
+      <c r="AE16" s="5">
+        <v>40</v>
+      </c>
+      <c r="AF16" s="5">
+        <v>67</v>
+      </c>
+      <c r="AG16" s="5">
+        <v>62</v>
+      </c>
+      <c r="AH16" s="5">
+        <v>62</v>
+      </c>
+      <c r="AI16" s="5">
+        <v>70</v>
+      </c>
+      <c r="AJ16" s="5">
+        <v>49</v>
+      </c>
       <c r="AK16" s="5"/>
       <c r="AL16" s="5"/>
       <c r="AM16" s="5"/>
@@ -5212,13 +5618,27 @@
       <c r="AB17" s="5">
         <v>56</v>
       </c>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="5"/>
-      <c r="AH17" s="5"/>
-      <c r="AI17" s="5"/>
+      <c r="AC17" s="5">
+        <v>40</v>
+      </c>
+      <c r="AD17" s="5">
+        <v>35</v>
+      </c>
+      <c r="AE17" s="5">
+        <v>51</v>
+      </c>
+      <c r="AF17" s="5">
+        <v>45</v>
+      </c>
+      <c r="AG17" s="5">
+        <v>49</v>
+      </c>
+      <c r="AH17" s="5">
+        <v>54</v>
+      </c>
+      <c r="AI17" s="5">
+        <v>51</v>
+      </c>
       <c r="AJ17" s="5"/>
       <c r="AK17" s="5"/>
       <c r="AL17" s="5"/>
@@ -5352,13 +5772,27 @@
       <c r="AA18" s="5">
         <v>50</v>
       </c>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="5"/>
-      <c r="AG18" s="5"/>
-      <c r="AH18" s="5"/>
+      <c r="AB18" s="5">
+        <v>40</v>
+      </c>
+      <c r="AC18" s="5">
+        <v>36</v>
+      </c>
+      <c r="AD18" s="5">
+        <v>50</v>
+      </c>
+      <c r="AE18" s="5">
+        <v>51</v>
+      </c>
+      <c r="AF18" s="5">
+        <v>53</v>
+      </c>
+      <c r="AG18" s="5">
+        <v>54</v>
+      </c>
+      <c r="AH18" s="5">
+        <v>51</v>
+      </c>
       <c r="AI18" s="5"/>
       <c r="AJ18" s="5"/>
       <c r="AK18" s="5"/>
@@ -5489,13 +5923,27 @@
       <c r="Z19" s="5">
         <v>60</v>
       </c>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
-      <c r="AG19" s="5"/>
+      <c r="AA19" s="5">
+        <v>51</v>
+      </c>
+      <c r="AB19" s="5">
+        <v>43</v>
+      </c>
+      <c r="AC19" s="5">
+        <v>69</v>
+      </c>
+      <c r="AD19" s="5">
+        <v>57</v>
+      </c>
+      <c r="AE19" s="5">
+        <v>66</v>
+      </c>
+      <c r="AF19" s="5">
+        <v>58</v>
+      </c>
+      <c r="AG19" s="5">
+        <v>58</v>
+      </c>
       <c r="AH19" s="5"/>
       <c r="AI19" s="5"/>
       <c r="AJ19" s="5"/>
@@ -5623,13 +6071,27 @@
       <c r="Y20" s="5">
         <v>85</v>
       </c>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
+      <c r="Z20" s="5">
+        <v>59</v>
+      </c>
+      <c r="AA20" s="5">
+        <v>59</v>
+      </c>
+      <c r="AB20" s="5">
+        <v>84</v>
+      </c>
+      <c r="AC20" s="5">
+        <v>75</v>
+      </c>
+      <c r="AD20" s="5">
+        <v>65</v>
+      </c>
+      <c r="AE20" s="5">
+        <v>64</v>
+      </c>
+      <c r="AF20" s="5">
+        <v>75</v>
+      </c>
       <c r="AG20" s="5"/>
       <c r="AH20" s="5"/>
       <c r="AI20" s="5"/>
@@ -5754,13 +6216,27 @@
       <c r="X21" s="5">
         <v>54</v>
       </c>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="5"/>
+      <c r="Y21" s="5">
+        <v>49</v>
+      </c>
+      <c r="Z21" s="5">
+        <v>40</v>
+      </c>
+      <c r="AA21" s="5">
+        <v>55</v>
+      </c>
+      <c r="AB21" s="5">
+        <v>52</v>
+      </c>
+      <c r="AC21" s="5">
+        <v>63</v>
+      </c>
+      <c r="AD21" s="5">
+        <v>58</v>
+      </c>
+      <c r="AE21" s="5">
+        <v>45</v>
+      </c>
       <c r="AF21" s="5"/>
       <c r="AG21" s="5"/>
       <c r="AH21" s="5"/>
@@ -5882,13 +6358,27 @@
       <c r="W22" s="5">
         <v>59</v>
       </c>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
-      <c r="AD22" s="5"/>
+      <c r="X22" s="5">
+        <v>36</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>47</v>
+      </c>
+      <c r="Z22" s="5">
+        <v>48</v>
+      </c>
+      <c r="AA22" s="5">
+        <v>40</v>
+      </c>
+      <c r="AB22" s="5">
+        <v>52</v>
+      </c>
+      <c r="AC22" s="5">
+        <v>52</v>
+      </c>
+      <c r="AD22" s="5">
+        <v>40</v>
+      </c>
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
       <c r="AG22" s="5"/>
@@ -6007,13 +6497,27 @@
       <c r="V23" s="5">
         <v>61</v>
       </c>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
+      <c r="W23" s="5">
+        <v>39</v>
+      </c>
+      <c r="X23" s="5">
+        <v>31</v>
+      </c>
+      <c r="Y23" s="5">
+        <v>53</v>
+      </c>
+      <c r="Z23" s="5">
+        <v>51</v>
+      </c>
+      <c r="AA23" s="5">
+        <v>52</v>
+      </c>
+      <c r="AB23" s="5">
+        <v>59</v>
+      </c>
+      <c r="AC23" s="5">
+        <v>44</v>
+      </c>
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
@@ -6129,13 +6633,27 @@
       <c r="U24" s="5">
         <v>72</v>
       </c>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
+      <c r="V24" s="5">
+        <v>54</v>
+      </c>
+      <c r="W24" s="5">
+        <v>50</v>
+      </c>
+      <c r="X24" s="5">
+        <v>78</v>
+      </c>
+      <c r="Y24" s="5">
+        <v>61</v>
+      </c>
+      <c r="Z24" s="5">
+        <v>67</v>
+      </c>
+      <c r="AA24" s="5">
+        <v>63</v>
+      </c>
+      <c r="AB24" s="5">
+        <v>67</v>
+      </c>
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
       <c r="AE24" s="5"/>
@@ -6248,13 +6766,27 @@
       <c r="T25" s="5">
         <v>70</v>
       </c>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
+      <c r="U25" s="5">
+        <v>50</v>
+      </c>
+      <c r="V25" s="5">
+        <v>59</v>
+      </c>
+      <c r="W25" s="5">
+        <v>68</v>
+      </c>
+      <c r="X25" s="5">
+        <v>66</v>
+      </c>
+      <c r="Y25" s="5">
+        <v>80</v>
+      </c>
+      <c r="Z25" s="5">
+        <v>61</v>
+      </c>
+      <c r="AA25" s="5">
+        <v>61</v>
+      </c>
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
@@ -6364,13 +6896,27 @@
       <c r="S26" s="5">
         <v>76</v>
       </c>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
+      <c r="T26" s="5">
+        <v>59</v>
+      </c>
+      <c r="U26" s="5">
+        <v>45</v>
+      </c>
+      <c r="V26" s="5">
+        <v>72</v>
+      </c>
+      <c r="W26" s="5">
+        <v>58</v>
+      </c>
+      <c r="X26" s="5">
+        <v>83</v>
+      </c>
+      <c r="Y26" s="5">
+        <v>68</v>
+      </c>
+      <c r="Z26" s="5">
+        <v>62</v>
+      </c>
       <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
@@ -6477,13 +7023,27 @@
       <c r="R27" s="5">
         <v>97</v>
       </c>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
+      <c r="S27" s="5">
+        <v>53</v>
+      </c>
+      <c r="T27" s="5">
+        <v>47</v>
+      </c>
+      <c r="U27" s="5">
+        <v>72</v>
+      </c>
+      <c r="V27" s="5">
+        <v>71</v>
+      </c>
+      <c r="W27" s="5">
+        <v>66</v>
+      </c>
+      <c r="X27" s="5">
+        <v>65</v>
+      </c>
+      <c r="Y27" s="5">
+        <v>67</v>
+      </c>
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
@@ -6587,13 +7147,27 @@
       <c r="Q28" s="5">
         <v>94</v>
       </c>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
+      <c r="R28" s="5">
+        <v>67</v>
+      </c>
+      <c r="S28" s="5">
+        <v>67</v>
+      </c>
+      <c r="T28" s="5">
+        <v>70</v>
+      </c>
+      <c r="U28" s="5">
+        <v>61</v>
+      </c>
+      <c r="V28" s="5">
+        <v>69</v>
+      </c>
+      <c r="W28" s="5">
+        <v>73</v>
+      </c>
+      <c r="X28" s="5">
+        <v>58</v>
+      </c>
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
@@ -6694,13 +7268,27 @@
       <c r="P29" s="5">
         <v>93</v>
       </c>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
+      <c r="Q29" s="5">
+        <v>61</v>
+      </c>
+      <c r="R29" s="5">
+        <v>62</v>
+      </c>
+      <c r="S29" s="5">
+        <v>67</v>
+      </c>
+      <c r="T29" s="5">
+        <v>53</v>
+      </c>
+      <c r="U29" s="5">
+        <v>59</v>
+      </c>
+      <c r="V29" s="5">
+        <v>47</v>
+      </c>
+      <c r="W29" s="5">
+        <v>37</v>
+      </c>
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
@@ -6798,13 +7386,27 @@
       <c r="O30" s="5">
         <v>94</v>
       </c>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
+      <c r="P30" s="5">
+        <v>61</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>53</v>
+      </c>
+      <c r="R30" s="5">
+        <v>73</v>
+      </c>
+      <c r="S30" s="5">
+        <v>67</v>
+      </c>
+      <c r="T30" s="5">
+        <v>66</v>
+      </c>
+      <c r="U30" s="5">
+        <v>64</v>
+      </c>
+      <c r="V30" s="5">
+        <v>62</v>
+      </c>
       <c r="W30" s="5"/>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
@@ -6899,13 +7501,27 @@
       <c r="N31" s="5">
         <v>116</v>
       </c>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
+      <c r="O31" s="5">
+        <v>74</v>
+      </c>
+      <c r="P31" s="5">
+        <v>57</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>86</v>
+      </c>
+      <c r="R31" s="5">
+        <v>76</v>
+      </c>
+      <c r="S31" s="5">
+        <v>77</v>
+      </c>
+      <c r="T31" s="5">
+        <v>80</v>
+      </c>
+      <c r="U31" s="5">
+        <v>58</v>
+      </c>
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
       <c r="X31" s="5"/>
@@ -6997,13 +7613,27 @@
       <c r="M32" s="5">
         <v>83</v>
       </c>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
+      <c r="N32" s="5">
+        <v>65</v>
+      </c>
+      <c r="O32" s="5">
+        <v>50</v>
+      </c>
+      <c r="P32" s="5">
+        <v>91</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>71</v>
+      </c>
+      <c r="R32" s="5">
+        <v>75</v>
+      </c>
+      <c r="S32" s="5">
+        <v>64</v>
+      </c>
+      <c r="T32" s="5">
+        <v>56</v>
+      </c>
       <c r="U32" s="5"/>
       <c r="V32" s="5"/>
       <c r="W32" s="5"/>
@@ -7092,13 +7722,27 @@
       <c r="L33" s="5">
         <v>113</v>
       </c>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
+      <c r="M33" s="5">
+        <v>78</v>
+      </c>
+      <c r="N33" s="5">
+        <v>63</v>
+      </c>
+      <c r="O33" s="5">
+        <v>106</v>
+      </c>
+      <c r="P33" s="5">
+        <v>84</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>95</v>
+      </c>
+      <c r="R33" s="5">
+        <v>84</v>
+      </c>
+      <c r="S33" s="5">
+        <v>86</v>
+      </c>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
       <c r="V33" s="5"/>
@@ -7184,13 +7828,27 @@
       <c r="K34" s="5">
         <v>125</v>
       </c>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
+      <c r="L34" s="5">
+        <v>85</v>
+      </c>
+      <c r="M34" s="5">
+        <v>76</v>
+      </c>
+      <c r="N34" s="5">
+        <v>105</v>
+      </c>
+      <c r="O34" s="5">
+        <v>96</v>
+      </c>
+      <c r="P34" s="5">
+        <v>96</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>84</v>
+      </c>
+      <c r="R34" s="5">
+        <v>88</v>
+      </c>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
@@ -7273,13 +7931,27 @@
       <c r="J35" s="5">
         <v>112</v>
       </c>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
+      <c r="K35" s="5">
+        <v>96</v>
+      </c>
+      <c r="L35" s="5">
+        <v>68</v>
+      </c>
+      <c r="M35" s="5">
+        <v>90</v>
+      </c>
+      <c r="N35" s="5">
+        <v>105</v>
+      </c>
+      <c r="O35" s="5">
+        <v>87</v>
+      </c>
+      <c r="P35" s="5">
+        <v>78</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>78</v>
+      </c>
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
@@ -7359,13 +8031,27 @@
       <c r="I36" s="5">
         <v>105</v>
       </c>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
+      <c r="J36" s="5">
+        <v>83</v>
+      </c>
+      <c r="K36" s="5">
+        <v>75</v>
+      </c>
+      <c r="L36" s="5">
+        <v>73</v>
+      </c>
+      <c r="M36" s="5">
+        <v>76</v>
+      </c>
+      <c r="N36" s="5">
+        <v>64</v>
+      </c>
+      <c r="O36" s="5">
+        <v>75</v>
+      </c>
+      <c r="P36" s="5">
+        <v>73</v>
+      </c>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
@@ -7442,13 +8128,27 @@
       <c r="H37" s="5">
         <v>124</v>
       </c>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
+      <c r="I37" s="5">
+        <v>61</v>
+      </c>
+      <c r="J37" s="5">
+        <v>69</v>
+      </c>
+      <c r="K37" s="5">
+        <v>94</v>
+      </c>
+      <c r="L37" s="5">
+        <v>65</v>
+      </c>
+      <c r="M37" s="5">
+        <v>81</v>
+      </c>
+      <c r="N37" s="5">
+        <v>73</v>
+      </c>
+      <c r="O37" s="5">
+        <v>74</v>
+      </c>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
@@ -7522,13 +8222,27 @@
       <c r="G38" s="5">
         <v>165</v>
       </c>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
+      <c r="H38" s="5">
+        <v>117</v>
+      </c>
+      <c r="I38" s="5">
+        <v>104</v>
+      </c>
+      <c r="J38" s="5">
+        <v>126</v>
+      </c>
+      <c r="K38" s="5">
+        <v>124</v>
+      </c>
+      <c r="L38" s="5">
+        <v>123</v>
+      </c>
+      <c r="M38" s="5">
+        <v>119</v>
+      </c>
+      <c r="N38" s="5">
+        <v>129</v>
+      </c>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
@@ -7599,13 +8313,27 @@
       <c r="F39" s="5">
         <v>209</v>
       </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
+      <c r="G39" s="5">
+        <v>120</v>
+      </c>
+      <c r="H39" s="5">
+        <v>91</v>
+      </c>
+      <c r="I39" s="5">
+        <v>113</v>
+      </c>
+      <c r="J39" s="5">
+        <v>128</v>
+      </c>
+      <c r="K39" s="5">
+        <v>103</v>
+      </c>
+      <c r="L39" s="5">
+        <v>91</v>
+      </c>
+      <c r="M39" s="5">
+        <v>106</v>
+      </c>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
@@ -7673,13 +8401,27 @@
       <c r="E40" s="5">
         <v>318</v>
       </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
+      <c r="F40" s="5">
+        <v>137</v>
+      </c>
+      <c r="G40" s="5">
+        <v>117</v>
+      </c>
+      <c r="H40" s="5">
+        <v>164</v>
+      </c>
+      <c r="I40" s="5">
+        <v>125</v>
+      </c>
+      <c r="J40" s="5">
+        <v>135</v>
+      </c>
+      <c r="K40" s="5">
+        <v>114</v>
+      </c>
+      <c r="L40" s="5">
+        <v>108</v>
+      </c>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
@@ -7744,13 +8486,27 @@
       <c r="D41" s="5">
         <v>623</v>
       </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
+      <c r="E41" s="5">
+        <v>186</v>
+      </c>
+      <c r="F41" s="5">
+        <v>111</v>
+      </c>
+      <c r="G41" s="5">
+        <v>144</v>
+      </c>
+      <c r="H41" s="5">
+        <v>130</v>
+      </c>
+      <c r="I41" s="5">
+        <v>116</v>
+      </c>
+      <c r="J41" s="5">
+        <v>96</v>
+      </c>
+      <c r="K41" s="5">
+        <v>89</v>
+      </c>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
@@ -7806,15 +8562,33 @@
       <c r="A42" s="13">
         <v>42588</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
+      <c r="B42" s="5">
+        <v>2723</v>
+      </c>
+      <c r="C42" s="5">
+        <v>2488</v>
+      </c>
+      <c r="D42" s="5">
+        <v>515</v>
+      </c>
+      <c r="E42" s="10">
+        <v>152</v>
+      </c>
+      <c r="F42" s="10">
+        <v>134</v>
+      </c>
+      <c r="G42" s="10">
+        <v>97</v>
+      </c>
+      <c r="H42" s="10">
+        <v>88</v>
+      </c>
+      <c r="I42" s="10">
+        <v>93</v>
+      </c>
+      <c r="J42" s="10">
+        <v>72</v>
+      </c>
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
@@ -7867,14 +8641,30 @@
       <c r="A43" s="13">
         <v>42589</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
+      <c r="B43" s="5">
+        <v>2555</v>
+      </c>
+      <c r="C43" s="5">
+        <v>2470</v>
+      </c>
+      <c r="D43" s="5">
+        <v>524</v>
+      </c>
+      <c r="E43" s="10">
+        <v>162</v>
+      </c>
+      <c r="F43" s="10">
+        <v>81</v>
+      </c>
+      <c r="G43" s="10">
+        <v>89</v>
+      </c>
+      <c r="H43" s="10">
+        <v>66</v>
+      </c>
+      <c r="I43" s="10">
+        <v>52</v>
+      </c>
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
       <c r="L43" s="10"/>
@@ -7928,13 +8718,27 @@
       <c r="A44" s="13">
         <v>42590</v>
       </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
+      <c r="B44" s="5">
+        <v>3409</v>
+      </c>
+      <c r="C44" s="5">
+        <v>2257</v>
+      </c>
+      <c r="D44" s="5">
+        <v>520</v>
+      </c>
+      <c r="E44" s="10">
+        <v>200</v>
+      </c>
+      <c r="F44" s="10">
+        <v>144</v>
+      </c>
+      <c r="G44" s="10">
+        <v>100</v>
+      </c>
+      <c r="H44" s="10">
+        <v>73</v>
+      </c>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
@@ -7986,13 +8790,27 @@
       <c r="BF44" s="5"/>
     </row>
     <row r="45" spans="1:69" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A45" s="2"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
+      <c r="A45" s="13">
+        <v>42591</v>
+      </c>
+      <c r="B45" s="5">
+        <v>3243</v>
+      </c>
+      <c r="C45" s="5">
+        <v>2275</v>
+      </c>
+      <c r="D45" s="5">
+        <v>515</v>
+      </c>
+      <c r="E45" s="10">
+        <v>179</v>
+      </c>
+      <c r="F45" s="10">
+        <v>124</v>
+      </c>
+      <c r="G45" s="10">
+        <v>102</v>
+      </c>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
@@ -8045,12 +8863,24 @@
       <c r="BE45" s="5"/>
     </row>
     <row r="46" spans="1:69" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A46" s="2"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
+      <c r="A46" s="13">
+        <v>42592</v>
+      </c>
+      <c r="B46" s="5">
+        <v>3404</v>
+      </c>
+      <c r="C46" s="5">
+        <v>2350</v>
+      </c>
+      <c r="D46" s="5">
+        <v>522</v>
+      </c>
+      <c r="E46" s="10">
+        <v>198</v>
+      </c>
+      <c r="F46" s="10">
+        <v>123</v>
+      </c>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
@@ -8103,11 +8933,21 @@
       <c r="BD46" s="5"/>
     </row>
     <row r="47" spans="1:69" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A47" s="2"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="10"/>
+      <c r="A47" s="13">
+        <v>42593</v>
+      </c>
+      <c r="B47" s="5">
+        <v>3378</v>
+      </c>
+      <c r="C47" s="5">
+        <v>2382</v>
+      </c>
+      <c r="D47" s="5">
+        <v>540</v>
+      </c>
+      <c r="E47" s="10">
+        <v>192</v>
+      </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
@@ -8160,10 +9000,18 @@
       <c r="BC47" s="5"/>
     </row>
     <row r="48" spans="1:69" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A48" s="2"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
+      <c r="A48" s="13">
+        <v>42594</v>
+      </c>
+      <c r="B48" s="5">
+        <v>3312</v>
+      </c>
+      <c r="C48" s="5">
+        <v>2439</v>
+      </c>
+      <c r="D48" s="5">
+        <v>557</v>
+      </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
@@ -8216,7 +9064,9 @@
       <c r="BB48" s="5"/>
     </row>
     <row r="49" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A49" s="2"/>
+      <c r="A49" s="13">
+        <v>42595</v>
+      </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -8271,7 +9121,9 @@
       <c r="BA49" s="5"/>
     </row>
     <row r="50" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A50" s="2"/>
+      <c r="A50" s="13">
+        <v>42596</v>
+      </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -24033,7 +24885,7 @@
   <dimension ref="A1:S99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -24911,10 +25763,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z35"/>
+  <dimension ref="A1:Z55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -26223,7 +27075,7 @@
         <v>42574</v>
       </c>
       <c r="B28">
-        <v>769</v>
+        <v>1658</v>
       </c>
       <c r="C28">
         <v>48</v>
@@ -26236,35 +27088,315 @@
       <c r="A29" s="2">
         <v>42575</v>
       </c>
+      <c r="B29">
+        <v>1524</v>
+      </c>
+      <c r="C29">
+        <v>208</v>
+      </c>
+      <c r="D29">
+        <v>82</v>
+      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>42576</v>
       </c>
+      <c r="B30">
+        <v>2002</v>
+      </c>
+      <c r="C30">
+        <v>163</v>
+      </c>
+      <c r="D30">
+        <v>77</v>
+      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>42577</v>
       </c>
+      <c r="B31">
+        <v>1933</v>
+      </c>
+      <c r="C31">
+        <v>185</v>
+      </c>
+      <c r="D31">
+        <v>76</v>
+      </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>42578</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B32">
+        <v>1889</v>
+      </c>
+      <c r="C32">
+        <v>183</v>
+      </c>
+      <c r="D32">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>42579</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B33">
+        <v>1832</v>
+      </c>
+      <c r="C33">
+        <v>163</v>
+      </c>
+      <c r="D33">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>42580</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B34">
+        <v>1706</v>
+      </c>
+      <c r="C34">
+        <v>146</v>
+      </c>
+      <c r="D34">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>42581</v>
+      </c>
+      <c r="B35">
+        <v>1363</v>
+      </c>
+      <c r="C35">
+        <v>176</v>
+      </c>
+      <c r="D35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="2">
+        <v>42582</v>
+      </c>
+      <c r="B36">
+        <v>1272</v>
+      </c>
+      <c r="C36">
+        <v>176</v>
+      </c>
+      <c r="D36">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="2">
+        <v>42583</v>
+      </c>
+      <c r="B37">
+        <v>1719</v>
+      </c>
+      <c r="C37">
+        <v>156</v>
+      </c>
+      <c r="D37">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="2">
+        <v>42584</v>
+      </c>
+      <c r="B38">
+        <v>1588</v>
+      </c>
+      <c r="C38">
+        <v>146</v>
+      </c>
+      <c r="D38">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="2">
+        <v>42585</v>
+      </c>
+      <c r="B39">
+        <v>1599</v>
+      </c>
+      <c r="C39">
+        <v>137</v>
+      </c>
+      <c r="D39">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="2">
+        <v>42586</v>
+      </c>
+      <c r="B40">
+        <v>1558</v>
+      </c>
+      <c r="C40">
+        <v>115</v>
+      </c>
+      <c r="D40">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="2">
+        <v>42587</v>
+      </c>
+      <c r="B41">
+        <v>1460</v>
+      </c>
+      <c r="C41">
+        <v>100</v>
+      </c>
+      <c r="D41">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="2">
+        <v>42588</v>
+      </c>
+      <c r="B42">
+        <v>1145</v>
+      </c>
+      <c r="C42">
+        <v>90</v>
+      </c>
+      <c r="D42">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="2">
+        <v>42589</v>
+      </c>
+      <c r="B43">
+        <v>1072</v>
+      </c>
+      <c r="C43">
+        <v>105</v>
+      </c>
+      <c r="D43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="2">
+        <v>42590</v>
+      </c>
+      <c r="B44">
+        <v>1411</v>
+      </c>
+      <c r="C44">
+        <v>104</v>
+      </c>
+      <c r="D44">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="2">
+        <v>42591</v>
+      </c>
+      <c r="B45">
+        <v>1325</v>
+      </c>
+      <c r="C45">
+        <v>85</v>
+      </c>
+      <c r="D45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="2">
+        <v>42592</v>
+      </c>
+      <c r="B46">
+        <v>1332</v>
+      </c>
+      <c r="C46">
+        <v>95</v>
+      </c>
+      <c r="D46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="2">
+        <v>42593</v>
+      </c>
+      <c r="B47">
+        <v>1325</v>
+      </c>
+      <c r="C47">
+        <v>98</v>
+      </c>
+      <c r="D47">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="2">
+        <v>42594</v>
+      </c>
+      <c r="B48">
+        <v>1267</v>
+      </c>
+      <c r="C48">
+        <v>109</v>
+      </c>
+      <c r="D48">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="2">
+        <v>42595</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="2">
+        <v>42596</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="2">
+        <v>42597</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" s="2">
+        <v>42598</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" s="2">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" s="2">
+        <v>42600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" s="2">
+        <v>42601</v>
       </c>
     </row>
   </sheetData>
@@ -26275,15 +27407,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X31"/>
+  <dimension ref="A1:AD31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -26357,7 +27489,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>42567</v>
       </c>
@@ -26389,7 +27521,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>42568</v>
       </c>
@@ -26459,8 +27591,29 @@
       <c r="W3">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="X3">
+        <v>36</v>
+      </c>
+      <c r="Y3">
+        <v>42</v>
+      </c>
+      <c r="Z3">
+        <v>43</v>
+      </c>
+      <c r="AA3">
+        <v>36</v>
+      </c>
+      <c r="AB3">
+        <v>43</v>
+      </c>
+      <c r="AC3">
+        <v>48</v>
+      </c>
+      <c r="AD3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>42569</v>
       </c>
@@ -26527,8 +27680,29 @@
       <c r="V4">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="W4">
+        <v>37</v>
+      </c>
+      <c r="X4">
+        <v>29</v>
+      </c>
+      <c r="Y4">
+        <v>51</v>
+      </c>
+      <c r="Z4">
+        <v>48</v>
+      </c>
+      <c r="AA4">
+        <v>50</v>
+      </c>
+      <c r="AB4">
+        <v>57</v>
+      </c>
+      <c r="AC4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>42570</v>
       </c>
@@ -26592,8 +27766,29 @@
       <c r="U5">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="V5">
+        <v>49</v>
+      </c>
+      <c r="W5">
+        <v>48</v>
+      </c>
+      <c r="X5">
+        <v>73</v>
+      </c>
+      <c r="Y5">
+        <v>56</v>
+      </c>
+      <c r="Z5">
+        <v>61</v>
+      </c>
+      <c r="AA5">
+        <v>57</v>
+      </c>
+      <c r="AB5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>42571</v>
       </c>
@@ -26654,8 +27849,29 @@
       <c r="T6">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="U6">
+        <v>47</v>
+      </c>
+      <c r="V6">
+        <v>56</v>
+      </c>
+      <c r="W6">
+        <v>67</v>
+      </c>
+      <c r="X6">
+        <v>63</v>
+      </c>
+      <c r="Y6">
+        <v>77</v>
+      </c>
+      <c r="Z6">
+        <v>60</v>
+      </c>
+      <c r="AA6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>42572</v>
       </c>
@@ -26713,8 +27929,29 @@
       <c r="S7">
         <v>72</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="T7">
+        <v>57</v>
+      </c>
+      <c r="U7">
+        <v>45</v>
+      </c>
+      <c r="V7">
+        <v>69</v>
+      </c>
+      <c r="W7">
+        <v>57</v>
+      </c>
+      <c r="X7">
+        <v>79</v>
+      </c>
+      <c r="Y7">
+        <v>65</v>
+      </c>
+      <c r="Z7">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>42573</v>
       </c>
@@ -26769,8 +28006,29 @@
       <c r="R8">
         <v>93</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="S8">
+        <v>50</v>
+      </c>
+      <c r="T8">
+        <v>44</v>
+      </c>
+      <c r="U8">
+        <v>64</v>
+      </c>
+      <c r="V8">
+        <v>68</v>
+      </c>
+      <c r="W8">
+        <v>62</v>
+      </c>
+      <c r="X8">
+        <v>62</v>
+      </c>
+      <c r="Y8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>42574</v>
       </c>
@@ -26822,8 +28080,29 @@
       <c r="Q9">
         <v>90</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="R9">
+        <v>63</v>
+      </c>
+      <c r="S9">
+        <v>65</v>
+      </c>
+      <c r="T9">
+        <v>66</v>
+      </c>
+      <c r="U9">
+        <v>56</v>
+      </c>
+      <c r="V9">
+        <v>62</v>
+      </c>
+      <c r="W9">
+        <v>68</v>
+      </c>
+      <c r="X9">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>42575</v>
       </c>
@@ -26872,8 +28151,29 @@
       <c r="P10">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Q10">
+        <v>59</v>
+      </c>
+      <c r="R10">
+        <v>60</v>
+      </c>
+      <c r="S10">
+        <v>67</v>
+      </c>
+      <c r="T10">
+        <v>51</v>
+      </c>
+      <c r="U10">
+        <v>57</v>
+      </c>
+      <c r="V10">
+        <v>44</v>
+      </c>
+      <c r="W10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>42576</v>
       </c>
@@ -26919,8 +28219,29 @@
       <c r="O11">
         <v>88</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="P11">
+        <v>60</v>
+      </c>
+      <c r="Q11">
+        <v>51</v>
+      </c>
+      <c r="R11">
+        <v>69</v>
+      </c>
+      <c r="S11">
+        <v>64</v>
+      </c>
+      <c r="T11">
+        <v>62</v>
+      </c>
+      <c r="U11">
+        <v>60</v>
+      </c>
+      <c r="V11">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>42577</v>
       </c>
@@ -26963,8 +28284,29 @@
       <c r="N12">
         <v>109</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="O12">
+        <v>70</v>
+      </c>
+      <c r="P12">
+        <v>52</v>
+      </c>
+      <c r="Q12">
+        <v>82</v>
+      </c>
+      <c r="R12">
+        <v>71</v>
+      </c>
+      <c r="S12">
+        <v>73</v>
+      </c>
+      <c r="T12">
+        <v>76</v>
+      </c>
+      <c r="U12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>42578</v>
       </c>
@@ -27004,8 +28346,29 @@
       <c r="M13">
         <v>81</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="N13">
+        <v>64</v>
+      </c>
+      <c r="O13">
+        <v>49</v>
+      </c>
+      <c r="P13">
+        <v>87</v>
+      </c>
+      <c r="Q13">
+        <v>70</v>
+      </c>
+      <c r="R13">
+        <v>71</v>
+      </c>
+      <c r="S13">
+        <v>61</v>
+      </c>
+      <c r="T13">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>42579</v>
       </c>
@@ -27042,8 +28405,29 @@
       <c r="L14">
         <v>111</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="M14">
+        <v>72</v>
+      </c>
+      <c r="N14">
+        <v>60</v>
+      </c>
+      <c r="O14">
+        <v>103</v>
+      </c>
+      <c r="P14">
+        <v>81</v>
+      </c>
+      <c r="Q14">
+        <v>93</v>
+      </c>
+      <c r="R14">
+        <v>78</v>
+      </c>
+      <c r="S14">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>42580</v>
       </c>
@@ -27077,8 +28461,29 @@
       <c r="K15">
         <v>120</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="L15">
+        <v>80</v>
+      </c>
+      <c r="M15">
+        <v>72</v>
+      </c>
+      <c r="N15">
+        <v>99</v>
+      </c>
+      <c r="O15">
+        <v>92</v>
+      </c>
+      <c r="P15">
+        <v>92</v>
+      </c>
+      <c r="Q15">
+        <v>78</v>
+      </c>
+      <c r="R15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>42581</v>
       </c>
@@ -27109,8 +28514,29 @@
       <c r="J16">
         <v>110</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K16">
+        <v>91</v>
+      </c>
+      <c r="L16">
+        <v>64</v>
+      </c>
+      <c r="M16">
+        <v>86</v>
+      </c>
+      <c r="N16">
+        <v>101</v>
+      </c>
+      <c r="O16">
+        <v>84</v>
+      </c>
+      <c r="P16">
+        <v>77</v>
+      </c>
+      <c r="Q16">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>42582</v>
       </c>
@@ -27138,8 +28564,29 @@
       <c r="I17">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J17">
+        <v>78</v>
+      </c>
+      <c r="K17">
+        <v>73</v>
+      </c>
+      <c r="L17">
+        <v>70</v>
+      </c>
+      <c r="M17">
+        <v>70</v>
+      </c>
+      <c r="N17">
+        <v>60</v>
+      </c>
+      <c r="O17">
+        <v>72</v>
+      </c>
+      <c r="P17">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>42583</v>
       </c>
@@ -27164,8 +28611,29 @@
       <c r="H18">
         <v>122</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I18">
+        <v>88</v>
+      </c>
+      <c r="J18">
+        <v>66</v>
+      </c>
+      <c r="K18">
+        <v>92</v>
+      </c>
+      <c r="L18">
+        <v>61</v>
+      </c>
+      <c r="M18">
+        <v>80</v>
+      </c>
+      <c r="N18">
+        <v>71</v>
+      </c>
+      <c r="O18">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>42584</v>
       </c>
@@ -27187,8 +28655,29 @@
       <c r="G19">
         <v>161</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H19">
+        <v>114</v>
+      </c>
+      <c r="I19">
+        <v>102</v>
+      </c>
+      <c r="J19">
+        <v>126</v>
+      </c>
+      <c r="K19">
+        <v>121</v>
+      </c>
+      <c r="L19">
+        <v>120</v>
+      </c>
+      <c r="M19">
+        <v>127</v>
+      </c>
+      <c r="N19">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>42585</v>
       </c>
@@ -27207,8 +28696,29 @@
       <c r="F20">
         <v>202</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G20">
+        <v>111</v>
+      </c>
+      <c r="H20">
+        <v>86</v>
+      </c>
+      <c r="I20">
+        <v>107</v>
+      </c>
+      <c r="J20">
+        <v>122</v>
+      </c>
+      <c r="K20">
+        <v>100</v>
+      </c>
+      <c r="L20">
+        <v>90</v>
+      </c>
+      <c r="M20">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>42586</v>
       </c>
@@ -27224,8 +28734,29 @@
       <c r="E21">
         <v>307</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F21">
+        <v>134</v>
+      </c>
+      <c r="G21">
+        <v>109</v>
+      </c>
+      <c r="H21">
+        <v>160</v>
+      </c>
+      <c r="I21">
+        <v>122</v>
+      </c>
+      <c r="J21">
+        <v>132</v>
+      </c>
+      <c r="K21">
+        <v>109</v>
+      </c>
+      <c r="L21">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>42587</v>
       </c>
@@ -27238,48 +28769,195 @@
       <c r="D22">
         <v>618</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E22">
+        <v>171</v>
+      </c>
+      <c r="F22">
+        <v>102</v>
+      </c>
+      <c r="G22">
+        <v>136</v>
+      </c>
+      <c r="H22">
+        <v>126</v>
+      </c>
+      <c r="I22">
+        <v>110</v>
+      </c>
+      <c r="J22">
+        <v>93</v>
+      </c>
+      <c r="K22">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>42588</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B23">
+        <v>1955</v>
+      </c>
+      <c r="C23">
+        <v>2483</v>
+      </c>
+      <c r="D23">
+        <v>529</v>
+      </c>
+      <c r="E23">
+        <v>144</v>
+      </c>
+      <c r="F23">
+        <v>130</v>
+      </c>
+      <c r="G23">
+        <v>96</v>
+      </c>
+      <c r="H23">
+        <v>85</v>
+      </c>
+      <c r="I23">
+        <v>92</v>
+      </c>
+      <c r="J23">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>42589</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B24">
+        <v>1831</v>
+      </c>
+      <c r="C24">
+        <v>2452</v>
+      </c>
+      <c r="D24">
+        <v>511</v>
+      </c>
+      <c r="E24">
+        <v>157</v>
+      </c>
+      <c r="F24">
+        <v>77</v>
+      </c>
+      <c r="G24">
+        <v>88</v>
+      </c>
+      <c r="H24">
+        <v>62</v>
+      </c>
+      <c r="I24">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>42590</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B25">
+        <v>2406</v>
+      </c>
+      <c r="C25">
+        <v>2259</v>
+      </c>
+      <c r="D25">
+        <v>500</v>
+      </c>
+      <c r="E25">
+        <v>181</v>
+      </c>
+      <c r="F25">
+        <v>133</v>
+      </c>
+      <c r="G25">
+        <v>97</v>
+      </c>
+      <c r="H25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>42591</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B26">
+        <v>2320</v>
+      </c>
+      <c r="C26">
+        <v>2286</v>
+      </c>
+      <c r="D26">
+        <v>509</v>
+      </c>
+      <c r="E26">
+        <v>173</v>
+      </c>
+      <c r="F26">
+        <v>119</v>
+      </c>
+      <c r="G26">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>42592</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B27">
+        <v>2460</v>
+      </c>
+      <c r="C27">
+        <v>2359</v>
+      </c>
+      <c r="D27">
+        <v>518</v>
+      </c>
+      <c r="E27">
+        <v>187</v>
+      </c>
+      <c r="F27">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>42593</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B28">
+        <v>2439</v>
+      </c>
+      <c r="C28">
+        <v>2369</v>
+      </c>
+      <c r="D28">
+        <v>531</v>
+      </c>
+      <c r="E28">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>42594</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B29">
+        <v>2397</v>
+      </c>
+      <c r="C29">
+        <v>2430</v>
+      </c>
+      <c r="D29">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>42595</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>42596</v>
       </c>

--- a/aitushow/code/doc/留存.xlsx
+++ b/aitushow/code/doc/留存.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="0002" sheetId="1" r:id="rId1"/>
@@ -268,11 +268,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="188475072"/>
-        <c:axId val="188475648"/>
+        <c:axId val="192792832"/>
+        <c:axId val="192793408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="188475072"/>
+        <c:axId val="192792832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -313,12 +313,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188475648"/>
+        <c:crossAx val="192793408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="188475648"/>
+        <c:axId val="192793408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -375,7 +375,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188475072"/>
+        <c:crossAx val="192792832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -569,11 +569,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="188477376"/>
-        <c:axId val="188477952"/>
+        <c:axId val="192795136"/>
+        <c:axId val="192795712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="188477376"/>
+        <c:axId val="192795136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -614,12 +614,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188477952"/>
+        <c:crossAx val="192795712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="188477952"/>
+        <c:axId val="192795712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -676,7 +676,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188477376"/>
+        <c:crossAx val="192795136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -870,11 +870,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="188479680"/>
-        <c:axId val="188480256"/>
+        <c:axId val="192797440"/>
+        <c:axId val="192798016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="188479680"/>
+        <c:axId val="192797440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -915,12 +915,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188480256"/>
+        <c:crossAx val="192798016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="188480256"/>
+        <c:axId val="192798016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -977,7 +977,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188479680"/>
+        <c:crossAx val="192797440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1171,11 +1171,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="197624384"/>
-        <c:axId val="197624960"/>
+        <c:axId val="202859648"/>
+        <c:axId val="202860224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="197624384"/>
+        <c:axId val="202859648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1216,12 +1216,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197624960"/>
+        <c:crossAx val="202860224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="197624960"/>
+        <c:axId val="202860224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -1278,7 +1278,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197624384"/>
+        <c:crossAx val="202859648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1472,11 +1472,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="197626688"/>
-        <c:axId val="197627264"/>
+        <c:axId val="202861952"/>
+        <c:axId val="202862528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="197626688"/>
+        <c:axId val="202861952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1517,12 +1517,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197627264"/>
+        <c:crossAx val="202862528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="197627264"/>
+        <c:axId val="202862528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -1579,7 +1579,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197626688"/>
+        <c:crossAx val="202861952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1773,11 +1773,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="197628992"/>
-        <c:axId val="197629568"/>
+        <c:axId val="202864256"/>
+        <c:axId val="202864832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="197628992"/>
+        <c:axId val="202864256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1818,12 +1818,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197629568"/>
+        <c:crossAx val="202864832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="197629568"/>
+        <c:axId val="202864832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -1880,7 +1880,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197628992"/>
+        <c:crossAx val="202864256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2083,11 +2083,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="197631296"/>
-        <c:axId val="197500928"/>
+        <c:axId val="203210752"/>
+        <c:axId val="203211328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="197631296"/>
+        <c:axId val="203210752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2128,12 +2128,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197500928"/>
+        <c:crossAx val="203211328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="197500928"/>
+        <c:axId val="203211328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -2190,7 +2190,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197631296"/>
+        <c:crossAx val="203210752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2206,7 +2206,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2779,8 +2778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV330"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AS7" sqref="AS7"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T54" sqref="T54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6654,13 +6653,27 @@
       <c r="AB24" s="5">
         <v>67</v>
       </c>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="5"/>
-      <c r="AG24" s="5"/>
-      <c r="AH24" s="5"/>
-      <c r="AI24" s="5"/>
+      <c r="AC24" s="5">
+        <v>43</v>
+      </c>
+      <c r="AD24" s="5">
+        <v>37</v>
+      </c>
+      <c r="AE24" s="5">
+        <v>72</v>
+      </c>
+      <c r="AF24" s="5">
+        <v>63</v>
+      </c>
+      <c r="AG24" s="5">
+        <v>73</v>
+      </c>
+      <c r="AH24" s="5">
+        <v>57</v>
+      </c>
+      <c r="AI24" s="5">
+        <v>44</v>
+      </c>
       <c r="AJ24" s="5"/>
       <c r="AK24" s="5"/>
       <c r="AL24" s="5"/>
@@ -6787,13 +6800,27 @@
       <c r="AA25" s="5">
         <v>61</v>
       </c>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="5"/>
-      <c r="AF25" s="5"/>
-      <c r="AG25" s="5"/>
-      <c r="AH25" s="5"/>
+      <c r="AB25" s="5">
+        <v>36</v>
+      </c>
+      <c r="AC25" s="5">
+        <v>36</v>
+      </c>
+      <c r="AD25" s="5">
+        <v>57</v>
+      </c>
+      <c r="AE25" s="5">
+        <v>65</v>
+      </c>
+      <c r="AF25" s="5">
+        <v>69</v>
+      </c>
+      <c r="AG25" s="5">
+        <v>61</v>
+      </c>
+      <c r="AH25" s="5">
+        <v>51</v>
+      </c>
       <c r="AI25" s="5"/>
       <c r="AJ25" s="5"/>
       <c r="AK25" s="5"/>
@@ -6917,13 +6944,27 @@
       <c r="Z26" s="5">
         <v>62</v>
       </c>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="5"/>
-      <c r="AC26" s="5"/>
-      <c r="AD26" s="5"/>
-      <c r="AE26" s="5"/>
-      <c r="AF26" s="5"/>
-      <c r="AG26" s="5"/>
+      <c r="AA26" s="5">
+        <v>40</v>
+      </c>
+      <c r="AB26" s="5">
+        <v>38</v>
+      </c>
+      <c r="AC26" s="5">
+        <v>51</v>
+      </c>
+      <c r="AD26" s="5">
+        <v>60</v>
+      </c>
+      <c r="AE26" s="5">
+        <v>54</v>
+      </c>
+      <c r="AF26" s="5">
+        <v>53</v>
+      </c>
+      <c r="AG26" s="5">
+        <v>45</v>
+      </c>
       <c r="AH26" s="5"/>
       <c r="AI26" s="5"/>
       <c r="AJ26" s="5"/>
@@ -7044,13 +7085,27 @@
       <c r="Y27" s="5">
         <v>67</v>
       </c>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="5"/>
-      <c r="AD27" s="5"/>
-      <c r="AE27" s="5"/>
-      <c r="AF27" s="5"/>
+      <c r="Z27" s="5">
+        <v>60</v>
+      </c>
+      <c r="AA27" s="5">
+        <v>35</v>
+      </c>
+      <c r="AB27" s="5">
+        <v>64</v>
+      </c>
+      <c r="AC27" s="5">
+        <v>60</v>
+      </c>
+      <c r="AD27" s="5">
+        <v>54</v>
+      </c>
+      <c r="AE27" s="5">
+        <v>52</v>
+      </c>
+      <c r="AF27" s="5">
+        <v>49</v>
+      </c>
       <c r="AG27" s="5"/>
       <c r="AH27" s="5"/>
       <c r="AI27" s="5"/>
@@ -7168,13 +7223,27 @@
       <c r="X28" s="5">
         <v>58</v>
       </c>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="5"/>
+      <c r="Y28" s="5">
+        <v>53</v>
+      </c>
+      <c r="Z28" s="5">
+        <v>49</v>
+      </c>
+      <c r="AA28" s="5">
+        <v>46</v>
+      </c>
+      <c r="AB28" s="5">
+        <v>47</v>
+      </c>
+      <c r="AC28" s="5">
+        <v>51</v>
+      </c>
+      <c r="AD28" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE28" s="5">
+        <v>48</v>
+      </c>
       <c r="AF28" s="5"/>
       <c r="AG28" s="5"/>
       <c r="AH28" s="5"/>
@@ -7289,13 +7358,27 @@
       <c r="W29" s="5">
         <v>37</v>
       </c>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="5"/>
+      <c r="X29" s="5">
+        <v>44</v>
+      </c>
+      <c r="Y29" s="5">
+        <v>33</v>
+      </c>
+      <c r="Z29" s="5">
+        <v>44</v>
+      </c>
+      <c r="AA29" s="5">
+        <v>48</v>
+      </c>
+      <c r="AB29" s="5">
+        <v>50</v>
+      </c>
+      <c r="AC29" s="5">
+        <v>44</v>
+      </c>
+      <c r="AD29" s="5">
+        <v>47</v>
+      </c>
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
       <c r="AG29" s="5"/>
@@ -7407,13 +7490,27 @@
       <c r="V30" s="5">
         <v>62</v>
       </c>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="5"/>
+      <c r="W30" s="5">
+        <v>36</v>
+      </c>
+      <c r="X30" s="5">
+        <v>40</v>
+      </c>
+      <c r="Y30" s="5">
+        <v>68</v>
+      </c>
+      <c r="Z30" s="5">
+        <v>61</v>
+      </c>
+      <c r="AA30" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB30" s="5">
+        <v>45</v>
+      </c>
+      <c r="AC30" s="5">
+        <v>52</v>
+      </c>
       <c r="AD30" s="5"/>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
@@ -7522,13 +7619,27 @@
       <c r="U31" s="5">
         <v>58</v>
       </c>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
-      <c r="AB31" s="5"/>
+      <c r="V31" s="5">
+        <v>52</v>
+      </c>
+      <c r="W31" s="5">
+        <v>35</v>
+      </c>
+      <c r="X31" s="5">
+        <v>64</v>
+      </c>
+      <c r="Y31" s="5">
+        <v>72</v>
+      </c>
+      <c r="Z31" s="5">
+        <v>57</v>
+      </c>
+      <c r="AA31" s="5">
+        <v>57</v>
+      </c>
+      <c r="AB31" s="5">
+        <v>60</v>
+      </c>
       <c r="AC31" s="5"/>
       <c r="AD31" s="5"/>
       <c r="AE31" s="5"/>
@@ -7634,13 +7745,27 @@
       <c r="T32" s="5">
         <v>56</v>
       </c>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="5"/>
+      <c r="U32" s="5">
+        <v>47</v>
+      </c>
+      <c r="V32" s="5">
+        <v>48</v>
+      </c>
+      <c r="W32" s="5">
+        <v>68</v>
+      </c>
+      <c r="X32" s="5">
+        <v>68</v>
+      </c>
+      <c r="Y32" s="5">
+        <v>70</v>
+      </c>
+      <c r="Z32" s="5">
+        <v>61</v>
+      </c>
+      <c r="AA32" s="5">
+        <v>59</v>
+      </c>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
@@ -7743,13 +7868,27 @@
       <c r="S33" s="5">
         <v>86</v>
       </c>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
+      <c r="T33" s="5">
+        <v>44</v>
+      </c>
+      <c r="U33" s="5">
+        <v>52</v>
+      </c>
+      <c r="V33" s="5">
+        <v>79</v>
+      </c>
+      <c r="W33" s="5">
+        <v>78</v>
+      </c>
+      <c r="X33" s="5">
+        <v>66</v>
+      </c>
+      <c r="Y33" s="5">
+        <v>69</v>
+      </c>
+      <c r="Z33" s="5">
+        <v>53</v>
+      </c>
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
@@ -7849,13 +7988,27 @@
       <c r="R34" s="5">
         <v>88</v>
       </c>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
+      <c r="S34" s="5">
+        <v>56</v>
+      </c>
+      <c r="T34" s="5">
+        <v>62</v>
+      </c>
+      <c r="U34" s="5">
+        <v>82</v>
+      </c>
+      <c r="V34" s="5">
+        <v>73</v>
+      </c>
+      <c r="W34" s="5">
+        <v>68</v>
+      </c>
+      <c r="X34" s="5">
+        <v>62</v>
+      </c>
+      <c r="Y34" s="5">
+        <v>57</v>
+      </c>
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
@@ -7952,13 +8105,27 @@
       <c r="Q35" s="5">
         <v>78</v>
       </c>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
+      <c r="R35" s="5">
+        <v>73</v>
+      </c>
+      <c r="S35" s="5">
+        <v>55</v>
+      </c>
+      <c r="T35" s="5">
+        <v>79</v>
+      </c>
+      <c r="U35" s="5">
+        <v>76</v>
+      </c>
+      <c r="V35" s="5">
+        <v>75</v>
+      </c>
+      <c r="W35" s="5">
+        <v>61</v>
+      </c>
+      <c r="X35" s="5">
+        <v>59</v>
+      </c>
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
@@ -8052,13 +8219,27 @@
       <c r="P36" s="5">
         <v>73</v>
       </c>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
+      <c r="Q36" s="5">
+        <v>66</v>
+      </c>
+      <c r="R36" s="5">
+        <v>56</v>
+      </c>
+      <c r="S36" s="5">
+        <v>56</v>
+      </c>
+      <c r="T36" s="5">
+        <v>52</v>
+      </c>
+      <c r="U36" s="5">
+        <v>57</v>
+      </c>
+      <c r="V36" s="5">
+        <v>54</v>
+      </c>
+      <c r="W36" s="5">
+        <v>61</v>
+      </c>
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
@@ -8149,13 +8330,27 @@
       <c r="O37" s="5">
         <v>74</v>
       </c>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
+      <c r="P37" s="5">
+        <v>63</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>50</v>
+      </c>
+      <c r="R37" s="5">
+        <v>73</v>
+      </c>
+      <c r="S37" s="5">
+        <v>64</v>
+      </c>
+      <c r="T37" s="5">
+        <v>59</v>
+      </c>
+      <c r="U37" s="5">
+        <v>54</v>
+      </c>
+      <c r="V37" s="5">
+        <v>50</v>
+      </c>
       <c r="W37" s="5"/>
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
@@ -8243,13 +8438,27 @@
       <c r="N38" s="5">
         <v>129</v>
       </c>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
+      <c r="O38" s="5">
+        <v>80</v>
+      </c>
+      <c r="P38" s="5">
+        <v>59</v>
+      </c>
+      <c r="Q38" s="5">
+        <v>100</v>
+      </c>
+      <c r="R38" s="5">
+        <v>88</v>
+      </c>
+      <c r="S38" s="5">
+        <v>88</v>
+      </c>
+      <c r="T38" s="5">
+        <v>75</v>
+      </c>
+      <c r="U38" s="5">
+        <v>73</v>
+      </c>
       <c r="V38" s="5"/>
       <c r="W38" s="5"/>
       <c r="X38" s="5"/>
@@ -8334,13 +8543,27 @@
       <c r="M39" s="5">
         <v>106</v>
       </c>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
+      <c r="N39" s="5">
+        <v>62</v>
+      </c>
+      <c r="O39" s="5">
+        <v>58</v>
+      </c>
+      <c r="P39" s="5">
+        <v>82</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>81</v>
+      </c>
+      <c r="R39" s="5">
+        <v>75</v>
+      </c>
+      <c r="S39" s="5">
+        <v>73</v>
+      </c>
+      <c r="T39" s="5">
+        <v>69</v>
+      </c>
       <c r="U39" s="5"/>
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
@@ -8422,13 +8645,27 @@
       <c r="L40" s="5">
         <v>108</v>
       </c>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
+      <c r="M40" s="5">
+        <v>72</v>
+      </c>
+      <c r="N40" s="5">
+        <v>71</v>
+      </c>
+      <c r="O40" s="5">
+        <v>104</v>
+      </c>
+      <c r="P40" s="5">
+        <v>90</v>
+      </c>
+      <c r="Q40" s="5">
+        <v>95</v>
+      </c>
+      <c r="R40" s="5">
+        <v>86</v>
+      </c>
+      <c r="S40" s="5">
+        <v>68</v>
+      </c>
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
@@ -8507,13 +8744,27 @@
       <c r="K41" s="5">
         <v>89</v>
       </c>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
+      <c r="L41" s="5">
+        <v>58</v>
+      </c>
+      <c r="M41" s="5">
+        <v>51</v>
+      </c>
+      <c r="N41" s="5">
+        <v>78</v>
+      </c>
+      <c r="O41" s="5">
+        <v>77</v>
+      </c>
+      <c r="P41" s="5">
+        <v>76</v>
+      </c>
+      <c r="Q41" s="5">
+        <v>80</v>
+      </c>
+      <c r="R41" s="5">
+        <v>78</v>
+      </c>
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
@@ -8589,13 +8840,27 @@
       <c r="J42" s="10">
         <v>72</v>
       </c>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
+      <c r="K42" s="10">
+        <v>66</v>
+      </c>
+      <c r="L42" s="10">
+        <v>41</v>
+      </c>
+      <c r="M42" s="10">
+        <v>66</v>
+      </c>
+      <c r="N42" s="10">
+        <v>60</v>
+      </c>
+      <c r="O42" s="10">
+        <v>67</v>
+      </c>
+      <c r="P42" s="10">
+        <v>62</v>
+      </c>
+      <c r="Q42" s="10">
+        <v>52</v>
+      </c>
       <c r="R42" s="10"/>
       <c r="S42" s="10"/>
       <c r="T42" s="10"/>
@@ -8665,13 +8930,27 @@
       <c r="I43" s="10">
         <v>52</v>
       </c>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
+      <c r="J43" s="10">
+        <v>54</v>
+      </c>
+      <c r="K43" s="10">
+        <v>46</v>
+      </c>
+      <c r="L43" s="10">
+        <v>53</v>
+      </c>
+      <c r="M43" s="10">
+        <v>47</v>
+      </c>
+      <c r="N43" s="10">
+        <v>39</v>
+      </c>
+      <c r="O43" s="10">
+        <v>35</v>
+      </c>
+      <c r="P43" s="10">
+        <v>45</v>
+      </c>
       <c r="Q43" s="10"/>
       <c r="R43" s="10"/>
       <c r="S43" s="10"/>
@@ -8739,13 +9018,27 @@
       <c r="H44" s="10">
         <v>73</v>
       </c>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
+      <c r="I44" s="10">
+        <v>59</v>
+      </c>
+      <c r="J44" s="10">
+        <v>51</v>
+      </c>
+      <c r="K44" s="10">
+        <v>73</v>
+      </c>
+      <c r="L44" s="10">
+        <v>49</v>
+      </c>
+      <c r="M44" s="10">
+        <v>55</v>
+      </c>
+      <c r="N44" s="10">
+        <v>44</v>
+      </c>
+      <c r="O44" s="10">
+        <v>49</v>
+      </c>
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
@@ -8811,13 +9104,27 @@
       <c r="G45" s="10">
         <v>102</v>
       </c>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
+      <c r="H45" s="10">
+        <v>59</v>
+      </c>
+      <c r="I45" s="10">
+        <v>52</v>
+      </c>
+      <c r="J45" s="10">
+        <v>75</v>
+      </c>
+      <c r="K45" s="10">
+        <v>77</v>
+      </c>
+      <c r="L45" s="10">
+        <v>74</v>
+      </c>
+      <c r="M45" s="10">
+        <v>57</v>
+      </c>
+      <c r="N45" s="10">
+        <v>62</v>
+      </c>
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
@@ -8881,13 +9188,27 @@
       <c r="F46" s="10">
         <v>123</v>
       </c>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
+      <c r="G46" s="10">
+        <v>65</v>
+      </c>
+      <c r="H46" s="10">
+        <v>52</v>
+      </c>
+      <c r="I46" s="10">
+        <v>84</v>
+      </c>
+      <c r="J46" s="10">
+        <v>75</v>
+      </c>
+      <c r="K46" s="10">
+        <v>78</v>
+      </c>
+      <c r="L46" s="10">
+        <v>61</v>
+      </c>
+      <c r="M46" s="10">
+        <v>56</v>
+      </c>
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
       <c r="P46" s="10"/>
@@ -8948,13 +9269,27 @@
       <c r="E47" s="10">
         <v>192</v>
       </c>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
+      <c r="F47" s="10">
+        <v>97</v>
+      </c>
+      <c r="G47" s="10">
+        <v>69</v>
+      </c>
+      <c r="H47" s="10">
+        <v>112</v>
+      </c>
+      <c r="I47" s="10">
+        <v>95</v>
+      </c>
+      <c r="J47" s="10">
+        <v>81</v>
+      </c>
+      <c r="K47" s="10">
+        <v>76</v>
+      </c>
+      <c r="L47" s="10">
+        <v>56</v>
+      </c>
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
@@ -9012,13 +9347,27 @@
       <c r="D48" s="5">
         <v>557</v>
       </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
+      <c r="E48" s="10">
+        <v>153</v>
+      </c>
+      <c r="F48" s="10">
+        <v>84</v>
+      </c>
+      <c r="G48" s="10">
+        <v>104</v>
+      </c>
+      <c r="H48" s="10">
+        <v>99</v>
+      </c>
+      <c r="I48" s="10">
+        <v>99</v>
+      </c>
+      <c r="J48" s="10">
+        <v>80</v>
+      </c>
+      <c r="K48" s="10">
+        <v>64</v>
+      </c>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
@@ -9067,15 +9416,33 @@
       <c r="A49" s="13">
         <v>42595</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
+      <c r="B49" s="5">
+        <v>2705</v>
+      </c>
+      <c r="C49" s="5">
+        <v>2624</v>
+      </c>
+      <c r="D49" s="5">
+        <v>574</v>
+      </c>
+      <c r="E49" s="10">
+        <v>169</v>
+      </c>
+      <c r="F49" s="10">
+        <v>115</v>
+      </c>
+      <c r="G49" s="10">
+        <v>116</v>
+      </c>
+      <c r="H49" s="10">
+        <v>83</v>
+      </c>
+      <c r="I49" s="10">
+        <v>70</v>
+      </c>
+      <c r="J49" s="10">
+        <v>65</v>
+      </c>
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
@@ -9124,14 +9491,30 @@
       <c r="A50" s="13">
         <v>42596</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
+      <c r="B50" s="5">
+        <v>2512</v>
+      </c>
+      <c r="C50" s="5">
+        <v>2549</v>
+      </c>
+      <c r="D50" s="5">
+        <v>548</v>
+      </c>
+      <c r="E50" s="10">
+        <v>188</v>
+      </c>
+      <c r="F50" s="10">
+        <v>122</v>
+      </c>
+      <c r="G50" s="10">
+        <v>92</v>
+      </c>
+      <c r="H50" s="10">
+        <v>77</v>
+      </c>
+      <c r="I50" s="10">
+        <v>95</v>
+      </c>
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
@@ -9177,14 +9560,30 @@
       <c r="AZ50" s="5"/>
     </row>
     <row r="51" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A51" s="2"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
+      <c r="A51" s="13">
+        <v>42597</v>
+      </c>
+      <c r="B51" s="5">
+        <v>3457</v>
+      </c>
+      <c r="C51" s="5">
+        <v>2236</v>
+      </c>
+      <c r="D51" s="5">
+        <v>481</v>
+      </c>
+      <c r="E51" s="10">
+        <v>172</v>
+      </c>
+      <c r="F51" s="10">
+        <v>112</v>
+      </c>
+      <c r="G51" s="10">
+        <v>95</v>
+      </c>
+      <c r="H51" s="10">
+        <v>84</v>
+      </c>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
@@ -9230,13 +9629,27 @@
       <c r="AY51" s="5"/>
     </row>
     <row r="52" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A52" s="2"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
+      <c r="A52" s="13">
+        <v>42598</v>
+      </c>
+      <c r="B52" s="5">
+        <v>3484</v>
+      </c>
+      <c r="C52" s="5">
+        <v>2364</v>
+      </c>
+      <c r="D52" s="5">
+        <v>553</v>
+      </c>
+      <c r="E52" s="10">
+        <v>165</v>
+      </c>
+      <c r="F52" s="10">
+        <v>116</v>
+      </c>
+      <c r="G52" s="10">
+        <v>92</v>
+      </c>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
@@ -9282,12 +9695,24 @@
       <c r="AX52" s="5"/>
     </row>
     <row r="53" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A53" s="2"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
+      <c r="A53" s="13">
+        <v>42599</v>
+      </c>
+      <c r="B53" s="5">
+        <v>3433</v>
+      </c>
+      <c r="C53" s="5">
+        <v>2316</v>
+      </c>
+      <c r="D53" s="5">
+        <v>523</v>
+      </c>
+      <c r="E53" s="10">
+        <v>178</v>
+      </c>
+      <c r="F53" s="10">
+        <v>109</v>
+      </c>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
@@ -9333,11 +9758,21 @@
       <c r="AW53" s="5"/>
     </row>
     <row r="54" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A54" s="2"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="10"/>
+      <c r="A54" s="13">
+        <v>42600</v>
+      </c>
+      <c r="B54" s="5">
+        <v>3206</v>
+      </c>
+      <c r="C54" s="5">
+        <v>2273</v>
+      </c>
+      <c r="D54" s="5">
+        <v>474</v>
+      </c>
+      <c r="E54" s="10">
+        <v>197</v>
+      </c>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
@@ -9383,10 +9818,18 @@
       <c r="AV54" s="5"/>
     </row>
     <row r="55" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A55" s="2"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
+      <c r="A55" s="13">
+        <v>42601</v>
+      </c>
+      <c r="B55" s="5">
+        <v>3188</v>
+      </c>
+      <c r="C55" s="5">
+        <v>2298</v>
+      </c>
+      <c r="D55" s="5">
+        <v>483</v>
+      </c>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
@@ -9432,7 +9875,9 @@
       <c r="AU55" s="10"/>
     </row>
     <row r="56" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A56" s="2"/>
+      <c r="A56" s="13">
+        <v>42602</v>
+      </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -9480,7 +9925,9 @@
       <c r="AT56" s="10"/>
     </row>
     <row r="57" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A57" s="2"/>
+      <c r="A57" s="13">
+        <v>42603</v>
+      </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -9528,7 +9975,9 @@
       <c r="AT57" s="10"/>
     </row>
     <row r="58" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A58" s="2"/>
+      <c r="A58" s="13">
+        <v>42604</v>
+      </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -9576,7 +10025,9 @@
       <c r="AT58" s="10"/>
     </row>
     <row r="59" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A59" s="2"/>
+      <c r="A59" s="13">
+        <v>42605</v>
+      </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -9624,7 +10075,9 @@
       <c r="AT59" s="10"/>
     </row>
     <row r="60" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A60" s="2"/>
+      <c r="A60" s="13">
+        <v>42606</v>
+      </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -9672,7 +10125,9 @@
       <c r="AT60" s="10"/>
     </row>
     <row r="61" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A61" s="2"/>
+      <c r="A61" s="13">
+        <v>42607</v>
+      </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -9733,7 +10188,9 @@
       <c r="BG61" s="10"/>
     </row>
     <row r="62" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A62" s="2"/>
+      <c r="A62" s="13">
+        <v>42608</v>
+      </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -9781,7 +10238,9 @@
       <c r="AT62" s="10"/>
     </row>
     <row r="63" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A63" s="2"/>
+      <c r="A63" s="13">
+        <v>42609</v>
+      </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -9841,7 +10300,9 @@
       <c r="BF63" s="10"/>
     </row>
     <row r="64" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A64" s="2"/>
+      <c r="A64" s="13">
+        <v>42610</v>
+      </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -9900,7 +10361,9 @@
       <c r="BE64" s="10"/>
     </row>
     <row r="65" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A65" s="2"/>
+      <c r="A65" s="13">
+        <v>42611</v>
+      </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -9948,7 +10411,9 @@
       <c r="AT65" s="10"/>
     </row>
     <row r="66" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A66" s="2"/>
+      <c r="A66" s="13">
+        <v>42612</v>
+      </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -9996,7 +10461,9 @@
       <c r="AT66" s="10"/>
     </row>
     <row r="67" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A67" s="2"/>
+      <c r="A67" s="13">
+        <v>42613</v>
+      </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -10044,7 +10511,9 @@
       <c r="AT67" s="10"/>
     </row>
     <row r="68" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A68" s="2"/>
+      <c r="A68" s="13">
+        <v>42614</v>
+      </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -25765,7 +26234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -27407,15 +27876,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD31"/>
+  <dimension ref="A1:AK46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -27488,8 +27957,14 @@
       <c r="X1">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="Y1">
+        <v>21</v>
+      </c>
+      <c r="Z1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>42567</v>
       </c>
@@ -27521,7 +27996,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>42568</v>
       </c>
@@ -27612,8 +28087,29 @@
       <c r="AD3">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE3">
+        <v>32</v>
+      </c>
+      <c r="AF3">
+        <v>39</v>
+      </c>
+      <c r="AG3">
+        <v>47</v>
+      </c>
+      <c r="AH3">
+        <v>42</v>
+      </c>
+      <c r="AI3">
+        <v>38</v>
+      </c>
+      <c r="AJ3">
+        <v>34</v>
+      </c>
+      <c r="AK3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>42569</v>
       </c>
@@ -27701,8 +28197,29 @@
       <c r="AC4">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AD4">
+        <v>31</v>
+      </c>
+      <c r="AE4">
+        <v>29</v>
+      </c>
+      <c r="AF4">
+        <v>41</v>
+      </c>
+      <c r="AG4">
+        <v>50</v>
+      </c>
+      <c r="AH4">
+        <v>39</v>
+      </c>
+      <c r="AI4">
+        <v>33</v>
+      </c>
+      <c r="AJ4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>42570</v>
       </c>
@@ -27787,8 +28304,29 @@
       <c r="AB5">
         <v>64</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AC5">
+        <v>42</v>
+      </c>
+      <c r="AD5">
+        <v>35</v>
+      </c>
+      <c r="AE5">
+        <v>68</v>
+      </c>
+      <c r="AF5">
+        <v>62</v>
+      </c>
+      <c r="AG5">
+        <v>71</v>
+      </c>
+      <c r="AH5">
+        <v>53</v>
+      </c>
+      <c r="AI5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>42571</v>
       </c>
@@ -27870,8 +28408,29 @@
       <c r="AA6">
         <v>57</v>
       </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AB6">
+        <v>35</v>
+      </c>
+      <c r="AC6">
+        <v>33</v>
+      </c>
+      <c r="AD6">
+        <v>54</v>
+      </c>
+      <c r="AE6">
+        <v>61</v>
+      </c>
+      <c r="AF6">
+        <v>67</v>
+      </c>
+      <c r="AG6">
+        <v>68</v>
+      </c>
+      <c r="AH6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>42572</v>
       </c>
@@ -27950,8 +28509,29 @@
       <c r="Z7">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AA7">
+        <v>38</v>
+      </c>
+      <c r="AB7">
+        <v>37</v>
+      </c>
+      <c r="AC7">
+        <v>50</v>
+      </c>
+      <c r="AD7">
+        <v>60</v>
+      </c>
+      <c r="AE7">
+        <v>54</v>
+      </c>
+      <c r="AF7">
+        <v>51</v>
+      </c>
+      <c r="AG7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>42573</v>
       </c>
@@ -28027,8 +28607,29 @@
       <c r="Y8">
         <v>62</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="Z8">
+        <v>57</v>
+      </c>
+      <c r="AA8">
+        <v>31</v>
+      </c>
+      <c r="AB8">
+        <v>63</v>
+      </c>
+      <c r="AC8">
+        <v>55</v>
+      </c>
+      <c r="AD8">
+        <v>53</v>
+      </c>
+      <c r="AE8">
+        <v>50</v>
+      </c>
+      <c r="AF8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>42574</v>
       </c>
@@ -28101,8 +28702,29 @@
       <c r="X9">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="Y9">
+        <v>49</v>
+      </c>
+      <c r="Z9">
+        <v>48</v>
+      </c>
+      <c r="AA9">
+        <v>44</v>
+      </c>
+      <c r="AB9">
+        <v>46</v>
+      </c>
+      <c r="AC9">
+        <v>49</v>
+      </c>
+      <c r="AD9">
+        <v>28</v>
+      </c>
+      <c r="AE9">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>42575</v>
       </c>
@@ -28172,8 +28794,29 @@
       <c r="W10">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="X10">
+        <v>41</v>
+      </c>
+      <c r="Y10">
+        <v>31</v>
+      </c>
+      <c r="Z10">
+        <v>42</v>
+      </c>
+      <c r="AA10">
+        <v>47</v>
+      </c>
+      <c r="AB10">
+        <v>49</v>
+      </c>
+      <c r="AC10">
+        <v>44</v>
+      </c>
+      <c r="AD10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>42576</v>
       </c>
@@ -28240,8 +28883,29 @@
       <c r="V11">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="W11">
+        <v>35</v>
+      </c>
+      <c r="X11">
+        <v>38</v>
+      </c>
+      <c r="Y11">
+        <v>65</v>
+      </c>
+      <c r="Z11">
+        <v>59</v>
+      </c>
+      <c r="AA11">
+        <v>58</v>
+      </c>
+      <c r="AB11">
+        <v>44</v>
+      </c>
+      <c r="AC11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>42577</v>
       </c>
@@ -28305,8 +28969,29 @@
       <c r="U12">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="V12">
+        <v>49</v>
+      </c>
+      <c r="W12">
+        <v>33</v>
+      </c>
+      <c r="X12">
+        <v>62</v>
+      </c>
+      <c r="Y12">
+        <v>68</v>
+      </c>
+      <c r="Z12">
+        <v>55</v>
+      </c>
+      <c r="AA12">
+        <v>55</v>
+      </c>
+      <c r="AB12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>42578</v>
       </c>
@@ -28367,8 +29052,29 @@
       <c r="T13">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="U13">
+        <v>45</v>
+      </c>
+      <c r="V13">
+        <v>44</v>
+      </c>
+      <c r="W13">
+        <v>65</v>
+      </c>
+      <c r="X13">
+        <v>66</v>
+      </c>
+      <c r="Y13">
+        <v>67</v>
+      </c>
+      <c r="Z13">
+        <v>59</v>
+      </c>
+      <c r="AA13">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>42579</v>
       </c>
@@ -28426,8 +29132,29 @@
       <c r="S14">
         <v>84</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="T14">
+        <v>43</v>
+      </c>
+      <c r="U14">
+        <v>51</v>
+      </c>
+      <c r="V14">
+        <v>79</v>
+      </c>
+      <c r="W14">
+        <v>74</v>
+      </c>
+      <c r="X14">
+        <v>64</v>
+      </c>
+      <c r="Y14">
+        <v>67</v>
+      </c>
+      <c r="Z14">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>42580</v>
       </c>
@@ -28482,8 +29209,29 @@
       <c r="R15">
         <v>82</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="S15">
+        <v>56</v>
+      </c>
+      <c r="T15">
+        <v>60</v>
+      </c>
+      <c r="U15">
+        <v>78</v>
+      </c>
+      <c r="V15">
+        <v>70</v>
+      </c>
+      <c r="W15">
+        <v>64</v>
+      </c>
+      <c r="X15">
+        <v>60</v>
+      </c>
+      <c r="Y15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>42581</v>
       </c>
@@ -28535,8 +29283,29 @@
       <c r="Q16">
         <v>71</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="R16">
+        <v>72</v>
+      </c>
+      <c r="S16">
+        <v>53</v>
+      </c>
+      <c r="T16">
+        <v>79</v>
+      </c>
+      <c r="U16">
+        <v>74</v>
+      </c>
+      <c r="V16">
+        <v>73</v>
+      </c>
+      <c r="W16">
+        <v>61</v>
+      </c>
+      <c r="X16">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>42582</v>
       </c>
@@ -28585,8 +29354,29 @@
       <c r="P17">
         <v>71</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q17">
+        <v>63</v>
+      </c>
+      <c r="R17">
+        <v>54</v>
+      </c>
+      <c r="S17">
+        <v>54</v>
+      </c>
+      <c r="T17">
+        <v>51</v>
+      </c>
+      <c r="U17">
+        <v>54</v>
+      </c>
+      <c r="V17">
+        <v>51</v>
+      </c>
+      <c r="W17">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>42583</v>
       </c>
@@ -28632,8 +29422,29 @@
       <c r="O18">
         <v>72</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P18">
+        <v>61</v>
+      </c>
+      <c r="Q18">
+        <v>47</v>
+      </c>
+      <c r="R18">
+        <v>70</v>
+      </c>
+      <c r="S18">
+        <v>61</v>
+      </c>
+      <c r="T18">
+        <v>58</v>
+      </c>
+      <c r="U18">
+        <v>50</v>
+      </c>
+      <c r="V18">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>42584</v>
       </c>
@@ -28676,8 +29487,29 @@
       <c r="N19">
         <v>117</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O19">
+        <v>79</v>
+      </c>
+      <c r="P19">
+        <v>59</v>
+      </c>
+      <c r="Q19">
+        <v>99</v>
+      </c>
+      <c r="R19">
+        <v>87</v>
+      </c>
+      <c r="S19">
+        <v>88</v>
+      </c>
+      <c r="T19">
+        <v>75</v>
+      </c>
+      <c r="U19">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>42585</v>
       </c>
@@ -28717,8 +29549,29 @@
       <c r="M20">
         <v>106</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="N20">
+        <v>61</v>
+      </c>
+      <c r="O20">
+        <v>53</v>
+      </c>
+      <c r="P20">
+        <v>80</v>
+      </c>
+      <c r="Q20">
+        <v>78</v>
+      </c>
+      <c r="R20">
+        <v>72</v>
+      </c>
+      <c r="S20">
+        <v>71</v>
+      </c>
+      <c r="T20">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>42586</v>
       </c>
@@ -28755,8 +29608,29 @@
       <c r="L21">
         <v>104</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="M21">
+        <v>68</v>
+      </c>
+      <c r="N21">
+        <v>70</v>
+      </c>
+      <c r="O21">
+        <v>102</v>
+      </c>
+      <c r="P21">
+        <v>89</v>
+      </c>
+      <c r="Q21">
+        <v>91</v>
+      </c>
+      <c r="R21">
+        <v>82</v>
+      </c>
+      <c r="S21">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>42587</v>
       </c>
@@ -28790,8 +29664,29 @@
       <c r="K22">
         <v>83</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="L22">
+        <v>54</v>
+      </c>
+      <c r="M22">
+        <v>49</v>
+      </c>
+      <c r="N22">
+        <v>75</v>
+      </c>
+      <c r="O22">
+        <v>72</v>
+      </c>
+      <c r="P22">
+        <v>71</v>
+      </c>
+      <c r="Q22">
+        <v>75</v>
+      </c>
+      <c r="R22">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>42588</v>
       </c>
@@ -28822,8 +29717,29 @@
       <c r="J23">
         <v>71</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="K23">
+        <v>63</v>
+      </c>
+      <c r="L23">
+        <v>41</v>
+      </c>
+      <c r="M23">
+        <v>65</v>
+      </c>
+      <c r="N23">
+        <v>58</v>
+      </c>
+      <c r="O23">
+        <v>65</v>
+      </c>
+      <c r="P23">
+        <v>61</v>
+      </c>
+      <c r="Q23">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>42589</v>
       </c>
@@ -28851,8 +29767,29 @@
       <c r="I24">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="J24">
+        <v>49</v>
+      </c>
+      <c r="K24">
+        <v>46</v>
+      </c>
+      <c r="L24">
+        <v>52</v>
+      </c>
+      <c r="M24">
+        <v>47</v>
+      </c>
+      <c r="N24">
+        <v>37</v>
+      </c>
+      <c r="O24">
+        <v>33</v>
+      </c>
+      <c r="P24">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>42590</v>
       </c>
@@ -28877,8 +29814,29 @@
       <c r="H25">
         <v>67</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="I25">
+        <v>53</v>
+      </c>
+      <c r="J25">
+        <v>48</v>
+      </c>
+      <c r="K25">
+        <v>70</v>
+      </c>
+      <c r="L25">
+        <v>46</v>
+      </c>
+      <c r="M25">
+        <v>53</v>
+      </c>
+      <c r="N25">
+        <v>43</v>
+      </c>
+      <c r="O25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>42591</v>
       </c>
@@ -28900,8 +29858,29 @@
       <c r="G26">
         <v>96</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="H26">
+        <v>55</v>
+      </c>
+      <c r="I26">
+        <v>47</v>
+      </c>
+      <c r="J26">
+        <v>71</v>
+      </c>
+      <c r="K26">
+        <v>71</v>
+      </c>
+      <c r="L26">
+        <v>68</v>
+      </c>
+      <c r="M26">
+        <v>53</v>
+      </c>
+      <c r="N26">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>42592</v>
       </c>
@@ -28920,8 +29899,29 @@
       <c r="F27">
         <v>118</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="G27">
+        <v>59</v>
+      </c>
+      <c r="H27">
+        <v>47</v>
+      </c>
+      <c r="I27">
+        <v>83</v>
+      </c>
+      <c r="J27">
+        <v>69</v>
+      </c>
+      <c r="K27">
+        <v>73</v>
+      </c>
+      <c r="L27">
+        <v>59</v>
+      </c>
+      <c r="M27">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>42593</v>
       </c>
@@ -28937,8 +29937,29 @@
       <c r="E28">
         <v>180</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F28">
+        <v>93</v>
+      </c>
+      <c r="G28">
+        <v>66</v>
+      </c>
+      <c r="H28">
+        <v>107</v>
+      </c>
+      <c r="I28">
+        <v>89</v>
+      </c>
+      <c r="J28">
+        <v>78</v>
+      </c>
+      <c r="K28">
+        <v>72</v>
+      </c>
+      <c r="L28">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>42594</v>
       </c>
@@ -28951,15 +29972,237 @@
       <c r="D29">
         <v>551</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="E29">
+        <v>130</v>
+      </c>
+      <c r="F29">
+        <v>89</v>
+      </c>
+      <c r="G29">
+        <v>100</v>
+      </c>
+      <c r="H29">
+        <v>92</v>
+      </c>
+      <c r="I29">
+        <v>98</v>
+      </c>
+      <c r="J29">
+        <v>76</v>
+      </c>
+      <c r="K29">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>42595</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B30">
+        <v>2025</v>
+      </c>
+      <c r="C30">
+        <v>2646</v>
+      </c>
+      <c r="D30">
+        <v>571</v>
+      </c>
+      <c r="E30">
+        <v>160</v>
+      </c>
+      <c r="F30">
+        <v>150</v>
+      </c>
+      <c r="G30">
+        <v>110</v>
+      </c>
+      <c r="H30">
+        <v>81</v>
+      </c>
+      <c r="I30">
+        <v>69</v>
+      </c>
+      <c r="J30">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>42596</v>
+      </c>
+      <c r="B31">
+        <v>1884</v>
+      </c>
+      <c r="C31">
+        <v>2538</v>
+      </c>
+      <c r="D31">
+        <v>540</v>
+      </c>
+      <c r="E31">
+        <v>169</v>
+      </c>
+      <c r="F31">
+        <v>119</v>
+      </c>
+      <c r="G31">
+        <v>91</v>
+      </c>
+      <c r="H31">
+        <v>71</v>
+      </c>
+      <c r="I31">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
+        <v>42597</v>
+      </c>
+      <c r="B32">
+        <v>2575</v>
+      </c>
+      <c r="C32">
+        <v>2249</v>
+      </c>
+      <c r="D32">
+        <v>477</v>
+      </c>
+      <c r="E32">
+        <v>160</v>
+      </c>
+      <c r="F32">
+        <v>107</v>
+      </c>
+      <c r="G32">
+        <v>87</v>
+      </c>
+      <c r="H32">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
+        <v>42598</v>
+      </c>
+      <c r="B33">
+        <v>2589</v>
+      </c>
+      <c r="C33">
+        <v>2339</v>
+      </c>
+      <c r="D33">
+        <v>542</v>
+      </c>
+      <c r="E33">
+        <v>157</v>
+      </c>
+      <c r="F33">
+        <v>110</v>
+      </c>
+      <c r="G33">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="2">
+        <v>42599</v>
+      </c>
+      <c r="B34">
+        <v>2560</v>
+      </c>
+      <c r="C34">
+        <v>2300</v>
+      </c>
+      <c r="D34">
+        <v>524</v>
+      </c>
+      <c r="E34">
+        <v>173</v>
+      </c>
+      <c r="F34">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="2">
+        <v>42600</v>
+      </c>
+      <c r="B35">
+        <v>2393</v>
+      </c>
+      <c r="C35">
+        <v>2271</v>
+      </c>
+      <c r="D35">
+        <v>488</v>
+      </c>
+      <c r="E35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="2">
+        <v>42601</v>
+      </c>
+      <c r="B36">
+        <v>2428</v>
+      </c>
+      <c r="C36">
+        <v>2288</v>
+      </c>
+      <c r="D36">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="2">
+        <v>42602</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="2">
+        <v>42603</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="2">
+        <v>42604</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="2">
+        <v>42605</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="2">
+        <v>42606</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="2">
+        <v>42607</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="2">
+        <v>42608</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="2">
+        <v>42609</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45" s="2">
+        <v>42610</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46" s="2">
+        <v>42611</v>
       </c>
     </row>
   </sheetData>

--- a/aitushow/code/doc/留存.xlsx
+++ b/aitushow/code/doc/留存.xlsx
@@ -268,11 +268,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="192792832"/>
-        <c:axId val="192793408"/>
+        <c:axId val="208124096"/>
+        <c:axId val="208124672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="192792832"/>
+        <c:axId val="208124096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -313,12 +313,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192793408"/>
+        <c:crossAx val="208124672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="192793408"/>
+        <c:axId val="208124672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -375,7 +375,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192792832"/>
+        <c:crossAx val="208124096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -569,11 +569,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="192795136"/>
-        <c:axId val="192795712"/>
+        <c:axId val="175530560"/>
+        <c:axId val="175531136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="192795136"/>
+        <c:axId val="175530560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -614,12 +614,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192795712"/>
+        <c:crossAx val="175531136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="192795712"/>
+        <c:axId val="175531136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -676,7 +676,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192795136"/>
+        <c:crossAx val="175530560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -870,11 +870,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="192797440"/>
-        <c:axId val="192798016"/>
+        <c:axId val="175532864"/>
+        <c:axId val="175533440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="192797440"/>
+        <c:axId val="175532864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -915,12 +915,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192798016"/>
+        <c:crossAx val="175533440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="192798016"/>
+        <c:axId val="175533440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -977,7 +977,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192797440"/>
+        <c:crossAx val="175532864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1171,11 +1171,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="202859648"/>
-        <c:axId val="202860224"/>
+        <c:axId val="175535168"/>
+        <c:axId val="175535744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="202859648"/>
+        <c:axId val="175535168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1216,12 +1216,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202860224"/>
+        <c:crossAx val="175535744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="202860224"/>
+        <c:axId val="175535744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -1278,7 +1278,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202859648"/>
+        <c:crossAx val="175535168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1472,11 +1472,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="202861952"/>
-        <c:axId val="202862528"/>
+        <c:axId val="175537472"/>
+        <c:axId val="626909184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="202861952"/>
+        <c:axId val="175537472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1517,12 +1517,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202862528"/>
+        <c:crossAx val="626909184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="202862528"/>
+        <c:axId val="626909184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -1579,7 +1579,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202861952"/>
+        <c:crossAx val="175537472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1773,11 +1773,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="202864256"/>
-        <c:axId val="202864832"/>
+        <c:axId val="626910912"/>
+        <c:axId val="626911488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="202864256"/>
+        <c:axId val="626910912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1818,12 +1818,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202864832"/>
+        <c:crossAx val="626911488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="202864832"/>
+        <c:axId val="626911488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -1880,7 +1880,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202864256"/>
+        <c:crossAx val="626910912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2083,11 +2083,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="203210752"/>
-        <c:axId val="203211328"/>
+        <c:axId val="626913216"/>
+        <c:axId val="626913792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="203210752"/>
+        <c:axId val="626913216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2128,12 +2128,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203211328"/>
+        <c:crossAx val="626913792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203211328"/>
+        <c:axId val="626913792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -2190,7 +2190,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203210752"/>
+        <c:crossAx val="626913216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2206,6 +2206,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2778,8 +2779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="T54" sqref="T54"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6674,20 +6675,48 @@
       <c r="AI24" s="5">
         <v>44</v>
       </c>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="5"/>
-      <c r="AM24" s="5"/>
-      <c r="AN24" s="5"/>
-      <c r="AO24" s="5"/>
-      <c r="AP24" s="5"/>
-      <c r="AQ24" s="5"/>
-      <c r="AR24" s="5"/>
-      <c r="AS24" s="5"/>
-      <c r="AT24" s="5"/>
-      <c r="AU24" s="5"/>
-      <c r="AV24" s="5"/>
-      <c r="AW24" s="5"/>
+      <c r="AJ24" s="5">
+        <v>38</v>
+      </c>
+      <c r="AK24" s="5">
+        <v>27</v>
+      </c>
+      <c r="AL24" s="5">
+        <v>49</v>
+      </c>
+      <c r="AM24" s="5">
+        <v>42</v>
+      </c>
+      <c r="AN24" s="5">
+        <v>41</v>
+      </c>
+      <c r="AO24" s="5">
+        <v>55</v>
+      </c>
+      <c r="AP24" s="5">
+        <v>49</v>
+      </c>
+      <c r="AQ24" s="5">
+        <v>31</v>
+      </c>
+      <c r="AR24" s="5">
+        <v>32</v>
+      </c>
+      <c r="AS24" s="5">
+        <v>43</v>
+      </c>
+      <c r="AT24" s="5">
+        <v>41</v>
+      </c>
+      <c r="AU24" s="5">
+        <v>29</v>
+      </c>
+      <c r="AV24" s="5">
+        <v>36</v>
+      </c>
+      <c r="AW24" s="5">
+        <v>44</v>
+      </c>
       <c r="AX24" s="5"/>
       <c r="AY24" s="5"/>
       <c r="AZ24" s="5"/>
@@ -6821,20 +6850,48 @@
       <c r="AH25" s="5">
         <v>51</v>
       </c>
-      <c r="AI25" s="5"/>
-      <c r="AJ25" s="5"/>
-      <c r="AK25" s="5"/>
-      <c r="AL25" s="5"/>
-      <c r="AM25" s="5"/>
-      <c r="AN25" s="5"/>
-      <c r="AO25" s="5"/>
-      <c r="AP25" s="5"/>
-      <c r="AQ25" s="5"/>
-      <c r="AR25" s="5"/>
-      <c r="AS25" s="5"/>
-      <c r="AT25" s="5"/>
-      <c r="AU25" s="5"/>
-      <c r="AV25" s="5"/>
+      <c r="AI25" s="5">
+        <v>29</v>
+      </c>
+      <c r="AJ25" s="5">
+        <v>40</v>
+      </c>
+      <c r="AK25" s="5">
+        <v>45</v>
+      </c>
+      <c r="AL25" s="5">
+        <v>55</v>
+      </c>
+      <c r="AM25" s="5">
+        <v>47</v>
+      </c>
+      <c r="AN25" s="5">
+        <v>39</v>
+      </c>
+      <c r="AO25" s="5">
+        <v>55</v>
+      </c>
+      <c r="AP25" s="5">
+        <v>34</v>
+      </c>
+      <c r="AQ25" s="5">
+        <v>37</v>
+      </c>
+      <c r="AR25" s="5">
+        <v>45</v>
+      </c>
+      <c r="AS25" s="5">
+        <v>36</v>
+      </c>
+      <c r="AT25" s="5">
+        <v>42</v>
+      </c>
+      <c r="AU25" s="5">
+        <v>56</v>
+      </c>
+      <c r="AV25" s="5">
+        <v>38</v>
+      </c>
       <c r="AW25" s="5"/>
       <c r="AX25" s="5"/>
       <c r="AY25" s="5"/>
@@ -6965,20 +7022,48 @@
       <c r="AG26" s="5">
         <v>45</v>
       </c>
-      <c r="AH26" s="5"/>
-      <c r="AI26" s="5"/>
-      <c r="AJ26" s="5"/>
-      <c r="AK26" s="5"/>
-      <c r="AL26" s="5"/>
-      <c r="AM26" s="5"/>
-      <c r="AN26" s="5"/>
-      <c r="AO26" s="5"/>
-      <c r="AP26" s="5"/>
-      <c r="AQ26" s="5"/>
-      <c r="AR26" s="5"/>
-      <c r="AS26" s="5"/>
-      <c r="AT26" s="5"/>
-      <c r="AU26" s="5"/>
+      <c r="AH26" s="5">
+        <v>32</v>
+      </c>
+      <c r="AI26" s="5">
+        <v>39</v>
+      </c>
+      <c r="AJ26" s="5">
+        <v>48</v>
+      </c>
+      <c r="AK26" s="5">
+        <v>52</v>
+      </c>
+      <c r="AL26" s="5">
+        <v>41</v>
+      </c>
+      <c r="AM26" s="5">
+        <v>53</v>
+      </c>
+      <c r="AN26" s="5">
+        <v>36</v>
+      </c>
+      <c r="AO26" s="5">
+        <v>29</v>
+      </c>
+      <c r="AP26" s="5">
+        <v>23</v>
+      </c>
+      <c r="AQ26" s="5">
+        <v>40</v>
+      </c>
+      <c r="AR26" s="5">
+        <v>36</v>
+      </c>
+      <c r="AS26" s="5">
+        <v>38</v>
+      </c>
+      <c r="AT26" s="5">
+        <v>33</v>
+      </c>
+      <c r="AU26" s="5">
+        <v>33</v>
+      </c>
       <c r="AV26" s="5"/>
       <c r="AW26" s="5"/>
       <c r="AX26" s="5"/>
@@ -7106,20 +7191,48 @@
       <c r="AF27" s="5">
         <v>49</v>
       </c>
-      <c r="AG27" s="5"/>
-      <c r="AH27" s="5"/>
-      <c r="AI27" s="5"/>
-      <c r="AJ27" s="5"/>
-      <c r="AK27" s="5"/>
-      <c r="AL27" s="5"/>
-      <c r="AM27" s="5"/>
-      <c r="AN27" s="5"/>
-      <c r="AO27" s="5"/>
-      <c r="AP27" s="5"/>
-      <c r="AQ27" s="5"/>
-      <c r="AR27" s="5"/>
-      <c r="AS27" s="5"/>
-      <c r="AT27" s="5"/>
+      <c r="AG27" s="5">
+        <v>35</v>
+      </c>
+      <c r="AH27" s="5">
+        <v>33</v>
+      </c>
+      <c r="AI27" s="5">
+        <v>55</v>
+      </c>
+      <c r="AJ27" s="5">
+        <v>43</v>
+      </c>
+      <c r="AK27" s="5">
+        <v>49</v>
+      </c>
+      <c r="AL27" s="5">
+        <v>41</v>
+      </c>
+      <c r="AM27" s="5">
+        <v>36</v>
+      </c>
+      <c r="AN27" s="5">
+        <v>20</v>
+      </c>
+      <c r="AO27" s="5">
+        <v>21</v>
+      </c>
+      <c r="AP27" s="5">
+        <v>40</v>
+      </c>
+      <c r="AQ27" s="5">
+        <v>34</v>
+      </c>
+      <c r="AR27" s="5">
+        <v>40</v>
+      </c>
+      <c r="AS27" s="5">
+        <v>40</v>
+      </c>
+      <c r="AT27" s="5">
+        <v>32</v>
+      </c>
       <c r="AU27" s="5"/>
       <c r="AV27" s="5"/>
       <c r="AW27" s="5"/>
@@ -7244,20 +7357,48 @@
       <c r="AE28" s="5">
         <v>48</v>
       </c>
-      <c r="AF28" s="5"/>
-      <c r="AG28" s="5"/>
-      <c r="AH28" s="5"/>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="5"/>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="5"/>
-      <c r="AM28" s="5"/>
-      <c r="AN28" s="5"/>
-      <c r="AO28" s="5"/>
-      <c r="AP28" s="5"/>
-      <c r="AQ28" s="5"/>
-      <c r="AR28" s="5"/>
-      <c r="AS28" s="5"/>
+      <c r="AF28" s="5">
+        <v>36</v>
+      </c>
+      <c r="AG28" s="5">
+        <v>25</v>
+      </c>
+      <c r="AH28" s="5">
+        <v>47</v>
+      </c>
+      <c r="AI28" s="5">
+        <v>41</v>
+      </c>
+      <c r="AJ28" s="5">
+        <v>47</v>
+      </c>
+      <c r="AK28" s="5">
+        <v>34</v>
+      </c>
+      <c r="AL28" s="5">
+        <v>49</v>
+      </c>
+      <c r="AM28" s="5">
+        <v>35</v>
+      </c>
+      <c r="AN28" s="5">
+        <v>31</v>
+      </c>
+      <c r="AO28" s="5">
+        <v>43</v>
+      </c>
+      <c r="AP28" s="5">
+        <v>46</v>
+      </c>
+      <c r="AQ28" s="5">
+        <v>41</v>
+      </c>
+      <c r="AR28" s="5">
+        <v>40</v>
+      </c>
+      <c r="AS28" s="5">
+        <v>31</v>
+      </c>
       <c r="AT28" s="5"/>
       <c r="AU28" s="5"/>
       <c r="AV28" s="5"/>
@@ -7379,20 +7520,48 @@
       <c r="AD29" s="5">
         <v>47</v>
       </c>
-      <c r="AE29" s="5"/>
-      <c r="AF29" s="5"/>
-      <c r="AG29" s="5"/>
-      <c r="AH29" s="5"/>
-      <c r="AI29" s="5"/>
-      <c r="AJ29" s="5"/>
-      <c r="AK29" s="5"/>
-      <c r="AL29" s="5"/>
-      <c r="AM29" s="5"/>
-      <c r="AN29" s="5"/>
-      <c r="AO29" s="5"/>
-      <c r="AP29" s="5"/>
-      <c r="AQ29" s="5"/>
-      <c r="AR29" s="5"/>
+      <c r="AE29" s="5">
+        <v>38</v>
+      </c>
+      <c r="AF29" s="5">
+        <v>43</v>
+      </c>
+      <c r="AG29" s="5">
+        <v>42</v>
+      </c>
+      <c r="AH29" s="5">
+        <v>40</v>
+      </c>
+      <c r="AI29" s="5">
+        <v>42</v>
+      </c>
+      <c r="AJ29" s="5">
+        <v>44</v>
+      </c>
+      <c r="AK29" s="5">
+        <v>47</v>
+      </c>
+      <c r="AL29" s="5">
+        <v>45</v>
+      </c>
+      <c r="AM29" s="5">
+        <v>31</v>
+      </c>
+      <c r="AN29" s="5">
+        <v>42</v>
+      </c>
+      <c r="AO29" s="5">
+        <v>49</v>
+      </c>
+      <c r="AP29" s="5">
+        <v>41</v>
+      </c>
+      <c r="AQ29" s="5">
+        <v>38</v>
+      </c>
+      <c r="AR29" s="5">
+        <v>26</v>
+      </c>
       <c r="AS29" s="5"/>
       <c r="AT29" s="5"/>
       <c r="AU29" s="5"/>
@@ -7511,20 +7680,48 @@
       <c r="AC30" s="5">
         <v>52</v>
       </c>
-      <c r="AD30" s="5"/>
-      <c r="AE30" s="5"/>
-      <c r="AF30" s="5"/>
-      <c r="AG30" s="5"/>
-      <c r="AH30" s="5"/>
-      <c r="AI30" s="5"/>
-      <c r="AJ30" s="5"/>
-      <c r="AK30" s="5"/>
-      <c r="AL30" s="5"/>
-      <c r="AM30" s="5"/>
-      <c r="AN30" s="5"/>
-      <c r="AO30" s="5"/>
-      <c r="AP30" s="5"/>
-      <c r="AQ30" s="5"/>
+      <c r="AD30" s="5">
+        <v>38</v>
+      </c>
+      <c r="AE30" s="5">
+        <v>35</v>
+      </c>
+      <c r="AF30" s="5">
+        <v>50</v>
+      </c>
+      <c r="AG30" s="5">
+        <v>49</v>
+      </c>
+      <c r="AH30" s="5">
+        <v>41</v>
+      </c>
+      <c r="AI30" s="5">
+        <v>47</v>
+      </c>
+      <c r="AJ30" s="5">
+        <v>40</v>
+      </c>
+      <c r="AK30" s="5">
+        <v>32</v>
+      </c>
+      <c r="AL30" s="5">
+        <v>32</v>
+      </c>
+      <c r="AM30" s="5">
+        <v>42</v>
+      </c>
+      <c r="AN30" s="5">
+        <v>48</v>
+      </c>
+      <c r="AO30" s="5">
+        <v>53</v>
+      </c>
+      <c r="AP30" s="5">
+        <v>44</v>
+      </c>
+      <c r="AQ30" s="5">
+        <v>52</v>
+      </c>
       <c r="AR30" s="5"/>
       <c r="AS30" s="5"/>
       <c r="AT30" s="5"/>
@@ -7640,20 +7837,48 @@
       <c r="AB31" s="5">
         <v>60</v>
       </c>
-      <c r="AC31" s="5"/>
-      <c r="AD31" s="5"/>
-      <c r="AE31" s="5"/>
-      <c r="AF31" s="5"/>
-      <c r="AG31" s="5"/>
-      <c r="AH31" s="5"/>
-      <c r="AI31" s="5"/>
-      <c r="AJ31" s="5"/>
-      <c r="AK31" s="5"/>
-      <c r="AL31" s="5"/>
-      <c r="AM31" s="5"/>
-      <c r="AN31" s="5"/>
-      <c r="AO31" s="5"/>
-      <c r="AP31" s="5"/>
+      <c r="AC31" s="5">
+        <v>45</v>
+      </c>
+      <c r="AD31" s="5">
+        <v>42</v>
+      </c>
+      <c r="AE31" s="5">
+        <v>39</v>
+      </c>
+      <c r="AF31" s="5">
+        <v>41</v>
+      </c>
+      <c r="AG31" s="5">
+        <v>41</v>
+      </c>
+      <c r="AH31" s="5">
+        <v>54</v>
+      </c>
+      <c r="AI31" s="5">
+        <v>41</v>
+      </c>
+      <c r="AJ31" s="5">
+        <v>32</v>
+      </c>
+      <c r="AK31" s="5">
+        <v>38</v>
+      </c>
+      <c r="AL31" s="5">
+        <v>51</v>
+      </c>
+      <c r="AM31" s="5">
+        <v>40</v>
+      </c>
+      <c r="AN31" s="5">
+        <v>38</v>
+      </c>
+      <c r="AO31" s="5">
+        <v>45</v>
+      </c>
+      <c r="AP31" s="5">
+        <v>33</v>
+      </c>
       <c r="AQ31" s="5"/>
       <c r="AR31" s="5"/>
       <c r="AS31" s="5"/>
@@ -7766,20 +7991,48 @@
       <c r="AA32" s="5">
         <v>59</v>
       </c>
-      <c r="AB32" s="5"/>
-      <c r="AC32" s="5"/>
-      <c r="AD32" s="5"/>
-      <c r="AE32" s="5"/>
-      <c r="AF32" s="5"/>
-      <c r="AG32" s="5"/>
-      <c r="AH32" s="5"/>
-      <c r="AI32" s="5"/>
-      <c r="AJ32" s="5"/>
-      <c r="AK32" s="5"/>
-      <c r="AL32" s="5"/>
-      <c r="AM32" s="5"/>
-      <c r="AN32" s="5"/>
-      <c r="AO32" s="5"/>
+      <c r="AB32" s="5">
+        <v>40</v>
+      </c>
+      <c r="AC32" s="5">
+        <v>29</v>
+      </c>
+      <c r="AD32" s="5">
+        <v>46</v>
+      </c>
+      <c r="AE32" s="5">
+        <v>48</v>
+      </c>
+      <c r="AF32" s="5">
+        <v>41</v>
+      </c>
+      <c r="AG32" s="5">
+        <v>54</v>
+      </c>
+      <c r="AH32" s="5">
+        <v>46</v>
+      </c>
+      <c r="AI32" s="5">
+        <v>29</v>
+      </c>
+      <c r="AJ32" s="5">
+        <v>30</v>
+      </c>
+      <c r="AK32" s="5">
+        <v>36</v>
+      </c>
+      <c r="AL32" s="5">
+        <v>46</v>
+      </c>
+      <c r="AM32" s="5">
+        <v>52</v>
+      </c>
+      <c r="AN32" s="5">
+        <v>51</v>
+      </c>
+      <c r="AO32" s="5">
+        <v>46</v>
+      </c>
       <c r="AP32" s="5"/>
       <c r="AQ32" s="5"/>
       <c r="AR32" s="5"/>
@@ -7889,20 +8142,48 @@
       <c r="Z33" s="5">
         <v>53</v>
       </c>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="5"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="5"/>
-      <c r="AF33" s="5"/>
-      <c r="AG33" s="5"/>
-      <c r="AH33" s="5"/>
-      <c r="AI33" s="5"/>
-      <c r="AJ33" s="5"/>
-      <c r="AK33" s="5"/>
-      <c r="AL33" s="5"/>
-      <c r="AM33" s="5"/>
-      <c r="AN33" s="5"/>
+      <c r="AA33" s="5">
+        <v>45</v>
+      </c>
+      <c r="AB33" s="5">
+        <v>37</v>
+      </c>
+      <c r="AC33" s="5">
+        <v>62</v>
+      </c>
+      <c r="AD33" s="5">
+        <v>58</v>
+      </c>
+      <c r="AE33" s="5">
+        <v>59</v>
+      </c>
+      <c r="AF33" s="5">
+        <v>62</v>
+      </c>
+      <c r="AG33" s="5">
+        <v>54</v>
+      </c>
+      <c r="AH33" s="5">
+        <v>40</v>
+      </c>
+      <c r="AI33" s="5">
+        <v>42</v>
+      </c>
+      <c r="AJ33" s="5">
+        <v>44</v>
+      </c>
+      <c r="AK33" s="5">
+        <v>52</v>
+      </c>
+      <c r="AL33" s="5">
+        <v>54</v>
+      </c>
+      <c r="AM33" s="5">
+        <v>41</v>
+      </c>
+      <c r="AN33" s="5">
+        <v>34</v>
+      </c>
       <c r="AO33" s="5"/>
       <c r="AP33" s="5"/>
       <c r="AQ33" s="5"/>
@@ -8009,20 +8290,48 @@
       <c r="Y34" s="5">
         <v>57</v>
       </c>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="5"/>
-      <c r="AD34" s="5"/>
-      <c r="AE34" s="5"/>
-      <c r="AF34" s="5"/>
-      <c r="AG34" s="5"/>
-      <c r="AH34" s="5"/>
-      <c r="AI34" s="5"/>
-      <c r="AJ34" s="5"/>
-      <c r="AK34" s="5"/>
-      <c r="AL34" s="5"/>
-      <c r="AM34" s="5"/>
+      <c r="Z34" s="5">
+        <v>33</v>
+      </c>
+      <c r="AA34" s="5">
+        <v>32</v>
+      </c>
+      <c r="AB34" s="5">
+        <v>61</v>
+      </c>
+      <c r="AC34" s="5">
+        <v>48</v>
+      </c>
+      <c r="AD34" s="5">
+        <v>51</v>
+      </c>
+      <c r="AE34" s="5">
+        <v>52</v>
+      </c>
+      <c r="AF34" s="5">
+        <v>58</v>
+      </c>
+      <c r="AG34" s="5">
+        <v>41</v>
+      </c>
+      <c r="AH34" s="5">
+        <v>35</v>
+      </c>
+      <c r="AI34" s="5">
+        <v>59</v>
+      </c>
+      <c r="AJ34" s="5">
+        <v>61</v>
+      </c>
+      <c r="AK34" s="5">
+        <v>55</v>
+      </c>
+      <c r="AL34" s="5">
+        <v>45</v>
+      </c>
+      <c r="AM34" s="5">
+        <v>49</v>
+      </c>
       <c r="AN34" s="5"/>
       <c r="AO34" s="5"/>
       <c r="AP34" s="5"/>
@@ -8126,20 +8435,48 @@
       <c r="X35" s="5">
         <v>59</v>
       </c>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="5"/>
-      <c r="AB35" s="5"/>
-      <c r="AC35" s="5"/>
-      <c r="AD35" s="5"/>
-      <c r="AE35" s="5"/>
-      <c r="AF35" s="5"/>
-      <c r="AG35" s="5"/>
-      <c r="AH35" s="5"/>
-      <c r="AI35" s="5"/>
-      <c r="AJ35" s="5"/>
-      <c r="AK35" s="5"/>
-      <c r="AL35" s="5"/>
+      <c r="Y35" s="5">
+        <v>43</v>
+      </c>
+      <c r="Z35" s="5">
+        <v>41</v>
+      </c>
+      <c r="AA35" s="5">
+        <v>63</v>
+      </c>
+      <c r="AB35" s="5">
+        <v>55</v>
+      </c>
+      <c r="AC35" s="5">
+        <v>51</v>
+      </c>
+      <c r="AD35" s="5">
+        <v>57</v>
+      </c>
+      <c r="AE35" s="5">
+        <v>56</v>
+      </c>
+      <c r="AF35" s="5">
+        <v>42</v>
+      </c>
+      <c r="AG35" s="5">
+        <v>29</v>
+      </c>
+      <c r="AH35" s="5">
+        <v>51</v>
+      </c>
+      <c r="AI35" s="5">
+        <v>60</v>
+      </c>
+      <c r="AJ35" s="5">
+        <v>60</v>
+      </c>
+      <c r="AK35" s="5">
+        <v>43</v>
+      </c>
+      <c r="AL35" s="5">
+        <v>53</v>
+      </c>
       <c r="AM35" s="5"/>
       <c r="AN35" s="5"/>
       <c r="AO35" s="5"/>
@@ -8240,20 +8577,48 @@
       <c r="W36" s="5">
         <v>61</v>
       </c>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
-      <c r="AA36" s="5"/>
-      <c r="AB36" s="5"/>
-      <c r="AC36" s="5"/>
-      <c r="AD36" s="5"/>
-      <c r="AE36" s="5"/>
-      <c r="AF36" s="5"/>
-      <c r="AG36" s="5"/>
-      <c r="AH36" s="5"/>
-      <c r="AI36" s="5"/>
-      <c r="AJ36" s="5"/>
-      <c r="AK36" s="5"/>
+      <c r="X36" s="5">
+        <v>53</v>
+      </c>
+      <c r="Y36" s="5">
+        <v>48</v>
+      </c>
+      <c r="Z36" s="5">
+        <v>59</v>
+      </c>
+      <c r="AA36" s="5">
+        <v>55</v>
+      </c>
+      <c r="AB36" s="5">
+        <v>43</v>
+      </c>
+      <c r="AC36" s="5">
+        <v>51</v>
+      </c>
+      <c r="AD36" s="5">
+        <v>46</v>
+      </c>
+      <c r="AE36" s="5">
+        <v>44</v>
+      </c>
+      <c r="AF36" s="5">
+        <v>35</v>
+      </c>
+      <c r="AG36" s="5">
+        <v>45</v>
+      </c>
+      <c r="AH36" s="5">
+        <v>41</v>
+      </c>
+      <c r="AI36" s="5">
+        <v>38</v>
+      </c>
+      <c r="AJ36" s="5">
+        <v>34</v>
+      </c>
+      <c r="AK36" s="5">
+        <v>38</v>
+      </c>
       <c r="AL36" s="5"/>
       <c r="AM36" s="5"/>
       <c r="AN36" s="5"/>
@@ -8351,20 +8716,48 @@
       <c r="V37" s="5">
         <v>50</v>
       </c>
-      <c r="W37" s="5"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
-      <c r="AA37" s="5"/>
-      <c r="AB37" s="5"/>
-      <c r="AC37" s="5"/>
-      <c r="AD37" s="5"/>
-      <c r="AE37" s="5"/>
-      <c r="AF37" s="5"/>
-      <c r="AG37" s="5"/>
-      <c r="AH37" s="5"/>
-      <c r="AI37" s="5"/>
-      <c r="AJ37" s="5"/>
+      <c r="W37" s="5">
+        <v>47</v>
+      </c>
+      <c r="X37" s="5">
+        <v>32</v>
+      </c>
+      <c r="Y37" s="5">
+        <v>54</v>
+      </c>
+      <c r="Z37" s="5">
+        <v>54</v>
+      </c>
+      <c r="AA37" s="5">
+        <v>42</v>
+      </c>
+      <c r="AB37" s="5">
+        <v>51</v>
+      </c>
+      <c r="AC37" s="5">
+        <v>41</v>
+      </c>
+      <c r="AD37" s="5">
+        <v>29</v>
+      </c>
+      <c r="AE37" s="5">
+        <v>29</v>
+      </c>
+      <c r="AF37" s="5">
+        <v>35</v>
+      </c>
+      <c r="AG37" s="5">
+        <v>41</v>
+      </c>
+      <c r="AH37" s="5">
+        <v>33</v>
+      </c>
+      <c r="AI37" s="5">
+        <v>42</v>
+      </c>
+      <c r="AJ37" s="5">
+        <v>35</v>
+      </c>
       <c r="AK37" s="5"/>
       <c r="AL37" s="5"/>
       <c r="AM37" s="5"/>
@@ -8459,20 +8852,48 @@
       <c r="U38" s="5">
         <v>73</v>
       </c>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="5"/>
-      <c r="AB38" s="5"/>
-      <c r="AC38" s="5"/>
-      <c r="AD38" s="5"/>
-      <c r="AE38" s="5"/>
-      <c r="AF38" s="5"/>
-      <c r="AG38" s="5"/>
-      <c r="AH38" s="5"/>
-      <c r="AI38" s="5"/>
+      <c r="V38" s="5">
+        <v>53</v>
+      </c>
+      <c r="W38" s="5">
+        <v>53</v>
+      </c>
+      <c r="X38" s="5">
+        <v>69</v>
+      </c>
+      <c r="Y38" s="5">
+        <v>70</v>
+      </c>
+      <c r="Z38" s="5">
+        <v>63</v>
+      </c>
+      <c r="AA38" s="5">
+        <v>69</v>
+      </c>
+      <c r="AB38" s="5">
+        <v>58</v>
+      </c>
+      <c r="AC38" s="5">
+        <v>55</v>
+      </c>
+      <c r="AD38" s="5">
+        <v>50</v>
+      </c>
+      <c r="AE38" s="5">
+        <v>40</v>
+      </c>
+      <c r="AF38" s="5">
+        <v>43</v>
+      </c>
+      <c r="AG38" s="5">
+        <v>53</v>
+      </c>
+      <c r="AH38" s="5">
+        <v>56</v>
+      </c>
+      <c r="AI38" s="5">
+        <v>49</v>
+      </c>
       <c r="AJ38" s="5"/>
       <c r="AK38" s="5"/>
       <c r="AL38" s="5"/>
@@ -8564,20 +8985,48 @@
       <c r="T39" s="5">
         <v>69</v>
       </c>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="5"/>
-      <c r="AB39" s="5"/>
-      <c r="AC39" s="5"/>
-      <c r="AD39" s="5"/>
-      <c r="AE39" s="5"/>
-      <c r="AF39" s="5"/>
-      <c r="AG39" s="5"/>
-      <c r="AH39" s="5"/>
+      <c r="U39" s="5">
+        <v>59</v>
+      </c>
+      <c r="V39" s="5">
+        <v>43</v>
+      </c>
+      <c r="W39" s="5">
+        <v>59</v>
+      </c>
+      <c r="X39" s="5">
+        <v>64</v>
+      </c>
+      <c r="Y39" s="5">
+        <v>54</v>
+      </c>
+      <c r="Z39" s="5">
+        <v>50</v>
+      </c>
+      <c r="AA39" s="5">
+        <v>56</v>
+      </c>
+      <c r="AB39" s="5">
+        <v>39</v>
+      </c>
+      <c r="AC39" s="5">
+        <v>37</v>
+      </c>
+      <c r="AD39" s="5">
+        <v>59</v>
+      </c>
+      <c r="AE39" s="5">
+        <v>66</v>
+      </c>
+      <c r="AF39" s="5">
+        <v>51</v>
+      </c>
+      <c r="AG39" s="5">
+        <v>58</v>
+      </c>
+      <c r="AH39" s="5">
+        <v>46</v>
+      </c>
       <c r="AI39" s="5"/>
       <c r="AJ39" s="5"/>
       <c r="AK39" s="5"/>
@@ -8666,20 +9115,48 @@
       <c r="S40" s="5">
         <v>68</v>
       </c>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="5"/>
-      <c r="AB40" s="5"/>
-      <c r="AC40" s="5"/>
-      <c r="AD40" s="5"/>
-      <c r="AE40" s="5"/>
-      <c r="AF40" s="5"/>
-      <c r="AG40" s="5"/>
+      <c r="T40" s="5">
+        <v>58</v>
+      </c>
+      <c r="U40" s="5">
+        <v>49</v>
+      </c>
+      <c r="V40" s="5">
+        <v>74</v>
+      </c>
+      <c r="W40" s="5">
+        <v>55</v>
+      </c>
+      <c r="X40" s="5">
+        <v>70</v>
+      </c>
+      <c r="Y40" s="5">
+        <v>68</v>
+      </c>
+      <c r="Z40" s="5">
+        <v>71</v>
+      </c>
+      <c r="AA40" s="5">
+        <v>48</v>
+      </c>
+      <c r="AB40" s="5">
+        <v>43</v>
+      </c>
+      <c r="AC40" s="5">
+        <v>64</v>
+      </c>
+      <c r="AD40" s="5">
+        <v>71</v>
+      </c>
+      <c r="AE40" s="5">
+        <v>62</v>
+      </c>
+      <c r="AF40" s="5">
+        <v>55</v>
+      </c>
+      <c r="AG40" s="5">
+        <v>53</v>
+      </c>
       <c r="AH40" s="5"/>
       <c r="AI40" s="5"/>
       <c r="AJ40" s="5"/>
@@ -8765,20 +9242,48 @@
       <c r="R41" s="5">
         <v>78</v>
       </c>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="5"/>
-      <c r="AB41" s="5"/>
-      <c r="AC41" s="5"/>
-      <c r="AD41" s="5"/>
-      <c r="AE41" s="5"/>
-      <c r="AF41" s="5"/>
+      <c r="S41" s="5">
+        <v>47</v>
+      </c>
+      <c r="T41" s="5">
+        <v>36</v>
+      </c>
+      <c r="U41" s="5">
+        <v>68</v>
+      </c>
+      <c r="V41" s="5">
+        <v>70</v>
+      </c>
+      <c r="W41" s="5">
+        <v>63</v>
+      </c>
+      <c r="X41" s="5">
+        <v>55</v>
+      </c>
+      <c r="Y41" s="5">
+        <v>54</v>
+      </c>
+      <c r="Z41" s="5">
+        <v>31</v>
+      </c>
+      <c r="AA41" s="5">
+        <v>28</v>
+      </c>
+      <c r="AB41" s="5">
+        <v>53</v>
+      </c>
+      <c r="AC41" s="5">
+        <v>48</v>
+      </c>
+      <c r="AD41" s="5">
+        <v>58</v>
+      </c>
+      <c r="AE41" s="5">
+        <v>51</v>
+      </c>
+      <c r="AF41" s="5">
+        <v>36</v>
+      </c>
       <c r="AG41" s="5"/>
       <c r="AH41" s="5"/>
       <c r="AI41" s="5"/>
@@ -8861,20 +9366,48 @@
       <c r="Q42" s="10">
         <v>52</v>
       </c>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="10"/>
-      <c r="W42" s="10"/>
-      <c r="X42" s="10"/>
-      <c r="Y42" s="10"/>
-      <c r="Z42" s="10"/>
-      <c r="AA42" s="10"/>
-      <c r="AB42" s="10"/>
-      <c r="AC42" s="10"/>
-      <c r="AD42" s="10"/>
-      <c r="AE42" s="10"/>
+      <c r="R42" s="10">
+        <v>40</v>
+      </c>
+      <c r="S42" s="10">
+        <v>39</v>
+      </c>
+      <c r="T42" s="10">
+        <v>40</v>
+      </c>
+      <c r="U42" s="10">
+        <v>40</v>
+      </c>
+      <c r="V42" s="10">
+        <v>37</v>
+      </c>
+      <c r="W42" s="10">
+        <v>33</v>
+      </c>
+      <c r="X42" s="10">
+        <v>40</v>
+      </c>
+      <c r="Y42" s="10">
+        <v>36</v>
+      </c>
+      <c r="Z42" s="10">
+        <v>30</v>
+      </c>
+      <c r="AA42" s="10">
+        <v>28</v>
+      </c>
+      <c r="AB42" s="10">
+        <v>38</v>
+      </c>
+      <c r="AC42" s="10">
+        <v>28</v>
+      </c>
+      <c r="AD42" s="10">
+        <v>30</v>
+      </c>
+      <c r="AE42" s="10">
+        <v>29</v>
+      </c>
       <c r="AF42" s="10"/>
       <c r="AG42" s="10"/>
       <c r="AH42" s="10"/>
@@ -8951,20 +9484,48 @@
       <c r="P43" s="10">
         <v>45</v>
       </c>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="10"/>
-      <c r="W43" s="10"/>
-      <c r="X43" s="10"/>
-      <c r="Y43" s="10"/>
-      <c r="Z43" s="10"/>
-      <c r="AA43" s="10"/>
-      <c r="AB43" s="10"/>
-      <c r="AC43" s="10"/>
-      <c r="AD43" s="10"/>
+      <c r="Q43" s="10">
+        <v>31</v>
+      </c>
+      <c r="R43" s="10">
+        <v>26</v>
+      </c>
+      <c r="S43" s="10">
+        <v>33</v>
+      </c>
+      <c r="T43" s="10">
+        <v>32</v>
+      </c>
+      <c r="U43" s="10">
+        <v>31</v>
+      </c>
+      <c r="V43" s="10">
+        <v>31</v>
+      </c>
+      <c r="W43" s="10">
+        <v>35</v>
+      </c>
+      <c r="X43" s="10">
+        <v>31</v>
+      </c>
+      <c r="Y43" s="10">
+        <v>39</v>
+      </c>
+      <c r="Z43" s="10">
+        <v>34</v>
+      </c>
+      <c r="AA43" s="10">
+        <v>31</v>
+      </c>
+      <c r="AB43" s="10">
+        <v>33</v>
+      </c>
+      <c r="AC43" s="10">
+        <v>27</v>
+      </c>
+      <c r="AD43" s="10">
+        <v>25</v>
+      </c>
       <c r="AE43" s="10"/>
       <c r="AF43" s="10"/>
       <c r="AG43" s="10"/>
@@ -9039,20 +9600,48 @@
       <c r="O44" s="10">
         <v>49</v>
       </c>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="10"/>
-      <c r="T44" s="10"/>
-      <c r="U44" s="10"/>
-      <c r="V44" s="10"/>
-      <c r="W44" s="10"/>
-      <c r="X44" s="10"/>
-      <c r="Y44" s="10"/>
-      <c r="Z44" s="10"/>
-      <c r="AA44" s="10"/>
-      <c r="AB44" s="10"/>
-      <c r="AC44" s="10"/>
+      <c r="P44" s="10">
+        <v>29</v>
+      </c>
+      <c r="Q44" s="10">
+        <v>21</v>
+      </c>
+      <c r="R44" s="10">
+        <v>39</v>
+      </c>
+      <c r="S44" s="10">
+        <v>35</v>
+      </c>
+      <c r="T44" s="10">
+        <v>36</v>
+      </c>
+      <c r="U44" s="10">
+        <v>28</v>
+      </c>
+      <c r="V44" s="10">
+        <v>38</v>
+      </c>
+      <c r="W44" s="10">
+        <v>21</v>
+      </c>
+      <c r="X44" s="10">
+        <v>18</v>
+      </c>
+      <c r="Y44" s="10">
+        <v>35</v>
+      </c>
+      <c r="Z44" s="10">
+        <v>30</v>
+      </c>
+      <c r="AA44" s="10">
+        <v>29</v>
+      </c>
+      <c r="AB44" s="10">
+        <v>28</v>
+      </c>
+      <c r="AC44" s="10">
+        <v>42</v>
+      </c>
       <c r="AD44" s="10"/>
       <c r="AE44" s="10"/>
       <c r="AF44" s="10"/>
@@ -9125,20 +9714,48 @@
       <c r="N45" s="10">
         <v>62</v>
       </c>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="10"/>
-      <c r="V45" s="10"/>
-      <c r="W45" s="10"/>
-      <c r="X45" s="10"/>
-      <c r="Y45" s="10"/>
-      <c r="Z45" s="10"/>
-      <c r="AA45" s="10"/>
-      <c r="AB45" s="10"/>
+      <c r="O45" s="10">
+        <v>36</v>
+      </c>
+      <c r="P45" s="10">
+        <v>28</v>
+      </c>
+      <c r="Q45" s="10">
+        <v>43</v>
+      </c>
+      <c r="R45" s="10">
+        <v>51</v>
+      </c>
+      <c r="S45" s="10">
+        <v>45</v>
+      </c>
+      <c r="T45" s="10">
+        <v>47</v>
+      </c>
+      <c r="U45" s="10">
+        <v>54</v>
+      </c>
+      <c r="V45" s="10">
+        <v>23</v>
+      </c>
+      <c r="W45" s="10">
+        <v>21</v>
+      </c>
+      <c r="X45" s="10">
+        <v>41</v>
+      </c>
+      <c r="Y45" s="10">
+        <v>39</v>
+      </c>
+      <c r="Z45" s="10">
+        <v>40</v>
+      </c>
+      <c r="AA45" s="10">
+        <v>42</v>
+      </c>
+      <c r="AB45" s="10">
+        <v>36</v>
+      </c>
       <c r="AC45" s="10"/>
       <c r="AD45" s="10"/>
       <c r="AE45" s="10"/>
@@ -9209,20 +9826,48 @@
       <c r="M46" s="10">
         <v>56</v>
       </c>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="10"/>
-      <c r="T46" s="10"/>
-      <c r="U46" s="10"/>
-      <c r="V46" s="10"/>
-      <c r="W46" s="10"/>
-      <c r="X46" s="10"/>
-      <c r="Y46" s="10"/>
-      <c r="Z46" s="10"/>
-      <c r="AA46" s="10"/>
+      <c r="N46" s="10">
+        <v>37</v>
+      </c>
+      <c r="O46" s="10">
+        <v>26</v>
+      </c>
+      <c r="P46" s="10">
+        <v>42</v>
+      </c>
+      <c r="Q46" s="10">
+        <v>55</v>
+      </c>
+      <c r="R46" s="10">
+        <v>40</v>
+      </c>
+      <c r="S46" s="10">
+        <v>51</v>
+      </c>
+      <c r="T46" s="10">
+        <v>42</v>
+      </c>
+      <c r="U46" s="10">
+        <v>30</v>
+      </c>
+      <c r="V46" s="10">
+        <v>16</v>
+      </c>
+      <c r="W46" s="10">
+        <v>40</v>
+      </c>
+      <c r="X46" s="10">
+        <v>43</v>
+      </c>
+      <c r="Y46" s="10">
+        <v>38</v>
+      </c>
+      <c r="Z46" s="10">
+        <v>34</v>
+      </c>
+      <c r="AA46" s="10">
+        <v>34</v>
+      </c>
       <c r="AB46" s="10"/>
       <c r="AC46" s="10"/>
       <c r="AD46" s="10"/>
@@ -9290,20 +9935,48 @@
       <c r="L47" s="10">
         <v>56</v>
       </c>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="10"/>
-      <c r="V47" s="10"/>
-      <c r="W47" s="10"/>
-      <c r="X47" s="10"/>
-      <c r="Y47" s="10"/>
-      <c r="Z47" s="10"/>
+      <c r="M47" s="10">
+        <v>34</v>
+      </c>
+      <c r="N47" s="10">
+        <v>34</v>
+      </c>
+      <c r="O47" s="10">
+        <v>56</v>
+      </c>
+      <c r="P47" s="10">
+        <v>56</v>
+      </c>
+      <c r="Q47" s="10">
+        <v>49</v>
+      </c>
+      <c r="R47" s="10">
+        <v>51</v>
+      </c>
+      <c r="S47" s="10">
+        <v>38</v>
+      </c>
+      <c r="T47" s="10">
+        <v>26</v>
+      </c>
+      <c r="U47" s="10">
+        <v>25</v>
+      </c>
+      <c r="V47" s="10">
+        <v>38</v>
+      </c>
+      <c r="W47" s="10">
+        <v>41</v>
+      </c>
+      <c r="X47" s="10">
+        <v>42</v>
+      </c>
+      <c r="Y47" s="10">
+        <v>42</v>
+      </c>
+      <c r="Z47" s="10">
+        <v>37</v>
+      </c>
       <c r="AA47" s="10"/>
       <c r="AB47" s="10"/>
       <c r="AC47" s="10"/>
@@ -9368,20 +10041,48 @@
       <c r="K48" s="10">
         <v>64</v>
       </c>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="10"/>
-      <c r="T48" s="10"/>
-      <c r="U48" s="10"/>
-      <c r="V48" s="10"/>
-      <c r="W48" s="10"/>
-      <c r="X48" s="10"/>
-      <c r="Y48" s="10"/>
+      <c r="L48" s="10">
+        <v>58</v>
+      </c>
+      <c r="M48" s="10">
+        <v>35</v>
+      </c>
+      <c r="N48" s="10">
+        <v>65</v>
+      </c>
+      <c r="O48" s="10">
+        <v>71</v>
+      </c>
+      <c r="P48" s="10">
+        <v>58</v>
+      </c>
+      <c r="Q48" s="10">
+        <v>58</v>
+      </c>
+      <c r="R48" s="10">
+        <v>52</v>
+      </c>
+      <c r="S48" s="10">
+        <v>40</v>
+      </c>
+      <c r="T48" s="10">
+        <v>35</v>
+      </c>
+      <c r="U48" s="10">
+        <v>60</v>
+      </c>
+      <c r="V48" s="10">
+        <v>56</v>
+      </c>
+      <c r="W48" s="10">
+        <v>56</v>
+      </c>
+      <c r="X48" s="10">
+        <v>39</v>
+      </c>
+      <c r="Y48" s="10">
+        <v>40</v>
+      </c>
       <c r="Z48" s="10"/>
       <c r="AA48" s="10"/>
       <c r="AB48" s="10"/>
@@ -9443,20 +10144,48 @@
       <c r="J49" s="10">
         <v>65</v>
       </c>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="10"/>
-      <c r="T49" s="10"/>
-      <c r="U49" s="10"/>
-      <c r="V49" s="10"/>
-      <c r="W49" s="10"/>
-      <c r="X49" s="10"/>
+      <c r="K49" s="10">
+        <v>59</v>
+      </c>
+      <c r="L49" s="10">
+        <v>61</v>
+      </c>
+      <c r="M49" s="10">
+        <v>58</v>
+      </c>
+      <c r="N49" s="10">
+        <v>59</v>
+      </c>
+      <c r="O49" s="10">
+        <v>41</v>
+      </c>
+      <c r="P49" s="10">
+        <v>54</v>
+      </c>
+      <c r="Q49" s="10">
+        <v>49</v>
+      </c>
+      <c r="R49" s="10">
+        <v>43</v>
+      </c>
+      <c r="S49" s="10">
+        <v>38</v>
+      </c>
+      <c r="T49" s="10">
+        <v>47</v>
+      </c>
+      <c r="U49" s="10">
+        <v>45</v>
+      </c>
+      <c r="V49" s="10">
+        <v>44</v>
+      </c>
+      <c r="W49" s="10">
+        <v>43</v>
+      </c>
+      <c r="X49" s="10">
+        <v>42</v>
+      </c>
       <c r="Y49" s="10"/>
       <c r="Z49" s="10"/>
       <c r="AA49" s="10"/>
@@ -9515,20 +10244,48 @@
       <c r="I50" s="10">
         <v>95</v>
       </c>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="10"/>
-      <c r="S50" s="10"/>
-      <c r="T50" s="10"/>
-      <c r="U50" s="10"/>
-      <c r="V50" s="10"/>
-      <c r="W50" s="10"/>
+      <c r="J50" s="10">
+        <v>69</v>
+      </c>
+      <c r="K50" s="10">
+        <v>56</v>
+      </c>
+      <c r="L50" s="10">
+        <v>41</v>
+      </c>
+      <c r="M50" s="10">
+        <v>65</v>
+      </c>
+      <c r="N50" s="10">
+        <v>45</v>
+      </c>
+      <c r="O50" s="10">
+        <v>50</v>
+      </c>
+      <c r="P50" s="10">
+        <v>49</v>
+      </c>
+      <c r="Q50" s="10">
+        <v>42</v>
+      </c>
+      <c r="R50" s="10">
+        <v>44</v>
+      </c>
+      <c r="S50" s="10">
+        <v>50</v>
+      </c>
+      <c r="T50" s="10">
+        <v>44</v>
+      </c>
+      <c r="U50" s="10">
+        <v>47</v>
+      </c>
+      <c r="V50" s="10">
+        <v>33</v>
+      </c>
+      <c r="W50" s="10">
+        <v>30</v>
+      </c>
       <c r="X50" s="10"/>
       <c r="Y50" s="10"/>
       <c r="Z50" s="10"/>
@@ -9584,20 +10341,48 @@
       <c r="H51" s="10">
         <v>84</v>
       </c>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="10"/>
-      <c r="T51" s="10"/>
-      <c r="U51" s="10"/>
-      <c r="V51" s="10"/>
+      <c r="I51" s="10">
+        <v>56</v>
+      </c>
+      <c r="J51" s="10">
+        <v>43</v>
+      </c>
+      <c r="K51" s="10">
+        <v>80</v>
+      </c>
+      <c r="L51" s="10">
+        <v>60</v>
+      </c>
+      <c r="M51" s="10">
+        <v>67</v>
+      </c>
+      <c r="N51" s="10">
+        <v>48</v>
+      </c>
+      <c r="O51" s="10">
+        <v>46</v>
+      </c>
+      <c r="P51" s="10">
+        <v>26</v>
+      </c>
+      <c r="Q51" s="10">
+        <v>32</v>
+      </c>
+      <c r="R51" s="10">
+        <v>40</v>
+      </c>
+      <c r="S51" s="10">
+        <v>42</v>
+      </c>
+      <c r="T51" s="10">
+        <v>42</v>
+      </c>
+      <c r="U51" s="10">
+        <v>40</v>
+      </c>
+      <c r="V51" s="10">
+        <v>34</v>
+      </c>
       <c r="W51" s="10"/>
       <c r="X51" s="10"/>
       <c r="Y51" s="10"/>
@@ -9650,20 +10435,48 @@
       <c r="G52" s="10">
         <v>92</v>
       </c>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
-      <c r="R52" s="10"/>
-      <c r="S52" s="10"/>
-      <c r="T52" s="10"/>
-      <c r="U52" s="10"/>
+      <c r="H52" s="10">
+        <v>52</v>
+      </c>
+      <c r="I52" s="10">
+        <v>45</v>
+      </c>
+      <c r="J52" s="10">
+        <v>67</v>
+      </c>
+      <c r="K52" s="10">
+        <v>54</v>
+      </c>
+      <c r="L52" s="10">
+        <v>62</v>
+      </c>
+      <c r="M52" s="10">
+        <v>59</v>
+      </c>
+      <c r="N52" s="10">
+        <v>49</v>
+      </c>
+      <c r="O52" s="10">
+        <v>67</v>
+      </c>
+      <c r="P52" s="10">
+        <v>29</v>
+      </c>
+      <c r="Q52" s="10">
+        <v>56</v>
+      </c>
+      <c r="R52" s="10">
+        <v>40</v>
+      </c>
+      <c r="S52" s="10">
+        <v>42</v>
+      </c>
+      <c r="T52" s="10">
+        <v>47</v>
+      </c>
+      <c r="U52" s="10">
+        <v>46</v>
+      </c>
       <c r="V52" s="10"/>
       <c r="W52" s="10"/>
       <c r="X52" s="10"/>
@@ -9713,20 +10526,48 @@
       <c r="F53" s="10">
         <v>109</v>
       </c>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
-      <c r="R53" s="10"/>
-      <c r="S53" s="10"/>
-      <c r="T53" s="10"/>
+      <c r="G53" s="10">
+        <v>65</v>
+      </c>
+      <c r="H53" s="10">
+        <v>45</v>
+      </c>
+      <c r="I53" s="10">
+        <v>93</v>
+      </c>
+      <c r="J53" s="10">
+        <v>62</v>
+      </c>
+      <c r="K53" s="10">
+        <v>73</v>
+      </c>
+      <c r="L53" s="10">
+        <v>55</v>
+      </c>
+      <c r="M53" s="10">
+        <v>57</v>
+      </c>
+      <c r="N53" s="10">
+        <v>25</v>
+      </c>
+      <c r="O53" s="10">
+        <v>28</v>
+      </c>
+      <c r="P53" s="10">
+        <v>54</v>
+      </c>
+      <c r="Q53" s="10">
+        <v>49</v>
+      </c>
+      <c r="R53" s="10">
+        <v>51</v>
+      </c>
+      <c r="S53" s="10">
+        <v>49</v>
+      </c>
+      <c r="T53" s="10">
+        <v>38</v>
+      </c>
       <c r="U53" s="10"/>
       <c r="V53" s="10"/>
       <c r="W53" s="10"/>
@@ -9773,20 +10614,48 @@
       <c r="E54" s="10">
         <v>197</v>
       </c>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="10"/>
-      <c r="R54" s="10"/>
-      <c r="S54" s="10"/>
+      <c r="F54" s="10">
+        <v>96</v>
+      </c>
+      <c r="G54" s="10">
+        <v>72</v>
+      </c>
+      <c r="H54" s="10">
+        <v>95</v>
+      </c>
+      <c r="I54" s="10">
+        <v>92</v>
+      </c>
+      <c r="J54" s="10">
+        <v>88</v>
+      </c>
+      <c r="K54" s="10">
+        <v>91</v>
+      </c>
+      <c r="L54" s="10">
+        <v>63</v>
+      </c>
+      <c r="M54" s="10">
+        <v>50</v>
+      </c>
+      <c r="N54" s="10">
+        <v>40</v>
+      </c>
+      <c r="O54" s="10">
+        <v>58</v>
+      </c>
+      <c r="P54" s="10">
+        <v>62</v>
+      </c>
+      <c r="Q54" s="10">
+        <v>69</v>
+      </c>
+      <c r="R54" s="10">
+        <v>49</v>
+      </c>
+      <c r="S54" s="10">
+        <v>45</v>
+      </c>
       <c r="T54" s="10"/>
       <c r="U54" s="10"/>
       <c r="V54" s="10"/>
@@ -9830,20 +10699,48 @@
       <c r="D55" s="5">
         <v>483</v>
       </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="10"/>
+      <c r="E55" s="10">
+        <v>141</v>
+      </c>
+      <c r="F55" s="10">
+        <v>87</v>
+      </c>
+      <c r="G55" s="10">
+        <v>104</v>
+      </c>
+      <c r="H55" s="10">
+        <v>99</v>
+      </c>
+      <c r="I55" s="10">
+        <v>76</v>
+      </c>
+      <c r="J55" s="10">
+        <v>78</v>
+      </c>
+      <c r="K55" s="10">
+        <v>64</v>
+      </c>
+      <c r="L55" s="10">
+        <v>49</v>
+      </c>
+      <c r="M55" s="10">
+        <v>35</v>
+      </c>
+      <c r="N55" s="10">
+        <v>61</v>
+      </c>
+      <c r="O55" s="10">
+        <v>55</v>
+      </c>
+      <c r="P55" s="10">
+        <v>44</v>
+      </c>
+      <c r="Q55" s="10">
+        <v>47</v>
+      </c>
+      <c r="R55" s="10">
+        <v>59</v>
+      </c>
       <c r="S55" s="10"/>
       <c r="T55" s="10"/>
       <c r="U55" s="10"/>
@@ -9878,22 +10775,54 @@
       <c r="A56" s="13">
         <v>42602</v>
       </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="10"/>
+      <c r="B56" s="5">
+        <v>2581</v>
+      </c>
+      <c r="C56" s="5">
+        <v>2437</v>
+      </c>
+      <c r="D56" s="5">
+        <v>491</v>
+      </c>
+      <c r="E56" s="10">
+        <v>162</v>
+      </c>
+      <c r="F56" s="10">
+        <v>119</v>
+      </c>
+      <c r="G56" s="10">
+        <v>104</v>
+      </c>
+      <c r="H56" s="10">
+        <v>82</v>
+      </c>
+      <c r="I56" s="10">
+        <v>62</v>
+      </c>
+      <c r="J56" s="10">
+        <v>55</v>
+      </c>
+      <c r="K56" s="10">
+        <v>56</v>
+      </c>
+      <c r="L56" s="10">
+        <v>50</v>
+      </c>
+      <c r="M56" s="10">
+        <v>48</v>
+      </c>
+      <c r="N56" s="10">
+        <v>53</v>
+      </c>
+      <c r="O56" s="10">
+        <v>42</v>
+      </c>
+      <c r="P56" s="10">
+        <v>30</v>
+      </c>
+      <c r="Q56" s="10">
+        <v>34</v>
+      </c>
       <c r="R56" s="10"/>
       <c r="S56" s="10"/>
       <c r="T56" s="10"/>
@@ -9928,21 +10857,51 @@
       <c r="A57" s="13">
         <v>42603</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
+      <c r="B57" s="5">
+        <v>2406</v>
+      </c>
+      <c r="C57" s="5">
+        <v>2167</v>
+      </c>
+      <c r="D57" s="5">
+        <v>491</v>
+      </c>
+      <c r="E57" s="10">
+        <v>137</v>
+      </c>
+      <c r="F57" s="10">
+        <v>86</v>
+      </c>
+      <c r="G57" s="10">
+        <v>62</v>
+      </c>
+      <c r="H57" s="10">
+        <v>47</v>
+      </c>
+      <c r="I57" s="10">
+        <v>40</v>
+      </c>
+      <c r="J57" s="10">
+        <v>45</v>
+      </c>
+      <c r="K57" s="10">
+        <v>43</v>
+      </c>
+      <c r="L57" s="10">
+        <v>41</v>
+      </c>
+      <c r="M57" s="10">
+        <v>47</v>
+      </c>
+      <c r="N57" s="10">
+        <v>37</v>
+      </c>
+      <c r="O57" s="10">
+        <v>43</v>
+      </c>
+      <c r="P57" s="10">
+        <v>39</v>
+      </c>
       <c r="Q57" s="10"/>
       <c r="R57" s="10"/>
       <c r="S57" s="10"/>
@@ -9978,20 +10937,48 @@
       <c r="A58" s="13">
         <v>42604</v>
       </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
+      <c r="B58" s="5">
+        <v>3289</v>
+      </c>
+      <c r="C58" s="5">
+        <v>2179</v>
+      </c>
+      <c r="D58" s="5">
+        <v>450</v>
+      </c>
+      <c r="E58" s="10">
+        <v>197</v>
+      </c>
+      <c r="F58" s="10">
+        <v>116</v>
+      </c>
+      <c r="G58" s="10">
+        <v>106</v>
+      </c>
+      <c r="H58" s="10">
+        <v>81</v>
+      </c>
+      <c r="I58" s="10">
+        <v>54</v>
+      </c>
+      <c r="J58" s="10">
+        <v>50</v>
+      </c>
+      <c r="K58" s="10">
+        <v>82</v>
+      </c>
+      <c r="L58" s="10">
+        <v>56</v>
+      </c>
+      <c r="M58" s="10">
+        <v>57</v>
+      </c>
+      <c r="N58" s="10">
+        <v>49</v>
+      </c>
+      <c r="O58" s="10">
+        <v>46</v>
+      </c>
       <c r="P58" s="10"/>
       <c r="Q58" s="10"/>
       <c r="R58" s="10"/>
@@ -10028,19 +11015,45 @@
       <c r="A59" s="13">
         <v>42605</v>
       </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
+      <c r="B59" s="5">
+        <v>3393</v>
+      </c>
+      <c r="C59" s="5">
+        <v>2571</v>
+      </c>
+      <c r="D59" s="5">
+        <v>576</v>
+      </c>
+      <c r="E59" s="10">
+        <v>198</v>
+      </c>
+      <c r="F59" s="10">
+        <v>142</v>
+      </c>
+      <c r="G59" s="10">
+        <v>102</v>
+      </c>
+      <c r="H59" s="10">
+        <v>71</v>
+      </c>
+      <c r="I59" s="10">
+        <v>54</v>
+      </c>
+      <c r="J59" s="10">
+        <v>82</v>
+      </c>
+      <c r="K59" s="10">
+        <v>80</v>
+      </c>
+      <c r="L59" s="10">
+        <v>89</v>
+      </c>
+      <c r="M59" s="10">
+        <v>66</v>
+      </c>
+      <c r="N59" s="10">
+        <v>68</v>
+      </c>
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
       <c r="Q59" s="10"/>
@@ -10078,18 +11091,42 @@
       <c r="A60" s="13">
         <v>42606</v>
       </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
+      <c r="B60" s="5">
+        <v>3267</v>
+      </c>
+      <c r="C60" s="5">
+        <v>2460</v>
+      </c>
+      <c r="D60" s="5">
+        <v>497</v>
+      </c>
+      <c r="E60" s="10">
+        <v>203</v>
+      </c>
+      <c r="F60" s="10">
+        <v>116</v>
+      </c>
+      <c r="G60" s="10">
+        <v>75</v>
+      </c>
+      <c r="H60" s="10">
+        <v>52</v>
+      </c>
+      <c r="I60" s="10">
+        <v>90</v>
+      </c>
+      <c r="J60" s="10">
+        <v>90</v>
+      </c>
+      <c r="K60" s="10">
+        <v>58</v>
+      </c>
+      <c r="L60" s="10">
+        <v>60</v>
+      </c>
+      <c r="M60" s="10">
+        <v>56</v>
+      </c>
       <c r="N60" s="10"/>
       <c r="O60" s="10"/>
       <c r="P60" s="10"/>
@@ -10128,17 +11165,39 @@
       <c r="A61" s="13">
         <v>42607</v>
       </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
+      <c r="B61" s="5">
+        <v>3489</v>
+      </c>
+      <c r="C61" s="5">
+        <v>2575</v>
+      </c>
+      <c r="D61" s="5">
+        <v>587</v>
+      </c>
+      <c r="E61" s="10">
+        <v>203</v>
+      </c>
+      <c r="F61" s="10">
+        <v>113</v>
+      </c>
+      <c r="G61" s="10">
+        <v>79</v>
+      </c>
+      <c r="H61" s="10">
+        <v>111</v>
+      </c>
+      <c r="I61" s="10">
+        <v>91</v>
+      </c>
+      <c r="J61" s="10">
+        <v>83</v>
+      </c>
+      <c r="K61" s="10">
+        <v>71</v>
+      </c>
+      <c r="L61" s="10">
+        <v>70</v>
+      </c>
       <c r="M61" s="10"/>
       <c r="N61" s="10"/>
       <c r="O61" s="10"/>
@@ -10191,16 +11250,36 @@
       <c r="A62" s="13">
         <v>42608</v>
       </c>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
+      <c r="B62" s="5">
+        <v>3364</v>
+      </c>
+      <c r="C62" s="5">
+        <v>2675</v>
+      </c>
+      <c r="D62" s="5">
+        <v>614</v>
+      </c>
+      <c r="E62" s="10">
+        <v>163</v>
+      </c>
+      <c r="F62" s="10">
+        <v>88</v>
+      </c>
+      <c r="G62" s="10">
+        <v>115</v>
+      </c>
+      <c r="H62" s="10">
+        <v>108</v>
+      </c>
+      <c r="I62" s="10">
+        <v>93</v>
+      </c>
+      <c r="J62" s="10">
+        <v>80</v>
+      </c>
+      <c r="K62" s="10">
+        <v>73</v>
+      </c>
       <c r="L62" s="10"/>
       <c r="M62" s="10"/>
       <c r="N62" s="10"/>
@@ -10241,15 +11320,33 @@
       <c r="A63" s="13">
         <v>42609</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
+      <c r="B63" s="5">
+        <v>2624</v>
+      </c>
+      <c r="C63" s="5">
+        <v>2417</v>
+      </c>
+      <c r="D63" s="5">
+        <v>499</v>
+      </c>
+      <c r="E63" s="10">
+        <v>138</v>
+      </c>
+      <c r="F63" s="10">
+        <v>120</v>
+      </c>
+      <c r="G63" s="10">
+        <v>109</v>
+      </c>
+      <c r="H63" s="10">
+        <v>85</v>
+      </c>
+      <c r="I63" s="10">
+        <v>59</v>
+      </c>
+      <c r="J63" s="10">
+        <v>86</v>
+      </c>
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
       <c r="M63" s="10"/>
@@ -10303,14 +11400,30 @@
       <c r="A64" s="13">
         <v>42610</v>
       </c>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
+      <c r="B64" s="5">
+        <v>2437</v>
+      </c>
+      <c r="C64" s="5">
+        <v>2299</v>
+      </c>
+      <c r="D64" s="5">
+        <v>456</v>
+      </c>
+      <c r="E64" s="10">
+        <v>140</v>
+      </c>
+      <c r="F64" s="10">
+        <v>98</v>
+      </c>
+      <c r="G64" s="10">
+        <v>95</v>
+      </c>
+      <c r="H64" s="10">
+        <v>66</v>
+      </c>
+      <c r="I64" s="10">
+        <v>57</v>
+      </c>
       <c r="J64" s="10"/>
       <c r="K64" s="10"/>
       <c r="L64" s="10"/>
@@ -10364,13 +11477,27 @@
       <c r="A65" s="13">
         <v>42611</v>
       </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
+      <c r="B65" s="5">
+        <v>3419</v>
+      </c>
+      <c r="C65" s="5">
+        <v>2291</v>
+      </c>
+      <c r="D65" s="5">
+        <v>472</v>
+      </c>
+      <c r="E65" s="10">
+        <v>192</v>
+      </c>
+      <c r="F65" s="10">
+        <v>116</v>
+      </c>
+      <c r="G65" s="10">
+        <v>105</v>
+      </c>
+      <c r="H65" s="10">
+        <v>99</v>
+      </c>
       <c r="I65" s="10"/>
       <c r="J65" s="10"/>
       <c r="K65" s="10"/>
@@ -10414,12 +11541,24 @@
       <c r="A66" s="13">
         <v>42612</v>
       </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
+      <c r="B66" s="5">
+        <v>3552</v>
+      </c>
+      <c r="C66" s="5">
+        <v>2566</v>
+      </c>
+      <c r="D66" s="5">
+        <v>555</v>
+      </c>
+      <c r="E66" s="10">
+        <v>194</v>
+      </c>
+      <c r="F66" s="10">
+        <v>118</v>
+      </c>
+      <c r="G66" s="10">
+        <v>106</v>
+      </c>
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
       <c r="J66" s="10"/>
@@ -10464,11 +11603,21 @@
       <c r="A67" s="13">
         <v>42613</v>
       </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
+      <c r="B67" s="5">
+        <v>3488</v>
+      </c>
+      <c r="C67" s="5">
+        <v>2255</v>
+      </c>
+      <c r="D67" s="5">
+        <v>473</v>
+      </c>
+      <c r="E67" s="10">
+        <v>162</v>
+      </c>
+      <c r="F67" s="10">
+        <v>106</v>
+      </c>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
@@ -10514,10 +11663,18 @@
       <c r="A68" s="13">
         <v>42614</v>
       </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="10"/>
+      <c r="B68" s="5">
+        <v>3619</v>
+      </c>
+      <c r="C68" s="5">
+        <v>3859</v>
+      </c>
+      <c r="D68" s="5">
+        <v>742</v>
+      </c>
+      <c r="E68" s="10">
+        <v>325</v>
+      </c>
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
@@ -10568,10 +11725,18 @@
       <c r="BA68" s="10"/>
     </row>
     <row r="69" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A69" s="2"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
+      <c r="A69" s="13">
+        <v>42615</v>
+      </c>
+      <c r="B69" s="5">
+        <v>3951</v>
+      </c>
+      <c r="C69" s="5">
+        <v>5187</v>
+      </c>
+      <c r="D69" s="5">
+        <v>1030</v>
+      </c>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
@@ -10616,7 +11781,9 @@
       <c r="AT69" s="10"/>
     </row>
     <row r="70" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A70" s="2"/>
+      <c r="A70" s="13">
+        <v>42616</v>
+      </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -10664,7 +11831,9 @@
       <c r="AT70" s="10"/>
     </row>
     <row r="71" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A71" s="2"/>
+      <c r="A71" s="13">
+        <v>42617</v>
+      </c>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -26234,7 +27403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z55"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -27876,15 +29045,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK46"/>
+  <dimension ref="A1:AY56"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -27963,8 +29132,44 @@
       <c r="Z1">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AA1">
+        <v>23</v>
+      </c>
+      <c r="AB1">
+        <v>24</v>
+      </c>
+      <c r="AC1">
+        <v>25</v>
+      </c>
+      <c r="AD1">
+        <v>26</v>
+      </c>
+      <c r="AE1">
+        <v>27</v>
+      </c>
+      <c r="AF1">
+        <v>28</v>
+      </c>
+      <c r="AG1">
+        <v>29</v>
+      </c>
+      <c r="AH1">
+        <v>30</v>
+      </c>
+      <c r="AI1">
+        <v>31</v>
+      </c>
+      <c r="AJ1">
+        <v>32</v>
+      </c>
+      <c r="AK1">
+        <v>33</v>
+      </c>
+      <c r="AL1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>42567</v>
       </c>
@@ -27996,7 +29201,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>42568</v>
       </c>
@@ -28108,8 +29313,50 @@
       <c r="AK3">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AL3">
+        <v>35</v>
+      </c>
+      <c r="AM3">
+        <v>24</v>
+      </c>
+      <c r="AN3">
+        <v>30</v>
+      </c>
+      <c r="AO3">
+        <v>37</v>
+      </c>
+      <c r="AP3">
+        <v>34</v>
+      </c>
+      <c r="AQ3">
+        <v>32</v>
+      </c>
+      <c r="AR3">
+        <v>29</v>
+      </c>
+      <c r="AS3">
+        <v>26</v>
+      </c>
+      <c r="AT3">
+        <v>28</v>
+      </c>
+      <c r="AU3">
+        <v>33</v>
+      </c>
+      <c r="AV3">
+        <v>29</v>
+      </c>
+      <c r="AW3">
+        <v>37</v>
+      </c>
+      <c r="AX3">
+        <v>33</v>
+      </c>
+      <c r="AY3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>42569</v>
       </c>
@@ -28218,8 +29465,50 @@
       <c r="AJ4">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AK4">
+        <v>16</v>
+      </c>
+      <c r="AL4">
+        <v>22</v>
+      </c>
+      <c r="AM4">
+        <v>38</v>
+      </c>
+      <c r="AN4">
+        <v>37</v>
+      </c>
+      <c r="AO4">
+        <v>35</v>
+      </c>
+      <c r="AP4">
+        <v>39</v>
+      </c>
+      <c r="AQ4">
+        <v>42</v>
+      </c>
+      <c r="AR4">
+        <v>31</v>
+      </c>
+      <c r="AS4">
+        <v>21</v>
+      </c>
+      <c r="AT4">
+        <v>37</v>
+      </c>
+      <c r="AU4">
+        <v>41</v>
+      </c>
+      <c r="AV4">
+        <v>45</v>
+      </c>
+      <c r="AW4">
+        <v>41</v>
+      </c>
+      <c r="AX4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>42570</v>
       </c>
@@ -28325,8 +29614,50 @@
       <c r="AI5">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AJ5">
+        <v>36</v>
+      </c>
+      <c r="AK5">
+        <v>23</v>
+      </c>
+      <c r="AL5">
+        <v>47</v>
+      </c>
+      <c r="AM5">
+        <v>40</v>
+      </c>
+      <c r="AN5">
+        <v>39</v>
+      </c>
+      <c r="AO5">
+        <v>50</v>
+      </c>
+      <c r="AP5">
+        <v>46</v>
+      </c>
+      <c r="AQ5">
+        <v>29</v>
+      </c>
+      <c r="AR5">
+        <v>29</v>
+      </c>
+      <c r="AS5">
+        <v>42</v>
+      </c>
+      <c r="AT5">
+        <v>39</v>
+      </c>
+      <c r="AU5">
+        <v>29</v>
+      </c>
+      <c r="AV5">
+        <v>35</v>
+      </c>
+      <c r="AW5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>42571</v>
       </c>
@@ -28429,8 +29760,50 @@
       <c r="AH6">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AI6">
+        <v>29</v>
+      </c>
+      <c r="AJ6">
+        <v>39</v>
+      </c>
+      <c r="AK6">
+        <v>44</v>
+      </c>
+      <c r="AL6">
+        <v>54</v>
+      </c>
+      <c r="AM6">
+        <v>45</v>
+      </c>
+      <c r="AN6">
+        <v>38</v>
+      </c>
+      <c r="AO6">
+        <v>51</v>
+      </c>
+      <c r="AP6">
+        <v>33</v>
+      </c>
+      <c r="AQ6">
+        <v>35</v>
+      </c>
+      <c r="AR6">
+        <v>41</v>
+      </c>
+      <c r="AS6">
+        <v>35</v>
+      </c>
+      <c r="AT6">
+        <v>41</v>
+      </c>
+      <c r="AU6">
+        <v>53</v>
+      </c>
+      <c r="AV6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>42572</v>
       </c>
@@ -28530,8 +29903,50 @@
       <c r="AG7">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AH7">
+        <v>31</v>
+      </c>
+      <c r="AI7">
+        <v>38</v>
+      </c>
+      <c r="AJ7">
+        <v>46</v>
+      </c>
+      <c r="AK7">
+        <v>48</v>
+      </c>
+      <c r="AL7">
+        <v>41</v>
+      </c>
+      <c r="AM7">
+        <v>52</v>
+      </c>
+      <c r="AN7">
+        <v>35</v>
+      </c>
+      <c r="AO7">
+        <v>28</v>
+      </c>
+      <c r="AP7">
+        <v>23</v>
+      </c>
+      <c r="AQ7">
+        <v>37</v>
+      </c>
+      <c r="AR7">
+        <v>34</v>
+      </c>
+      <c r="AS7">
+        <v>35</v>
+      </c>
+      <c r="AT7">
+        <v>29</v>
+      </c>
+      <c r="AU7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>42573</v>
       </c>
@@ -28628,8 +30043,50 @@
       <c r="AF8">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AG8">
+        <v>34</v>
+      </c>
+      <c r="AH8">
+        <v>33</v>
+      </c>
+      <c r="AI8">
+        <v>53</v>
+      </c>
+      <c r="AJ8">
+        <v>43</v>
+      </c>
+      <c r="AK8">
+        <v>48</v>
+      </c>
+      <c r="AL8">
+        <v>40</v>
+      </c>
+      <c r="AM8">
+        <v>35</v>
+      </c>
+      <c r="AN8">
+        <v>19</v>
+      </c>
+      <c r="AO8">
+        <v>21</v>
+      </c>
+      <c r="AP8">
+        <v>40</v>
+      </c>
+      <c r="AQ8">
+        <v>33</v>
+      </c>
+      <c r="AR8">
+        <v>38</v>
+      </c>
+      <c r="AS8">
+        <v>37</v>
+      </c>
+      <c r="AT8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>42574</v>
       </c>
@@ -28723,8 +30180,50 @@
       <c r="AE9">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AF9">
+        <v>36</v>
+      </c>
+      <c r="AG9">
+        <v>22</v>
+      </c>
+      <c r="AH9">
+        <v>44</v>
+      </c>
+      <c r="AI9">
+        <v>38</v>
+      </c>
+      <c r="AJ9">
+        <v>46</v>
+      </c>
+      <c r="AK9">
+        <v>34</v>
+      </c>
+      <c r="AL9">
+        <v>46</v>
+      </c>
+      <c r="AM9">
+        <v>33</v>
+      </c>
+      <c r="AN9">
+        <v>30</v>
+      </c>
+      <c r="AO9">
+        <v>40</v>
+      </c>
+      <c r="AP9">
+        <v>44</v>
+      </c>
+      <c r="AQ9">
+        <v>40</v>
+      </c>
+      <c r="AR9">
+        <v>37</v>
+      </c>
+      <c r="AS9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>42575</v>
       </c>
@@ -28815,8 +30314,50 @@
       <c r="AD10">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AE10">
+        <v>37</v>
+      </c>
+      <c r="AF10">
+        <v>42</v>
+      </c>
+      <c r="AG10">
+        <v>42</v>
+      </c>
+      <c r="AH10">
+        <v>37</v>
+      </c>
+      <c r="AI10">
+        <v>40</v>
+      </c>
+      <c r="AJ10">
+        <v>42</v>
+      </c>
+      <c r="AK10">
+        <v>46</v>
+      </c>
+      <c r="AL10">
+        <v>43</v>
+      </c>
+      <c r="AM10">
+        <v>29</v>
+      </c>
+      <c r="AN10">
+        <v>38</v>
+      </c>
+      <c r="AO10">
+        <v>47</v>
+      </c>
+      <c r="AP10">
+        <v>41</v>
+      </c>
+      <c r="AQ10">
+        <v>36</v>
+      </c>
+      <c r="AR10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>42576</v>
       </c>
@@ -28904,8 +30445,50 @@
       <c r="AC11">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AD11">
+        <v>36</v>
+      </c>
+      <c r="AE11">
+        <v>33</v>
+      </c>
+      <c r="AF11">
+        <v>50</v>
+      </c>
+      <c r="AG11">
+        <v>49</v>
+      </c>
+      <c r="AH11">
+        <v>39</v>
+      </c>
+      <c r="AI11">
+        <v>47</v>
+      </c>
+      <c r="AJ11">
+        <v>39</v>
+      </c>
+      <c r="AK11">
+        <v>31</v>
+      </c>
+      <c r="AL11">
+        <v>31</v>
+      </c>
+      <c r="AM11">
+        <v>41</v>
+      </c>
+      <c r="AN11">
+        <v>45</v>
+      </c>
+      <c r="AO11">
+        <v>52</v>
+      </c>
+      <c r="AP11">
+        <v>42</v>
+      </c>
+      <c r="AQ11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>42577</v>
       </c>
@@ -28990,8 +30573,50 @@
       <c r="AB12">
         <v>59</v>
       </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AC12">
+        <v>42</v>
+      </c>
+      <c r="AD12">
+        <v>40</v>
+      </c>
+      <c r="AE12">
+        <v>39</v>
+      </c>
+      <c r="AF12">
+        <v>41</v>
+      </c>
+      <c r="AG12">
+        <v>41</v>
+      </c>
+      <c r="AH12">
+        <v>54</v>
+      </c>
+      <c r="AI12">
+        <v>40</v>
+      </c>
+      <c r="AJ12">
+        <v>31</v>
+      </c>
+      <c r="AK12">
+        <v>37</v>
+      </c>
+      <c r="AL12">
+        <v>49</v>
+      </c>
+      <c r="AM12">
+        <v>40</v>
+      </c>
+      <c r="AN12">
+        <v>37</v>
+      </c>
+      <c r="AO12">
+        <v>43</v>
+      </c>
+      <c r="AP12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>42578</v>
       </c>
@@ -29073,8 +30698,50 @@
       <c r="AA13">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AB13">
+        <v>40</v>
+      </c>
+      <c r="AC13">
+        <v>28</v>
+      </c>
+      <c r="AD13">
+        <v>44</v>
+      </c>
+      <c r="AE13">
+        <v>45</v>
+      </c>
+      <c r="AF13">
+        <v>40</v>
+      </c>
+      <c r="AG13">
+        <v>53</v>
+      </c>
+      <c r="AH13">
+        <v>45</v>
+      </c>
+      <c r="AI13">
+        <v>28</v>
+      </c>
+      <c r="AJ13">
+        <v>30</v>
+      </c>
+      <c r="AK13">
+        <v>34</v>
+      </c>
+      <c r="AL13">
+        <v>46</v>
+      </c>
+      <c r="AM13">
+        <v>52</v>
+      </c>
+      <c r="AN13">
+        <v>48</v>
+      </c>
+      <c r="AO13">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>42579</v>
       </c>
@@ -29153,8 +30820,50 @@
       <c r="Z14">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AA14">
+        <v>44</v>
+      </c>
+      <c r="AB14">
+        <v>37</v>
+      </c>
+      <c r="AC14">
+        <v>61</v>
+      </c>
+      <c r="AD14">
+        <v>57</v>
+      </c>
+      <c r="AE14">
+        <v>59</v>
+      </c>
+      <c r="AF14">
+        <v>62</v>
+      </c>
+      <c r="AG14">
+        <v>53</v>
+      </c>
+      <c r="AH14">
+        <v>40</v>
+      </c>
+      <c r="AI14">
+        <v>38</v>
+      </c>
+      <c r="AJ14">
+        <v>43</v>
+      </c>
+      <c r="AK14">
+        <v>52</v>
+      </c>
+      <c r="AL14">
+        <v>53</v>
+      </c>
+      <c r="AM14">
+        <v>39</v>
+      </c>
+      <c r="AN14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>42580</v>
       </c>
@@ -29230,8 +30939,50 @@
       <c r="Y15">
         <v>56</v>
       </c>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="Z15">
+        <v>32</v>
+      </c>
+      <c r="AA15">
+        <v>30</v>
+      </c>
+      <c r="AB15">
+        <v>57</v>
+      </c>
+      <c r="AC15">
+        <v>46</v>
+      </c>
+      <c r="AD15">
+        <v>49</v>
+      </c>
+      <c r="AE15">
+        <v>50</v>
+      </c>
+      <c r="AF15">
+        <v>56</v>
+      </c>
+      <c r="AG15">
+        <v>39</v>
+      </c>
+      <c r="AH15">
+        <v>33</v>
+      </c>
+      <c r="AI15">
+        <v>58</v>
+      </c>
+      <c r="AJ15">
+        <v>57</v>
+      </c>
+      <c r="AK15">
+        <v>52</v>
+      </c>
+      <c r="AL15">
+        <v>42</v>
+      </c>
+      <c r="AM15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>42581</v>
       </c>
@@ -29304,8 +31055,50 @@
       <c r="X16">
         <v>59</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="Y16">
+        <v>43</v>
+      </c>
+      <c r="Z16">
+        <v>41</v>
+      </c>
+      <c r="AA16">
+        <v>62</v>
+      </c>
+      <c r="AB16">
+        <v>53</v>
+      </c>
+      <c r="AC16">
+        <v>50</v>
+      </c>
+      <c r="AD16">
+        <v>56</v>
+      </c>
+      <c r="AE16">
+        <v>56</v>
+      </c>
+      <c r="AF16">
+        <v>38</v>
+      </c>
+      <c r="AG16">
+        <v>28</v>
+      </c>
+      <c r="AH16">
+        <v>49</v>
+      </c>
+      <c r="AI16">
+        <v>58</v>
+      </c>
+      <c r="AJ16">
+        <v>58</v>
+      </c>
+      <c r="AK16">
+        <v>41</v>
+      </c>
+      <c r="AL16">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>42582</v>
       </c>
@@ -29375,8 +31168,50 @@
       <c r="W17">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X17">
+        <v>49</v>
+      </c>
+      <c r="Y17">
+        <v>47</v>
+      </c>
+      <c r="Z17">
+        <v>58</v>
+      </c>
+      <c r="AA17">
+        <v>52</v>
+      </c>
+      <c r="AB17">
+        <v>42</v>
+      </c>
+      <c r="AC17">
+        <v>49</v>
+      </c>
+      <c r="AD17">
+        <v>44</v>
+      </c>
+      <c r="AE17">
+        <v>44</v>
+      </c>
+      <c r="AF17">
+        <v>34</v>
+      </c>
+      <c r="AG17">
+        <v>44</v>
+      </c>
+      <c r="AH17">
+        <v>39</v>
+      </c>
+      <c r="AI17">
+        <v>36</v>
+      </c>
+      <c r="AJ17">
+        <v>30</v>
+      </c>
+      <c r="AK17">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>42583</v>
       </c>
@@ -29443,8 +31278,50 @@
       <c r="V18">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W18">
+        <v>46</v>
+      </c>
+      <c r="X18">
+        <v>30</v>
+      </c>
+      <c r="Y18">
+        <v>52</v>
+      </c>
+      <c r="Z18">
+        <v>53</v>
+      </c>
+      <c r="AA18">
+        <v>40</v>
+      </c>
+      <c r="AB18">
+        <v>50</v>
+      </c>
+      <c r="AC18">
+        <v>38</v>
+      </c>
+      <c r="AD18">
+        <v>25</v>
+      </c>
+      <c r="AE18">
+        <v>27</v>
+      </c>
+      <c r="AF18">
+        <v>35</v>
+      </c>
+      <c r="AG18">
+        <v>40</v>
+      </c>
+      <c r="AH18">
+        <v>31</v>
+      </c>
+      <c r="AI18">
+        <v>39</v>
+      </c>
+      <c r="AJ18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>42584</v>
       </c>
@@ -29508,8 +31385,50 @@
       <c r="U19">
         <v>73</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="V19">
+        <v>53</v>
+      </c>
+      <c r="W19">
+        <v>52</v>
+      </c>
+      <c r="X19">
+        <v>68</v>
+      </c>
+      <c r="Y19">
+        <v>70</v>
+      </c>
+      <c r="Z19">
+        <v>62</v>
+      </c>
+      <c r="AA19">
+        <v>68</v>
+      </c>
+      <c r="AB19">
+        <v>56</v>
+      </c>
+      <c r="AC19">
+        <v>55</v>
+      </c>
+      <c r="AD19">
+        <v>45</v>
+      </c>
+      <c r="AE19">
+        <v>40</v>
+      </c>
+      <c r="AF19">
+        <v>43</v>
+      </c>
+      <c r="AG19">
+        <v>53</v>
+      </c>
+      <c r="AH19">
+        <v>56</v>
+      </c>
+      <c r="AI19">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>42585</v>
       </c>
@@ -29570,8 +31489,50 @@
       <c r="T20">
         <v>67</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="U20">
+        <v>58</v>
+      </c>
+      <c r="V20">
+        <v>42</v>
+      </c>
+      <c r="W20">
+        <v>68</v>
+      </c>
+      <c r="X20">
+        <v>61</v>
+      </c>
+      <c r="Y20">
+        <v>53</v>
+      </c>
+      <c r="Z20">
+        <v>49</v>
+      </c>
+      <c r="AA20">
+        <v>54</v>
+      </c>
+      <c r="AB20">
+        <v>37</v>
+      </c>
+      <c r="AC20">
+        <v>35</v>
+      </c>
+      <c r="AD20">
+        <v>58</v>
+      </c>
+      <c r="AE20">
+        <v>62</v>
+      </c>
+      <c r="AF20">
+        <v>49</v>
+      </c>
+      <c r="AG20">
+        <v>56</v>
+      </c>
+      <c r="AH20">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>42586</v>
       </c>
@@ -29629,8 +31590,50 @@
       <c r="S21">
         <v>67</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="T21">
+        <v>56</v>
+      </c>
+      <c r="U21">
+        <v>48</v>
+      </c>
+      <c r="V21">
+        <v>70</v>
+      </c>
+      <c r="W21">
+        <v>55</v>
+      </c>
+      <c r="X21">
+        <v>69</v>
+      </c>
+      <c r="Y21">
+        <v>66</v>
+      </c>
+      <c r="Z21">
+        <v>70</v>
+      </c>
+      <c r="AA21">
+        <v>45</v>
+      </c>
+      <c r="AB21">
+        <v>41</v>
+      </c>
+      <c r="AC21">
+        <v>59</v>
+      </c>
+      <c r="AD21">
+        <v>69</v>
+      </c>
+      <c r="AE21">
+        <v>60</v>
+      </c>
+      <c r="AF21">
+        <v>53</v>
+      </c>
+      <c r="AG21">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>42587</v>
       </c>
@@ -29685,8 +31688,50 @@
       <c r="R22">
         <v>74</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="S22">
+        <v>46</v>
+      </c>
+      <c r="T22">
+        <v>33</v>
+      </c>
+      <c r="U22">
+        <v>67</v>
+      </c>
+      <c r="V22">
+        <v>66</v>
+      </c>
+      <c r="W22">
+        <v>59</v>
+      </c>
+      <c r="X22">
+        <v>53</v>
+      </c>
+      <c r="Y22">
+        <v>53</v>
+      </c>
+      <c r="Z22">
+        <v>29</v>
+      </c>
+      <c r="AA22">
+        <v>27</v>
+      </c>
+      <c r="AB22">
+        <v>51</v>
+      </c>
+      <c r="AC22">
+        <v>46</v>
+      </c>
+      <c r="AD22">
+        <v>56</v>
+      </c>
+      <c r="AE22">
+        <v>47</v>
+      </c>
+      <c r="AF22">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>42588</v>
       </c>
@@ -29738,8 +31783,50 @@
       <c r="Q23">
         <v>51</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="R23">
+        <v>3</v>
+      </c>
+      <c r="S23">
+        <v>39</v>
+      </c>
+      <c r="T23">
+        <v>39</v>
+      </c>
+      <c r="U23">
+        <v>39</v>
+      </c>
+      <c r="V23">
+        <v>36</v>
+      </c>
+      <c r="W23">
+        <v>33</v>
+      </c>
+      <c r="X23">
+        <v>36</v>
+      </c>
+      <c r="Y23">
+        <v>35</v>
+      </c>
+      <c r="Z23">
+        <v>30</v>
+      </c>
+      <c r="AA23">
+        <v>28</v>
+      </c>
+      <c r="AB23">
+        <v>37</v>
+      </c>
+      <c r="AC23">
+        <v>27</v>
+      </c>
+      <c r="AD23">
+        <v>29</v>
+      </c>
+      <c r="AE23">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>42589</v>
       </c>
@@ -29788,8 +31875,50 @@
       <c r="P24">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="Q24">
+        <v>27</v>
+      </c>
+      <c r="R24">
+        <v>25</v>
+      </c>
+      <c r="S24">
+        <v>31</v>
+      </c>
+      <c r="T24">
+        <v>31</v>
+      </c>
+      <c r="U24">
+        <v>28</v>
+      </c>
+      <c r="V24">
+        <v>29</v>
+      </c>
+      <c r="W24">
+        <v>34</v>
+      </c>
+      <c r="X24">
+        <v>28</v>
+      </c>
+      <c r="Y24">
+        <v>36</v>
+      </c>
+      <c r="Z24">
+        <v>30</v>
+      </c>
+      <c r="AA24">
+        <v>27</v>
+      </c>
+      <c r="AB24">
+        <v>33</v>
+      </c>
+      <c r="AC24">
+        <v>25</v>
+      </c>
+      <c r="AD24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>42590</v>
       </c>
@@ -29835,8 +31964,50 @@
       <c r="O25">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="P25">
+        <v>26</v>
+      </c>
+      <c r="Q25">
+        <v>21</v>
+      </c>
+      <c r="R25">
+        <v>36</v>
+      </c>
+      <c r="S25">
+        <v>34</v>
+      </c>
+      <c r="T25">
+        <v>35</v>
+      </c>
+      <c r="U25">
+        <v>28</v>
+      </c>
+      <c r="V25">
+        <v>37</v>
+      </c>
+      <c r="W25">
+        <v>21</v>
+      </c>
+      <c r="X25">
+        <v>17</v>
+      </c>
+      <c r="Y25">
+        <v>33</v>
+      </c>
+      <c r="Z25">
+        <v>28</v>
+      </c>
+      <c r="AA25">
+        <v>28</v>
+      </c>
+      <c r="AB25">
+        <v>27</v>
+      </c>
+      <c r="AC25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>42591</v>
       </c>
@@ -29879,8 +32050,50 @@
       <c r="N26">
         <v>58</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="O26">
+        <v>35</v>
+      </c>
+      <c r="P26">
+        <v>23</v>
+      </c>
+      <c r="Q26">
+        <v>40</v>
+      </c>
+      <c r="R26">
+        <v>42</v>
+      </c>
+      <c r="S26">
+        <v>39</v>
+      </c>
+      <c r="T26">
+        <v>43</v>
+      </c>
+      <c r="U26">
+        <v>49</v>
+      </c>
+      <c r="V26">
+        <v>23</v>
+      </c>
+      <c r="W26">
+        <v>21</v>
+      </c>
+      <c r="X26">
+        <v>37</v>
+      </c>
+      <c r="Y26">
+        <v>35</v>
+      </c>
+      <c r="Z26">
+        <v>36</v>
+      </c>
+      <c r="AA26">
+        <v>37</v>
+      </c>
+      <c r="AB26">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>42592</v>
       </c>
@@ -29920,8 +32133,50 @@
       <c r="M27">
         <v>55</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="N27">
+        <v>33</v>
+      </c>
+      <c r="O27">
+        <v>23</v>
+      </c>
+      <c r="P27">
+        <v>42</v>
+      </c>
+      <c r="Q27">
+        <v>54</v>
+      </c>
+      <c r="R27">
+        <v>39</v>
+      </c>
+      <c r="S27">
+        <v>51</v>
+      </c>
+      <c r="T27">
+        <v>39</v>
+      </c>
+      <c r="U27">
+        <v>29</v>
+      </c>
+      <c r="V27">
+        <v>15</v>
+      </c>
+      <c r="W27">
+        <v>38</v>
+      </c>
+      <c r="X27">
+        <v>43</v>
+      </c>
+      <c r="Y27">
+        <v>35</v>
+      </c>
+      <c r="Z27">
+        <v>31</v>
+      </c>
+      <c r="AA27">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>42593</v>
       </c>
@@ -29958,8 +32213,50 @@
       <c r="L28">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="M28">
+        <v>33</v>
+      </c>
+      <c r="N28">
+        <v>33</v>
+      </c>
+      <c r="O28">
+        <v>56</v>
+      </c>
+      <c r="P28">
+        <v>54</v>
+      </c>
+      <c r="Q28">
+        <v>48</v>
+      </c>
+      <c r="R28">
+        <v>48</v>
+      </c>
+      <c r="S28">
+        <v>35</v>
+      </c>
+      <c r="T28">
+        <v>25</v>
+      </c>
+      <c r="U28">
+        <v>24</v>
+      </c>
+      <c r="V28">
+        <v>38</v>
+      </c>
+      <c r="W28">
+        <v>39</v>
+      </c>
+      <c r="X28">
+        <v>40</v>
+      </c>
+      <c r="Y28">
+        <v>41</v>
+      </c>
+      <c r="Z28">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>42594</v>
       </c>
@@ -29993,8 +32290,50 @@
       <c r="K29">
         <v>64</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="L29">
+        <v>56</v>
+      </c>
+      <c r="M29">
+        <v>35</v>
+      </c>
+      <c r="N29">
+        <v>63</v>
+      </c>
+      <c r="O29">
+        <v>69</v>
+      </c>
+      <c r="P29">
+        <v>56</v>
+      </c>
+      <c r="Q29">
+        <v>55</v>
+      </c>
+      <c r="R29">
+        <v>49</v>
+      </c>
+      <c r="S29">
+        <v>40</v>
+      </c>
+      <c r="T29">
+        <v>35</v>
+      </c>
+      <c r="U29">
+        <v>53</v>
+      </c>
+      <c r="V29">
+        <v>53</v>
+      </c>
+      <c r="W29">
+        <v>54</v>
+      </c>
+      <c r="X29">
+        <v>37</v>
+      </c>
+      <c r="Y29">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>42595</v>
       </c>
@@ -30025,8 +32364,50 @@
       <c r="J30">
         <v>63</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="K30">
+        <v>59</v>
+      </c>
+      <c r="L30">
+        <v>59</v>
+      </c>
+      <c r="M30">
+        <v>58</v>
+      </c>
+      <c r="N30">
+        <v>59</v>
+      </c>
+      <c r="O30">
+        <v>41</v>
+      </c>
+      <c r="P30">
+        <v>52</v>
+      </c>
+      <c r="Q30">
+        <v>49</v>
+      </c>
+      <c r="R30">
+        <v>41</v>
+      </c>
+      <c r="S30">
+        <v>38</v>
+      </c>
+      <c r="T30">
+        <v>47</v>
+      </c>
+      <c r="U30">
+        <v>44</v>
+      </c>
+      <c r="V30">
+        <v>43</v>
+      </c>
+      <c r="W30">
+        <v>41</v>
+      </c>
+      <c r="X30">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>42596</v>
       </c>
@@ -30054,8 +32435,50 @@
       <c r="I31">
         <v>92</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="J31">
+        <v>65</v>
+      </c>
+      <c r="K31">
+        <v>53</v>
+      </c>
+      <c r="L31">
+        <v>41</v>
+      </c>
+      <c r="M31">
+        <v>60</v>
+      </c>
+      <c r="N31">
+        <v>42</v>
+      </c>
+      <c r="O31">
+        <v>48</v>
+      </c>
+      <c r="P31">
+        <v>44</v>
+      </c>
+      <c r="Q31">
+        <v>39</v>
+      </c>
+      <c r="R31">
+        <v>42</v>
+      </c>
+      <c r="S31">
+        <v>48</v>
+      </c>
+      <c r="T31">
+        <v>42</v>
+      </c>
+      <c r="U31">
+        <v>46</v>
+      </c>
+      <c r="V31">
+        <v>32</v>
+      </c>
+      <c r="W31">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>42597</v>
       </c>
@@ -30080,8 +32503,50 @@
       <c r="H32">
         <v>79</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I32">
+        <v>55</v>
+      </c>
+      <c r="J32">
+        <v>41</v>
+      </c>
+      <c r="K32">
+        <v>75</v>
+      </c>
+      <c r="L32">
+        <v>59</v>
+      </c>
+      <c r="M32">
+        <v>63</v>
+      </c>
+      <c r="N32">
+        <v>44</v>
+      </c>
+      <c r="O32">
+        <v>44</v>
+      </c>
+      <c r="P32">
+        <v>25</v>
+      </c>
+      <c r="Q32">
+        <v>31</v>
+      </c>
+      <c r="R32">
+        <v>39</v>
+      </c>
+      <c r="S32">
+        <v>41</v>
+      </c>
+      <c r="T32">
+        <v>40</v>
+      </c>
+      <c r="U32">
+        <v>38</v>
+      </c>
+      <c r="V32">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>42598</v>
       </c>
@@ -30103,8 +32568,50 @@
       <c r="G33">
         <v>88</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H33">
+        <v>50</v>
+      </c>
+      <c r="I33">
+        <v>42</v>
+      </c>
+      <c r="J33">
+        <v>63</v>
+      </c>
+      <c r="K33">
+        <v>54</v>
+      </c>
+      <c r="L33">
+        <v>59</v>
+      </c>
+      <c r="M33">
+        <v>56</v>
+      </c>
+      <c r="N33">
+        <v>47</v>
+      </c>
+      <c r="O33">
+        <v>27</v>
+      </c>
+      <c r="P33">
+        <v>29</v>
+      </c>
+      <c r="Q33">
+        <v>55</v>
+      </c>
+      <c r="R33">
+        <v>40</v>
+      </c>
+      <c r="S33">
+        <v>40</v>
+      </c>
+      <c r="T33">
+        <v>46</v>
+      </c>
+      <c r="U33">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>42599</v>
       </c>
@@ -30123,8 +32630,50 @@
       <c r="F34">
         <v>103</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G34">
+        <v>61</v>
+      </c>
+      <c r="H34">
+        <v>44</v>
+      </c>
+      <c r="I34">
+        <v>88</v>
+      </c>
+      <c r="J34">
+        <v>61</v>
+      </c>
+      <c r="K34">
+        <v>69</v>
+      </c>
+      <c r="L34">
+        <v>55</v>
+      </c>
+      <c r="M34">
+        <v>54</v>
+      </c>
+      <c r="N34">
+        <v>25</v>
+      </c>
+      <c r="O34">
+        <v>28</v>
+      </c>
+      <c r="P34">
+        <v>53</v>
+      </c>
+      <c r="Q34">
+        <v>46</v>
+      </c>
+      <c r="R34">
+        <v>49</v>
+      </c>
+      <c r="S34">
+        <v>47</v>
+      </c>
+      <c r="T34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>42600</v>
       </c>
@@ -30140,8 +32689,50 @@
       <c r="E35">
         <v>185</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F35">
+        <v>91</v>
+      </c>
+      <c r="G35">
+        <v>68</v>
+      </c>
+      <c r="H35">
+        <v>87</v>
+      </c>
+      <c r="I35">
+        <v>88</v>
+      </c>
+      <c r="J35">
+        <v>83</v>
+      </c>
+      <c r="K35">
+        <v>88</v>
+      </c>
+      <c r="L35">
+        <v>59</v>
+      </c>
+      <c r="M35">
+        <v>45</v>
+      </c>
+      <c r="N35">
+        <v>35</v>
+      </c>
+      <c r="O35">
+        <v>52</v>
+      </c>
+      <c r="P35">
+        <v>56</v>
+      </c>
+      <c r="Q35">
+        <v>65</v>
+      </c>
+      <c r="R35">
+        <v>45</v>
+      </c>
+      <c r="S35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>42601</v>
       </c>
@@ -30154,55 +32745,546 @@
       <c r="D36">
         <v>500</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E36">
+        <v>133</v>
+      </c>
+      <c r="F36">
+        <v>82</v>
+      </c>
+      <c r="G36">
+        <v>102</v>
+      </c>
+      <c r="H36">
+        <v>97</v>
+      </c>
+      <c r="I36">
+        <v>74</v>
+      </c>
+      <c r="J36">
+        <v>73</v>
+      </c>
+      <c r="K36">
+        <v>63</v>
+      </c>
+      <c r="L36">
+        <v>49</v>
+      </c>
+      <c r="M36">
+        <v>32</v>
+      </c>
+      <c r="N36">
+        <v>59</v>
+      </c>
+      <c r="O36">
+        <v>53</v>
+      </c>
+      <c r="P36">
+        <v>44</v>
+      </c>
+      <c r="Q36">
+        <v>45</v>
+      </c>
+      <c r="R36">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>42602</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B37">
+        <v>2022</v>
+      </c>
+      <c r="C37">
+        <v>2426</v>
+      </c>
+      <c r="D37">
+        <v>514</v>
+      </c>
+      <c r="E37">
+        <v>156</v>
+      </c>
+      <c r="F37">
+        <v>114</v>
+      </c>
+      <c r="G37">
+        <v>94</v>
+      </c>
+      <c r="H37">
+        <v>77</v>
+      </c>
+      <c r="I37">
+        <v>57</v>
+      </c>
+      <c r="J37">
+        <v>54</v>
+      </c>
+      <c r="K37">
+        <v>53</v>
+      </c>
+      <c r="L37">
+        <v>50</v>
+      </c>
+      <c r="M37">
+        <v>45</v>
+      </c>
+      <c r="N37">
+        <v>50</v>
+      </c>
+      <c r="O37">
+        <v>38</v>
+      </c>
+      <c r="P37">
+        <v>28</v>
+      </c>
+      <c r="Q37">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>42603</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B38">
+        <v>1854</v>
+      </c>
+      <c r="C38">
+        <v>2186</v>
+      </c>
+      <c r="D38">
+        <v>497</v>
+      </c>
+      <c r="E38">
+        <v>132</v>
+      </c>
+      <c r="F38">
+        <v>82</v>
+      </c>
+      <c r="G38">
+        <v>57</v>
+      </c>
+      <c r="H38">
+        <v>46</v>
+      </c>
+      <c r="I38">
+        <v>37</v>
+      </c>
+      <c r="J38">
+        <v>42</v>
+      </c>
+      <c r="K38">
+        <v>40</v>
+      </c>
+      <c r="L38">
+        <v>40</v>
+      </c>
+      <c r="M38">
+        <v>44</v>
+      </c>
+      <c r="N38">
+        <v>32</v>
+      </c>
+      <c r="O38">
+        <v>42</v>
+      </c>
+      <c r="P38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>42604</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B39">
+        <v>2487</v>
+      </c>
+      <c r="C39">
+        <v>2178</v>
+      </c>
+      <c r="D39">
+        <v>469</v>
+      </c>
+      <c r="E39">
+        <v>186</v>
+      </c>
+      <c r="F39">
+        <v>111</v>
+      </c>
+      <c r="G39">
+        <v>105</v>
+      </c>
+      <c r="H39">
+        <v>78</v>
+      </c>
+      <c r="I39">
+        <v>52</v>
+      </c>
+      <c r="J39">
+        <v>48</v>
+      </c>
+      <c r="K39">
+        <v>80</v>
+      </c>
+      <c r="L39">
+        <v>54</v>
+      </c>
+      <c r="M39">
+        <v>55</v>
+      </c>
+      <c r="N39">
+        <v>48</v>
+      </c>
+      <c r="O39">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>42605</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B40">
+        <v>2599</v>
+      </c>
+      <c r="C40">
+        <v>2576</v>
+      </c>
+      <c r="D40">
+        <v>595</v>
+      </c>
+      <c r="E40">
+        <v>182</v>
+      </c>
+      <c r="F40">
+        <v>130</v>
+      </c>
+      <c r="G40">
+        <v>92</v>
+      </c>
+      <c r="H40">
+        <v>70</v>
+      </c>
+      <c r="I40">
+        <v>54</v>
+      </c>
+      <c r="J40">
+        <v>82</v>
+      </c>
+      <c r="K40">
+        <v>79</v>
+      </c>
+      <c r="L40">
+        <v>87</v>
+      </c>
+      <c r="M40">
+        <v>66</v>
+      </c>
+      <c r="N40">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>42606</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B41">
+        <v>2482</v>
+      </c>
+      <c r="C41">
+        <v>2468</v>
+      </c>
+      <c r="D41">
+        <v>533</v>
+      </c>
+      <c r="E41">
+        <v>187</v>
+      </c>
+      <c r="F41">
+        <v>111</v>
+      </c>
+      <c r="G41">
+        <v>70</v>
+      </c>
+      <c r="H41">
+        <v>49</v>
+      </c>
+      <c r="I41">
+        <v>84</v>
+      </c>
+      <c r="J41">
+        <v>88</v>
+      </c>
+      <c r="K41">
+        <v>56</v>
+      </c>
+      <c r="L41">
+        <v>59</v>
+      </c>
+      <c r="M41">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>42607</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B42">
+        <v>2695</v>
+      </c>
+      <c r="C42">
+        <v>2562</v>
+      </c>
+      <c r="D42">
+        <v>608</v>
+      </c>
+      <c r="E42">
+        <v>191</v>
+      </c>
+      <c r="F42">
+        <v>106</v>
+      </c>
+      <c r="G42">
+        <v>75</v>
+      </c>
+      <c r="H42">
+        <v>108</v>
+      </c>
+      <c r="I42">
+        <v>90</v>
+      </c>
+      <c r="J42">
+        <v>83</v>
+      </c>
+      <c r="K42">
+        <v>70</v>
+      </c>
+      <c r="L42">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>42608</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B43">
+        <v>2603</v>
+      </c>
+      <c r="C43">
+        <v>2673</v>
+      </c>
+      <c r="D43">
+        <v>621</v>
+      </c>
+      <c r="E43">
+        <v>156</v>
+      </c>
+      <c r="F43">
+        <v>84</v>
+      </c>
+      <c r="G43">
+        <v>111</v>
+      </c>
+      <c r="H43">
+        <v>106</v>
+      </c>
+      <c r="I43">
+        <v>89</v>
+      </c>
+      <c r="J43">
+        <v>77</v>
+      </c>
+      <c r="K43">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>42609</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B44">
+        <v>2039</v>
+      </c>
+      <c r="C44">
+        <v>2416</v>
+      </c>
+      <c r="D44">
+        <v>508</v>
+      </c>
+      <c r="E44">
+        <v>128</v>
+      </c>
+      <c r="F44">
+        <v>104</v>
+      </c>
+      <c r="G44">
+        <v>100</v>
+      </c>
+      <c r="H44">
+        <v>81</v>
+      </c>
+      <c r="I44">
+        <v>56</v>
+      </c>
+      <c r="J44">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>42610</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B45">
+        <v>1902</v>
+      </c>
+      <c r="C45">
+        <v>2314</v>
+      </c>
+      <c r="D45">
+        <v>475</v>
+      </c>
+      <c r="E45">
+        <v>132</v>
+      </c>
+      <c r="F45">
+        <v>93</v>
+      </c>
+      <c r="G45">
+        <v>91</v>
+      </c>
+      <c r="H45">
+        <v>63</v>
+      </c>
+      <c r="I45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>42611</v>
+      </c>
+      <c r="B46">
+        <v>2628</v>
+      </c>
+      <c r="C46">
+        <v>2276</v>
+      </c>
+      <c r="D46">
+        <v>474</v>
+      </c>
+      <c r="E46">
+        <v>175</v>
+      </c>
+      <c r="F46">
+        <v>108</v>
+      </c>
+      <c r="G46">
+        <v>95</v>
+      </c>
+      <c r="H46">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A47" s="2">
+        <v>42612</v>
+      </c>
+      <c r="B47">
+        <v>2744</v>
+      </c>
+      <c r="C47">
+        <v>2569</v>
+      </c>
+      <c r="D47">
+        <v>541</v>
+      </c>
+      <c r="E47">
+        <v>180</v>
+      </c>
+      <c r="F47">
+        <v>110</v>
+      </c>
+      <c r="G47">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A48" s="2">
+        <v>42613</v>
+      </c>
+      <c r="B48">
+        <v>2720</v>
+      </c>
+      <c r="C48">
+        <v>2297</v>
+      </c>
+      <c r="D48">
+        <v>489</v>
+      </c>
+      <c r="E48">
+        <v>155</v>
+      </c>
+      <c r="F48">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="2">
+        <v>42614</v>
+      </c>
+      <c r="B49">
+        <v>2852</v>
+      </c>
+      <c r="C49">
+        <v>3950</v>
+      </c>
+      <c r="D49">
+        <v>765</v>
+      </c>
+      <c r="E49">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="2">
+        <v>42615</v>
+      </c>
+      <c r="B50">
+        <v>3255</v>
+      </c>
+      <c r="C50">
+        <v>5362</v>
+      </c>
+      <c r="D50">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="2">
+        <v>42616</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="2">
+        <v>42617</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="2">
+        <v>42618</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="2">
+        <v>42619</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="2">
+        <v>42620</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="2">
+        <v>42621</v>
       </c>
     </row>
   </sheetData>

--- a/aitushow/code/doc/留存.xlsx
+++ b/aitushow/code/doc/留存.xlsx
@@ -268,11 +268,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208124096"/>
-        <c:axId val="208124672"/>
+        <c:axId val="191871168"/>
+        <c:axId val="191871744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208124096"/>
+        <c:axId val="191871168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -313,12 +313,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208124672"/>
+        <c:crossAx val="191871744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208124672"/>
+        <c:axId val="191871744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -375,7 +375,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208124096"/>
+        <c:crossAx val="191871168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -569,11 +569,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="175530560"/>
-        <c:axId val="175531136"/>
+        <c:axId val="164127296"/>
+        <c:axId val="164127872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="175530560"/>
+        <c:axId val="164127296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -614,12 +614,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175531136"/>
+        <c:crossAx val="164127872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="175531136"/>
+        <c:axId val="164127872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -676,7 +676,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175530560"/>
+        <c:crossAx val="164127296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -870,11 +870,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="175532864"/>
-        <c:axId val="175533440"/>
+        <c:axId val="164129600"/>
+        <c:axId val="164130176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="175532864"/>
+        <c:axId val="164129600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -915,12 +915,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175533440"/>
+        <c:crossAx val="164130176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="175533440"/>
+        <c:axId val="164130176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -977,7 +977,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175532864"/>
+        <c:crossAx val="164129600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1171,11 +1171,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="175535168"/>
-        <c:axId val="175535744"/>
+        <c:axId val="164131904"/>
+        <c:axId val="164132480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="175535168"/>
+        <c:axId val="164131904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1216,12 +1216,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175535744"/>
+        <c:crossAx val="164132480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="175535744"/>
+        <c:axId val="164132480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -1278,7 +1278,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175535168"/>
+        <c:crossAx val="164131904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1472,11 +1472,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="175537472"/>
-        <c:axId val="626909184"/>
+        <c:axId val="164134208"/>
+        <c:axId val="613359616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="175537472"/>
+        <c:axId val="164134208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1517,12 +1517,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626909184"/>
+        <c:crossAx val="613359616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="626909184"/>
+        <c:axId val="613359616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -1579,7 +1579,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175537472"/>
+        <c:crossAx val="164134208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1773,11 +1773,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="626910912"/>
-        <c:axId val="626911488"/>
+        <c:axId val="613361344"/>
+        <c:axId val="613361920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="626910912"/>
+        <c:axId val="613361344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1818,12 +1818,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626911488"/>
+        <c:crossAx val="613361920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="626911488"/>
+        <c:axId val="613361920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -1880,7 +1880,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626910912"/>
+        <c:crossAx val="613361344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2083,11 +2083,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="626913216"/>
-        <c:axId val="626913792"/>
+        <c:axId val="613363648"/>
+        <c:axId val="613364224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="626913216"/>
+        <c:axId val="613363648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2128,12 +2128,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626913792"/>
+        <c:crossAx val="613364224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="626913792"/>
+        <c:axId val="613364224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -2190,7 +2190,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626913216"/>
+        <c:crossAx val="613363648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2206,7 +2206,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2779,8 +2778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="AI3" sqref="AI3:AW17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3123,51 +3122,21 @@
       <c r="AH3" s="5">
         <v>75</v>
       </c>
-      <c r="AI3" s="5">
-        <v>57</v>
-      </c>
-      <c r="AJ3" s="5">
-        <v>46</v>
-      </c>
-      <c r="AK3" s="5">
-        <v>38</v>
-      </c>
-      <c r="AL3" s="5">
-        <v>69</v>
-      </c>
-      <c r="AM3" s="5">
-        <v>67</v>
-      </c>
-      <c r="AN3" s="5">
-        <v>60</v>
-      </c>
-      <c r="AO3" s="5">
-        <v>67</v>
-      </c>
-      <c r="AP3" s="5">
-        <v>68</v>
-      </c>
-      <c r="AQ3" s="5">
-        <v>45</v>
-      </c>
-      <c r="AR3" s="5">
-        <v>30</v>
-      </c>
-      <c r="AS3" s="5">
-        <v>48</v>
-      </c>
-      <c r="AT3" s="5">
-        <v>43</v>
-      </c>
-      <c r="AU3" s="5">
-        <v>49</v>
-      </c>
-      <c r="AV3" s="5">
-        <v>47</v>
-      </c>
-      <c r="AW3" s="5">
-        <v>53</v>
-      </c>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="5"/>
+      <c r="AU3" s="5"/>
+      <c r="AV3" s="5"/>
+      <c r="AW3" s="5"/>
       <c r="AX3" s="5"/>
       <c r="AY3" s="5"/>
       <c r="AZ3" s="5"/>
@@ -3322,48 +3291,20 @@
       <c r="AH4" s="5">
         <v>59</v>
       </c>
-      <c r="AI4" s="5">
-        <v>40</v>
-      </c>
-      <c r="AJ4" s="5">
-        <v>35</v>
-      </c>
-      <c r="AK4" s="5">
-        <v>61</v>
-      </c>
-      <c r="AL4" s="5">
-        <v>53</v>
-      </c>
-      <c r="AM4" s="5">
-        <v>48</v>
-      </c>
-      <c r="AN4" s="5">
-        <v>60</v>
-      </c>
-      <c r="AO4" s="5">
-        <v>40</v>
-      </c>
-      <c r="AP4" s="5">
-        <v>25</v>
-      </c>
-      <c r="AQ4" s="5">
-        <v>33</v>
-      </c>
-      <c r="AR4" s="5">
-        <v>41</v>
-      </c>
-      <c r="AS4" s="5">
-        <v>41</v>
-      </c>
-      <c r="AT4" s="5">
-        <v>35</v>
-      </c>
-      <c r="AU4" s="5">
-        <v>33</v>
-      </c>
-      <c r="AV4" s="5">
-        <v>41</v>
-      </c>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5"/>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="5"/>
+      <c r="AU4" s="5"/>
+      <c r="AV4" s="5"/>
       <c r="AW4" s="5"/>
       <c r="AX4" s="5"/>
       <c r="AY4" s="5"/>
@@ -3518,45 +3459,19 @@
       <c r="AH5" s="5">
         <v>38</v>
       </c>
-      <c r="AI5" s="5">
-        <v>35</v>
-      </c>
-      <c r="AJ5" s="5">
-        <v>43</v>
-      </c>
-      <c r="AK5" s="5">
-        <v>56</v>
-      </c>
-      <c r="AL5" s="5">
-        <v>47</v>
-      </c>
-      <c r="AM5" s="5">
-        <v>33</v>
-      </c>
-      <c r="AN5" s="5">
-        <v>34</v>
-      </c>
-      <c r="AO5" s="5">
-        <v>29</v>
-      </c>
-      <c r="AP5" s="5">
-        <v>26</v>
-      </c>
-      <c r="AQ5" s="5">
-        <v>40</v>
-      </c>
-      <c r="AR5" s="5">
-        <v>35</v>
-      </c>
-      <c r="AS5" s="5">
-        <v>39</v>
-      </c>
-      <c r="AT5" s="5">
-        <v>35</v>
-      </c>
-      <c r="AU5" s="5">
-        <v>31</v>
-      </c>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="5"/>
+      <c r="AR5" s="5"/>
+      <c r="AS5" s="5"/>
+      <c r="AT5" s="5"/>
+      <c r="AU5" s="5"/>
       <c r="AV5" s="5"/>
       <c r="AW5" s="5"/>
       <c r="AX5" s="5"/>
@@ -3711,42 +3626,18 @@
       <c r="AH6" s="5">
         <v>35</v>
       </c>
-      <c r="AI6" s="5">
-        <v>54</v>
-      </c>
-      <c r="AJ6" s="5">
-        <v>59</v>
-      </c>
-      <c r="AK6" s="5">
-        <v>44</v>
-      </c>
-      <c r="AL6" s="5">
-        <v>54</v>
-      </c>
-      <c r="AM6" s="5">
-        <v>46</v>
-      </c>
-      <c r="AN6" s="5">
-        <v>35</v>
-      </c>
-      <c r="AO6" s="5">
-        <v>27</v>
-      </c>
-      <c r="AP6" s="5">
-        <v>45</v>
-      </c>
-      <c r="AQ6" s="5">
-        <v>37</v>
-      </c>
-      <c r="AR6" s="5">
-        <v>52</v>
-      </c>
-      <c r="AS6" s="5">
-        <v>44</v>
-      </c>
-      <c r="AT6" s="5">
-        <v>42</v>
-      </c>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="5"/>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="5"/>
       <c r="AU6" s="5"/>
       <c r="AV6" s="5"/>
       <c r="AW6" s="5"/>
@@ -3901,39 +3792,17 @@
       <c r="AH7" s="5">
         <v>57</v>
       </c>
-      <c r="AI7" s="5">
-        <v>52</v>
-      </c>
-      <c r="AJ7" s="5">
-        <v>53</v>
-      </c>
-      <c r="AK7" s="5">
-        <v>66</v>
-      </c>
-      <c r="AL7" s="5">
-        <v>53</v>
-      </c>
-      <c r="AM7" s="5">
-        <v>47</v>
-      </c>
-      <c r="AN7" s="5">
-        <v>43</v>
-      </c>
-      <c r="AO7" s="5">
-        <v>57</v>
-      </c>
-      <c r="AP7" s="5">
-        <v>51</v>
-      </c>
-      <c r="AQ7" s="5">
-        <v>47</v>
-      </c>
-      <c r="AR7" s="5">
-        <v>39</v>
-      </c>
-      <c r="AS7" s="5">
-        <v>45</v>
-      </c>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="5"/>
+      <c r="AS7" s="5"/>
       <c r="AT7" s="5"/>
       <c r="AU7" s="5"/>
       <c r="AV7" s="5"/>
@@ -4088,36 +3957,16 @@
       <c r="AH8" s="5">
         <v>55</v>
       </c>
-      <c r="AI8" s="5">
-        <v>44</v>
-      </c>
-      <c r="AJ8" s="5">
-        <v>55</v>
-      </c>
-      <c r="AK8" s="5">
-        <v>43</v>
-      </c>
-      <c r="AL8" s="5">
-        <v>43</v>
-      </c>
-      <c r="AM8" s="5">
-        <v>41</v>
-      </c>
-      <c r="AN8" s="5">
-        <v>45</v>
-      </c>
-      <c r="AO8" s="5">
-        <v>39</v>
-      </c>
-      <c r="AP8" s="5">
-        <v>50</v>
-      </c>
-      <c r="AQ8" s="5">
-        <v>39</v>
-      </c>
-      <c r="AR8" s="5">
-        <v>39</v>
-      </c>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
+      <c r="AQ8" s="5"/>
+      <c r="AR8" s="5"/>
       <c r="AS8" s="5"/>
       <c r="AT8" s="5"/>
       <c r="AU8" s="5"/>
@@ -4272,33 +4121,15 @@
       <c r="AH9" s="5">
         <v>68</v>
       </c>
-      <c r="AI9" s="5">
-        <v>49</v>
-      </c>
-      <c r="AJ9" s="5">
-        <v>58</v>
-      </c>
-      <c r="AK9" s="5">
-        <v>40</v>
-      </c>
-      <c r="AL9" s="5">
-        <v>36</v>
-      </c>
-      <c r="AM9" s="5">
-        <v>54</v>
-      </c>
-      <c r="AN9" s="5">
-        <v>52</v>
-      </c>
-      <c r="AO9" s="5">
-        <v>51</v>
-      </c>
-      <c r="AP9" s="5">
-        <v>53</v>
-      </c>
-      <c r="AQ9" s="5">
-        <v>49</v>
-      </c>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5"/>
+      <c r="AQ9" s="5"/>
       <c r="AR9" s="5"/>
       <c r="AS9" s="5"/>
       <c r="AT9" s="5"/>
@@ -4453,30 +4284,14 @@
       <c r="AH10" s="5">
         <v>73</v>
       </c>
-      <c r="AI10" s="5">
-        <v>67</v>
-      </c>
-      <c r="AJ10" s="5">
-        <v>42</v>
-      </c>
-      <c r="AK10" s="5">
-        <v>35</v>
-      </c>
-      <c r="AL10" s="5">
-        <v>45</v>
-      </c>
-      <c r="AM10" s="5">
-        <v>50</v>
-      </c>
-      <c r="AN10" s="5">
-        <v>51</v>
-      </c>
-      <c r="AO10" s="5">
-        <v>48</v>
-      </c>
-      <c r="AP10" s="5">
-        <v>50</v>
-      </c>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="5"/>
       <c r="AQ10" s="5"/>
       <c r="AR10" s="5"/>
       <c r="AS10" s="5"/>
@@ -4631,27 +4446,13 @@
       <c r="AH11" s="5">
         <v>60</v>
       </c>
-      <c r="AI11" s="5">
-        <v>31</v>
-      </c>
-      <c r="AJ11" s="5">
-        <v>32</v>
-      </c>
-      <c r="AK11" s="5">
-        <v>53</v>
-      </c>
-      <c r="AL11" s="5">
-        <v>59</v>
-      </c>
-      <c r="AM11" s="5">
-        <v>51</v>
-      </c>
-      <c r="AN11" s="5">
-        <v>42</v>
-      </c>
-      <c r="AO11" s="5">
-        <v>48</v>
-      </c>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
       <c r="AP11" s="5"/>
       <c r="AQ11" s="5"/>
       <c r="AR11" s="5"/>
@@ -4806,24 +4607,12 @@
       <c r="AH12" s="5">
         <v>34</v>
       </c>
-      <c r="AI12" s="5">
-        <v>36</v>
-      </c>
-      <c r="AJ12" s="5">
-        <v>55</v>
-      </c>
-      <c r="AK12" s="5">
-        <v>43</v>
-      </c>
-      <c r="AL12" s="5">
-        <v>44</v>
-      </c>
-      <c r="AM12" s="5">
-        <v>44</v>
-      </c>
-      <c r="AN12" s="5">
-        <v>52</v>
-      </c>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
       <c r="AO12" s="5"/>
       <c r="AP12" s="5"/>
       <c r="AQ12" s="5"/>
@@ -4978,21 +4767,11 @@
       <c r="AH13" s="5">
         <v>28</v>
       </c>
-      <c r="AI13" s="5">
-        <v>50</v>
-      </c>
-      <c r="AJ13" s="5">
-        <v>52</v>
-      </c>
-      <c r="AK13" s="5">
-        <v>47</v>
-      </c>
-      <c r="AL13" s="5">
-        <v>47</v>
-      </c>
-      <c r="AM13" s="5">
-        <v>32</v>
-      </c>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
       <c r="AN13" s="5"/>
       <c r="AO13" s="5"/>
       <c r="AP13" s="5"/>
@@ -5147,18 +4926,10 @@
       <c r="AH14" s="5">
         <v>47</v>
       </c>
-      <c r="AI14" s="5">
-        <v>47</v>
-      </c>
-      <c r="AJ14" s="5">
-        <v>54</v>
-      </c>
-      <c r="AK14" s="5">
-        <v>60</v>
-      </c>
-      <c r="AL14" s="5">
-        <v>54</v>
-      </c>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
       <c r="AM14" s="5"/>
       <c r="AN14" s="5"/>
       <c r="AO14" s="5"/>
@@ -5313,15 +5084,9 @@
       <c r="AH15" s="5">
         <v>45</v>
       </c>
-      <c r="AI15" s="5">
-        <v>48</v>
-      </c>
-      <c r="AJ15" s="5">
-        <v>60</v>
-      </c>
-      <c r="AK15" s="5">
-        <v>51</v>
-      </c>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
       <c r="AL15" s="5"/>
       <c r="AM15" s="5"/>
       <c r="AN15" s="5"/>
@@ -5476,12 +5241,8 @@
       <c r="AH16" s="5">
         <v>62</v>
       </c>
-      <c r="AI16" s="5">
-        <v>70</v>
-      </c>
-      <c r="AJ16" s="5">
-        <v>49</v>
-      </c>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
       <c r="AK16" s="5"/>
       <c r="AL16" s="5"/>
       <c r="AM16" s="5"/>
@@ -5636,9 +5397,7 @@
       <c r="AH17" s="5">
         <v>54</v>
       </c>
-      <c r="AI17" s="5">
-        <v>51</v>
-      </c>
+      <c r="AI17" s="5"/>
       <c r="AJ17" s="5"/>
       <c r="AK17" s="5"/>
       <c r="AL17" s="5"/>
@@ -5944,7 +5703,9 @@
       <c r="AG19" s="5">
         <v>58</v>
       </c>
-      <c r="AH19" s="5"/>
+      <c r="AH19" s="5">
+        <v>50</v>
+      </c>
       <c r="AI19" s="5"/>
       <c r="AJ19" s="5"/>
       <c r="AK19" s="5"/>
@@ -6092,8 +5853,12 @@
       <c r="AF20" s="5">
         <v>75</v>
       </c>
-      <c r="AG20" s="5"/>
-      <c r="AH20" s="5"/>
+      <c r="AG20" s="5">
+        <v>60</v>
+      </c>
+      <c r="AH20" s="5">
+        <v>51</v>
+      </c>
       <c r="AI20" s="5"/>
       <c r="AJ20" s="5"/>
       <c r="AK20" s="5"/>
@@ -6237,9 +6002,15 @@
       <c r="AE21" s="5">
         <v>45</v>
       </c>
-      <c r="AF21" s="5"/>
-      <c r="AG21" s="5"/>
-      <c r="AH21" s="5"/>
+      <c r="AF21" s="5">
+        <v>35</v>
+      </c>
+      <c r="AG21" s="5">
+        <v>27</v>
+      </c>
+      <c r="AH21" s="5">
+        <v>30</v>
+      </c>
       <c r="AI21" s="5"/>
       <c r="AJ21" s="5"/>
       <c r="AK21" s="5"/>
@@ -6379,10 +6150,18 @@
       <c r="AD22" s="5">
         <v>40</v>
       </c>
-      <c r="AE22" s="5"/>
-      <c r="AF22" s="5"/>
-      <c r="AG22" s="5"/>
-      <c r="AH22" s="5"/>
+      <c r="AE22" s="5">
+        <v>30</v>
+      </c>
+      <c r="AF22" s="5">
+        <v>35</v>
+      </c>
+      <c r="AG22" s="5">
+        <v>54</v>
+      </c>
+      <c r="AH22" s="5">
+        <v>61</v>
+      </c>
       <c r="AI22" s="5"/>
       <c r="AJ22" s="5"/>
       <c r="AK22" s="5"/>
@@ -6518,11 +6297,21 @@
       <c r="AC23" s="5">
         <v>44</v>
       </c>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="5"/>
-      <c r="AG23" s="5"/>
-      <c r="AH23" s="5"/>
+      <c r="AD23" s="5">
+        <v>37</v>
+      </c>
+      <c r="AE23" s="5">
+        <v>39</v>
+      </c>
+      <c r="AF23" s="5">
+        <v>55</v>
+      </c>
+      <c r="AG23" s="5">
+        <v>61</v>
+      </c>
+      <c r="AH23" s="5">
+        <v>58</v>
+      </c>
       <c r="AI23" s="5"/>
       <c r="AJ23" s="5"/>
       <c r="AK23" s="5"/>
@@ -6672,51 +6461,21 @@
       <c r="AH24" s="5">
         <v>57</v>
       </c>
-      <c r="AI24" s="5">
-        <v>44</v>
-      </c>
-      <c r="AJ24" s="5">
-        <v>38</v>
-      </c>
-      <c r="AK24" s="5">
-        <v>27</v>
-      </c>
-      <c r="AL24" s="5">
-        <v>49</v>
-      </c>
-      <c r="AM24" s="5">
-        <v>42</v>
-      </c>
-      <c r="AN24" s="5">
-        <v>41</v>
-      </c>
-      <c r="AO24" s="5">
-        <v>55</v>
-      </c>
-      <c r="AP24" s="5">
-        <v>49</v>
-      </c>
-      <c r="AQ24" s="5">
-        <v>31</v>
-      </c>
-      <c r="AR24" s="5">
-        <v>32</v>
-      </c>
-      <c r="AS24" s="5">
-        <v>43</v>
-      </c>
-      <c r="AT24" s="5">
-        <v>41</v>
-      </c>
-      <c r="AU24" s="5">
-        <v>29</v>
-      </c>
-      <c r="AV24" s="5">
-        <v>36</v>
-      </c>
-      <c r="AW24" s="5">
-        <v>44</v>
-      </c>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="5"/>
+      <c r="AP24" s="5"/>
+      <c r="AQ24" s="5"/>
+      <c r="AR24" s="5"/>
+      <c r="AS24" s="5"/>
+      <c r="AT24" s="5"/>
+      <c r="AU24" s="5"/>
+      <c r="AV24" s="5"/>
+      <c r="AW24" s="5"/>
       <c r="AX24" s="5"/>
       <c r="AY24" s="5"/>
       <c r="AZ24" s="5"/>
@@ -6850,48 +6609,20 @@
       <c r="AH25" s="5">
         <v>51</v>
       </c>
-      <c r="AI25" s="5">
-        <v>29</v>
-      </c>
-      <c r="AJ25" s="5">
-        <v>40</v>
-      </c>
-      <c r="AK25" s="5">
-        <v>45</v>
-      </c>
-      <c r="AL25" s="5">
-        <v>55</v>
-      </c>
-      <c r="AM25" s="5">
-        <v>47</v>
-      </c>
-      <c r="AN25" s="5">
-        <v>39</v>
-      </c>
-      <c r="AO25" s="5">
-        <v>55</v>
-      </c>
-      <c r="AP25" s="5">
-        <v>34</v>
-      </c>
-      <c r="AQ25" s="5">
-        <v>37</v>
-      </c>
-      <c r="AR25" s="5">
-        <v>45</v>
-      </c>
-      <c r="AS25" s="5">
-        <v>36</v>
-      </c>
-      <c r="AT25" s="5">
-        <v>42</v>
-      </c>
-      <c r="AU25" s="5">
-        <v>56</v>
-      </c>
-      <c r="AV25" s="5">
-        <v>38</v>
-      </c>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+      <c r="AN25" s="5"/>
+      <c r="AO25" s="5"/>
+      <c r="AP25" s="5"/>
+      <c r="AQ25" s="5"/>
+      <c r="AR25" s="5"/>
+      <c r="AS25" s="5"/>
+      <c r="AT25" s="5"/>
+      <c r="AU25" s="5"/>
+      <c r="AV25" s="5"/>
       <c r="AW25" s="5"/>
       <c r="AX25" s="5"/>
       <c r="AY25" s="5"/>
@@ -7025,45 +6756,19 @@
       <c r="AH26" s="5">
         <v>32</v>
       </c>
-      <c r="AI26" s="5">
-        <v>39</v>
-      </c>
-      <c r="AJ26" s="5">
-        <v>48</v>
-      </c>
-      <c r="AK26" s="5">
-        <v>52</v>
-      </c>
-      <c r="AL26" s="5">
-        <v>41</v>
-      </c>
-      <c r="AM26" s="5">
-        <v>53</v>
-      </c>
-      <c r="AN26" s="5">
-        <v>36</v>
-      </c>
-      <c r="AO26" s="5">
-        <v>29</v>
-      </c>
-      <c r="AP26" s="5">
-        <v>23</v>
-      </c>
-      <c r="AQ26" s="5">
-        <v>40</v>
-      </c>
-      <c r="AR26" s="5">
-        <v>36</v>
-      </c>
-      <c r="AS26" s="5">
-        <v>38</v>
-      </c>
-      <c r="AT26" s="5">
-        <v>33</v>
-      </c>
-      <c r="AU26" s="5">
-        <v>33</v>
-      </c>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5"/>
+      <c r="AN26" s="5"/>
+      <c r="AO26" s="5"/>
+      <c r="AP26" s="5"/>
+      <c r="AQ26" s="5"/>
+      <c r="AR26" s="5"/>
+      <c r="AS26" s="5"/>
+      <c r="AT26" s="5"/>
+      <c r="AU26" s="5"/>
       <c r="AV26" s="5"/>
       <c r="AW26" s="5"/>
       <c r="AX26" s="5"/>
@@ -7197,42 +6902,18 @@
       <c r="AH27" s="5">
         <v>33</v>
       </c>
-      <c r="AI27" s="5">
-        <v>55</v>
-      </c>
-      <c r="AJ27" s="5">
-        <v>43</v>
-      </c>
-      <c r="AK27" s="5">
-        <v>49</v>
-      </c>
-      <c r="AL27" s="5">
-        <v>41</v>
-      </c>
-      <c r="AM27" s="5">
-        <v>36</v>
-      </c>
-      <c r="AN27" s="5">
-        <v>20</v>
-      </c>
-      <c r="AO27" s="5">
-        <v>21</v>
-      </c>
-      <c r="AP27" s="5">
-        <v>40</v>
-      </c>
-      <c r="AQ27" s="5">
-        <v>34</v>
-      </c>
-      <c r="AR27" s="5">
-        <v>40</v>
-      </c>
-      <c r="AS27" s="5">
-        <v>40</v>
-      </c>
-      <c r="AT27" s="5">
-        <v>32</v>
-      </c>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="5"/>
+      <c r="AN27" s="5"/>
+      <c r="AO27" s="5"/>
+      <c r="AP27" s="5"/>
+      <c r="AQ27" s="5"/>
+      <c r="AR27" s="5"/>
+      <c r="AS27" s="5"/>
+      <c r="AT27" s="5"/>
       <c r="AU27" s="5"/>
       <c r="AV27" s="5"/>
       <c r="AW27" s="5"/>
@@ -7366,39 +7047,17 @@
       <c r="AH28" s="5">
         <v>47</v>
       </c>
-      <c r="AI28" s="5">
-        <v>41</v>
-      </c>
-      <c r="AJ28" s="5">
-        <v>47</v>
-      </c>
-      <c r="AK28" s="5">
-        <v>34</v>
-      </c>
-      <c r="AL28" s="5">
-        <v>49</v>
-      </c>
-      <c r="AM28" s="5">
-        <v>35</v>
-      </c>
-      <c r="AN28" s="5">
-        <v>31</v>
-      </c>
-      <c r="AO28" s="5">
-        <v>43</v>
-      </c>
-      <c r="AP28" s="5">
-        <v>46</v>
-      </c>
-      <c r="AQ28" s="5">
-        <v>41</v>
-      </c>
-      <c r="AR28" s="5">
-        <v>40</v>
-      </c>
-      <c r="AS28" s="5">
-        <v>31</v>
-      </c>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5"/>
+      <c r="AO28" s="5"/>
+      <c r="AP28" s="5"/>
+      <c r="AQ28" s="5"/>
+      <c r="AR28" s="5"/>
+      <c r="AS28" s="5"/>
       <c r="AT28" s="5"/>
       <c r="AU28" s="5"/>
       <c r="AV28" s="5"/>
@@ -7532,36 +7191,16 @@
       <c r="AH29" s="5">
         <v>40</v>
       </c>
-      <c r="AI29" s="5">
-        <v>42</v>
-      </c>
-      <c r="AJ29" s="5">
-        <v>44</v>
-      </c>
-      <c r="AK29" s="5">
-        <v>47</v>
-      </c>
-      <c r="AL29" s="5">
-        <v>45</v>
-      </c>
-      <c r="AM29" s="5">
-        <v>31</v>
-      </c>
-      <c r="AN29" s="5">
-        <v>42</v>
-      </c>
-      <c r="AO29" s="5">
-        <v>49</v>
-      </c>
-      <c r="AP29" s="5">
-        <v>41</v>
-      </c>
-      <c r="AQ29" s="5">
-        <v>38</v>
-      </c>
-      <c r="AR29" s="5">
-        <v>26</v>
-      </c>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5"/>
+      <c r="AN29" s="5"/>
+      <c r="AO29" s="5"/>
+      <c r="AP29" s="5"/>
+      <c r="AQ29" s="5"/>
+      <c r="AR29" s="5"/>
       <c r="AS29" s="5"/>
       <c r="AT29" s="5"/>
       <c r="AU29" s="5"/>
@@ -7695,33 +7334,15 @@
       <c r="AH30" s="5">
         <v>41</v>
       </c>
-      <c r="AI30" s="5">
-        <v>47</v>
-      </c>
-      <c r="AJ30" s="5">
-        <v>40</v>
-      </c>
-      <c r="AK30" s="5">
-        <v>32</v>
-      </c>
-      <c r="AL30" s="5">
-        <v>32</v>
-      </c>
-      <c r="AM30" s="5">
-        <v>42</v>
-      </c>
-      <c r="AN30" s="5">
-        <v>48</v>
-      </c>
-      <c r="AO30" s="5">
-        <v>53</v>
-      </c>
-      <c r="AP30" s="5">
-        <v>44</v>
-      </c>
-      <c r="AQ30" s="5">
-        <v>52</v>
-      </c>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
+      <c r="AM30" s="5"/>
+      <c r="AN30" s="5"/>
+      <c r="AO30" s="5"/>
+      <c r="AP30" s="5"/>
+      <c r="AQ30" s="5"/>
       <c r="AR30" s="5"/>
       <c r="AS30" s="5"/>
       <c r="AT30" s="5"/>
@@ -7855,30 +7476,14 @@
       <c r="AH31" s="5">
         <v>54</v>
       </c>
-      <c r="AI31" s="5">
-        <v>41</v>
-      </c>
-      <c r="AJ31" s="5">
-        <v>32</v>
-      </c>
-      <c r="AK31" s="5">
-        <v>38</v>
-      </c>
-      <c r="AL31" s="5">
-        <v>51</v>
-      </c>
-      <c r="AM31" s="5">
-        <v>40</v>
-      </c>
-      <c r="AN31" s="5">
-        <v>38</v>
-      </c>
-      <c r="AO31" s="5">
-        <v>45</v>
-      </c>
-      <c r="AP31" s="5">
-        <v>33</v>
-      </c>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
+      <c r="AM31" s="5"/>
+      <c r="AN31" s="5"/>
+      <c r="AO31" s="5"/>
+      <c r="AP31" s="5"/>
       <c r="AQ31" s="5"/>
       <c r="AR31" s="5"/>
       <c r="AS31" s="5"/>
@@ -8012,27 +7617,13 @@
       <c r="AH32" s="5">
         <v>46</v>
       </c>
-      <c r="AI32" s="5">
-        <v>29</v>
-      </c>
-      <c r="AJ32" s="5">
-        <v>30</v>
-      </c>
-      <c r="AK32" s="5">
-        <v>36</v>
-      </c>
-      <c r="AL32" s="5">
-        <v>46</v>
-      </c>
-      <c r="AM32" s="5">
-        <v>52</v>
-      </c>
-      <c r="AN32" s="5">
-        <v>51</v>
-      </c>
-      <c r="AO32" s="5">
-        <v>46</v>
-      </c>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
+      <c r="AM32" s="5"/>
+      <c r="AN32" s="5"/>
+      <c r="AO32" s="5"/>
       <c r="AP32" s="5"/>
       <c r="AQ32" s="5"/>
       <c r="AR32" s="5"/>
@@ -8166,24 +7757,12 @@
       <c r="AH33" s="5">
         <v>40</v>
       </c>
-      <c r="AI33" s="5">
-        <v>42</v>
-      </c>
-      <c r="AJ33" s="5">
-        <v>44</v>
-      </c>
-      <c r="AK33" s="5">
-        <v>52</v>
-      </c>
-      <c r="AL33" s="5">
-        <v>54</v>
-      </c>
-      <c r="AM33" s="5">
-        <v>41</v>
-      </c>
-      <c r="AN33" s="5">
-        <v>34</v>
-      </c>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="5"/>
       <c r="AO33" s="5"/>
       <c r="AP33" s="5"/>
       <c r="AQ33" s="5"/>
@@ -8317,21 +7896,11 @@
       <c r="AH34" s="5">
         <v>35</v>
       </c>
-      <c r="AI34" s="5">
-        <v>59</v>
-      </c>
-      <c r="AJ34" s="5">
-        <v>61</v>
-      </c>
-      <c r="AK34" s="5">
-        <v>55</v>
-      </c>
-      <c r="AL34" s="5">
-        <v>45</v>
-      </c>
-      <c r="AM34" s="5">
-        <v>49</v>
-      </c>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
+      <c r="AM34" s="5"/>
       <c r="AN34" s="5"/>
       <c r="AO34" s="5"/>
       <c r="AP34" s="5"/>
@@ -8465,18 +8034,10 @@
       <c r="AH35" s="5">
         <v>51</v>
       </c>
-      <c r="AI35" s="5">
-        <v>60</v>
-      </c>
-      <c r="AJ35" s="5">
-        <v>60</v>
-      </c>
-      <c r="AK35" s="5">
-        <v>43</v>
-      </c>
-      <c r="AL35" s="5">
-        <v>53</v>
-      </c>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5"/>
       <c r="AM35" s="5"/>
       <c r="AN35" s="5"/>
       <c r="AO35" s="5"/>
@@ -8610,15 +8171,9 @@
       <c r="AH36" s="5">
         <v>41</v>
       </c>
-      <c r="AI36" s="5">
-        <v>38</v>
-      </c>
-      <c r="AJ36" s="5">
-        <v>34</v>
-      </c>
-      <c r="AK36" s="5">
-        <v>38</v>
-      </c>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="5"/>
       <c r="AL36" s="5"/>
       <c r="AM36" s="5"/>
       <c r="AN36" s="5"/>
@@ -8752,12 +8307,8 @@
       <c r="AH37" s="5">
         <v>33</v>
       </c>
-      <c r="AI37" s="5">
-        <v>42</v>
-      </c>
-      <c r="AJ37" s="5">
-        <v>35</v>
-      </c>
+      <c r="AI37" s="5"/>
+      <c r="AJ37" s="5"/>
       <c r="AK37" s="5"/>
       <c r="AL37" s="5"/>
       <c r="AM37" s="5"/>
@@ -8891,9 +8442,7 @@
       <c r="AH38" s="5">
         <v>56</v>
       </c>
-      <c r="AI38" s="5">
-        <v>49</v>
-      </c>
+      <c r="AI38" s="5"/>
       <c r="AJ38" s="5"/>
       <c r="AK38" s="5"/>
       <c r="AL38" s="5"/>
@@ -9157,7 +8706,9 @@
       <c r="AG40" s="5">
         <v>53</v>
       </c>
-      <c r="AH40" s="5"/>
+      <c r="AH40" s="5">
+        <v>43</v>
+      </c>
       <c r="AI40" s="5"/>
       <c r="AJ40" s="5"/>
       <c r="AK40" s="5"/>
@@ -9284,8 +8835,12 @@
       <c r="AF41" s="5">
         <v>36</v>
       </c>
-      <c r="AG41" s="5"/>
-      <c r="AH41" s="5"/>
+      <c r="AG41" s="5">
+        <v>26</v>
+      </c>
+      <c r="AH41" s="5">
+        <v>23</v>
+      </c>
       <c r="AI41" s="5"/>
       <c r="AJ41" s="5"/>
       <c r="AK41" s="5"/>
@@ -9408,9 +8963,15 @@
       <c r="AE42" s="10">
         <v>29</v>
       </c>
-      <c r="AF42" s="10"/>
-      <c r="AG42" s="10"/>
-      <c r="AH42" s="10"/>
+      <c r="AF42" s="10">
+        <v>19</v>
+      </c>
+      <c r="AG42" s="10">
+        <v>27</v>
+      </c>
+      <c r="AH42" s="10">
+        <v>30</v>
+      </c>
       <c r="AI42" s="10"/>
       <c r="AJ42" s="10"/>
       <c r="AK42" s="10"/>
@@ -9526,10 +9087,18 @@
       <c r="AD43" s="10">
         <v>25</v>
       </c>
-      <c r="AE43" s="10"/>
-      <c r="AF43" s="10"/>
-      <c r="AG43" s="10"/>
-      <c r="AH43" s="10"/>
+      <c r="AE43" s="10">
+        <v>21</v>
+      </c>
+      <c r="AF43" s="10">
+        <v>25</v>
+      </c>
+      <c r="AG43" s="10">
+        <v>24</v>
+      </c>
+      <c r="AH43" s="10">
+        <v>30</v>
+      </c>
       <c r="AI43" s="10"/>
       <c r="AJ43" s="10"/>
       <c r="AK43" s="10"/>
@@ -9642,11 +9211,21 @@
       <c r="AC44" s="10">
         <v>42</v>
       </c>
-      <c r="AD44" s="10"/>
-      <c r="AE44" s="10"/>
-      <c r="AF44" s="10"/>
-      <c r="AG44" s="10"/>
-      <c r="AH44" s="10"/>
+      <c r="AD44" s="10">
+        <v>18</v>
+      </c>
+      <c r="AE44" s="10">
+        <v>17</v>
+      </c>
+      <c r="AF44" s="10">
+        <v>31</v>
+      </c>
+      <c r="AG44" s="10">
+        <v>42</v>
+      </c>
+      <c r="AH44" s="10">
+        <v>27</v>
+      </c>
       <c r="AI44" s="10"/>
       <c r="AJ44" s="10"/>
       <c r="AK44" s="10"/>
@@ -9756,12 +9335,24 @@
       <c r="AB45" s="10">
         <v>36</v>
       </c>
-      <c r="AC45" s="10"/>
-      <c r="AD45" s="10"/>
-      <c r="AE45" s="10"/>
-      <c r="AF45" s="10"/>
-      <c r="AG45" s="10"/>
-      <c r="AH45" s="10"/>
+      <c r="AC45" s="10">
+        <v>15</v>
+      </c>
+      <c r="AD45" s="10">
+        <v>20</v>
+      </c>
+      <c r="AE45" s="10">
+        <v>28</v>
+      </c>
+      <c r="AF45" s="10">
+        <v>32</v>
+      </c>
+      <c r="AG45" s="10">
+        <v>26</v>
+      </c>
+      <c r="AH45" s="10">
+        <v>20</v>
+      </c>
       <c r="AI45" s="10"/>
       <c r="AJ45" s="10"/>
       <c r="AK45" s="10"/>
@@ -9868,13 +9459,27 @@
       <c r="AA46" s="10">
         <v>34</v>
       </c>
-      <c r="AB46" s="10"/>
-      <c r="AC46" s="10"/>
-      <c r="AD46" s="10"/>
-      <c r="AE46" s="10"/>
-      <c r="AF46" s="10"/>
-      <c r="AG46" s="10"/>
-      <c r="AH46" s="10"/>
+      <c r="AB46" s="10">
+        <v>18</v>
+      </c>
+      <c r="AC46" s="10">
+        <v>27</v>
+      </c>
+      <c r="AD46" s="10">
+        <v>27</v>
+      </c>
+      <c r="AE46" s="10">
+        <v>39</v>
+      </c>
+      <c r="AF46" s="10">
+        <v>33</v>
+      </c>
+      <c r="AG46" s="10">
+        <v>28</v>
+      </c>
+      <c r="AH46" s="10">
+        <v>27</v>
+      </c>
       <c r="AI46" s="10"/>
       <c r="AJ46" s="10"/>
       <c r="AK46" s="10"/>
@@ -9977,13 +9582,27 @@
       <c r="Z47" s="10">
         <v>37</v>
       </c>
-      <c r="AA47" s="10"/>
-      <c r="AB47" s="10"/>
-      <c r="AC47" s="10"/>
-      <c r="AD47" s="10"/>
-      <c r="AE47" s="10"/>
-      <c r="AF47" s="10"/>
-      <c r="AG47" s="10"/>
+      <c r="AA47" s="10">
+        <v>30</v>
+      </c>
+      <c r="AB47" s="10">
+        <v>30</v>
+      </c>
+      <c r="AC47" s="10">
+        <v>34</v>
+      </c>
+      <c r="AD47" s="10">
+        <v>22</v>
+      </c>
+      <c r="AE47" s="10">
+        <v>34</v>
+      </c>
+      <c r="AF47" s="10">
+        <v>30</v>
+      </c>
+      <c r="AG47" s="10">
+        <v>24</v>
+      </c>
       <c r="AH47" s="10"/>
       <c r="AI47" s="10"/>
       <c r="AJ47" s="10"/>
@@ -10083,13 +9702,27 @@
       <c r="Y48" s="10">
         <v>40</v>
       </c>
-      <c r="Z48" s="10"/>
-      <c r="AA48" s="10"/>
-      <c r="AB48" s="10"/>
-      <c r="AC48" s="10"/>
-      <c r="AD48" s="10"/>
-      <c r="AE48" s="10"/>
-      <c r="AF48" s="10"/>
+      <c r="Z48" s="10">
+        <v>31</v>
+      </c>
+      <c r="AA48" s="10">
+        <v>32</v>
+      </c>
+      <c r="AB48" s="10">
+        <v>39</v>
+      </c>
+      <c r="AC48" s="10">
+        <v>44</v>
+      </c>
+      <c r="AD48" s="10">
+        <v>36</v>
+      </c>
+      <c r="AE48" s="10">
+        <v>40</v>
+      </c>
+      <c r="AF48" s="10">
+        <v>34</v>
+      </c>
       <c r="AG48" s="10"/>
       <c r="AH48" s="10"/>
       <c r="AI48" s="10"/>
@@ -10186,13 +9819,27 @@
       <c r="X49" s="10">
         <v>42</v>
       </c>
-      <c r="Y49" s="10"/>
-      <c r="Z49" s="10"/>
-      <c r="AA49" s="10"/>
-      <c r="AB49" s="10"/>
-      <c r="AC49" s="10"/>
-      <c r="AD49" s="10"/>
-      <c r="AE49" s="10"/>
+      <c r="Y49" s="10">
+        <v>35</v>
+      </c>
+      <c r="Z49" s="10">
+        <v>40</v>
+      </c>
+      <c r="AA49" s="10">
+        <v>36</v>
+      </c>
+      <c r="AB49" s="10">
+        <v>49</v>
+      </c>
+      <c r="AC49" s="10">
+        <v>36</v>
+      </c>
+      <c r="AD49" s="10">
+        <v>34</v>
+      </c>
+      <c r="AE49" s="10">
+        <v>34</v>
+      </c>
       <c r="AF49" s="10"/>
       <c r="AG49" s="10"/>
       <c r="AH49" s="10"/>
@@ -10286,13 +9933,27 @@
       <c r="W50" s="10">
         <v>30</v>
       </c>
-      <c r="X50" s="10"/>
-      <c r="Y50" s="10"/>
-      <c r="Z50" s="10"/>
-      <c r="AA50" s="10"/>
-      <c r="AB50" s="10"/>
-      <c r="AC50" s="10"/>
-      <c r="AD50" s="10"/>
+      <c r="X50" s="10">
+        <v>28</v>
+      </c>
+      <c r="Y50" s="10">
+        <v>29</v>
+      </c>
+      <c r="Z50" s="10">
+        <v>29</v>
+      </c>
+      <c r="AA50" s="10">
+        <v>29</v>
+      </c>
+      <c r="AB50" s="10">
+        <v>31</v>
+      </c>
+      <c r="AC50" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD50" s="10">
+        <v>26</v>
+      </c>
       <c r="AE50" s="10"/>
       <c r="AF50" s="10"/>
       <c r="AG50" s="10"/>
@@ -10383,13 +10044,27 @@
       <c r="V51" s="10">
         <v>34</v>
       </c>
-      <c r="W51" s="10"/>
-      <c r="X51" s="10"/>
-      <c r="Y51" s="10"/>
-      <c r="Z51" s="10"/>
-      <c r="AA51" s="10"/>
-      <c r="AB51" s="10"/>
-      <c r="AC51" s="10"/>
+      <c r="W51" s="10">
+        <v>22</v>
+      </c>
+      <c r="X51" s="10">
+        <v>20</v>
+      </c>
+      <c r="Y51" s="10">
+        <v>37</v>
+      </c>
+      <c r="Z51" s="10">
+        <v>29</v>
+      </c>
+      <c r="AA51" s="10">
+        <v>39</v>
+      </c>
+      <c r="AB51" s="10">
+        <v>36</v>
+      </c>
+      <c r="AC51" s="10">
+        <v>32</v>
+      </c>
       <c r="AD51" s="10"/>
       <c r="AE51" s="10"/>
       <c r="AF51" s="10"/>
@@ -10477,13 +10152,27 @@
       <c r="U52" s="10">
         <v>46</v>
       </c>
-      <c r="V52" s="10"/>
-      <c r="W52" s="10"/>
-      <c r="X52" s="10"/>
-      <c r="Y52" s="10"/>
-      <c r="Z52" s="10"/>
-      <c r="AA52" s="10"/>
-      <c r="AB52" s="10"/>
+      <c r="V52" s="10">
+        <v>28</v>
+      </c>
+      <c r="W52" s="10">
+        <v>33</v>
+      </c>
+      <c r="X52" s="10">
+        <v>38</v>
+      </c>
+      <c r="Y52" s="10">
+        <v>41</v>
+      </c>
+      <c r="Z52" s="10">
+        <v>37</v>
+      </c>
+      <c r="AA52" s="10">
+        <v>34</v>
+      </c>
+      <c r="AB52" s="10">
+        <v>36</v>
+      </c>
       <c r="AC52" s="10"/>
       <c r="AD52" s="10"/>
       <c r="AE52" s="10"/>
@@ -10568,13 +10257,27 @@
       <c r="T53" s="10">
         <v>38</v>
       </c>
-      <c r="U53" s="10"/>
-      <c r="V53" s="10"/>
-      <c r="W53" s="10"/>
-      <c r="X53" s="10"/>
-      <c r="Y53" s="10"/>
-      <c r="Z53" s="10"/>
-      <c r="AA53" s="10"/>
+      <c r="U53" s="10">
+        <v>28</v>
+      </c>
+      <c r="V53" s="10">
+        <v>20</v>
+      </c>
+      <c r="W53" s="10">
+        <v>40</v>
+      </c>
+      <c r="X53" s="10">
+        <v>32</v>
+      </c>
+      <c r="Y53" s="10">
+        <v>33</v>
+      </c>
+      <c r="Z53" s="10">
+        <v>26</v>
+      </c>
+      <c r="AA53" s="10">
+        <v>25</v>
+      </c>
       <c r="AB53" s="10"/>
       <c r="AC53" s="10"/>
       <c r="AD53" s="10"/>
@@ -10656,13 +10359,27 @@
       <c r="S54" s="10">
         <v>45</v>
       </c>
-      <c r="T54" s="10"/>
-      <c r="U54" s="10"/>
-      <c r="V54" s="10"/>
-      <c r="W54" s="10"/>
-      <c r="X54" s="10"/>
-      <c r="Y54" s="10"/>
-      <c r="Z54" s="10"/>
+      <c r="T54" s="10">
+        <v>23</v>
+      </c>
+      <c r="U54" s="10">
+        <v>32</v>
+      </c>
+      <c r="V54" s="10">
+        <v>37</v>
+      </c>
+      <c r="W54" s="10">
+        <v>43</v>
+      </c>
+      <c r="X54" s="10">
+        <v>38</v>
+      </c>
+      <c r="Y54" s="10">
+        <v>36</v>
+      </c>
+      <c r="Z54" s="10">
+        <v>39</v>
+      </c>
       <c r="AA54" s="10"/>
       <c r="AB54" s="10"/>
       <c r="AC54" s="10"/>
@@ -10741,13 +10458,27 @@
       <c r="R55" s="10">
         <v>59</v>
       </c>
-      <c r="S55" s="10"/>
-      <c r="T55" s="10"/>
-      <c r="U55" s="10"/>
-      <c r="V55" s="10"/>
-      <c r="W55" s="10"/>
-      <c r="X55" s="10"/>
-      <c r="Y55" s="10"/>
+      <c r="S55" s="10">
+        <v>22</v>
+      </c>
+      <c r="T55" s="10">
+        <v>23</v>
+      </c>
+      <c r="U55" s="10">
+        <v>42</v>
+      </c>
+      <c r="V55" s="10">
+        <v>43</v>
+      </c>
+      <c r="W55" s="10">
+        <v>41</v>
+      </c>
+      <c r="X55" s="10">
+        <v>36</v>
+      </c>
+      <c r="Y55" s="10">
+        <v>39</v>
+      </c>
       <c r="Z55" s="10"/>
       <c r="AA55" s="10"/>
       <c r="AB55" s="10"/>
@@ -10823,13 +10554,27 @@
       <c r="Q56" s="10">
         <v>34</v>
       </c>
-      <c r="R56" s="10"/>
-      <c r="S56" s="10"/>
-      <c r="T56" s="10"/>
-      <c r="U56" s="10"/>
-      <c r="V56" s="10"/>
-      <c r="W56" s="10"/>
-      <c r="X56" s="10"/>
+      <c r="R56" s="10">
+        <v>40</v>
+      </c>
+      <c r="S56" s="10">
+        <v>32</v>
+      </c>
+      <c r="T56" s="10">
+        <v>34</v>
+      </c>
+      <c r="U56" s="10">
+        <v>38</v>
+      </c>
+      <c r="V56" s="10">
+        <v>40</v>
+      </c>
+      <c r="W56" s="10">
+        <v>32</v>
+      </c>
+      <c r="X56" s="10">
+        <v>29</v>
+      </c>
       <c r="Y56" s="10"/>
       <c r="Z56" s="10"/>
       <c r="AA56" s="10"/>
@@ -10902,13 +10647,27 @@
       <c r="P57" s="10">
         <v>39</v>
       </c>
-      <c r="Q57" s="10"/>
-      <c r="R57" s="10"/>
-      <c r="S57" s="10"/>
-      <c r="T57" s="10"/>
-      <c r="U57" s="10"/>
-      <c r="V57" s="10"/>
-      <c r="W57" s="10"/>
+      <c r="Q57" s="10">
+        <v>31</v>
+      </c>
+      <c r="R57" s="10">
+        <v>35</v>
+      </c>
+      <c r="S57" s="10">
+        <v>31</v>
+      </c>
+      <c r="T57" s="10">
+        <v>34</v>
+      </c>
+      <c r="U57" s="10">
+        <v>26</v>
+      </c>
+      <c r="V57" s="10">
+        <v>29</v>
+      </c>
+      <c r="W57" s="10">
+        <v>25</v>
+      </c>
       <c r="X57" s="10"/>
       <c r="Y57" s="10"/>
       <c r="Z57" s="10"/>
@@ -10979,13 +10738,27 @@
       <c r="O58" s="10">
         <v>46</v>
       </c>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
-      <c r="R58" s="10"/>
-      <c r="S58" s="10"/>
-      <c r="T58" s="10"/>
-      <c r="U58" s="10"/>
-      <c r="V58" s="10"/>
+      <c r="P58" s="10">
+        <v>35</v>
+      </c>
+      <c r="Q58" s="10">
+        <v>29</v>
+      </c>
+      <c r="R58" s="10">
+        <v>50</v>
+      </c>
+      <c r="S58" s="10">
+        <v>42</v>
+      </c>
+      <c r="T58" s="10">
+        <v>50</v>
+      </c>
+      <c r="U58" s="10">
+        <v>41</v>
+      </c>
+      <c r="V58" s="10">
+        <v>36</v>
+      </c>
       <c r="W58" s="10"/>
       <c r="X58" s="10"/>
       <c r="Y58" s="10"/>
@@ -11054,13 +10827,27 @@
       <c r="N59" s="10">
         <v>68</v>
       </c>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="10"/>
-      <c r="R59" s="10"/>
-      <c r="S59" s="10"/>
-      <c r="T59" s="10"/>
-      <c r="U59" s="10"/>
+      <c r="O59" s="10">
+        <v>36</v>
+      </c>
+      <c r="P59" s="10">
+        <v>39</v>
+      </c>
+      <c r="Q59" s="10">
+        <v>50</v>
+      </c>
+      <c r="R59" s="10">
+        <v>54</v>
+      </c>
+      <c r="S59" s="10">
+        <v>51</v>
+      </c>
+      <c r="T59" s="10">
+        <v>52</v>
+      </c>
+      <c r="U59" s="10">
+        <v>40</v>
+      </c>
       <c r="V59" s="10"/>
       <c r="W59" s="10"/>
       <c r="X59" s="10"/>
@@ -11127,13 +10914,27 @@
       <c r="M60" s="10">
         <v>56</v>
       </c>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="10"/>
-      <c r="R60" s="10"/>
-      <c r="S60" s="10"/>
-      <c r="T60" s="10"/>
+      <c r="N60" s="10">
+        <v>43</v>
+      </c>
+      <c r="O60" s="10">
+        <v>30</v>
+      </c>
+      <c r="P60" s="10">
+        <v>52</v>
+      </c>
+      <c r="Q60" s="10">
+        <v>45</v>
+      </c>
+      <c r="R60" s="10">
+        <v>40</v>
+      </c>
+      <c r="S60" s="10">
+        <v>46</v>
+      </c>
+      <c r="T60" s="10">
+        <v>49</v>
+      </c>
       <c r="U60" s="10"/>
       <c r="V60" s="10"/>
       <c r="W60" s="10"/>
@@ -11198,13 +10999,27 @@
       <c r="L61" s="10">
         <v>70</v>
       </c>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="10"/>
-      <c r="R61" s="10"/>
-      <c r="S61" s="10"/>
+      <c r="M61" s="10">
+        <v>46</v>
+      </c>
+      <c r="N61" s="10">
+        <v>44</v>
+      </c>
+      <c r="O61" s="10">
+        <v>61</v>
+      </c>
+      <c r="P61" s="10">
+        <v>56</v>
+      </c>
+      <c r="Q61" s="10">
+        <v>51</v>
+      </c>
+      <c r="R61" s="10">
+        <v>49</v>
+      </c>
+      <c r="S61" s="10">
+        <v>46</v>
+      </c>
       <c r="T61" s="10"/>
       <c r="U61" s="10"/>
       <c r="V61" s="10"/>
@@ -11280,13 +11095,27 @@
       <c r="K62" s="10">
         <v>73</v>
       </c>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="10"/>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="10"/>
-      <c r="R62" s="10"/>
+      <c r="L62" s="10">
+        <v>45</v>
+      </c>
+      <c r="M62" s="10">
+        <v>40</v>
+      </c>
+      <c r="N62" s="10">
+        <v>74</v>
+      </c>
+      <c r="O62" s="10">
+        <v>69</v>
+      </c>
+      <c r="P62" s="10">
+        <v>66</v>
+      </c>
+      <c r="Q62" s="10">
+        <v>62</v>
+      </c>
+      <c r="R62" s="10">
+        <v>55</v>
+      </c>
       <c r="S62" s="10"/>
       <c r="T62" s="10"/>
       <c r="U62" s="10"/>
@@ -11347,13 +11176,27 @@
       <c r="J63" s="10">
         <v>86</v>
       </c>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="10"/>
-      <c r="P63" s="10"/>
-      <c r="Q63" s="10"/>
+      <c r="K63" s="10">
+        <v>61</v>
+      </c>
+      <c r="L63" s="10">
+        <v>47</v>
+      </c>
+      <c r="M63" s="10">
+        <v>55</v>
+      </c>
+      <c r="N63" s="10">
+        <v>53</v>
+      </c>
+      <c r="O63" s="10">
+        <v>54</v>
+      </c>
+      <c r="P63" s="10">
+        <v>56</v>
+      </c>
+      <c r="Q63" s="10">
+        <v>43</v>
+      </c>
       <c r="R63" s="10"/>
       <c r="S63" s="10"/>
       <c r="T63" s="10"/>
@@ -11424,13 +11267,27 @@
       <c r="I64" s="10">
         <v>57</v>
       </c>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="10"/>
-      <c r="P64" s="10"/>
+      <c r="J64" s="10">
+        <v>53</v>
+      </c>
+      <c r="K64" s="10">
+        <v>57</v>
+      </c>
+      <c r="L64" s="10">
+        <v>46</v>
+      </c>
+      <c r="M64" s="10">
+        <v>55</v>
+      </c>
+      <c r="N64" s="10">
+        <v>53</v>
+      </c>
+      <c r="O64" s="10">
+        <v>47</v>
+      </c>
+      <c r="P64" s="10">
+        <v>48</v>
+      </c>
       <c r="Q64" s="10"/>
       <c r="R64" s="10"/>
       <c r="S64" s="10"/>
@@ -11498,13 +11355,27 @@
       <c r="H65" s="10">
         <v>99</v>
       </c>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="10"/>
+      <c r="I65" s="10">
+        <v>51</v>
+      </c>
+      <c r="J65" s="10">
+        <v>45</v>
+      </c>
+      <c r="K65" s="10">
+        <v>58</v>
+      </c>
+      <c r="L65" s="10">
+        <v>53</v>
+      </c>
+      <c r="M65" s="10">
+        <v>53</v>
+      </c>
+      <c r="N65" s="10">
+        <v>55</v>
+      </c>
+      <c r="O65" s="10">
+        <v>47</v>
+      </c>
       <c r="P65" s="10"/>
       <c r="Q65" s="10"/>
       <c r="R65" s="10"/>
@@ -11559,13 +11430,27 @@
       <c r="G66" s="10">
         <v>106</v>
       </c>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
+      <c r="H66" s="10">
+        <v>62</v>
+      </c>
+      <c r="I66" s="10">
+        <v>54</v>
+      </c>
+      <c r="J66" s="10">
+        <v>84</v>
+      </c>
+      <c r="K66" s="10">
+        <v>75</v>
+      </c>
+      <c r="L66" s="10">
+        <v>64</v>
+      </c>
+      <c r="M66" s="10">
+        <v>68</v>
+      </c>
+      <c r="N66" s="10">
+        <v>68</v>
+      </c>
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
       <c r="Q66" s="10"/>
@@ -11618,13 +11503,27 @@
       <c r="F67" s="10">
         <v>106</v>
       </c>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
+      <c r="G67" s="10">
+        <v>59</v>
+      </c>
+      <c r="H67" s="10">
+        <v>62</v>
+      </c>
+      <c r="I67" s="10">
+        <v>85</v>
+      </c>
+      <c r="J67" s="10">
+        <v>81</v>
+      </c>
+      <c r="K67" s="10">
+        <v>82</v>
+      </c>
+      <c r="L67" s="10">
+        <v>69</v>
+      </c>
+      <c r="M67" s="10">
+        <v>56</v>
+      </c>
       <c r="N67" s="10"/>
       <c r="O67" s="10"/>
       <c r="P67" s="10"/>
@@ -11675,13 +11574,27 @@
       <c r="E68" s="10">
         <v>325</v>
       </c>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
+      <c r="F68" s="10">
+        <v>142</v>
+      </c>
+      <c r="G68" s="10">
+        <v>124</v>
+      </c>
+      <c r="H68" s="10">
+        <v>154</v>
+      </c>
+      <c r="I68" s="10">
+        <v>147</v>
+      </c>
+      <c r="J68" s="10">
+        <v>135</v>
+      </c>
+      <c r="K68" s="10">
+        <v>126</v>
+      </c>
+      <c r="L68" s="10">
+        <v>108</v>
+      </c>
       <c r="M68" s="10"/>
       <c r="N68" s="10"/>
       <c r="O68" s="10"/>
@@ -11737,13 +11650,27 @@
       <c r="D69" s="5">
         <v>1030</v>
       </c>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
+      <c r="E69" s="10">
+        <v>313</v>
+      </c>
+      <c r="F69" s="10">
+        <v>167</v>
+      </c>
+      <c r="G69" s="10">
+        <v>246</v>
+      </c>
+      <c r="H69" s="10">
+        <v>221</v>
+      </c>
+      <c r="I69" s="10">
+        <v>181</v>
+      </c>
+      <c r="J69" s="10">
+        <v>169</v>
+      </c>
+      <c r="K69" s="10">
+        <v>141</v>
+      </c>
       <c r="L69" s="10"/>
       <c r="M69" s="10"/>
       <c r="N69" s="10"/>
@@ -11784,15 +11711,33 @@
       <c r="A70" s="13">
         <v>42616</v>
       </c>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
+      <c r="B70" s="5">
+        <v>3341</v>
+      </c>
+      <c r="C70" s="5">
+        <v>5267</v>
+      </c>
+      <c r="D70" s="5">
+        <v>1060</v>
+      </c>
+      <c r="E70" s="10">
+        <v>354</v>
+      </c>
+      <c r="F70" s="10">
+        <v>274</v>
+      </c>
+      <c r="G70" s="10">
+        <v>202</v>
+      </c>
+      <c r="H70" s="10">
+        <v>199</v>
+      </c>
+      <c r="I70" s="10">
+        <v>173</v>
+      </c>
+      <c r="J70" s="10">
+        <v>150</v>
+      </c>
       <c r="K70" s="10"/>
       <c r="L70" s="10"/>
       <c r="M70" s="10"/>
@@ -11834,15 +11779,33 @@
       <c r="A71" s="13">
         <v>42617</v>
       </c>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
+      <c r="B71" s="5">
+        <v>3382</v>
+      </c>
+      <c r="C71" s="5">
+        <v>5016</v>
+      </c>
+      <c r="D71" s="5">
+        <v>1002</v>
+      </c>
+      <c r="E71" s="10">
+        <v>354</v>
+      </c>
+      <c r="F71" s="10">
+        <v>274</v>
+      </c>
+      <c r="G71" s="10">
+        <v>202</v>
+      </c>
+      <c r="H71" s="10">
+        <v>199</v>
+      </c>
+      <c r="I71" s="10">
+        <v>173</v>
+      </c>
+      <c r="J71" s="10">
+        <v>150</v>
+      </c>
       <c r="K71" s="10"/>
       <c r="L71" s="10"/>
       <c r="M71" s="10"/>
@@ -11881,15 +11844,33 @@
       <c r="AT71" s="10"/>
     </row>
     <row r="72" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A72" s="2"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
+      <c r="A72" s="13">
+        <v>42618</v>
+      </c>
+      <c r="B72" s="5">
+        <v>4316</v>
+      </c>
+      <c r="C72" s="5">
+        <v>4691</v>
+      </c>
+      <c r="D72" s="5">
+        <v>971</v>
+      </c>
+      <c r="E72" s="10">
+        <v>286</v>
+      </c>
+      <c r="F72" s="10">
+        <v>223</v>
+      </c>
+      <c r="G72" s="10">
+        <v>186</v>
+      </c>
+      <c r="H72" s="10">
+        <v>156</v>
+      </c>
+      <c r="I72" s="10">
+        <v>133</v>
+      </c>
       <c r="J72" s="10"/>
       <c r="K72" s="10"/>
       <c r="L72" s="10"/>
@@ -11932,14 +11913,30 @@
       <c r="AW72" s="10"/>
     </row>
     <row r="73" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A73" s="2"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
+      <c r="A73" s="13">
+        <v>42619</v>
+      </c>
+      <c r="B73" s="5">
+        <v>4528</v>
+      </c>
+      <c r="C73" s="5">
+        <v>4688</v>
+      </c>
+      <c r="D73" s="5">
+        <v>982</v>
+      </c>
+      <c r="E73" s="10">
+        <v>384</v>
+      </c>
+      <c r="F73" s="10">
+        <v>247</v>
+      </c>
+      <c r="G73" s="10">
+        <v>223</v>
+      </c>
+      <c r="H73" s="10">
+        <v>175</v>
+      </c>
       <c r="I73" s="10"/>
       <c r="J73" s="10"/>
       <c r="K73" s="10"/>
@@ -11980,13 +11977,27 @@
       <c r="AT73" s="10"/>
     </row>
     <row r="74" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A74" s="2"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
+      <c r="A74" s="13">
+        <v>42620</v>
+      </c>
+      <c r="B74" s="5">
+        <v>4575</v>
+      </c>
+      <c r="C74" s="5">
+        <v>4533</v>
+      </c>
+      <c r="D74" s="5">
+        <v>969</v>
+      </c>
+      <c r="E74" s="10">
+        <v>368</v>
+      </c>
+      <c r="F74" s="10">
+        <v>262</v>
+      </c>
+      <c r="G74" s="10">
+        <v>203</v>
+      </c>
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
       <c r="J74" s="10"/>
@@ -12029,12 +12040,24 @@
       <c r="AU74" s="10"/>
     </row>
     <row r="75" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A75" s="2"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
+      <c r="A75" s="13">
+        <v>42621</v>
+      </c>
+      <c r="B75" s="5">
+        <v>4517</v>
+      </c>
+      <c r="C75" s="5">
+        <v>4396</v>
+      </c>
+      <c r="D75" s="5">
+        <v>886</v>
+      </c>
+      <c r="E75" s="10">
+        <v>324</v>
+      </c>
+      <c r="F75" s="10">
+        <v>236</v>
+      </c>
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
       <c r="I75" s="10"/>
@@ -12077,11 +12100,21 @@
       <c r="AT75" s="10"/>
     </row>
     <row r="76" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A76" s="2"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="10"/>
+      <c r="A76" s="13">
+        <v>42622</v>
+      </c>
+      <c r="B76" s="5">
+        <v>4369</v>
+      </c>
+      <c r="C76" s="5">
+        <v>4435</v>
+      </c>
+      <c r="D76" s="5">
+        <v>868</v>
+      </c>
+      <c r="E76" s="10">
+        <v>339</v>
+      </c>
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
@@ -12125,7 +12158,9 @@
       <c r="AT76" s="10"/>
     </row>
     <row r="77" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A77" s="2"/>
+      <c r="A77" s="13">
+        <v>42623</v>
+      </c>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
@@ -12173,7 +12208,9 @@
       <c r="AT77" s="10"/>
     </row>
     <row r="78" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A78" s="2"/>
+      <c r="A78" s="13">
+        <v>42624</v>
+      </c>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -12221,7 +12258,9 @@
       <c r="AT78" s="10"/>
     </row>
     <row r="79" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A79" s="2"/>
+      <c r="A79" s="13">
+        <v>42625</v>
+      </c>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
@@ -12269,7 +12308,9 @@
       <c r="AT79" s="10"/>
     </row>
     <row r="80" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A80" s="2"/>
+      <c r="A80" s="13">
+        <v>42626</v>
+      </c>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
@@ -12317,7 +12358,9 @@
       <c r="AT80" s="10"/>
     </row>
     <row r="81" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A81" s="2"/>
+      <c r="A81" s="13">
+        <v>42627</v>
+      </c>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -12365,7 +12408,9 @@
       <c r="AT81" s="10"/>
     </row>
     <row r="82" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A82" s="2"/>
+      <c r="A82" s="13">
+        <v>42628</v>
+      </c>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -12413,7 +12458,9 @@
       <c r="AT82" s="10"/>
     </row>
     <row r="83" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A83" s="2"/>
+      <c r="A83" s="13">
+        <v>42629</v>
+      </c>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
@@ -12461,7 +12508,9 @@
       <c r="AT83" s="10"/>
     </row>
     <row r="84" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A84" s="2"/>
+      <c r="A84" s="13">
+        <v>42630</v>
+      </c>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
@@ -12509,7 +12558,9 @@
       <c r="AT84" s="10"/>
     </row>
     <row r="85" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A85" s="2"/>
+      <c r="A85" s="13">
+        <v>42631</v>
+      </c>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
@@ -12550,7 +12601,9 @@
       <c r="AT85" s="10"/>
     </row>
     <row r="86" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A86" s="2"/>
+      <c r="A86" s="13">
+        <v>42632</v>
+      </c>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -12598,7 +12651,9 @@
       <c r="AT86" s="10"/>
     </row>
     <row r="87" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A87" s="2"/>
+      <c r="A87" s="13">
+        <v>42633</v>
+      </c>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
@@ -12634,7 +12689,9 @@
       <c r="AH87" s="10"/>
     </row>
     <row r="88" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A88" s="2"/>
+      <c r="A88" s="13">
+        <v>42634</v>
+      </c>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
@@ -12669,7 +12726,9 @@
       <c r="AG88" s="10"/>
     </row>
     <row r="89" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A89" s="2"/>
+      <c r="A89" s="13">
+        <v>42635</v>
+      </c>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
@@ -12703,7 +12762,9 @@
       <c r="AF89" s="10"/>
     </row>
     <row r="90" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A90" s="2"/>
+      <c r="A90" s="13">
+        <v>42636</v>
+      </c>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
@@ -29045,10 +29106,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY56"/>
+  <dimension ref="A1:AY66"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -29304,48 +29365,6 @@
       <c r="AH3">
         <v>42</v>
       </c>
-      <c r="AI3">
-        <v>38</v>
-      </c>
-      <c r="AJ3">
-        <v>34</v>
-      </c>
-      <c r="AK3">
-        <v>42</v>
-      </c>
-      <c r="AL3">
-        <v>35</v>
-      </c>
-      <c r="AM3">
-        <v>24</v>
-      </c>
-      <c r="AN3">
-        <v>30</v>
-      </c>
-      <c r="AO3">
-        <v>37</v>
-      </c>
-      <c r="AP3">
-        <v>34</v>
-      </c>
-      <c r="AQ3">
-        <v>32</v>
-      </c>
-      <c r="AR3">
-        <v>29</v>
-      </c>
-      <c r="AS3">
-        <v>26</v>
-      </c>
-      <c r="AT3">
-        <v>28</v>
-      </c>
-      <c r="AU3">
-        <v>33</v>
-      </c>
-      <c r="AV3">
-        <v>29</v>
-      </c>
       <c r="AW3">
         <v>37</v>
       </c>
@@ -29459,48 +29478,6 @@
       <c r="AH4">
         <v>39</v>
       </c>
-      <c r="AI4">
-        <v>33</v>
-      </c>
-      <c r="AJ4">
-        <v>45</v>
-      </c>
-      <c r="AK4">
-        <v>16</v>
-      </c>
-      <c r="AL4">
-        <v>22</v>
-      </c>
-      <c r="AM4">
-        <v>38</v>
-      </c>
-      <c r="AN4">
-        <v>37</v>
-      </c>
-      <c r="AO4">
-        <v>35</v>
-      </c>
-      <c r="AP4">
-        <v>39</v>
-      </c>
-      <c r="AQ4">
-        <v>42</v>
-      </c>
-      <c r="AR4">
-        <v>31</v>
-      </c>
-      <c r="AS4">
-        <v>21</v>
-      </c>
-      <c r="AT4">
-        <v>37</v>
-      </c>
-      <c r="AU4">
-        <v>41</v>
-      </c>
-      <c r="AV4">
-        <v>45</v>
-      </c>
       <c r="AW4">
         <v>41</v>
       </c>
@@ -29611,48 +29588,6 @@
       <c r="AH5">
         <v>53</v>
       </c>
-      <c r="AI5">
-        <v>42</v>
-      </c>
-      <c r="AJ5">
-        <v>36</v>
-      </c>
-      <c r="AK5">
-        <v>23</v>
-      </c>
-      <c r="AL5">
-        <v>47</v>
-      </c>
-      <c r="AM5">
-        <v>40</v>
-      </c>
-      <c r="AN5">
-        <v>39</v>
-      </c>
-      <c r="AO5">
-        <v>50</v>
-      </c>
-      <c r="AP5">
-        <v>46</v>
-      </c>
-      <c r="AQ5">
-        <v>29</v>
-      </c>
-      <c r="AR5">
-        <v>29</v>
-      </c>
-      <c r="AS5">
-        <v>42</v>
-      </c>
-      <c r="AT5">
-        <v>39</v>
-      </c>
-      <c r="AU5">
-        <v>29</v>
-      </c>
-      <c r="AV5">
-        <v>35</v>
-      </c>
       <c r="AW5">
         <v>42</v>
       </c>
@@ -29760,48 +29695,6 @@
       <c r="AH6">
         <v>48</v>
       </c>
-      <c r="AI6">
-        <v>29</v>
-      </c>
-      <c r="AJ6">
-        <v>39</v>
-      </c>
-      <c r="AK6">
-        <v>44</v>
-      </c>
-      <c r="AL6">
-        <v>54</v>
-      </c>
-      <c r="AM6">
-        <v>45</v>
-      </c>
-      <c r="AN6">
-        <v>38</v>
-      </c>
-      <c r="AO6">
-        <v>51</v>
-      </c>
-      <c r="AP6">
-        <v>33</v>
-      </c>
-      <c r="AQ6">
-        <v>35</v>
-      </c>
-      <c r="AR6">
-        <v>41</v>
-      </c>
-      <c r="AS6">
-        <v>35</v>
-      </c>
-      <c r="AT6">
-        <v>41</v>
-      </c>
-      <c r="AU6">
-        <v>53</v>
-      </c>
-      <c r="AV6">
-        <v>33</v>
-      </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
@@ -29906,45 +29799,6 @@
       <c r="AH7">
         <v>31</v>
       </c>
-      <c r="AI7">
-        <v>38</v>
-      </c>
-      <c r="AJ7">
-        <v>46</v>
-      </c>
-      <c r="AK7">
-        <v>48</v>
-      </c>
-      <c r="AL7">
-        <v>41</v>
-      </c>
-      <c r="AM7">
-        <v>52</v>
-      </c>
-      <c r="AN7">
-        <v>35</v>
-      </c>
-      <c r="AO7">
-        <v>28</v>
-      </c>
-      <c r="AP7">
-        <v>23</v>
-      </c>
-      <c r="AQ7">
-        <v>37</v>
-      </c>
-      <c r="AR7">
-        <v>34</v>
-      </c>
-      <c r="AS7">
-        <v>35</v>
-      </c>
-      <c r="AT7">
-        <v>29</v>
-      </c>
-      <c r="AU7">
-        <v>29</v>
-      </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
@@ -30049,42 +29903,6 @@
       <c r="AH8">
         <v>33</v>
       </c>
-      <c r="AI8">
-        <v>53</v>
-      </c>
-      <c r="AJ8">
-        <v>43</v>
-      </c>
-      <c r="AK8">
-        <v>48</v>
-      </c>
-      <c r="AL8">
-        <v>40</v>
-      </c>
-      <c r="AM8">
-        <v>35</v>
-      </c>
-      <c r="AN8">
-        <v>19</v>
-      </c>
-      <c r="AO8">
-        <v>21</v>
-      </c>
-      <c r="AP8">
-        <v>40</v>
-      </c>
-      <c r="AQ8">
-        <v>33</v>
-      </c>
-      <c r="AR8">
-        <v>38</v>
-      </c>
-      <c r="AS8">
-        <v>37</v>
-      </c>
-      <c r="AT8">
-        <v>31</v>
-      </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
@@ -30189,39 +30007,6 @@
       <c r="AH9">
         <v>44</v>
       </c>
-      <c r="AI9">
-        <v>38</v>
-      </c>
-      <c r="AJ9">
-        <v>46</v>
-      </c>
-      <c r="AK9">
-        <v>34</v>
-      </c>
-      <c r="AL9">
-        <v>46</v>
-      </c>
-      <c r="AM9">
-        <v>33</v>
-      </c>
-      <c r="AN9">
-        <v>30</v>
-      </c>
-      <c r="AO9">
-        <v>40</v>
-      </c>
-      <c r="AP9">
-        <v>44</v>
-      </c>
-      <c r="AQ9">
-        <v>40</v>
-      </c>
-      <c r="AR9">
-        <v>37</v>
-      </c>
-      <c r="AS9">
-        <v>29</v>
-      </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
@@ -30326,36 +30111,6 @@
       <c r="AH10">
         <v>37</v>
       </c>
-      <c r="AI10">
-        <v>40</v>
-      </c>
-      <c r="AJ10">
-        <v>42</v>
-      </c>
-      <c r="AK10">
-        <v>46</v>
-      </c>
-      <c r="AL10">
-        <v>43</v>
-      </c>
-      <c r="AM10">
-        <v>29</v>
-      </c>
-      <c r="AN10">
-        <v>38</v>
-      </c>
-      <c r="AO10">
-        <v>47</v>
-      </c>
-      <c r="AP10">
-        <v>41</v>
-      </c>
-      <c r="AQ10">
-        <v>36</v>
-      </c>
-      <c r="AR10">
-        <v>24</v>
-      </c>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
@@ -30460,33 +30215,6 @@
       <c r="AH11">
         <v>39</v>
       </c>
-      <c r="AI11">
-        <v>47</v>
-      </c>
-      <c r="AJ11">
-        <v>39</v>
-      </c>
-      <c r="AK11">
-        <v>31</v>
-      </c>
-      <c r="AL11">
-        <v>31</v>
-      </c>
-      <c r="AM11">
-        <v>41</v>
-      </c>
-      <c r="AN11">
-        <v>45</v>
-      </c>
-      <c r="AO11">
-        <v>52</v>
-      </c>
-      <c r="AP11">
-        <v>42</v>
-      </c>
-      <c r="AQ11">
-        <v>49</v>
-      </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
@@ -30591,30 +30319,6 @@
       <c r="AH12">
         <v>54</v>
       </c>
-      <c r="AI12">
-        <v>40</v>
-      </c>
-      <c r="AJ12">
-        <v>31</v>
-      </c>
-      <c r="AK12">
-        <v>37</v>
-      </c>
-      <c r="AL12">
-        <v>49</v>
-      </c>
-      <c r="AM12">
-        <v>40</v>
-      </c>
-      <c r="AN12">
-        <v>37</v>
-      </c>
-      <c r="AO12">
-        <v>43</v>
-      </c>
-      <c r="AP12">
-        <v>33</v>
-      </c>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
@@ -30719,27 +30423,6 @@
       <c r="AH13">
         <v>45</v>
       </c>
-      <c r="AI13">
-        <v>28</v>
-      </c>
-      <c r="AJ13">
-        <v>30</v>
-      </c>
-      <c r="AK13">
-        <v>34</v>
-      </c>
-      <c r="AL13">
-        <v>46</v>
-      </c>
-      <c r="AM13">
-        <v>52</v>
-      </c>
-      <c r="AN13">
-        <v>48</v>
-      </c>
-      <c r="AO13">
-        <v>45</v>
-      </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
@@ -30844,24 +30527,6 @@
       <c r="AH14">
         <v>40</v>
       </c>
-      <c r="AI14">
-        <v>38</v>
-      </c>
-      <c r="AJ14">
-        <v>43</v>
-      </c>
-      <c r="AK14">
-        <v>52</v>
-      </c>
-      <c r="AL14">
-        <v>53</v>
-      </c>
-      <c r="AM14">
-        <v>39</v>
-      </c>
-      <c r="AN14">
-        <v>32</v>
-      </c>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
@@ -30966,21 +30631,6 @@
       <c r="AH15">
         <v>33</v>
       </c>
-      <c r="AI15">
-        <v>58</v>
-      </c>
-      <c r="AJ15">
-        <v>57</v>
-      </c>
-      <c r="AK15">
-        <v>52</v>
-      </c>
-      <c r="AL15">
-        <v>42</v>
-      </c>
-      <c r="AM15">
-        <v>47</v>
-      </c>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
@@ -31085,20 +30735,8 @@
       <c r="AH16">
         <v>49</v>
       </c>
-      <c r="AI16">
-        <v>58</v>
-      </c>
-      <c r="AJ16">
-        <v>58</v>
-      </c>
-      <c r="AK16">
-        <v>41</v>
-      </c>
-      <c r="AL16">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>42582</v>
       </c>
@@ -31201,17 +30839,8 @@
       <c r="AH17">
         <v>39</v>
       </c>
-      <c r="AI17">
-        <v>36</v>
-      </c>
-      <c r="AJ17">
-        <v>30</v>
-      </c>
-      <c r="AK17">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>42583</v>
       </c>
@@ -31314,14 +30943,8 @@
       <c r="AH18">
         <v>31</v>
       </c>
-      <c r="AI18">
-        <v>39</v>
-      </c>
-      <c r="AJ18">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>42584</v>
       </c>
@@ -31424,11 +31047,8 @@
       <c r="AH19">
         <v>56</v>
       </c>
-      <c r="AI19">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>42585</v>
       </c>
@@ -31532,7 +31152,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>42586</v>
       </c>
@@ -31632,8 +31252,11 @@
       <c r="AG21">
         <v>52</v>
       </c>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AH21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>42587</v>
       </c>
@@ -31730,8 +31353,14 @@
       <c r="AF22">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AG22">
+        <v>24</v>
+      </c>
+      <c r="AH22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>42588</v>
       </c>
@@ -31825,8 +31454,17 @@
       <c r="AE23">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AF23">
+        <v>18</v>
+      </c>
+      <c r="AG23">
+        <v>27</v>
+      </c>
+      <c r="AH23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>42589</v>
       </c>
@@ -31917,8 +31555,20 @@
       <c r="AD24">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AE24">
+        <v>19</v>
+      </c>
+      <c r="AF24">
+        <v>22</v>
+      </c>
+      <c r="AG24">
+        <v>22</v>
+      </c>
+      <c r="AH24">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>42590</v>
       </c>
@@ -32006,8 +31656,23 @@
       <c r="AC25">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AD25">
+        <v>17</v>
+      </c>
+      <c r="AE25">
+        <v>16</v>
+      </c>
+      <c r="AF25">
+        <v>31</v>
+      </c>
+      <c r="AG25">
+        <v>41</v>
+      </c>
+      <c r="AH25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>42591</v>
       </c>
@@ -32092,8 +31757,26 @@
       <c r="AB26">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AC26">
+        <v>14</v>
+      </c>
+      <c r="AD26">
+        <v>18</v>
+      </c>
+      <c r="AE26">
+        <v>24</v>
+      </c>
+      <c r="AF26">
+        <v>29</v>
+      </c>
+      <c r="AG26">
+        <v>24</v>
+      </c>
+      <c r="AH26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>42592</v>
       </c>
@@ -32175,8 +31858,29 @@
       <c r="AA27">
         <v>33</v>
       </c>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AB27">
+        <v>18</v>
+      </c>
+      <c r="AC27">
+        <v>25</v>
+      </c>
+      <c r="AD27">
+        <v>25</v>
+      </c>
+      <c r="AE27">
+        <v>38</v>
+      </c>
+      <c r="AF27">
+        <v>31</v>
+      </c>
+      <c r="AG27">
+        <v>27</v>
+      </c>
+      <c r="AH27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>42593</v>
       </c>
@@ -32255,8 +31959,29 @@
       <c r="Z28">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AA28">
+        <v>28</v>
+      </c>
+      <c r="AB28">
+        <v>26</v>
+      </c>
+      <c r="AC28">
+        <v>32</v>
+      </c>
+      <c r="AD28">
+        <v>22</v>
+      </c>
+      <c r="AE28">
+        <v>33</v>
+      </c>
+      <c r="AF28">
+        <v>29</v>
+      </c>
+      <c r="AG28">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>42594</v>
       </c>
@@ -32332,8 +32057,29 @@
       <c r="Y29">
         <v>39</v>
       </c>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="Z29">
+        <v>31</v>
+      </c>
+      <c r="AA29">
+        <v>32</v>
+      </c>
+      <c r="AB29">
+        <v>39</v>
+      </c>
+      <c r="AC29">
+        <v>44</v>
+      </c>
+      <c r="AD29">
+        <v>36</v>
+      </c>
+      <c r="AE29">
+        <v>40</v>
+      </c>
+      <c r="AF29">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>42595</v>
       </c>
@@ -32406,8 +32152,29 @@
       <c r="X30">
         <v>42</v>
       </c>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="Y30">
+        <v>35</v>
+      </c>
+      <c r="Z30">
+        <v>40</v>
+      </c>
+      <c r="AA30">
+        <v>35</v>
+      </c>
+      <c r="AB30">
+        <v>47</v>
+      </c>
+      <c r="AC30">
+        <v>35</v>
+      </c>
+      <c r="AD30">
+        <v>34</v>
+      </c>
+      <c r="AE30">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>42596</v>
       </c>
@@ -32477,8 +32244,29 @@
       <c r="W31">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="X31">
+        <v>27</v>
+      </c>
+      <c r="Y31">
+        <v>23</v>
+      </c>
+      <c r="Z31">
+        <v>27</v>
+      </c>
+      <c r="AA31">
+        <v>28</v>
+      </c>
+      <c r="AB31">
+        <v>30</v>
+      </c>
+      <c r="AC31">
+        <v>41</v>
+      </c>
+      <c r="AD31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>42597</v>
       </c>
@@ -32545,8 +32333,29 @@
       <c r="V32">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="W32">
+        <v>21</v>
+      </c>
+      <c r="X32">
+        <v>19</v>
+      </c>
+      <c r="Y32">
+        <v>37</v>
+      </c>
+      <c r="Z32">
+        <v>27</v>
+      </c>
+      <c r="AA32">
+        <v>37</v>
+      </c>
+      <c r="AB32">
+        <v>36</v>
+      </c>
+      <c r="AC32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>42598</v>
       </c>
@@ -32610,8 +32419,29 @@
       <c r="U33">
         <v>44</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V33">
+        <v>27</v>
+      </c>
+      <c r="W33">
+        <v>33</v>
+      </c>
+      <c r="X33">
+        <v>36</v>
+      </c>
+      <c r="Y33">
+        <v>40</v>
+      </c>
+      <c r="Z33">
+        <v>35</v>
+      </c>
+      <c r="AA33">
+        <v>33</v>
+      </c>
+      <c r="AB33">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>42599</v>
       </c>
@@ -32672,8 +32502,29 @@
       <c r="T34">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U34">
+        <v>27</v>
+      </c>
+      <c r="V34">
+        <v>20</v>
+      </c>
+      <c r="W34">
+        <v>38</v>
+      </c>
+      <c r="X34">
+        <v>31</v>
+      </c>
+      <c r="Y34">
+        <v>32</v>
+      </c>
+      <c r="Z34">
+        <v>24</v>
+      </c>
+      <c r="AA34">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>42600</v>
       </c>
@@ -32731,8 +32582,29 @@
       <c r="S35">
         <v>41</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="T35">
+        <v>21</v>
+      </c>
+      <c r="U35">
+        <v>29</v>
+      </c>
+      <c r="V35">
+        <v>34</v>
+      </c>
+      <c r="W35">
+        <v>40</v>
+      </c>
+      <c r="X35">
+        <v>36</v>
+      </c>
+      <c r="Y35">
+        <v>36</v>
+      </c>
+      <c r="Z35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>42601</v>
       </c>
@@ -32787,8 +32659,29 @@
       <c r="R36">
         <v>57</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="S36">
+        <v>21</v>
+      </c>
+      <c r="T36">
+        <v>21</v>
+      </c>
+      <c r="U36">
+        <v>41</v>
+      </c>
+      <c r="V36">
+        <v>40</v>
+      </c>
+      <c r="W36">
+        <v>39</v>
+      </c>
+      <c r="X36">
+        <v>35</v>
+      </c>
+      <c r="Y36">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>42602</v>
       </c>
@@ -32840,8 +32733,29 @@
       <c r="Q37">
         <v>31</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="R37">
+        <v>34</v>
+      </c>
+      <c r="S37">
+        <v>31</v>
+      </c>
+      <c r="T37">
+        <v>31</v>
+      </c>
+      <c r="U37">
+        <v>36</v>
+      </c>
+      <c r="V37">
+        <v>36</v>
+      </c>
+      <c r="W37">
+        <v>30</v>
+      </c>
+      <c r="X37">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>42603</v>
       </c>
@@ -32890,8 +32804,29 @@
       <c r="P38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Q38">
+        <v>29</v>
+      </c>
+      <c r="R38">
+        <v>32</v>
+      </c>
+      <c r="S38">
+        <v>29</v>
+      </c>
+      <c r="T38">
+        <v>33</v>
+      </c>
+      <c r="U38">
+        <v>25</v>
+      </c>
+      <c r="V38">
+        <v>27</v>
+      </c>
+      <c r="W38">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>42604</v>
       </c>
@@ -32937,8 +32872,29 @@
       <c r="O39">
         <v>46</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="P39">
+        <v>32</v>
+      </c>
+      <c r="Q39">
+        <v>26</v>
+      </c>
+      <c r="R39">
+        <v>48</v>
+      </c>
+      <c r="S39">
+        <v>40</v>
+      </c>
+      <c r="T39">
+        <v>48</v>
+      </c>
+      <c r="U39">
+        <v>39</v>
+      </c>
+      <c r="V39">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>42605</v>
       </c>
@@ -32981,8 +32937,29 @@
       <c r="N40">
         <v>67</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="O40">
+        <v>34</v>
+      </c>
+      <c r="P40">
+        <v>39</v>
+      </c>
+      <c r="Q40">
+        <v>50</v>
+      </c>
+      <c r="R40">
+        <v>54</v>
+      </c>
+      <c r="S40">
+        <v>50</v>
+      </c>
+      <c r="T40">
+        <v>50</v>
+      </c>
+      <c r="U40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>42606</v>
       </c>
@@ -33022,8 +32999,29 @@
       <c r="M41">
         <v>52</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="N41">
+        <v>43</v>
+      </c>
+      <c r="O41">
+        <v>30</v>
+      </c>
+      <c r="P41">
+        <v>52</v>
+      </c>
+      <c r="Q41">
+        <v>45</v>
+      </c>
+      <c r="R41">
+        <v>40</v>
+      </c>
+      <c r="S41">
+        <v>45</v>
+      </c>
+      <c r="T41">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>42607</v>
       </c>
@@ -33060,8 +33058,29 @@
       <c r="L42">
         <v>68</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="M42">
+        <v>43</v>
+      </c>
+      <c r="N42">
+        <v>41</v>
+      </c>
+      <c r="O42">
+        <v>60</v>
+      </c>
+      <c r="P42">
+        <v>55</v>
+      </c>
+      <c r="Q42">
+        <v>50</v>
+      </c>
+      <c r="R42">
+        <v>48</v>
+      </c>
+      <c r="S42">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>42608</v>
       </c>
@@ -33095,8 +33114,29 @@
       <c r="K43">
         <v>69</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="L43">
+        <v>43</v>
+      </c>
+      <c r="M43">
+        <v>39</v>
+      </c>
+      <c r="N43">
+        <v>70</v>
+      </c>
+      <c r="O43">
+        <v>65</v>
+      </c>
+      <c r="P43">
+        <v>65</v>
+      </c>
+      <c r="Q43">
+        <v>60</v>
+      </c>
+      <c r="R43">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>42609</v>
       </c>
@@ -33127,8 +33167,29 @@
       <c r="J44">
         <v>81</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="K44">
+        <v>59</v>
+      </c>
+      <c r="L44">
+        <v>44</v>
+      </c>
+      <c r="M44">
+        <v>53</v>
+      </c>
+      <c r="N44">
+        <v>51</v>
+      </c>
+      <c r="O44">
+        <v>52</v>
+      </c>
+      <c r="P44">
+        <v>52</v>
+      </c>
+      <c r="Q44">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>42610</v>
       </c>
@@ -33156,8 +33217,29 @@
       <c r="I45">
         <v>54</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="J45">
+        <v>52</v>
+      </c>
+      <c r="K45">
+        <v>54</v>
+      </c>
+      <c r="L45">
+        <v>43</v>
+      </c>
+      <c r="M45">
+        <v>53</v>
+      </c>
+      <c r="N45">
+        <v>51</v>
+      </c>
+      <c r="O45">
+        <v>45</v>
+      </c>
+      <c r="P45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>42611</v>
       </c>
@@ -33182,8 +33264,29 @@
       <c r="H46">
         <v>95</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="I46">
+        <v>48</v>
+      </c>
+      <c r="J46">
+        <v>42</v>
+      </c>
+      <c r="K46">
+        <v>56</v>
+      </c>
+      <c r="L46">
+        <v>50</v>
+      </c>
+      <c r="M46">
+        <v>52</v>
+      </c>
+      <c r="N46">
+        <v>52</v>
+      </c>
+      <c r="O46">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>42612</v>
       </c>
@@ -33205,8 +33308,29 @@
       <c r="G47">
         <v>99</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="H47">
+        <v>56</v>
+      </c>
+      <c r="I47">
+        <v>51</v>
+      </c>
+      <c r="J47">
+        <v>80</v>
+      </c>
+      <c r="K47">
+        <v>72</v>
+      </c>
+      <c r="L47">
+        <v>62</v>
+      </c>
+      <c r="M47">
+        <v>63</v>
+      </c>
+      <c r="N47">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>42613</v>
       </c>
@@ -33225,8 +33349,29 @@
       <c r="F48">
         <v>104</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G48">
+        <v>57</v>
+      </c>
+      <c r="H48">
+        <v>61</v>
+      </c>
+      <c r="I48">
+        <v>80</v>
+      </c>
+      <c r="J48">
+        <v>77</v>
+      </c>
+      <c r="K48">
+        <v>79</v>
+      </c>
+      <c r="L48">
+        <v>64</v>
+      </c>
+      <c r="M48">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>42614</v>
       </c>
@@ -33242,8 +33387,29 @@
       <c r="E49">
         <v>319</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F49">
+        <v>139</v>
+      </c>
+      <c r="G49">
+        <v>119</v>
+      </c>
+      <c r="H49">
+        <v>153</v>
+      </c>
+      <c r="I49">
+        <v>143</v>
+      </c>
+      <c r="J49">
+        <v>133</v>
+      </c>
+      <c r="K49">
+        <v>125</v>
+      </c>
+      <c r="L49">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>42615</v>
       </c>
@@ -33256,35 +33422,232 @@
       <c r="D50">
         <v>1034</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E50">
+        <v>307</v>
+      </c>
+      <c r="F50">
+        <v>164</v>
+      </c>
+      <c r="G50">
+        <v>244</v>
+      </c>
+      <c r="H50">
+        <v>216</v>
+      </c>
+      <c r="I50">
+        <v>175</v>
+      </c>
+      <c r="J50">
+        <v>166</v>
+      </c>
+      <c r="K50">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>42616</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B51">
+        <v>2802</v>
+      </c>
+      <c r="C51">
+        <v>5174</v>
+      </c>
+      <c r="D51">
+        <v>1062</v>
+      </c>
+      <c r="E51">
+        <v>347</v>
+      </c>
+      <c r="F51">
+        <v>271</v>
+      </c>
+      <c r="G51">
+        <v>199</v>
+      </c>
+      <c r="H51">
+        <v>196</v>
+      </c>
+      <c r="I51">
+        <v>170</v>
+      </c>
+      <c r="J51">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>42617</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B52">
+        <v>2857</v>
+      </c>
+      <c r="C52">
+        <v>4923</v>
+      </c>
+      <c r="D52">
+        <v>1019</v>
+      </c>
+      <c r="E52">
+        <v>280</v>
+      </c>
+      <c r="F52">
+        <v>218</v>
+      </c>
+      <c r="G52">
+        <v>178</v>
+      </c>
+      <c r="H52">
+        <v>153</v>
+      </c>
+      <c r="I52">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>42618</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B53">
+        <v>3620</v>
+      </c>
+      <c r="C53">
+        <v>4617</v>
+      </c>
+      <c r="D53">
+        <v>973</v>
+      </c>
+      <c r="E53">
+        <v>376</v>
+      </c>
+      <c r="F53">
+        <v>239</v>
+      </c>
+      <c r="G53">
+        <v>220</v>
+      </c>
+      <c r="H53">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>42619</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B54">
+        <v>3791</v>
+      </c>
+      <c r="C54">
+        <v>4621</v>
+      </c>
+      <c r="D54">
+        <v>993</v>
+      </c>
+      <c r="E54">
+        <v>363</v>
+      </c>
+      <c r="F54">
+        <v>257</v>
+      </c>
+      <c r="G54">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>42620</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B55">
+        <v>3861</v>
+      </c>
+      <c r="C55">
+        <v>4461</v>
+      </c>
+      <c r="D55">
+        <v>982</v>
+      </c>
+      <c r="E55">
+        <v>320</v>
+      </c>
+      <c r="F55">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>42621</v>
+      </c>
+      <c r="B56">
+        <v>3844</v>
+      </c>
+      <c r="C56">
+        <v>4334</v>
+      </c>
+      <c r="D56">
+        <v>916</v>
+      </c>
+      <c r="E56">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A57" s="2">
+        <v>42622</v>
+      </c>
+      <c r="B57">
+        <v>3773</v>
+      </c>
+      <c r="C57">
+        <v>4366</v>
+      </c>
+      <c r="D57">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A58" s="2">
+        <v>42623</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A59" s="2">
+        <v>42624</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A60" s="2">
+        <v>42625</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A61" s="2">
+        <v>42626</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A62" s="2">
+        <v>42627</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A63" s="2">
+        <v>42628</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A64" s="2">
+        <v>42629</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" s="2">
+        <v>42630</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" s="2">
+        <v>42631</v>
       </c>
     </row>
   </sheetData>

--- a/aitushow/code/doc/留存.xlsx
+++ b/aitushow/code/doc/留存.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="5730" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="5730" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="0002" sheetId="1" r:id="rId1"/>
     <sheet name="0003" sheetId="2" r:id="rId2"/>
     <sheet name="10版本" sheetId="3" r:id="rId3"/>
     <sheet name="11版本" sheetId="4" r:id="rId4"/>
+    <sheet name="15版本" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
   <si>
     <t>首用日期</t>
   </si>
@@ -49,14 +50,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,345 +76,28 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -427,251 +105,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -712,58 +148,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -785,7 +179,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -815,9 +209,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -835,7 +226,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.00723950131233596"/>
+                  <c:x val="7.2395013123359598E-3"/>
                   <c:y val="-0.64601086322543"/>
                 </c:manualLayout>
               </c:layout>
@@ -861,6 +252,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -884,11 +276,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="191871168"/>
-        <c:axId val="191871744"/>
+        <c:axId val="209500928"/>
+        <c:axId val="209501504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="191871168"/>
+        <c:axId val="209500928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -926,14 +318,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191871744"/>
+        <c:crossAx val="209501504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191871744"/>
+        <c:axId val="209501504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -987,9 +380,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191871168"/>
+        <c:crossAx val="209500928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1005,7 +399,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1028,6 +421,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1057,6 +451,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1085,7 +480,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1115,9 +510,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1135,7 +527,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.00723950131233596"/>
+                  <c:x val="7.2395013123359598E-3"/>
                   <c:y val="-0.64601086322543"/>
                 </c:manualLayout>
               </c:layout>
@@ -1161,6 +553,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1184,11 +577,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="164127296"/>
-        <c:axId val="164127872"/>
+        <c:axId val="624968832"/>
+        <c:axId val="624969408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="164127296"/>
+        <c:axId val="624968832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1226,14 +619,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164127872"/>
+        <c:crossAx val="624969408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="164127872"/>
+        <c:axId val="624969408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -1287,9 +681,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164127296"/>
+        <c:crossAx val="624968832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1305,7 +700,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1328,6 +722,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1357,6 +752,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1385,7 +781,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1415,9 +811,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1435,7 +828,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.00723950131233596"/>
+                  <c:x val="7.2395013123359598E-3"/>
                   <c:y val="-0.64601086322543"/>
                 </c:manualLayout>
               </c:layout>
@@ -1461,6 +854,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1484,11 +878,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="164129600"/>
-        <c:axId val="164130176"/>
+        <c:axId val="624971136"/>
+        <c:axId val="624971712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="164129600"/>
+        <c:axId val="624971136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1526,14 +920,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164130176"/>
+        <c:crossAx val="624971712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="164130176"/>
+        <c:axId val="624971712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -1587,9 +982,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164129600"/>
+        <c:crossAx val="624971136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1605,7 +1001,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1628,6 +1023,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1657,6 +1053,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1685,7 +1082,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1715,9 +1112,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1735,7 +1129,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.00723950131233596"/>
+                  <c:x val="7.2395013123359598E-3"/>
                   <c:y val="-0.64601086322543"/>
                 </c:manualLayout>
               </c:layout>
@@ -1761,6 +1155,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1784,11 +1179,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="164131904"/>
-        <c:axId val="164132480"/>
+        <c:axId val="624973440"/>
+        <c:axId val="624974016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="164131904"/>
+        <c:axId val="624973440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1826,14 +1221,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164132480"/>
+        <c:crossAx val="624974016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="164132480"/>
+        <c:axId val="624974016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -1887,9 +1283,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164131904"/>
+        <c:crossAx val="624973440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1905,7 +1302,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1928,6 +1324,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1957,6 +1354,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1985,7 +1383,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2015,9 +1413,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2035,7 +1430,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.00723950131233596"/>
+                  <c:x val="7.2395013123359598E-3"/>
                   <c:y val="-0.64601086322543"/>
                 </c:manualLayout>
               </c:layout>
@@ -2061,6 +1456,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2084,11 +1480,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="164134208"/>
-        <c:axId val="613359616"/>
+        <c:axId val="177389568"/>
+        <c:axId val="177390144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="164134208"/>
+        <c:axId val="177389568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2126,14 +1522,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613359616"/>
+        <c:crossAx val="177390144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="613359616"/>
+        <c:axId val="177390144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -2187,9 +1584,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164134208"/>
+        <c:crossAx val="177389568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2205,7 +1603,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2228,6 +1625,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2257,6 +1655,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2285,7 +1684,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2315,9 +1714,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2335,7 +1731,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.00723950131233596"/>
+                  <c:x val="7.2395013123359598E-3"/>
                   <c:y val="-0.64601086322543"/>
                 </c:manualLayout>
               </c:layout>
@@ -2361,6 +1757,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2384,11 +1781,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="613361344"/>
-        <c:axId val="613361920"/>
+        <c:axId val="177391872"/>
+        <c:axId val="177392448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="613361344"/>
+        <c:axId val="177391872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2426,14 +1823,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613361920"/>
+        <c:crossAx val="177392448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="613361920"/>
+        <c:axId val="177392448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -2487,9 +1885,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613361344"/>
+        <c:crossAx val="177391872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2505,7 +1904,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2528,6 +1926,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2557,6 +1956,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2585,7 +1985,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2615,9 +2015,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2635,7 +2032,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.00723950131233596"/>
+                  <c:x val="7.2395013123359598E-3"/>
                   <c:y val="-0.64601086322543"/>
                 </c:manualLayout>
               </c:layout>
@@ -2661,6 +2058,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2672,13 +2070,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.335345405767941</c:v>
+                  <c:v>0.33534540576794097</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.175050301810865</c:v>
+                  <c:v>0.1750503018108652</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15962441314554</c:v>
+                  <c:v>0.15962441314553991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2693,11 +2091,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="613363648"/>
-        <c:axId val="613364224"/>
+        <c:axId val="177394176"/>
+        <c:axId val="177394752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="613363648"/>
+        <c:axId val="177394176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2735,14 +2133,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613364224"/>
+        <c:crossAx val="177394752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="613364224"/>
+        <c:axId val="177394752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -2796,9 +2195,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613363648"/>
+        <c:crossAx val="177394176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2837,6 +2237,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2866,6 +2267,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2877,7 +2279,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -2891,14 +2293,14 @@
       <xdr:row>284</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="704850" y="46682025"/>
-        <a:ext cx="7667625" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2921,14 +2323,14 @@
       <xdr:row>284</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9439275" y="46682025"/>
-        <a:ext cx="7667625" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2951,14 +2353,14 @@
       <xdr:row>304</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="图表 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="704850" y="50111025"/>
-        <a:ext cx="7667625" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2981,14 +2383,14 @@
       <xdr:row>304</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="图表 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9439275" y="50111025"/>
-        <a:ext cx="7667625" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3011,14 +2413,14 @@
       <xdr:row>325</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="图表 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="704850" y="53711475"/>
-        <a:ext cx="7667625" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3041,14 +2443,14 @@
       <xdr:row>324</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="7" name="图表 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9505950" y="53673375"/>
-        <a:ext cx="7667625" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3062,7 +2464,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3076,14 +2478,14 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="图表 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="600075" y="6400800"/>
-        <a:ext cx="5924550" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3382,15 +2784,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV330"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91:A113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="2" max="2" width="10.75" customWidth="1"/>
@@ -3398,7 +2799,7 @@
     <col min="4" max="8" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:37">
+    <row r="1" spans="1:100" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3505,7 +2906,7 @@
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
     </row>
-    <row r="2" spans="1:100">
+    <row r="2" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A2" s="13">
         <v>42548</v>
       </c>
@@ -3627,7 +3028,7 @@
       <c r="CU2" s="5"/>
       <c r="CV2" s="5"/>
     </row>
-    <row r="3" spans="1:99">
+    <row r="3" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
         <v>42549</v>
       </c>
@@ -3796,7 +3197,7 @@
       <c r="CT3" s="5"/>
       <c r="CU3" s="5"/>
     </row>
-    <row r="4" spans="1:98">
+    <row r="4" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
         <v>42550</v>
       </c>
@@ -3964,7 +3365,7 @@
       <c r="CS4" s="5"/>
       <c r="CT4" s="5"/>
     </row>
-    <row r="5" spans="1:97">
+    <row r="5" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>42551</v>
       </c>
@@ -4131,7 +3532,7 @@
       <c r="CR5" s="5"/>
       <c r="CS5" s="5"/>
     </row>
-    <row r="6" spans="1:96">
+    <row r="6" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <v>42552</v>
       </c>
@@ -4297,7 +3698,7 @@
       <c r="CQ6" s="5"/>
       <c r="CR6" s="5"/>
     </row>
-    <row r="7" spans="1:95">
+    <row r="7" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
         <v>42553</v>
       </c>
@@ -4462,7 +3863,7 @@
       <c r="CP7" s="5"/>
       <c r="CQ7" s="5"/>
     </row>
-    <row r="8" spans="1:94">
+    <row r="8" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
         <v>42554</v>
       </c>
@@ -4626,7 +4027,7 @@
       <c r="CO8" s="5"/>
       <c r="CP8" s="5"/>
     </row>
-    <row r="9" spans="1:93">
+    <row r="9" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A9" s="13">
         <v>42555</v>
       </c>
@@ -4789,7 +4190,7 @@
       <c r="CN9" s="5"/>
       <c r="CO9" s="5"/>
     </row>
-    <row r="10" spans="1:92">
+    <row r="10" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A10" s="13">
         <v>42556</v>
       </c>
@@ -4951,7 +4352,7 @@
       <c r="CM10" s="5"/>
       <c r="CN10" s="5"/>
     </row>
-    <row r="11" spans="1:91">
+    <row r="11" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A11" s="13">
         <v>42557</v>
       </c>
@@ -5112,7 +4513,7 @@
       <c r="CL11" s="5"/>
       <c r="CM11" s="5"/>
     </row>
-    <row r="12" spans="1:90">
+    <row r="12" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A12" s="13">
         <v>42558</v>
       </c>
@@ -5272,7 +4673,7 @@
       <c r="CK12" s="5"/>
       <c r="CL12" s="5"/>
     </row>
-    <row r="13" spans="1:89">
+    <row r="13" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A13" s="13">
         <v>42559</v>
       </c>
@@ -5431,7 +4832,7 @@
       <c r="CJ13" s="5"/>
       <c r="CK13" s="5"/>
     </row>
-    <row r="14" spans="1:88">
+    <row r="14" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A14" s="13">
         <v>42560</v>
       </c>
@@ -5589,7 +4990,7 @@
       <c r="CI14" s="5"/>
       <c r="CJ14" s="5"/>
     </row>
-    <row r="15" spans="1:87">
+    <row r="15" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A15" s="13">
         <v>42561</v>
       </c>
@@ -5746,7 +5147,7 @@
       <c r="CH15" s="5"/>
       <c r="CI15" s="5"/>
     </row>
-    <row r="16" spans="1:86">
+    <row r="16" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A16" s="13">
         <v>42562</v>
       </c>
@@ -5902,7 +5303,7 @@
       <c r="CG16" s="5"/>
       <c r="CH16" s="5"/>
     </row>
-    <row r="17" spans="1:85">
+    <row r="17" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A17" s="13">
         <v>42563</v>
       </c>
@@ -6057,7 +5458,7 @@
       <c r="CF17" s="5"/>
       <c r="CG17" s="5"/>
     </row>
-    <row r="18" spans="1:84">
+    <row r="18" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A18" s="13">
         <v>42564</v>
       </c>
@@ -6211,7 +5612,7 @@
       <c r="CE18" s="5"/>
       <c r="CF18" s="5"/>
     </row>
-    <row r="19" spans="1:83">
+    <row r="19" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A19" s="13">
         <v>42565</v>
       </c>
@@ -6364,7 +5765,7 @@
       <c r="CD19" s="5"/>
       <c r="CE19" s="5"/>
     </row>
-    <row r="20" spans="1:82">
+    <row r="20" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A20" s="13">
         <v>42566</v>
       </c>
@@ -6516,7 +5917,7 @@
       <c r="CC20" s="5"/>
       <c r="CD20" s="5"/>
     </row>
-    <row r="21" spans="1:81">
+    <row r="21" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A21" s="13">
         <v>42567</v>
       </c>
@@ -6667,7 +6068,7 @@
       <c r="CB21" s="5"/>
       <c r="CC21" s="5"/>
     </row>
-    <row r="22" spans="1:80">
+    <row r="22" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A22" s="13">
         <v>42568</v>
       </c>
@@ -6817,7 +6218,7 @@
       <c r="CA22" s="5"/>
       <c r="CB22" s="5"/>
     </row>
-    <row r="23" spans="1:79">
+    <row r="23" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A23" s="13">
         <v>42569</v>
       </c>
@@ -6966,7 +6367,7 @@
       <c r="BZ23" s="5"/>
       <c r="CA23" s="5"/>
     </row>
-    <row r="24" spans="1:78">
+    <row r="24" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A24" s="13">
         <v>42570</v>
       </c>
@@ -7114,7 +6515,7 @@
       <c r="BY24" s="5"/>
       <c r="BZ24" s="5"/>
     </row>
-    <row r="25" spans="1:77">
+    <row r="25" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A25" s="13">
         <v>42571</v>
       </c>
@@ -7261,7 +6662,7 @@
       <c r="BX25" s="5"/>
       <c r="BY25" s="5"/>
     </row>
-    <row r="26" spans="1:76">
+    <row r="26" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A26" s="13">
         <v>42572</v>
       </c>
@@ -7407,7 +6808,7 @@
       <c r="BW26" s="5"/>
       <c r="BX26" s="5"/>
     </row>
-    <row r="27" spans="1:75">
+    <row r="27" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A27" s="13">
         <v>42573</v>
       </c>
@@ -7552,7 +6953,7 @@
       <c r="BV27" s="5"/>
       <c r="BW27" s="5"/>
     </row>
-    <row r="28" spans="1:74">
+    <row r="28" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A28" s="13">
         <v>42574</v>
       </c>
@@ -7696,7 +7097,7 @@
       <c r="BU28" s="5"/>
       <c r="BV28" s="5"/>
     </row>
-    <row r="29" spans="1:73">
+    <row r="29" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A29" s="13">
         <v>42575</v>
       </c>
@@ -7839,7 +7240,7 @@
       <c r="BT29" s="5"/>
       <c r="BU29" s="5"/>
     </row>
-    <row r="30" spans="1:72">
+    <row r="30" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A30" s="13">
         <v>42576</v>
       </c>
@@ -7981,7 +7382,7 @@
       <c r="BS30" s="5"/>
       <c r="BT30" s="5"/>
     </row>
-    <row r="31" spans="1:71">
+    <row r="31" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A31" s="13">
         <v>42577</v>
       </c>
@@ -8122,7 +7523,7 @@
       <c r="BR31" s="5"/>
       <c r="BS31" s="5"/>
     </row>
-    <row r="32" spans="1:70">
+    <row r="32" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A32" s="13">
         <v>42578</v>
       </c>
@@ -8262,7 +7663,7 @@
       <c r="BQ32" s="5"/>
       <c r="BR32" s="5"/>
     </row>
-    <row r="33" spans="1:69">
+    <row r="33" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A33" s="13">
         <v>42579</v>
       </c>
@@ -8401,7 +7802,7 @@
       <c r="BP33" s="5"/>
       <c r="BQ33" s="5"/>
     </row>
-    <row r="34" spans="1:68">
+    <row r="34" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A34" s="13">
         <v>42580</v>
       </c>
@@ -8539,7 +7940,7 @@
       <c r="BO34" s="5"/>
       <c r="BP34" s="5"/>
     </row>
-    <row r="35" spans="1:67">
+    <row r="35" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A35" s="13">
         <v>42581</v>
       </c>
@@ -8676,7 +8077,7 @@
       <c r="BN35" s="5"/>
       <c r="BO35" s="5"/>
     </row>
-    <row r="36" spans="1:66">
+    <row r="36" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A36" s="13">
         <v>42582</v>
       </c>
@@ -8812,7 +8213,7 @@
       <c r="BM36" s="5"/>
       <c r="BN36" s="5"/>
     </row>
-    <row r="37" spans="1:65">
+    <row r="37" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A37" s="13">
         <v>42583</v>
       </c>
@@ -8947,7 +8348,7 @@
       <c r="BL37" s="5"/>
       <c r="BM37" s="5"/>
     </row>
-    <row r="38" spans="1:64">
+    <row r="38" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A38" s="13">
         <v>42584</v>
       </c>
@@ -9081,7 +8482,7 @@
       <c r="BK38" s="5"/>
       <c r="BL38" s="5"/>
     </row>
-    <row r="39" spans="1:63">
+    <row r="39" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A39" s="13">
         <v>42585</v>
       </c>
@@ -9214,7 +8615,7 @@
       <c r="BJ39" s="5"/>
       <c r="BK39" s="5"/>
     </row>
-    <row r="40" spans="1:62">
+    <row r="40" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A40" s="13">
         <v>42586</v>
       </c>
@@ -9346,7 +8747,7 @@
       <c r="BI40" s="5"/>
       <c r="BJ40" s="5"/>
     </row>
-    <row r="41" spans="1:61">
+    <row r="41" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A41" s="13">
         <v>42587</v>
       </c>
@@ -9477,7 +8878,7 @@
       <c r="BH41" s="5"/>
       <c r="BI41" s="5"/>
     </row>
-    <row r="42" ht="14.25" spans="1:60">
+    <row r="42" spans="1:69" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="13">
         <v>42588</v>
       </c>
@@ -9604,7 +9005,7 @@
       <c r="BG42" s="5"/>
       <c r="BH42" s="5"/>
     </row>
-    <row r="43" ht="14.25" spans="1:59">
+    <row r="43" spans="1:69" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="13">
         <v>42589</v>
       </c>
@@ -9731,7 +9132,7 @@
       <c r="BF43" s="5"/>
       <c r="BG43" s="5"/>
     </row>
-    <row r="44" ht="14.25" spans="1:58">
+    <row r="44" spans="1:69" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="13">
         <v>42590</v>
       </c>
@@ -9858,7 +9259,7 @@
       <c r="BE44" s="5"/>
       <c r="BF44" s="5"/>
     </row>
-    <row r="45" ht="14.25" spans="1:57">
+    <row r="45" spans="1:69" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="13">
         <v>42591</v>
       </c>
@@ -9985,7 +9386,7 @@
       <c r="BD45" s="5"/>
       <c r="BE45" s="5"/>
     </row>
-    <row r="46" ht="14.25" spans="1:56">
+    <row r="46" spans="1:69" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="13">
         <v>42592</v>
       </c>
@@ -10111,7 +9512,7 @@
       <c r="BC46" s="5"/>
       <c r="BD46" s="5"/>
     </row>
-    <row r="47" ht="14.25" spans="1:55">
+    <row r="47" spans="1:69" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="13">
         <v>42593</v>
       </c>
@@ -10236,7 +9637,7 @@
       <c r="BB47" s="5"/>
       <c r="BC47" s="5"/>
     </row>
-    <row r="48" ht="14.25" spans="1:54">
+    <row r="48" spans="1:69" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="13">
         <v>42594</v>
       </c>
@@ -10360,7 +9761,7 @@
       <c r="BA48" s="5"/>
       <c r="BB48" s="5"/>
     </row>
-    <row r="49" ht="14.25" spans="1:53">
+    <row r="49" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="13">
         <v>42595</v>
       </c>
@@ -10483,7 +9884,7 @@
       <c r="AZ49" s="5"/>
       <c r="BA49" s="5"/>
     </row>
-    <row r="50" ht="14.25" spans="1:52">
+    <row r="50" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="13">
         <v>42596</v>
       </c>
@@ -10605,7 +10006,7 @@
       <c r="AY50" s="5"/>
       <c r="AZ50" s="5"/>
     </row>
-    <row r="51" ht="14.25" spans="1:51">
+    <row r="51" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="13">
         <v>42597</v>
       </c>
@@ -10726,7 +10127,7 @@
       <c r="AX51" s="5"/>
       <c r="AY51" s="5"/>
     </row>
-    <row r="52" ht="14.25" spans="1:50">
+    <row r="52" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="13">
         <v>42598</v>
       </c>
@@ -10846,7 +10247,7 @@
       <c r="AW52" s="5"/>
       <c r="AX52" s="5"/>
     </row>
-    <row r="53" ht="14.25" spans="1:49">
+    <row r="53" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="13">
         <v>42599</v>
       </c>
@@ -10965,7 +10366,7 @@
       <c r="AV53" s="5"/>
       <c r="AW53" s="5"/>
     </row>
-    <row r="54" ht="14.25" spans="1:48">
+    <row r="54" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A54" s="13">
         <v>42600</v>
       </c>
@@ -11083,7 +10484,7 @@
       <c r="AU54" s="10"/>
       <c r="AV54" s="5"/>
     </row>
-    <row r="55" ht="14.25" spans="1:47">
+    <row r="55" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A55" s="13">
         <v>42601</v>
       </c>
@@ -11200,7 +10601,7 @@
       <c r="AT55" s="10"/>
       <c r="AU55" s="10"/>
     </row>
-    <row r="56" ht="14.25" spans="1:46">
+    <row r="56" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="13">
         <v>42602</v>
       </c>
@@ -11316,7 +10717,7 @@
       <c r="AS56" s="10"/>
       <c r="AT56" s="10"/>
     </row>
-    <row r="57" ht="14.25" spans="1:46">
+    <row r="57" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A57" s="13">
         <v>42603</v>
       </c>
@@ -11432,7 +10833,7 @@
       <c r="AS57" s="10"/>
       <c r="AT57" s="10"/>
     </row>
-    <row r="58" ht="14.25" spans="1:46">
+    <row r="58" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="13">
         <v>42604</v>
       </c>
@@ -11548,7 +10949,7 @@
       <c r="AS58" s="10"/>
       <c r="AT58" s="10"/>
     </row>
-    <row r="59" ht="14.25" spans="1:46">
+    <row r="59" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="13">
         <v>42605</v>
       </c>
@@ -11664,7 +11065,7 @@
       <c r="AS59" s="10"/>
       <c r="AT59" s="10"/>
     </row>
-    <row r="60" ht="14.25" spans="1:46">
+    <row r="60" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A60" s="13">
         <v>42606</v>
       </c>
@@ -11780,7 +11181,7 @@
       <c r="AS60" s="10"/>
       <c r="AT60" s="10"/>
     </row>
-    <row r="61" ht="14.25" spans="1:59">
+    <row r="61" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="13">
         <v>42607</v>
       </c>
@@ -11907,7 +11308,7 @@
       <c r="BF61" s="10"/>
       <c r="BG61" s="10"/>
     </row>
-    <row r="62" ht="14.25" spans="1:46">
+    <row r="62" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A62" s="13">
         <v>42608</v>
       </c>
@@ -12019,7 +11420,7 @@
       <c r="AS62" s="10"/>
       <c r="AT62" s="10"/>
     </row>
-    <row r="63" ht="14.25" spans="1:58">
+    <row r="63" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A63" s="13">
         <v>42609</v>
       </c>
@@ -12141,7 +11542,7 @@
       <c r="BE63" s="10"/>
       <c r="BF63" s="10"/>
     </row>
-    <row r="64" ht="14.25" spans="1:57">
+    <row r="64" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A64" s="13">
         <v>42610</v>
       </c>
@@ -12260,7 +11661,7 @@
       <c r="BD64" s="10"/>
       <c r="BE64" s="10"/>
     </row>
-    <row r="65" ht="14.25" spans="1:46">
+    <row r="65" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A65" s="13">
         <v>42611</v>
       </c>
@@ -12366,7 +11767,7 @@
       <c r="AS65" s="10"/>
       <c r="AT65" s="10"/>
     </row>
-    <row r="66" ht="14.25" spans="1:46">
+    <row r="66" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A66" s="13">
         <v>42612</v>
       </c>
@@ -12470,7 +11871,7 @@
       <c r="AS66" s="10"/>
       <c r="AT66" s="10"/>
     </row>
-    <row r="67" ht="14.25" spans="1:46">
+    <row r="67" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A67" s="13">
         <v>42613</v>
       </c>
@@ -12572,7 +11973,7 @@
       <c r="AS67" s="10"/>
       <c r="AT67" s="10"/>
     </row>
-    <row r="68" ht="14.25" spans="1:53">
+    <row r="68" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A68" s="13">
         <v>42614</v>
       </c>
@@ -12679,7 +12080,7 @@
       <c r="AZ68" s="10"/>
       <c r="BA68" s="10"/>
     </row>
-    <row r="69" ht="14.25" spans="1:46">
+    <row r="69" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A69" s="13">
         <v>42615</v>
       </c>
@@ -12777,7 +12178,7 @@
       <c r="AS69" s="10"/>
       <c r="AT69" s="10"/>
     </row>
-    <row r="70" ht="14.25" spans="1:46">
+    <row r="70" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A70" s="13">
         <v>42616</v>
       </c>
@@ -12873,7 +12274,7 @@
       <c r="AS70" s="10"/>
       <c r="AT70" s="10"/>
     </row>
-    <row r="71" ht="14.25" spans="1:46">
+    <row r="71" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A71" s="13">
         <v>42617</v>
       </c>
@@ -12967,7 +12368,7 @@
       <c r="AS71" s="10"/>
       <c r="AT71" s="10"/>
     </row>
-    <row r="72" ht="14.25" spans="1:49">
+    <row r="72" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A72" s="13">
         <v>42618</v>
       </c>
@@ -13062,7 +12463,7 @@
       <c r="AV72" s="10"/>
       <c r="AW72" s="10"/>
     </row>
-    <row r="73" ht="14.25" spans="1:46">
+    <row r="73" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A73" s="13">
         <v>42619</v>
       </c>
@@ -13152,7 +12553,7 @@
       <c r="AS73" s="10"/>
       <c r="AT73" s="10"/>
     </row>
-    <row r="74" ht="14.25" spans="1:47">
+    <row r="74" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A74" s="13">
         <v>42620</v>
       </c>
@@ -13241,7 +12642,7 @@
       <c r="AT74" s="10"/>
       <c r="AU74" s="10"/>
     </row>
-    <row r="75" ht="14.25" spans="1:46">
+    <row r="75" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A75" s="13">
         <v>42621</v>
       </c>
@@ -13327,7 +12728,7 @@
       <c r="AS75" s="10"/>
       <c r="AT75" s="10"/>
     </row>
-    <row r="76" ht="14.25" spans="1:46">
+    <row r="76" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A76" s="13">
         <v>42622</v>
       </c>
@@ -13411,7 +12812,7 @@
       <c r="AS76" s="10"/>
       <c r="AT76" s="10"/>
     </row>
-    <row r="77" ht="14.25" spans="1:46">
+    <row r="77" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A77" s="13">
         <v>42623</v>
       </c>
@@ -13493,7 +12894,7 @@
       <c r="AS77" s="10"/>
       <c r="AT77" s="10"/>
     </row>
-    <row r="78" ht="14.25" spans="1:46">
+    <row r="78" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A78" s="13">
         <v>42624</v>
       </c>
@@ -13573,7 +12974,7 @@
       <c r="AS78" s="10"/>
       <c r="AT78" s="10"/>
     </row>
-    <row r="79" ht="14.25" spans="1:46">
+    <row r="79" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A79" s="13">
         <v>42625</v>
       </c>
@@ -13651,7 +13052,7 @@
       <c r="AS79" s="10"/>
       <c r="AT79" s="10"/>
     </row>
-    <row r="80" ht="14.25" spans="1:46">
+    <row r="80" spans="1:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A80" s="13">
         <v>42626</v>
       </c>
@@ -13727,7 +13128,7 @@
       <c r="AS80" s="10"/>
       <c r="AT80" s="10"/>
     </row>
-    <row r="81" ht="14.25" spans="1:46">
+    <row r="81" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A81" s="13">
         <v>42627</v>
       </c>
@@ -13801,7 +13202,7 @@
       <c r="AS81" s="10"/>
       <c r="AT81" s="10"/>
     </row>
-    <row r="82" ht="14.25" spans="1:46">
+    <row r="82" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="13">
         <v>42628</v>
       </c>
@@ -13873,7 +13274,7 @@
       <c r="AS82" s="10"/>
       <c r="AT82" s="10"/>
     </row>
-    <row r="83" ht="14.25" spans="1:46">
+    <row r="83" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A83" s="13">
         <v>42629</v>
       </c>
@@ -13943,7 +13344,7 @@
       <c r="AS83" s="10"/>
       <c r="AT83" s="10"/>
     </row>
-    <row r="84" ht="14.25" spans="1:46">
+    <row r="84" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A84" s="13">
         <v>42630</v>
       </c>
@@ -14011,7 +13412,7 @@
       <c r="AS84" s="10"/>
       <c r="AT84" s="10"/>
     </row>
-    <row r="85" ht="14.25" spans="1:46">
+    <row r="85" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A85" s="13">
         <v>42631</v>
       </c>
@@ -14070,7 +13471,7 @@
       <c r="AS85" s="10"/>
       <c r="AT85" s="10"/>
     </row>
-    <row r="86" ht="14.25" spans="1:46">
+    <row r="86" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A86" s="13">
         <v>42632</v>
       </c>
@@ -14134,7 +13535,7 @@
       <c r="AS86" s="10"/>
       <c r="AT86" s="10"/>
     </row>
-    <row r="87" ht="14.25" spans="1:34">
+    <row r="87" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A87" s="13">
         <v>42633</v>
       </c>
@@ -14184,7 +13585,7 @@
       <c r="AG87" s="10"/>
       <c r="AH87" s="10"/>
     </row>
-    <row r="88" ht="14.25" spans="1:33">
+    <row r="88" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A88" s="13">
         <v>42634</v>
       </c>
@@ -14231,7 +13632,7 @@
       <c r="AF88" s="10"/>
       <c r="AG88" s="10"/>
     </row>
-    <row r="89" ht="14.25" spans="1:32">
+    <row r="89" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A89" s="13">
         <v>42635</v>
       </c>
@@ -14275,7 +13676,7 @@
       <c r="AE89" s="10"/>
       <c r="AF89" s="10"/>
     </row>
-    <row r="90" ht="14.25" spans="1:31">
+    <row r="90" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A90" s="13">
         <v>42636</v>
       </c>
@@ -14316,7 +13717,7 @@
       <c r="AD90" s="10"/>
       <c r="AE90" s="10"/>
     </row>
-    <row r="91" ht="14.25" spans="1:30">
+    <row r="91" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A91" s="13">
         <v>42637</v>
       </c>
@@ -14350,8 +13751,10 @@
       <c r="AC91" s="10"/>
       <c r="AD91" s="10"/>
     </row>
-    <row r="92" ht="14.25" spans="1:29">
-      <c r="A92" s="2"/>
+    <row r="92" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A92" s="13">
+        <v>42638</v>
+      </c>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
@@ -14381,8 +13784,10 @@
       <c r="AB92" s="10"/>
       <c r="AC92" s="10"/>
     </row>
-    <row r="93" ht="14.25" spans="1:28">
-      <c r="A93" s="2"/>
+    <row r="93" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A93" s="13">
+        <v>42639</v>
+      </c>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
@@ -14411,8 +13816,10 @@
       <c r="AA93" s="10"/>
       <c r="AB93" s="10"/>
     </row>
-    <row r="94" ht="14.25" spans="1:27">
-      <c r="A94" s="2"/>
+    <row r="94" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A94" s="13">
+        <v>42640</v>
+      </c>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -14440,8 +13847,10 @@
       <c r="Z94" s="10"/>
       <c r="AA94" s="10"/>
     </row>
-    <row r="95" ht="14.25" spans="1:26">
-      <c r="A95" s="2"/>
+    <row r="95" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A95" s="13">
+        <v>42641</v>
+      </c>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -14468,8 +13877,10 @@
       <c r="Y95" s="10"/>
       <c r="Z95" s="10"/>
     </row>
-    <row r="96" ht="14.25" spans="1:25">
-      <c r="A96" s="2"/>
+    <row r="96" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A96" s="13">
+        <v>42642</v>
+      </c>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
@@ -14495,8 +13906,10 @@
       <c r="X96" s="10"/>
       <c r="Y96" s="10"/>
     </row>
-    <row r="97" ht="14.25" spans="1:24">
-      <c r="A97" s="2"/>
+    <row r="97" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A97" s="13">
+        <v>42643</v>
+      </c>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
@@ -14521,8 +13934,10 @@
       <c r="W97" s="10"/>
       <c r="X97" s="10"/>
     </row>
-    <row r="98" ht="14.25" spans="1:23">
-      <c r="A98" s="2"/>
+    <row r="98" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A98" s="13">
+        <v>42644</v>
+      </c>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
@@ -14546,8 +13961,10 @@
       <c r="V98" s="10"/>
       <c r="W98" s="10"/>
     </row>
-    <row r="99" ht="14.25" spans="1:22">
-      <c r="A99" s="2"/>
+    <row r="99" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A99" s="13">
+        <v>42645</v>
+      </c>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -14570,8 +13987,10 @@
       <c r="U99" s="10"/>
       <c r="V99" s="10"/>
     </row>
-    <row r="100" ht="14.25" spans="1:21">
-      <c r="A100" s="2"/>
+    <row r="100" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A100" s="13">
+        <v>42646</v>
+      </c>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
@@ -14593,8 +14012,10 @@
       <c r="T100" s="10"/>
       <c r="U100" s="10"/>
     </row>
-    <row r="101" ht="14.25" spans="1:20">
-      <c r="A101" s="2"/>
+    <row r="101" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A101" s="13">
+        <v>42647</v>
+      </c>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
@@ -14615,8 +14036,10 @@
       <c r="S101" s="10"/>
       <c r="T101" s="10"/>
     </row>
-    <row r="102" ht="14.25" spans="1:19">
-      <c r="A102" s="2"/>
+    <row r="102" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A102" s="13">
+        <v>42648</v>
+      </c>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
@@ -14636,8 +14059,10 @@
       <c r="R102" s="10"/>
       <c r="S102" s="10"/>
     </row>
-    <row r="103" ht="14.25" spans="1:18">
-      <c r="A103" s="2"/>
+    <row r="103" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A103" s="13">
+        <v>42649</v>
+      </c>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
@@ -14656,8 +14081,10 @@
       <c r="Q103" s="10"/>
       <c r="R103" s="10"/>
     </row>
-    <row r="104" ht="14.25" spans="1:17">
-      <c r="A104" s="2"/>
+    <row r="104" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A104" s="13">
+        <v>42650</v>
+      </c>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
@@ -14675,8 +14102,10 @@
       <c r="P104" s="10"/>
       <c r="Q104" s="10"/>
     </row>
-    <row r="105" ht="14.25" spans="1:16">
-      <c r="A105" s="2"/>
+    <row r="105" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A105" s="13">
+        <v>42651</v>
+      </c>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
@@ -14693,8 +14122,10 @@
       <c r="O105" s="10"/>
       <c r="P105" s="10"/>
     </row>
-    <row r="106" ht="14.25" spans="1:15">
-      <c r="A106" s="2"/>
+    <row r="106" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A106" s="13">
+        <v>42652</v>
+      </c>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
@@ -14710,8 +14141,10 @@
       <c r="N106" s="10"/>
       <c r="O106" s="10"/>
     </row>
-    <row r="107" ht="14.25" spans="1:14">
-      <c r="A107" s="2"/>
+    <row r="107" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A107" s="13">
+        <v>42653</v>
+      </c>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
@@ -14726,8 +14159,10 @@
       <c r="M107" s="10"/>
       <c r="N107" s="10"/>
     </row>
-    <row r="108" ht="14.25" spans="1:13">
-      <c r="A108" s="2"/>
+    <row r="108" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A108" s="13">
+        <v>42654</v>
+      </c>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
@@ -14741,8 +14176,10 @@
       <c r="L108" s="10"/>
       <c r="M108" s="10"/>
     </row>
-    <row r="109" ht="14.25" spans="1:12">
-      <c r="A109" s="2"/>
+    <row r="109" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A109" s="13">
+        <v>42655</v>
+      </c>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
@@ -14755,8 +14192,10 @@
       <c r="K109" s="10"/>
       <c r="L109" s="10"/>
     </row>
-    <row r="110" ht="14.25" spans="1:11">
-      <c r="A110" s="2"/>
+    <row r="110" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A110" s="13">
+        <v>42656</v>
+      </c>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
@@ -14768,8 +14207,10 @@
       <c r="J110" s="10"/>
       <c r="K110" s="10"/>
     </row>
-    <row r="111" ht="14.25" spans="1:10">
-      <c r="A111" s="2"/>
+    <row r="111" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A111" s="13">
+        <v>42657</v>
+      </c>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -14780,8 +14221,10 @@
       <c r="I111" s="10"/>
       <c r="J111" s="10"/>
     </row>
-    <row r="112" ht="14.25" spans="1:9">
-      <c r="A112" s="2"/>
+    <row r="112" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A112" s="13">
+        <v>42658</v>
+      </c>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
@@ -14791,8 +14234,10 @@
       <c r="H112" s="10"/>
       <c r="I112" s="10"/>
     </row>
-    <row r="113" ht="14.25" spans="1:8">
-      <c r="A113" s="2"/>
+    <row r="113" spans="1:97" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A113" s="13">
+        <v>42659</v>
+      </c>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
@@ -14801,7 +14246,7 @@
       <c r="G113" s="10"/>
       <c r="H113" s="10"/>
     </row>
-    <row r="114" ht="14.25" spans="1:7">
+    <row r="114" spans="1:97" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A114" s="2"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -14810,7 +14255,7 @@
       <c r="F114" s="10"/>
       <c r="G114" s="10"/>
     </row>
-    <row r="115" ht="14.25" spans="1:6">
+    <row r="115" spans="1:97" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A115" s="2"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -14818,74 +14263,74 @@
       <c r="E115" s="10"/>
       <c r="F115" s="10"/>
     </row>
-    <row r="116" ht="14.25" spans="1:5">
+    <row r="116" spans="1:97" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A116" s="2"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="10"/>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A117" s="2"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A118" s="2"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A119" s="2"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A120" s="2"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A121" s="2"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A122" s="2"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A123" s="2"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A124" s="2"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A125" s="2"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A126" s="2"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
     </row>
-    <row r="128" ht="14.25" spans="1:97">
+    <row r="128" spans="1:97" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -14938,7 +14383,7 @@
       <c r="CQ128" s="5"/>
       <c r="CS128" s="5"/>
     </row>
-    <row r="129" spans="1:95">
+    <row r="129" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A129" s="16"/>
       <c r="C129" s="5"/>
       <c r="D129" s="7"/>
@@ -15034,7 +14479,7 @@
       <c r="CP129" s="7"/>
       <c r="CQ129" s="7"/>
     </row>
-    <row r="130" spans="1:95">
+    <row r="130" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A130" s="16"/>
       <c r="C130" s="5"/>
       <c r="D130" s="7"/>
@@ -15130,7 +14575,7 @@
       <c r="CP130" s="7"/>
       <c r="CQ130" s="7"/>
     </row>
-    <row r="131" spans="1:95">
+    <row r="131" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A131" s="16"/>
       <c r="C131" s="5"/>
       <c r="D131" s="7"/>
@@ -15226,7 +14671,7 @@
       <c r="CP131" s="7"/>
       <c r="CQ131" s="7"/>
     </row>
-    <row r="132" spans="1:95">
+    <row r="132" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A132" s="16"/>
       <c r="C132" s="5"/>
       <c r="D132" s="7"/>
@@ -15322,7 +14767,7 @@
       <c r="CP132" s="7"/>
       <c r="CQ132" s="7"/>
     </row>
-    <row r="133" spans="1:95">
+    <row r="133" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A133" s="16"/>
       <c r="C133" s="5"/>
       <c r="D133" s="7"/>
@@ -15418,7 +14863,7 @@
       <c r="CP133" s="7"/>
       <c r="CQ133" s="7"/>
     </row>
-    <row r="134" spans="1:95">
+    <row r="134" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A134" s="16"/>
       <c r="C134" s="5"/>
       <c r="D134" s="7"/>
@@ -15514,7 +14959,7 @@
       <c r="CP134" s="7"/>
       <c r="CQ134" s="7"/>
     </row>
-    <row r="135" spans="1:95">
+    <row r="135" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A135" s="16"/>
       <c r="C135" s="5"/>
       <c r="D135" s="7"/>
@@ -15610,7 +15055,7 @@
       <c r="CP135" s="7"/>
       <c r="CQ135" s="7"/>
     </row>
-    <row r="136" spans="1:95">
+    <row r="136" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A136" s="16"/>
       <c r="C136" s="5"/>
       <c r="D136" s="7"/>
@@ -15706,7 +15151,7 @@
       <c r="CP136" s="7"/>
       <c r="CQ136" s="7"/>
     </row>
-    <row r="137" spans="1:95">
+    <row r="137" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A137" s="16"/>
       <c r="C137" s="5"/>
       <c r="D137" s="7"/>
@@ -15802,7 +15247,7 @@
       <c r="CP137" s="7"/>
       <c r="CQ137" s="7"/>
     </row>
-    <row r="138" spans="1:95">
+    <row r="138" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A138" s="16"/>
       <c r="C138" s="5"/>
       <c r="D138" s="7"/>
@@ -15898,7 +15343,7 @@
       <c r="CP138" s="7"/>
       <c r="CQ138" s="7"/>
     </row>
-    <row r="139" spans="1:95">
+    <row r="139" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A139" s="16"/>
       <c r="C139" s="5"/>
       <c r="D139" s="7"/>
@@ -15994,7 +15439,7 @@
       <c r="CP139" s="7"/>
       <c r="CQ139" s="7"/>
     </row>
-    <row r="140" spans="1:95">
+    <row r="140" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A140" s="16"/>
       <c r="C140" s="5"/>
       <c r="D140" s="7"/>
@@ -16090,7 +15535,7 @@
       <c r="CP140" s="7"/>
       <c r="CQ140" s="7"/>
     </row>
-    <row r="141" spans="1:95">
+    <row r="141" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A141" s="16"/>
       <c r="C141" s="5"/>
       <c r="D141" s="7"/>
@@ -16186,7 +15631,7 @@
       <c r="CP141" s="7"/>
       <c r="CQ141" s="7"/>
     </row>
-    <row r="142" spans="1:95">
+    <row r="142" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A142" s="16"/>
       <c r="C142" s="5"/>
       <c r="D142" s="7"/>
@@ -16282,7 +15727,7 @@
       <c r="CP142" s="7"/>
       <c r="CQ142" s="7"/>
     </row>
-    <row r="143" spans="1:95">
+    <row r="143" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A143" s="16"/>
       <c r="C143" s="5"/>
       <c r="D143" s="7"/>
@@ -16378,7 +15823,7 @@
       <c r="CP143" s="7"/>
       <c r="CQ143" s="7"/>
     </row>
-    <row r="144" spans="1:95">
+    <row r="144" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A144" s="16"/>
       <c r="C144" s="5"/>
       <c r="D144" s="7"/>
@@ -16474,7 +15919,7 @@
       <c r="CP144" s="7"/>
       <c r="CQ144" s="7"/>
     </row>
-    <row r="145" spans="1:95">
+    <row r="145" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A145" s="16"/>
       <c r="C145" s="5"/>
       <c r="D145" s="7"/>
@@ -16570,7 +16015,7 @@
       <c r="CP145" s="7"/>
       <c r="CQ145" s="7"/>
     </row>
-    <row r="146" spans="1:95">
+    <row r="146" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A146" s="16"/>
       <c r="C146" s="5"/>
       <c r="D146" s="7"/>
@@ -16666,7 +16111,7 @@
       <c r="CP146" s="7"/>
       <c r="CQ146" s="7"/>
     </row>
-    <row r="147" spans="1:95">
+    <row r="147" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A147" s="16"/>
       <c r="C147" s="5"/>
       <c r="D147" s="7"/>
@@ -16762,7 +16207,7 @@
       <c r="CP147" s="7"/>
       <c r="CQ147" s="7"/>
     </row>
-    <row r="148" spans="1:95">
+    <row r="148" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A148" s="16"/>
       <c r="C148" s="5"/>
       <c r="D148" s="7"/>
@@ -16858,7 +16303,7 @@
       <c r="CP148" s="7"/>
       <c r="CQ148" s="7"/>
     </row>
-    <row r="149" spans="1:95">
+    <row r="149" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A149" s="16"/>
       <c r="C149" s="5"/>
       <c r="D149" s="7"/>
@@ -16954,7 +16399,7 @@
       <c r="CP149" s="7"/>
       <c r="CQ149" s="7"/>
     </row>
-    <row r="150" spans="1:95">
+    <row r="150" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A150" s="16"/>
       <c r="C150" s="5"/>
       <c r="D150" s="7"/>
@@ -17050,7 +16495,7 @@
       <c r="CP150" s="7"/>
       <c r="CQ150" s="7"/>
     </row>
-    <row r="151" spans="1:95">
+    <row r="151" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A151" s="16"/>
       <c r="C151" s="5"/>
       <c r="D151" s="7"/>
@@ -17146,7 +16591,7 @@
       <c r="CP151" s="7"/>
       <c r="CQ151" s="7"/>
     </row>
-    <row r="152" spans="1:95">
+    <row r="152" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A152" s="16"/>
       <c r="C152" s="5"/>
       <c r="D152" s="7"/>
@@ -17242,7 +16687,7 @@
       <c r="CP152" s="7"/>
       <c r="CQ152" s="7"/>
     </row>
-    <row r="153" spans="1:95">
+    <row r="153" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A153" s="16"/>
       <c r="C153" s="5"/>
       <c r="D153" s="7"/>
@@ -17338,7 +16783,7 @@
       <c r="CP153" s="7"/>
       <c r="CQ153" s="7"/>
     </row>
-    <row r="154" spans="1:95">
+    <row r="154" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A154" s="16"/>
       <c r="C154" s="5"/>
       <c r="D154" s="7"/>
@@ -17434,7 +16879,7 @@
       <c r="CP154" s="7"/>
       <c r="CQ154" s="7"/>
     </row>
-    <row r="155" spans="1:95">
+    <row r="155" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A155" s="16"/>
       <c r="C155" s="5"/>
       <c r="D155" s="7"/>
@@ -17530,7 +16975,7 @@
       <c r="CP155" s="7"/>
       <c r="CQ155" s="7"/>
     </row>
-    <row r="156" spans="1:95">
+    <row r="156" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A156" s="16"/>
       <c r="C156" s="5"/>
       <c r="D156" s="7"/>
@@ -17626,7 +17071,7 @@
       <c r="CP156" s="7"/>
       <c r="CQ156" s="7"/>
     </row>
-    <row r="157" spans="1:95">
+    <row r="157" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A157" s="16"/>
       <c r="C157" s="5"/>
       <c r="D157" s="7"/>
@@ -17722,7 +17167,7 @@
       <c r="CP157" s="7"/>
       <c r="CQ157" s="7"/>
     </row>
-    <row r="158" spans="1:95">
+    <row r="158" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A158" s="16"/>
       <c r="C158" s="5"/>
       <c r="D158" s="7"/>
@@ -17818,7 +17263,7 @@
       <c r="CP158" s="7"/>
       <c r="CQ158" s="7"/>
     </row>
-    <row r="159" spans="1:95">
+    <row r="159" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A159" s="16"/>
       <c r="C159" s="5"/>
       <c r="D159" s="7"/>
@@ -17914,7 +17359,7 @@
       <c r="CP159" s="7"/>
       <c r="CQ159" s="7"/>
     </row>
-    <row r="160" spans="1:95">
+    <row r="160" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A160" s="16"/>
       <c r="C160" s="5"/>
       <c r="D160" s="7"/>
@@ -18010,7 +17455,7 @@
       <c r="CP160" s="7"/>
       <c r="CQ160" s="7"/>
     </row>
-    <row r="161" spans="1:95">
+    <row r="161" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A161" s="16"/>
       <c r="C161" s="5"/>
       <c r="D161" s="7"/>
@@ -18106,7 +17551,7 @@
       <c r="CP161" s="7"/>
       <c r="CQ161" s="7"/>
     </row>
-    <row r="162" spans="1:95">
+    <row r="162" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A162" s="16"/>
       <c r="C162" s="5"/>
       <c r="D162" s="7"/>
@@ -18202,7 +17647,7 @@
       <c r="CP162" s="7"/>
       <c r="CQ162" s="7"/>
     </row>
-    <row r="163" spans="1:95">
+    <row r="163" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A163" s="16"/>
       <c r="C163" s="5"/>
       <c r="D163" s="7"/>
@@ -18298,7 +17743,7 @@
       <c r="CP163" s="7"/>
       <c r="CQ163" s="7"/>
     </row>
-    <row r="164" spans="1:95">
+    <row r="164" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A164" s="16"/>
       <c r="C164" s="5"/>
       <c r="D164" s="7"/>
@@ -18394,7 +17839,7 @@
       <c r="CP164" s="7"/>
       <c r="CQ164" s="7"/>
     </row>
-    <row r="165" spans="1:95">
+    <row r="165" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A165" s="16"/>
       <c r="C165" s="5"/>
       <c r="D165" s="7"/>
@@ -18490,7 +17935,7 @@
       <c r="CP165" s="7"/>
       <c r="CQ165" s="7"/>
     </row>
-    <row r="166" spans="1:95">
+    <row r="166" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A166" s="16"/>
       <c r="C166" s="5"/>
       <c r="D166" s="7"/>
@@ -18586,7 +18031,7 @@
       <c r="CP166" s="7"/>
       <c r="CQ166" s="7"/>
     </row>
-    <row r="167" spans="1:95">
+    <row r="167" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A167" s="16"/>
       <c r="C167" s="5"/>
       <c r="D167" s="7"/>
@@ -18682,7 +18127,7 @@
       <c r="CP167" s="7"/>
       <c r="CQ167" s="7"/>
     </row>
-    <row r="168" spans="1:95">
+    <row r="168" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A168" s="16"/>
       <c r="C168" s="5"/>
       <c r="D168" s="7"/>
@@ -18778,7 +18223,7 @@
       <c r="CP168" s="7"/>
       <c r="CQ168" s="7"/>
     </row>
-    <row r="169" spans="1:95">
+    <row r="169" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A169" s="16"/>
       <c r="C169" s="5"/>
       <c r="D169" s="7"/>
@@ -18874,7 +18319,7 @@
       <c r="CP169" s="7"/>
       <c r="CQ169" s="7"/>
     </row>
-    <row r="170" spans="1:95">
+    <row r="170" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A170" s="16"/>
       <c r="C170" s="5"/>
       <c r="D170" s="7"/>
@@ -18970,7 +18415,7 @@
       <c r="CP170" s="7"/>
       <c r="CQ170" s="7"/>
     </row>
-    <row r="171" spans="1:95">
+    <row r="171" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A171" s="16"/>
       <c r="C171" s="5"/>
       <c r="D171" s="7"/>
@@ -19066,7 +18511,7 @@
       <c r="CP171" s="7"/>
       <c r="CQ171" s="7"/>
     </row>
-    <row r="172" spans="1:95">
+    <row r="172" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A172" s="16"/>
       <c r="C172" s="5"/>
       <c r="D172" s="7"/>
@@ -19162,7 +18607,7 @@
       <c r="CP172" s="7"/>
       <c r="CQ172" s="7"/>
     </row>
-    <row r="173" spans="1:95">
+    <row r="173" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A173" s="16"/>
       <c r="C173" s="5"/>
       <c r="D173" s="7"/>
@@ -19258,7 +18703,7 @@
       <c r="CP173" s="7"/>
       <c r="CQ173" s="7"/>
     </row>
-    <row r="174" spans="1:95">
+    <row r="174" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A174" s="16"/>
       <c r="C174" s="5"/>
       <c r="D174" s="7"/>
@@ -19354,7 +18799,7 @@
       <c r="CP174" s="7"/>
       <c r="CQ174" s="7"/>
     </row>
-    <row r="175" spans="1:95">
+    <row r="175" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A175" s="16"/>
       <c r="C175" s="5"/>
       <c r="D175" s="7"/>
@@ -19450,7 +18895,7 @@
       <c r="CP175" s="7"/>
       <c r="CQ175" s="7"/>
     </row>
-    <row r="176" spans="1:95">
+    <row r="176" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A176" s="16"/>
       <c r="C176" s="5"/>
       <c r="D176" s="7"/>
@@ -19546,7 +18991,7 @@
       <c r="CP176" s="7"/>
       <c r="CQ176" s="7"/>
     </row>
-    <row r="177" spans="1:95">
+    <row r="177" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A177" s="16"/>
       <c r="C177" s="5"/>
       <c r="D177" s="7"/>
@@ -19642,7 +19087,7 @@
       <c r="CP177" s="7"/>
       <c r="CQ177" s="7"/>
     </row>
-    <row r="178" spans="1:95">
+    <row r="178" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A178" s="16"/>
       <c r="C178" s="5"/>
       <c r="D178" s="7"/>
@@ -19738,7 +19183,7 @@
       <c r="CP178" s="7"/>
       <c r="CQ178" s="7"/>
     </row>
-    <row r="179" spans="1:95">
+    <row r="179" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A179" s="16"/>
       <c r="C179" s="5"/>
       <c r="D179" s="7"/>
@@ -19834,7 +19279,7 @@
       <c r="CP179" s="7"/>
       <c r="CQ179" s="7"/>
     </row>
-    <row r="180" spans="1:95">
+    <row r="180" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A180" s="16"/>
       <c r="C180" s="5"/>
       <c r="D180" s="7"/>
@@ -19930,7 +19375,7 @@
       <c r="CP180" s="7"/>
       <c r="CQ180" s="7"/>
     </row>
-    <row r="181" spans="1:95">
+    <row r="181" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A181" s="16"/>
       <c r="C181" s="5"/>
       <c r="D181" s="7"/>
@@ -20026,7 +19471,7 @@
       <c r="CP181" s="7"/>
       <c r="CQ181" s="7"/>
     </row>
-    <row r="182" spans="1:95">
+    <row r="182" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A182" s="16"/>
       <c r="C182" s="5"/>
       <c r="D182" s="7"/>
@@ -20122,7 +19567,7 @@
       <c r="CP182" s="7"/>
       <c r="CQ182" s="7"/>
     </row>
-    <row r="183" spans="1:95">
+    <row r="183" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A183" s="16"/>
       <c r="C183" s="5"/>
       <c r="D183" s="7"/>
@@ -20218,7 +19663,7 @@
       <c r="CP183" s="7"/>
       <c r="CQ183" s="7"/>
     </row>
-    <row r="184" spans="1:95">
+    <row r="184" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A184" s="16"/>
       <c r="C184" s="5"/>
       <c r="D184" s="7"/>
@@ -20314,7 +19759,7 @@
       <c r="CP184" s="7"/>
       <c r="CQ184" s="7"/>
     </row>
-    <row r="185" spans="1:95">
+    <row r="185" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A185" s="16"/>
       <c r="C185" s="5"/>
       <c r="D185" s="7"/>
@@ -20410,7 +19855,7 @@
       <c r="CP185" s="7"/>
       <c r="CQ185" s="7"/>
     </row>
-    <row r="186" spans="1:95">
+    <row r="186" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A186" s="16"/>
       <c r="C186" s="5"/>
       <c r="D186" s="7"/>
@@ -20506,7 +19951,7 @@
       <c r="CP186" s="7"/>
       <c r="CQ186" s="7"/>
     </row>
-    <row r="187" spans="1:95">
+    <row r="187" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A187" s="16"/>
       <c r="C187" s="5"/>
       <c r="D187" s="7"/>
@@ -20602,7 +20047,7 @@
       <c r="CP187" s="7"/>
       <c r="CQ187" s="7"/>
     </row>
-    <row r="188" spans="1:95">
+    <row r="188" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A188" s="16"/>
       <c r="C188" s="5"/>
       <c r="D188" s="7"/>
@@ -20698,7 +20143,7 @@
       <c r="CP188" s="7"/>
       <c r="CQ188" s="7"/>
     </row>
-    <row r="189" spans="1:95">
+    <row r="189" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A189" s="16"/>
       <c r="C189" s="5"/>
       <c r="D189" s="7"/>
@@ -20794,7 +20239,7 @@
       <c r="CP189" s="7"/>
       <c r="CQ189" s="7"/>
     </row>
-    <row r="190" spans="1:95">
+    <row r="190" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A190" s="16"/>
       <c r="C190" s="5"/>
       <c r="D190" s="7"/>
@@ -20890,7 +20335,7 @@
       <c r="CP190" s="7"/>
       <c r="CQ190" s="7"/>
     </row>
-    <row r="191" spans="1:95">
+    <row r="191" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A191" s="16"/>
       <c r="C191" s="5"/>
       <c r="D191" s="7"/>
@@ -20986,7 +20431,7 @@
       <c r="CP191" s="7"/>
       <c r="CQ191" s="7"/>
     </row>
-    <row r="192" spans="1:95">
+    <row r="192" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A192" s="16"/>
       <c r="C192" s="5"/>
       <c r="D192" s="7"/>
@@ -21082,7 +20527,7 @@
       <c r="CP192" s="7"/>
       <c r="CQ192" s="7"/>
     </row>
-    <row r="193" spans="1:95">
+    <row r="193" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A193" s="16"/>
       <c r="C193" s="5"/>
       <c r="D193" s="7"/>
@@ -21178,7 +20623,7 @@
       <c r="CP193" s="7"/>
       <c r="CQ193" s="7"/>
     </row>
-    <row r="194" spans="1:95">
+    <row r="194" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A194" s="16"/>
       <c r="C194" s="5"/>
       <c r="D194" s="7"/>
@@ -21274,7 +20719,7 @@
       <c r="CP194" s="7"/>
       <c r="CQ194" s="7"/>
     </row>
-    <row r="195" spans="1:95">
+    <row r="195" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A195" s="16"/>
       <c r="C195" s="5"/>
       <c r="D195" s="7"/>
@@ -21370,7 +20815,7 @@
       <c r="CP195" s="7"/>
       <c r="CQ195" s="7"/>
     </row>
-    <row r="196" spans="1:95">
+    <row r="196" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A196" s="16"/>
       <c r="C196" s="5"/>
       <c r="D196" s="7"/>
@@ -21466,7 +20911,7 @@
       <c r="CP196" s="7"/>
       <c r="CQ196" s="7"/>
     </row>
-    <row r="197" spans="1:95">
+    <row r="197" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A197" s="16"/>
       <c r="C197" s="5"/>
       <c r="D197" s="7"/>
@@ -21562,7 +21007,7 @@
       <c r="CP197" s="7"/>
       <c r="CQ197" s="7"/>
     </row>
-    <row r="198" spans="1:95">
+    <row r="198" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A198" s="16"/>
       <c r="C198" s="5"/>
       <c r="D198" s="7"/>
@@ -21658,7 +21103,7 @@
       <c r="CP198" s="7"/>
       <c r="CQ198" s="7"/>
     </row>
-    <row r="199" spans="1:95">
+    <row r="199" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A199" s="16"/>
       <c r="C199" s="5"/>
       <c r="D199" s="7"/>
@@ -21754,7 +21199,7 @@
       <c r="CP199" s="7"/>
       <c r="CQ199" s="7"/>
     </row>
-    <row r="200" spans="1:95">
+    <row r="200" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A200" s="16"/>
       <c r="C200" s="5"/>
       <c r="D200" s="7"/>
@@ -21850,7 +21295,7 @@
       <c r="CP200" s="7"/>
       <c r="CQ200" s="7"/>
     </row>
-    <row r="201" spans="1:95">
+    <row r="201" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A201" s="16"/>
       <c r="C201" s="5"/>
       <c r="D201" s="7"/>
@@ -21946,7 +21391,7 @@
       <c r="CP201" s="7"/>
       <c r="CQ201" s="7"/>
     </row>
-    <row r="202" spans="1:95">
+    <row r="202" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A202" s="16"/>
       <c r="C202" s="5"/>
       <c r="D202" s="7"/>
@@ -22042,7 +21487,7 @@
       <c r="CP202" s="7"/>
       <c r="CQ202" s="7"/>
     </row>
-    <row r="203" spans="1:95">
+    <row r="203" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A203" s="16"/>
       <c r="C203" s="5"/>
       <c r="D203" s="7"/>
@@ -22138,7 +21583,7 @@
       <c r="CP203" s="7"/>
       <c r="CQ203" s="7"/>
     </row>
-    <row r="204" spans="1:95">
+    <row r="204" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A204" s="16"/>
       <c r="C204" s="5"/>
       <c r="D204" s="7"/>
@@ -22234,7 +21679,7 @@
       <c r="CP204" s="7"/>
       <c r="CQ204" s="7"/>
     </row>
-    <row r="205" spans="1:95">
+    <row r="205" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A205" s="16"/>
       <c r="C205" s="5"/>
       <c r="D205" s="7"/>
@@ -22330,7 +21775,7 @@
       <c r="CP205" s="7"/>
       <c r="CQ205" s="7"/>
     </row>
-    <row r="206" spans="1:95">
+    <row r="206" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A206" s="16"/>
       <c r="C206" s="5"/>
       <c r="D206" s="7"/>
@@ -22426,7 +21871,7 @@
       <c r="CP206" s="7"/>
       <c r="CQ206" s="7"/>
     </row>
-    <row r="207" spans="1:95">
+    <row r="207" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A207" s="16"/>
       <c r="C207" s="5"/>
       <c r="D207" s="7"/>
@@ -22522,7 +21967,7 @@
       <c r="CP207" s="7"/>
       <c r="CQ207" s="7"/>
     </row>
-    <row r="208" spans="1:95">
+    <row r="208" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A208" s="16"/>
       <c r="C208" s="5"/>
       <c r="D208" s="7"/>
@@ -22618,7 +22063,7 @@
       <c r="CP208" s="7"/>
       <c r="CQ208" s="7"/>
     </row>
-    <row r="209" spans="1:95">
+    <row r="209" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A209" s="16"/>
       <c r="C209" s="5"/>
       <c r="D209" s="7"/>
@@ -22714,7 +22159,7 @@
       <c r="CP209" s="7"/>
       <c r="CQ209" s="7"/>
     </row>
-    <row r="210" spans="1:95">
+    <row r="210" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A210" s="16"/>
       <c r="C210" s="5"/>
       <c r="D210" s="7"/>
@@ -22810,7 +22255,7 @@
       <c r="CP210" s="7"/>
       <c r="CQ210" s="7"/>
     </row>
-    <row r="211" spans="1:95">
+    <row r="211" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A211" s="16"/>
       <c r="C211" s="5"/>
       <c r="D211" s="7"/>
@@ -22906,7 +22351,7 @@
       <c r="CP211" s="7"/>
       <c r="CQ211" s="7"/>
     </row>
-    <row r="212" spans="1:95">
+    <row r="212" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A212" s="16"/>
       <c r="C212" s="5"/>
       <c r="D212" s="7"/>
@@ -23002,7 +22447,7 @@
       <c r="CP212" s="7"/>
       <c r="CQ212" s="7"/>
     </row>
-    <row r="213" spans="1:95">
+    <row r="213" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A213" s="16"/>
       <c r="C213" s="5"/>
       <c r="D213" s="7"/>
@@ -23098,7 +22543,7 @@
       <c r="CP213" s="7"/>
       <c r="CQ213" s="7"/>
     </row>
-    <row r="214" spans="1:95">
+    <row r="214" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A214" s="16"/>
       <c r="C214" s="5"/>
       <c r="D214" s="7"/>
@@ -23194,7 +22639,7 @@
       <c r="CP214" s="7"/>
       <c r="CQ214" s="7"/>
     </row>
-    <row r="215" spans="1:95">
+    <row r="215" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A215" s="16"/>
       <c r="C215" s="5"/>
       <c r="D215" s="7"/>
@@ -23290,7 +22735,7 @@
       <c r="CP215" s="7"/>
       <c r="CQ215" s="7"/>
     </row>
-    <row r="216" spans="1:95">
+    <row r="216" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A216" s="16"/>
       <c r="C216" s="5"/>
       <c r="D216" s="7"/>
@@ -23386,7 +22831,7 @@
       <c r="CP216" s="7"/>
       <c r="CQ216" s="7"/>
     </row>
-    <row r="217" spans="1:95">
+    <row r="217" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A217" s="16"/>
       <c r="C217" s="5"/>
       <c r="D217" s="7"/>
@@ -23482,7 +22927,7 @@
       <c r="CP217" s="7"/>
       <c r="CQ217" s="7"/>
     </row>
-    <row r="218" spans="1:95">
+    <row r="218" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A218" s="16"/>
       <c r="C218" s="5"/>
       <c r="D218" s="7"/>
@@ -23578,7 +23023,7 @@
       <c r="CP218" s="7"/>
       <c r="CQ218" s="7"/>
     </row>
-    <row r="219" spans="1:95">
+    <row r="219" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A219" s="16"/>
       <c r="C219" s="5"/>
       <c r="D219" s="7"/>
@@ -23674,7 +23119,7 @@
       <c r="CP219" s="7"/>
       <c r="CQ219" s="7"/>
     </row>
-    <row r="220" spans="1:95">
+    <row r="220" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A220" s="16"/>
       <c r="C220" s="5"/>
       <c r="D220" s="7"/>
@@ -23770,7 +23215,7 @@
       <c r="CP220" s="7"/>
       <c r="CQ220" s="7"/>
     </row>
-    <row r="221" spans="1:95">
+    <row r="221" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A221" s="16"/>
       <c r="C221" s="5"/>
       <c r="D221" s="7"/>
@@ -23866,7 +23311,7 @@
       <c r="CP221" s="7"/>
       <c r="CQ221" s="7"/>
     </row>
-    <row r="222" spans="1:95">
+    <row r="222" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A222" s="16"/>
       <c r="C222" s="5"/>
       <c r="D222" s="7"/>
@@ -23962,7 +23407,7 @@
       <c r="CP222" s="7"/>
       <c r="CQ222" s="7"/>
     </row>
-    <row r="223" spans="1:95">
+    <row r="223" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A223" s="16"/>
       <c r="C223" s="5"/>
       <c r="D223" s="7"/>
@@ -24058,7 +23503,7 @@
       <c r="CP223" s="7"/>
       <c r="CQ223" s="7"/>
     </row>
-    <row r="224" spans="1:95">
+    <row r="224" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A224" s="16"/>
       <c r="C224" s="5"/>
       <c r="D224" s="7"/>
@@ -24154,7 +23599,7 @@
       <c r="CP224" s="7"/>
       <c r="CQ224" s="7"/>
     </row>
-    <row r="225" spans="1:95">
+    <row r="225" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A225" s="16"/>
       <c r="C225" s="5"/>
       <c r="D225" s="7"/>
@@ -24250,7 +23695,7 @@
       <c r="CP225" s="7"/>
       <c r="CQ225" s="7"/>
     </row>
-    <row r="226" spans="1:95">
+    <row r="226" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A226" s="16"/>
       <c r="C226" s="5"/>
       <c r="D226" s="7"/>
@@ -24346,7 +23791,7 @@
       <c r="CP226" s="7"/>
       <c r="CQ226" s="7"/>
     </row>
-    <row r="227" spans="1:95">
+    <row r="227" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A227" s="16"/>
       <c r="C227" s="5"/>
       <c r="D227" s="7"/>
@@ -24442,7 +23887,7 @@
       <c r="CP227" s="7"/>
       <c r="CQ227" s="7"/>
     </row>
-    <row r="228" spans="1:95">
+    <row r="228" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A228" s="16"/>
       <c r="C228" s="5"/>
       <c r="D228" s="7"/>
@@ -24538,7 +23983,7 @@
       <c r="CP228" s="7"/>
       <c r="CQ228" s="7"/>
     </row>
-    <row r="229" spans="1:95">
+    <row r="229" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A229" s="16"/>
       <c r="C229" s="5"/>
       <c r="D229" s="7"/>
@@ -24634,7 +24079,7 @@
       <c r="CP229" s="7"/>
       <c r="CQ229" s="7"/>
     </row>
-    <row r="230" spans="1:95">
+    <row r="230" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A230" s="16"/>
       <c r="C230" s="5"/>
       <c r="D230" s="7"/>
@@ -24730,7 +24175,7 @@
       <c r="CP230" s="7"/>
       <c r="CQ230" s="7"/>
     </row>
-    <row r="231" spans="1:95">
+    <row r="231" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A231" s="16"/>
       <c r="C231" s="5"/>
       <c r="D231" s="7"/>
@@ -24826,7 +24271,7 @@
       <c r="CP231" s="7"/>
       <c r="CQ231" s="7"/>
     </row>
-    <row r="232" spans="1:95">
+    <row r="232" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A232" s="16"/>
       <c r="C232" s="5"/>
       <c r="D232" s="7"/>
@@ -24922,7 +24367,7 @@
       <c r="CP232" s="7"/>
       <c r="CQ232" s="7"/>
     </row>
-    <row r="233" spans="1:95">
+    <row r="233" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A233" s="16"/>
       <c r="C233" s="5"/>
       <c r="D233" s="7"/>
@@ -25018,7 +24463,7 @@
       <c r="CP233" s="7"/>
       <c r="CQ233" s="7"/>
     </row>
-    <row r="234" spans="1:95">
+    <row r="234" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A234" s="16"/>
       <c r="C234" s="5"/>
       <c r="D234" s="7"/>
@@ -25114,7 +24559,7 @@
       <c r="CP234" s="7"/>
       <c r="CQ234" s="7"/>
     </row>
-    <row r="235" spans="1:95">
+    <row r="235" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A235" s="16"/>
       <c r="C235" s="5"/>
       <c r="D235" s="7"/>
@@ -25210,7 +24655,7 @@
       <c r="CP235" s="7"/>
       <c r="CQ235" s="7"/>
     </row>
-    <row r="236" spans="1:95">
+    <row r="236" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A236" s="16"/>
       <c r="C236" s="5"/>
       <c r="D236" s="7"/>
@@ -25306,7 +24751,7 @@
       <c r="CP236" s="7"/>
       <c r="CQ236" s="7"/>
     </row>
-    <row r="237" spans="1:95">
+    <row r="237" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A237" s="16"/>
       <c r="C237" s="5"/>
       <c r="D237" s="7"/>
@@ -25402,7 +24847,7 @@
       <c r="CP237" s="7"/>
       <c r="CQ237" s="7"/>
     </row>
-    <row r="238" spans="1:95">
+    <row r="238" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A238" s="16"/>
       <c r="C238" s="5"/>
       <c r="D238" s="7"/>
@@ -25498,7 +24943,7 @@
       <c r="CP238" s="7"/>
       <c r="CQ238" s="7"/>
     </row>
-    <row r="239" spans="1:95">
+    <row r="239" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A239" s="16"/>
       <c r="C239" s="5"/>
       <c r="D239" s="7"/>
@@ -25594,7 +25039,7 @@
       <c r="CP239" s="7"/>
       <c r="CQ239" s="7"/>
     </row>
-    <row r="240" spans="1:95">
+    <row r="240" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A240" s="16"/>
       <c r="C240" s="5"/>
       <c r="D240" s="7"/>
@@ -25690,7 +25135,7 @@
       <c r="CP240" s="7"/>
       <c r="CQ240" s="7"/>
     </row>
-    <row r="241" spans="1:95">
+    <row r="241" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A241" s="16"/>
       <c r="C241" s="5"/>
       <c r="D241" s="7"/>
@@ -25786,7 +25231,7 @@
       <c r="CP241" s="7"/>
       <c r="CQ241" s="7"/>
     </row>
-    <row r="242" spans="1:95">
+    <row r="242" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A242" s="16"/>
       <c r="C242" s="5"/>
       <c r="D242" s="7"/>
@@ -25882,7 +25327,7 @@
       <c r="CP242" s="7"/>
       <c r="CQ242" s="7"/>
     </row>
-    <row r="243" spans="1:95">
+    <row r="243" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A243" s="16"/>
       <c r="C243" s="5"/>
       <c r="D243" s="7"/>
@@ -25978,7 +25423,7 @@
       <c r="CP243" s="7"/>
       <c r="CQ243" s="7"/>
     </row>
-    <row r="244" spans="1:95">
+    <row r="244" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A244" s="16"/>
       <c r="C244" s="5"/>
       <c r="D244" s="7"/>
@@ -26074,7 +25519,7 @@
       <c r="CP244" s="7"/>
       <c r="CQ244" s="7"/>
     </row>
-    <row r="245" spans="1:95">
+    <row r="245" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A245" s="16"/>
       <c r="C245" s="5"/>
       <c r="D245" s="7"/>
@@ -26170,7 +25615,7 @@
       <c r="CP245" s="7"/>
       <c r="CQ245" s="7"/>
     </row>
-    <row r="246" spans="1:95">
+    <row r="246" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A246" s="16"/>
       <c r="C246" s="5"/>
       <c r="D246" s="7"/>
@@ -26266,7 +25711,7 @@
       <c r="CP246" s="7"/>
       <c r="CQ246" s="7"/>
     </row>
-    <row r="247" spans="1:95">
+    <row r="247" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A247" s="16"/>
       <c r="C247" s="5"/>
       <c r="D247" s="7"/>
@@ -26362,7 +25807,7 @@
       <c r="CP247" s="7"/>
       <c r="CQ247" s="7"/>
     </row>
-    <row r="248" spans="1:95">
+    <row r="248" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A248" s="16"/>
       <c r="C248" s="5"/>
       <c r="D248" s="7"/>
@@ -26458,7 +25903,7 @@
       <c r="CP248" s="7"/>
       <c r="CQ248" s="7"/>
     </row>
-    <row r="249" spans="1:95">
+    <row r="249" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A249" s="16"/>
       <c r="C249" s="5"/>
       <c r="D249" s="7"/>
@@ -26554,7 +25999,7 @@
       <c r="CP249" s="7"/>
       <c r="CQ249" s="7"/>
     </row>
-    <row r="250" spans="1:95">
+    <row r="250" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A250" s="16"/>
       <c r="C250" s="5"/>
       <c r="D250" s="7"/>
@@ -26650,7 +26095,7 @@
       <c r="CP250" s="7"/>
       <c r="CQ250" s="7"/>
     </row>
-    <row r="251" spans="1:95">
+    <row r="251" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A251" s="16"/>
       <c r="C251" s="5"/>
       <c r="D251" s="7"/>
@@ -26746,7 +26191,7 @@
       <c r="CP251" s="7"/>
       <c r="CQ251" s="7"/>
     </row>
-    <row r="252" spans="1:95">
+    <row r="252" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A252" s="16"/>
       <c r="C252" s="5"/>
       <c r="D252" s="7"/>
@@ -26842,7 +26287,7 @@
       <c r="CP252" s="7"/>
       <c r="CQ252" s="7"/>
     </row>
-    <row r="253" spans="1:95">
+    <row r="253" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A253" s="16"/>
       <c r="C253" s="5"/>
       <c r="D253" s="7"/>
@@ -26938,7 +26383,7 @@
       <c r="CP253" s="7"/>
       <c r="CQ253" s="7"/>
     </row>
-    <row r="254" spans="1:95">
+    <row r="254" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A254" s="16"/>
       <c r="C254" s="5"/>
       <c r="D254" s="7"/>
@@ -27034,7 +26479,7 @@
       <c r="CP254" s="7"/>
       <c r="CQ254" s="7"/>
     </row>
-    <row r="255" spans="1:95">
+    <row r="255" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A255" s="16"/>
       <c r="C255" s="5"/>
       <c r="D255" s="7"/>
@@ -27130,7 +26575,7 @@
       <c r="CP255" s="7"/>
       <c r="CQ255" s="7"/>
     </row>
-    <row r="256" spans="1:95">
+    <row r="256" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A256" s="16"/>
       <c r="C256" s="5"/>
       <c r="D256" s="7"/>
@@ -27226,7 +26671,7 @@
       <c r="CP256" s="7"/>
       <c r="CQ256" s="7"/>
     </row>
-    <row r="257" spans="1:95">
+    <row r="257" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A257" s="16"/>
       <c r="C257" s="5"/>
       <c r="D257" s="7"/>
@@ -27322,7 +26767,7 @@
       <c r="CP257" s="7"/>
       <c r="CQ257" s="7"/>
     </row>
-    <row r="258" spans="1:95">
+    <row r="258" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A258" s="16"/>
       <c r="C258" s="5"/>
       <c r="D258" s="7"/>
@@ -27418,7 +26863,7 @@
       <c r="CP258" s="7"/>
       <c r="CQ258" s="7"/>
     </row>
-    <row r="259" spans="1:95">
+    <row r="259" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A259" s="16"/>
       <c r="C259" s="5"/>
       <c r="D259" s="7"/>
@@ -27514,7 +26959,7 @@
       <c r="CP259" s="7"/>
       <c r="CQ259" s="7"/>
     </row>
-    <row r="260" spans="1:95">
+    <row r="260" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A260" s="16"/>
       <c r="C260" s="5"/>
       <c r="D260" s="7"/>
@@ -27610,7 +27055,7 @@
       <c r="CP260" s="7"/>
       <c r="CQ260" s="7"/>
     </row>
-    <row r="261" spans="1:95">
+    <row r="261" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A261" s="16"/>
       <c r="C261" s="5"/>
       <c r="D261" s="7"/>
@@ -27706,7 +27151,7 @@
       <c r="CP261" s="7"/>
       <c r="CQ261" s="7"/>
     </row>
-    <row r="262" spans="1:95">
+    <row r="262" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A262" s="16"/>
       <c r="C262" s="5"/>
       <c r="D262" s="7"/>
@@ -27802,7 +27247,7 @@
       <c r="CP262" s="7"/>
       <c r="CQ262" s="7"/>
     </row>
-    <row r="263" spans="1:95">
+    <row r="263" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A263" s="16"/>
       <c r="C263" s="5"/>
       <c r="D263" s="7"/>
@@ -27898,7 +27343,7 @@
       <c r="CP263" s="7"/>
       <c r="CQ263" s="7"/>
     </row>
-    <row r="264" spans="1:95">
+    <row r="264" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A264" s="16"/>
       <c r="C264" s="5"/>
       <c r="D264" s="7"/>
@@ -27994,7 +27439,7 @@
       <c r="CP264" s="7"/>
       <c r="CQ264" s="7"/>
     </row>
-    <row r="265" spans="1:95">
+    <row r="265" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A265" s="16"/>
       <c r="C265" s="5"/>
       <c r="D265" s="7"/>
@@ -28090,33 +27535,32 @@
       <c r="CP265" s="7"/>
       <c r="CQ265" s="7"/>
     </row>
-    <row r="330" ht="14.25" spans="1:2">
+    <row r="330" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A330" s="8"/>
       <c r="B330" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -28154,7 +27598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>42551</v>
       </c>
@@ -28213,7 +27657,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>42552</v>
       </c>
@@ -28269,7 +27713,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>42553</v>
       </c>
@@ -28322,7 +27766,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>42554</v>
       </c>
@@ -28372,7 +27816,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>42555</v>
       </c>
@@ -28419,7 +27863,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>42556</v>
       </c>
@@ -28438,7 +27882,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>42557</v>
       </c>
@@ -28457,7 +27901,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>42558</v>
       </c>
@@ -28476,7 +27920,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>42559</v>
       </c>
@@ -28495,7 +27939,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>42560</v>
       </c>
@@ -28514,7 +27958,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>42561</v>
       </c>
@@ -28533,7 +27977,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>42562</v>
       </c>
@@ -28552,7 +27996,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>42563</v>
       </c>
@@ -28571,7 +28015,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>42564</v>
       </c>
@@ -28590,7 +28034,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>42565</v>
       </c>
@@ -28607,7 +28051,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>42566</v>
       </c>
@@ -28626,7 +28070,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>42567</v>
       </c>
@@ -28639,7 +28083,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>42568</v>
       </c>
@@ -28652,7 +28096,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -28663,19 +28107,19 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -28704,7 +28148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>42551</v>
       </c>
@@ -28716,24 +28160,24 @@
       </c>
       <c r="D25" s="7">
         <f t="shared" ref="D25:G28" si="0">D2/$C2</f>
-        <v>0.995975855130785</v>
+        <v>0.99597585513078468</v>
       </c>
       <c r="E25" s="7">
         <f t="shared" si="0"/>
-        <v>0.335345405767941</v>
+        <v>0.33534540576794097</v>
       </c>
       <c r="F25" s="7">
         <f t="shared" si="0"/>
-        <v>0.175050301810865</v>
+        <v>0.1750503018108652</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="0"/>
-        <v>0.15962441314554</v>
+        <v>0.15962441314553991</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>42552</v>
       </c>
@@ -28745,24 +28189,24 @@
       </c>
       <c r="D26" s="7">
         <f t="shared" si="0"/>
-        <v>0.991058122205663</v>
+        <v>0.99105812220566314</v>
       </c>
       <c r="E26" s="7">
         <f t="shared" si="0"/>
-        <v>0.397416790859414</v>
+        <v>0.39741679085941384</v>
       </c>
       <c r="F26" s="7">
         <f t="shared" si="0"/>
-        <v>0.190263288623944</v>
+        <v>0.19026328862394437</v>
       </c>
       <c r="G26" s="7">
         <f t="shared" si="0"/>
-        <v>0.197218082463984</v>
+        <v>0.19721808246398409</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>42553</v>
       </c>
@@ -28774,24 +28218,24 @@
       </c>
       <c r="D27" s="7">
         <f t="shared" si="0"/>
-        <v>0.989662027833002</v>
+        <v>0.98966202783300194</v>
       </c>
       <c r="E27" s="7">
         <f t="shared" si="0"/>
-        <v>0.278330019880716</v>
+        <v>0.27833001988071571</v>
       </c>
       <c r="F27" s="7">
         <f t="shared" si="0"/>
-        <v>0.175745526838966</v>
+        <v>0.17574552683896622</v>
       </c>
       <c r="G27" s="7">
         <f t="shared" si="0"/>
-        <v>0.14831013916501</v>
+        <v>0.14831013916500993</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>42554</v>
       </c>
@@ -28803,24 +28247,24 @@
       </c>
       <c r="D28" s="7">
         <f t="shared" si="0"/>
-        <v>0.990070335126189</v>
+        <v>0.99007033512618947</v>
       </c>
       <c r="E28" s="7">
         <f t="shared" si="0"/>
-        <v>0.273479520066198</v>
+        <v>0.27347952006619775</v>
       </c>
       <c r="F28" s="7">
         <f t="shared" si="0"/>
-        <v>0.182043856019859</v>
+        <v>0.18204385601985934</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="0"/>
-        <v>0.153909805544063</v>
+        <v>0.15390980554406289</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="C29" s="5"/>
       <c r="D29" s="7"/>
@@ -28830,7 +28274,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="C30" s="5"/>
       <c r="D30" s="7"/>
@@ -28840,7 +28284,7 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="C31" s="5"/>
       <c r="D31" s="7"/>
@@ -28850,7 +28294,7 @@
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="C32" s="5"/>
       <c r="D32" s="7"/>
@@ -28860,7 +28304,7 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="C33" s="5"/>
       <c r="D33" s="7"/>
@@ -28870,7 +28314,7 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="59" ht="14.25" spans="1:2">
+    <row r="59" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="s">
         <v>4</v>
       </c>
@@ -28878,25 +28322,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60">
-        <v>0.321</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="B60">
-        <v>-0.704</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.70399999999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63">
         <f>AVERAGE(A60:A62)</f>
-        <v>0.321</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="B63">
         <f>AVERAGE(B60:B62)</f>
-        <v>-0.704</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.70399999999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -28907,94 +28351,94 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>1</v>
       </c>
       <c r="B68">
         <f>A$63*A68^B$63</f>
-        <v>0.321</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="C68">
         <f>A$63/(B$63+1)*A68^(B$63+1)</f>
-        <v>1.08445945945946</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>1.0844594594594594</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>7</v>
       </c>
       <c r="B69">
         <f t="shared" ref="B69:B72" si="1">A$63*A69^B$63</f>
-        <v>0.0815747989762552</v>
+        <v>8.1574798976255192E-2</v>
       </c>
       <c r="C69">
         <f t="shared" ref="C69:C72" si="2">A$63/(B$63+1)*A69^(B$63+1)</f>
-        <v>1.9291337595736</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>1.9291337595736022</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>30</v>
       </c>
       <c r="B70">
         <f t="shared" si="1"/>
-        <v>0.0292827371446413</v>
+        <v>2.9282737144641285E-2</v>
       </c>
       <c r="C70">
         <f t="shared" si="2"/>
-        <v>2.96784498087581</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>2.9678449808758067</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>90</v>
       </c>
       <c r="B71">
         <f t="shared" si="1"/>
-        <v>0.0135119585954041</v>
+        <v>1.3511958595404126E-2</v>
       </c>
       <c r="C71">
         <f t="shared" si="2"/>
-        <v>4.10836578914314</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>4.1083657891431447</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>365</v>
       </c>
       <c r="B72">
         <f t="shared" si="1"/>
-        <v>0.00504255746143883</v>
+        <v>5.0425574614388303E-3</v>
       </c>
       <c r="C72">
         <f t="shared" si="2"/>
-        <v>6.21801849130126</v>
-      </c>
-    </row>
-    <row r="99" ht="14.25" spans="1:2">
+        <v>6.2180184913012599</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z91"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -29068,7 +28512,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>42548</v>
       </c>
@@ -29115,7 +28559,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>42549</v>
       </c>
@@ -29180,7 +28624,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>42550</v>
       </c>
@@ -29242,7 +28686,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>42551</v>
       </c>
@@ -29322,7 +28766,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>42552</v>
       </c>
@@ -29399,7 +28843,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>42553</v>
       </c>
@@ -29473,7 +28917,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>42554</v>
       </c>
@@ -29544,7 +28988,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>42555</v>
       </c>
@@ -29612,7 +29056,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>42556</v>
       </c>
@@ -29677,7 +29121,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>42557</v>
       </c>
@@ -29739,7 +29183,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>42558</v>
       </c>
@@ -29798,7 +29242,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>42559</v>
       </c>
@@ -29854,7 +29298,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>42560</v>
       </c>
@@ -29907,7 +29351,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>42561</v>
       </c>
@@ -29957,7 +29401,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>42562</v>
       </c>
@@ -30004,7 +29448,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>42563</v>
       </c>
@@ -30048,7 +29492,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>42564</v>
       </c>
@@ -30089,7 +29533,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>42565</v>
       </c>
@@ -30127,7 +29571,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>42566</v>
       </c>
@@ -30162,7 +29606,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>42567</v>
       </c>
@@ -30197,7 +29641,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>42568</v>
       </c>
@@ -30223,7 +29667,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>42569</v>
       </c>
@@ -30237,7 +29681,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>42570</v>
       </c>
@@ -30251,7 +29695,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>42571</v>
       </c>
@@ -30265,7 +29709,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>42572</v>
       </c>
@@ -30279,7 +29723,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>42573</v>
       </c>
@@ -30293,7 +29737,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>42574</v>
       </c>
@@ -30307,7 +29751,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>42575</v>
       </c>
@@ -30321,7 +29765,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>42576</v>
       </c>
@@ -30335,7 +29779,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>42577</v>
       </c>
@@ -30349,7 +29793,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>42578</v>
       </c>
@@ -30363,7 +29807,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>42579</v>
       </c>
@@ -30377,7 +29821,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>42580</v>
       </c>
@@ -30391,7 +29835,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>42581</v>
       </c>
@@ -30405,7 +29849,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>42582</v>
       </c>
@@ -30419,7 +29863,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>42583</v>
       </c>
@@ -30433,7 +29877,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>42584</v>
       </c>
@@ -30447,7 +29891,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>42585</v>
       </c>
@@ -30461,7 +29905,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>42586</v>
       </c>
@@ -30475,7 +29919,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>42587</v>
       </c>
@@ -30489,7 +29933,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>42588</v>
       </c>
@@ -30503,7 +29947,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>42589</v>
       </c>
@@ -30517,7 +29961,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>42590</v>
       </c>
@@ -30531,7 +29975,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>42591</v>
       </c>
@@ -30545,7 +29989,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>42592</v>
       </c>
@@ -30559,7 +30003,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>42593</v>
       </c>
@@ -30573,7 +30017,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>42594</v>
       </c>
@@ -30587,7 +30031,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>42595</v>
       </c>
@@ -30601,7 +30045,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>42596</v>
       </c>
@@ -30615,7 +30059,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>42597</v>
       </c>
@@ -30629,7 +30073,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>42598</v>
       </c>
@@ -30643,7 +30087,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>42599</v>
       </c>
@@ -30657,7 +30101,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>42600</v>
       </c>
@@ -30671,7 +30115,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>42601</v>
       </c>
@@ -30685,7 +30129,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>42602</v>
       </c>
@@ -30699,7 +30143,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>42603</v>
       </c>
@@ -30713,7 +30157,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>42604</v>
       </c>
@@ -30727,7 +30171,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>42605</v>
       </c>
@@ -30741,7 +30185,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>42606</v>
       </c>
@@ -30755,7 +30199,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>42607</v>
       </c>
@@ -30769,7 +30213,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
         <v>42608</v>
       </c>
@@ -30783,7 +30227,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>42609</v>
       </c>
@@ -30797,7 +30241,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>42610</v>
       </c>
@@ -30811,7 +30255,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
         <v>42611</v>
       </c>
@@ -30825,7 +30269,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
         <v>42612</v>
       </c>
@@ -30839,7 +30283,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
         <v>42613</v>
       </c>
@@ -30853,7 +30297,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
         <v>42614</v>
       </c>
@@ -30867,7 +30311,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
         <v>42615</v>
       </c>
@@ -30881,7 +30325,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
         <v>42616</v>
       </c>
@@ -30895,7 +30339,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
         <v>42617</v>
       </c>
@@ -30909,7 +30353,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
         <v>42618</v>
       </c>
@@ -30923,7 +30367,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
         <v>42619</v>
       </c>
@@ -30937,7 +30381,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
         <v>42620</v>
       </c>
@@ -30951,7 +30395,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
         <v>42621</v>
       </c>
@@ -30965,7 +30409,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
         <v>42622</v>
       </c>
@@ -30979,7 +30423,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
         <v>42623</v>
       </c>
@@ -30993,7 +30437,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
         <v>42624</v>
       </c>
@@ -31007,7 +30451,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
         <v>42625</v>
       </c>
@@ -31021,7 +30465,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
         <v>42626</v>
       </c>
@@ -31035,7 +30479,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
         <v>42627</v>
       </c>
@@ -31049,7 +30493,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
         <v>42628</v>
       </c>
@@ -31063,7 +30507,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
         <v>42629</v>
       </c>
@@ -31077,7 +30521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
         <v>42630</v>
       </c>
@@ -31091,7 +30535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
         <v>42631</v>
       </c>
@@ -31105,7 +30549,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
         <v>42632</v>
       </c>
@@ -31119,7 +30563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
         <v>42633</v>
       </c>
@@ -31133,7 +30577,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
         <v>42634</v>
       </c>
@@ -31147,7 +30591,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
         <v>42635</v>
       </c>
@@ -31161,7 +30605,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
         <v>42636</v>
       </c>
@@ -31175,29 +30619,28 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
         <v>42637</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:AY75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AY97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="J72" sqref="J72"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -31313,7 +30756,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>42567</v>
       </c>
@@ -31345,7 +30788,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>42568</v>
       </c>
@@ -31458,7 +30901,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:50">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>42569</v>
       </c>
@@ -31568,7 +31011,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:49">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>42570</v>
       </c>
@@ -31675,7 +31118,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>42571</v>
       </c>
@@ -31779,7 +31222,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>42572</v>
       </c>
@@ -31883,7 +31326,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>42573</v>
       </c>
@@ -31987,7 +31430,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>42574</v>
       </c>
@@ -32091,7 +31534,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>42575</v>
       </c>
@@ -32195,7 +31638,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>42576</v>
       </c>
@@ -32299,7 +31742,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>42577</v>
       </c>
@@ -32403,7 +31846,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>42578</v>
       </c>
@@ -32507,7 +31950,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>42579</v>
       </c>
@@ -32611,7 +32054,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>42580</v>
       </c>
@@ -32715,7 +32158,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>42581</v>
       </c>
@@ -32819,7 +32262,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>42582</v>
       </c>
@@ -32923,7 +32366,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>42583</v>
       </c>
@@ -33027,7 +32470,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>42584</v>
       </c>
@@ -33131,7 +32574,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>42585</v>
       </c>
@@ -33235,7 +32678,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>42586</v>
       </c>
@@ -33339,7 +32782,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>42587</v>
       </c>
@@ -33443,7 +32886,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>42588</v>
       </c>
@@ -33547,7 +32990,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>42589</v>
       </c>
@@ -33651,7 +33094,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>42590</v>
       </c>
@@ -33755,7 +33198,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>42591</v>
       </c>
@@ -33859,7 +33302,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>42592</v>
       </c>
@@ -33963,7 +33406,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>42593</v>
       </c>
@@ -34067,7 +33510,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>42594</v>
       </c>
@@ -34171,7 +33614,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>42595</v>
       </c>
@@ -34275,7 +33718,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>42596</v>
       </c>
@@ -34379,7 +33822,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>42597</v>
       </c>
@@ -34483,7 +33926,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>42598</v>
       </c>
@@ -34587,7 +34030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>42599</v>
       </c>
@@ -34691,7 +34134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>42600</v>
       </c>
@@ -34795,7 +34238,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>42601</v>
       </c>
@@ -34899,7 +34342,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>42602</v>
       </c>
@@ -35003,7 +34446,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>42603</v>
       </c>
@@ -35107,7 +34550,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>42604</v>
       </c>
@@ -35211,7 +34654,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>42605</v>
       </c>
@@ -35315,7 +34758,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>42606</v>
       </c>
@@ -35419,7 +34862,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>42607</v>
       </c>
@@ -35523,7 +34966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>42608</v>
       </c>
@@ -35627,7 +35070,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>42609</v>
       </c>
@@ -35731,7 +35174,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:33">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>42610</v>
       </c>
@@ -35831,8 +35274,11 @@
       <c r="AG45">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="1:32">
+      <c r="AH45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>42611</v>
       </c>
@@ -35929,8 +35375,14 @@
       <c r="AF46">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="1:31">
+      <c r="AG46">
+        <v>25</v>
+      </c>
+      <c r="AH46">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>42612</v>
       </c>
@@ -36024,8 +35476,17 @@
       <c r="AE47">
         <v>33</v>
       </c>
-    </row>
-    <row r="48" spans="1:30">
+      <c r="AF47">
+        <v>29</v>
+      </c>
+      <c r="AG47">
+        <v>29</v>
+      </c>
+      <c r="AH47">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>42613</v>
       </c>
@@ -36116,8 +35577,20 @@
       <c r="AD48">
         <v>31</v>
       </c>
-    </row>
-    <row r="49" spans="1:29">
+      <c r="AE48">
+        <v>54</v>
+      </c>
+      <c r="AF48">
+        <v>40</v>
+      </c>
+      <c r="AG48">
+        <v>36</v>
+      </c>
+      <c r="AH48">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>42614</v>
       </c>
@@ -36205,8 +35678,23 @@
       <c r="AC49">
         <v>60</v>
       </c>
-    </row>
-    <row r="50" spans="1:28">
+      <c r="AD49">
+        <v>58</v>
+      </c>
+      <c r="AE49">
+        <v>65</v>
+      </c>
+      <c r="AF49">
+        <v>55</v>
+      </c>
+      <c r="AG49">
+        <v>44</v>
+      </c>
+      <c r="AH49">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>42615</v>
       </c>
@@ -36291,8 +35779,26 @@
       <c r="AB50">
         <v>106</v>
       </c>
-    </row>
-    <row r="51" spans="1:27">
+      <c r="AC50">
+        <v>84</v>
+      </c>
+      <c r="AD50">
+        <v>66</v>
+      </c>
+      <c r="AE50">
+        <v>77</v>
+      </c>
+      <c r="AF50">
+        <v>55</v>
+      </c>
+      <c r="AG50">
+        <v>33</v>
+      </c>
+      <c r="AH50">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>42616</v>
       </c>
@@ -36374,8 +35880,29 @@
       <c r="AA51">
         <v>91</v>
       </c>
-    </row>
-    <row r="52" spans="1:26">
+      <c r="AB51">
+        <v>66</v>
+      </c>
+      <c r="AC51">
+        <v>55</v>
+      </c>
+      <c r="AD51">
+        <v>66</v>
+      </c>
+      <c r="AE51">
+        <v>55</v>
+      </c>
+      <c r="AF51">
+        <v>62</v>
+      </c>
+      <c r="AG51">
+        <v>25</v>
+      </c>
+      <c r="AH51">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>42617</v>
       </c>
@@ -36454,8 +35981,32 @@
       <c r="Z52">
         <v>80</v>
       </c>
-    </row>
-    <row r="53" spans="1:25">
+      <c r="AA52">
+        <v>66</v>
+      </c>
+      <c r="AB52">
+        <v>76</v>
+      </c>
+      <c r="AC52">
+        <v>62</v>
+      </c>
+      <c r="AD52">
+        <v>69</v>
+      </c>
+      <c r="AE52">
+        <v>44</v>
+      </c>
+      <c r="AF52">
+        <v>40</v>
+      </c>
+      <c r="AG52">
+        <v>40</v>
+      </c>
+      <c r="AH52">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>42618</v>
       </c>
@@ -36531,8 +36082,35 @@
       <c r="Y53">
         <v>79</v>
       </c>
-    </row>
-    <row r="54" spans="1:24">
+      <c r="Z53">
+        <v>91</v>
+      </c>
+      <c r="AA53">
+        <v>62</v>
+      </c>
+      <c r="AB53">
+        <v>73</v>
+      </c>
+      <c r="AC53">
+        <v>36</v>
+      </c>
+      <c r="AD53">
+        <v>18</v>
+      </c>
+      <c r="AE53">
+        <v>15</v>
+      </c>
+      <c r="AF53">
+        <v>29</v>
+      </c>
+      <c r="AG53">
+        <v>33</v>
+      </c>
+      <c r="AH53">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>42619</v>
       </c>
@@ -36605,8 +36183,38 @@
       <c r="X54">
         <v>90</v>
       </c>
-    </row>
-    <row r="55" spans="1:23">
+      <c r="Y54">
+        <v>98</v>
+      </c>
+      <c r="Z54">
+        <v>69</v>
+      </c>
+      <c r="AA54">
+        <v>84</v>
+      </c>
+      <c r="AB54">
+        <v>91</v>
+      </c>
+      <c r="AC54">
+        <v>40</v>
+      </c>
+      <c r="AD54">
+        <v>29</v>
+      </c>
+      <c r="AE54">
+        <v>33</v>
+      </c>
+      <c r="AF54">
+        <v>51</v>
+      </c>
+      <c r="AG54">
+        <v>36</v>
+      </c>
+      <c r="AH54">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>42620</v>
       </c>
@@ -36676,8 +36284,41 @@
       <c r="W55">
         <v>84</v>
       </c>
-    </row>
-    <row r="56" spans="1:22">
+      <c r="X55">
+        <v>84</v>
+      </c>
+      <c r="Y55">
+        <v>80</v>
+      </c>
+      <c r="Z55">
+        <v>95</v>
+      </c>
+      <c r="AA55">
+        <v>62</v>
+      </c>
+      <c r="AB55">
+        <v>15</v>
+      </c>
+      <c r="AC55">
+        <v>29</v>
+      </c>
+      <c r="AD55">
+        <v>29</v>
+      </c>
+      <c r="AE55">
+        <v>29</v>
+      </c>
+      <c r="AF55">
+        <v>22</v>
+      </c>
+      <c r="AG55">
+        <v>29</v>
+      </c>
+      <c r="AH55">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>42621</v>
       </c>
@@ -36744,8 +36385,44 @@
       <c r="V56">
         <v>88</v>
       </c>
-    </row>
-    <row r="57" spans="1:21">
+      <c r="W56">
+        <v>66</v>
+      </c>
+      <c r="X56">
+        <v>88</v>
+      </c>
+      <c r="Y56">
+        <v>62</v>
+      </c>
+      <c r="Z56">
+        <v>58</v>
+      </c>
+      <c r="AA56">
+        <v>47</v>
+      </c>
+      <c r="AB56">
+        <v>36</v>
+      </c>
+      <c r="AC56">
+        <v>33</v>
+      </c>
+      <c r="AD56">
+        <v>26</v>
+      </c>
+      <c r="AE56">
+        <v>15</v>
+      </c>
+      <c r="AF56">
+        <v>40</v>
+      </c>
+      <c r="AG56">
+        <v>55</v>
+      </c>
+      <c r="AH56">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>42622</v>
       </c>
@@ -36809,8 +36486,47 @@
       <c r="U57">
         <v>96</v>
       </c>
-    </row>
-    <row r="58" spans="1:20">
+      <c r="V57">
+        <v>69</v>
+      </c>
+      <c r="W57">
+        <v>88</v>
+      </c>
+      <c r="X57">
+        <v>91</v>
+      </c>
+      <c r="Y57">
+        <v>80</v>
+      </c>
+      <c r="Z57">
+        <v>36</v>
+      </c>
+      <c r="AA57">
+        <v>22</v>
+      </c>
+      <c r="AB57">
+        <v>29</v>
+      </c>
+      <c r="AC57">
+        <v>26</v>
+      </c>
+      <c r="AD57">
+        <v>33</v>
+      </c>
+      <c r="AE57">
+        <v>55</v>
+      </c>
+      <c r="AF57">
+        <v>51</v>
+      </c>
+      <c r="AG57">
+        <v>73</v>
+      </c>
+      <c r="AH57">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>42623</v>
       </c>
@@ -36871,8 +36587,50 @@
       <c r="T58">
         <v>82</v>
       </c>
-    </row>
-    <row r="59" spans="1:19">
+      <c r="U58">
+        <v>77</v>
+      </c>
+      <c r="V58">
+        <v>91</v>
+      </c>
+      <c r="W58">
+        <v>95</v>
+      </c>
+      <c r="X58">
+        <v>77</v>
+      </c>
+      <c r="Y58">
+        <v>58</v>
+      </c>
+      <c r="Z58">
+        <v>26</v>
+      </c>
+      <c r="AA58">
+        <v>55</v>
+      </c>
+      <c r="AB58">
+        <v>29</v>
+      </c>
+      <c r="AC58">
+        <v>47</v>
+      </c>
+      <c r="AD58">
+        <v>69</v>
+      </c>
+      <c r="AE58">
+        <v>77</v>
+      </c>
+      <c r="AF58">
+        <v>33</v>
+      </c>
+      <c r="AG58">
+        <v>55</v>
+      </c>
+      <c r="AH58">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>42624</v>
       </c>
@@ -36930,8 +36688,53 @@
       <c r="S59">
         <v>75</v>
       </c>
-    </row>
-    <row r="60" spans="1:18">
+      <c r="T59">
+        <v>47</v>
+      </c>
+      <c r="U59">
+        <v>66</v>
+      </c>
+      <c r="V59">
+        <v>73</v>
+      </c>
+      <c r="W59">
+        <v>51</v>
+      </c>
+      <c r="X59">
+        <v>62</v>
+      </c>
+      <c r="Y59">
+        <v>58</v>
+      </c>
+      <c r="Z59">
+        <v>42</v>
+      </c>
+      <c r="AA59">
+        <v>80</v>
+      </c>
+      <c r="AB59">
+        <v>44</v>
+      </c>
+      <c r="AC59">
+        <v>51</v>
+      </c>
+      <c r="AD59">
+        <v>73</v>
+      </c>
+      <c r="AE59">
+        <v>69</v>
+      </c>
+      <c r="AF59">
+        <v>66</v>
+      </c>
+      <c r="AG59">
+        <v>77</v>
+      </c>
+      <c r="AH59">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>42625</v>
       </c>
@@ -36986,8 +36789,56 @@
       <c r="R60">
         <v>125</v>
       </c>
-    </row>
-    <row r="61" spans="1:17">
+      <c r="S60">
+        <v>99</v>
+      </c>
+      <c r="T60">
+        <v>99</v>
+      </c>
+      <c r="U60">
+        <v>88</v>
+      </c>
+      <c r="V60">
+        <v>124</v>
+      </c>
+      <c r="W60">
+        <v>22</v>
+      </c>
+      <c r="X60">
+        <v>47</v>
+      </c>
+      <c r="Y60">
+        <v>26</v>
+      </c>
+      <c r="Z60">
+        <v>29</v>
+      </c>
+      <c r="AA60">
+        <v>29</v>
+      </c>
+      <c r="AB60">
+        <v>40</v>
+      </c>
+      <c r="AC60">
+        <v>55</v>
+      </c>
+      <c r="AD60">
+        <v>99</v>
+      </c>
+      <c r="AE60">
+        <v>84</v>
+      </c>
+      <c r="AF60">
+        <v>91</v>
+      </c>
+      <c r="AG60">
+        <v>77</v>
+      </c>
+      <c r="AH60">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>42626</v>
       </c>
@@ -37039,8 +36890,59 @@
       <c r="Q61">
         <v>87</v>
       </c>
-    </row>
-    <row r="62" spans="1:16">
+      <c r="R61">
+        <v>66</v>
+      </c>
+      <c r="S61">
+        <v>55</v>
+      </c>
+      <c r="T61">
+        <v>62</v>
+      </c>
+      <c r="U61">
+        <v>47</v>
+      </c>
+      <c r="V61">
+        <v>18</v>
+      </c>
+      <c r="W61">
+        <v>18</v>
+      </c>
+      <c r="X61">
+        <v>11</v>
+      </c>
+      <c r="Y61">
+        <v>18</v>
+      </c>
+      <c r="Z61">
+        <v>33</v>
+      </c>
+      <c r="AA61">
+        <v>15</v>
+      </c>
+      <c r="AB61">
+        <v>22</v>
+      </c>
+      <c r="AC61">
+        <v>51</v>
+      </c>
+      <c r="AD61">
+        <v>40</v>
+      </c>
+      <c r="AE61">
+        <v>33</v>
+      </c>
+      <c r="AF61">
+        <v>36</v>
+      </c>
+      <c r="AG61">
+        <v>62</v>
+      </c>
+      <c r="AH61">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
         <v>42627</v>
       </c>
@@ -37089,8 +36991,62 @@
       <c r="P62">
         <v>96</v>
       </c>
-    </row>
-    <row r="63" spans="1:15">
+      <c r="Q62">
+        <v>73</v>
+      </c>
+      <c r="R62">
+        <v>77</v>
+      </c>
+      <c r="S62">
+        <v>66</v>
+      </c>
+      <c r="T62">
+        <v>51</v>
+      </c>
+      <c r="U62">
+        <v>36</v>
+      </c>
+      <c r="V62">
+        <v>18</v>
+      </c>
+      <c r="W62">
+        <v>33</v>
+      </c>
+      <c r="X62">
+        <v>33</v>
+      </c>
+      <c r="Y62">
+        <v>18</v>
+      </c>
+      <c r="Z62">
+        <v>47</v>
+      </c>
+      <c r="AA62">
+        <v>29</v>
+      </c>
+      <c r="AB62">
+        <v>55</v>
+      </c>
+      <c r="AC62">
+        <v>62</v>
+      </c>
+      <c r="AD62">
+        <v>55</v>
+      </c>
+      <c r="AE62">
+        <v>40</v>
+      </c>
+      <c r="AF62">
+        <v>69</v>
+      </c>
+      <c r="AG62">
+        <v>47</v>
+      </c>
+      <c r="AH62">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>42628</v>
       </c>
@@ -37136,8 +37092,62 @@
       <c r="O63">
         <v>48</v>
       </c>
-    </row>
-    <row r="64" spans="1:14">
+      <c r="P63">
+        <v>29</v>
+      </c>
+      <c r="Q63">
+        <v>54</v>
+      </c>
+      <c r="R63">
+        <v>22</v>
+      </c>
+      <c r="S63">
+        <v>36</v>
+      </c>
+      <c r="T63">
+        <v>11</v>
+      </c>
+      <c r="U63">
+        <v>29</v>
+      </c>
+      <c r="V63">
+        <v>29</v>
+      </c>
+      <c r="W63">
+        <v>15</v>
+      </c>
+      <c r="X63">
+        <v>25</v>
+      </c>
+      <c r="Y63">
+        <v>33</v>
+      </c>
+      <c r="Z63">
+        <v>33</v>
+      </c>
+      <c r="AA63">
+        <v>33</v>
+      </c>
+      <c r="AB63">
+        <v>29</v>
+      </c>
+      <c r="AC63">
+        <v>29</v>
+      </c>
+      <c r="AD63">
+        <v>36</v>
+      </c>
+      <c r="AE63">
+        <v>36</v>
+      </c>
+      <c r="AF63">
+        <v>22</v>
+      </c>
+      <c r="AG63">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>42629</v>
       </c>
@@ -37180,8 +37190,62 @@
       <c r="N64">
         <v>24</v>
       </c>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="O64">
+        <v>40</v>
+      </c>
+      <c r="P64">
+        <v>40</v>
+      </c>
+      <c r="Q64">
+        <v>29</v>
+      </c>
+      <c r="R64">
+        <v>36</v>
+      </c>
+      <c r="S64">
+        <v>11</v>
+      </c>
+      <c r="T64">
+        <v>36</v>
+      </c>
+      <c r="U64">
+        <v>51</v>
+      </c>
+      <c r="V64">
+        <v>25</v>
+      </c>
+      <c r="W64">
+        <v>25</v>
+      </c>
+      <c r="X64">
+        <v>29</v>
+      </c>
+      <c r="Y64">
+        <v>18</v>
+      </c>
+      <c r="Z64">
+        <v>33</v>
+      </c>
+      <c r="AA64">
+        <v>29</v>
+      </c>
+      <c r="AB64">
+        <v>25</v>
+      </c>
+      <c r="AC64">
+        <v>25</v>
+      </c>
+      <c r="AD64">
+        <v>25</v>
+      </c>
+      <c r="AE64">
+        <v>33</v>
+      </c>
+      <c r="AF64">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
         <v>42630</v>
       </c>
@@ -37221,8 +37285,62 @@
       <c r="M65">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:12">
+      <c r="N65">
+        <v>4</v>
+      </c>
+      <c r="O65">
+        <v>11</v>
+      </c>
+      <c r="P65">
+        <v>11</v>
+      </c>
+      <c r="Q65">
+        <v>7</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>7</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>11</v>
+      </c>
+      <c r="Y65">
+        <v>7</v>
+      </c>
+      <c r="Z65">
+        <v>11</v>
+      </c>
+      <c r="AA65">
+        <v>4</v>
+      </c>
+      <c r="AB65">
+        <v>7</v>
+      </c>
+      <c r="AC65">
+        <v>7</v>
+      </c>
+      <c r="AD65">
+        <v>14</v>
+      </c>
+      <c r="AE65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
         <v>42631</v>
       </c>
@@ -37259,8 +37377,62 @@
       <c r="L66">
         <v>91</v>
       </c>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="M66">
+        <v>62</v>
+      </c>
+      <c r="N66">
+        <v>80</v>
+      </c>
+      <c r="O66">
+        <v>106</v>
+      </c>
+      <c r="P66">
+        <v>73</v>
+      </c>
+      <c r="Q66">
+        <v>36</v>
+      </c>
+      <c r="R66">
+        <v>36</v>
+      </c>
+      <c r="S66">
+        <v>25</v>
+      </c>
+      <c r="T66">
+        <v>25</v>
+      </c>
+      <c r="U66">
+        <v>18</v>
+      </c>
+      <c r="V66">
+        <v>40</v>
+      </c>
+      <c r="W66">
+        <v>47</v>
+      </c>
+      <c r="X66">
+        <v>84</v>
+      </c>
+      <c r="Y66">
+        <v>84</v>
+      </c>
+      <c r="Z66">
+        <v>62</v>
+      </c>
+      <c r="AA66">
+        <v>62</v>
+      </c>
+      <c r="AB66">
+        <v>58</v>
+      </c>
+      <c r="AC66">
+        <v>76</v>
+      </c>
+      <c r="AD66">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
         <v>42632</v>
       </c>
@@ -37294,8 +37466,62 @@
       <c r="K67">
         <v>106</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="L67">
+        <v>66</v>
+      </c>
+      <c r="M67">
+        <v>73</v>
+      </c>
+      <c r="N67">
+        <v>58</v>
+      </c>
+      <c r="O67">
+        <v>36</v>
+      </c>
+      <c r="P67">
+        <v>29</v>
+      </c>
+      <c r="Q67">
+        <v>18</v>
+      </c>
+      <c r="R67">
+        <v>15</v>
+      </c>
+      <c r="S67">
+        <v>18</v>
+      </c>
+      <c r="T67">
+        <v>29</v>
+      </c>
+      <c r="U67">
+        <v>29</v>
+      </c>
+      <c r="V67">
+        <v>44</v>
+      </c>
+      <c r="W67">
+        <v>55</v>
+      </c>
+      <c r="X67">
+        <v>36</v>
+      </c>
+      <c r="Y67">
+        <v>48</v>
+      </c>
+      <c r="Z67">
+        <v>58</v>
+      </c>
+      <c r="AA67">
+        <v>58</v>
+      </c>
+      <c r="AB67">
+        <v>29</v>
+      </c>
+      <c r="AC67">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
         <v>42633</v>
       </c>
@@ -37326,8 +37552,62 @@
       <c r="J68">
         <v>119</v>
       </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="K68">
+        <v>92</v>
+      </c>
+      <c r="L68">
+        <v>110</v>
+      </c>
+      <c r="M68">
+        <v>96</v>
+      </c>
+      <c r="N68">
+        <v>88</v>
+      </c>
+      <c r="O68">
+        <v>35</v>
+      </c>
+      <c r="P68">
+        <v>32</v>
+      </c>
+      <c r="Q68">
+        <v>32</v>
+      </c>
+      <c r="R68">
+        <v>39</v>
+      </c>
+      <c r="S68">
+        <v>39</v>
+      </c>
+      <c r="T68">
+        <v>42</v>
+      </c>
+      <c r="U68">
+        <v>53</v>
+      </c>
+      <c r="V68">
+        <v>85</v>
+      </c>
+      <c r="W68">
+        <v>53</v>
+      </c>
+      <c r="X68">
+        <v>78</v>
+      </c>
+      <c r="Y68">
+        <v>67</v>
+      </c>
+      <c r="Z68">
+        <v>78</v>
+      </c>
+      <c r="AA68">
+        <v>67</v>
+      </c>
+      <c r="AB68">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
         <v>42634</v>
       </c>
@@ -37355,8 +37635,62 @@
       <c r="I69">
         <v>389</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="J69">
+        <v>305</v>
+      </c>
+      <c r="K69">
+        <v>301</v>
+      </c>
+      <c r="L69">
+        <v>237</v>
+      </c>
+      <c r="M69">
+        <v>208</v>
+      </c>
+      <c r="N69">
+        <v>140</v>
+      </c>
+      <c r="O69">
+        <v>111</v>
+      </c>
+      <c r="P69">
+        <v>115</v>
+      </c>
+      <c r="Q69">
+        <v>86</v>
+      </c>
+      <c r="R69">
+        <v>86</v>
+      </c>
+      <c r="S69">
+        <v>68</v>
+      </c>
+      <c r="T69">
+        <v>118</v>
+      </c>
+      <c r="U69">
+        <v>194</v>
+      </c>
+      <c r="V69">
+        <v>240</v>
+      </c>
+      <c r="W69">
+        <v>186</v>
+      </c>
+      <c r="X69">
+        <v>168</v>
+      </c>
+      <c r="Y69">
+        <v>194</v>
+      </c>
+      <c r="Z69">
+        <v>158</v>
+      </c>
+      <c r="AA69">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
         <v>42635</v>
       </c>
@@ -37381,8 +37715,62 @@
       <c r="H70">
         <v>411</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="I70">
+        <v>443</v>
+      </c>
+      <c r="J70">
+        <v>495</v>
+      </c>
+      <c r="K70">
+        <v>413</v>
+      </c>
+      <c r="L70">
+        <v>346</v>
+      </c>
+      <c r="M70">
+        <v>168</v>
+      </c>
+      <c r="N70">
+        <v>108</v>
+      </c>
+      <c r="O70">
+        <v>138</v>
+      </c>
+      <c r="P70">
+        <v>179</v>
+      </c>
+      <c r="Q70">
+        <v>179</v>
+      </c>
+      <c r="R70">
+        <v>194</v>
+      </c>
+      <c r="S70">
+        <v>212</v>
+      </c>
+      <c r="T70">
+        <v>335</v>
+      </c>
+      <c r="U70">
+        <v>305</v>
+      </c>
+      <c r="V70">
+        <v>317</v>
+      </c>
+      <c r="W70">
+        <v>283</v>
+      </c>
+      <c r="X70">
+        <v>253</v>
+      </c>
+      <c r="Y70">
+        <v>216</v>
+      </c>
+      <c r="Z70">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
         <v>42636</v>
       </c>
@@ -37395,23 +37783,1034 @@
       <c r="D71">
         <v>4144</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="E71">
+        <v>1260</v>
+      </c>
+      <c r="F71">
+        <v>596</v>
+      </c>
+      <c r="G71">
+        <v>748</v>
+      </c>
+      <c r="H71">
+        <v>630</v>
+      </c>
+      <c r="I71">
+        <v>512</v>
+      </c>
+      <c r="J71">
+        <v>478</v>
+      </c>
+      <c r="K71">
+        <v>431</v>
+      </c>
+      <c r="L71">
+        <v>195</v>
+      </c>
+      <c r="M71">
+        <v>190</v>
+      </c>
+      <c r="N71">
+        <v>199</v>
+      </c>
+      <c r="O71">
+        <v>199</v>
+      </c>
+      <c r="P71">
+        <v>173</v>
+      </c>
+      <c r="Q71">
+        <v>220</v>
+      </c>
+      <c r="R71">
+        <v>233</v>
+      </c>
+      <c r="S71">
+        <v>317</v>
+      </c>
+      <c r="T71">
+        <v>351</v>
+      </c>
+      <c r="U71">
+        <v>321</v>
+      </c>
+      <c r="V71">
+        <v>292</v>
+      </c>
+      <c r="W71">
+        <v>262</v>
+      </c>
+      <c r="X71">
+        <v>245</v>
+      </c>
+      <c r="Y71">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
         <v>42637</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="2"/>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="2"/>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="2"/>
+      <c r="B72">
+        <v>8592</v>
+      </c>
+      <c r="C72">
+        <v>23765</v>
+      </c>
+      <c r="D72">
+        <v>4808</v>
+      </c>
+      <c r="E72">
+        <v>1384</v>
+      </c>
+      <c r="F72">
+        <v>827</v>
+      </c>
+      <c r="G72">
+        <v>751</v>
+      </c>
+      <c r="H72">
+        <v>473</v>
+      </c>
+      <c r="I72">
+        <v>410</v>
+      </c>
+      <c r="J72">
+        <v>406</v>
+      </c>
+      <c r="K72">
+        <v>314</v>
+      </c>
+      <c r="L72">
+        <v>294</v>
+      </c>
+      <c r="M72">
+        <v>262</v>
+      </c>
+      <c r="N72">
+        <v>306</v>
+      </c>
+      <c r="O72">
+        <v>298</v>
+      </c>
+      <c r="P72">
+        <v>310</v>
+      </c>
+      <c r="Q72">
+        <v>294</v>
+      </c>
+      <c r="R72">
+        <v>338</v>
+      </c>
+      <c r="S72">
+        <v>298</v>
+      </c>
+      <c r="T72">
+        <v>270</v>
+      </c>
+      <c r="U72">
+        <v>294</v>
+      </c>
+      <c r="V72">
+        <v>274</v>
+      </c>
+      <c r="W72">
+        <v>231</v>
+      </c>
+      <c r="X72">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A73" s="2">
+        <v>42638</v>
+      </c>
+      <c r="B73">
+        <v>8671</v>
+      </c>
+      <c r="C73">
+        <v>21914</v>
+      </c>
+      <c r="D73">
+        <v>4536</v>
+      </c>
+      <c r="E73">
+        <v>1268</v>
+      </c>
+      <c r="F73">
+        <v>795</v>
+      </c>
+      <c r="G73">
+        <v>561</v>
+      </c>
+      <c r="H73">
+        <v>485</v>
+      </c>
+      <c r="I73">
+        <v>390</v>
+      </c>
+      <c r="J73">
+        <v>386</v>
+      </c>
+      <c r="K73">
+        <v>314</v>
+      </c>
+      <c r="L73">
+        <v>270</v>
+      </c>
+      <c r="M73">
+        <v>247</v>
+      </c>
+      <c r="N73">
+        <v>290</v>
+      </c>
+      <c r="O73">
+        <v>302</v>
+      </c>
+      <c r="P73">
+        <v>286</v>
+      </c>
+      <c r="Q73">
+        <v>298</v>
+      </c>
+      <c r="R73">
+        <v>286</v>
+      </c>
+      <c r="S73">
+        <v>262</v>
+      </c>
+      <c r="T73">
+        <v>262</v>
+      </c>
+      <c r="U73">
+        <v>235</v>
+      </c>
+      <c r="V73">
+        <v>231</v>
+      </c>
+      <c r="W73">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A74" s="2">
+        <v>42639</v>
+      </c>
+      <c r="B74">
+        <v>10778</v>
+      </c>
+      <c r="C74">
+        <v>20043</v>
+      </c>
+      <c r="D74">
+        <v>4544</v>
+      </c>
+      <c r="E74">
+        <v>1455</v>
+      </c>
+      <c r="F74">
+        <v>879</v>
+      </c>
+      <c r="G74">
+        <v>632</v>
+      </c>
+      <c r="H74">
+        <v>505</v>
+      </c>
+      <c r="I74">
+        <v>266</v>
+      </c>
+      <c r="J74">
+        <v>282</v>
+      </c>
+      <c r="K74">
+        <v>227</v>
+      </c>
+      <c r="L74">
+        <v>207</v>
+      </c>
+      <c r="M74">
+        <v>227</v>
+      </c>
+      <c r="N74">
+        <v>234</v>
+      </c>
+      <c r="O74">
+        <v>306</v>
+      </c>
+      <c r="P74">
+        <v>402</v>
+      </c>
+      <c r="Q74">
+        <v>354</v>
+      </c>
+      <c r="R74">
+        <v>342</v>
+      </c>
+      <c r="S74">
+        <v>374</v>
+      </c>
+      <c r="T74">
+        <v>310</v>
+      </c>
+      <c r="U74">
+        <v>266</v>
+      </c>
+      <c r="V74">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A75" s="2">
+        <v>42640</v>
+      </c>
+      <c r="B75">
+        <v>11475</v>
+      </c>
+      <c r="C75">
+        <v>22050</v>
+      </c>
+      <c r="D75">
+        <v>4930</v>
+      </c>
+      <c r="E75">
+        <v>1594</v>
+      </c>
+      <c r="F75">
+        <v>903</v>
+      </c>
+      <c r="G75">
+        <v>648</v>
+      </c>
+      <c r="H75">
+        <v>302</v>
+      </c>
+      <c r="I75">
+        <v>298</v>
+      </c>
+      <c r="J75">
+        <v>211</v>
+      </c>
+      <c r="K75">
+        <v>270</v>
+      </c>
+      <c r="L75">
+        <v>231</v>
+      </c>
+      <c r="M75">
+        <v>250</v>
+      </c>
+      <c r="N75">
+        <v>342</v>
+      </c>
+      <c r="O75">
+        <v>517</v>
+      </c>
+      <c r="P75">
+        <v>481</v>
+      </c>
+      <c r="Q75">
+        <v>473</v>
+      </c>
+      <c r="R75">
+        <v>429</v>
+      </c>
+      <c r="S75">
+        <v>398</v>
+      </c>
+      <c r="T75">
+        <v>342</v>
+      </c>
+      <c r="U75">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A76" s="2">
+        <v>42641</v>
+      </c>
+      <c r="B76">
+        <v>12071</v>
+      </c>
+      <c r="C76">
+        <v>23325</v>
+      </c>
+      <c r="D76">
+        <v>5127</v>
+      </c>
+      <c r="E76">
+        <v>1682</v>
+      </c>
+      <c r="F76">
+        <v>974</v>
+      </c>
+      <c r="G76">
+        <v>390</v>
+      </c>
+      <c r="H76">
+        <v>314</v>
+      </c>
+      <c r="I76">
+        <v>314</v>
+      </c>
+      <c r="J76">
+        <v>318</v>
+      </c>
+      <c r="K76">
+        <v>298</v>
+      </c>
+      <c r="L76">
+        <v>322</v>
+      </c>
+      <c r="M76">
+        <v>322</v>
+      </c>
+      <c r="N76">
+        <v>604</v>
+      </c>
+      <c r="O76">
+        <v>501</v>
+      </c>
+      <c r="P76">
+        <v>453</v>
+      </c>
+      <c r="Q76">
+        <v>445</v>
+      </c>
+      <c r="R76">
+        <v>453</v>
+      </c>
+      <c r="S76">
+        <v>374</v>
+      </c>
+      <c r="T76">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A77" s="2">
+        <v>42642</v>
+      </c>
+      <c r="B77">
+        <v>8532</v>
+      </c>
+      <c r="C77">
+        <v>5982</v>
+      </c>
+      <c r="D77">
+        <v>1370</v>
+      </c>
+      <c r="E77">
+        <v>402</v>
+      </c>
+      <c r="F77">
+        <v>123</v>
+      </c>
+      <c r="G77">
+        <v>107</v>
+      </c>
+      <c r="H77">
+        <v>80</v>
+      </c>
+      <c r="I77">
+        <v>87</v>
+      </c>
+      <c r="J77">
+        <v>131</v>
+      </c>
+      <c r="K77">
+        <v>143</v>
+      </c>
+      <c r="L77">
+        <v>127</v>
+      </c>
+      <c r="M77">
+        <v>215</v>
+      </c>
+      <c r="N77">
+        <v>163</v>
+      </c>
+      <c r="O77">
+        <v>175</v>
+      </c>
+      <c r="P77">
+        <v>179</v>
+      </c>
+      <c r="Q77">
+        <v>127</v>
+      </c>
+      <c r="R77">
+        <v>139</v>
+      </c>
+      <c r="S77">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A78" s="2">
+        <v>42643</v>
+      </c>
+      <c r="B78">
+        <v>6963</v>
+      </c>
+      <c r="C78">
+        <v>4776</v>
+      </c>
+      <c r="D78">
+        <v>915</v>
+      </c>
+      <c r="E78">
+        <v>224</v>
+      </c>
+      <c r="F78">
+        <v>139</v>
+      </c>
+      <c r="G78">
+        <v>131</v>
+      </c>
+      <c r="H78">
+        <v>122</v>
+      </c>
+      <c r="I78">
+        <v>86</v>
+      </c>
+      <c r="J78">
+        <v>147</v>
+      </c>
+      <c r="K78">
+        <v>163</v>
+      </c>
+      <c r="L78">
+        <v>261</v>
+      </c>
+      <c r="M78">
+        <v>193</v>
+      </c>
+      <c r="N78">
+        <v>143</v>
+      </c>
+      <c r="O78">
+        <v>127</v>
+      </c>
+      <c r="P78">
+        <v>143</v>
+      </c>
+      <c r="Q78">
+        <v>127</v>
+      </c>
+      <c r="R78">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A79" s="2">
+        <v>42644</v>
+      </c>
+      <c r="B79">
+        <v>4137</v>
+      </c>
+      <c r="C79">
+        <v>3738</v>
+      </c>
+      <c r="D79">
+        <v>707</v>
+      </c>
+      <c r="E79">
+        <v>211</v>
+      </c>
+      <c r="F79">
+        <v>123</v>
+      </c>
+      <c r="G79">
+        <v>99</v>
+      </c>
+      <c r="H79">
+        <v>119</v>
+      </c>
+      <c r="I79">
+        <v>119</v>
+      </c>
+      <c r="J79">
+        <v>83</v>
+      </c>
+      <c r="K79">
+        <v>119</v>
+      </c>
+      <c r="L79">
+        <v>68</v>
+      </c>
+      <c r="M79">
+        <v>72</v>
+      </c>
+      <c r="N79">
+        <v>72</v>
+      </c>
+      <c r="O79">
+        <v>60</v>
+      </c>
+      <c r="P79">
+        <v>64</v>
+      </c>
+      <c r="Q79">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A80" s="2">
+        <v>42645</v>
+      </c>
+      <c r="B80">
+        <v>3997</v>
+      </c>
+      <c r="C80">
+        <v>4651</v>
+      </c>
+      <c r="D80">
+        <v>892</v>
+      </c>
+      <c r="E80">
+        <v>241</v>
+      </c>
+      <c r="F80">
+        <v>175</v>
+      </c>
+      <c r="G80">
+        <v>139</v>
+      </c>
+      <c r="H80">
+        <v>155</v>
+      </c>
+      <c r="I80">
+        <v>127</v>
+      </c>
+      <c r="J80">
+        <v>86</v>
+      </c>
+      <c r="K80">
+        <v>110</v>
+      </c>
+      <c r="L80">
+        <v>102</v>
+      </c>
+      <c r="M80">
+        <v>98</v>
+      </c>
+      <c r="N80">
+        <v>78</v>
+      </c>
+      <c r="O80">
+        <v>78</v>
+      </c>
+      <c r="P80">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A81" s="2">
+        <v>42646</v>
+      </c>
+      <c r="B81">
+        <v>4186</v>
+      </c>
+      <c r="C81">
+        <v>4744</v>
+      </c>
+      <c r="D81">
+        <v>923</v>
+      </c>
+      <c r="E81">
+        <v>265</v>
+      </c>
+      <c r="F81">
+        <v>155</v>
+      </c>
+      <c r="G81">
+        <v>139</v>
+      </c>
+      <c r="H81">
+        <v>155</v>
+      </c>
+      <c r="I81">
+        <v>122</v>
+      </c>
+      <c r="J81">
+        <v>164</v>
+      </c>
+      <c r="K81">
+        <v>86</v>
+      </c>
+      <c r="L81">
+        <v>131</v>
+      </c>
+      <c r="M81">
+        <v>86</v>
+      </c>
+      <c r="N81">
+        <v>86</v>
+      </c>
+      <c r="O81">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A82" s="2">
+        <v>42647</v>
+      </c>
+      <c r="B82">
+        <v>4257</v>
+      </c>
+      <c r="C82">
+        <v>4336</v>
+      </c>
+      <c r="D82">
+        <v>848</v>
+      </c>
+      <c r="E82">
+        <v>229</v>
+      </c>
+      <c r="F82">
+        <v>143</v>
+      </c>
+      <c r="G82">
+        <v>106</v>
+      </c>
+      <c r="H82">
+        <v>102</v>
+      </c>
+      <c r="I82">
+        <v>110</v>
+      </c>
+      <c r="J82">
+        <v>94</v>
+      </c>
+      <c r="K82">
+        <v>69</v>
+      </c>
+      <c r="L82">
+        <v>82</v>
+      </c>
+      <c r="M82">
+        <v>73</v>
+      </c>
+      <c r="N82">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A83" s="2">
+        <v>42648</v>
+      </c>
+      <c r="B83">
+        <v>4466</v>
+      </c>
+      <c r="C83">
+        <v>4370</v>
+      </c>
+      <c r="D83">
+        <v>822</v>
+      </c>
+      <c r="E83">
+        <v>270</v>
+      </c>
+      <c r="F83">
+        <v>191</v>
+      </c>
+      <c r="G83">
+        <v>151</v>
+      </c>
+      <c r="H83">
+        <v>107</v>
+      </c>
+      <c r="I83">
+        <v>115</v>
+      </c>
+      <c r="J83">
+        <v>91</v>
+      </c>
+      <c r="K83">
+        <v>87</v>
+      </c>
+      <c r="L83">
+        <v>103</v>
+      </c>
+      <c r="M83">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A84" s="2">
+        <v>42649</v>
+      </c>
+      <c r="B84">
+        <v>5028</v>
+      </c>
+      <c r="C84">
+        <v>4335</v>
+      </c>
+      <c r="D84">
+        <v>883</v>
+      </c>
+      <c r="E84">
+        <v>306</v>
+      </c>
+      <c r="F84">
+        <v>171</v>
+      </c>
+      <c r="G84">
+        <v>183</v>
+      </c>
+      <c r="H84">
+        <v>167</v>
+      </c>
+      <c r="I84">
+        <v>139</v>
+      </c>
+      <c r="J84">
+        <v>119</v>
+      </c>
+      <c r="K84">
+        <v>115</v>
+      </c>
+      <c r="L84">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A85" s="2">
+        <v>42650</v>
+      </c>
+      <c r="B85">
+        <v>5422</v>
+      </c>
+      <c r="C85">
+        <v>4379</v>
+      </c>
+      <c r="D85">
+        <v>911</v>
+      </c>
+      <c r="E85">
+        <v>330</v>
+      </c>
+      <c r="F85">
+        <v>167</v>
+      </c>
+      <c r="G85">
+        <v>175</v>
+      </c>
+      <c r="H85">
+        <v>147</v>
+      </c>
+      <c r="I85">
+        <v>119</v>
+      </c>
+      <c r="J85">
+        <v>119</v>
+      </c>
+      <c r="K85">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A86" s="2">
+        <v>42651</v>
+      </c>
+      <c r="B86">
+        <v>7183</v>
+      </c>
+      <c r="C86">
+        <v>4093</v>
+      </c>
+      <c r="D86">
+        <v>910</v>
+      </c>
+      <c r="E86">
+        <v>298</v>
+      </c>
+      <c r="F86">
+        <v>243</v>
+      </c>
+      <c r="G86">
+        <v>211</v>
+      </c>
+      <c r="H86">
+        <v>155</v>
+      </c>
+      <c r="I86">
+        <v>147</v>
+      </c>
+      <c r="J86">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A87" s="2">
+        <v>42652</v>
+      </c>
+      <c r="B87">
+        <v>5758</v>
+      </c>
+      <c r="C87">
+        <v>3950</v>
+      </c>
+      <c r="D87">
+        <v>874</v>
+      </c>
+      <c r="E87">
+        <v>338</v>
+      </c>
+      <c r="F87">
+        <v>231</v>
+      </c>
+      <c r="G87">
+        <v>167</v>
+      </c>
+      <c r="H87">
+        <v>147</v>
+      </c>
+      <c r="I87">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A88" s="2">
+        <v>42653</v>
+      </c>
+      <c r="B88">
+        <v>4490</v>
+      </c>
+      <c r="C88">
+        <v>3482</v>
+      </c>
+      <c r="D88">
+        <v>673</v>
+      </c>
+      <c r="E88">
+        <v>270</v>
+      </c>
+      <c r="F88">
+        <v>211</v>
+      </c>
+      <c r="G88">
+        <v>170</v>
+      </c>
+      <c r="H88">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A89" s="2">
+        <v>42654</v>
+      </c>
+      <c r="B89">
+        <v>3500</v>
+      </c>
+      <c r="C89">
+        <v>2144</v>
+      </c>
+      <c r="D89">
+        <v>522</v>
+      </c>
+      <c r="E89">
+        <v>183</v>
+      </c>
+      <c r="F89">
+        <v>119</v>
+      </c>
+      <c r="G89">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A90" s="2">
+        <v>42655</v>
+      </c>
+      <c r="B90">
+        <v>2707</v>
+      </c>
+      <c r="C90">
+        <v>678</v>
+      </c>
+      <c r="D90">
+        <v>205</v>
+      </c>
+      <c r="E90">
+        <v>44</v>
+      </c>
+      <c r="F90">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A91" s="2">
+        <v>42656</v>
+      </c>
+      <c r="B91">
+        <v>2285</v>
+      </c>
+      <c r="C91">
+        <v>672</v>
+      </c>
+      <c r="D91">
+        <v>177</v>
+      </c>
+      <c r="E91">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A92" s="2">
+        <v>42657</v>
+      </c>
+      <c r="B92">
+        <v>2045</v>
+      </c>
+      <c r="C92">
+        <v>672</v>
+      </c>
+      <c r="D92">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A93" s="2">
+        <v>42658</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A94" s="2">
+        <v>42659</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A95" s="2">
+        <v>42660</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A96" s="2">
+        <v>42661</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A97" s="2">
+        <v>42662</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/aitushow/code/doc/留存.xlsx
+++ b/aitushow/code/doc/留存.xlsx
@@ -4,21 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="5730" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="5730" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="0002" sheetId="1" r:id="rId1"/>
-    <sheet name="0003" sheetId="2" r:id="rId2"/>
-    <sheet name="10版本" sheetId="3" r:id="rId3"/>
-    <sheet name="11版本" sheetId="4" r:id="rId4"/>
-    <sheet name="15版本" sheetId="6" r:id="rId5"/>
+    <sheet name="0001" sheetId="8" r:id="rId1"/>
+    <sheet name="0002" sheetId="1" r:id="rId2"/>
+    <sheet name="0003" sheetId="2" r:id="rId3"/>
+    <sheet name="10版本" sheetId="3" r:id="rId4"/>
+    <sheet name="11版本" sheetId="4" r:id="rId5"/>
+    <sheet name="13版本" sheetId="7" r:id="rId6"/>
+    <sheet name="15版本" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="9">
   <si>
     <t>首用日期</t>
   </si>
@@ -2785,10 +2787,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AH1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:34" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1" s="11">
+        <v>2</v>
+      </c>
+      <c r="G1" s="12">
+        <v>3</v>
+      </c>
+      <c r="H1" s="11">
+        <v>4</v>
+      </c>
+      <c r="I1" s="12">
+        <v>5</v>
+      </c>
+      <c r="J1" s="11">
+        <v>6</v>
+      </c>
+      <c r="K1" s="12">
+        <v>7</v>
+      </c>
+      <c r="L1" s="11">
+        <v>8</v>
+      </c>
+      <c r="M1" s="12">
+        <v>9</v>
+      </c>
+      <c r="N1" s="11">
+        <v>10</v>
+      </c>
+      <c r="O1" s="12">
+        <v>11</v>
+      </c>
+      <c r="P1" s="11">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="11">
+        <v>13</v>
+      </c>
+      <c r="R1" s="11">
+        <v>14</v>
+      </c>
+      <c r="S1" s="11">
+        <v>15</v>
+      </c>
+      <c r="T1" s="11">
+        <v>16</v>
+      </c>
+      <c r="U1" s="11">
+        <v>17</v>
+      </c>
+      <c r="V1" s="11">
+        <v>18</v>
+      </c>
+      <c r="W1" s="11">
+        <v>19</v>
+      </c>
+      <c r="X1" s="11">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="11">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="11">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="11">
+        <v>23</v>
+      </c>
+      <c r="AB1" s="11">
+        <v>24</v>
+      </c>
+      <c r="AC1" s="11">
+        <v>25</v>
+      </c>
+      <c r="AD1" s="11">
+        <v>26</v>
+      </c>
+      <c r="AE1" s="11">
+        <v>27</v>
+      </c>
+      <c r="AF1" s="11">
+        <v>28</v>
+      </c>
+      <c r="AG1" s="11">
+        <v>29</v>
+      </c>
+      <c r="AH1" s="11">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV330"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91:A113"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11281,7 +11403,9 @@
       <c r="AG61" s="10">
         <v>26</v>
       </c>
-      <c r="AH61" s="10"/>
+      <c r="AH61" s="10">
+        <v>40</v>
+      </c>
       <c r="AI61" s="10"/>
       <c r="AJ61" s="10"/>
       <c r="AK61" s="10"/>
@@ -11405,8 +11529,12 @@
       <c r="AF62" s="10">
         <v>36</v>
       </c>
-      <c r="AG62" s="10"/>
-      <c r="AH62" s="10"/>
+      <c r="AG62" s="10">
+        <v>36</v>
+      </c>
+      <c r="AH62" s="10">
+        <v>32</v>
+      </c>
       <c r="AI62" s="10"/>
       <c r="AJ62" s="10"/>
       <c r="AK62" s="10"/>
@@ -11514,9 +11642,15 @@
       <c r="AE63" s="10">
         <v>27</v>
       </c>
-      <c r="AF63" s="10"/>
-      <c r="AG63" s="10"/>
-      <c r="AH63" s="10"/>
+      <c r="AF63" s="10">
+        <v>12</v>
+      </c>
+      <c r="AG63" s="10">
+        <v>8</v>
+      </c>
+      <c r="AH63" s="10">
+        <v>28</v>
+      </c>
       <c r="AI63" s="10"/>
       <c r="AJ63" s="10"/>
       <c r="AK63" s="10"/>
@@ -11633,10 +11767,18 @@
       <c r="AD64" s="10">
         <v>29</v>
       </c>
-      <c r="AE64" s="10"/>
-      <c r="AF64" s="10"/>
-      <c r="AG64" s="10"/>
-      <c r="AH64" s="10"/>
+      <c r="AE64" s="10">
+        <v>36</v>
+      </c>
+      <c r="AF64" s="10">
+        <v>24</v>
+      </c>
+      <c r="AG64" s="10">
+        <v>28</v>
+      </c>
+      <c r="AH64" s="10">
+        <v>24</v>
+      </c>
       <c r="AI64" s="10"/>
       <c r="AJ64" s="10"/>
       <c r="AK64" s="10"/>
@@ -11749,11 +11891,21 @@
       <c r="AC65" s="10">
         <v>37</v>
       </c>
-      <c r="AD65" s="10"/>
-      <c r="AE65" s="10"/>
-      <c r="AF65" s="10"/>
-      <c r="AG65" s="10"/>
-      <c r="AH65" s="10"/>
+      <c r="AD65" s="10">
+        <v>56</v>
+      </c>
+      <c r="AE65" s="10">
+        <v>52</v>
+      </c>
+      <c r="AF65" s="10">
+        <v>20</v>
+      </c>
+      <c r="AG65" s="10">
+        <v>36</v>
+      </c>
+      <c r="AH65" s="10">
+        <v>36</v>
+      </c>
       <c r="AI65" s="10"/>
       <c r="AJ65" s="10"/>
       <c r="AK65" s="10"/>
@@ -11852,12 +12004,24 @@
       <c r="AB66" s="10">
         <v>43</v>
       </c>
-      <c r="AC66" s="10"/>
-      <c r="AD66" s="10"/>
-      <c r="AE66" s="10"/>
-      <c r="AF66" s="10"/>
-      <c r="AG66" s="10"/>
-      <c r="AH66" s="10"/>
+      <c r="AC66" s="10">
+        <v>32</v>
+      </c>
+      <c r="AD66" s="10">
+        <v>28</v>
+      </c>
+      <c r="AE66" s="10">
+        <v>52</v>
+      </c>
+      <c r="AF66" s="10">
+        <v>44</v>
+      </c>
+      <c r="AG66" s="10">
+        <v>28</v>
+      </c>
+      <c r="AH66" s="10">
+        <v>52</v>
+      </c>
       <c r="AI66" s="10"/>
       <c r="AJ66" s="10"/>
       <c r="AK66" s="10"/>
@@ -11953,13 +12117,27 @@
       <c r="AA67" s="10">
         <v>40</v>
       </c>
-      <c r="AB67" s="10"/>
-      <c r="AC67" s="10"/>
-      <c r="AD67" s="10"/>
-      <c r="AE67" s="10"/>
-      <c r="AF67" s="10"/>
-      <c r="AG67" s="10"/>
-      <c r="AH67" s="10"/>
+      <c r="AB67" s="10">
+        <v>40</v>
+      </c>
+      <c r="AC67" s="10">
+        <v>48</v>
+      </c>
+      <c r="AD67" s="10">
+        <v>48</v>
+      </c>
+      <c r="AE67" s="10">
+        <v>68</v>
+      </c>
+      <c r="AF67" s="10">
+        <v>44</v>
+      </c>
+      <c r="AG67" s="10">
+        <v>44</v>
+      </c>
+      <c r="AH67" s="10">
+        <v>16</v>
+      </c>
       <c r="AI67" s="10"/>
       <c r="AJ67" s="10"/>
       <c r="AK67" s="10"/>
@@ -12052,14 +12230,30 @@
       <c r="Z68" s="10">
         <v>55</v>
       </c>
-      <c r="AA68" s="10"/>
-      <c r="AB68" s="10"/>
-      <c r="AC68" s="10"/>
-      <c r="AD68" s="10"/>
-      <c r="AE68" s="10"/>
-      <c r="AF68" s="10"/>
-      <c r="AG68" s="10"/>
-      <c r="AH68" s="10"/>
+      <c r="AA68" s="10">
+        <v>40</v>
+      </c>
+      <c r="AB68" s="10">
+        <v>40</v>
+      </c>
+      <c r="AC68" s="10">
+        <v>64</v>
+      </c>
+      <c r="AD68" s="10">
+        <v>76</v>
+      </c>
+      <c r="AE68" s="10">
+        <v>108</v>
+      </c>
+      <c r="AF68" s="10">
+        <v>80</v>
+      </c>
+      <c r="AG68" s="10">
+        <v>52</v>
+      </c>
+      <c r="AH68" s="10">
+        <v>36</v>
+      </c>
       <c r="AI68" s="10"/>
       <c r="AJ68" s="10"/>
       <c r="AK68" s="10"/>
@@ -12156,15 +12350,33 @@
       <c r="Y69" s="10">
         <v>98</v>
       </c>
-      <c r="Z69" s="10"/>
-      <c r="AA69" s="10"/>
-      <c r="AB69" s="10"/>
-      <c r="AC69" s="10"/>
-      <c r="AD69" s="10"/>
-      <c r="AE69" s="10"/>
-      <c r="AF69" s="10"/>
-      <c r="AG69" s="10"/>
-      <c r="AH69" s="10"/>
+      <c r="Z69" s="10">
+        <v>72</v>
+      </c>
+      <c r="AA69" s="10">
+        <v>60</v>
+      </c>
+      <c r="AB69" s="10">
+        <v>137</v>
+      </c>
+      <c r="AC69" s="10">
+        <v>121</v>
+      </c>
+      <c r="AD69" s="10">
+        <v>125</v>
+      </c>
+      <c r="AE69" s="10">
+        <v>129</v>
+      </c>
+      <c r="AF69" s="10">
+        <v>52</v>
+      </c>
+      <c r="AG69" s="10">
+        <v>44</v>
+      </c>
+      <c r="AH69" s="10">
+        <v>32</v>
+      </c>
       <c r="AI69" s="10"/>
       <c r="AJ69" s="10"/>
       <c r="AK69" s="10"/>
@@ -12251,16 +12463,36 @@
       <c r="X70" s="10">
         <v>83</v>
       </c>
-      <c r="Y70" s="10"/>
-      <c r="Z70" s="10"/>
-      <c r="AA70" s="10"/>
-      <c r="AB70" s="10"/>
-      <c r="AC70" s="10"/>
-      <c r="AD70" s="10"/>
-      <c r="AE70" s="10"/>
-      <c r="AF70" s="10"/>
-      <c r="AG70" s="10"/>
-      <c r="AH70" s="10"/>
+      <c r="Y70" s="10">
+        <v>88</v>
+      </c>
+      <c r="Z70" s="10">
+        <v>68</v>
+      </c>
+      <c r="AA70" s="10">
+        <v>113</v>
+      </c>
+      <c r="AB70" s="10">
+        <v>80</v>
+      </c>
+      <c r="AC70" s="10">
+        <v>97</v>
+      </c>
+      <c r="AD70" s="10">
+        <v>68</v>
+      </c>
+      <c r="AE70" s="10">
+        <v>73</v>
+      </c>
+      <c r="AF70" s="10">
+        <v>80</v>
+      </c>
+      <c r="AG70" s="10">
+        <v>32</v>
+      </c>
+      <c r="AH70" s="10">
+        <v>84</v>
+      </c>
       <c r="AI70" s="10"/>
       <c r="AJ70" s="10"/>
       <c r="AK70" s="10"/>
@@ -12344,17 +12576,39 @@
       <c r="W71" s="10">
         <v>76</v>
       </c>
-      <c r="X71" s="10"/>
-      <c r="Y71" s="10"/>
-      <c r="Z71" s="10"/>
-      <c r="AA71" s="10"/>
-      <c r="AB71" s="10"/>
-      <c r="AC71" s="10"/>
-      <c r="AD71" s="10"/>
-      <c r="AE71" s="10"/>
-      <c r="AF71" s="10"/>
-      <c r="AG71" s="10"/>
-      <c r="AH71" s="10"/>
+      <c r="X71" s="10">
+        <v>80</v>
+      </c>
+      <c r="Y71" s="10">
+        <v>64</v>
+      </c>
+      <c r="Z71" s="10">
+        <v>92</v>
+      </c>
+      <c r="AA71" s="10">
+        <v>72</v>
+      </c>
+      <c r="AB71" s="10">
+        <v>72</v>
+      </c>
+      <c r="AC71" s="10">
+        <v>64</v>
+      </c>
+      <c r="AD71" s="10">
+        <v>68</v>
+      </c>
+      <c r="AE71" s="10">
+        <v>36</v>
+      </c>
+      <c r="AF71" s="10">
+        <v>44</v>
+      </c>
+      <c r="AG71" s="10">
+        <v>44</v>
+      </c>
+      <c r="AH71" s="10">
+        <v>36</v>
+      </c>
       <c r="AI71" s="10"/>
       <c r="AJ71" s="10"/>
       <c r="AK71" s="10"/>
@@ -12435,18 +12689,42 @@
       <c r="V72" s="10">
         <v>91</v>
       </c>
-      <c r="W72" s="10"/>
-      <c r="X72" s="10"/>
-      <c r="Y72" s="10"/>
-      <c r="Z72" s="10"/>
-      <c r="AA72" s="10"/>
-      <c r="AB72" s="10"/>
-      <c r="AC72" s="10"/>
-      <c r="AD72" s="10"/>
-      <c r="AE72" s="10"/>
-      <c r="AF72" s="10"/>
-      <c r="AG72" s="10"/>
-      <c r="AH72" s="10"/>
+      <c r="W72" s="10">
+        <v>48</v>
+      </c>
+      <c r="X72" s="10">
+        <v>40</v>
+      </c>
+      <c r="Y72" s="10">
+        <v>68</v>
+      </c>
+      <c r="Z72" s="10">
+        <v>85</v>
+      </c>
+      <c r="AA72" s="10">
+        <v>48</v>
+      </c>
+      <c r="AB72" s="10">
+        <v>68</v>
+      </c>
+      <c r="AC72" s="10">
+        <v>40</v>
+      </c>
+      <c r="AD72" s="10">
+        <v>20</v>
+      </c>
+      <c r="AE72" s="10">
+        <v>12</v>
+      </c>
+      <c r="AF72" s="10">
+        <v>16</v>
+      </c>
+      <c r="AG72" s="10">
+        <v>28</v>
+      </c>
+      <c r="AH72" s="10">
+        <v>16</v>
+      </c>
       <c r="AI72" s="10"/>
       <c r="AJ72" s="10"/>
       <c r="AK72" s="10"/>
@@ -12527,19 +12805,45 @@
       <c r="U73" s="10">
         <v>95</v>
       </c>
-      <c r="V73" s="10"/>
-      <c r="W73" s="10"/>
-      <c r="X73" s="10"/>
-      <c r="Y73" s="10"/>
-      <c r="Z73" s="10"/>
-      <c r="AA73" s="10"/>
-      <c r="AB73" s="10"/>
-      <c r="AC73" s="10"/>
-      <c r="AD73" s="10"/>
-      <c r="AE73" s="10"/>
-      <c r="AF73" s="10"/>
-      <c r="AG73" s="10"/>
-      <c r="AH73" s="10"/>
+      <c r="V73" s="10">
+        <v>72</v>
+      </c>
+      <c r="W73" s="10">
+        <v>72</v>
+      </c>
+      <c r="X73" s="10">
+        <v>105</v>
+      </c>
+      <c r="Y73" s="10">
+        <v>81</v>
+      </c>
+      <c r="Z73" s="10">
+        <v>72</v>
+      </c>
+      <c r="AA73" s="10">
+        <v>85</v>
+      </c>
+      <c r="AB73" s="10">
+        <v>97</v>
+      </c>
+      <c r="AC73" s="10">
+        <v>36</v>
+      </c>
+      <c r="AD73" s="10">
+        <v>28</v>
+      </c>
+      <c r="AE73" s="10">
+        <v>36</v>
+      </c>
+      <c r="AF73" s="10">
+        <v>48</v>
+      </c>
+      <c r="AG73" s="10">
+        <v>44</v>
+      </c>
+      <c r="AH73" s="10">
+        <v>44</v>
+      </c>
       <c r="AI73" s="10"/>
       <c r="AJ73" s="10"/>
       <c r="AK73" s="10"/>
@@ -12614,20 +12918,48 @@
       <c r="T74" s="10">
         <v>93</v>
       </c>
-      <c r="U74" s="10"/>
-      <c r="V74" s="10"/>
-      <c r="W74" s="10"/>
-      <c r="X74" s="10"/>
-      <c r="Y74" s="10"/>
-      <c r="Z74" s="10"/>
-      <c r="AA74" s="10"/>
-      <c r="AB74" s="10"/>
-      <c r="AC74" s="10"/>
-      <c r="AD74" s="10"/>
-      <c r="AE74" s="10"/>
-      <c r="AF74" s="10"/>
-      <c r="AG74" s="10"/>
-      <c r="AH74" s="10"/>
+      <c r="U74" s="10">
+        <v>46</v>
+      </c>
+      <c r="V74" s="10">
+        <v>62</v>
+      </c>
+      <c r="W74" s="10">
+        <v>104</v>
+      </c>
+      <c r="X74" s="10">
+        <v>79</v>
+      </c>
+      <c r="Y74" s="10">
+        <v>83</v>
+      </c>
+      <c r="Z74" s="10">
+        <v>95</v>
+      </c>
+      <c r="AA74" s="10">
+        <v>58</v>
+      </c>
+      <c r="AB74" s="10">
+        <v>17</v>
+      </c>
+      <c r="AC74" s="10">
+        <v>29</v>
+      </c>
+      <c r="AD74" s="10">
+        <v>25</v>
+      </c>
+      <c r="AE74" s="10">
+        <v>17</v>
+      </c>
+      <c r="AF74" s="10">
+        <v>17</v>
+      </c>
+      <c r="AG74" s="10">
+        <v>29</v>
+      </c>
+      <c r="AH74" s="10">
+        <v>37</v>
+      </c>
       <c r="AI74" s="10"/>
       <c r="AJ74" s="10"/>
       <c r="AK74" s="10"/>
@@ -12700,21 +13032,51 @@
       <c r="S75" s="10">
         <v>92</v>
       </c>
-      <c r="T75" s="10"/>
-      <c r="U75" s="10"/>
-      <c r="V75" s="10"/>
-      <c r="W75" s="10"/>
-      <c r="X75" s="10"/>
-      <c r="Y75" s="10"/>
-      <c r="Z75" s="10"/>
-      <c r="AA75" s="10"/>
-      <c r="AB75" s="10"/>
-      <c r="AC75" s="10"/>
-      <c r="AD75" s="10"/>
-      <c r="AE75" s="10"/>
-      <c r="AF75" s="10"/>
-      <c r="AG75" s="10"/>
-      <c r="AH75" s="10"/>
+      <c r="T75" s="10">
+        <v>36</v>
+      </c>
+      <c r="U75" s="10">
+        <v>40</v>
+      </c>
+      <c r="V75" s="10">
+        <v>85</v>
+      </c>
+      <c r="W75" s="10">
+        <v>76</v>
+      </c>
+      <c r="X75" s="10">
+        <v>85</v>
+      </c>
+      <c r="Y75" s="10">
+        <v>68</v>
+      </c>
+      <c r="Z75" s="10">
+        <v>56</v>
+      </c>
+      <c r="AA75" s="10">
+        <v>52</v>
+      </c>
+      <c r="AB75" s="10">
+        <v>40</v>
+      </c>
+      <c r="AC75" s="10">
+        <v>36</v>
+      </c>
+      <c r="AD75" s="10">
+        <v>24</v>
+      </c>
+      <c r="AE75" s="10">
+        <v>16</v>
+      </c>
+      <c r="AF75" s="10">
+        <v>44</v>
+      </c>
+      <c r="AG75" s="10">
+        <v>56</v>
+      </c>
+      <c r="AH75" s="10">
+        <v>36</v>
+      </c>
       <c r="AI75" s="10"/>
       <c r="AJ75" s="10"/>
       <c r="AK75" s="10"/>
@@ -12783,22 +13145,54 @@
       <c r="R76" s="10">
         <v>106</v>
       </c>
-      <c r="S76" s="10"/>
-      <c r="T76" s="10"/>
-      <c r="U76" s="10"/>
-      <c r="V76" s="10"/>
-      <c r="W76" s="10"/>
-      <c r="X76" s="10"/>
-      <c r="Y76" s="10"/>
-      <c r="Z76" s="10"/>
-      <c r="AA76" s="10"/>
-      <c r="AB76" s="10"/>
-      <c r="AC76" s="10"/>
-      <c r="AD76" s="10"/>
-      <c r="AE76" s="10"/>
-      <c r="AF76" s="10"/>
-      <c r="AG76" s="10"/>
-      <c r="AH76" s="10"/>
+      <c r="S76" s="10">
+        <v>54</v>
+      </c>
+      <c r="T76" s="10">
+        <v>62</v>
+      </c>
+      <c r="U76" s="10">
+        <v>120</v>
+      </c>
+      <c r="V76" s="10">
+        <v>62</v>
+      </c>
+      <c r="W76" s="10">
+        <v>79</v>
+      </c>
+      <c r="X76" s="10">
+        <v>91</v>
+      </c>
+      <c r="Y76" s="10">
+        <v>79</v>
+      </c>
+      <c r="Z76" s="10">
+        <v>33</v>
+      </c>
+      <c r="AA76" s="10">
+        <v>21</v>
+      </c>
+      <c r="AB76" s="10">
+        <v>25</v>
+      </c>
+      <c r="AC76" s="10">
+        <v>25</v>
+      </c>
+      <c r="AD76" s="10">
+        <v>33</v>
+      </c>
+      <c r="AE76" s="10">
+        <v>58</v>
+      </c>
+      <c r="AF76" s="10">
+        <v>46</v>
+      </c>
+      <c r="AG76" s="10">
+        <v>62</v>
+      </c>
+      <c r="AH76" s="10">
+        <v>75</v>
+      </c>
       <c r="AI76" s="10"/>
       <c r="AJ76" s="10"/>
       <c r="AK76" s="10"/>
@@ -12864,23 +13258,57 @@
       <c r="Q77" s="10">
         <v>75</v>
       </c>
-      <c r="R77" s="10"/>
-      <c r="S77" s="10"/>
-      <c r="T77" s="10"/>
-      <c r="U77" s="10"/>
-      <c r="V77" s="10"/>
-      <c r="W77" s="10"/>
-      <c r="X77" s="10"/>
-      <c r="Y77" s="10"/>
-      <c r="Z77" s="10"/>
-      <c r="AA77" s="10"/>
-      <c r="AB77" s="10"/>
-      <c r="AC77" s="10"/>
-      <c r="AD77" s="10"/>
-      <c r="AE77" s="10"/>
-      <c r="AF77" s="10"/>
-      <c r="AG77" s="10"/>
-      <c r="AH77" s="10"/>
+      <c r="R77" s="10">
+        <v>84</v>
+      </c>
+      <c r="S77" s="10">
+        <v>84</v>
+      </c>
+      <c r="T77" s="10">
+        <v>101</v>
+      </c>
+      <c r="U77" s="10">
+        <v>80</v>
+      </c>
+      <c r="V77" s="10">
+        <v>80</v>
+      </c>
+      <c r="W77" s="10">
+        <v>97</v>
+      </c>
+      <c r="X77" s="10">
+        <v>80</v>
+      </c>
+      <c r="Y77" s="10">
+        <v>56</v>
+      </c>
+      <c r="Z77" s="10">
+        <v>28</v>
+      </c>
+      <c r="AA77" s="10">
+        <v>48</v>
+      </c>
+      <c r="AB77" s="10">
+        <v>28</v>
+      </c>
+      <c r="AC77" s="10">
+        <v>48</v>
+      </c>
+      <c r="AD77" s="10">
+        <v>72</v>
+      </c>
+      <c r="AE77" s="10">
+        <v>84</v>
+      </c>
+      <c r="AF77" s="10">
+        <v>36</v>
+      </c>
+      <c r="AG77" s="10">
+        <v>60</v>
+      </c>
+      <c r="AH77" s="10">
+        <v>48</v>
+      </c>
       <c r="AI77" s="10"/>
       <c r="AJ77" s="10"/>
       <c r="AK77" s="10"/>
@@ -12943,24 +13371,60 @@
       <c r="P78" s="10">
         <v>108</v>
       </c>
-      <c r="Q78" s="10"/>
-      <c r="R78" s="10"/>
-      <c r="S78" s="10"/>
-      <c r="T78" s="10"/>
-      <c r="U78" s="10"/>
-      <c r="V78" s="10"/>
-      <c r="W78" s="10"/>
-      <c r="X78" s="10"/>
-      <c r="Y78" s="10"/>
-      <c r="Z78" s="10"/>
-      <c r="AA78" s="10"/>
-      <c r="AB78" s="10"/>
-      <c r="AC78" s="10"/>
-      <c r="AD78" s="10"/>
-      <c r="AE78" s="10"/>
-      <c r="AF78" s="10"/>
-      <c r="AG78" s="10"/>
-      <c r="AH78" s="10"/>
+      <c r="Q78" s="10">
+        <v>80</v>
+      </c>
+      <c r="R78" s="10">
+        <v>84</v>
+      </c>
+      <c r="S78" s="10">
+        <v>44</v>
+      </c>
+      <c r="T78" s="10">
+        <v>44</v>
+      </c>
+      <c r="U78" s="10">
+        <v>64</v>
+      </c>
+      <c r="V78" s="10">
+        <v>64</v>
+      </c>
+      <c r="W78" s="10">
+        <v>52</v>
+      </c>
+      <c r="X78" s="10">
+        <v>60</v>
+      </c>
+      <c r="Y78" s="10">
+        <v>48</v>
+      </c>
+      <c r="Z78" s="10">
+        <v>40</v>
+      </c>
+      <c r="AA78" s="10">
+        <v>80</v>
+      </c>
+      <c r="AB78" s="10">
+        <v>44</v>
+      </c>
+      <c r="AC78" s="10">
+        <v>40</v>
+      </c>
+      <c r="AD78" s="10">
+        <v>68</v>
+      </c>
+      <c r="AE78" s="10">
+        <v>64</v>
+      </c>
+      <c r="AF78" s="10">
+        <v>56</v>
+      </c>
+      <c r="AG78" s="10">
+        <v>80</v>
+      </c>
+      <c r="AH78" s="10">
+        <v>52</v>
+      </c>
       <c r="AI78" s="10"/>
       <c r="AJ78" s="10"/>
       <c r="AK78" s="10"/>
@@ -13020,25 +13484,63 @@
       <c r="O79" s="10">
         <v>138</v>
       </c>
-      <c r="P79" s="10"/>
-      <c r="Q79" s="10"/>
-      <c r="R79" s="10"/>
-      <c r="S79" s="10"/>
-      <c r="T79" s="10"/>
-      <c r="U79" s="10"/>
-      <c r="V79" s="10"/>
-      <c r="W79" s="10"/>
-      <c r="X79" s="10"/>
-      <c r="Y79" s="10"/>
-      <c r="Z79" s="10"/>
-      <c r="AA79" s="10"/>
-      <c r="AB79" s="10"/>
-      <c r="AC79" s="10"/>
-      <c r="AD79" s="10"/>
-      <c r="AE79" s="10"/>
-      <c r="AF79" s="10"/>
-      <c r="AG79" s="10"/>
-      <c r="AH79" s="10"/>
+      <c r="P79" s="10">
+        <v>89</v>
+      </c>
+      <c r="Q79" s="10">
+        <v>68</v>
+      </c>
+      <c r="R79" s="10">
+        <v>137</v>
+      </c>
+      <c r="S79" s="10">
+        <v>101</v>
+      </c>
+      <c r="T79" s="10">
+        <v>93</v>
+      </c>
+      <c r="U79" s="10">
+        <v>81</v>
+      </c>
+      <c r="V79" s="10">
+        <v>121</v>
+      </c>
+      <c r="W79" s="10">
+        <v>24</v>
+      </c>
+      <c r="X79" s="10">
+        <v>48</v>
+      </c>
+      <c r="Y79" s="10">
+        <v>24</v>
+      </c>
+      <c r="Z79" s="10">
+        <v>32</v>
+      </c>
+      <c r="AA79" s="10">
+        <v>28</v>
+      </c>
+      <c r="AB79" s="10">
+        <v>44</v>
+      </c>
+      <c r="AC79" s="10">
+        <v>44</v>
+      </c>
+      <c r="AD79" s="10">
+        <v>97</v>
+      </c>
+      <c r="AE79" s="10">
+        <v>77</v>
+      </c>
+      <c r="AF79" s="10">
+        <v>93</v>
+      </c>
+      <c r="AG79" s="10">
+        <v>81</v>
+      </c>
+      <c r="AH79" s="10">
+        <v>77</v>
+      </c>
       <c r="AI79" s="10"/>
       <c r="AJ79" s="10"/>
       <c r="AK79" s="10"/>
@@ -13095,26 +13597,66 @@
       <c r="N80" s="10">
         <v>94</v>
       </c>
-      <c r="O80" s="10"/>
-      <c r="P80" s="10"/>
-      <c r="Q80" s="10"/>
-      <c r="R80" s="10"/>
-      <c r="S80" s="10"/>
-      <c r="T80" s="10"/>
-      <c r="U80" s="10"/>
-      <c r="V80" s="10"/>
-      <c r="W80" s="10"/>
-      <c r="X80" s="10"/>
-      <c r="Y80" s="10"/>
-      <c r="Z80" s="10"/>
-      <c r="AA80" s="10"/>
-      <c r="AB80" s="10"/>
-      <c r="AC80" s="10"/>
-      <c r="AD80" s="10"/>
-      <c r="AE80" s="10"/>
-      <c r="AF80" s="10"/>
-      <c r="AG80" s="10"/>
-      <c r="AH80" s="10"/>
+      <c r="O80" s="10">
+        <v>44</v>
+      </c>
+      <c r="P80" s="10">
+        <v>52</v>
+      </c>
+      <c r="Q80" s="10">
+        <v>60</v>
+      </c>
+      <c r="R80" s="10">
+        <v>72</v>
+      </c>
+      <c r="S80" s="10">
+        <v>56</v>
+      </c>
+      <c r="T80" s="10">
+        <v>56</v>
+      </c>
+      <c r="U80" s="10">
+        <v>48</v>
+      </c>
+      <c r="V80" s="10">
+        <v>20</v>
+      </c>
+      <c r="W80" s="10">
+        <v>20</v>
+      </c>
+      <c r="X80" s="10">
+        <v>12</v>
+      </c>
+      <c r="Y80" s="10">
+        <v>20</v>
+      </c>
+      <c r="Z80" s="10">
+        <v>36</v>
+      </c>
+      <c r="AA80" s="10">
+        <v>16</v>
+      </c>
+      <c r="AB80" s="10">
+        <v>24</v>
+      </c>
+      <c r="AC80" s="10">
+        <v>48</v>
+      </c>
+      <c r="AD80" s="10">
+        <v>36</v>
+      </c>
+      <c r="AE80" s="10">
+        <v>36</v>
+      </c>
+      <c r="AF80" s="10">
+        <v>32</v>
+      </c>
+      <c r="AG80" s="10">
+        <v>52</v>
+      </c>
+      <c r="AH80" s="10">
+        <v>40</v>
+      </c>
       <c r="AI80" s="10"/>
       <c r="AJ80" s="10"/>
       <c r="AK80" s="10"/>
@@ -13168,27 +13710,69 @@
       <c r="M81" s="10">
         <v>99</v>
       </c>
-      <c r="N81" s="10"/>
-      <c r="O81" s="10"/>
-      <c r="P81" s="10"/>
-      <c r="Q81" s="10"/>
-      <c r="R81" s="10"/>
-      <c r="S81" s="10"/>
-      <c r="T81" s="10"/>
-      <c r="U81" s="10"/>
-      <c r="V81" s="10"/>
-      <c r="W81" s="10"/>
-      <c r="X81" s="10"/>
-      <c r="Y81" s="10"/>
-      <c r="Z81" s="10"/>
-      <c r="AA81" s="10"/>
-      <c r="AB81" s="10"/>
-      <c r="AC81" s="10"/>
-      <c r="AD81" s="10"/>
-      <c r="AE81" s="10"/>
-      <c r="AF81" s="10"/>
-      <c r="AG81" s="10"/>
-      <c r="AH81" s="10"/>
+      <c r="N81" s="10">
+        <v>56</v>
+      </c>
+      <c r="O81" s="10">
+        <v>40</v>
+      </c>
+      <c r="P81" s="10">
+        <v>84</v>
+      </c>
+      <c r="Q81" s="10">
+        <v>64</v>
+      </c>
+      <c r="R81" s="10">
+        <v>84</v>
+      </c>
+      <c r="S81" s="10">
+        <v>76</v>
+      </c>
+      <c r="T81" s="10">
+        <v>52</v>
+      </c>
+      <c r="U81" s="10">
+        <v>40</v>
+      </c>
+      <c r="V81" s="10">
+        <v>16</v>
+      </c>
+      <c r="W81" s="10">
+        <v>32</v>
+      </c>
+      <c r="X81" s="10">
+        <v>28</v>
+      </c>
+      <c r="Y81" s="10">
+        <v>16</v>
+      </c>
+      <c r="Z81" s="10">
+        <v>44</v>
+      </c>
+      <c r="AA81" s="10">
+        <v>24</v>
+      </c>
+      <c r="AB81" s="10">
+        <v>56</v>
+      </c>
+      <c r="AC81" s="10">
+        <v>60</v>
+      </c>
+      <c r="AD81" s="10">
+        <v>60</v>
+      </c>
+      <c r="AE81" s="10">
+        <v>44</v>
+      </c>
+      <c r="AF81" s="10">
+        <v>68</v>
+      </c>
+      <c r="AG81" s="10">
+        <v>52</v>
+      </c>
+      <c r="AH81" s="10">
+        <v>80</v>
+      </c>
       <c r="AI81" s="10"/>
       <c r="AJ81" s="10"/>
       <c r="AK81" s="10"/>
@@ -13239,27 +13823,69 @@
       <c r="L82" s="10">
         <v>51</v>
       </c>
-      <c r="M82" s="10"/>
-      <c r="N82" s="10"/>
-      <c r="O82" s="10"/>
-      <c r="P82" s="10"/>
-      <c r="Q82" s="10"/>
-      <c r="R82" s="10"/>
-      <c r="S82" s="10"/>
-      <c r="T82" s="10"/>
-      <c r="U82" s="10"/>
-      <c r="V82" s="10"/>
-      <c r="W82" s="10"/>
-      <c r="X82" s="10"/>
-      <c r="Y82" s="10"/>
-      <c r="Z82" s="10"/>
-      <c r="AA82" s="10"/>
-      <c r="AB82" s="10"/>
-      <c r="AC82" s="10"/>
-      <c r="AD82" s="10"/>
-      <c r="AE82" s="10"/>
-      <c r="AF82" s="10"/>
-      <c r="AG82" s="10"/>
+      <c r="M82" s="10">
+        <v>32</v>
+      </c>
+      <c r="N82" s="10">
+        <v>44</v>
+      </c>
+      <c r="O82" s="10">
+        <v>28</v>
+      </c>
+      <c r="P82" s="10">
+        <v>32</v>
+      </c>
+      <c r="Q82" s="10">
+        <v>48</v>
+      </c>
+      <c r="R82" s="10">
+        <v>24</v>
+      </c>
+      <c r="S82" s="10">
+        <v>36</v>
+      </c>
+      <c r="T82" s="10">
+        <v>12</v>
+      </c>
+      <c r="U82" s="10">
+        <v>28</v>
+      </c>
+      <c r="V82" s="10">
+        <v>28</v>
+      </c>
+      <c r="W82" s="10">
+        <v>16</v>
+      </c>
+      <c r="X82" s="10">
+        <v>28</v>
+      </c>
+      <c r="Y82" s="10">
+        <v>32</v>
+      </c>
+      <c r="Z82" s="10">
+        <v>32</v>
+      </c>
+      <c r="AA82" s="10">
+        <v>36</v>
+      </c>
+      <c r="AB82" s="10">
+        <v>28</v>
+      </c>
+      <c r="AC82" s="10">
+        <v>28</v>
+      </c>
+      <c r="AD82" s="10">
+        <v>32</v>
+      </c>
+      <c r="AE82" s="10">
+        <v>36</v>
+      </c>
+      <c r="AF82" s="10">
+        <v>24</v>
+      </c>
+      <c r="AG82" s="10">
+        <v>24</v>
+      </c>
       <c r="AH82" s="10"/>
       <c r="AI82" s="10"/>
       <c r="AJ82" s="10"/>
@@ -13308,27 +13934,69 @@
       <c r="K83" s="10">
         <v>32</v>
       </c>
-      <c r="L83" s="10"/>
-      <c r="M83" s="10"/>
-      <c r="N83" s="10"/>
-      <c r="O83" s="10"/>
-      <c r="P83" s="10"/>
-      <c r="Q83" s="10"/>
-      <c r="R83" s="10"/>
-      <c r="S83" s="10"/>
-      <c r="T83" s="10"/>
-      <c r="U83" s="10"/>
-      <c r="V83" s="10"/>
-      <c r="W83" s="10"/>
-      <c r="X83" s="10"/>
-      <c r="Y83" s="10"/>
-      <c r="Z83" s="10"/>
-      <c r="AA83" s="10"/>
-      <c r="AB83" s="10"/>
-      <c r="AC83" s="10"/>
-      <c r="AD83" s="10"/>
-      <c r="AE83" s="10"/>
-      <c r="AF83" s="10"/>
+      <c r="L83" s="10">
+        <v>24</v>
+      </c>
+      <c r="M83" s="10">
+        <v>36</v>
+      </c>
+      <c r="N83" s="10">
+        <v>36</v>
+      </c>
+      <c r="O83" s="10">
+        <v>40</v>
+      </c>
+      <c r="P83" s="10">
+        <v>40</v>
+      </c>
+      <c r="Q83" s="10">
+        <v>28</v>
+      </c>
+      <c r="R83" s="10">
+        <v>36</v>
+      </c>
+      <c r="S83" s="10">
+        <v>12</v>
+      </c>
+      <c r="T83" s="10">
+        <v>32</v>
+      </c>
+      <c r="U83" s="10">
+        <v>48</v>
+      </c>
+      <c r="V83" s="10">
+        <v>28</v>
+      </c>
+      <c r="W83" s="10">
+        <v>28</v>
+      </c>
+      <c r="X83" s="10">
+        <v>32</v>
+      </c>
+      <c r="Y83" s="10">
+        <v>16</v>
+      </c>
+      <c r="Z83" s="10">
+        <v>24</v>
+      </c>
+      <c r="AA83" s="10">
+        <v>28</v>
+      </c>
+      <c r="AB83" s="10">
+        <v>24</v>
+      </c>
+      <c r="AC83" s="10">
+        <v>28</v>
+      </c>
+      <c r="AD83" s="10">
+        <v>28</v>
+      </c>
+      <c r="AE83" s="10">
+        <v>36</v>
+      </c>
+      <c r="AF83" s="10">
+        <v>20</v>
+      </c>
       <c r="AG83" s="10"/>
       <c r="AH83" s="10"/>
       <c r="AI83" s="10"/>
@@ -13375,27 +14043,69 @@
       <c r="J84" s="10">
         <v>10</v>
       </c>
-      <c r="K84" s="10"/>
-      <c r="L84" s="10"/>
-      <c r="M84" s="10"/>
-      <c r="N84" s="10"/>
-      <c r="O84" s="10"/>
-      <c r="P84" s="10"/>
-      <c r="Q84" s="10"/>
-      <c r="R84" s="10"/>
-      <c r="S84" s="10"/>
-      <c r="T84" s="10"/>
-      <c r="U84" s="10"/>
-      <c r="V84" s="10"/>
-      <c r="W84" s="10"/>
-      <c r="X84" s="10"/>
-      <c r="Y84" s="10"/>
-      <c r="Z84" s="10"/>
-      <c r="AA84" s="10"/>
-      <c r="AB84" s="10"/>
-      <c r="AC84" s="10"/>
-      <c r="AD84" s="10"/>
-      <c r="AE84" s="10"/>
+      <c r="K84" s="10">
+        <v>12</v>
+      </c>
+      <c r="L84" s="10">
+        <v>0</v>
+      </c>
+      <c r="M84" s="10">
+        <v>8</v>
+      </c>
+      <c r="N84" s="10">
+        <v>4</v>
+      </c>
+      <c r="O84" s="10">
+        <v>12</v>
+      </c>
+      <c r="P84" s="10">
+        <v>8</v>
+      </c>
+      <c r="Q84" s="10">
+        <v>4</v>
+      </c>
+      <c r="R84" s="10">
+        <v>0</v>
+      </c>
+      <c r="S84" s="10">
+        <v>0</v>
+      </c>
+      <c r="T84" s="10">
+        <v>0</v>
+      </c>
+      <c r="U84" s="10">
+        <v>0</v>
+      </c>
+      <c r="V84" s="10">
+        <v>8</v>
+      </c>
+      <c r="W84" s="10">
+        <v>0</v>
+      </c>
+      <c r="X84" s="10">
+        <v>12</v>
+      </c>
+      <c r="Y84" s="10">
+        <v>8</v>
+      </c>
+      <c r="Z84" s="10">
+        <v>12</v>
+      </c>
+      <c r="AA84" s="10">
+        <v>4</v>
+      </c>
+      <c r="AB84" s="10">
+        <v>4</v>
+      </c>
+      <c r="AC84" s="10">
+        <v>8</v>
+      </c>
+      <c r="AD84" s="10">
+        <v>16</v>
+      </c>
+      <c r="AE84" s="10">
+        <v>4</v>
+      </c>
       <c r="AF84" s="10"/>
       <c r="AG84" s="10"/>
       <c r="AH84" s="10"/>
@@ -13440,27 +14150,69 @@
       <c r="I85" s="10">
         <v>134</v>
       </c>
-      <c r="J85" s="10"/>
-      <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
-      <c r="M85" s="10"/>
-      <c r="N85" s="10"/>
-      <c r="O85" s="10"/>
-      <c r="P85" s="10"/>
-      <c r="Q85" s="10"/>
-      <c r="R85" s="10"/>
-      <c r="S85" s="10"/>
-      <c r="T85" s="10"/>
-      <c r="U85" s="10"/>
-      <c r="V85" s="10"/>
-      <c r="W85" s="10"/>
-      <c r="X85" s="10"/>
-      <c r="Y85" s="10"/>
-      <c r="Z85" s="10"/>
-      <c r="AA85" s="10"/>
-      <c r="AB85" s="10"/>
-      <c r="AC85" s="10"/>
-      <c r="AD85" s="10"/>
+      <c r="J85" s="10">
+        <v>76</v>
+      </c>
+      <c r="K85" s="10">
+        <v>84</v>
+      </c>
+      <c r="L85" s="10">
+        <v>76</v>
+      </c>
+      <c r="M85" s="10">
+        <v>64</v>
+      </c>
+      <c r="N85" s="10">
+        <v>76</v>
+      </c>
+      <c r="O85" s="10">
+        <v>92</v>
+      </c>
+      <c r="P85" s="10">
+        <v>72</v>
+      </c>
+      <c r="Q85" s="10">
+        <v>36</v>
+      </c>
+      <c r="R85" s="10">
+        <v>32</v>
+      </c>
+      <c r="S85" s="10">
+        <v>28</v>
+      </c>
+      <c r="T85" s="10">
+        <v>28</v>
+      </c>
+      <c r="U85" s="10">
+        <v>20</v>
+      </c>
+      <c r="V85" s="10">
+        <v>40</v>
+      </c>
+      <c r="W85" s="10">
+        <v>40</v>
+      </c>
+      <c r="X85" s="10">
+        <v>68</v>
+      </c>
+      <c r="Y85" s="10">
+        <v>68</v>
+      </c>
+      <c r="Z85" s="10">
+        <v>56</v>
+      </c>
+      <c r="AA85" s="10">
+        <v>60</v>
+      </c>
+      <c r="AB85" s="10">
+        <v>60</v>
+      </c>
+      <c r="AC85" s="10">
+        <v>68</v>
+      </c>
+      <c r="AD85" s="10">
+        <v>68</v>
+      </c>
       <c r="AE85" s="10"/>
       <c r="AF85" s="10"/>
       <c r="AG85" s="10"/>
@@ -13496,27 +14248,69 @@
       <c r="H86" s="10">
         <v>120</v>
       </c>
-      <c r="I86" s="10"/>
-      <c r="J86" s="10"/>
-      <c r="K86" s="10"/>
-      <c r="L86" s="10"/>
-      <c r="M86" s="10"/>
-      <c r="N86" s="10"/>
-      <c r="O86" s="10"/>
-      <c r="P86" s="10"/>
-      <c r="Q86" s="10"/>
-      <c r="R86" s="10"/>
-      <c r="S86" s="10"/>
-      <c r="T86" s="10"/>
-      <c r="U86" s="10"/>
-      <c r="V86" s="10"/>
-      <c r="W86" s="10"/>
-      <c r="X86" s="10"/>
-      <c r="Y86" s="10"/>
-      <c r="Z86" s="10"/>
-      <c r="AA86" s="10"/>
-      <c r="AB86" s="10"/>
-      <c r="AC86" s="10"/>
+      <c r="I86" s="10">
+        <v>64</v>
+      </c>
+      <c r="J86" s="10">
+        <v>80</v>
+      </c>
+      <c r="K86" s="10">
+        <v>101</v>
+      </c>
+      <c r="L86" s="10">
+        <v>60</v>
+      </c>
+      <c r="M86" s="10">
+        <v>76</v>
+      </c>
+      <c r="N86" s="10">
+        <v>64</v>
+      </c>
+      <c r="O86" s="10">
+        <v>36</v>
+      </c>
+      <c r="P86" s="10">
+        <v>28</v>
+      </c>
+      <c r="Q86" s="10">
+        <v>20</v>
+      </c>
+      <c r="R86" s="10">
+        <v>12</v>
+      </c>
+      <c r="S86" s="10">
+        <v>20</v>
+      </c>
+      <c r="T86" s="10">
+        <v>28</v>
+      </c>
+      <c r="U86" s="10">
+        <v>32</v>
+      </c>
+      <c r="V86" s="10">
+        <v>40</v>
+      </c>
+      <c r="W86" s="10">
+        <v>56</v>
+      </c>
+      <c r="X86" s="10">
+        <v>32</v>
+      </c>
+      <c r="Y86" s="10">
+        <v>44</v>
+      </c>
+      <c r="Z86" s="10">
+        <v>60</v>
+      </c>
+      <c r="AA86" s="10">
+        <v>60</v>
+      </c>
+      <c r="AB86" s="10">
+        <v>28</v>
+      </c>
+      <c r="AC86" s="10">
+        <v>40</v>
+      </c>
       <c r="AD86" s="10"/>
       <c r="AE86" s="10"/>
       <c r="AF86" s="10"/>
@@ -13557,27 +14351,69 @@
       <c r="G87" s="10">
         <v>133</v>
       </c>
-      <c r="H87" s="10"/>
-      <c r="I87" s="10"/>
-      <c r="J87" s="10"/>
-      <c r="K87" s="10"/>
-      <c r="L87" s="10"/>
-      <c r="M87" s="10"/>
-      <c r="N87" s="10"/>
-      <c r="O87" s="10"/>
-      <c r="P87" s="10"/>
-      <c r="Q87" s="10"/>
-      <c r="R87" s="10"/>
-      <c r="S87" s="10"/>
-      <c r="T87" s="10"/>
-      <c r="U87" s="10"/>
-      <c r="V87" s="10"/>
-      <c r="W87" s="10"/>
-      <c r="X87" s="10"/>
-      <c r="Y87" s="10"/>
-      <c r="Z87" s="10"/>
-      <c r="AA87" s="10"/>
-      <c r="AB87" s="10"/>
+      <c r="H87" s="10">
+        <v>88</v>
+      </c>
+      <c r="I87" s="10">
+        <v>92</v>
+      </c>
+      <c r="J87" s="10">
+        <v>113</v>
+      </c>
+      <c r="K87" s="10">
+        <v>92</v>
+      </c>
+      <c r="L87" s="10">
+        <v>125</v>
+      </c>
+      <c r="M87" s="10">
+        <v>101</v>
+      </c>
+      <c r="N87" s="10">
+        <v>101</v>
+      </c>
+      <c r="O87" s="10">
+        <v>40</v>
+      </c>
+      <c r="P87" s="10">
+        <v>36</v>
+      </c>
+      <c r="Q87" s="10">
+        <v>32</v>
+      </c>
+      <c r="R87" s="10">
+        <v>44</v>
+      </c>
+      <c r="S87" s="10">
+        <v>44</v>
+      </c>
+      <c r="T87" s="10">
+        <v>48</v>
+      </c>
+      <c r="U87" s="10">
+        <v>52</v>
+      </c>
+      <c r="V87" s="10">
+        <v>96</v>
+      </c>
+      <c r="W87" s="10">
+        <v>52</v>
+      </c>
+      <c r="X87" s="10">
+        <v>60</v>
+      </c>
+      <c r="Y87" s="10">
+        <v>56</v>
+      </c>
+      <c r="Z87" s="10">
+        <v>80</v>
+      </c>
+      <c r="AA87" s="10">
+        <v>68</v>
+      </c>
+      <c r="AB87" s="10">
+        <v>60</v>
+      </c>
       <c r="AC87" s="10"/>
       <c r="AD87" s="10"/>
       <c r="AE87" s="10"/>
@@ -13604,27 +14440,69 @@
       <c r="F88" s="10">
         <v>188</v>
       </c>
-      <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
-      <c r="I88" s="10"/>
-      <c r="J88" s="10"/>
-      <c r="K88" s="10"/>
-      <c r="L88" s="10"/>
-      <c r="M88" s="10"/>
-      <c r="N88" s="10"/>
-      <c r="O88" s="10"/>
-      <c r="P88" s="10"/>
-      <c r="Q88" s="10"/>
-      <c r="R88" s="10"/>
-      <c r="S88" s="10"/>
-      <c r="T88" s="10"/>
-      <c r="U88" s="10"/>
-      <c r="V88" s="10"/>
-      <c r="W88" s="10"/>
-      <c r="X88" s="10"/>
-      <c r="Y88" s="10"/>
-      <c r="Z88" s="10"/>
-      <c r="AA88" s="10"/>
+      <c r="G88" s="10">
+        <v>102</v>
+      </c>
+      <c r="H88" s="10">
+        <v>106</v>
+      </c>
+      <c r="I88" s="10">
+        <v>106</v>
+      </c>
+      <c r="J88" s="10">
+        <v>106</v>
+      </c>
+      <c r="K88" s="10">
+        <v>122</v>
+      </c>
+      <c r="L88" s="10">
+        <v>89</v>
+      </c>
+      <c r="M88" s="10">
+        <v>89</v>
+      </c>
+      <c r="N88" s="10">
+        <v>45</v>
+      </c>
+      <c r="O88" s="10">
+        <v>33</v>
+      </c>
+      <c r="P88" s="10">
+        <v>61</v>
+      </c>
+      <c r="Q88" s="10">
+        <v>24</v>
+      </c>
+      <c r="R88" s="10">
+        <v>24</v>
+      </c>
+      <c r="S88" s="10">
+        <v>33</v>
+      </c>
+      <c r="T88" s="10">
+        <v>41</v>
+      </c>
+      <c r="U88" s="10">
+        <v>65</v>
+      </c>
+      <c r="V88" s="10">
+        <v>57</v>
+      </c>
+      <c r="W88" s="10">
+        <v>49</v>
+      </c>
+      <c r="X88" s="10">
+        <v>49</v>
+      </c>
+      <c r="Y88" s="10">
+        <v>77</v>
+      </c>
+      <c r="Z88" s="10">
+        <v>73</v>
+      </c>
+      <c r="AA88" s="10">
+        <v>57</v>
+      </c>
       <c r="AB88" s="10"/>
       <c r="AC88" s="10"/>
       <c r="AD88" s="10"/>
@@ -13648,27 +14526,69 @@
       <c r="E89" s="10">
         <v>271</v>
       </c>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="10"/>
-      <c r="K89" s="10"/>
-      <c r="L89" s="10"/>
-      <c r="M89" s="10"/>
-      <c r="N89" s="10"/>
-      <c r="O89" s="10"/>
-      <c r="P89" s="10"/>
-      <c r="Q89" s="10"/>
-      <c r="R89" s="10"/>
-      <c r="S89" s="10"/>
-      <c r="T89" s="10"/>
-      <c r="U89" s="10"/>
-      <c r="V89" s="10"/>
-      <c r="W89" s="10"/>
-      <c r="X89" s="10"/>
-      <c r="Y89" s="10"/>
-      <c r="Z89" s="10"/>
+      <c r="F89" s="10">
+        <v>119</v>
+      </c>
+      <c r="G89" s="10">
+        <v>90</v>
+      </c>
+      <c r="H89" s="10">
+        <v>152</v>
+      </c>
+      <c r="I89" s="10">
+        <v>127</v>
+      </c>
+      <c r="J89" s="10">
+        <v>119</v>
+      </c>
+      <c r="K89" s="10">
+        <v>107</v>
+      </c>
+      <c r="L89" s="10">
+        <v>98</v>
+      </c>
+      <c r="M89" s="10">
+        <v>49</v>
+      </c>
+      <c r="N89" s="10">
+        <v>29</v>
+      </c>
+      <c r="O89" s="10">
+        <v>49</v>
+      </c>
+      <c r="P89" s="10">
+        <v>53</v>
+      </c>
+      <c r="Q89" s="10">
+        <v>53</v>
+      </c>
+      <c r="R89" s="10">
+        <v>74</v>
+      </c>
+      <c r="S89" s="10">
+        <v>78</v>
+      </c>
+      <c r="T89" s="10">
+        <v>98</v>
+      </c>
+      <c r="U89" s="10">
+        <v>82</v>
+      </c>
+      <c r="V89" s="10">
+        <v>98</v>
+      </c>
+      <c r="W89" s="10">
+        <v>74</v>
+      </c>
+      <c r="X89" s="10">
+        <v>66</v>
+      </c>
+      <c r="Y89" s="10">
+        <v>78</v>
+      </c>
+      <c r="Z89" s="10">
+        <v>53</v>
+      </c>
       <c r="AA89" s="10"/>
       <c r="AB89" s="10"/>
       <c r="AC89" s="10"/>
@@ -13689,27 +14609,69 @@
       <c r="D90" s="5">
         <v>615</v>
       </c>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="10"/>
-      <c r="I90" s="10"/>
-      <c r="J90" s="10"/>
-      <c r="K90" s="10"/>
-      <c r="L90" s="10"/>
-      <c r="M90" s="10"/>
-      <c r="N90" s="10"/>
-      <c r="O90" s="10"/>
-      <c r="P90" s="10"/>
-      <c r="Q90" s="10"/>
-      <c r="R90" s="10"/>
-      <c r="S90" s="10"/>
-      <c r="T90" s="10"/>
-      <c r="U90" s="10"/>
-      <c r="V90" s="10"/>
-      <c r="W90" s="10"/>
-      <c r="X90" s="10"/>
-      <c r="Y90" s="10"/>
+      <c r="E90" s="10">
+        <v>210</v>
+      </c>
+      <c r="F90" s="10">
+        <v>140</v>
+      </c>
+      <c r="G90" s="10">
+        <v>177</v>
+      </c>
+      <c r="H90" s="10">
+        <v>140</v>
+      </c>
+      <c r="I90" s="10">
+        <v>124</v>
+      </c>
+      <c r="J90" s="10">
+        <v>136</v>
+      </c>
+      <c r="K90" s="10">
+        <v>111</v>
+      </c>
+      <c r="L90" s="10">
+        <v>54</v>
+      </c>
+      <c r="M90" s="10">
+        <v>49</v>
+      </c>
+      <c r="N90" s="10">
+        <v>41</v>
+      </c>
+      <c r="O90" s="10">
+        <v>45</v>
+      </c>
+      <c r="P90" s="10">
+        <v>25</v>
+      </c>
+      <c r="Q90" s="10">
+        <v>78</v>
+      </c>
+      <c r="R90" s="10">
+        <v>66</v>
+      </c>
+      <c r="S90" s="10">
+        <v>91</v>
+      </c>
+      <c r="T90" s="10">
+        <v>99</v>
+      </c>
+      <c r="U90" s="10">
+        <v>103</v>
+      </c>
+      <c r="V90" s="10">
+        <v>74</v>
+      </c>
+      <c r="W90" s="10">
+        <v>70</v>
+      </c>
+      <c r="X90" s="10">
+        <v>70</v>
+      </c>
+      <c r="Y90" s="10">
+        <v>58</v>
+      </c>
       <c r="Z90" s="10"/>
       <c r="AA90" s="10"/>
       <c r="AB90" s="10"/>
@@ -13721,29 +14683,75 @@
       <c r="A91" s="13">
         <v>42637</v>
       </c>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="10"/>
-      <c r="I91" s="10"/>
-      <c r="J91" s="10"/>
-      <c r="K91" s="10"/>
-      <c r="L91" s="10"/>
-      <c r="M91" s="10"/>
-      <c r="N91" s="10"/>
-      <c r="O91" s="10"/>
-      <c r="P91" s="10"/>
-      <c r="Q91" s="10"/>
-      <c r="R91" s="10"/>
-      <c r="S91" s="10"/>
-      <c r="T91" s="10"/>
-      <c r="U91" s="10"/>
-      <c r="V91" s="10"/>
-      <c r="W91" s="10"/>
-      <c r="X91" s="10"/>
+      <c r="B91" s="5">
+        <v>3558</v>
+      </c>
+      <c r="C91" s="5">
+        <v>4226</v>
+      </c>
+      <c r="D91" s="5">
+        <v>741</v>
+      </c>
+      <c r="E91" s="10">
+        <v>282</v>
+      </c>
+      <c r="F91" s="10">
+        <v>163</v>
+      </c>
+      <c r="G91" s="10">
+        <v>179</v>
+      </c>
+      <c r="H91" s="10">
+        <v>127</v>
+      </c>
+      <c r="I91" s="10">
+        <v>119</v>
+      </c>
+      <c r="J91" s="10">
+        <v>127</v>
+      </c>
+      <c r="K91" s="10">
+        <v>56</v>
+      </c>
+      <c r="L91" s="10">
+        <v>64</v>
+      </c>
+      <c r="M91" s="10">
+        <v>87</v>
+      </c>
+      <c r="N91" s="10">
+        <v>91</v>
+      </c>
+      <c r="O91" s="10">
+        <v>80</v>
+      </c>
+      <c r="P91" s="10">
+        <v>72</v>
+      </c>
+      <c r="Q91" s="10">
+        <v>87</v>
+      </c>
+      <c r="R91" s="10">
+        <v>115</v>
+      </c>
+      <c r="S91" s="10">
+        <v>80</v>
+      </c>
+      <c r="T91" s="10">
+        <v>60</v>
+      </c>
+      <c r="U91" s="10">
+        <v>95</v>
+      </c>
+      <c r="V91" s="10">
+        <v>87</v>
+      </c>
+      <c r="W91" s="10">
+        <v>80</v>
+      </c>
+      <c r="X91" s="10">
+        <v>72</v>
+      </c>
       <c r="Y91" s="10"/>
       <c r="Z91" s="10"/>
       <c r="AA91" s="10"/>
@@ -13755,28 +14763,72 @@
       <c r="A92" s="13">
         <v>42638</v>
       </c>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="10"/>
-      <c r="I92" s="10"/>
-      <c r="J92" s="10"/>
-      <c r="K92" s="10"/>
-      <c r="L92" s="10"/>
-      <c r="M92" s="10"/>
-      <c r="N92" s="10"/>
-      <c r="O92" s="10"/>
-      <c r="P92" s="10"/>
-      <c r="Q92" s="10"/>
-      <c r="R92" s="10"/>
-      <c r="S92" s="10"/>
-      <c r="T92" s="10"/>
-      <c r="U92" s="10"/>
-      <c r="V92" s="10"/>
-      <c r="W92" s="10"/>
+      <c r="B92" s="5">
+        <v>3423</v>
+      </c>
+      <c r="C92" s="5">
+        <v>3975</v>
+      </c>
+      <c r="D92" s="5">
+        <v>674</v>
+      </c>
+      <c r="E92" s="10">
+        <v>278</v>
+      </c>
+      <c r="F92" s="10">
+        <v>179</v>
+      </c>
+      <c r="G92" s="10">
+        <v>143</v>
+      </c>
+      <c r="H92" s="10">
+        <v>68</v>
+      </c>
+      <c r="I92" s="10">
+        <v>83</v>
+      </c>
+      <c r="J92" s="10">
+        <v>95</v>
+      </c>
+      <c r="K92" s="10">
+        <v>64</v>
+      </c>
+      <c r="L92" s="10">
+        <v>60</v>
+      </c>
+      <c r="M92" s="10">
+        <v>44</v>
+      </c>
+      <c r="N92" s="10">
+        <v>32</v>
+      </c>
+      <c r="O92" s="10">
+        <v>64</v>
+      </c>
+      <c r="P92" s="10">
+        <v>68</v>
+      </c>
+      <c r="Q92" s="10">
+        <v>68</v>
+      </c>
+      <c r="R92" s="10">
+        <v>56</v>
+      </c>
+      <c r="S92" s="10">
+        <v>62</v>
+      </c>
+      <c r="T92" s="10">
+        <v>60</v>
+      </c>
+      <c r="U92" s="10">
+        <v>56</v>
+      </c>
+      <c r="V92" s="10">
+        <v>44</v>
+      </c>
+      <c r="W92" s="10">
+        <v>52</v>
+      </c>
       <c r="X92" s="10"/>
       <c r="Y92" s="10"/>
       <c r="Z92" s="10"/>
@@ -13788,27 +14840,69 @@
       <c r="A93" s="13">
         <v>42639</v>
       </c>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
-      <c r="H93" s="10"/>
-      <c r="I93" s="10"/>
-      <c r="J93" s="10"/>
-      <c r="K93" s="10"/>
-      <c r="L93" s="10"/>
-      <c r="M93" s="10"/>
-      <c r="N93" s="10"/>
-      <c r="O93" s="10"/>
-      <c r="P93" s="10"/>
-      <c r="Q93" s="10"/>
-      <c r="R93" s="10"/>
-      <c r="S93" s="10"/>
-      <c r="T93" s="10"/>
-      <c r="U93" s="10"/>
-      <c r="V93" s="10"/>
+      <c r="B93" s="5">
+        <v>4683</v>
+      </c>
+      <c r="C93" s="5">
+        <v>3183</v>
+      </c>
+      <c r="D93" s="5">
+        <v>621</v>
+      </c>
+      <c r="E93" s="10">
+        <v>227</v>
+      </c>
+      <c r="F93" s="10">
+        <v>171</v>
+      </c>
+      <c r="G93" s="10">
+        <v>123</v>
+      </c>
+      <c r="H93" s="10">
+        <v>115</v>
+      </c>
+      <c r="I93" s="10">
+        <v>76</v>
+      </c>
+      <c r="J93" s="10">
+        <v>72</v>
+      </c>
+      <c r="K93" s="10">
+        <v>36</v>
+      </c>
+      <c r="L93" s="10">
+        <v>40</v>
+      </c>
+      <c r="M93" s="10">
+        <v>36</v>
+      </c>
+      <c r="N93" s="10">
+        <v>40</v>
+      </c>
+      <c r="O93" s="10">
+        <v>60</v>
+      </c>
+      <c r="P93" s="10">
+        <v>95</v>
+      </c>
+      <c r="Q93" s="10">
+        <v>80</v>
+      </c>
+      <c r="R93" s="10">
+        <v>91</v>
+      </c>
+      <c r="S93" s="10">
+        <v>83</v>
+      </c>
+      <c r="T93" s="10">
+        <v>80</v>
+      </c>
+      <c r="U93" s="10">
+        <v>52</v>
+      </c>
+      <c r="V93" s="10">
+        <v>48</v>
+      </c>
       <c r="W93" s="10"/>
       <c r="X93" s="10"/>
       <c r="Y93" s="10"/>
@@ -13820,26 +14914,66 @@
       <c r="A94" s="13">
         <v>42640</v>
       </c>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="10"/>
-      <c r="I94" s="10"/>
-      <c r="J94" s="10"/>
-      <c r="K94" s="10"/>
-      <c r="L94" s="10"/>
-      <c r="M94" s="10"/>
-      <c r="N94" s="10"/>
-      <c r="O94" s="10"/>
-      <c r="P94" s="10"/>
-      <c r="Q94" s="10"/>
-      <c r="R94" s="10"/>
-      <c r="S94" s="10"/>
-      <c r="T94" s="10"/>
-      <c r="U94" s="10"/>
+      <c r="B94" s="5">
+        <v>4526</v>
+      </c>
+      <c r="C94" s="5">
+        <v>3119</v>
+      </c>
+      <c r="D94" s="5">
+        <v>601</v>
+      </c>
+      <c r="E94" s="10">
+        <v>254</v>
+      </c>
+      <c r="F94" s="10">
+        <v>175</v>
+      </c>
+      <c r="G94" s="10">
+        <v>131</v>
+      </c>
+      <c r="H94" s="10">
+        <v>56</v>
+      </c>
+      <c r="I94" s="10">
+        <v>52</v>
+      </c>
+      <c r="J94" s="10">
+        <v>28</v>
+      </c>
+      <c r="K94" s="10">
+        <v>60</v>
+      </c>
+      <c r="L94" s="10">
+        <v>60</v>
+      </c>
+      <c r="M94" s="10">
+        <v>60</v>
+      </c>
+      <c r="N94" s="10">
+        <v>72</v>
+      </c>
+      <c r="O94" s="10">
+        <v>87</v>
+      </c>
+      <c r="P94" s="10">
+        <v>99</v>
+      </c>
+      <c r="Q94" s="10">
+        <v>107</v>
+      </c>
+      <c r="R94" s="10">
+        <v>76</v>
+      </c>
+      <c r="S94" s="10">
+        <v>83</v>
+      </c>
+      <c r="T94" s="10">
+        <v>72</v>
+      </c>
+      <c r="U94" s="10">
+        <v>56</v>
+      </c>
       <c r="V94" s="10"/>
       <c r="W94" s="10"/>
       <c r="X94" s="10"/>
@@ -13851,25 +14985,63 @@
       <c r="A95" s="13">
         <v>42641</v>
       </c>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="10"/>
-      <c r="I95" s="10"/>
-      <c r="J95" s="10"/>
-      <c r="K95" s="10"/>
-      <c r="L95" s="10"/>
-      <c r="M95" s="10"/>
-      <c r="N95" s="10"/>
-      <c r="O95" s="10"/>
-      <c r="P95" s="10"/>
-      <c r="Q95" s="10"/>
-      <c r="R95" s="10"/>
-      <c r="S95" s="10"/>
-      <c r="T95" s="10"/>
+      <c r="B95" s="5">
+        <v>4459</v>
+      </c>
+      <c r="C95" s="5">
+        <v>3271</v>
+      </c>
+      <c r="D95" s="5">
+        <v>557</v>
+      </c>
+      <c r="E95" s="10">
+        <v>231</v>
+      </c>
+      <c r="F95" s="10">
+        <v>171</v>
+      </c>
+      <c r="G95" s="10">
+        <v>56</v>
+      </c>
+      <c r="H95" s="10">
+        <v>68</v>
+      </c>
+      <c r="I95" s="10">
+        <v>56</v>
+      </c>
+      <c r="J95" s="10">
+        <v>56</v>
+      </c>
+      <c r="K95" s="10">
+        <v>56</v>
+      </c>
+      <c r="L95" s="10">
+        <v>64</v>
+      </c>
+      <c r="M95" s="10">
+        <v>56</v>
+      </c>
+      <c r="N95" s="10">
+        <v>99</v>
+      </c>
+      <c r="O95" s="10">
+        <v>64</v>
+      </c>
+      <c r="P95" s="10">
+        <v>80</v>
+      </c>
+      <c r="Q95" s="10">
+        <v>80</v>
+      </c>
+      <c r="R95" s="10">
+        <v>99</v>
+      </c>
+      <c r="S95" s="10">
+        <v>60</v>
+      </c>
+      <c r="T95" s="10">
+        <v>64</v>
+      </c>
       <c r="U95" s="10"/>
       <c r="V95" s="10"/>
       <c r="W95" s="10"/>
@@ -13881,24 +15053,60 @@
       <c r="A96" s="13">
         <v>42642</v>
       </c>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="10"/>
-      <c r="I96" s="10"/>
-      <c r="J96" s="10"/>
-      <c r="K96" s="10"/>
-      <c r="L96" s="10"/>
-      <c r="M96" s="10"/>
-      <c r="N96" s="10"/>
-      <c r="O96" s="10"/>
-      <c r="P96" s="10"/>
-      <c r="Q96" s="10"/>
-      <c r="R96" s="10"/>
-      <c r="S96" s="10"/>
+      <c r="B96" s="5">
+        <v>4335</v>
+      </c>
+      <c r="C96" s="5">
+        <v>3431</v>
+      </c>
+      <c r="D96" s="5">
+        <v>607</v>
+      </c>
+      <c r="E96" s="10">
+        <v>266</v>
+      </c>
+      <c r="F96" s="10">
+        <v>91</v>
+      </c>
+      <c r="G96" s="10">
+        <v>60</v>
+      </c>
+      <c r="H96" s="10">
+        <v>48</v>
+      </c>
+      <c r="I96" s="10">
+        <v>52</v>
+      </c>
+      <c r="J96" s="10">
+        <v>64</v>
+      </c>
+      <c r="K96" s="10">
+        <v>83</v>
+      </c>
+      <c r="L96" s="10">
+        <v>68</v>
+      </c>
+      <c r="M96" s="10">
+        <v>131</v>
+      </c>
+      <c r="N96" s="10">
+        <v>99</v>
+      </c>
+      <c r="O96" s="10">
+        <v>115</v>
+      </c>
+      <c r="P96" s="10">
+        <v>127</v>
+      </c>
+      <c r="Q96" s="10">
+        <v>87</v>
+      </c>
+      <c r="R96" s="10">
+        <v>99</v>
+      </c>
+      <c r="S96" s="10">
+        <v>68</v>
+      </c>
       <c r="T96" s="10"/>
       <c r="U96" s="10"/>
       <c r="V96" s="10"/>
@@ -13910,23 +15118,57 @@
       <c r="A97" s="13">
         <v>42643</v>
       </c>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="10"/>
-      <c r="I97" s="10"/>
-      <c r="J97" s="10"/>
-      <c r="K97" s="10"/>
-      <c r="L97" s="10"/>
-      <c r="M97" s="10"/>
-      <c r="N97" s="10"/>
-      <c r="O97" s="10"/>
-      <c r="P97" s="10"/>
-      <c r="Q97" s="10"/>
-      <c r="R97" s="10"/>
+      <c r="B97" s="5">
+        <v>4170</v>
+      </c>
+      <c r="C97" s="5">
+        <v>4177</v>
+      </c>
+      <c r="D97" s="5">
+        <v>716</v>
+      </c>
+      <c r="E97" s="10">
+        <v>175</v>
+      </c>
+      <c r="F97" s="10">
+        <v>123</v>
+      </c>
+      <c r="G97" s="10">
+        <v>91</v>
+      </c>
+      <c r="H97" s="10">
+        <v>99</v>
+      </c>
+      <c r="I97" s="10">
+        <v>61</v>
+      </c>
+      <c r="J97" s="10">
+        <v>111</v>
+      </c>
+      <c r="K97" s="10">
+        <v>123</v>
+      </c>
+      <c r="L97" s="10">
+        <v>207</v>
+      </c>
+      <c r="M97" s="10">
+        <v>155</v>
+      </c>
+      <c r="N97" s="10">
+        <v>115</v>
+      </c>
+      <c r="O97" s="10">
+        <v>115</v>
+      </c>
+      <c r="P97" s="10">
+        <v>115</v>
+      </c>
+      <c r="Q97" s="10">
+        <v>107</v>
+      </c>
+      <c r="R97" s="10">
+        <v>123</v>
+      </c>
       <c r="S97" s="10"/>
       <c r="T97" s="10"/>
       <c r="U97" s="10"/>
@@ -13938,22 +15180,54 @@
       <c r="A98" s="13">
         <v>42644</v>
       </c>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="10"/>
-      <c r="I98" s="10"/>
-      <c r="J98" s="10"/>
-      <c r="K98" s="10"/>
-      <c r="L98" s="10"/>
-      <c r="M98" s="10"/>
-      <c r="N98" s="10"/>
-      <c r="O98" s="10"/>
-      <c r="P98" s="10"/>
-      <c r="Q98" s="10"/>
+      <c r="B98" s="5">
+        <v>2624</v>
+      </c>
+      <c r="C98" s="5">
+        <v>3054</v>
+      </c>
+      <c r="D98" s="5">
+        <v>527</v>
+      </c>
+      <c r="E98" s="10">
+        <v>171</v>
+      </c>
+      <c r="F98" s="10">
+        <v>111</v>
+      </c>
+      <c r="G98" s="10">
+        <v>99</v>
+      </c>
+      <c r="H98" s="10">
+        <v>107</v>
+      </c>
+      <c r="I98" s="10">
+        <v>111</v>
+      </c>
+      <c r="J98" s="10">
+        <v>72</v>
+      </c>
+      <c r="K98" s="10">
+        <v>115</v>
+      </c>
+      <c r="L98" s="10">
+        <v>56</v>
+      </c>
+      <c r="M98" s="10">
+        <v>64</v>
+      </c>
+      <c r="N98" s="10">
+        <v>64</v>
+      </c>
+      <c r="O98" s="10">
+        <v>60</v>
+      </c>
+      <c r="P98" s="10">
+        <v>56</v>
+      </c>
+      <c r="Q98" s="10">
+        <v>36</v>
+      </c>
       <c r="R98" s="10"/>
       <c r="S98" s="10"/>
       <c r="T98" s="10"/>
@@ -13965,21 +15239,51 @@
       <c r="A99" s="13">
         <v>42645</v>
       </c>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="10"/>
-      <c r="I99" s="10"/>
-      <c r="J99" s="10"/>
-      <c r="K99" s="10"/>
-      <c r="L99" s="10"/>
-      <c r="M99" s="10"/>
-      <c r="N99" s="10"/>
-      <c r="O99" s="10"/>
-      <c r="P99" s="10"/>
+      <c r="B99" s="5">
+        <v>2696</v>
+      </c>
+      <c r="C99" s="5">
+        <v>4005</v>
+      </c>
+      <c r="D99" s="5">
+        <v>723</v>
+      </c>
+      <c r="E99" s="10">
+        <v>215</v>
+      </c>
+      <c r="F99" s="10">
+        <v>143</v>
+      </c>
+      <c r="G99" s="10">
+        <v>123</v>
+      </c>
+      <c r="H99" s="10">
+        <v>139</v>
+      </c>
+      <c r="I99" s="10">
+        <v>119</v>
+      </c>
+      <c r="J99" s="10">
+        <v>83</v>
+      </c>
+      <c r="K99" s="10">
+        <v>103</v>
+      </c>
+      <c r="L99" s="10">
+        <v>91</v>
+      </c>
+      <c r="M99" s="10">
+        <v>80</v>
+      </c>
+      <c r="N99" s="10">
+        <v>72</v>
+      </c>
+      <c r="O99" s="10">
+        <v>68</v>
+      </c>
+      <c r="P99" s="10">
+        <v>56</v>
+      </c>
       <c r="Q99" s="10"/>
       <c r="R99" s="10"/>
       <c r="S99" s="10"/>
@@ -13991,20 +15295,48 @@
       <c r="A100" s="13">
         <v>42646</v>
       </c>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="10"/>
-      <c r="I100" s="10"/>
-      <c r="J100" s="10"/>
-      <c r="K100" s="10"/>
-      <c r="L100" s="10"/>
-      <c r="M100" s="10"/>
-      <c r="N100" s="10"/>
-      <c r="O100" s="10"/>
+      <c r="B100" s="5">
+        <v>2932</v>
+      </c>
+      <c r="C100" s="5">
+        <v>4137</v>
+      </c>
+      <c r="D100" s="5">
+        <v>733</v>
+      </c>
+      <c r="E100" s="10">
+        <v>227</v>
+      </c>
+      <c r="F100" s="10">
+        <v>123</v>
+      </c>
+      <c r="G100" s="10">
+        <v>123</v>
+      </c>
+      <c r="H100" s="10">
+        <v>139</v>
+      </c>
+      <c r="I100" s="10">
+        <v>107</v>
+      </c>
+      <c r="J100" s="10">
+        <v>107</v>
+      </c>
+      <c r="K100" s="10">
+        <v>80</v>
+      </c>
+      <c r="L100" s="10">
+        <v>111</v>
+      </c>
+      <c r="M100" s="10">
+        <v>83</v>
+      </c>
+      <c r="N100" s="10">
+        <v>83</v>
+      </c>
+      <c r="O100" s="10">
+        <v>87</v>
+      </c>
       <c r="P100" s="10"/>
       <c r="Q100" s="10"/>
       <c r="R100" s="10"/>
@@ -14016,19 +15348,45 @@
       <c r="A101" s="13">
         <v>42647</v>
       </c>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
-      <c r="H101" s="10"/>
-      <c r="I101" s="10"/>
-      <c r="J101" s="10"/>
-      <c r="K101" s="10"/>
-      <c r="L101" s="10"/>
-      <c r="M101" s="10"/>
-      <c r="N101" s="10"/>
+      <c r="B101" s="5">
+        <v>2994</v>
+      </c>
+      <c r="C101" s="5">
+        <v>3849</v>
+      </c>
+      <c r="D101" s="5">
+        <v>682</v>
+      </c>
+      <c r="E101" s="10">
+        <v>211</v>
+      </c>
+      <c r="F101" s="10">
+        <v>127</v>
+      </c>
+      <c r="G101" s="10">
+        <v>95</v>
+      </c>
+      <c r="H101" s="10">
+        <v>99</v>
+      </c>
+      <c r="I101" s="10">
+        <v>107</v>
+      </c>
+      <c r="J101" s="10">
+        <v>80</v>
+      </c>
+      <c r="K101" s="10">
+        <v>64</v>
+      </c>
+      <c r="L101" s="10">
+        <v>80</v>
+      </c>
+      <c r="M101" s="10">
+        <v>68</v>
+      </c>
+      <c r="N101" s="10">
+        <v>60</v>
+      </c>
       <c r="O101" s="10"/>
       <c r="P101" s="10"/>
       <c r="Q101" s="10"/>
@@ -14040,18 +15398,42 @@
       <c r="A102" s="13">
         <v>42648</v>
       </c>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="10"/>
-      <c r="I102" s="10"/>
-      <c r="J102" s="10"/>
-      <c r="K102" s="10"/>
-      <c r="L102" s="10"/>
-      <c r="M102" s="10"/>
+      <c r="B102" s="5">
+        <v>3181</v>
+      </c>
+      <c r="C102" s="5">
+        <v>3870</v>
+      </c>
+      <c r="D102" s="5">
+        <v>647</v>
+      </c>
+      <c r="E102" s="10">
+        <v>231</v>
+      </c>
+      <c r="F102" s="10">
+        <v>175</v>
+      </c>
+      <c r="G102" s="10">
+        <v>139</v>
+      </c>
+      <c r="H102" s="10">
+        <v>95</v>
+      </c>
+      <c r="I102" s="10">
+        <v>99</v>
+      </c>
+      <c r="J102" s="10">
+        <v>83</v>
+      </c>
+      <c r="K102" s="10">
+        <v>68</v>
+      </c>
+      <c r="L102" s="10">
+        <v>80</v>
+      </c>
+      <c r="M102" s="10">
+        <v>68</v>
+      </c>
       <c r="N102" s="10"/>
       <c r="O102" s="10"/>
       <c r="P102" s="10"/>
@@ -14063,17 +15445,39 @@
       <c r="A103" s="13">
         <v>42649</v>
       </c>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="10"/>
-      <c r="I103" s="10"/>
-      <c r="J103" s="10"/>
-      <c r="K103" s="10"/>
-      <c r="L103" s="10"/>
+      <c r="B103" s="5">
+        <v>3659</v>
+      </c>
+      <c r="C103" s="5">
+        <v>3871</v>
+      </c>
+      <c r="D103" s="5">
+        <v>679</v>
+      </c>
+      <c r="E103" s="10">
+        <v>274</v>
+      </c>
+      <c r="F103" s="10">
+        <v>163</v>
+      </c>
+      <c r="G103" s="10">
+        <v>175</v>
+      </c>
+      <c r="H103" s="10">
+        <v>159</v>
+      </c>
+      <c r="I103" s="10">
+        <v>139</v>
+      </c>
+      <c r="J103" s="10">
+        <v>115</v>
+      </c>
+      <c r="K103" s="10">
+        <v>115</v>
+      </c>
+      <c r="L103" s="10">
+        <v>99</v>
+      </c>
       <c r="M103" s="10"/>
       <c r="N103" s="10"/>
       <c r="O103" s="10"/>
@@ -14085,16 +15489,36 @@
       <c r="A104" s="13">
         <v>42650</v>
       </c>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="10"/>
-      <c r="I104" s="10"/>
-      <c r="J104" s="10"/>
-      <c r="K104" s="10"/>
+      <c r="B104" s="5">
+        <v>4052</v>
+      </c>
+      <c r="C104" s="5">
+        <v>3872</v>
+      </c>
+      <c r="D104" s="5">
+        <v>684</v>
+      </c>
+      <c r="E104" s="10">
+        <v>322</v>
+      </c>
+      <c r="F104" s="10">
+        <v>159</v>
+      </c>
+      <c r="G104" s="10">
+        <v>159</v>
+      </c>
+      <c r="H104" s="10">
+        <v>131</v>
+      </c>
+      <c r="I104" s="10">
+        <v>111</v>
+      </c>
+      <c r="J104" s="10">
+        <v>115</v>
+      </c>
+      <c r="K104" s="10">
+        <v>111</v>
+      </c>
       <c r="L104" s="10"/>
       <c r="M104" s="10"/>
       <c r="N104" s="10"/>
@@ -14106,15 +15530,33 @@
       <c r="A105" s="13">
         <v>42651</v>
       </c>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="10"/>
-      <c r="I105" s="10"/>
-      <c r="J105" s="10"/>
+      <c r="B105" s="5">
+        <v>5241</v>
+      </c>
+      <c r="C105" s="5">
+        <v>3755</v>
+      </c>
+      <c r="D105" s="5">
+        <v>685</v>
+      </c>
+      <c r="E105" s="10">
+        <v>278</v>
+      </c>
+      <c r="F105" s="10">
+        <v>235</v>
+      </c>
+      <c r="G105" s="10">
+        <v>195</v>
+      </c>
+      <c r="H105" s="10">
+        <v>151</v>
+      </c>
+      <c r="I105" s="10">
+        <v>139</v>
+      </c>
+      <c r="J105" s="10">
+        <v>107</v>
+      </c>
       <c r="K105" s="10"/>
       <c r="L105" s="10"/>
       <c r="M105" s="10"/>
@@ -14126,14 +15568,30 @@
       <c r="A106" s="13">
         <v>42652</v>
       </c>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
-      <c r="H106" s="10"/>
-      <c r="I106" s="10"/>
+      <c r="B106" s="5">
+        <v>4259</v>
+      </c>
+      <c r="C106" s="5">
+        <v>3620</v>
+      </c>
+      <c r="D106" s="5">
+        <v>710</v>
+      </c>
+      <c r="E106" s="10">
+        <v>314</v>
+      </c>
+      <c r="F106" s="10">
+        <v>215</v>
+      </c>
+      <c r="G106" s="10">
+        <v>163</v>
+      </c>
+      <c r="H106" s="10">
+        <v>131</v>
+      </c>
+      <c r="I106" s="10">
+        <v>135</v>
+      </c>
       <c r="J106" s="10"/>
       <c r="K106" s="10"/>
       <c r="L106" s="10"/>
@@ -14145,13 +15603,27 @@
       <c r="A107" s="13">
         <v>42653</v>
       </c>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="10"/>
+      <c r="B107" s="5">
+        <v>3454</v>
+      </c>
+      <c r="C107" s="5">
+        <v>3137</v>
+      </c>
+      <c r="D107" s="5">
+        <v>555</v>
+      </c>
+      <c r="E107" s="10">
+        <v>239</v>
+      </c>
+      <c r="F107" s="10">
+        <v>187</v>
+      </c>
+      <c r="G107" s="10">
+        <v>147</v>
+      </c>
+      <c r="H107" s="10">
+        <v>123</v>
+      </c>
       <c r="I107" s="10"/>
       <c r="J107" s="10"/>
       <c r="K107" s="10"/>
@@ -14163,12 +15635,24 @@
       <c r="A108" s="13">
         <v>42654</v>
       </c>
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
+      <c r="B108" s="5">
+        <v>2652</v>
+      </c>
+      <c r="C108" s="5">
+        <v>1767</v>
+      </c>
+      <c r="D108" s="5">
+        <v>368</v>
+      </c>
+      <c r="E108" s="10">
+        <v>135</v>
+      </c>
+      <c r="F108" s="10">
+        <v>99</v>
+      </c>
+      <c r="G108" s="10">
+        <v>68</v>
+      </c>
       <c r="H108" s="10"/>
       <c r="I108" s="10"/>
       <c r="J108" s="10"/>
@@ -14180,11 +15664,21 @@
       <c r="A109" s="13">
         <v>42655</v>
       </c>
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
+      <c r="B109" s="5">
+        <v>2039</v>
+      </c>
+      <c r="C109" s="5">
+        <v>311</v>
+      </c>
+      <c r="D109" s="5">
+        <v>76</v>
+      </c>
+      <c r="E109" s="10">
+        <v>20</v>
+      </c>
+      <c r="F109" s="10">
+        <v>32</v>
+      </c>
       <c r="G109" s="10"/>
       <c r="H109" s="10"/>
       <c r="I109" s="10"/>
@@ -14196,10 +15690,18 @@
       <c r="A110" s="13">
         <v>42656</v>
       </c>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="10"/>
+      <c r="B110" s="5">
+        <v>1683</v>
+      </c>
+      <c r="C110" s="5">
+        <v>241</v>
+      </c>
+      <c r="D110" s="5">
+        <v>45</v>
+      </c>
+      <c r="E110" s="10">
+        <v>16</v>
+      </c>
       <c r="F110" s="10"/>
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
@@ -14211,9 +15713,15 @@
       <c r="A111" s="13">
         <v>42657</v>
       </c>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
+      <c r="B111" s="5">
+        <v>1477</v>
+      </c>
+      <c r="C111" s="5">
+        <v>224</v>
+      </c>
+      <c r="D111" s="5">
+        <v>36</v>
+      </c>
       <c r="E111" s="10"/>
       <c r="F111" s="10"/>
       <c r="G111" s="10"/>
@@ -27546,7 +29054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S99"/>
   <sheetViews>
@@ -28428,7 +29936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z91"/>
   <sheetViews>
@@ -30630,11 +32138,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
@@ -38802,7 +40310,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/aitushow/code/doc/留存.xlsx
+++ b/aitushow/code/doc/留存.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="5730" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="5730" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="0001" sheetId="8" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="9">
   <si>
     <t>首用日期</t>
   </si>
@@ -2909,7 +2909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
@@ -32142,8 +32142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY97"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -40314,7 +40314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
@@ -40325,12 +40325,778 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AH32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:34" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1" s="11">
+        <v>2</v>
+      </c>
+      <c r="G1" s="12">
+        <v>3</v>
+      </c>
+      <c r="H1" s="11">
+        <v>4</v>
+      </c>
+      <c r="I1" s="12">
+        <v>5</v>
+      </c>
+      <c r="J1" s="11">
+        <v>6</v>
+      </c>
+      <c r="K1" s="12">
+        <v>7</v>
+      </c>
+      <c r="L1" s="11">
+        <v>8</v>
+      </c>
+      <c r="M1" s="12">
+        <v>9</v>
+      </c>
+      <c r="N1" s="11">
+        <v>10</v>
+      </c>
+      <c r="O1" s="12">
+        <v>11</v>
+      </c>
+      <c r="P1" s="11">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="11">
+        <v>13</v>
+      </c>
+      <c r="R1" s="11">
+        <v>14</v>
+      </c>
+      <c r="S1" s="11">
+        <v>15</v>
+      </c>
+      <c r="T1" s="11">
+        <v>16</v>
+      </c>
+      <c r="U1" s="11">
+        <v>17</v>
+      </c>
+      <c r="V1" s="11">
+        <v>18</v>
+      </c>
+      <c r="W1" s="11">
+        <v>19</v>
+      </c>
+      <c r="X1" s="11">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="11">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="11">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="11">
+        <v>23</v>
+      </c>
+      <c r="AB1" s="11">
+        <v>24</v>
+      </c>
+      <c r="AC1" s="11">
+        <v>25</v>
+      </c>
+      <c r="AD1" s="11">
+        <v>26</v>
+      </c>
+      <c r="AE1" s="11">
+        <v>27</v>
+      </c>
+      <c r="AF1" s="11">
+        <v>28</v>
+      </c>
+      <c r="AG1" s="11">
+        <v>29</v>
+      </c>
+      <c r="AH1" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>42642</v>
+      </c>
+      <c r="B2">
+        <v>965</v>
+      </c>
+      <c r="C2">
+        <v>9823</v>
+      </c>
+      <c r="D2">
+        <v>943</v>
+      </c>
+      <c r="E2">
+        <v>847</v>
+      </c>
+      <c r="F2">
+        <v>335</v>
+      </c>
+      <c r="G2">
+        <v>233</v>
+      </c>
+      <c r="H2">
+        <v>269</v>
+      </c>
+      <c r="I2">
+        <v>315</v>
+      </c>
+      <c r="J2">
+        <v>332</v>
+      </c>
+      <c r="K2">
+        <v>332</v>
+      </c>
+      <c r="L2">
+        <v>348</v>
+      </c>
+      <c r="M2">
+        <v>637</v>
+      </c>
+      <c r="N2">
+        <v>529</v>
+      </c>
+      <c r="O2">
+        <v>549</v>
+      </c>
+      <c r="P2">
+        <v>536</v>
+      </c>
+      <c r="Q2">
+        <v>535</v>
+      </c>
+      <c r="R2">
+        <v>516</v>
+      </c>
+      <c r="S2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>42643</v>
+      </c>
+      <c r="B3">
+        <v>2172</v>
+      </c>
+      <c r="C3">
+        <v>16834</v>
+      </c>
+      <c r="D3">
+        <v>1429</v>
+      </c>
+      <c r="E3">
+        <v>923</v>
+      </c>
+      <c r="F3">
+        <v>623</v>
+      </c>
+      <c r="G3">
+        <v>548</v>
+      </c>
+      <c r="H3">
+        <v>617</v>
+      </c>
+      <c r="I3">
+        <v>611</v>
+      </c>
+      <c r="J3">
+        <v>561</v>
+      </c>
+      <c r="K3">
+        <v>601</v>
+      </c>
+      <c r="L3">
+        <v>907</v>
+      </c>
+      <c r="M3">
+        <v>828</v>
+      </c>
+      <c r="N3">
+        <v>759</v>
+      </c>
+      <c r="O3">
+        <v>671</v>
+      </c>
+      <c r="P3">
+        <v>658</v>
+      </c>
+      <c r="Q3">
+        <v>671</v>
+      </c>
+      <c r="R3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>42644</v>
+      </c>
+      <c r="B4">
+        <v>3044</v>
+      </c>
+      <c r="C4">
+        <v>24810</v>
+      </c>
+      <c r="D4">
+        <v>1966</v>
+      </c>
+      <c r="E4">
+        <v>1316</v>
+      </c>
+      <c r="F4">
+        <v>869</v>
+      </c>
+      <c r="G4">
+        <v>808</v>
+      </c>
+      <c r="H4">
+        <v>709</v>
+      </c>
+      <c r="I4">
+        <v>784</v>
+      </c>
+      <c r="J4">
+        <v>809</v>
+      </c>
+      <c r="K4">
+        <v>853</v>
+      </c>
+      <c r="L4">
+        <v>778</v>
+      </c>
+      <c r="M4">
+        <v>683</v>
+      </c>
+      <c r="N4">
+        <v>646</v>
+      </c>
+      <c r="O4">
+        <v>668</v>
+      </c>
+      <c r="P4">
+        <v>639</v>
+      </c>
+      <c r="Q4">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>42645</v>
+      </c>
+      <c r="B5">
+        <v>3742</v>
+      </c>
+      <c r="C5">
+        <v>22809</v>
+      </c>
+      <c r="D5">
+        <v>1861</v>
+      </c>
+      <c r="E5">
+        <v>1197</v>
+      </c>
+      <c r="F5">
+        <v>869</v>
+      </c>
+      <c r="G5">
+        <v>809</v>
+      </c>
+      <c r="H5">
+        <v>715</v>
+      </c>
+      <c r="I5">
+        <v>731</v>
+      </c>
+      <c r="J5">
+        <v>731</v>
+      </c>
+      <c r="K5">
+        <v>680</v>
+      </c>
+      <c r="L5">
+        <v>504</v>
+      </c>
+      <c r="M5">
+        <v>589</v>
+      </c>
+      <c r="N5">
+        <v>561</v>
+      </c>
+      <c r="O5">
+        <v>520</v>
+      </c>
+      <c r="P5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>42646</v>
+      </c>
+      <c r="B6">
+        <v>4282</v>
+      </c>
+      <c r="C6">
+        <v>21083</v>
+      </c>
+      <c r="D6">
+        <v>1681</v>
+      </c>
+      <c r="E6">
+        <v>1275</v>
+      </c>
+      <c r="F6">
+        <v>822</v>
+      </c>
+      <c r="G6">
+        <v>743</v>
+      </c>
+      <c r="H6">
+        <v>775</v>
+      </c>
+      <c r="I6">
+        <v>705</v>
+      </c>
+      <c r="J6">
+        <v>608</v>
+      </c>
+      <c r="K6">
+        <v>561</v>
+      </c>
+      <c r="L6">
+        <v>538</v>
+      </c>
+      <c r="M6">
+        <v>482</v>
+      </c>
+      <c r="N6">
+        <v>611</v>
+      </c>
+      <c r="O6">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>42647</v>
+      </c>
+      <c r="B7">
+        <v>5114</v>
+      </c>
+      <c r="C7">
+        <v>20435</v>
+      </c>
+      <c r="D7">
+        <v>1737</v>
+      </c>
+      <c r="E7">
+        <v>1234</v>
+      </c>
+      <c r="F7">
+        <v>923</v>
+      </c>
+      <c r="G7">
+        <v>872</v>
+      </c>
+      <c r="H7">
+        <v>850</v>
+      </c>
+      <c r="I7">
+        <v>712</v>
+      </c>
+      <c r="J7">
+        <v>693</v>
+      </c>
+      <c r="K7">
+        <v>680</v>
+      </c>
+      <c r="L7">
+        <v>687</v>
+      </c>
+      <c r="M7">
+        <v>545</v>
+      </c>
+      <c r="N7">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>42648</v>
+      </c>
+      <c r="B8">
+        <v>5864</v>
+      </c>
+      <c r="C8">
+        <v>19942</v>
+      </c>
+      <c r="D8">
+        <v>1841</v>
+      </c>
+      <c r="E8">
+        <v>1338</v>
+      </c>
+      <c r="F8">
+        <v>1008</v>
+      </c>
+      <c r="G8">
+        <v>960</v>
+      </c>
+      <c r="H8">
+        <v>750</v>
+      </c>
+      <c r="I8">
+        <v>803</v>
+      </c>
+      <c r="J8">
+        <v>687</v>
+      </c>
+      <c r="K8">
+        <v>712</v>
+      </c>
+      <c r="L8">
+        <v>680</v>
+      </c>
+      <c r="M8">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>42649</v>
+      </c>
+      <c r="B9">
+        <v>6847</v>
+      </c>
+      <c r="C9">
+        <v>20925</v>
+      </c>
+      <c r="D9">
+        <v>2019</v>
+      </c>
+      <c r="E9">
+        <v>1558</v>
+      </c>
+      <c r="F9">
+        <v>1117</v>
+      </c>
+      <c r="G9">
+        <v>881</v>
+      </c>
+      <c r="H9">
+        <v>887</v>
+      </c>
+      <c r="I9">
+        <v>775</v>
+      </c>
+      <c r="J9">
+        <v>738</v>
+      </c>
+      <c r="K9">
+        <v>690</v>
+      </c>
+      <c r="L9">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>42650</v>
+      </c>
+      <c r="B10">
+        <v>7838</v>
+      </c>
+      <c r="C10">
+        <v>20089</v>
+      </c>
+      <c r="D10">
+        <v>1999</v>
+      </c>
+      <c r="E10">
+        <v>1612</v>
+      </c>
+      <c r="F10">
+        <v>1105</v>
+      </c>
+      <c r="G10">
+        <v>1024</v>
+      </c>
+      <c r="H10">
+        <v>894</v>
+      </c>
+      <c r="I10">
+        <v>860</v>
+      </c>
+      <c r="J10">
+        <v>759</v>
+      </c>
+      <c r="K10">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>42651</v>
+      </c>
+      <c r="B11">
+        <v>12157</v>
+      </c>
+      <c r="C11">
+        <v>20704</v>
+      </c>
+      <c r="D11">
+        <v>2903</v>
+      </c>
+      <c r="E11">
+        <v>2012</v>
+      </c>
+      <c r="F11">
+        <v>1619</v>
+      </c>
+      <c r="G11">
+        <v>1395</v>
+      </c>
+      <c r="H11">
+        <v>1235</v>
+      </c>
+      <c r="I11">
+        <v>1137</v>
+      </c>
+      <c r="J11">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>42652</v>
+      </c>
+      <c r="B12">
+        <v>15196</v>
+      </c>
+      <c r="C12">
+        <v>21621</v>
+      </c>
+      <c r="D12">
+        <v>3029</v>
+      </c>
+      <c r="E12">
+        <v>2112</v>
+      </c>
+      <c r="F12">
+        <v>1583</v>
+      </c>
+      <c r="G12">
+        <v>1338</v>
+      </c>
+      <c r="H12">
+        <v>1229</v>
+      </c>
+      <c r="I12">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>42653</v>
+      </c>
+      <c r="B13">
+        <v>16422</v>
+      </c>
+      <c r="C13">
+        <v>21530</v>
+      </c>
+      <c r="D13">
+        <v>2851</v>
+      </c>
+      <c r="E13">
+        <v>2094</v>
+      </c>
+      <c r="F13">
+        <v>1564</v>
+      </c>
+      <c r="G13">
+        <v>1431</v>
+      </c>
+      <c r="H13">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>42654</v>
+      </c>
+      <c r="B14">
+        <v>17209</v>
+      </c>
+      <c r="C14">
+        <v>23352</v>
+      </c>
+      <c r="D14">
+        <v>2836</v>
+      </c>
+      <c r="E14">
+        <v>1934</v>
+      </c>
+      <c r="F14">
+        <v>1583</v>
+      </c>
+      <c r="G14">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>42655</v>
+      </c>
+      <c r="B15">
+        <v>17604</v>
+      </c>
+      <c r="C15">
+        <v>23044</v>
+      </c>
+      <c r="D15">
+        <v>2532</v>
+      </c>
+      <c r="E15">
+        <v>1873</v>
+      </c>
+      <c r="F15">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>42656</v>
+      </c>
+      <c r="B16">
+        <v>18460</v>
+      </c>
+      <c r="C16">
+        <v>24057</v>
+      </c>
+      <c r="D16">
+        <v>2592</v>
+      </c>
+      <c r="E16">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>42657</v>
+      </c>
+      <c r="B17">
+        <v>19497</v>
+      </c>
+      <c r="C17">
+        <v>26614</v>
+      </c>
+      <c r="D17">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>42658</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>42659</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>42660</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>42661</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>42662</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <v>42663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>42664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>42665</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <v>42666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>42669</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <v>42670</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <v>42671</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
+        <v>42672</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/aitushow/code/doc/留存.xlsx
+++ b/aitushow/code/doc/留存.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="6"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="0001" sheetId="1" r:id="rId1"/>
@@ -54,12 +54,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,13 +76,6 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -114,40 +107,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,9 +129,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,52 +221,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,13 +245,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,61 +293,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,79 +353,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,7 +377,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,26 +454,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,6 +480,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,25 +523,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,10 +542,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -561,133 +554,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -709,7 +702,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -717,9 +710,9 @@
     <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3926,10 +3919,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AH92"/>
+  <dimension ref="A1:AH108"/>
   <sheetViews>
-    <sheetView topLeftCell="K13" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59:D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7054,7 +7047,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="31" spans="1:33">
+    <row r="31" spans="1:34">
       <c r="A31" s="12">
         <v>42663</v>
       </c>
@@ -7154,8 +7147,11 @@
       <c r="AG31">
         <v>589</v>
       </c>
-    </row>
-    <row r="32" spans="1:32">
+      <c r="AH31">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34">
       <c r="A32" s="12">
         <v>42664</v>
       </c>
@@ -7252,8 +7248,14 @@
       <c r="AF32">
         <v>824</v>
       </c>
-    </row>
-    <row r="33" spans="1:31">
+      <c r="AG32">
+        <v>609</v>
+      </c>
+      <c r="AH32">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34">
       <c r="A33" s="12">
         <v>42665</v>
       </c>
@@ -7347,8 +7349,17 @@
       <c r="AE33">
         <v>713</v>
       </c>
-    </row>
-    <row r="34" spans="1:30">
+      <c r="AF33">
+        <v>580</v>
+      </c>
+      <c r="AG33">
+        <v>590</v>
+      </c>
+      <c r="AH33">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34">
       <c r="A34" s="12">
         <v>42666</v>
       </c>
@@ -7439,8 +7450,20 @@
       <c r="AD34">
         <v>429</v>
       </c>
-    </row>
-    <row r="35" spans="1:29">
+      <c r="AE34">
+        <v>428</v>
+      </c>
+      <c r="AF34">
+        <v>571</v>
+      </c>
+      <c r="AG34">
+        <v>552</v>
+      </c>
+      <c r="AH34">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34">
       <c r="A35" s="12">
         <v>42667</v>
       </c>
@@ -7528,8 +7551,23 @@
       <c r="AC35">
         <v>1096</v>
       </c>
-    </row>
-    <row r="36" spans="1:28">
+      <c r="AD35">
+        <v>827</v>
+      </c>
+      <c r="AE35">
+        <v>875</v>
+      </c>
+      <c r="AF35">
+        <v>941</v>
+      </c>
+      <c r="AG35">
+        <v>989</v>
+      </c>
+      <c r="AH35">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34">
       <c r="A36" s="12">
         <v>42668</v>
       </c>
@@ -7614,8 +7652,26 @@
       <c r="AB36">
         <v>1046</v>
       </c>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="AC36">
+        <v>713</v>
+      </c>
+      <c r="AD36">
+        <v>637</v>
+      </c>
+      <c r="AE36">
+        <v>1160</v>
+      </c>
+      <c r="AF36">
+        <v>1074</v>
+      </c>
+      <c r="AG36">
+        <v>922</v>
+      </c>
+      <c r="AH36">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34">
       <c r="A37" s="12">
         <v>42669</v>
       </c>
@@ -7697,8 +7753,29 @@
       <c r="AA37">
         <v>3303</v>
       </c>
-    </row>
-    <row r="38" spans="1:26">
+      <c r="AB37">
+        <v>2339</v>
+      </c>
+      <c r="AC37">
+        <v>1911</v>
+      </c>
+      <c r="AD37">
+        <v>3043</v>
+      </c>
+      <c r="AE37">
+        <v>2967</v>
+      </c>
+      <c r="AF37">
+        <v>2872</v>
+      </c>
+      <c r="AG37">
+        <v>2805</v>
+      </c>
+      <c r="AH37">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34">
       <c r="A38" s="12">
         <v>42670</v>
       </c>
@@ -7777,8 +7854,32 @@
       <c r="Z38">
         <v>4630</v>
       </c>
-    </row>
-    <row r="39" spans="1:25">
+      <c r="AA38">
+        <v>2767</v>
+      </c>
+      <c r="AB38">
+        <v>2548</v>
+      </c>
+      <c r="AC38">
+        <v>4250</v>
+      </c>
+      <c r="AD38">
+        <v>4422</v>
+      </c>
+      <c r="AE38">
+        <v>4098</v>
+      </c>
+      <c r="AF38">
+        <v>4136</v>
+      </c>
+      <c r="AG38">
+        <v>3775</v>
+      </c>
+      <c r="AH38">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34">
       <c r="A39" s="12">
         <v>42671</v>
       </c>
@@ -7854,8 +7955,35 @@
       <c r="Y39">
         <v>510</v>
       </c>
-    </row>
-    <row r="40" spans="1:24">
+      <c r="Z39">
+        <v>523</v>
+      </c>
+      <c r="AA39">
+        <v>361</v>
+      </c>
+      <c r="AB39">
+        <v>409</v>
+      </c>
+      <c r="AC39">
+        <v>418</v>
+      </c>
+      <c r="AD39">
+        <v>418</v>
+      </c>
+      <c r="AE39">
+        <v>428</v>
+      </c>
+      <c r="AF39">
+        <v>428</v>
+      </c>
+      <c r="AG39">
+        <v>399</v>
+      </c>
+      <c r="AH39">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34">
       <c r="A40" s="12">
         <v>42672</v>
       </c>
@@ -7928,8 +8056,38 @@
       <c r="X40">
         <v>366</v>
       </c>
-    </row>
-    <row r="41" spans="1:23">
+      <c r="Y40">
+        <v>494</v>
+      </c>
+      <c r="Z40">
+        <v>504</v>
+      </c>
+      <c r="AA40">
+        <v>409</v>
+      </c>
+      <c r="AB40">
+        <v>456</v>
+      </c>
+      <c r="AC40">
+        <v>380</v>
+      </c>
+      <c r="AD40">
+        <v>456</v>
+      </c>
+      <c r="AE40">
+        <v>428</v>
+      </c>
+      <c r="AF40">
+        <v>561</v>
+      </c>
+      <c r="AG40">
+        <v>399</v>
+      </c>
+      <c r="AH40">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34">
       <c r="A41" s="12">
         <v>42673</v>
       </c>
@@ -7999,8 +8157,41 @@
       <c r="W41">
         <v>504</v>
       </c>
-    </row>
-    <row r="42" spans="1:22">
+      <c r="X41">
+        <v>497</v>
+      </c>
+      <c r="Y41">
+        <v>478</v>
+      </c>
+      <c r="Z41">
+        <v>545</v>
+      </c>
+      <c r="AA41">
+        <v>526</v>
+      </c>
+      <c r="AB41">
+        <v>488</v>
+      </c>
+      <c r="AC41">
+        <v>497</v>
+      </c>
+      <c r="AD41">
+        <v>497</v>
+      </c>
+      <c r="AE41">
+        <v>488</v>
+      </c>
+      <c r="AF41">
+        <v>488</v>
+      </c>
+      <c r="AG41">
+        <v>449</v>
+      </c>
+      <c r="AH41">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34">
       <c r="A42" s="12">
         <v>42674</v>
       </c>
@@ -8067,8 +8258,44 @@
       <c r="V42">
         <v>416</v>
       </c>
-    </row>
-    <row r="43" spans="1:21">
+      <c r="W42">
+        <v>335</v>
+      </c>
+      <c r="X42">
+        <v>220</v>
+      </c>
+      <c r="Y42">
+        <v>459</v>
+      </c>
+      <c r="Z42">
+        <v>469</v>
+      </c>
+      <c r="AA42">
+        <v>392</v>
+      </c>
+      <c r="AB42">
+        <v>335</v>
+      </c>
+      <c r="AC42">
+        <v>373</v>
+      </c>
+      <c r="AD42">
+        <v>249</v>
+      </c>
+      <c r="AE42">
+        <v>287</v>
+      </c>
+      <c r="AF42">
+        <v>373</v>
+      </c>
+      <c r="AG42">
+        <v>373</v>
+      </c>
+      <c r="AH42">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34">
       <c r="A43" s="12">
         <v>42675</v>
       </c>
@@ -8132,8 +8359,47 @@
       <c r="U43">
         <v>357</v>
       </c>
-    </row>
-    <row r="44" spans="1:20">
+      <c r="V43">
+        <v>287</v>
+      </c>
+      <c r="W43">
+        <v>287</v>
+      </c>
+      <c r="X43">
+        <v>430</v>
+      </c>
+      <c r="Y43">
+        <v>411</v>
+      </c>
+      <c r="Z43">
+        <v>363</v>
+      </c>
+      <c r="AA43">
+        <v>430</v>
+      </c>
+      <c r="AB43">
+        <v>344</v>
+      </c>
+      <c r="AC43">
+        <v>258</v>
+      </c>
+      <c r="AD43">
+        <v>249</v>
+      </c>
+      <c r="AE43">
+        <v>363</v>
+      </c>
+      <c r="AF43">
+        <v>363</v>
+      </c>
+      <c r="AG43">
+        <v>344</v>
+      </c>
+      <c r="AH43">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34">
       <c r="A44" s="12">
         <v>42676</v>
       </c>
@@ -8194,8 +8460,50 @@
       <c r="T44">
         <v>330</v>
       </c>
-    </row>
-    <row r="45" spans="1:19">
+      <c r="U44">
+        <v>306</v>
+      </c>
+      <c r="V44">
+        <v>335</v>
+      </c>
+      <c r="W44">
+        <v>411</v>
+      </c>
+      <c r="X44">
+        <v>344</v>
+      </c>
+      <c r="Y44">
+        <v>354</v>
+      </c>
+      <c r="Z44">
+        <v>335</v>
+      </c>
+      <c r="AA44">
+        <v>316</v>
+      </c>
+      <c r="AB44">
+        <v>258</v>
+      </c>
+      <c r="AC44">
+        <v>277</v>
+      </c>
+      <c r="AD44">
+        <v>325</v>
+      </c>
+      <c r="AE44">
+        <v>268</v>
+      </c>
+      <c r="AF44">
+        <v>287</v>
+      </c>
+      <c r="AG44">
+        <v>325</v>
+      </c>
+      <c r="AH44">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33">
       <c r="A45" s="12">
         <v>42677</v>
       </c>
@@ -8253,8 +8561,50 @@
       <c r="S45">
         <v>330</v>
       </c>
-    </row>
-    <row r="46" spans="1:18">
+      <c r="T45">
+        <v>277</v>
+      </c>
+      <c r="U45">
+        <v>354</v>
+      </c>
+      <c r="V45">
+        <v>430</v>
+      </c>
+      <c r="W45">
+        <v>450</v>
+      </c>
+      <c r="X45">
+        <v>363</v>
+      </c>
+      <c r="Y45">
+        <v>354</v>
+      </c>
+      <c r="Z45">
+        <v>354</v>
+      </c>
+      <c r="AA45">
+        <v>220</v>
+      </c>
+      <c r="AB45">
+        <v>249</v>
+      </c>
+      <c r="AC45">
+        <v>335</v>
+      </c>
+      <c r="AD45">
+        <v>316</v>
+      </c>
+      <c r="AE45">
+        <v>306</v>
+      </c>
+      <c r="AF45">
+        <v>239</v>
+      </c>
+      <c r="AG45">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32">
       <c r="A46" s="12">
         <v>42678</v>
       </c>
@@ -8309,8 +8659,50 @@
       <c r="R46">
         <v>386</v>
       </c>
-    </row>
-    <row r="47" spans="1:17">
+      <c r="S46">
+        <v>402</v>
+      </c>
+      <c r="T46">
+        <v>373</v>
+      </c>
+      <c r="U46">
+        <v>516</v>
+      </c>
+      <c r="V46">
+        <v>430</v>
+      </c>
+      <c r="W46">
+        <v>478</v>
+      </c>
+      <c r="X46">
+        <v>421</v>
+      </c>
+      <c r="Y46">
+        <v>440</v>
+      </c>
+      <c r="Z46">
+        <v>325</v>
+      </c>
+      <c r="AA46">
+        <v>325</v>
+      </c>
+      <c r="AB46">
+        <v>440</v>
+      </c>
+      <c r="AC46">
+        <v>459</v>
+      </c>
+      <c r="AD46">
+        <v>392</v>
+      </c>
+      <c r="AE46">
+        <v>383</v>
+      </c>
+      <c r="AF46">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31">
       <c r="A47" s="12">
         <v>42679</v>
       </c>
@@ -8362,8 +8754,50 @@
       <c r="Q47">
         <v>566</v>
       </c>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="R47">
+        <v>628</v>
+      </c>
+      <c r="S47">
+        <v>599</v>
+      </c>
+      <c r="T47">
+        <v>532</v>
+      </c>
+      <c r="U47">
+        <v>523</v>
+      </c>
+      <c r="V47">
+        <v>485</v>
+      </c>
+      <c r="W47">
+        <v>437</v>
+      </c>
+      <c r="X47">
+        <v>475</v>
+      </c>
+      <c r="Y47">
+        <v>485</v>
+      </c>
+      <c r="Z47">
+        <v>418</v>
+      </c>
+      <c r="AA47">
+        <v>456</v>
+      </c>
+      <c r="AB47">
+        <v>333</v>
+      </c>
+      <c r="AC47">
+        <v>371</v>
+      </c>
+      <c r="AD47">
+        <v>361</v>
+      </c>
+      <c r="AE47">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30">
       <c r="A48" s="12">
         <v>42680</v>
       </c>
@@ -8412,8 +8846,50 @@
       <c r="P48">
         <v>377</v>
       </c>
-    </row>
-    <row r="49" spans="1:15">
+      <c r="Q48">
+        <v>497</v>
+      </c>
+      <c r="R48">
+        <v>507</v>
+      </c>
+      <c r="S48">
+        <v>488</v>
+      </c>
+      <c r="T48">
+        <v>459</v>
+      </c>
+      <c r="U48">
+        <v>478</v>
+      </c>
+      <c r="V48">
+        <v>383</v>
+      </c>
+      <c r="W48">
+        <v>373</v>
+      </c>
+      <c r="X48">
+        <v>421</v>
+      </c>
+      <c r="Y48">
+        <v>383</v>
+      </c>
+      <c r="Z48">
+        <v>296</v>
+      </c>
+      <c r="AA48">
+        <v>373</v>
+      </c>
+      <c r="AB48">
+        <v>325</v>
+      </c>
+      <c r="AC48">
+        <v>287</v>
+      </c>
+      <c r="AD48">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29">
       <c r="A49" s="12">
         <v>42681</v>
       </c>
@@ -8459,8 +8935,50 @@
       <c r="O49">
         <v>499</v>
       </c>
-    </row>
-    <row r="50" spans="1:14">
+      <c r="P49">
+        <v>450</v>
+      </c>
+      <c r="Q49">
+        <v>402</v>
+      </c>
+      <c r="R49">
+        <v>450</v>
+      </c>
+      <c r="S49">
+        <v>440</v>
+      </c>
+      <c r="T49">
+        <v>450</v>
+      </c>
+      <c r="U49">
+        <v>402</v>
+      </c>
+      <c r="V49">
+        <v>325</v>
+      </c>
+      <c r="W49">
+        <v>296</v>
+      </c>
+      <c r="X49">
+        <v>258</v>
+      </c>
+      <c r="Y49">
+        <v>402</v>
+      </c>
+      <c r="Z49">
+        <v>354</v>
+      </c>
+      <c r="AA49">
+        <v>383</v>
+      </c>
+      <c r="AB49">
+        <v>316</v>
+      </c>
+      <c r="AC49">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50" s="12">
         <v>42682</v>
       </c>
@@ -8503,8 +9021,50 @@
       <c r="N50">
         <v>583</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="O50">
+        <v>409</v>
+      </c>
+      <c r="P50">
+        <v>466</v>
+      </c>
+      <c r="Q50">
+        <v>485</v>
+      </c>
+      <c r="R50">
+        <v>504</v>
+      </c>
+      <c r="S50">
+        <v>437</v>
+      </c>
+      <c r="T50">
+        <v>447</v>
+      </c>
+      <c r="U50">
+        <v>504</v>
+      </c>
+      <c r="V50">
+        <v>390</v>
+      </c>
+      <c r="W50">
+        <v>418</v>
+      </c>
+      <c r="X50">
+        <v>513</v>
+      </c>
+      <c r="Y50">
+        <v>494</v>
+      </c>
+      <c r="Z50">
+        <v>466</v>
+      </c>
+      <c r="AA50">
+        <v>390</v>
+      </c>
+      <c r="AB50">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27">
       <c r="A51" s="12">
         <v>42683</v>
       </c>
@@ -8544,8 +9104,50 @@
       <c r="M51">
         <v>589</v>
       </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="N51">
+        <v>439</v>
+      </c>
+      <c r="O51">
+        <v>509</v>
+      </c>
+      <c r="P51">
+        <v>494</v>
+      </c>
+      <c r="Q51">
+        <v>479</v>
+      </c>
+      <c r="R51">
+        <v>454</v>
+      </c>
+      <c r="S51">
+        <v>429</v>
+      </c>
+      <c r="T51">
+        <v>418</v>
+      </c>
+      <c r="U51">
+        <v>368</v>
+      </c>
+      <c r="V51">
+        <v>338</v>
+      </c>
+      <c r="W51">
+        <v>429</v>
+      </c>
+      <c r="X51">
+        <v>408</v>
+      </c>
+      <c r="Y51">
+        <v>318</v>
+      </c>
+      <c r="Z51">
+        <v>318</v>
+      </c>
+      <c r="AA51">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
       <c r="A52" s="12">
         <v>42684</v>
       </c>
@@ -8582,8 +9184,50 @@
       <c r="L52">
         <v>583</v>
       </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="M52">
+        <v>444</v>
+      </c>
+      <c r="N52">
+        <v>418</v>
+      </c>
+      <c r="O52">
+        <v>464</v>
+      </c>
+      <c r="P52">
+        <v>504</v>
+      </c>
+      <c r="Q52">
+        <v>398</v>
+      </c>
+      <c r="R52">
+        <v>398</v>
+      </c>
+      <c r="S52">
+        <v>469</v>
+      </c>
+      <c r="T52">
+        <v>323</v>
+      </c>
+      <c r="U52">
+        <v>302</v>
+      </c>
+      <c r="V52">
+        <v>368</v>
+      </c>
+      <c r="W52">
+        <v>378</v>
+      </c>
+      <c r="X52">
+        <v>313</v>
+      </c>
+      <c r="Y52">
+        <v>292</v>
+      </c>
+      <c r="Z52">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
       <c r="A53" s="12">
         <v>42685</v>
       </c>
@@ -8617,8 +9261,50 @@
       <c r="K53">
         <v>597</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="L53">
+        <v>525</v>
+      </c>
+      <c r="M53">
+        <v>469</v>
+      </c>
+      <c r="N53">
+        <v>479</v>
+      </c>
+      <c r="O53">
+        <v>484</v>
+      </c>
+      <c r="P53">
+        <v>449</v>
+      </c>
+      <c r="Q53">
+        <v>469</v>
+      </c>
+      <c r="R53">
+        <v>469</v>
+      </c>
+      <c r="S53">
+        <v>459</v>
+      </c>
+      <c r="T53">
+        <v>392</v>
+      </c>
+      <c r="U53">
+        <v>392</v>
+      </c>
+      <c r="V53">
+        <v>347</v>
+      </c>
+      <c r="W53">
+        <v>341</v>
+      </c>
+      <c r="X53">
+        <v>347</v>
+      </c>
+      <c r="Y53">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54" s="12">
         <v>42686</v>
       </c>
@@ -8649,8 +9335,50 @@
       <c r="J54">
         <v>782</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="K54">
+        <v>791</v>
+      </c>
+      <c r="L54">
+        <v>721</v>
+      </c>
+      <c r="M54">
+        <v>615</v>
+      </c>
+      <c r="N54">
+        <v>570</v>
+      </c>
+      <c r="O54">
+        <v>509</v>
+      </c>
+      <c r="P54">
+        <v>504</v>
+      </c>
+      <c r="Q54">
+        <v>529</v>
+      </c>
+      <c r="R54">
+        <v>534</v>
+      </c>
+      <c r="S54">
+        <v>484</v>
+      </c>
+      <c r="T54">
+        <v>423</v>
+      </c>
+      <c r="U54">
+        <v>423</v>
+      </c>
+      <c r="V54">
+        <v>474</v>
+      </c>
+      <c r="W54">
+        <v>408</v>
+      </c>
+      <c r="X54">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
       <c r="A55" s="12">
         <v>42687</v>
       </c>
@@ -8678,8 +9406,50 @@
       <c r="I55">
         <v>606</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="J55">
+        <v>617</v>
+      </c>
+      <c r="K55">
+        <v>571</v>
+      </c>
+      <c r="L55">
+        <v>459</v>
+      </c>
+      <c r="M55">
+        <v>454</v>
+      </c>
+      <c r="N55">
+        <v>423</v>
+      </c>
+      <c r="O55">
+        <v>398</v>
+      </c>
+      <c r="P55">
+        <v>433</v>
+      </c>
+      <c r="Q55">
+        <v>438</v>
+      </c>
+      <c r="R55">
+        <v>398</v>
+      </c>
+      <c r="S55">
+        <v>336</v>
+      </c>
+      <c r="T55">
+        <v>331</v>
+      </c>
+      <c r="U55">
+        <v>296</v>
+      </c>
+      <c r="V55">
+        <v>336</v>
+      </c>
+      <c r="W55">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
       <c r="A56" s="12">
         <v>42688</v>
       </c>
@@ -8704,8 +9474,50 @@
       <c r="H56">
         <v>684</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="I56">
+        <v>525</v>
+      </c>
+      <c r="J56">
+        <v>525</v>
+      </c>
+      <c r="K56">
+        <v>525</v>
+      </c>
+      <c r="L56">
+        <v>515</v>
+      </c>
+      <c r="M56">
+        <v>505</v>
+      </c>
+      <c r="N56">
+        <v>484</v>
+      </c>
+      <c r="O56">
+        <v>454</v>
+      </c>
+      <c r="P56">
+        <v>408</v>
+      </c>
+      <c r="Q56">
+        <v>403</v>
+      </c>
+      <c r="R56">
+        <v>469</v>
+      </c>
+      <c r="S56">
+        <v>392</v>
+      </c>
+      <c r="T56">
+        <v>372</v>
+      </c>
+      <c r="U56">
+        <v>418</v>
+      </c>
+      <c r="V56">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
       <c r="A57" s="12">
         <v>42689</v>
       </c>
@@ -8727,8 +9539,50 @@
       <c r="G57">
         <v>670</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="H57">
+        <v>571</v>
+      </c>
+      <c r="I57">
+        <v>489</v>
+      </c>
+      <c r="J57">
+        <v>581</v>
+      </c>
+      <c r="K57">
+        <v>530</v>
+      </c>
+      <c r="L57">
+        <v>494</v>
+      </c>
+      <c r="M57">
+        <v>484</v>
+      </c>
+      <c r="N57">
+        <v>505</v>
+      </c>
+      <c r="O57">
+        <v>377</v>
+      </c>
+      <c r="P57">
+        <v>306</v>
+      </c>
+      <c r="Q57">
+        <v>372</v>
+      </c>
+      <c r="R57">
+        <v>428</v>
+      </c>
+      <c r="S57">
+        <v>357</v>
+      </c>
+      <c r="T57">
+        <v>367</v>
+      </c>
+      <c r="U57">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
       <c r="A58" s="12">
         <v>42690</v>
       </c>
@@ -8747,8 +9601,50 @@
       <c r="F58">
         <v>912</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="G58">
+        <v>642</v>
+      </c>
+      <c r="H58">
+        <v>609</v>
+      </c>
+      <c r="I58">
+        <v>667</v>
+      </c>
+      <c r="J58">
+        <v>635</v>
+      </c>
+      <c r="K58">
+        <v>565</v>
+      </c>
+      <c r="L58">
+        <v>587</v>
+      </c>
+      <c r="M58">
+        <v>507</v>
+      </c>
+      <c r="N58">
+        <v>390</v>
+      </c>
+      <c r="O58">
+        <v>354</v>
+      </c>
+      <c r="P58">
+        <v>558</v>
+      </c>
+      <c r="Q58">
+        <v>474</v>
+      </c>
+      <c r="R58">
+        <v>441</v>
+      </c>
+      <c r="S58">
+        <v>398</v>
+      </c>
+      <c r="T58">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59" s="12">
         <v>42691</v>
       </c>
@@ -8764,8 +9660,50 @@
       <c r="E59">
         <v>1129</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="F59">
+        <v>635</v>
+      </c>
+      <c r="G59">
+        <v>551</v>
+      </c>
+      <c r="H59">
+        <v>609</v>
+      </c>
+      <c r="I59">
+        <v>533</v>
+      </c>
+      <c r="J59">
+        <v>533</v>
+      </c>
+      <c r="K59">
+        <v>485</v>
+      </c>
+      <c r="L59">
+        <v>409</v>
+      </c>
+      <c r="M59">
+        <v>325</v>
+      </c>
+      <c r="N59">
+        <v>259</v>
+      </c>
+      <c r="O59">
+        <v>372</v>
+      </c>
+      <c r="P59">
+        <v>350</v>
+      </c>
+      <c r="Q59">
+        <v>390</v>
+      </c>
+      <c r="R59">
+        <v>354</v>
+      </c>
+      <c r="S59">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" s="12">
         <v>42692</v>
       </c>
@@ -8778,1708 +9716,1119 @@
       <c r="D60" s="10">
         <v>3457</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="12"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-    </row>
-    <row r="67" spans="1:27">
-      <c r="A67" s="7" t="s">
+      <c r="E60">
+        <v>1210</v>
+      </c>
+      <c r="F60">
+        <v>873</v>
+      </c>
+      <c r="G60">
+        <v>923</v>
+      </c>
+      <c r="H60">
+        <v>804</v>
+      </c>
+      <c r="I60">
+        <v>722</v>
+      </c>
+      <c r="J60">
+        <v>650</v>
+      </c>
+      <c r="K60">
+        <v>578</v>
+      </c>
+      <c r="L60">
+        <v>488</v>
+      </c>
+      <c r="M60">
+        <v>417</v>
+      </c>
+      <c r="N60">
+        <v>521</v>
+      </c>
+      <c r="O60">
+        <v>531</v>
+      </c>
+      <c r="P60">
+        <v>492</v>
+      </c>
+      <c r="Q60">
+        <v>488</v>
+      </c>
+      <c r="R60">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="12">
+        <v>42693</v>
+      </c>
+      <c r="B61" s="10">
+        <v>28227</v>
+      </c>
+      <c r="C61" s="10">
+        <v>4376</v>
+      </c>
+      <c r="D61" s="10">
+        <v>3892</v>
+      </c>
+      <c r="E61">
+        <v>1386</v>
+      </c>
+      <c r="F61">
+        <v>1005</v>
+      </c>
+      <c r="G61">
+        <v>887</v>
+      </c>
+      <c r="H61">
+        <v>786</v>
+      </c>
+      <c r="I61">
+        <v>693</v>
+      </c>
+      <c r="J61">
+        <v>704</v>
+      </c>
+      <c r="K61">
+        <v>725</v>
+      </c>
+      <c r="L61">
+        <v>618</v>
+      </c>
+      <c r="M61">
+        <v>575</v>
+      </c>
+      <c r="N61">
+        <v>553</v>
+      </c>
+      <c r="O61">
+        <v>560</v>
+      </c>
+      <c r="P61">
+        <v>510</v>
+      </c>
+      <c r="Q61">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="12">
+        <v>42694</v>
+      </c>
+      <c r="B62" s="10">
+        <v>27627</v>
+      </c>
+      <c r="C62" s="10">
+        <v>4248</v>
+      </c>
+      <c r="D62" s="10">
+        <v>3776</v>
+      </c>
+      <c r="E62">
+        <v>1160</v>
+      </c>
+      <c r="F62">
+        <v>794</v>
+      </c>
+      <c r="G62">
+        <v>725</v>
+      </c>
+      <c r="H62">
+        <v>646</v>
+      </c>
+      <c r="I62">
+        <v>671</v>
+      </c>
+      <c r="J62">
+        <v>654</v>
+      </c>
+      <c r="K62">
+        <v>632</v>
+      </c>
+      <c r="L62">
+        <v>528</v>
+      </c>
+      <c r="M62">
+        <v>506</v>
+      </c>
+      <c r="N62">
+        <v>535</v>
+      </c>
+      <c r="O62">
+        <v>485</v>
+      </c>
+      <c r="P62">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="12">
+        <v>42695</v>
+      </c>
+      <c r="B63" s="10">
+        <v>33783</v>
+      </c>
+      <c r="C63" s="10">
+        <v>3495</v>
+      </c>
+      <c r="D63" s="10">
+        <v>3057</v>
+      </c>
+      <c r="E63">
+        <v>1171</v>
+      </c>
+      <c r="F63">
+        <v>879</v>
+      </c>
+      <c r="G63">
+        <v>733</v>
+      </c>
+      <c r="H63">
+        <v>649</v>
+      </c>
+      <c r="I63">
+        <v>503</v>
+      </c>
+      <c r="J63">
+        <v>434</v>
+      </c>
+      <c r="K63">
+        <v>558</v>
+      </c>
+      <c r="L63">
+        <v>558</v>
+      </c>
+      <c r="M63">
+        <v>533</v>
+      </c>
+      <c r="N63">
+        <v>496</v>
+      </c>
+      <c r="O63">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="12">
+        <v>42696</v>
+      </c>
+      <c r="B64" s="10">
+        <v>32502</v>
+      </c>
+      <c r="C64" s="10">
+        <v>3365</v>
+      </c>
+      <c r="D64" s="10">
+        <v>2945</v>
+      </c>
+      <c r="E64">
+        <v>1135</v>
+      </c>
+      <c r="F64">
+        <v>783</v>
+      </c>
+      <c r="G64">
+        <v>625</v>
+      </c>
+      <c r="H64">
+        <v>481</v>
+      </c>
+      <c r="I64">
+        <v>438</v>
+      </c>
+      <c r="J64">
+        <v>578</v>
+      </c>
+      <c r="K64">
+        <v>481</v>
+      </c>
+      <c r="L64">
+        <v>406</v>
+      </c>
+      <c r="M64">
+        <v>431</v>
+      </c>
+      <c r="N64">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="12">
+        <v>42697</v>
+      </c>
+      <c r="B65" s="10">
+        <v>31940</v>
+      </c>
+      <c r="C65" s="10">
+        <v>3337</v>
+      </c>
+      <c r="D65" s="10">
+        <v>2974</v>
+      </c>
+      <c r="E65">
+        <v>1162</v>
+      </c>
+      <c r="F65">
+        <v>857</v>
+      </c>
+      <c r="G65">
+        <v>618</v>
+      </c>
+      <c r="H65">
+        <v>567</v>
+      </c>
+      <c r="I65">
+        <v>674</v>
+      </c>
+      <c r="J65">
+        <v>590</v>
+      </c>
+      <c r="K65">
+        <v>527</v>
+      </c>
+      <c r="L65">
+        <v>498</v>
+      </c>
+      <c r="M65">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="12">
+        <v>42698</v>
+      </c>
+      <c r="B66" s="10">
+        <v>31232</v>
+      </c>
+      <c r="C66" s="10">
+        <v>3401</v>
+      </c>
+      <c r="D66" s="10">
+        <v>2995</v>
+      </c>
+      <c r="E66">
+        <v>1146</v>
+      </c>
+      <c r="F66">
+        <v>706</v>
+      </c>
+      <c r="G66">
+        <v>585</v>
+      </c>
+      <c r="H66">
+        <v>717</v>
+      </c>
+      <c r="I66">
+        <v>611</v>
+      </c>
+      <c r="J66">
+        <v>542</v>
+      </c>
+      <c r="K66">
+        <v>492</v>
+      </c>
+      <c r="L66">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="12">
+        <v>42699</v>
+      </c>
+      <c r="B67" s="10">
+        <v>31610</v>
+      </c>
+      <c r="C67" s="10">
+        <v>3819</v>
+      </c>
+      <c r="D67" s="10">
+        <v>3454</v>
+      </c>
+      <c r="E67">
+        <v>1200</v>
+      </c>
+      <c r="F67">
+        <v>799</v>
+      </c>
+      <c r="G67">
+        <v>853</v>
+      </c>
+      <c r="H67">
+        <v>809</v>
+      </c>
+      <c r="I67">
+        <v>736</v>
+      </c>
+      <c r="J67">
+        <v>643</v>
+      </c>
+      <c r="K67">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="12">
+        <v>42700</v>
+      </c>
+      <c r="B68" s="10">
+        <v>27542</v>
+      </c>
+      <c r="C68" s="10">
+        <v>4530</v>
+      </c>
+      <c r="D68" s="10">
+        <v>4086</v>
+      </c>
+      <c r="E68">
+        <v>1414</v>
+      </c>
+      <c r="F68">
+        <v>978</v>
+      </c>
+      <c r="G68">
+        <v>803</v>
+      </c>
+      <c r="H68">
+        <v>736</v>
+      </c>
+      <c r="I68">
+        <v>697</v>
+      </c>
+      <c r="J68">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="12">
+        <v>42701</v>
+      </c>
+      <c r="B69" s="10">
+        <v>25909</v>
+      </c>
+      <c r="C69" s="10">
+        <v>3928</v>
+      </c>
+      <c r="D69" s="10">
+        <v>3513</v>
+      </c>
+      <c r="E69">
+        <v>1144</v>
+      </c>
+      <c r="F69">
+        <v>853</v>
+      </c>
+      <c r="G69">
+        <v>781</v>
+      </c>
+      <c r="H69">
+        <v>712</v>
+      </c>
+      <c r="I69">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="12">
+        <v>42702</v>
+      </c>
+      <c r="B70" s="10">
+        <v>31840</v>
+      </c>
+      <c r="C70" s="10">
+        <v>3277</v>
+      </c>
+      <c r="D70" s="10">
+        <v>2880</v>
+      </c>
+      <c r="E70">
+        <v>1012</v>
+      </c>
+      <c r="F70">
+        <v>727</v>
+      </c>
+      <c r="G70">
+        <v>663</v>
+      </c>
+      <c r="H70">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="12">
+        <v>42703</v>
+      </c>
+      <c r="B71" s="10">
+        <v>31987</v>
+      </c>
+      <c r="C71" s="10">
+        <v>3404</v>
+      </c>
+      <c r="D71" s="10">
+        <v>3030</v>
+      </c>
+      <c r="E71">
+        <v>1271</v>
+      </c>
+      <c r="F71">
+        <v>986</v>
+      </c>
+      <c r="G71">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="12">
+        <v>42704</v>
+      </c>
+      <c r="B72" s="10">
+        <v>31939</v>
+      </c>
+      <c r="C72" s="10">
+        <v>3328</v>
+      </c>
+      <c r="D72" s="10">
+        <v>2919</v>
+      </c>
+      <c r="E72">
+        <v>1207</v>
+      </c>
+      <c r="F72">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="12">
+        <v>42705</v>
+      </c>
+      <c r="B73" s="10">
+        <v>31785</v>
+      </c>
+      <c r="C73" s="10">
+        <v>3340</v>
+      </c>
+      <c r="D73" s="10">
+        <v>2950</v>
+      </c>
+      <c r="E73">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="12">
+        <v>42706</v>
+      </c>
+      <c r="B74" s="10">
+        <v>32212</v>
+      </c>
+      <c r="C74" s="10">
+        <v>3797</v>
+      </c>
+      <c r="D74" s="10">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="12"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="12"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="12"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+    </row>
+    <row r="83" spans="1:27">
+      <c r="A83" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B83" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C83" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D83" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E67" s="10">
+      <c r="E83" s="10">
         <v>1</v>
       </c>
-      <c r="F67">
+      <c r="F83">
         <v>2</v>
       </c>
-      <c r="G67" s="11">
+      <c r="G83" s="11">
         <v>3</v>
       </c>
-      <c r="H67" s="10">
+      <c r="H83" s="10">
         <v>4</v>
       </c>
-      <c r="I67">
+      <c r="I83">
         <v>5</v>
       </c>
-      <c r="J67" s="11">
+      <c r="J83" s="11">
         <v>6</v>
       </c>
-      <c r="K67" s="10">
+      <c r="K83" s="10">
         <v>7</v>
       </c>
-      <c r="L67">
+      <c r="L83">
         <v>8</v>
       </c>
-      <c r="M67" s="11">
+      <c r="M83" s="11">
         <v>9</v>
       </c>
-      <c r="N67" s="10">
+      <c r="N83" s="10">
         <v>10</v>
       </c>
-      <c r="O67">
+      <c r="O83">
         <v>11</v>
       </c>
-      <c r="P67" s="11">
+      <c r="P83" s="11">
         <v>12</v>
       </c>
-      <c r="Q67" s="10">
+      <c r="Q83" s="10">
         <v>13</v>
       </c>
-      <c r="R67">
+      <c r="R83">
         <v>14</v>
       </c>
-      <c r="S67" s="11">
+      <c r="S83" s="11">
         <v>15</v>
       </c>
-      <c r="T67" s="10">
+      <c r="T83" s="10">
         <v>16</v>
       </c>
-      <c r="U67">
+      <c r="U83">
         <v>17</v>
       </c>
-      <c r="V67" s="11">
+      <c r="V83" s="11">
         <v>18</v>
       </c>
-      <c r="W67" s="10">
+      <c r="W83" s="10">
         <v>19</v>
       </c>
-      <c r="X67">
+      <c r="X83">
         <v>20</v>
       </c>
-      <c r="Y67" s="11">
+      <c r="Y83" s="11">
         <v>21</v>
       </c>
-      <c r="Z67" s="10">
+      <c r="Z83" s="10">
         <v>22</v>
       </c>
-      <c r="AA67">
+      <c r="AA83">
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:27">
-      <c r="A68" s="12">
+    <row r="84" spans="1:27">
+      <c r="A84" s="12">
         <v>42634</v>
       </c>
-      <c r="B68" s="10">
+      <c r="B84" s="10">
         <v>1669</v>
       </c>
-      <c r="C68" s="10">
+      <c r="C84" s="10">
         <v>9501</v>
       </c>
-      <c r="D68" s="8">
+      <c r="D84" s="8">
         <f>D2/$C2</f>
         <v>0.171771392485002</v>
       </c>
-      <c r="E68" s="8">
-        <f t="shared" ref="E68:H68" si="0">E2/$C2</f>
+      <c r="E84" s="8">
+        <f t="shared" ref="E84:H84" si="0">E2/$C2</f>
         <v>0.0797810756762446</v>
       </c>
-      <c r="F68" s="8">
+      <c r="F84" s="8">
         <f t="shared" si="0"/>
         <v>0.0417850752552363</v>
       </c>
-      <c r="G68" s="8">
+      <c r="G84" s="8">
         <f t="shared" si="0"/>
         <v>0.0257867592884959</v>
       </c>
-      <c r="H68" s="8">
+      <c r="H84" s="8">
         <f t="shared" si="0"/>
         <v>0.0234712135564677</v>
       </c>
-      <c r="I68" s="8">
-        <f t="shared" ref="I68:AA68" si="1">I2/$C2</f>
+      <c r="I84" s="8">
+        <f t="shared" ref="I84:AA84" si="1">I2/$C2</f>
         <v>0.0309441111461951</v>
       </c>
-      <c r="J68" s="8">
+      <c r="J84" s="8">
         <f t="shared" si="1"/>
         <v>0.0324176402483949</v>
       </c>
-      <c r="K68" s="8">
+      <c r="K84" s="8">
         <f t="shared" si="1"/>
         <v>0.0257867592884959</v>
       </c>
-      <c r="L68" s="8">
+      <c r="L84" s="8">
         <f t="shared" si="1"/>
         <v>0.022944953162825</v>
       </c>
-      <c r="M68" s="8">
+      <c r="M84" s="8">
         <f t="shared" si="1"/>
         <v>0.0177876013051258</v>
       </c>
-      <c r="N68" s="8">
+      <c r="N84" s="8">
         <f t="shared" si="1"/>
         <v>0.0131565098410694</v>
       </c>
-      <c r="O68" s="8">
+      <c r="O84" s="8">
         <f t="shared" si="1"/>
         <v>0.0112619724239554</v>
       </c>
-      <c r="P68" s="8">
+      <c r="P84" s="8">
         <f t="shared" si="1"/>
         <v>0.00842016629828439</v>
       </c>
-      <c r="Q68" s="8">
+      <c r="Q84" s="8">
         <f t="shared" si="1"/>
         <v>0.0074728975897274</v>
       </c>
-      <c r="R68" s="8">
+      <c r="R84" s="8">
         <f t="shared" si="1"/>
         <v>0.0074728975897274</v>
       </c>
-      <c r="S68" s="8">
+      <c r="S84" s="8">
         <f t="shared" si="1"/>
         <v>0.0065256288811704</v>
       </c>
-      <c r="T68" s="8">
+      <c r="T84" s="8">
         <f t="shared" si="1"/>
         <v>0.0112619724239554</v>
       </c>
-      <c r="U68" s="8">
+      <c r="U84" s="8">
         <f t="shared" si="1"/>
         <v>0.0202083991158825</v>
       </c>
-      <c r="V68" s="8">
+      <c r="V84" s="8">
         <f t="shared" si="1"/>
         <v>0.024839490579939</v>
       </c>
-      <c r="W68" s="8">
+      <c r="W84" s="8">
         <f t="shared" si="1"/>
         <v>0.0211556678244395</v>
       </c>
-      <c r="X68" s="8">
+      <c r="X84" s="8">
         <f t="shared" si="1"/>
         <v>0.0202083991158825</v>
       </c>
-      <c r="Y68" s="8">
+      <c r="Y84" s="8">
         <f t="shared" si="1"/>
         <v>0.0225239448479107</v>
       </c>
-      <c r="Z68" s="8">
+      <c r="Z84" s="8">
         <f t="shared" si="1"/>
         <v>0.0202083991158825</v>
       </c>
-      <c r="AA68" s="8">
+      <c r="AA84" s="8">
         <f t="shared" si="1"/>
         <v>0.00842016629828439</v>
       </c>
     </row>
-    <row r="69" spans="1:27">
-      <c r="A69" s="12">
+    <row r="85" spans="1:27">
+      <c r="A85" s="12">
         <v>42635</v>
       </c>
-      <c r="B69" s="10">
+      <c r="B85" s="10">
         <v>3674</v>
       </c>
-      <c r="C69" s="10">
+      <c r="C85" s="10">
         <v>15553</v>
       </c>
-      <c r="D69" s="8">
-        <f t="shared" ref="D69:G91" si="2">D3/$C3</f>
+      <c r="D85" s="8">
+        <f t="shared" ref="D85:G107" si="2">D3/$C3</f>
         <v>0.189288240210892</v>
       </c>
-      <c r="E69" s="8">
+      <c r="E85" s="8">
         <f t="shared" si="2"/>
         <v>0.0736835337233974</v>
       </c>
-      <c r="F69" s="8">
+      <c r="F85" s="8">
         <f t="shared" si="2"/>
         <v>0.0375490259113997</v>
       </c>
-      <c r="G69" s="8">
+      <c r="G85" s="8">
         <f t="shared" si="2"/>
         <v>0.0235324374718704</v>
       </c>
-      <c r="H69" s="8">
-        <f t="shared" ref="H69:Z69" si="3">H3/$C3</f>
+      <c r="H85" s="8">
+        <f t="shared" ref="H85:Z85" si="3">H3/$C3</f>
         <v>0.0381276924066097</v>
       </c>
-      <c r="I69" s="8">
+      <c r="I85" s="8">
         <f t="shared" si="3"/>
         <v>0.0320838423455282</v>
       </c>
-      <c r="J69" s="8">
+      <c r="J85" s="8">
         <f t="shared" si="3"/>
         <v>0.0326625088407381</v>
       </c>
-      <c r="K69" s="8">
+      <c r="K85" s="8">
         <f t="shared" si="3"/>
         <v>0.0255256220664824</v>
       </c>
-      <c r="L69" s="8">
+      <c r="L85" s="8">
         <f t="shared" si="3"/>
         <v>0.0214749566000129</v>
       </c>
-      <c r="M69" s="8">
+      <c r="M85" s="8">
         <f t="shared" si="3"/>
         <v>0.0114447373497075</v>
       </c>
-      <c r="N69" s="8">
+      <c r="N85" s="8">
         <f t="shared" si="3"/>
         <v>0.00662251655629139</v>
       </c>
-      <c r="O69" s="8">
+      <c r="O85" s="8">
         <f t="shared" si="3"/>
         <v>0.00919436764611329</v>
       </c>
-      <c r="P69" s="8">
+      <c r="P85" s="8">
         <f t="shared" si="3"/>
         <v>0.00945155275509548</v>
       </c>
-      <c r="Q69" s="8">
+      <c r="Q85" s="8">
         <f t="shared" si="3"/>
         <v>0.0102874043592876</v>
       </c>
-      <c r="R69" s="8">
+      <c r="R85" s="8">
         <f t="shared" si="3"/>
         <v>0.0137594033305472</v>
       </c>
-      <c r="S69" s="8">
+      <c r="S85" s="8">
         <f t="shared" si="3"/>
         <v>0.0126020703401273</v>
       </c>
-      <c r="T69" s="8">
+      <c r="T85" s="8">
         <f t="shared" si="3"/>
         <v>0.0194817720054009</v>
       </c>
-      <c r="U69" s="8">
+      <c r="U85" s="8">
         <f t="shared" si="3"/>
         <v>0.020317623609593</v>
       </c>
-      <c r="V69" s="8">
+      <c r="V85" s="8">
         <f t="shared" si="3"/>
         <v>0.0243682890760625</v>
       </c>
-      <c r="W69" s="8">
+      <c r="W85" s="8">
         <f t="shared" si="3"/>
         <v>0.0208962901048029</v>
       </c>
-      <c r="X69" s="8">
+      <c r="X85" s="8">
         <f t="shared" si="3"/>
         <v>0.016909920915579</v>
       </c>
-      <c r="Y69" s="8">
+      <c r="Y85" s="8">
         <f t="shared" si="3"/>
         <v>0.0157525879251591</v>
       </c>
-      <c r="Z69" s="8">
+      <c r="Z85" s="8">
         <f t="shared" si="3"/>
         <v>0.00687970166527358</v>
       </c>
-      <c r="AA69" s="8"/>
-    </row>
-    <row r="70" spans="1:27">
-      <c r="A70" s="12">
+      <c r="AA85" s="8"/>
+    </row>
+    <row r="86" spans="1:27">
+      <c r="A86" s="12">
         <v>42636</v>
       </c>
-      <c r="B70" s="10">
+      <c r="B86" s="10">
         <v>5088</v>
       </c>
-      <c r="C70" s="10">
+      <c r="C86" s="10">
         <v>19372</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D86" s="8">
         <f t="shared" si="2"/>
         <v>0.184596324592195</v>
       </c>
-      <c r="E70" s="8">
+      <c r="E86" s="8">
         <f t="shared" si="2"/>
         <v>0.0601899648977906</v>
       </c>
-      <c r="F70" s="8">
+      <c r="F86" s="8">
         <f t="shared" si="2"/>
         <v>0.029527152591369</v>
       </c>
-      <c r="G70" s="8">
+      <c r="G86" s="8">
         <f t="shared" si="2"/>
         <v>0.0378381168697089</v>
       </c>
-      <c r="H70" s="8">
-        <f t="shared" ref="H70:Y70" si="4">H4/$C4</f>
+      <c r="H86" s="8">
+        <f t="shared" ref="H86:Y86" si="4">H4/$C4</f>
         <v>0.0315403675407805</v>
       </c>
-      <c r="I70" s="8">
+      <c r="I86" s="8">
         <f t="shared" si="4"/>
         <v>0.0277720421226513</v>
       </c>
-      <c r="J70" s="8">
+      <c r="J86" s="8">
         <f t="shared" si="4"/>
         <v>0.0228164360933306</v>
       </c>
-      <c r="K70" s="8">
+      <c r="K86" s="8">
         <f t="shared" si="4"/>
         <v>0.0199256659095602</v>
       </c>
-      <c r="L70" s="8">
+      <c r="L86" s="8">
         <f t="shared" si="4"/>
         <v>0.0102725583316126</v>
       </c>
-      <c r="M70" s="8">
+      <c r="M86" s="8">
         <f t="shared" si="4"/>
         <v>0.00918851951269874</v>
       </c>
-      <c r="N70" s="8">
+      <c r="N86" s="8">
         <f t="shared" si="4"/>
         <v>0.0109436299814165</v>
       </c>
-      <c r="O70" s="8">
+      <c r="O86" s="8">
         <f t="shared" si="4"/>
         <v>0.0107371463968614</v>
       </c>
-      <c r="P70" s="8">
+      <c r="P86" s="8">
         <f t="shared" si="4"/>
         <v>0.00985959116250258</v>
       </c>
-      <c r="Q70" s="8">
+      <c r="Q86" s="8">
         <f t="shared" si="4"/>
         <v>0.0122857732810242</v>
       </c>
-      <c r="R70" s="8">
+      <c r="R86" s="8">
         <f t="shared" si="4"/>
         <v>0.0138860210613256</v>
       </c>
-      <c r="S70" s="8">
+      <c r="S86" s="8">
         <f t="shared" si="4"/>
         <v>0.016776791245096</v>
       </c>
-      <c r="T70" s="8">
+      <c r="T86" s="8">
         <f t="shared" si="4"/>
         <v>0.0194610778443114</v>
       </c>
-      <c r="U70" s="8">
+      <c r="U86" s="8">
         <f t="shared" si="4"/>
         <v>0.0183770390253975</v>
       </c>
-      <c r="V70" s="8">
+      <c r="V86" s="8">
         <f t="shared" si="4"/>
         <v>0.016570307660541</v>
       </c>
-      <c r="W70" s="8">
+      <c r="W86" s="8">
         <f t="shared" si="4"/>
         <v>0.016776791245096</v>
       </c>
-      <c r="X70" s="8">
+      <c r="X86" s="8">
         <f t="shared" si="4"/>
         <v>0.0142989882304357</v>
       </c>
-      <c r="Y70" s="8">
+      <c r="Y86" s="8">
         <f t="shared" si="4"/>
         <v>0.0174478628948999</v>
       </c>
-      <c r="Z70" s="8"/>
-      <c r="AA70" s="8"/>
-    </row>
-    <row r="71" spans="1:27">
-      <c r="A71" s="12">
+      <c r="Z86" s="8"/>
+      <c r="AA86" s="8"/>
+    </row>
+    <row r="87" spans="1:27">
+      <c r="A87" s="12">
         <v>42637</v>
       </c>
-      <c r="B71" s="10">
+      <c r="B87" s="10">
         <v>5961</v>
       </c>
-      <c r="C71" s="10">
+      <c r="C87" s="10">
         <v>22694</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D87" s="8">
         <f t="shared" si="2"/>
         <v>0.183440556975412</v>
       </c>
-      <c r="E71" s="8">
+      <c r="E87" s="8">
         <f t="shared" si="2"/>
         <v>0.0567550894509562</v>
       </c>
-      <c r="F71" s="8">
+      <c r="F87" s="8">
         <f t="shared" si="2"/>
         <v>0.0349431567815282</v>
       </c>
-      <c r="G71" s="8">
+      <c r="G87" s="8">
         <f t="shared" si="2"/>
         <v>0.0300079316118798</v>
       </c>
-      <c r="H71" s="8">
-        <f t="shared" ref="H71:X71" si="5">H5/$C5</f>
+      <c r="H87" s="8">
+        <f t="shared" ref="H87:X87" si="5">H5/$C5</f>
         <v>0.0196968361681502</v>
       </c>
-      <c r="I71" s="8">
+      <c r="I87" s="8">
         <f t="shared" si="5"/>
         <v>0.0175817396668723</v>
       </c>
-      <c r="J71" s="8">
+      <c r="J87" s="8">
         <f t="shared" si="5"/>
         <v>0.0171851590728827</v>
       </c>
-      <c r="K71" s="8">
+      <c r="K87" s="8">
         <f t="shared" si="5"/>
         <v>0.013571869216533</v>
       </c>
-      <c r="L71" s="8">
+      <c r="L87" s="8">
         <f t="shared" si="5"/>
         <v>0.0129990305807702</v>
       </c>
-      <c r="M71" s="8">
+      <c r="M87" s="8">
         <f t="shared" si="5"/>
         <v>0.0107076760377192</v>
       </c>
-      <c r="N71" s="8">
+      <c r="N87" s="8">
         <f t="shared" si="5"/>
         <v>0.0133956111747598</v>
       </c>
-      <c r="O71" s="8">
+      <c r="O87" s="8">
         <f t="shared" si="5"/>
         <v>0.012205869392791</v>
       </c>
-      <c r="P71" s="8">
+      <c r="P87" s="8">
         <f t="shared" si="5"/>
         <v>0.0127787080285538</v>
       </c>
-      <c r="Q71" s="8">
+      <c r="Q87" s="8">
         <f t="shared" si="5"/>
         <v>0.0131752886225434</v>
       </c>
-      <c r="R71" s="8">
+      <c r="R87" s="8">
         <f t="shared" si="5"/>
         <v>0.0151141270820481</v>
       </c>
-      <c r="S71" s="8">
+      <c r="S87" s="8">
         <f t="shared" si="5"/>
         <v>0.0156869657178109</v>
       </c>
-      <c r="T71" s="8">
+      <c r="T87" s="8">
         <f t="shared" si="5"/>
         <v>0.0141447078522958</v>
       </c>
-      <c r="U71" s="8">
+      <c r="U87" s="8">
         <f t="shared" si="5"/>
         <v>0.0145412884462854</v>
       </c>
-      <c r="V71" s="8">
+      <c r="V87" s="8">
         <f t="shared" si="5"/>
         <v>0.012205869392791</v>
       </c>
-      <c r="W71" s="8">
+      <c r="W87" s="8">
         <f t="shared" si="5"/>
         <v>0.0103110954437296</v>
       </c>
-      <c r="X71" s="8">
+      <c r="X87" s="8">
         <f t="shared" si="5"/>
         <v>0.0126024499867806</v>
       </c>
-      <c r="Y71" s="8"/>
-      <c r="Z71" s="8"/>
-      <c r="AA71" s="8"/>
-    </row>
-    <row r="72" spans="1:27">
-      <c r="A72" s="12">
-        <v>42638</v>
-      </c>
-      <c r="B72" s="10">
-        <v>6155</v>
-      </c>
-      <c r="C72" s="10">
-        <v>20802</v>
-      </c>
-      <c r="D72" s="8">
-        <f t="shared" si="2"/>
-        <v>0.186857032977598</v>
-      </c>
-      <c r="E72" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0576386885876358</v>
-      </c>
-      <c r="F72" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0374963945774445</v>
-      </c>
-      <c r="G72" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0270166330160561</v>
-      </c>
-      <c r="H72" s="8">
-        <f t="shared" ref="H72:W72" si="6">H6/$C6</f>
-        <v>0.024228439573118</v>
-      </c>
-      <c r="I72" s="8">
-        <f t="shared" si="6"/>
-        <v>0.0199500048072301</v>
-      </c>
-      <c r="J72" s="8">
-        <f t="shared" si="6"/>
-        <v>0.01841169118354</v>
-      </c>
-      <c r="K72" s="8">
-        <f t="shared" si="6"/>
-        <v>0.0141332564176521</v>
-      </c>
-      <c r="L72" s="8">
-        <f t="shared" si="6"/>
-        <v>0.0132679550043265</v>
-      </c>
-      <c r="M72" s="8">
-        <f t="shared" si="6"/>
-        <v>0.0122103643880396</v>
-      </c>
-      <c r="N72" s="8">
-        <f t="shared" si="6"/>
-        <v>0.0152389193346794</v>
-      </c>
-      <c r="O72" s="8">
-        <f t="shared" si="6"/>
-        <v>0.0154312085376406</v>
-      </c>
-      <c r="P72" s="8">
-        <f t="shared" si="6"/>
-        <v>0.0158638592443034</v>
-      </c>
-      <c r="Q72" s="8">
-        <f t="shared" si="6"/>
-        <v>0.0173541005672531</v>
-      </c>
-      <c r="R72" s="8">
-        <f t="shared" si="6"/>
-        <v>0.0169214498605903</v>
-      </c>
-      <c r="S72" s="8">
-        <f t="shared" si="6"/>
-        <v>0.0148062686280165</v>
-      </c>
-      <c r="T72" s="8">
-        <f t="shared" si="6"/>
-        <v>0.0137006057109893</v>
-      </c>
-      <c r="U72" s="8">
-        <f t="shared" si="6"/>
-        <v>0.0139409672146909</v>
-      </c>
-      <c r="V72" s="8">
-        <f t="shared" si="6"/>
-        <v>0.0149985578309778</v>
-      </c>
-      <c r="W72" s="8">
-        <f t="shared" si="6"/>
-        <v>0.00663397750216325</v>
-      </c>
-      <c r="X72" s="8"/>
-      <c r="Y72" s="8"/>
-      <c r="Z72" s="8"/>
-      <c r="AA72" s="8"/>
-    </row>
-    <row r="73" spans="1:27">
-      <c r="A73" s="12">
-        <v>42639</v>
-      </c>
-      <c r="B73" s="10">
-        <v>7225</v>
-      </c>
-      <c r="C73" s="10">
-        <v>17960</v>
-      </c>
-      <c r="D73" s="8">
-        <f t="shared" si="2"/>
-        <v>0.214755011135857</v>
-      </c>
-      <c r="E73" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0757238307349666</v>
-      </c>
-      <c r="F73" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0456570155902004</v>
-      </c>
-      <c r="G73" s="8">
-        <f t="shared" si="2"/>
-        <v>0.035022271714922</v>
-      </c>
-      <c r="H73" s="8">
-        <f t="shared" ref="H73:V73" si="7">H7/$C7</f>
-        <v>0.02728285077951</v>
-      </c>
-      <c r="I73" s="8">
-        <f t="shared" si="7"/>
-        <v>0.0126391982182628</v>
-      </c>
-      <c r="J73" s="8">
-        <f t="shared" si="7"/>
-        <v>0.0121380846325167</v>
-      </c>
-      <c r="K73" s="8">
-        <f t="shared" si="7"/>
-        <v>0.0121380846325167</v>
-      </c>
-      <c r="L73" s="8">
-        <f t="shared" si="7"/>
-        <v>0.0121380846325167</v>
-      </c>
-      <c r="M73" s="8">
-        <f t="shared" si="7"/>
-        <v>0.0126391982182628</v>
-      </c>
-      <c r="N73" s="8">
-        <f t="shared" si="7"/>
-        <v>0.0131403118040089</v>
-      </c>
-      <c r="O73" s="8">
-        <f t="shared" si="7"/>
-        <v>0.0168708240534521</v>
-      </c>
-      <c r="P73" s="8">
-        <f t="shared" si="7"/>
-        <v>0.0228285077951002</v>
-      </c>
-      <c r="Q73" s="8">
-        <f t="shared" si="7"/>
-        <v>0.0195991091314031</v>
-      </c>
-      <c r="R73" s="8">
-        <f t="shared" si="7"/>
-        <v>0.0193763919821826</v>
-      </c>
-      <c r="S73" s="8">
-        <f t="shared" si="7"/>
-        <v>0.021826280623608</v>
-      </c>
-      <c r="T73" s="8">
-        <f t="shared" si="7"/>
-        <v>0.0180957683741648</v>
-      </c>
-      <c r="U73" s="8">
-        <f t="shared" si="7"/>
-        <v>0.0158685968819599</v>
-      </c>
-      <c r="V73" s="8">
-        <f t="shared" si="7"/>
-        <v>0.0094097995545657</v>
-      </c>
-      <c r="W73" s="8"/>
-      <c r="X73" s="8"/>
-      <c r="Y73" s="8"/>
-      <c r="Z73" s="8"/>
-      <c r="AA73" s="8"/>
-    </row>
-    <row r="74" spans="1:27">
-      <c r="A74" s="12">
-        <v>42640</v>
-      </c>
-      <c r="B74" s="10">
-        <v>7907</v>
-      </c>
-      <c r="C74" s="10">
-        <v>18989</v>
-      </c>
-      <c r="D74" s="8">
-        <f t="shared" si="2"/>
-        <v>0.218863552583074</v>
-      </c>
-      <c r="E74" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0760966875559534</v>
-      </c>
-      <c r="F74" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0429722470904208</v>
-      </c>
-      <c r="G74" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0317025646426879</v>
-      </c>
-      <c r="H74" s="8">
-        <f t="shared" ref="H74:U74" si="8">H8/$C8</f>
-        <v>0.0145347306335247</v>
-      </c>
-      <c r="I74" s="8">
-        <f t="shared" si="8"/>
-        <v>0.0141134340934225</v>
-      </c>
-      <c r="J74" s="8">
-        <f t="shared" si="8"/>
-        <v>0.010795723840118</v>
-      </c>
-      <c r="K74" s="8">
-        <f t="shared" si="8"/>
-        <v>0.0126915582705777</v>
-      </c>
-      <c r="L74" s="8">
-        <f t="shared" si="8"/>
-        <v>0.011480330717784</v>
-      </c>
-      <c r="M74" s="8">
-        <f t="shared" si="8"/>
-        <v>0.0129022065406288</v>
-      </c>
-      <c r="N74" s="8">
-        <f t="shared" si="8"/>
-        <v>0.0173784822792143</v>
-      </c>
-      <c r="O74" s="8">
-        <f t="shared" si="8"/>
-        <v>0.0258044130812576</v>
-      </c>
-      <c r="P74" s="8">
-        <f t="shared" si="8"/>
-        <v>0.0253831165411554</v>
-      </c>
-      <c r="Q74" s="8">
-        <f t="shared" si="8"/>
-        <v>0.0260677234188214</v>
-      </c>
-      <c r="R74" s="8">
-        <f t="shared" si="8"/>
-        <v>0.0241718889883617</v>
-      </c>
-      <c r="S74" s="8">
-        <f t="shared" si="8"/>
-        <v>0.0215914476802359</v>
-      </c>
-      <c r="T74" s="8">
-        <f t="shared" si="8"/>
-        <v>0.0175891305492654</v>
-      </c>
-      <c r="U74" s="8">
-        <f t="shared" si="8"/>
-        <v>0.00963715835483701</v>
-      </c>
-      <c r="V74" s="8"/>
-      <c r="W74" s="8"/>
-      <c r="X74" s="8"/>
-      <c r="Y74" s="8"/>
-      <c r="Z74" s="8"/>
-      <c r="AA74" s="8"/>
-    </row>
-    <row r="75" spans="1:27">
-      <c r="A75" s="12">
-        <v>42641</v>
-      </c>
-      <c r="B75" s="10">
-        <v>8476</v>
-      </c>
-      <c r="C75" s="10">
-        <v>20105</v>
-      </c>
-      <c r="D75" s="8">
-        <f t="shared" si="2"/>
-        <v>0.217955732404874</v>
-      </c>
-      <c r="E75" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0782889828400895</v>
-      </c>
-      <c r="F75" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0445660283511564</v>
-      </c>
-      <c r="G75" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0175578214374534</v>
-      </c>
-      <c r="H75" s="8">
-        <f t="shared" ref="H75:T75" si="9">H9/$C9</f>
-        <v>0.0130813230539667</v>
-      </c>
-      <c r="I75" s="8">
-        <f t="shared" si="9"/>
-        <v>0.0144242725690127</v>
-      </c>
-      <c r="J75" s="8">
-        <f t="shared" si="9"/>
-        <v>0.0141755782143745</v>
-      </c>
-      <c r="K75" s="8">
-        <f t="shared" si="9"/>
-        <v>0.0141755782143745</v>
-      </c>
-      <c r="L75" s="8">
-        <f t="shared" si="9"/>
-        <v>0.01531957224571</v>
-      </c>
-      <c r="M75" s="8">
-        <f t="shared" si="9"/>
-        <v>0.0141755782143745</v>
-      </c>
-      <c r="N75" s="8">
-        <f t="shared" si="9"/>
-        <v>0.0284008952996767</v>
-      </c>
-      <c r="O75" s="8">
-        <f t="shared" si="9"/>
-        <v>0.0246207411091768</v>
-      </c>
-      <c r="P75" s="8">
-        <f t="shared" si="9"/>
-        <v>0.0232777915941308</v>
-      </c>
-      <c r="Q75" s="8">
-        <f t="shared" si="9"/>
-        <v>0.0217358865953743</v>
-      </c>
-      <c r="R75" s="8">
-        <f t="shared" si="9"/>
-        <v>0.022183536433723</v>
-      </c>
-      <c r="S75" s="8">
-        <f t="shared" si="9"/>
-        <v>0.0194976374036309</v>
-      </c>
-      <c r="T75" s="8">
-        <f t="shared" si="9"/>
-        <v>0.0115394180552101</v>
-      </c>
-      <c r="U75" s="8"/>
-      <c r="V75" s="8"/>
-      <c r="W75" s="8"/>
-      <c r="X75" s="8"/>
-      <c r="Y75" s="8"/>
-      <c r="Z75" s="8"/>
-      <c r="AA75" s="8"/>
-    </row>
-    <row r="76" spans="1:27">
-      <c r="A76" s="12">
-        <v>42642</v>
-      </c>
-      <c r="B76" s="10">
-        <v>5932</v>
-      </c>
-      <c r="C76" s="10">
-        <v>12395</v>
-      </c>
-      <c r="D76" s="8">
-        <f t="shared" si="2"/>
-        <v>0.128438886647842</v>
-      </c>
-      <c r="E76" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0734167002823719</v>
-      </c>
-      <c r="F76" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0305768455022186</v>
-      </c>
-      <c r="G76" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0233965308592174</v>
-      </c>
-      <c r="H76" s="8">
-        <f t="shared" ref="H76:S76" si="10">H10/$C10</f>
-        <v>0.0233965308592174</v>
-      </c>
-      <c r="I76" s="8">
-        <f t="shared" si="10"/>
-        <v>0.027672448567971</v>
-      </c>
-      <c r="J76" s="8">
-        <f t="shared" si="10"/>
-        <v>0.0305768455022186</v>
-      </c>
-      <c r="K76" s="8">
-        <f t="shared" si="10"/>
-        <v>0.0308995562726906</v>
-      </c>
-      <c r="L76" s="8">
-        <f t="shared" si="10"/>
-        <v>0.0323517547398144</v>
-      </c>
-      <c r="M76" s="8">
-        <f t="shared" si="10"/>
-        <v>0.054296087131908</v>
-      </c>
-      <c r="N76" s="8">
-        <f t="shared" si="10"/>
-        <v>0.045663574021783</v>
-      </c>
-      <c r="O76" s="8">
-        <f t="shared" si="10"/>
-        <v>0.0467930617184349</v>
-      </c>
-      <c r="P76" s="8">
-        <f t="shared" si="10"/>
-        <v>0.045663574021783</v>
-      </c>
-      <c r="Q76" s="8">
-        <f t="shared" si="10"/>
-        <v>0.0449374747882211</v>
-      </c>
-      <c r="R76" s="8">
-        <f t="shared" si="10"/>
-        <v>0.0417103670835014</v>
-      </c>
-      <c r="S76" s="8">
-        <f t="shared" si="10"/>
-        <v>0.0222670431625656</v>
-      </c>
-      <c r="T76" s="8"/>
-      <c r="U76" s="8"/>
-      <c r="V76" s="8"/>
-      <c r="W76" s="8"/>
-      <c r="X76" s="8"/>
-      <c r="Y76" s="8"/>
-      <c r="Z76" s="8"/>
-      <c r="AA76" s="8"/>
-    </row>
-    <row r="77" spans="1:27">
-      <c r="A77" s="12">
-        <v>42643</v>
-      </c>
-      <c r="B77" s="10">
-        <v>5639</v>
-      </c>
-      <c r="C77" s="10">
-        <v>17478</v>
-      </c>
-      <c r="D77" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0869664721364</v>
-      </c>
-      <c r="E77" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0550978372811535</v>
-      </c>
-      <c r="F77" s="8">
-        <f t="shared" si="2"/>
-        <v>0.033699507952855</v>
-      </c>
-      <c r="G77" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0339283670900561</v>
-      </c>
-      <c r="H77" s="8">
-        <f t="shared" ref="H77:R77" si="11">H11/$C11</f>
-        <v>0.0362169584620666</v>
-      </c>
-      <c r="I77" s="8">
-        <f t="shared" si="11"/>
-        <v>0.0328985009726513</v>
-      </c>
-      <c r="J77" s="8">
-        <f t="shared" si="11"/>
-        <v>0.0326696418354503</v>
-      </c>
-      <c r="K77" s="8">
-        <f t="shared" si="11"/>
-        <v>0.0341572262272571</v>
-      </c>
-      <c r="L77" s="8">
-        <f t="shared" si="11"/>
-        <v>0.053038105046344</v>
-      </c>
-      <c r="M77" s="8">
-        <f t="shared" si="11"/>
-        <v>0.0451424648129077</v>
-      </c>
-      <c r="N77" s="8">
-        <f t="shared" si="11"/>
-        <v>0.0418240073234924</v>
-      </c>
-      <c r="O77" s="8">
-        <f t="shared" si="11"/>
-        <v>0.0385055498340771</v>
-      </c>
-      <c r="P77" s="8">
-        <f t="shared" si="11"/>
-        <v>0.0370179654422703</v>
-      </c>
-      <c r="Q77" s="8">
-        <f t="shared" si="11"/>
-        <v>0.0359880993248655</v>
-      </c>
-      <c r="R77" s="8">
-        <f t="shared" si="11"/>
-        <v>0.0188808788190869</v>
-      </c>
-      <c r="S77" s="8"/>
-      <c r="T77" s="8"/>
-      <c r="U77" s="8"/>
-      <c r="V77" s="8"/>
-      <c r="W77" s="8"/>
-      <c r="X77" s="8"/>
-      <c r="Y77" s="8"/>
-      <c r="Z77" s="8"/>
-      <c r="AA77" s="8"/>
-    </row>
-    <row r="78" spans="1:27">
-      <c r="A78" s="12">
-        <v>42644</v>
-      </c>
-      <c r="B78" s="10">
-        <v>4997</v>
-      </c>
-      <c r="C78" s="10">
-        <v>25536</v>
-      </c>
-      <c r="D78" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0798088972431078</v>
-      </c>
-      <c r="E78" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0536889097744361</v>
-      </c>
-      <c r="F78" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0348135964912281</v>
-      </c>
-      <c r="G78" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0328164160401003</v>
-      </c>
-      <c r="H78" s="8">
-        <f t="shared" ref="H78:Q78" si="12">H12/$C12</f>
-        <v>0.0282738095238095</v>
-      </c>
-      <c r="I78" s="8">
-        <f t="shared" si="12"/>
-        <v>0.0305059523809524</v>
-      </c>
-      <c r="J78" s="8">
-        <f t="shared" si="12"/>
-        <v>0.0322290100250627</v>
-      </c>
-      <c r="K78" s="8">
-        <f t="shared" si="12"/>
-        <v>0.0336387844611529</v>
-      </c>
-      <c r="L78" s="8">
-        <f t="shared" si="12"/>
-        <v>0.0302709899749373</v>
-      </c>
-      <c r="M78" s="8">
-        <f t="shared" si="12"/>
-        <v>0.0273339598997494</v>
-      </c>
-      <c r="N78" s="8">
-        <f t="shared" si="12"/>
-        <v>0.0251018170426065</v>
-      </c>
-      <c r="O78" s="8">
-        <f t="shared" si="12"/>
-        <v>0.0259241854636591</v>
-      </c>
-      <c r="P78" s="8">
-        <f t="shared" si="12"/>
-        <v>0.0246318922305764</v>
-      </c>
-      <c r="Q78" s="8">
-        <f t="shared" si="12"/>
-        <v>0.0142935463659148</v>
-      </c>
-      <c r="R78" s="8"/>
-      <c r="S78" s="8"/>
-      <c r="T78" s="8"/>
-      <c r="U78" s="8"/>
-      <c r="V78" s="8"/>
-      <c r="W78" s="8"/>
-      <c r="X78" s="8"/>
-      <c r="Y78" s="8"/>
-      <c r="Z78" s="8"/>
-      <c r="AA78" s="8"/>
-    </row>
-    <row r="79" spans="1:27">
-      <c r="A79" s="12">
-        <v>42645</v>
-      </c>
-      <c r="B79" s="10">
-        <v>5445</v>
-      </c>
-      <c r="C79" s="10">
-        <v>23506</v>
-      </c>
-      <c r="D79" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0823619501403897</v>
-      </c>
-      <c r="E79" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0517314728154514</v>
-      </c>
-      <c r="F79" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0373096230749596</v>
-      </c>
-      <c r="G79" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0346294563090275</v>
-      </c>
-      <c r="H79" s="8">
-        <f t="shared" ref="H79:P79" si="13">H13/$C13</f>
-        <v>0.0314813239172977</v>
-      </c>
-      <c r="I79" s="8">
-        <f t="shared" si="13"/>
-        <v>0.0313536969284438</v>
-      </c>
-      <c r="J79" s="8">
-        <f t="shared" si="13"/>
-        <v>0.0312260699395899</v>
-      </c>
-      <c r="K79" s="8">
-        <f t="shared" si="13"/>
-        <v>0.0294392920956352</v>
-      </c>
-      <c r="L79" s="8">
-        <f t="shared" si="13"/>
-        <v>0.0216540457755467</v>
-      </c>
-      <c r="M79" s="8">
-        <f t="shared" si="13"/>
-        <v>0.0252276014634561</v>
-      </c>
-      <c r="N79" s="8">
-        <f t="shared" si="13"/>
-        <v>0.023951331574917</v>
-      </c>
-      <c r="O79" s="8">
-        <f t="shared" si="13"/>
-        <v>0.0221645537309623</v>
-      </c>
-      <c r="P79" s="8">
-        <f t="shared" si="13"/>
-        <v>0.011358802007998</v>
-      </c>
-      <c r="Q79" s="8"/>
-      <c r="R79" s="8"/>
-      <c r="S79" s="8"/>
-      <c r="T79" s="8"/>
-      <c r="U79" s="8"/>
-      <c r="V79" s="8"/>
-      <c r="W79" s="8"/>
-      <c r="X79" s="8"/>
-      <c r="Y79" s="8"/>
-      <c r="Z79" s="8"/>
-      <c r="AA79" s="8"/>
-    </row>
-    <row r="80" spans="1:27">
-      <c r="A80" s="12">
-        <v>42646</v>
-      </c>
-      <c r="B80" s="10">
-        <v>5927</v>
-      </c>
-      <c r="C80" s="10">
-        <v>21729</v>
-      </c>
-      <c r="D80" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0790648442174053</v>
-      </c>
-      <c r="E80" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0621749735376686</v>
-      </c>
-      <c r="F80" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0391182290947582</v>
-      </c>
-      <c r="G80" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0346081273873625</v>
-      </c>
-      <c r="H80" s="8">
-        <f t="shared" ref="H80:O80" si="14">H14/$C14</f>
-        <v>0.036955221133048</v>
-      </c>
-      <c r="I80" s="8">
-        <f t="shared" si="14"/>
-        <v>0.0326752266556215</v>
-      </c>
-      <c r="J80" s="8">
-        <f t="shared" si="14"/>
-        <v>0.0279810391642505</v>
-      </c>
-      <c r="K80" s="8">
-        <f t="shared" si="14"/>
-        <v>0.0260481384325096</v>
-      </c>
-      <c r="L80" s="8">
-        <f t="shared" si="14"/>
-        <v>0.0252197524046206</v>
-      </c>
-      <c r="M80" s="8">
-        <f t="shared" si="14"/>
-        <v>0.0220442726310461</v>
-      </c>
-      <c r="N80" s="8">
-        <f t="shared" si="14"/>
-        <v>0.0282571678402135</v>
-      </c>
-      <c r="O80" s="8">
-        <f t="shared" si="14"/>
-        <v>0.0130700906622486</v>
-      </c>
-      <c r="P80" s="8"/>
-      <c r="Q80" s="8"/>
-      <c r="R80" s="8"/>
-      <c r="S80" s="8"/>
-      <c r="T80" s="8"/>
-      <c r="U80" s="8"/>
-      <c r="V80" s="8"/>
-      <c r="W80" s="8"/>
-      <c r="X80" s="8"/>
-      <c r="Y80" s="8"/>
-      <c r="Z80" s="8"/>
-      <c r="AA80" s="8"/>
-    </row>
-    <row r="81" spans="1:27">
-      <c r="A81" s="12">
-        <v>42647</v>
-      </c>
-      <c r="B81" s="10">
-        <v>6788</v>
-      </c>
-      <c r="C81" s="10">
-        <v>20979</v>
-      </c>
-      <c r="D81" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0839410839410839</v>
-      </c>
-      <c r="E81" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0611087277753944</v>
-      </c>
-      <c r="F81" s="8">
-        <f t="shared" si="2"/>
-        <v>0.045664712331379</v>
-      </c>
-      <c r="G81" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0420897087563754</v>
-      </c>
-      <c r="H81" s="8">
-        <f t="shared" ref="H81:N81" si="15">H15/$C15</f>
-        <v>0.0402307068973736</v>
-      </c>
-      <c r="I81" s="8">
-        <f t="shared" si="15"/>
-        <v>0.0341293674627008</v>
-      </c>
-      <c r="J81" s="8">
-        <f t="shared" si="15"/>
-        <v>0.0335573668907002</v>
-      </c>
-      <c r="K81" s="8">
-        <f t="shared" si="15"/>
-        <v>0.0331283664616998</v>
-      </c>
-      <c r="L81" s="8">
-        <f t="shared" si="15"/>
-        <v>0.0326993660326994</v>
-      </c>
-      <c r="M81" s="8">
-        <f t="shared" si="15"/>
-        <v>0.0259783593116926</v>
-      </c>
-      <c r="N81" s="8">
-        <f t="shared" si="15"/>
-        <v>0.0149673483006816</v>
-      </c>
-      <c r="O81" s="8"/>
-      <c r="P81" s="8"/>
-      <c r="Q81" s="8"/>
-      <c r="R81" s="8"/>
-      <c r="S81" s="8"/>
-      <c r="T81" s="8"/>
-      <c r="U81" s="8"/>
-      <c r="V81" s="8"/>
-      <c r="W81" s="8"/>
-      <c r="X81" s="8"/>
-      <c r="Y81" s="8"/>
-      <c r="Z81" s="8"/>
-      <c r="AA81" s="8"/>
-    </row>
-    <row r="82" spans="1:27">
-      <c r="A82" s="12">
-        <v>42648</v>
-      </c>
-      <c r="B82" s="10">
-        <v>7564</v>
-      </c>
-      <c r="C82" s="10">
-        <v>20491</v>
-      </c>
-      <c r="D82" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0898931238104534</v>
-      </c>
-      <c r="E82" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0685178859011273</v>
-      </c>
-      <c r="F82" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0493875359914109</v>
-      </c>
-      <c r="G82" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0479234786003611</v>
-      </c>
-      <c r="H82" s="8">
-        <f t="shared" ref="H82:M82" si="16">H16/$C16</f>
-        <v>0.0372846615587331</v>
-      </c>
-      <c r="I82" s="8">
-        <f t="shared" si="16"/>
-        <v>0.0406519935581475</v>
-      </c>
-      <c r="J82" s="8">
-        <f t="shared" si="16"/>
-        <v>0.0346493582548436</v>
-      </c>
-      <c r="K82" s="8">
-        <f t="shared" si="16"/>
-        <v>0.0356741984285784</v>
-      </c>
-      <c r="L82" s="8">
-        <f t="shared" si="16"/>
-        <v>0.0346493582548436</v>
-      </c>
-      <c r="M82" s="8">
-        <f t="shared" si="16"/>
-        <v>0.0186911326924015</v>
-      </c>
-      <c r="N82" s="8"/>
-      <c r="O82" s="8"/>
-      <c r="P82" s="8"/>
-      <c r="Q82" s="8"/>
-      <c r="R82" s="8"/>
-      <c r="S82" s="8"/>
-      <c r="T82" s="8"/>
-      <c r="U82" s="8"/>
-      <c r="V82" s="8"/>
-      <c r="W82" s="8"/>
-      <c r="X82" s="8"/>
-      <c r="Y82" s="8"/>
-      <c r="Z82" s="8"/>
-      <c r="AA82" s="8"/>
-    </row>
-    <row r="83" spans="1:27">
-      <c r="A83" s="12">
-        <v>42649</v>
-      </c>
-      <c r="B83" s="10">
-        <v>8693</v>
-      </c>
-      <c r="C83" s="10">
-        <v>21431</v>
-      </c>
-      <c r="D83" s="8">
-        <f t="shared" si="2"/>
-        <v>0.10116186832159</v>
-      </c>
-      <c r="E83" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0689188558630022</v>
-      </c>
-      <c r="F83" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0559936540525407</v>
-      </c>
-      <c r="G83" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0397088329989268</v>
-      </c>
-      <c r="H83" s="8">
-        <f t="shared" ref="H83:L83" si="17">H17/$C17</f>
-        <v>0.039802155755681</v>
-      </c>
-      <c r="I83" s="8">
-        <f t="shared" si="17"/>
-        <v>0.0402687695394522</v>
-      </c>
-      <c r="J83" s="8">
-        <f t="shared" si="17"/>
-        <v>0.0349960337828379</v>
-      </c>
-      <c r="K83" s="8">
-        <f t="shared" si="17"/>
-        <v>0.0321496897018338</v>
-      </c>
-      <c r="L83" s="8">
-        <f t="shared" si="17"/>
-        <v>0.0349493724044608</v>
-      </c>
-      <c r="M83" s="8"/>
-      <c r="N83" s="8"/>
-      <c r="O83" s="8"/>
-      <c r="P83" s="8"/>
-      <c r="Q83" s="8"/>
-      <c r="R83" s="8"/>
-      <c r="S83" s="8"/>
-      <c r="T83" s="8"/>
-      <c r="U83" s="8"/>
-      <c r="V83" s="8"/>
-      <c r="W83" s="8"/>
-      <c r="X83" s="8"/>
-      <c r="Y83" s="8"/>
-      <c r="Z83" s="8"/>
-      <c r="AA83" s="8"/>
-    </row>
-    <row r="84" spans="1:27">
-      <c r="A84" s="12">
-        <v>42650</v>
-      </c>
-      <c r="B84" s="10">
-        <v>9715</v>
-      </c>
-      <c r="C84" s="10">
-        <v>20625</v>
-      </c>
-      <c r="D84" s="8">
-        <f t="shared" si="2"/>
-        <v>0.104824242424242</v>
-      </c>
-      <c r="E84" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0765575757575758</v>
-      </c>
-      <c r="F84" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0584242424242424</v>
-      </c>
-      <c r="G84" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0528969696969697</v>
-      </c>
-      <c r="H84" s="8">
-        <f t="shared" ref="H84:K84" si="18">H18/$C18</f>
-        <v>0.0460606060606061</v>
-      </c>
-      <c r="I84" s="8">
-        <f t="shared" si="18"/>
-        <v>0.0453818181818182</v>
-      </c>
-      <c r="J84" s="8">
-        <f t="shared" si="18"/>
-        <v>0.0399515151515152</v>
-      </c>
-      <c r="K84" s="8">
-        <f t="shared" si="18"/>
-        <v>0.0224969696969697</v>
-      </c>
-      <c r="L84" s="8"/>
-      <c r="M84" s="8"/>
-      <c r="N84" s="8"/>
-      <c r="O84" s="8"/>
-      <c r="P84" s="8"/>
-      <c r="Q84" s="8"/>
-      <c r="R84" s="8"/>
-      <c r="S84" s="8"/>
-      <c r="T84" s="8"/>
-      <c r="U84" s="8"/>
-      <c r="V84" s="8"/>
-      <c r="W84" s="8"/>
-      <c r="X84" s="8"/>
-      <c r="Y84" s="8"/>
-      <c r="Z84" s="8"/>
-      <c r="AA84" s="8"/>
-    </row>
-    <row r="85" spans="1:27">
-      <c r="A85" s="12">
-        <v>42651</v>
-      </c>
-      <c r="B85" s="10">
-        <v>13854</v>
-      </c>
-      <c r="C85" s="10">
-        <v>21036</v>
-      </c>
-      <c r="D85" s="8">
-        <f t="shared" si="2"/>
-        <v>0.14218482601255</v>
-      </c>
-      <c r="E85" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0935539075869937</v>
-      </c>
-      <c r="F85" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0724472333143183</v>
-      </c>
-      <c r="G85" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0629397223806807</v>
-      </c>
-      <c r="H85" s="8">
-        <f t="shared" ref="H85:J85" si="19">H19/$C19</f>
-        <v>0.0596596311085758</v>
-      </c>
-      <c r="I85" s="8">
-        <f t="shared" si="19"/>
-        <v>0.0536698992203841</v>
-      </c>
-      <c r="J85" s="8">
-        <f t="shared" si="19"/>
-        <v>0.0505324206122837</v>
-      </c>
-      <c r="K85" s="8"/>
-      <c r="L85" s="8"/>
-      <c r="M85" s="8"/>
-      <c r="N85" s="8"/>
-      <c r="O85" s="8"/>
-      <c r="P85" s="8"/>
-      <c r="Q85" s="8"/>
-      <c r="R85" s="8"/>
-      <c r="S85" s="8"/>
-      <c r="T85" s="8"/>
-      <c r="U85" s="8"/>
-      <c r="V85" s="8"/>
-      <c r="W85" s="8"/>
-      <c r="X85" s="8"/>
-      <c r="Y85" s="8"/>
-      <c r="Z85" s="8"/>
-      <c r="AA85" s="8"/>
-    </row>
-    <row r="86" spans="1:27">
-      <c r="A86" s="12">
-        <v>42652</v>
-      </c>
-      <c r="B86" s="10">
-        <v>15843</v>
-      </c>
-      <c r="C86" s="10">
-        <v>21928</v>
-      </c>
-      <c r="D86" s="8">
-        <f t="shared" si="2"/>
-        <v>0.139730025538125</v>
-      </c>
-      <c r="E86" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0920740605618387</v>
-      </c>
-      <c r="F86" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0724644290404962</v>
-      </c>
-      <c r="G86" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0617019336008756</v>
-      </c>
-      <c r="H86" s="8">
-        <f t="shared" ref="H86:I86" si="20">H20/$C20</f>
-        <v>0.0560014593214155</v>
-      </c>
-      <c r="I86" s="8">
-        <f t="shared" si="20"/>
-        <v>0.0510762495439621</v>
-      </c>
-      <c r="J86" s="8"/>
-      <c r="K86" s="8"/>
-      <c r="L86" s="8"/>
-      <c r="M86" s="8"/>
-      <c r="N86" s="8"/>
-      <c r="O86" s="8"/>
-      <c r="P86" s="8"/>
-      <c r="Q86" s="8"/>
-      <c r="R86" s="8"/>
-      <c r="S86" s="8"/>
-      <c r="T86" s="8"/>
-      <c r="U86" s="8"/>
-      <c r="V86" s="8"/>
-      <c r="W86" s="8"/>
-      <c r="X86" s="8"/>
-      <c r="Y86" s="8"/>
-      <c r="Z86" s="8"/>
-      <c r="AA86" s="8"/>
-    </row>
-    <row r="87" spans="1:27">
-      <c r="A87" s="12">
-        <v>42653</v>
-      </c>
-      <c r="B87" s="10">
-        <v>16920</v>
-      </c>
-      <c r="C87" s="10">
-        <v>21853</v>
-      </c>
-      <c r="D87" s="8">
-        <f t="shared" si="2"/>
-        <v>0.13160664439665</v>
-      </c>
-      <c r="E87" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0966000091520615</v>
-      </c>
-      <c r="F87" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0728961698622615</v>
-      </c>
-      <c r="G87" s="8">
-        <f t="shared" si="2"/>
-        <v>0.0652084382007047</v>
-      </c>
-      <c r="H87" s="8">
-        <f t="shared" ref="H87" si="21">H21/$C21</f>
-        <v>0.0566055003889626</v>
-      </c>
-      <c r="I87" s="8"/>
-      <c r="J87" s="8"/>
-      <c r="K87" s="8"/>
-      <c r="L87" s="8"/>
-      <c r="M87" s="8"/>
-      <c r="N87" s="8"/>
-      <c r="O87" s="8"/>
-      <c r="P87" s="8"/>
-      <c r="Q87" s="8"/>
-      <c r="R87" s="8"/>
-      <c r="S87" s="8"/>
-      <c r="T87" s="8"/>
-      <c r="U87" s="8"/>
-      <c r="V87" s="8"/>
-      <c r="W87" s="8"/>
-      <c r="X87" s="8"/>
       <c r="Y87" s="8"/>
       <c r="Z87" s="8"/>
       <c r="AA87" s="8"/>
     </row>
     <row r="88" spans="1:27">
       <c r="A88" s="12">
-        <v>42654</v>
+        <v>42638</v>
       </c>
       <c r="B88" s="10">
-        <v>17663</v>
+        <v>6155</v>
       </c>
       <c r="C88" s="10">
-        <v>23646</v>
+        <v>20802</v>
       </c>
       <c r="D88" s="8">
         <f t="shared" si="2"/>
-        <v>0.121246722490062</v>
+        <v>0.186857032977598</v>
       </c>
       <c r="E88" s="8">
         <f t="shared" si="2"/>
-        <v>0.0843694493783304</v>
+        <v>0.0576386885876358</v>
       </c>
       <c r="F88" s="8">
         <f t="shared" si="2"/>
-        <v>0.0672841072485833</v>
+        <v>0.0374963945774445</v>
       </c>
       <c r="G88" s="8">
         <f t="shared" si="2"/>
-        <v>0.0586991457328935</v>
-      </c>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="8"/>
-      <c r="M88" s="8"/>
-      <c r="N88" s="8"/>
-      <c r="O88" s="8"/>
-      <c r="P88" s="8"/>
-      <c r="Q88" s="8"/>
-      <c r="R88" s="8"/>
-      <c r="S88" s="8"/>
-      <c r="T88" s="8"/>
-      <c r="U88" s="8"/>
-      <c r="V88" s="8"/>
-      <c r="W88" s="8"/>
+        <v>0.0270166330160561</v>
+      </c>
+      <c r="H88" s="8">
+        <f t="shared" ref="H88:W88" si="6">H6/$C6</f>
+        <v>0.024228439573118</v>
+      </c>
+      <c r="I88" s="8">
+        <f t="shared" si="6"/>
+        <v>0.0199500048072301</v>
+      </c>
+      <c r="J88" s="8">
+        <f t="shared" si="6"/>
+        <v>0.01841169118354</v>
+      </c>
+      <c r="K88" s="8">
+        <f t="shared" si="6"/>
+        <v>0.0141332564176521</v>
+      </c>
+      <c r="L88" s="8">
+        <f t="shared" si="6"/>
+        <v>0.0132679550043265</v>
+      </c>
+      <c r="M88" s="8">
+        <f t="shared" si="6"/>
+        <v>0.0122103643880396</v>
+      </c>
+      <c r="N88" s="8">
+        <f t="shared" si="6"/>
+        <v>0.0152389193346794</v>
+      </c>
+      <c r="O88" s="8">
+        <f t="shared" si="6"/>
+        <v>0.0154312085376406</v>
+      </c>
+      <c r="P88" s="8">
+        <f t="shared" si="6"/>
+        <v>0.0158638592443034</v>
+      </c>
+      <c r="Q88" s="8">
+        <f t="shared" si="6"/>
+        <v>0.0173541005672531</v>
+      </c>
+      <c r="R88" s="8">
+        <f t="shared" si="6"/>
+        <v>0.0169214498605903</v>
+      </c>
+      <c r="S88" s="8">
+        <f t="shared" si="6"/>
+        <v>0.0148062686280165</v>
+      </c>
+      <c r="T88" s="8">
+        <f t="shared" si="6"/>
+        <v>0.0137006057109893</v>
+      </c>
+      <c r="U88" s="8">
+        <f t="shared" si="6"/>
+        <v>0.0139409672146909</v>
+      </c>
+      <c r="V88" s="8">
+        <f t="shared" si="6"/>
+        <v>0.0149985578309778</v>
+      </c>
+      <c r="W88" s="8">
+        <f t="shared" si="6"/>
+        <v>0.00663397750216325</v>
+      </c>
       <c r="X88" s="8"/>
       <c r="Y88" s="8"/>
       <c r="Z88" s="8"/>
@@ -10487,42 +10836,90 @@
     </row>
     <row r="89" spans="1:27">
       <c r="A89" s="12">
-        <v>42655</v>
+        <v>42639</v>
       </c>
       <c r="B89" s="10">
-        <v>17998</v>
+        <v>7225</v>
       </c>
       <c r="C89" s="10">
-        <v>23354</v>
+        <v>17960</v>
       </c>
       <c r="D89" s="8">
         <f t="shared" si="2"/>
-        <v>0.10940310011133</v>
+        <v>0.214755011135857</v>
       </c>
       <c r="E89" s="8">
         <f t="shared" si="2"/>
-        <v>0.0830692814935343</v>
+        <v>0.0757238307349666</v>
       </c>
       <c r="F89" s="8">
         <f t="shared" si="2"/>
-        <v>0.0655562216322686</v>
-      </c>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="8"/>
-      <c r="L89" s="8"/>
-      <c r="M89" s="8"/>
-      <c r="N89" s="8"/>
-      <c r="O89" s="8"/>
-      <c r="P89" s="8"/>
-      <c r="Q89" s="8"/>
-      <c r="R89" s="8"/>
-      <c r="S89" s="8"/>
-      <c r="T89" s="8"/>
-      <c r="U89" s="8"/>
-      <c r="V89" s="8"/>
+        <v>0.0456570155902004</v>
+      </c>
+      <c r="G89" s="8">
+        <f t="shared" si="2"/>
+        <v>0.035022271714922</v>
+      </c>
+      <c r="H89" s="8">
+        <f t="shared" ref="H89:V89" si="7">H7/$C7</f>
+        <v>0.02728285077951</v>
+      </c>
+      <c r="I89" s="8">
+        <f t="shared" si="7"/>
+        <v>0.0126391982182628</v>
+      </c>
+      <c r="J89" s="8">
+        <f t="shared" si="7"/>
+        <v>0.0121380846325167</v>
+      </c>
+      <c r="K89" s="8">
+        <f t="shared" si="7"/>
+        <v>0.0121380846325167</v>
+      </c>
+      <c r="L89" s="8">
+        <f t="shared" si="7"/>
+        <v>0.0121380846325167</v>
+      </c>
+      <c r="M89" s="8">
+        <f t="shared" si="7"/>
+        <v>0.0126391982182628</v>
+      </c>
+      <c r="N89" s="8">
+        <f t="shared" si="7"/>
+        <v>0.0131403118040089</v>
+      </c>
+      <c r="O89" s="8">
+        <f t="shared" si="7"/>
+        <v>0.0168708240534521</v>
+      </c>
+      <c r="P89" s="8">
+        <f t="shared" si="7"/>
+        <v>0.0228285077951002</v>
+      </c>
+      <c r="Q89" s="8">
+        <f t="shared" si="7"/>
+        <v>0.0195991091314031</v>
+      </c>
+      <c r="R89" s="8">
+        <f t="shared" si="7"/>
+        <v>0.0193763919821826</v>
+      </c>
+      <c r="S89" s="8">
+        <f t="shared" si="7"/>
+        <v>0.021826280623608</v>
+      </c>
+      <c r="T89" s="8">
+        <f t="shared" si="7"/>
+        <v>0.0180957683741648</v>
+      </c>
+      <c r="U89" s="8">
+        <f t="shared" si="7"/>
+        <v>0.0158685968819599</v>
+      </c>
+      <c r="V89" s="8">
+        <f t="shared" si="7"/>
+        <v>0.0094097995545657</v>
+      </c>
       <c r="W89" s="8"/>
       <c r="X89" s="8"/>
       <c r="Y89" s="8"/>
@@ -10531,38 +10928,86 @@
     </row>
     <row r="90" spans="1:27">
       <c r="A90" s="12">
-        <v>42656</v>
+        <v>42640</v>
       </c>
       <c r="B90" s="10">
-        <v>18796</v>
+        <v>7907</v>
       </c>
       <c r="C90" s="10">
-        <v>24420</v>
+        <v>18989</v>
       </c>
       <c r="D90" s="8">
         <f t="shared" si="2"/>
-        <v>0.107125307125307</v>
+        <v>0.218863552583074</v>
       </c>
       <c r="E90" s="8">
         <f t="shared" si="2"/>
-        <v>0.117813267813268</v>
-      </c>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="8"/>
-      <c r="L90" s="8"/>
-      <c r="M90" s="8"/>
-      <c r="N90" s="8"/>
-      <c r="O90" s="8"/>
-      <c r="P90" s="8"/>
-      <c r="Q90" s="8"/>
-      <c r="R90" s="8"/>
-      <c r="S90" s="8"/>
-      <c r="T90" s="8"/>
-      <c r="U90" s="8"/>
+        <v>0.0760966875559534</v>
+      </c>
+      <c r="F90" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0429722470904208</v>
+      </c>
+      <c r="G90" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0317025646426879</v>
+      </c>
+      <c r="H90" s="8">
+        <f t="shared" ref="H90:U90" si="8">H8/$C8</f>
+        <v>0.0145347306335247</v>
+      </c>
+      <c r="I90" s="8">
+        <f t="shared" si="8"/>
+        <v>0.0141134340934225</v>
+      </c>
+      <c r="J90" s="8">
+        <f t="shared" si="8"/>
+        <v>0.010795723840118</v>
+      </c>
+      <c r="K90" s="8">
+        <f t="shared" si="8"/>
+        <v>0.0126915582705777</v>
+      </c>
+      <c r="L90" s="8">
+        <f t="shared" si="8"/>
+        <v>0.011480330717784</v>
+      </c>
+      <c r="M90" s="8">
+        <f t="shared" si="8"/>
+        <v>0.0129022065406288</v>
+      </c>
+      <c r="N90" s="8">
+        <f t="shared" si="8"/>
+        <v>0.0173784822792143</v>
+      </c>
+      <c r="O90" s="8">
+        <f t="shared" si="8"/>
+        <v>0.0258044130812576</v>
+      </c>
+      <c r="P90" s="8">
+        <f t="shared" si="8"/>
+        <v>0.0253831165411554</v>
+      </c>
+      <c r="Q90" s="8">
+        <f t="shared" si="8"/>
+        <v>0.0260677234188214</v>
+      </c>
+      <c r="R90" s="8">
+        <f t="shared" si="8"/>
+        <v>0.0241718889883617</v>
+      </c>
+      <c r="S90" s="8">
+        <f t="shared" si="8"/>
+        <v>0.0215914476802359</v>
+      </c>
+      <c r="T90" s="8">
+        <f t="shared" si="8"/>
+        <v>0.0175891305492654</v>
+      </c>
+      <c r="U90" s="8">
+        <f t="shared" si="8"/>
+        <v>0.00963715835483701</v>
+      </c>
       <c r="V90" s="8"/>
       <c r="W90" s="8"/>
       <c r="X90" s="8"/>
@@ -10572,34 +11017,82 @@
     </row>
     <row r="91" spans="1:27">
       <c r="A91" s="12">
-        <v>42657</v>
+        <v>42641</v>
       </c>
       <c r="B91" s="10">
-        <v>19813</v>
+        <v>8476</v>
       </c>
       <c r="C91" s="10">
-        <v>26989</v>
+        <v>20105</v>
       </c>
       <c r="D91" s="8">
         <f t="shared" si="2"/>
-        <v>0.104931638815814</v>
-      </c>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
-      <c r="M91" s="8"/>
-      <c r="N91" s="8"/>
-      <c r="O91" s="8"/>
-      <c r="P91" s="8"/>
-      <c r="Q91" s="8"/>
-      <c r="R91" s="8"/>
-      <c r="S91" s="8"/>
-      <c r="T91" s="8"/>
+        <v>0.217955732404874</v>
+      </c>
+      <c r="E91" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0782889828400895</v>
+      </c>
+      <c r="F91" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0445660283511564</v>
+      </c>
+      <c r="G91" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0175578214374534</v>
+      </c>
+      <c r="H91" s="8">
+        <f t="shared" ref="H91:T91" si="9">H9/$C9</f>
+        <v>0.0130813230539667</v>
+      </c>
+      <c r="I91" s="8">
+        <f t="shared" si="9"/>
+        <v>0.0144242725690127</v>
+      </c>
+      <c r="J91" s="8">
+        <f t="shared" si="9"/>
+        <v>0.0141755782143745</v>
+      </c>
+      <c r="K91" s="8">
+        <f t="shared" si="9"/>
+        <v>0.0141755782143745</v>
+      </c>
+      <c r="L91" s="8">
+        <f t="shared" si="9"/>
+        <v>0.01531957224571</v>
+      </c>
+      <c r="M91" s="8">
+        <f t="shared" si="9"/>
+        <v>0.0141755782143745</v>
+      </c>
+      <c r="N91" s="8">
+        <f t="shared" si="9"/>
+        <v>0.0284008952996767</v>
+      </c>
+      <c r="O91" s="8">
+        <f t="shared" si="9"/>
+        <v>0.0246207411091768</v>
+      </c>
+      <c r="P91" s="8">
+        <f t="shared" si="9"/>
+        <v>0.0232777915941308</v>
+      </c>
+      <c r="Q91" s="8">
+        <f t="shared" si="9"/>
+        <v>0.0217358865953743</v>
+      </c>
+      <c r="R91" s="8">
+        <f t="shared" si="9"/>
+        <v>0.022183536433723</v>
+      </c>
+      <c r="S91" s="8">
+        <f t="shared" si="9"/>
+        <v>0.0194976374036309</v>
+      </c>
+      <c r="T91" s="8">
+        <f t="shared" si="9"/>
+        <v>0.0115394180552101</v>
+      </c>
       <c r="U91" s="8"/>
       <c r="V91" s="8"/>
       <c r="W91" s="8"/>
@@ -10608,8 +11101,976 @@
       <c r="Z91" s="8"/>
       <c r="AA91" s="8"/>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:27">
       <c r="A92" s="12">
+        <v>42642</v>
+      </c>
+      <c r="B92" s="10">
+        <v>5932</v>
+      </c>
+      <c r="C92" s="10">
+        <v>12395</v>
+      </c>
+      <c r="D92" s="8">
+        <f t="shared" si="2"/>
+        <v>0.128438886647842</v>
+      </c>
+      <c r="E92" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0734167002823719</v>
+      </c>
+      <c r="F92" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0305768455022186</v>
+      </c>
+      <c r="G92" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0233965308592174</v>
+      </c>
+      <c r="H92" s="8">
+        <f t="shared" ref="H92:S92" si="10">H10/$C10</f>
+        <v>0.0233965308592174</v>
+      </c>
+      <c r="I92" s="8">
+        <f t="shared" si="10"/>
+        <v>0.027672448567971</v>
+      </c>
+      <c r="J92" s="8">
+        <f t="shared" si="10"/>
+        <v>0.0305768455022186</v>
+      </c>
+      <c r="K92" s="8">
+        <f t="shared" si="10"/>
+        <v>0.0308995562726906</v>
+      </c>
+      <c r="L92" s="8">
+        <f t="shared" si="10"/>
+        <v>0.0323517547398144</v>
+      </c>
+      <c r="M92" s="8">
+        <f t="shared" si="10"/>
+        <v>0.054296087131908</v>
+      </c>
+      <c r="N92" s="8">
+        <f t="shared" si="10"/>
+        <v>0.045663574021783</v>
+      </c>
+      <c r="O92" s="8">
+        <f t="shared" si="10"/>
+        <v>0.0467930617184349</v>
+      </c>
+      <c r="P92" s="8">
+        <f t="shared" si="10"/>
+        <v>0.045663574021783</v>
+      </c>
+      <c r="Q92" s="8">
+        <f t="shared" si="10"/>
+        <v>0.0449374747882211</v>
+      </c>
+      <c r="R92" s="8">
+        <f t="shared" si="10"/>
+        <v>0.0417103670835014</v>
+      </c>
+      <c r="S92" s="8">
+        <f t="shared" si="10"/>
+        <v>0.0222670431625656</v>
+      </c>
+      <c r="T92" s="8"/>
+      <c r="U92" s="8"/>
+      <c r="V92" s="8"/>
+      <c r="W92" s="8"/>
+      <c r="X92" s="8"/>
+      <c r="Y92" s="8"/>
+      <c r="Z92" s="8"/>
+      <c r="AA92" s="8"/>
+    </row>
+    <row r="93" spans="1:27">
+      <c r="A93" s="12">
+        <v>42643</v>
+      </c>
+      <c r="B93" s="10">
+        <v>5639</v>
+      </c>
+      <c r="C93" s="10">
+        <v>17478</v>
+      </c>
+      <c r="D93" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0869664721364</v>
+      </c>
+      <c r="E93" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0550978372811535</v>
+      </c>
+      <c r="F93" s="8">
+        <f t="shared" si="2"/>
+        <v>0.033699507952855</v>
+      </c>
+      <c r="G93" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0339283670900561</v>
+      </c>
+      <c r="H93" s="8">
+        <f t="shared" ref="H93:R93" si="11">H11/$C11</f>
+        <v>0.0362169584620666</v>
+      </c>
+      <c r="I93" s="8">
+        <f t="shared" si="11"/>
+        <v>0.0328985009726513</v>
+      </c>
+      <c r="J93" s="8">
+        <f t="shared" si="11"/>
+        <v>0.0326696418354503</v>
+      </c>
+      <c r="K93" s="8">
+        <f t="shared" si="11"/>
+        <v>0.0341572262272571</v>
+      </c>
+      <c r="L93" s="8">
+        <f t="shared" si="11"/>
+        <v>0.053038105046344</v>
+      </c>
+      <c r="M93" s="8">
+        <f t="shared" si="11"/>
+        <v>0.0451424648129077</v>
+      </c>
+      <c r="N93" s="8">
+        <f t="shared" si="11"/>
+        <v>0.0418240073234924</v>
+      </c>
+      <c r="O93" s="8">
+        <f t="shared" si="11"/>
+        <v>0.0385055498340771</v>
+      </c>
+      <c r="P93" s="8">
+        <f t="shared" si="11"/>
+        <v>0.0370179654422703</v>
+      </c>
+      <c r="Q93" s="8">
+        <f t="shared" si="11"/>
+        <v>0.0359880993248655</v>
+      </c>
+      <c r="R93" s="8">
+        <f t="shared" si="11"/>
+        <v>0.0188808788190869</v>
+      </c>
+      <c r="S93" s="8"/>
+      <c r="T93" s="8"/>
+      <c r="U93" s="8"/>
+      <c r="V93" s="8"/>
+      <c r="W93" s="8"/>
+      <c r="X93" s="8"/>
+      <c r="Y93" s="8"/>
+      <c r="Z93" s="8"/>
+      <c r="AA93" s="8"/>
+    </row>
+    <row r="94" spans="1:27">
+      <c r="A94" s="12">
+        <v>42644</v>
+      </c>
+      <c r="B94" s="10">
+        <v>4997</v>
+      </c>
+      <c r="C94" s="10">
+        <v>25536</v>
+      </c>
+      <c r="D94" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0798088972431078</v>
+      </c>
+      <c r="E94" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0536889097744361</v>
+      </c>
+      <c r="F94" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0348135964912281</v>
+      </c>
+      <c r="G94" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0328164160401003</v>
+      </c>
+      <c r="H94" s="8">
+        <f t="shared" ref="H94:Q94" si="12">H12/$C12</f>
+        <v>0.0282738095238095</v>
+      </c>
+      <c r="I94" s="8">
+        <f t="shared" si="12"/>
+        <v>0.0305059523809524</v>
+      </c>
+      <c r="J94" s="8">
+        <f t="shared" si="12"/>
+        <v>0.0322290100250627</v>
+      </c>
+      <c r="K94" s="8">
+        <f t="shared" si="12"/>
+        <v>0.0336387844611529</v>
+      </c>
+      <c r="L94" s="8">
+        <f t="shared" si="12"/>
+        <v>0.0302709899749373</v>
+      </c>
+      <c r="M94" s="8">
+        <f t="shared" si="12"/>
+        <v>0.0273339598997494</v>
+      </c>
+      <c r="N94" s="8">
+        <f t="shared" si="12"/>
+        <v>0.0251018170426065</v>
+      </c>
+      <c r="O94" s="8">
+        <f t="shared" si="12"/>
+        <v>0.0259241854636591</v>
+      </c>
+      <c r="P94" s="8">
+        <f t="shared" si="12"/>
+        <v>0.0246318922305764</v>
+      </c>
+      <c r="Q94" s="8">
+        <f t="shared" si="12"/>
+        <v>0.0142935463659148</v>
+      </c>
+      <c r="R94" s="8"/>
+      <c r="S94" s="8"/>
+      <c r="T94" s="8"/>
+      <c r="U94" s="8"/>
+      <c r="V94" s="8"/>
+      <c r="W94" s="8"/>
+      <c r="X94" s="8"/>
+      <c r="Y94" s="8"/>
+      <c r="Z94" s="8"/>
+      <c r="AA94" s="8"/>
+    </row>
+    <row r="95" spans="1:27">
+      <c r="A95" s="12">
+        <v>42645</v>
+      </c>
+      <c r="B95" s="10">
+        <v>5445</v>
+      </c>
+      <c r="C95" s="10">
+        <v>23506</v>
+      </c>
+      <c r="D95" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0823619501403897</v>
+      </c>
+      <c r="E95" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0517314728154514</v>
+      </c>
+      <c r="F95" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0373096230749596</v>
+      </c>
+      <c r="G95" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0346294563090275</v>
+      </c>
+      <c r="H95" s="8">
+        <f t="shared" ref="H95:P95" si="13">H13/$C13</f>
+        <v>0.0314813239172977</v>
+      </c>
+      <c r="I95" s="8">
+        <f t="shared" si="13"/>
+        <v>0.0313536969284438</v>
+      </c>
+      <c r="J95" s="8">
+        <f t="shared" si="13"/>
+        <v>0.0312260699395899</v>
+      </c>
+      <c r="K95" s="8">
+        <f t="shared" si="13"/>
+        <v>0.0294392920956352</v>
+      </c>
+      <c r="L95" s="8">
+        <f t="shared" si="13"/>
+        <v>0.0216540457755467</v>
+      </c>
+      <c r="M95" s="8">
+        <f t="shared" si="13"/>
+        <v>0.0252276014634561</v>
+      </c>
+      <c r="N95" s="8">
+        <f t="shared" si="13"/>
+        <v>0.023951331574917</v>
+      </c>
+      <c r="O95" s="8">
+        <f t="shared" si="13"/>
+        <v>0.0221645537309623</v>
+      </c>
+      <c r="P95" s="8">
+        <f t="shared" si="13"/>
+        <v>0.011358802007998</v>
+      </c>
+      <c r="Q95" s="8"/>
+      <c r="R95" s="8"/>
+      <c r="S95" s="8"/>
+      <c r="T95" s="8"/>
+      <c r="U95" s="8"/>
+      <c r="V95" s="8"/>
+      <c r="W95" s="8"/>
+      <c r="X95" s="8"/>
+      <c r="Y95" s="8"/>
+      <c r="Z95" s="8"/>
+      <c r="AA95" s="8"/>
+    </row>
+    <row r="96" spans="1:27">
+      <c r="A96" s="12">
+        <v>42646</v>
+      </c>
+      <c r="B96" s="10">
+        <v>5927</v>
+      </c>
+      <c r="C96" s="10">
+        <v>21729</v>
+      </c>
+      <c r="D96" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0790648442174053</v>
+      </c>
+      <c r="E96" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0621749735376686</v>
+      </c>
+      <c r="F96" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0391182290947582</v>
+      </c>
+      <c r="G96" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0346081273873625</v>
+      </c>
+      <c r="H96" s="8">
+        <f t="shared" ref="H96:O96" si="14">H14/$C14</f>
+        <v>0.036955221133048</v>
+      </c>
+      <c r="I96" s="8">
+        <f t="shared" si="14"/>
+        <v>0.0326752266556215</v>
+      </c>
+      <c r="J96" s="8">
+        <f t="shared" si="14"/>
+        <v>0.0279810391642505</v>
+      </c>
+      <c r="K96" s="8">
+        <f t="shared" si="14"/>
+        <v>0.0260481384325096</v>
+      </c>
+      <c r="L96" s="8">
+        <f t="shared" si="14"/>
+        <v>0.0252197524046206</v>
+      </c>
+      <c r="M96" s="8">
+        <f t="shared" si="14"/>
+        <v>0.0220442726310461</v>
+      </c>
+      <c r="N96" s="8">
+        <f t="shared" si="14"/>
+        <v>0.0282571678402135</v>
+      </c>
+      <c r="O96" s="8">
+        <f t="shared" si="14"/>
+        <v>0.0130700906622486</v>
+      </c>
+      <c r="P96" s="8"/>
+      <c r="Q96" s="8"/>
+      <c r="R96" s="8"/>
+      <c r="S96" s="8"/>
+      <c r="T96" s="8"/>
+      <c r="U96" s="8"/>
+      <c r="V96" s="8"/>
+      <c r="W96" s="8"/>
+      <c r="X96" s="8"/>
+      <c r="Y96" s="8"/>
+      <c r="Z96" s="8"/>
+      <c r="AA96" s="8"/>
+    </row>
+    <row r="97" spans="1:27">
+      <c r="A97" s="12">
+        <v>42647</v>
+      </c>
+      <c r="B97" s="10">
+        <v>6788</v>
+      </c>
+      <c r="C97" s="10">
+        <v>20979</v>
+      </c>
+      <c r="D97" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0839410839410839</v>
+      </c>
+      <c r="E97" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0611087277753944</v>
+      </c>
+      <c r="F97" s="8">
+        <f t="shared" si="2"/>
+        <v>0.045664712331379</v>
+      </c>
+      <c r="G97" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0420897087563754</v>
+      </c>
+      <c r="H97" s="8">
+        <f t="shared" ref="H97:N97" si="15">H15/$C15</f>
+        <v>0.0402307068973736</v>
+      </c>
+      <c r="I97" s="8">
+        <f t="shared" si="15"/>
+        <v>0.0341293674627008</v>
+      </c>
+      <c r="J97" s="8">
+        <f t="shared" si="15"/>
+        <v>0.0335573668907002</v>
+      </c>
+      <c r="K97" s="8">
+        <f t="shared" si="15"/>
+        <v>0.0331283664616998</v>
+      </c>
+      <c r="L97" s="8">
+        <f t="shared" si="15"/>
+        <v>0.0326993660326994</v>
+      </c>
+      <c r="M97" s="8">
+        <f t="shared" si="15"/>
+        <v>0.0259783593116926</v>
+      </c>
+      <c r="N97" s="8">
+        <f t="shared" si="15"/>
+        <v>0.0149673483006816</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c r="P97" s="8"/>
+      <c r="Q97" s="8"/>
+      <c r="R97" s="8"/>
+      <c r="S97" s="8"/>
+      <c r="T97" s="8"/>
+      <c r="U97" s="8"/>
+      <c r="V97" s="8"/>
+      <c r="W97" s="8"/>
+      <c r="X97" s="8"/>
+      <c r="Y97" s="8"/>
+      <c r="Z97" s="8"/>
+      <c r="AA97" s="8"/>
+    </row>
+    <row r="98" spans="1:27">
+      <c r="A98" s="12">
+        <v>42648</v>
+      </c>
+      <c r="B98" s="10">
+        <v>7564</v>
+      </c>
+      <c r="C98" s="10">
+        <v>20491</v>
+      </c>
+      <c r="D98" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0898931238104534</v>
+      </c>
+      <c r="E98" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0685178859011273</v>
+      </c>
+      <c r="F98" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0493875359914109</v>
+      </c>
+      <c r="G98" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0479234786003611</v>
+      </c>
+      <c r="H98" s="8">
+        <f t="shared" ref="H98:M98" si="16">H16/$C16</f>
+        <v>0.0372846615587331</v>
+      </c>
+      <c r="I98" s="8">
+        <f t="shared" si="16"/>
+        <v>0.0406519935581475</v>
+      </c>
+      <c r="J98" s="8">
+        <f t="shared" si="16"/>
+        <v>0.0346493582548436</v>
+      </c>
+      <c r="K98" s="8">
+        <f t="shared" si="16"/>
+        <v>0.0356741984285784</v>
+      </c>
+      <c r="L98" s="8">
+        <f t="shared" si="16"/>
+        <v>0.0346493582548436</v>
+      </c>
+      <c r="M98" s="8">
+        <f t="shared" si="16"/>
+        <v>0.0186911326924015</v>
+      </c>
+      <c r="N98" s="8"/>
+      <c r="O98" s="8"/>
+      <c r="P98" s="8"/>
+      <c r="Q98" s="8"/>
+      <c r="R98" s="8"/>
+      <c r="S98" s="8"/>
+      <c r="T98" s="8"/>
+      <c r="U98" s="8"/>
+      <c r="V98" s="8"/>
+      <c r="W98" s="8"/>
+      <c r="X98" s="8"/>
+      <c r="Y98" s="8"/>
+      <c r="Z98" s="8"/>
+      <c r="AA98" s="8"/>
+    </row>
+    <row r="99" spans="1:27">
+      <c r="A99" s="12">
+        <v>42649</v>
+      </c>
+      <c r="B99" s="10">
+        <v>8693</v>
+      </c>
+      <c r="C99" s="10">
+        <v>21431</v>
+      </c>
+      <c r="D99" s="8">
+        <f t="shared" si="2"/>
+        <v>0.10116186832159</v>
+      </c>
+      <c r="E99" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0689188558630022</v>
+      </c>
+      <c r="F99" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0559936540525407</v>
+      </c>
+      <c r="G99" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0397088329989268</v>
+      </c>
+      <c r="H99" s="8">
+        <f t="shared" ref="H99:L99" si="17">H17/$C17</f>
+        <v>0.039802155755681</v>
+      </c>
+      <c r="I99" s="8">
+        <f t="shared" si="17"/>
+        <v>0.0402687695394522</v>
+      </c>
+      <c r="J99" s="8">
+        <f t="shared" si="17"/>
+        <v>0.0349960337828379</v>
+      </c>
+      <c r="K99" s="8">
+        <f t="shared" si="17"/>
+        <v>0.0321496897018338</v>
+      </c>
+      <c r="L99" s="8">
+        <f t="shared" si="17"/>
+        <v>0.0349493724044608</v>
+      </c>
+      <c r="M99" s="8"/>
+      <c r="N99" s="8"/>
+      <c r="O99" s="8"/>
+      <c r="P99" s="8"/>
+      <c r="Q99" s="8"/>
+      <c r="R99" s="8"/>
+      <c r="S99" s="8"/>
+      <c r="T99" s="8"/>
+      <c r="U99" s="8"/>
+      <c r="V99" s="8"/>
+      <c r="W99" s="8"/>
+      <c r="X99" s="8"/>
+      <c r="Y99" s="8"/>
+      <c r="Z99" s="8"/>
+      <c r="AA99" s="8"/>
+    </row>
+    <row r="100" spans="1:27">
+      <c r="A100" s="12">
+        <v>42650</v>
+      </c>
+      <c r="B100" s="10">
+        <v>9715</v>
+      </c>
+      <c r="C100" s="10">
+        <v>20625</v>
+      </c>
+      <c r="D100" s="8">
+        <f t="shared" si="2"/>
+        <v>0.104824242424242</v>
+      </c>
+      <c r="E100" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0765575757575758</v>
+      </c>
+      <c r="F100" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0584242424242424</v>
+      </c>
+      <c r="G100" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0528969696969697</v>
+      </c>
+      <c r="H100" s="8">
+        <f t="shared" ref="H100:K100" si="18">H18/$C18</f>
+        <v>0.0460606060606061</v>
+      </c>
+      <c r="I100" s="8">
+        <f t="shared" si="18"/>
+        <v>0.0453818181818182</v>
+      </c>
+      <c r="J100" s="8">
+        <f t="shared" si="18"/>
+        <v>0.0399515151515152</v>
+      </c>
+      <c r="K100" s="8">
+        <f t="shared" si="18"/>
+        <v>0.0224969696969697</v>
+      </c>
+      <c r="L100" s="8"/>
+      <c r="M100" s="8"/>
+      <c r="N100" s="8"/>
+      <c r="O100" s="8"/>
+      <c r="P100" s="8"/>
+      <c r="Q100" s="8"/>
+      <c r="R100" s="8"/>
+      <c r="S100" s="8"/>
+      <c r="T100" s="8"/>
+      <c r="U100" s="8"/>
+      <c r="V100" s="8"/>
+      <c r="W100" s="8"/>
+      <c r="X100" s="8"/>
+      <c r="Y100" s="8"/>
+      <c r="Z100" s="8"/>
+      <c r="AA100" s="8"/>
+    </row>
+    <row r="101" spans="1:27">
+      <c r="A101" s="12">
+        <v>42651</v>
+      </c>
+      <c r="B101" s="10">
+        <v>13854</v>
+      </c>
+      <c r="C101" s="10">
+        <v>21036</v>
+      </c>
+      <c r="D101" s="8">
+        <f t="shared" si="2"/>
+        <v>0.14218482601255</v>
+      </c>
+      <c r="E101" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0935539075869937</v>
+      </c>
+      <c r="F101" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0724472333143183</v>
+      </c>
+      <c r="G101" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0629397223806807</v>
+      </c>
+      <c r="H101" s="8">
+        <f t="shared" ref="H101:J101" si="19">H19/$C19</f>
+        <v>0.0596596311085758</v>
+      </c>
+      <c r="I101" s="8">
+        <f t="shared" si="19"/>
+        <v>0.0536698992203841</v>
+      </c>
+      <c r="J101" s="8">
+        <f t="shared" si="19"/>
+        <v>0.0505324206122837</v>
+      </c>
+      <c r="K101" s="8"/>
+      <c r="L101" s="8"/>
+      <c r="M101" s="8"/>
+      <c r="N101" s="8"/>
+      <c r="O101" s="8"/>
+      <c r="P101" s="8"/>
+      <c r="Q101" s="8"/>
+      <c r="R101" s="8"/>
+      <c r="S101" s="8"/>
+      <c r="T101" s="8"/>
+      <c r="U101" s="8"/>
+      <c r="V101" s="8"/>
+      <c r="W101" s="8"/>
+      <c r="X101" s="8"/>
+      <c r="Y101" s="8"/>
+      <c r="Z101" s="8"/>
+      <c r="AA101" s="8"/>
+    </row>
+    <row r="102" spans="1:27">
+      <c r="A102" s="12">
+        <v>42652</v>
+      </c>
+      <c r="B102" s="10">
+        <v>15843</v>
+      </c>
+      <c r="C102" s="10">
+        <v>21928</v>
+      </c>
+      <c r="D102" s="8">
+        <f t="shared" si="2"/>
+        <v>0.139730025538125</v>
+      </c>
+      <c r="E102" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0920740605618387</v>
+      </c>
+      <c r="F102" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0724644290404962</v>
+      </c>
+      <c r="G102" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0617019336008756</v>
+      </c>
+      <c r="H102" s="8">
+        <f t="shared" ref="H102:I102" si="20">H20/$C20</f>
+        <v>0.0560014593214155</v>
+      </c>
+      <c r="I102" s="8">
+        <f t="shared" si="20"/>
+        <v>0.0510762495439621</v>
+      </c>
+      <c r="J102" s="8"/>
+      <c r="K102" s="8"/>
+      <c r="L102" s="8"/>
+      <c r="M102" s="8"/>
+      <c r="N102" s="8"/>
+      <c r="O102" s="8"/>
+      <c r="P102" s="8"/>
+      <c r="Q102" s="8"/>
+      <c r="R102" s="8"/>
+      <c r="S102" s="8"/>
+      <c r="T102" s="8"/>
+      <c r="U102" s="8"/>
+      <c r="V102" s="8"/>
+      <c r="W102" s="8"/>
+      <c r="X102" s="8"/>
+      <c r="Y102" s="8"/>
+      <c r="Z102" s="8"/>
+      <c r="AA102" s="8"/>
+    </row>
+    <row r="103" spans="1:27">
+      <c r="A103" s="12">
+        <v>42653</v>
+      </c>
+      <c r="B103" s="10">
+        <v>16920</v>
+      </c>
+      <c r="C103" s="10">
+        <v>21853</v>
+      </c>
+      <c r="D103" s="8">
+        <f t="shared" si="2"/>
+        <v>0.13160664439665</v>
+      </c>
+      <c r="E103" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0966000091520615</v>
+      </c>
+      <c r="F103" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0728961698622615</v>
+      </c>
+      <c r="G103" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0652084382007047</v>
+      </c>
+      <c r="H103" s="8">
+        <f t="shared" ref="H103" si="21">H21/$C21</f>
+        <v>0.0566055003889626</v>
+      </c>
+      <c r="I103" s="8"/>
+      <c r="J103" s="8"/>
+      <c r="K103" s="8"/>
+      <c r="L103" s="8"/>
+      <c r="M103" s="8"/>
+      <c r="N103" s="8"/>
+      <c r="O103" s="8"/>
+      <c r="P103" s="8"/>
+      <c r="Q103" s="8"/>
+      <c r="R103" s="8"/>
+      <c r="S103" s="8"/>
+      <c r="T103" s="8"/>
+      <c r="U103" s="8"/>
+      <c r="V103" s="8"/>
+      <c r="W103" s="8"/>
+      <c r="X103" s="8"/>
+      <c r="Y103" s="8"/>
+      <c r="Z103" s="8"/>
+      <c r="AA103" s="8"/>
+    </row>
+    <row r="104" spans="1:27">
+      <c r="A104" s="12">
+        <v>42654</v>
+      </c>
+      <c r="B104" s="10">
+        <v>17663</v>
+      </c>
+      <c r="C104" s="10">
+        <v>23646</v>
+      </c>
+      <c r="D104" s="8">
+        <f t="shared" si="2"/>
+        <v>0.121246722490062</v>
+      </c>
+      <c r="E104" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0843694493783304</v>
+      </c>
+      <c r="F104" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0672841072485833</v>
+      </c>
+      <c r="G104" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0586991457328935</v>
+      </c>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="8"/>
+      <c r="K104" s="8"/>
+      <c r="L104" s="8"/>
+      <c r="M104" s="8"/>
+      <c r="N104" s="8"/>
+      <c r="O104" s="8"/>
+      <c r="P104" s="8"/>
+      <c r="Q104" s="8"/>
+      <c r="R104" s="8"/>
+      <c r="S104" s="8"/>
+      <c r="T104" s="8"/>
+      <c r="U104" s="8"/>
+      <c r="V104" s="8"/>
+      <c r="W104" s="8"/>
+      <c r="X104" s="8"/>
+      <c r="Y104" s="8"/>
+      <c r="Z104" s="8"/>
+      <c r="AA104" s="8"/>
+    </row>
+    <row r="105" spans="1:27">
+      <c r="A105" s="12">
+        <v>42655</v>
+      </c>
+      <c r="B105" s="10">
+        <v>17998</v>
+      </c>
+      <c r="C105" s="10">
+        <v>23354</v>
+      </c>
+      <c r="D105" s="8">
+        <f t="shared" si="2"/>
+        <v>0.10940310011133</v>
+      </c>
+      <c r="E105" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0830692814935343</v>
+      </c>
+      <c r="F105" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0655562216322686</v>
+      </c>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
+      <c r="K105" s="8"/>
+      <c r="L105" s="8"/>
+      <c r="M105" s="8"/>
+      <c r="N105" s="8"/>
+      <c r="O105" s="8"/>
+      <c r="P105" s="8"/>
+      <c r="Q105" s="8"/>
+      <c r="R105" s="8"/>
+      <c r="S105" s="8"/>
+      <c r="T105" s="8"/>
+      <c r="U105" s="8"/>
+      <c r="V105" s="8"/>
+      <c r="W105" s="8"/>
+      <c r="X105" s="8"/>
+      <c r="Y105" s="8"/>
+      <c r="Z105" s="8"/>
+      <c r="AA105" s="8"/>
+    </row>
+    <row r="106" spans="1:27">
+      <c r="A106" s="12">
+        <v>42656</v>
+      </c>
+      <c r="B106" s="10">
+        <v>18796</v>
+      </c>
+      <c r="C106" s="10">
+        <v>24420</v>
+      </c>
+      <c r="D106" s="8">
+        <f t="shared" si="2"/>
+        <v>0.107125307125307</v>
+      </c>
+      <c r="E106" s="8">
+        <f t="shared" si="2"/>
+        <v>0.117813267813268</v>
+      </c>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
+      <c r="K106" s="8"/>
+      <c r="L106" s="8"/>
+      <c r="M106" s="8"/>
+      <c r="N106" s="8"/>
+      <c r="O106" s="8"/>
+      <c r="P106" s="8"/>
+      <c r="Q106" s="8"/>
+      <c r="R106" s="8"/>
+      <c r="S106" s="8"/>
+      <c r="T106" s="8"/>
+      <c r="U106" s="8"/>
+      <c r="V106" s="8"/>
+      <c r="W106" s="8"/>
+      <c r="X106" s="8"/>
+      <c r="Y106" s="8"/>
+      <c r="Z106" s="8"/>
+      <c r="AA106" s="8"/>
+    </row>
+    <row r="107" spans="1:27">
+      <c r="A107" s="12">
+        <v>42657</v>
+      </c>
+      <c r="B107" s="10">
+        <v>19813</v>
+      </c>
+      <c r="C107" s="10">
+        <v>26989</v>
+      </c>
+      <c r="D107" s="8">
+        <f t="shared" si="2"/>
+        <v>0.104931638815814</v>
+      </c>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
+      <c r="K107" s="8"/>
+      <c r="L107" s="8"/>
+      <c r="M107" s="8"/>
+      <c r="N107" s="8"/>
+      <c r="O107" s="8"/>
+      <c r="P107" s="8"/>
+      <c r="Q107" s="8"/>
+      <c r="R107" s="8"/>
+      <c r="S107" s="8"/>
+      <c r="T107" s="8"/>
+      <c r="U107" s="8"/>
+      <c r="V107" s="8"/>
+      <c r="W107" s="8"/>
+      <c r="X107" s="8"/>
+      <c r="Y107" s="8"/>
+      <c r="Z107" s="8"/>
+      <c r="AA107" s="8"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="12">
         <v>42658</v>
       </c>
     </row>
@@ -10625,7 +12086,7 @@
   <sheetPr/>
   <dimension ref="A1:CV351"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
+    <sheetView topLeftCell="A124" workbookViewId="0">
       <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
@@ -76099,7 +77560,7 @@
   <sheetPr/>
   <dimension ref="A1:AH74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="B37" sqref="B37:E52"/>
     </sheetView>
   </sheetViews>
